--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cebollín.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cebollín.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R873"/>
+  <dimension ref="A1:R879"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E859" t="n">
         <v>13</v>
@@ -62205,16 +62205,16 @@
         </is>
       </c>
       <c r="J859" t="n">
-        <v>420</v>
+        <v>810</v>
       </c>
       <c r="K859" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="L859" t="n">
-        <v>2800</v>
+        <v>3300</v>
       </c>
       <c r="M859" t="n">
-        <v>2748</v>
+        <v>3163</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62223,11 +62223,11 @@
       </c>
       <c r="O859" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P859" t="n">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="Q859" t="n">
         <v>36</v>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E860" t="n">
         <v>13</v>
@@ -62273,20 +62273,20 @@
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J860" t="n">
-        <v>870</v>
+        <v>720</v>
       </c>
       <c r="K860" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L860" t="n">
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="M860" t="n">
-        <v>2429</v>
+        <v>3175</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
@@ -62299,7 +62299,7 @@
         </is>
       </c>
       <c r="P860" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="Q860" t="n">
         <v>36</v>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E861" t="n">
         <v>13</v>
@@ -62345,20 +62345,20 @@
       </c>
       <c r="I861" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J861" t="n">
-        <v>620</v>
+        <v>820</v>
       </c>
       <c r="K861" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="L861" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M861" t="n">
-        <v>2055</v>
+        <v>2390</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62367,11 +62367,11 @@
       </c>
       <c r="O861" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P861" t="n">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="Q861" t="n">
         <v>36</v>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E862" t="n">
         <v>13</v>
@@ -62417,20 +62417,20 @@
       </c>
       <c r="I862" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J862" t="n">
-        <v>440</v>
+        <v>860</v>
       </c>
       <c r="K862" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="L862" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M862" t="n">
-        <v>2800</v>
+        <v>2409</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62439,11 +62439,11 @@
       </c>
       <c r="O862" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P862" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="Q862" t="n">
         <v>36</v>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E863" t="n">
         <v>13</v>
@@ -62489,20 +62489,20 @@
       </c>
       <c r="I863" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J863" t="n">
-        <v>410</v>
+        <v>250</v>
       </c>
       <c r="K863" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="L863" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="M863" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
@@ -62511,11 +62511,11 @@
       </c>
       <c r="O863" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P863" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="Q863" t="n">
         <v>36</v>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E864" t="n">
         <v>13</v>
@@ -62561,20 +62561,20 @@
       </c>
       <c r="I864" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J864" t="n">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="K864" t="n">
-        <v>2600</v>
+        <v>1900</v>
       </c>
       <c r="L864" t="n">
-        <v>2600</v>
+        <v>1900</v>
       </c>
       <c r="M864" t="n">
-        <v>2600</v>
+        <v>1900</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62583,11 +62583,11 @@
       </c>
       <c r="O864" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P864" t="n">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="Q864" t="n">
         <v>36</v>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E865" t="n">
         <v>13</v>
@@ -62633,20 +62633,20 @@
       </c>
       <c r="I865" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J865" t="n">
-        <v>610</v>
+        <v>420</v>
       </c>
       <c r="K865" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="L865" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="M865" t="n">
-        <v>2561</v>
+        <v>2748</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62659,7 +62659,7 @@
         </is>
       </c>
       <c r="P865" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Q865" t="n">
         <v>36</v>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E866" t="n">
         <v>13</v>
@@ -62705,20 +62705,20 @@
       </c>
       <c r="I866" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J866" t="n">
-        <v>220</v>
+        <v>870</v>
       </c>
       <c r="K866" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="L866" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M866" t="n">
-        <v>2200</v>
+        <v>2429</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
@@ -62727,11 +62727,11 @@
       </c>
       <c r="O866" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P866" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="Q866" t="n">
         <v>36</v>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E867" t="n">
         <v>13</v>
@@ -62781,7 +62781,7 @@
         </is>
       </c>
       <c r="J867" t="n">
-        <v>430</v>
+        <v>620</v>
       </c>
       <c r="K867" t="n">
         <v>2000</v>
@@ -62790,7 +62790,7 @@
         <v>2200</v>
       </c>
       <c r="M867" t="n">
-        <v>2116</v>
+        <v>2055</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
@@ -62803,7 +62803,7 @@
         </is>
       </c>
       <c r="P867" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q867" t="n">
         <v>36</v>
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E868" t="n">
         <v>13</v>
@@ -62853,16 +62853,16 @@
         </is>
       </c>
       <c r="J868" t="n">
-        <v>310</v>
+        <v>440</v>
       </c>
       <c r="K868" t="n">
-        <v>3800</v>
+        <v>2800</v>
       </c>
       <c r="L868" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="M868" t="n">
-        <v>3903</v>
+        <v>2800</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
@@ -62871,11 +62871,11 @@
       </c>
       <c r="O868" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P868" t="n">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="Q868" t="n">
         <v>36</v>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E869" t="n">
         <v>13</v>
@@ -62921,20 +62921,20 @@
       </c>
       <c r="I869" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J869" t="n">
-        <v>480</v>
+        <v>410</v>
       </c>
       <c r="K869" t="n">
-        <v>3300</v>
+        <v>2800</v>
       </c>
       <c r="L869" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="M869" t="n">
-        <v>3412</v>
+        <v>2800</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
@@ -62947,7 +62947,7 @@
         </is>
       </c>
       <c r="P869" t="n">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="Q869" t="n">
         <v>36</v>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E870" t="n">
         <v>13</v>
@@ -62993,20 +62993,20 @@
       </c>
       <c r="I870" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J870" t="n">
-        <v>260</v>
+        <v>360</v>
       </c>
       <c r="K870" t="n">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="L870" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="M870" t="n">
-        <v>2415</v>
+        <v>2600</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63015,11 +63015,11 @@
       </c>
       <c r="O870" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P870" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="Q870" t="n">
         <v>36</v>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44400</v>
+        <v>44238</v>
       </c>
       <c r="E871" t="n">
         <v>13</v>
@@ -63065,20 +63065,20 @@
       </c>
       <c r="I871" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J871" t="n">
-        <v>150</v>
+        <v>610</v>
       </c>
       <c r="K871" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L871" t="n">
-        <v>4000</v>
+        <v>2600</v>
       </c>
       <c r="M871" t="n">
-        <v>4000</v>
+        <v>2561</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63091,7 +63091,7 @@
         </is>
       </c>
       <c r="P871" t="n">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="Q871" t="n">
         <v>36</v>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44400</v>
+        <v>44238</v>
       </c>
       <c r="E872" t="n">
         <v>13</v>
@@ -63137,20 +63137,20 @@
       </c>
       <c r="I872" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J872" t="n">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="K872" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="L872" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="M872" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63159,11 +63159,11 @@
       </c>
       <c r="O872" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P872" t="n">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="Q872" t="n">
         <v>36</v>
@@ -63189,58 +63189,490 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="E873" t="n">
+        <v>13</v>
+      </c>
+      <c r="F873" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G873" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H873" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I873" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J873" t="n">
+        <v>430</v>
+      </c>
+      <c r="K873" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L873" t="n">
+        <v>2200</v>
+      </c>
+      <c r="M873" t="n">
+        <v>2116</v>
+      </c>
+      <c r="N873" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O873" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P873" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q873" t="n">
+        <v>36</v>
+      </c>
+      <c r="R873" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="n">
+        <v>6</v>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D874" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E874" t="n">
+        <v>13</v>
+      </c>
+      <c r="F874" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G874" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H874" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I874" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J874" t="n">
+        <v>310</v>
+      </c>
+      <c r="K874" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L874" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M874" t="n">
+        <v>3903</v>
+      </c>
+      <c r="N874" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O874" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P874" t="n">
+        <v>108</v>
+      </c>
+      <c r="Q874" t="n">
+        <v>36</v>
+      </c>
+      <c r="R874" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>6</v>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D875" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E875" t="n">
+        <v>13</v>
+      </c>
+      <c r="F875" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G875" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H875" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I875" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J875" t="n">
+        <v>480</v>
+      </c>
+      <c r="K875" t="n">
+        <v>3300</v>
+      </c>
+      <c r="L875" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M875" t="n">
+        <v>3412</v>
+      </c>
+      <c r="N875" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O875" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P875" t="n">
+        <v>95</v>
+      </c>
+      <c r="Q875" t="n">
+        <v>36</v>
+      </c>
+      <c r="R875" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="n">
+        <v>6</v>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D876" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E876" t="n">
+        <v>13</v>
+      </c>
+      <c r="F876" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G876" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H876" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I876" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J876" t="n">
+        <v>260</v>
+      </c>
+      <c r="K876" t="n">
+        <v>2300</v>
+      </c>
+      <c r="L876" t="n">
+        <v>2500</v>
+      </c>
+      <c r="M876" t="n">
+        <v>2415</v>
+      </c>
+      <c r="N876" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O876" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P876" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q876" t="n">
+        <v>36</v>
+      </c>
+      <c r="R876" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="n">
+        <v>6</v>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D877" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E873" t="n">
-        <v>13</v>
-      </c>
-      <c r="F873" t="n">
-        <v>100112037</v>
-      </c>
-      <c r="G873" t="inlineStr">
-        <is>
-          <t>Cebollín</t>
-        </is>
-      </c>
-      <c r="H873" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I873" t="inlineStr">
+      <c r="E877" t="n">
+        <v>13</v>
+      </c>
+      <c r="F877" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G877" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H877" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I877" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J877" t="n">
+        <v>150</v>
+      </c>
+      <c r="K877" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L877" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M877" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N877" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O877" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P877" t="n">
+        <v>111</v>
+      </c>
+      <c r="Q877" t="n">
+        <v>36</v>
+      </c>
+      <c r="R877" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="n">
+        <v>6</v>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D878" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E878" t="n">
+        <v>13</v>
+      </c>
+      <c r="F878" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G878" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H878" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I878" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J878" t="n">
+        <v>330</v>
+      </c>
+      <c r="K878" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L878" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M878" t="n">
+        <v>3500</v>
+      </c>
+      <c r="N878" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O878" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P878" t="n">
+        <v>97</v>
+      </c>
+      <c r="Q878" t="n">
+        <v>36</v>
+      </c>
+      <c r="R878" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="n">
+        <v>6</v>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D879" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E879" t="n">
+        <v>13</v>
+      </c>
+      <c r="F879" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G879" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H879" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I879" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J873" t="n">
+      <c r="J879" t="n">
         <v>270</v>
       </c>
-      <c r="K873" t="n">
+      <c r="K879" t="n">
         <v>2500</v>
       </c>
-      <c r="L873" t="n">
+      <c r="L879" t="n">
         <v>2500</v>
       </c>
-      <c r="M873" t="n">
+      <c r="M879" t="n">
         <v>2500</v>
       </c>
-      <c r="N873" t="inlineStr">
-        <is>
-          <t>$/paquete 36 unidades</t>
-        </is>
-      </c>
-      <c r="O873" t="inlineStr">
+      <c r="N879" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O879" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P873" t="n">
+      <c r="P879" t="n">
         <v>69</v>
       </c>
-      <c r="Q873" t="n">
-        <v>36</v>
-      </c>
-      <c r="R873" t="inlineStr">
+      <c r="Q879" t="n">
+        <v>36</v>
+      </c>
+      <c r="R879" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cebollín.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cebollín.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R879"/>
+  <dimension ref="A1:R885"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57573,7 +57573,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E795" t="n">
         <v>13</v>
@@ -57597,16 +57597,16 @@
         </is>
       </c>
       <c r="J795" t="n">
-        <v>400</v>
+        <v>670</v>
       </c>
       <c r="K795" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L795" t="n">
-        <v>2600</v>
+        <v>3300</v>
       </c>
       <c r="M795" t="n">
-        <v>2560</v>
+        <v>3166</v>
       </c>
       <c r="N795" t="inlineStr">
         <is>
@@ -57615,11 +57615,11 @@
       </c>
       <c r="O795" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P795" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="Q795" t="n">
         <v>36</v>
@@ -57645,7 +57645,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E796" t="n">
         <v>13</v>
@@ -57665,20 +57665,20 @@
       </c>
       <c r="I796" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J796" t="n">
-        <v>820</v>
+        <v>680</v>
       </c>
       <c r="K796" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L796" t="n">
-        <v>2300</v>
+        <v>3300</v>
       </c>
       <c r="M796" t="n">
-        <v>2268</v>
+        <v>3172</v>
       </c>
       <c r="N796" t="inlineStr">
         <is>
@@ -57691,7 +57691,7 @@
         </is>
       </c>
       <c r="P796" t="n">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="Q796" t="n">
         <v>36</v>
@@ -57717,7 +57717,7 @@
         </is>
       </c>
       <c r="D797" s="2" t="n">
-        <v>44161</v>
+        <v>44449</v>
       </c>
       <c r="E797" t="n">
         <v>13</v>
@@ -57737,20 +57737,20 @@
       </c>
       <c r="I797" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J797" t="n">
-        <v>480</v>
+        <v>850</v>
       </c>
       <c r="K797" t="n">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="L797" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="M797" t="n">
-        <v>1975</v>
+        <v>2506</v>
       </c>
       <c r="N797" t="inlineStr">
         <is>
@@ -57759,11 +57759,11 @@
       </c>
       <c r="O797" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P797" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="Q797" t="n">
         <v>36</v>
@@ -57789,7 +57789,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E798" t="n">
         <v>13</v>
@@ -57809,20 +57809,20 @@
       </c>
       <c r="I798" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J798" t="n">
-        <v>350</v>
+        <v>790</v>
       </c>
       <c r="K798" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="L798" t="n">
-        <v>4000</v>
+        <v>2600</v>
       </c>
       <c r="M798" t="n">
-        <v>4000</v>
+        <v>2511</v>
       </c>
       <c r="N798" t="inlineStr">
         <is>
@@ -57831,11 +57831,11 @@
       </c>
       <c r="O798" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P798" t="n">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="Q798" t="n">
         <v>36</v>
@@ -57861,7 +57861,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E799" t="n">
         <v>13</v>
@@ -57881,20 +57881,20 @@
       </c>
       <c r="I799" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J799" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="K799" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="L799" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="M799" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
@@ -57903,11 +57903,11 @@
       </c>
       <c r="O799" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P799" t="n">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="Q799" t="n">
         <v>36</v>
@@ -57933,7 +57933,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44438</v>
+        <v>44449</v>
       </c>
       <c r="E800" t="n">
         <v>13</v>
@@ -57953,20 +57953,20 @@
       </c>
       <c r="I800" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J800" t="n">
-        <v>800</v>
+        <v>310</v>
       </c>
       <c r="K800" t="n">
-        <v>3000</v>
+        <v>1900</v>
       </c>
       <c r="L800" t="n">
-        <v>3200</v>
+        <v>1900</v>
       </c>
       <c r="M800" t="n">
-        <v>3105</v>
+        <v>1900</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
@@ -57975,11 +57975,11 @@
       </c>
       <c r="O800" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P800" t="n">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="Q800" t="n">
         <v>36</v>
@@ -58005,7 +58005,7 @@
         </is>
       </c>
       <c r="D801" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E801" t="n">
         <v>13</v>
@@ -58025,20 +58025,20 @@
       </c>
       <c r="I801" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J801" t="n">
-        <v>680</v>
+        <v>400</v>
       </c>
       <c r="K801" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L801" t="n">
-        <v>3300</v>
+        <v>2600</v>
       </c>
       <c r="M801" t="n">
-        <v>3185</v>
+        <v>2560</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
@@ -58051,7 +58051,7 @@
         </is>
       </c>
       <c r="P801" t="n">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="Q801" t="n">
         <v>36</v>
@@ -58077,7 +58077,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E802" t="n">
         <v>13</v>
@@ -58097,20 +58097,20 @@
       </c>
       <c r="I802" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J802" t="n">
-        <v>220</v>
+        <v>820</v>
       </c>
       <c r="K802" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="L802" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="M802" t="n">
-        <v>2500</v>
+        <v>2268</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
@@ -58119,11 +58119,11 @@
       </c>
       <c r="O802" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P802" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="Q802" t="n">
         <v>36</v>
@@ -58149,7 +58149,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44438</v>
+        <v>44161</v>
       </c>
       <c r="E803" t="n">
         <v>13</v>
@@ -58173,16 +58173,16 @@
         </is>
       </c>
       <c r="J803" t="n">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="K803" t="n">
-        <v>2400</v>
+        <v>1900</v>
       </c>
       <c r="L803" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="M803" t="n">
-        <v>2400</v>
+        <v>1975</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
@@ -58195,7 +58195,7 @@
         </is>
       </c>
       <c r="P803" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="Q803" t="n">
         <v>36</v>
@@ -58221,7 +58221,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E804" t="n">
         <v>13</v>
@@ -58241,20 +58241,20 @@
       </c>
       <c r="I804" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J804" t="n">
-        <v>580</v>
+        <v>350</v>
       </c>
       <c r="K804" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="L804" t="n">
         <v>4000</v>
       </c>
       <c r="M804" t="n">
-        <v>3924</v>
+        <v>4000</v>
       </c>
       <c r="N804" t="inlineStr">
         <is>
@@ -58267,7 +58267,7 @@
         </is>
       </c>
       <c r="P804" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q804" t="n">
         <v>36</v>
@@ -58293,7 +58293,7 @@
         </is>
       </c>
       <c r="D805" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E805" t="n">
         <v>13</v>
@@ -58313,11 +58313,11 @@
       </c>
       <c r="I805" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J805" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="K805" t="n">
         <v>4000</v>
@@ -58365,7 +58365,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E806" t="n">
         <v>13</v>
@@ -58385,20 +58385,20 @@
       </c>
       <c r="I806" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J806" t="n">
-        <v>390</v>
+        <v>800</v>
       </c>
       <c r="K806" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="L806" t="n">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="M806" t="n">
-        <v>3464</v>
+        <v>3105</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
@@ -58411,7 +58411,7 @@
         </is>
       </c>
       <c r="P806" t="n">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="Q806" t="n">
         <v>36</v>
@@ -58437,7 +58437,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44251</v>
+        <v>44438</v>
       </c>
       <c r="E807" t="n">
         <v>13</v>
@@ -58457,20 +58457,20 @@
       </c>
       <c r="I807" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J807" t="n">
-        <v>200</v>
+        <v>680</v>
       </c>
       <c r="K807" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L807" t="n">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="M807" t="n">
-        <v>3500</v>
+        <v>3185</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
@@ -58483,7 +58483,7 @@
         </is>
       </c>
       <c r="P807" t="n">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Q807" t="n">
         <v>36</v>
@@ -58509,7 +58509,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E808" t="n">
         <v>13</v>
@@ -58529,20 +58529,20 @@
       </c>
       <c r="I808" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J808" t="n">
-        <v>650</v>
+        <v>220</v>
       </c>
       <c r="K808" t="n">
-        <v>3700</v>
+        <v>2500</v>
       </c>
       <c r="L808" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="M808" t="n">
-        <v>3862</v>
+        <v>2500</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
@@ -58555,7 +58555,7 @@
         </is>
       </c>
       <c r="P808" t="n">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="Q808" t="n">
         <v>36</v>
@@ -58581,7 +58581,7 @@
         </is>
       </c>
       <c r="D809" s="2" t="n">
-        <v>44428</v>
+        <v>44438</v>
       </c>
       <c r="E809" t="n">
         <v>13</v>
@@ -58601,20 +58601,20 @@
       </c>
       <c r="I809" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J809" t="n">
-        <v>670</v>
+        <v>300</v>
       </c>
       <c r="K809" t="n">
-        <v>3800</v>
+        <v>2400</v>
       </c>
       <c r="L809" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="M809" t="n">
-        <v>3916</v>
+        <v>2400</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
@@ -58627,7 +58627,7 @@
         </is>
       </c>
       <c r="P809" t="n">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="Q809" t="n">
         <v>36</v>
@@ -58653,7 +58653,7 @@
         </is>
       </c>
       <c r="D810" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E810" t="n">
         <v>13</v>
@@ -58677,16 +58677,16 @@
         </is>
       </c>
       <c r="J810" t="n">
-        <v>730</v>
+        <v>580</v>
       </c>
       <c r="K810" t="n">
-        <v>2900</v>
+        <v>3800</v>
       </c>
       <c r="L810" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="M810" t="n">
-        <v>3064</v>
+        <v>3924</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
@@ -58699,7 +58699,7 @@
         </is>
       </c>
       <c r="P810" t="n">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="Q810" t="n">
         <v>36</v>
@@ -58725,7 +58725,7 @@
         </is>
       </c>
       <c r="D811" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E811" t="n">
         <v>13</v>
@@ -58749,16 +58749,16 @@
         </is>
       </c>
       <c r="J811" t="n">
-        <v>790</v>
+        <v>280</v>
       </c>
       <c r="K811" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L811" t="n">
-        <v>3300</v>
+        <v>4000</v>
       </c>
       <c r="M811" t="n">
-        <v>3167</v>
+        <v>4000</v>
       </c>
       <c r="N811" t="inlineStr">
         <is>
@@ -58771,7 +58771,7 @@
         </is>
       </c>
       <c r="P811" t="n">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="Q811" t="n">
         <v>36</v>
@@ -58797,7 +58797,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E812" t="n">
         <v>13</v>
@@ -58821,16 +58821,16 @@
         </is>
       </c>
       <c r="J812" t="n">
-        <v>250</v>
+        <v>390</v>
       </c>
       <c r="K812" t="n">
-        <v>2300</v>
+        <v>3400</v>
       </c>
       <c r="L812" t="n">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="M812" t="n">
-        <v>2300</v>
+        <v>3464</v>
       </c>
       <c r="N812" t="inlineStr">
         <is>
@@ -58843,7 +58843,7 @@
         </is>
       </c>
       <c r="P812" t="n">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="Q812" t="n">
         <v>36</v>
@@ -58869,7 +58869,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44428</v>
+        <v>44251</v>
       </c>
       <c r="E813" t="n">
         <v>13</v>
@@ -58893,16 +58893,16 @@
         </is>
       </c>
       <c r="J813" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="K813" t="n">
-        <v>2400</v>
+        <v>3500</v>
       </c>
       <c r="L813" t="n">
-        <v>2400</v>
+        <v>3500</v>
       </c>
       <c r="M813" t="n">
-        <v>2400</v>
+        <v>3500</v>
       </c>
       <c r="N813" t="inlineStr">
         <is>
@@ -58915,7 +58915,7 @@
         </is>
       </c>
       <c r="P813" t="n">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="Q813" t="n">
         <v>36</v>
@@ -58941,7 +58941,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E814" t="n">
         <v>13</v>
@@ -58965,16 +58965,16 @@
         </is>
       </c>
       <c r="J814" t="n">
-        <v>850</v>
+        <v>650</v>
       </c>
       <c r="K814" t="n">
-        <v>3200</v>
+        <v>3700</v>
       </c>
       <c r="L814" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M814" t="n">
-        <v>3355</v>
+        <v>3862</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
@@ -58987,7 +58987,7 @@
         </is>
       </c>
       <c r="P814" t="n">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="Q814" t="n">
         <v>36</v>
@@ -59013,7 +59013,7 @@
         </is>
       </c>
       <c r="D815" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E815" t="n">
         <v>13</v>
@@ -59037,16 +59037,16 @@
         </is>
       </c>
       <c r="J815" t="n">
-        <v>830</v>
+        <v>670</v>
       </c>
       <c r="K815" t="n">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="L815" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M815" t="n">
-        <v>3370</v>
+        <v>3916</v>
       </c>
       <c r="N815" t="inlineStr">
         <is>
@@ -59059,7 +59059,7 @@
         </is>
       </c>
       <c r="P815" t="n">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="Q815" t="n">
         <v>36</v>
@@ -59085,7 +59085,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E816" t="n">
         <v>13</v>
@@ -59109,16 +59109,16 @@
         </is>
       </c>
       <c r="J816" t="n">
-        <v>1020</v>
+        <v>730</v>
       </c>
       <c r="K816" t="n">
-        <v>2400</v>
+        <v>2900</v>
       </c>
       <c r="L816" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="M816" t="n">
-        <v>2604</v>
+        <v>3064</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
@@ -59131,7 +59131,7 @@
         </is>
       </c>
       <c r="P816" t="n">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="Q816" t="n">
         <v>36</v>
@@ -59157,7 +59157,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E817" t="n">
         <v>13</v>
@@ -59181,16 +59181,16 @@
         </is>
       </c>
       <c r="J817" t="n">
-        <v>1020</v>
+        <v>790</v>
       </c>
       <c r="K817" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L817" t="n">
-        <v>2700</v>
+        <v>3300</v>
       </c>
       <c r="M817" t="n">
-        <v>2562</v>
+        <v>3167</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
@@ -59203,7 +59203,7 @@
         </is>
       </c>
       <c r="P817" t="n">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="Q817" t="n">
         <v>36</v>
@@ -59229,7 +59229,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E818" t="n">
         <v>13</v>
@@ -59253,16 +59253,16 @@
         </is>
       </c>
       <c r="J818" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="K818" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="L818" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="M818" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
@@ -59275,7 +59275,7 @@
         </is>
       </c>
       <c r="P818" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="Q818" t="n">
         <v>36</v>
@@ -59301,7 +59301,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44442</v>
+        <v>44428</v>
       </c>
       <c r="E819" t="n">
         <v>13</v>
@@ -59325,16 +59325,16 @@
         </is>
       </c>
       <c r="J819" t="n">
-        <v>500</v>
+        <v>290</v>
       </c>
       <c r="K819" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="L819" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M819" t="n">
-        <v>1912</v>
+        <v>2400</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
@@ -59347,7 +59347,7 @@
         </is>
       </c>
       <c r="P819" t="n">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="Q819" t="n">
         <v>36</v>
@@ -59373,7 +59373,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E820" t="n">
         <v>13</v>
@@ -59397,16 +59397,16 @@
         </is>
       </c>
       <c r="J820" t="n">
-        <v>3470</v>
+        <v>850</v>
       </c>
       <c r="K820" t="n">
-        <v>3700</v>
+        <v>3200</v>
       </c>
       <c r="L820" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M820" t="n">
-        <v>3879</v>
+        <v>3355</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
@@ -59419,7 +59419,7 @@
         </is>
       </c>
       <c r="P820" t="n">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="Q820" t="n">
         <v>36</v>
@@ -59445,7 +59445,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E821" t="n">
         <v>13</v>
@@ -59469,16 +59469,16 @@
         </is>
       </c>
       <c r="J821" t="n">
-        <v>3310</v>
+        <v>830</v>
       </c>
       <c r="K821" t="n">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="L821" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M821" t="n">
-        <v>3874</v>
+        <v>3370</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
@@ -59491,7 +59491,7 @@
         </is>
       </c>
       <c r="P821" t="n">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="Q821" t="n">
         <v>36</v>
@@ -59517,7 +59517,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E822" t="n">
         <v>13</v>
@@ -59541,16 +59541,16 @@
         </is>
       </c>
       <c r="J822" t="n">
-        <v>4050</v>
+        <v>1020</v>
       </c>
       <c r="K822" t="n">
-        <v>2900</v>
+        <v>2400</v>
       </c>
       <c r="L822" t="n">
-        <v>3300</v>
+        <v>2800</v>
       </c>
       <c r="M822" t="n">
-        <v>3130</v>
+        <v>2604</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
@@ -59563,7 +59563,7 @@
         </is>
       </c>
       <c r="P822" t="n">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="Q822" t="n">
         <v>36</v>
@@ -59589,7 +59589,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E823" t="n">
         <v>13</v>
@@ -59613,16 +59613,16 @@
         </is>
       </c>
       <c r="J823" t="n">
-        <v>3830</v>
+        <v>1020</v>
       </c>
       <c r="K823" t="n">
-        <v>2900</v>
+        <v>2400</v>
       </c>
       <c r="L823" t="n">
-        <v>3300</v>
+        <v>2700</v>
       </c>
       <c r="M823" t="n">
-        <v>3086</v>
+        <v>2562</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
@@ -59635,7 +59635,7 @@
         </is>
       </c>
       <c r="P823" t="n">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="Q823" t="n">
         <v>36</v>
@@ -59661,7 +59661,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E824" t="n">
         <v>13</v>
@@ -59685,16 +59685,16 @@
         </is>
       </c>
       <c r="J824" t="n">
-        <v>1330</v>
+        <v>330</v>
       </c>
       <c r="K824" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L824" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="M824" t="n">
-        <v>2275</v>
+        <v>2000</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
@@ -59707,7 +59707,7 @@
         </is>
       </c>
       <c r="P824" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="Q824" t="n">
         <v>36</v>
@@ -59733,7 +59733,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44435</v>
+        <v>44442</v>
       </c>
       <c r="E825" t="n">
         <v>13</v>
@@ -59757,16 +59757,16 @@
         </is>
       </c>
       <c r="J825" t="n">
-        <v>1420</v>
+        <v>500</v>
       </c>
       <c r="K825" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="L825" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="M825" t="n">
-        <v>2260</v>
+        <v>1912</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
@@ -59779,7 +59779,7 @@
         </is>
       </c>
       <c r="P825" t="n">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="Q825" t="n">
         <v>36</v>
@@ -59805,7 +59805,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E826" t="n">
         <v>13</v>
@@ -59825,20 +59825,20 @@
       </c>
       <c r="I826" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J826" t="n">
-        <v>790</v>
+        <v>3470</v>
       </c>
       <c r="K826" t="n">
-        <v>2400</v>
+        <v>3700</v>
       </c>
       <c r="L826" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="M826" t="n">
-        <v>2494</v>
+        <v>3879</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
@@ -59851,7 +59851,7 @@
         </is>
       </c>
       <c r="P826" t="n">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="Q826" t="n">
         <v>36</v>
@@ -59877,7 +59877,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E827" t="n">
         <v>13</v>
@@ -59897,20 +59897,20 @@
       </c>
       <c r="I827" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J827" t="n">
-        <v>620</v>
+        <v>3310</v>
       </c>
       <c r="K827" t="n">
-        <v>2300</v>
+        <v>3600</v>
       </c>
       <c r="L827" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M827" t="n">
-        <v>2390</v>
+        <v>3874</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
@@ -59923,7 +59923,7 @@
         </is>
       </c>
       <c r="P827" t="n">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="Q827" t="n">
         <v>36</v>
@@ -59949,7 +59949,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E828" t="n">
         <v>13</v>
@@ -59969,20 +59969,20 @@
       </c>
       <c r="I828" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J828" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="K828" t="n">
-        <v>1800</v>
+        <v>2900</v>
       </c>
       <c r="L828" t="n">
-        <v>1800</v>
+        <v>3300</v>
       </c>
       <c r="M828" t="n">
-        <v>1800</v>
+        <v>3130</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
@@ -59995,7 +59995,7 @@
         </is>
       </c>
       <c r="P828" t="n">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="Q828" t="n">
         <v>36</v>
@@ -60021,7 +60021,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44319</v>
+        <v>44435</v>
       </c>
       <c r="E829" t="n">
         <v>13</v>
@@ -60041,20 +60041,20 @@
       </c>
       <c r="I829" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J829" t="n">
-        <v>220</v>
+        <v>3830</v>
       </c>
       <c r="K829" t="n">
-        <v>1800</v>
+        <v>2900</v>
       </c>
       <c r="L829" t="n">
-        <v>1800</v>
+        <v>3300</v>
       </c>
       <c r="M829" t="n">
-        <v>1800</v>
+        <v>3086</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
@@ -60067,7 +60067,7 @@
         </is>
       </c>
       <c r="P829" t="n">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="Q829" t="n">
         <v>36</v>
@@ -60093,7 +60093,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E830" t="n">
         <v>13</v>
@@ -60113,20 +60113,20 @@
       </c>
       <c r="I830" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J830" t="n">
-        <v>440</v>
+        <v>1330</v>
       </c>
       <c r="K830" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="L830" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="M830" t="n">
-        <v>2800</v>
+        <v>2275</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
@@ -60135,11 +60135,11 @@
       </c>
       <c r="O830" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P830" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="Q830" t="n">
         <v>36</v>
@@ -60165,7 +60165,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44175</v>
+        <v>44435</v>
       </c>
       <c r="E831" t="n">
         <v>13</v>
@@ -60185,20 +60185,20 @@
       </c>
       <c r="I831" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J831" t="n">
-        <v>730</v>
+        <v>1420</v>
       </c>
       <c r="K831" t="n">
+        <v>2200</v>
+      </c>
+      <c r="L831" t="n">
         <v>2300</v>
       </c>
-      <c r="L831" t="n">
-        <v>2500</v>
-      </c>
       <c r="M831" t="n">
-        <v>2401</v>
+        <v>2260</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
@@ -60211,7 +60211,7 @@
         </is>
       </c>
       <c r="P831" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q831" t="n">
         <v>36</v>
@@ -60237,7 +60237,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44175</v>
+        <v>44319</v>
       </c>
       <c r="E832" t="n">
         <v>13</v>
@@ -60257,20 +60257,20 @@
       </c>
       <c r="I832" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J832" t="n">
-        <v>550</v>
+        <v>790</v>
       </c>
       <c r="K832" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L832" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="M832" t="n">
-        <v>2091</v>
+        <v>2494</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
@@ -60279,11 +60279,11 @@
       </c>
       <c r="O832" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P832" t="n">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Q832" t="n">
         <v>36</v>
@@ -60309,7 +60309,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E833" t="n">
         <v>13</v>
@@ -60329,20 +60329,20 @@
       </c>
       <c r="I833" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J833" t="n">
-        <v>380</v>
+        <v>620</v>
       </c>
       <c r="K833" t="n">
-        <v>2900</v>
+        <v>2300</v>
       </c>
       <c r="L833" t="n">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="M833" t="n">
-        <v>2900</v>
+        <v>2390</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
@@ -60351,11 +60351,11 @@
       </c>
       <c r="O833" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P833" t="n">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="Q833" t="n">
         <v>36</v>
@@ -60381,7 +60381,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E834" t="n">
         <v>13</v>
@@ -60401,20 +60401,20 @@
       </c>
       <c r="I834" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J834" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K834" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="L834" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="M834" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
@@ -60423,11 +60423,11 @@
       </c>
       <c r="O834" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P834" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="Q834" t="n">
         <v>36</v>
@@ -60453,7 +60453,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44376</v>
+        <v>44319</v>
       </c>
       <c r="E835" t="n">
         <v>13</v>
@@ -60473,20 +60473,20 @@
       </c>
       <c r="I835" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J835" t="n">
-        <v>780</v>
+        <v>220</v>
       </c>
       <c r="K835" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L835" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="M835" t="n">
-        <v>2608</v>
+        <v>1800</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
@@ -60495,11 +60495,11 @@
       </c>
       <c r="O835" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P835" t="n">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="Q835" t="n">
         <v>36</v>
@@ -60525,7 +60525,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E836" t="n">
         <v>13</v>
@@ -60545,20 +60545,20 @@
       </c>
       <c r="I836" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J836" t="n">
-        <v>680</v>
+        <v>440</v>
       </c>
       <c r="K836" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L836" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="M836" t="n">
-        <v>2560</v>
+        <v>2800</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
@@ -60571,7 +60571,7 @@
         </is>
       </c>
       <c r="P836" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="Q836" t="n">
         <v>36</v>
@@ -60597,7 +60597,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E837" t="n">
         <v>13</v>
@@ -60617,20 +60617,20 @@
       </c>
       <c r="I837" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J837" t="n">
-        <v>310</v>
+        <v>730</v>
       </c>
       <c r="K837" t="n">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="L837" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M837" t="n">
-        <v>2200</v>
+        <v>2401</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
@@ -60639,11 +60639,11 @@
       </c>
       <c r="O837" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P837" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="Q837" t="n">
         <v>36</v>
@@ -60669,7 +60669,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44376</v>
+        <v>44175</v>
       </c>
       <c r="E838" t="n">
         <v>13</v>
@@ -60693,16 +60693,16 @@
         </is>
       </c>
       <c r="J838" t="n">
-        <v>320</v>
+        <v>550</v>
       </c>
       <c r="K838" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L838" t="n">
         <v>2200</v>
       </c>
       <c r="M838" t="n">
-        <v>2200</v>
+        <v>2091</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
@@ -60715,7 +60715,7 @@
         </is>
       </c>
       <c r="P838" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q838" t="n">
         <v>36</v>
@@ -60741,7 +60741,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E839" t="n">
         <v>13</v>
@@ -60761,20 +60761,20 @@
       </c>
       <c r="I839" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J839" t="n">
-        <v>640</v>
+        <v>380</v>
       </c>
       <c r="K839" t="n">
-        <v>3400</v>
+        <v>2900</v>
       </c>
       <c r="L839" t="n">
-        <v>3600</v>
+        <v>2900</v>
       </c>
       <c r="M839" t="n">
-        <v>3512</v>
+        <v>2900</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
@@ -60787,7 +60787,7 @@
         </is>
       </c>
       <c r="P839" t="n">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="Q839" t="n">
         <v>36</v>
@@ -60813,7 +60813,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E840" t="n">
         <v>13</v>
@@ -60833,20 +60833,20 @@
       </c>
       <c r="I840" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J840" t="n">
-        <v>660</v>
+        <v>340</v>
       </c>
       <c r="K840" t="n">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="L840" t="n">
-        <v>3600</v>
+        <v>2800</v>
       </c>
       <c r="M840" t="n">
-        <v>3518</v>
+        <v>2800</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
@@ -60859,7 +60859,7 @@
         </is>
       </c>
       <c r="P840" t="n">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="Q840" t="n">
         <v>36</v>
@@ -60885,7 +60885,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E841" t="n">
         <v>13</v>
@@ -60905,20 +60905,20 @@
       </c>
       <c r="I841" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J841" t="n">
-        <v>250</v>
+        <v>780</v>
       </c>
       <c r="K841" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L841" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="M841" t="n">
-        <v>3000</v>
+        <v>2608</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
@@ -60931,7 +60931,7 @@
         </is>
       </c>
       <c r="P841" t="n">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="Q841" t="n">
         <v>36</v>
@@ -60957,7 +60957,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44279</v>
+        <v>44376</v>
       </c>
       <c r="E842" t="n">
         <v>13</v>
@@ -60977,20 +60977,20 @@
       </c>
       <c r="I842" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J842" t="n">
-        <v>230</v>
+        <v>680</v>
       </c>
       <c r="K842" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L842" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="M842" t="n">
-        <v>2800</v>
+        <v>2560</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
@@ -61003,7 +61003,7 @@
         </is>
       </c>
       <c r="P842" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="Q842" t="n">
         <v>36</v>
@@ -61029,7 +61029,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E843" t="n">
         <v>13</v>
@@ -61049,20 +61049,20 @@
       </c>
       <c r="I843" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J843" t="n">
-        <v>730</v>
+        <v>310</v>
       </c>
       <c r="K843" t="n">
-        <v>3800</v>
+        <v>2200</v>
       </c>
       <c r="L843" t="n">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="M843" t="n">
-        <v>3904</v>
+        <v>2200</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
@@ -61075,7 +61075,7 @@
         </is>
       </c>
       <c r="P843" t="n">
-        <v>108</v>
+        <v>61</v>
       </c>
       <c r="Q843" t="n">
         <v>36</v>
@@ -61101,7 +61101,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44412</v>
+        <v>44376</v>
       </c>
       <c r="E844" t="n">
         <v>13</v>
@@ -61121,20 +61121,20 @@
       </c>
       <c r="I844" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J844" t="n">
-        <v>700</v>
+        <v>320</v>
       </c>
       <c r="K844" t="n">
-        <v>3600</v>
+        <v>2200</v>
       </c>
       <c r="L844" t="n">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="M844" t="n">
-        <v>3834</v>
+        <v>2200</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
@@ -61147,7 +61147,7 @@
         </is>
       </c>
       <c r="P844" t="n">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="Q844" t="n">
         <v>36</v>
@@ -61173,7 +61173,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E845" t="n">
         <v>13</v>
@@ -61197,16 +61197,16 @@
         </is>
       </c>
       <c r="J845" t="n">
-        <v>590</v>
+        <v>640</v>
       </c>
       <c r="K845" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="L845" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="M845" t="n">
-        <v>2746</v>
+        <v>3512</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
@@ -61219,7 +61219,7 @@
         </is>
       </c>
       <c r="P845" t="n">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="Q845" t="n">
         <v>36</v>
@@ -61245,7 +61245,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E846" t="n">
         <v>13</v>
@@ -61269,16 +61269,16 @@
         </is>
       </c>
       <c r="J846" t="n">
-        <v>690</v>
+        <v>660</v>
       </c>
       <c r="K846" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="L846" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="M846" t="n">
-        <v>2907</v>
+        <v>3518</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
@@ -61291,7 +61291,7 @@
         </is>
       </c>
       <c r="P846" t="n">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="Q846" t="n">
         <v>36</v>
@@ -61317,7 +61317,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E847" t="n">
         <v>13</v>
@@ -61344,13 +61344,13 @@
         <v>250</v>
       </c>
       <c r="K847" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="L847" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="M847" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
@@ -61363,7 +61363,7 @@
         </is>
       </c>
       <c r="P847" t="n">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="Q847" t="n">
         <v>36</v>
@@ -61389,7 +61389,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44412</v>
+        <v>44279</v>
       </c>
       <c r="E848" t="n">
         <v>13</v>
@@ -61413,16 +61413,16 @@
         </is>
       </c>
       <c r="J848" t="n">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="K848" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="L848" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="M848" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
@@ -61435,7 +61435,7 @@
         </is>
       </c>
       <c r="P848" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Q848" t="n">
         <v>36</v>
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E849" t="n">
         <v>13</v>
@@ -61485,16 +61485,16 @@
         </is>
       </c>
       <c r="J849" t="n">
-        <v>380</v>
+        <v>730</v>
       </c>
       <c r="K849" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L849" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M849" t="n">
-        <v>3000</v>
+        <v>3904</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
@@ -61507,7 +61507,7 @@
         </is>
       </c>
       <c r="P849" t="n">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="Q849" t="n">
         <v>36</v>
@@ -61533,7 +61533,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E850" t="n">
         <v>13</v>
@@ -61557,16 +61557,16 @@
         </is>
       </c>
       <c r="J850" t="n">
-        <v>330</v>
+        <v>700</v>
       </c>
       <c r="K850" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="L850" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M850" t="n">
-        <v>3000</v>
+        <v>3834</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
@@ -61579,7 +61579,7 @@
         </is>
       </c>
       <c r="P850" t="n">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="Q850" t="n">
         <v>36</v>
@@ -61605,7 +61605,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E851" t="n">
         <v>13</v>
@@ -61629,16 +61629,16 @@
         </is>
       </c>
       <c r="J851" t="n">
-        <v>250</v>
+        <v>590</v>
       </c>
       <c r="K851" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="L851" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M851" t="n">
-        <v>2700</v>
+        <v>2746</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
@@ -61651,7 +61651,7 @@
         </is>
       </c>
       <c r="P851" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q851" t="n">
         <v>36</v>
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E852" t="n">
         <v>13</v>
@@ -61701,16 +61701,16 @@
         </is>
       </c>
       <c r="J852" t="n">
-        <v>440</v>
+        <v>690</v>
       </c>
       <c r="K852" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L852" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M852" t="n">
-        <v>2623</v>
+        <v>2907</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
@@ -61723,7 +61723,7 @@
         </is>
       </c>
       <c r="P852" t="n">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="Q852" t="n">
         <v>36</v>
@@ -61749,7 +61749,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E853" t="n">
         <v>13</v>
@@ -61773,16 +61773,16 @@
         </is>
       </c>
       <c r="J853" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K853" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="L853" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="M853" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
@@ -61795,7 +61795,7 @@
         </is>
       </c>
       <c r="P853" t="n">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="Q853" t="n">
         <v>36</v>
@@ -61821,7 +61821,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44223</v>
+        <v>44412</v>
       </c>
       <c r="E854" t="n">
         <v>13</v>
@@ -61845,16 +61845,16 @@
         </is>
       </c>
       <c r="J854" t="n">
-        <v>410</v>
+        <v>300</v>
       </c>
       <c r="K854" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="L854" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="M854" t="n">
-        <v>2102</v>
+        <v>2600</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
@@ -61867,7 +61867,7 @@
         </is>
       </c>
       <c r="P854" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="Q854" t="n">
         <v>36</v>
@@ -61893,7 +61893,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E855" t="n">
         <v>13</v>
@@ -61913,20 +61913,20 @@
       </c>
       <c r="I855" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J855" t="n">
-        <v>820</v>
+        <v>380</v>
       </c>
       <c r="K855" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L855" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M855" t="n">
-        <v>2593</v>
+        <v>3000</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61939,7 +61939,7 @@
         </is>
       </c>
       <c r="P855" t="n">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="Q855" t="n">
         <v>36</v>
@@ -61965,7 +61965,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E856" t="n">
         <v>13</v>
@@ -61985,20 +61985,20 @@
       </c>
       <c r="I856" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J856" t="n">
-        <v>850</v>
+        <v>330</v>
       </c>
       <c r="K856" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L856" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="M856" t="n">
-        <v>2506</v>
+        <v>3000</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62011,7 +62011,7 @@
         </is>
       </c>
       <c r="P856" t="n">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="Q856" t="n">
         <v>36</v>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E857" t="n">
         <v>13</v>
@@ -62057,20 +62057,20 @@
       </c>
       <c r="I857" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J857" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="K857" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="L857" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="M857" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
@@ -62083,7 +62083,7 @@
         </is>
       </c>
       <c r="P857" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="Q857" t="n">
         <v>36</v>
@@ -62109,7 +62109,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44314</v>
+        <v>44223</v>
       </c>
       <c r="E858" t="n">
         <v>13</v>
@@ -62129,20 +62129,20 @@
       </c>
       <c r="I858" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J858" t="n">
-        <v>200</v>
+        <v>440</v>
       </c>
       <c r="K858" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L858" t="n">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="M858" t="n">
-        <v>1800</v>
+        <v>2623</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
@@ -62155,7 +62155,7 @@
         </is>
       </c>
       <c r="P858" t="n">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="Q858" t="n">
         <v>36</v>
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44448</v>
+        <v>44223</v>
       </c>
       <c r="E859" t="n">
         <v>13</v>
@@ -62201,20 +62201,20 @@
       </c>
       <c r="I859" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J859" t="n">
-        <v>810</v>
+        <v>200</v>
       </c>
       <c r="K859" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="L859" t="n">
-        <v>3300</v>
+        <v>2200</v>
       </c>
       <c r="M859" t="n">
-        <v>3163</v>
+        <v>2200</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62227,7 +62227,7 @@
         </is>
       </c>
       <c r="P859" t="n">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="Q859" t="n">
         <v>36</v>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44448</v>
+        <v>44223</v>
       </c>
       <c r="E860" t="n">
         <v>13</v>
@@ -62273,20 +62273,20 @@
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J860" t="n">
-        <v>720</v>
+        <v>410</v>
       </c>
       <c r="K860" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L860" t="n">
-        <v>3300</v>
+        <v>2200</v>
       </c>
       <c r="M860" t="n">
-        <v>3175</v>
+        <v>2102</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
@@ -62299,7 +62299,7 @@
         </is>
       </c>
       <c r="P860" t="n">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="Q860" t="n">
         <v>36</v>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E861" t="n">
         <v>13</v>
@@ -62352,13 +62352,13 @@
         <v>820</v>
       </c>
       <c r="K861" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L861" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="M861" t="n">
-        <v>2390</v>
+        <v>2593</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62371,7 +62371,7 @@
         </is>
       </c>
       <c r="P861" t="n">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q861" t="n">
         <v>36</v>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E862" t="n">
         <v>13</v>
@@ -62421,16 +62421,16 @@
         </is>
       </c>
       <c r="J862" t="n">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="K862" t="n">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="L862" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="M862" t="n">
-        <v>2409</v>
+        <v>2506</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62443,7 +62443,7 @@
         </is>
       </c>
       <c r="P862" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q862" t="n">
         <v>36</v>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E863" t="n">
         <v>13</v>
@@ -62493,16 +62493,16 @@
         </is>
       </c>
       <c r="J863" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="K863" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L863" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M863" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
@@ -62515,7 +62515,7 @@
         </is>
       </c>
       <c r="P863" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Q863" t="n">
         <v>36</v>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44448</v>
+        <v>44314</v>
       </c>
       <c r="E864" t="n">
         <v>13</v>
@@ -62565,16 +62565,16 @@
         </is>
       </c>
       <c r="J864" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="K864" t="n">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="L864" t="n">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="M864" t="n">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62587,7 +62587,7 @@
         </is>
       </c>
       <c r="P864" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q864" t="n">
         <v>36</v>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E865" t="n">
         <v>13</v>
@@ -62637,16 +62637,16 @@
         </is>
       </c>
       <c r="J865" t="n">
-        <v>420</v>
+        <v>810</v>
       </c>
       <c r="K865" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="L865" t="n">
-        <v>2800</v>
+        <v>3300</v>
       </c>
       <c r="M865" t="n">
-        <v>2748</v>
+        <v>3163</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62655,11 +62655,11 @@
       </c>
       <c r="O865" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P865" t="n">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="Q865" t="n">
         <v>36</v>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E866" t="n">
         <v>13</v>
@@ -62705,20 +62705,20 @@
       </c>
       <c r="I866" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J866" t="n">
-        <v>870</v>
+        <v>720</v>
       </c>
       <c r="K866" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L866" t="n">
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="M866" t="n">
-        <v>2429</v>
+        <v>3175</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
@@ -62731,7 +62731,7 @@
         </is>
       </c>
       <c r="P866" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="Q866" t="n">
         <v>36</v>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44167</v>
+        <v>44448</v>
       </c>
       <c r="E867" t="n">
         <v>13</v>
@@ -62777,20 +62777,20 @@
       </c>
       <c r="I867" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J867" t="n">
-        <v>620</v>
+        <v>820</v>
       </c>
       <c r="K867" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="L867" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M867" t="n">
-        <v>2055</v>
+        <v>2390</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
@@ -62799,11 +62799,11 @@
       </c>
       <c r="O867" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P867" t="n">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="Q867" t="n">
         <v>36</v>
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E868" t="n">
         <v>13</v>
@@ -62849,20 +62849,20 @@
       </c>
       <c r="I868" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J868" t="n">
-        <v>440</v>
+        <v>860</v>
       </c>
       <c r="K868" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="L868" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M868" t="n">
-        <v>2800</v>
+        <v>2409</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
@@ -62871,11 +62871,11 @@
       </c>
       <c r="O868" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P868" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="Q868" t="n">
         <v>36</v>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E869" t="n">
         <v>13</v>
@@ -62921,20 +62921,20 @@
       </c>
       <c r="I869" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J869" t="n">
-        <v>410</v>
+        <v>250</v>
       </c>
       <c r="K869" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="L869" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="M869" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
@@ -62943,11 +62943,11 @@
       </c>
       <c r="O869" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P869" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="Q869" t="n">
         <v>36</v>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44238</v>
+        <v>44448</v>
       </c>
       <c r="E870" t="n">
         <v>13</v>
@@ -62993,20 +62993,20 @@
       </c>
       <c r="I870" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J870" t="n">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="K870" t="n">
-        <v>2600</v>
+        <v>1900</v>
       </c>
       <c r="L870" t="n">
-        <v>2600</v>
+        <v>1900</v>
       </c>
       <c r="M870" t="n">
-        <v>2600</v>
+        <v>1900</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63015,11 +63015,11 @@
       </c>
       <c r="O870" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P870" t="n">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="Q870" t="n">
         <v>36</v>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E871" t="n">
         <v>13</v>
@@ -63065,20 +63065,20 @@
       </c>
       <c r="I871" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J871" t="n">
-        <v>610</v>
+        <v>420</v>
       </c>
       <c r="K871" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="L871" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="M871" t="n">
-        <v>2561</v>
+        <v>2748</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63091,7 +63091,7 @@
         </is>
       </c>
       <c r="P871" t="n">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Q871" t="n">
         <v>36</v>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E872" t="n">
         <v>13</v>
@@ -63137,20 +63137,20 @@
       </c>
       <c r="I872" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J872" t="n">
-        <v>220</v>
+        <v>870</v>
       </c>
       <c r="K872" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="L872" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M872" t="n">
-        <v>2200</v>
+        <v>2429</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63159,11 +63159,11 @@
       </c>
       <c r="O872" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P872" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="Q872" t="n">
         <v>36</v>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44238</v>
+        <v>44167</v>
       </c>
       <c r="E873" t="n">
         <v>13</v>
@@ -63213,7 +63213,7 @@
         </is>
       </c>
       <c r="J873" t="n">
-        <v>430</v>
+        <v>620</v>
       </c>
       <c r="K873" t="n">
         <v>2000</v>
@@ -63222,7 +63222,7 @@
         <v>2200</v>
       </c>
       <c r="M873" t="n">
-        <v>2116</v>
+        <v>2055</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
@@ -63235,7 +63235,7 @@
         </is>
       </c>
       <c r="P873" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q873" t="n">
         <v>36</v>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E874" t="n">
         <v>13</v>
@@ -63285,16 +63285,16 @@
         </is>
       </c>
       <c r="J874" t="n">
-        <v>310</v>
+        <v>440</v>
       </c>
       <c r="K874" t="n">
-        <v>3800</v>
+        <v>2800</v>
       </c>
       <c r="L874" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="M874" t="n">
-        <v>3903</v>
+        <v>2800</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
@@ -63303,11 +63303,11 @@
       </c>
       <c r="O874" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P874" t="n">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="Q874" t="n">
         <v>36</v>
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E875" t="n">
         <v>13</v>
@@ -63353,20 +63353,20 @@
       </c>
       <c r="I875" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J875" t="n">
-        <v>480</v>
+        <v>410</v>
       </c>
       <c r="K875" t="n">
-        <v>3300</v>
+        <v>2800</v>
       </c>
       <c r="L875" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="M875" t="n">
-        <v>3412</v>
+        <v>2800</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
@@ -63379,7 +63379,7 @@
         </is>
       </c>
       <c r="P875" t="n">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="Q875" t="n">
         <v>36</v>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44399</v>
+        <v>44238</v>
       </c>
       <c r="E876" t="n">
         <v>13</v>
@@ -63425,20 +63425,20 @@
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J876" t="n">
-        <v>260</v>
+        <v>360</v>
       </c>
       <c r="K876" t="n">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="L876" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="M876" t="n">
-        <v>2415</v>
+        <v>2600</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
@@ -63447,11 +63447,11 @@
       </c>
       <c r="O876" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P876" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="Q876" t="n">
         <v>36</v>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44400</v>
+        <v>44238</v>
       </c>
       <c r="E877" t="n">
         <v>13</v>
@@ -63497,20 +63497,20 @@
       </c>
       <c r="I877" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J877" t="n">
-        <v>150</v>
+        <v>610</v>
       </c>
       <c r="K877" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L877" t="n">
-        <v>4000</v>
+        <v>2600</v>
       </c>
       <c r="M877" t="n">
-        <v>4000</v>
+        <v>2561</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
@@ -63523,7 +63523,7 @@
         </is>
       </c>
       <c r="P877" t="n">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="Q877" t="n">
         <v>36</v>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44400</v>
+        <v>44238</v>
       </c>
       <c r="E878" t="n">
         <v>13</v>
@@ -63569,20 +63569,20 @@
       </c>
       <c r="I878" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J878" t="n">
-        <v>330</v>
+        <v>220</v>
       </c>
       <c r="K878" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="L878" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="M878" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
@@ -63591,11 +63591,11 @@
       </c>
       <c r="O878" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P878" t="n">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="Q878" t="n">
         <v>36</v>
@@ -63621,58 +63621,490 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="E879" t="n">
+        <v>13</v>
+      </c>
+      <c r="F879" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G879" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H879" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I879" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J879" t="n">
+        <v>430</v>
+      </c>
+      <c r="K879" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L879" t="n">
+        <v>2200</v>
+      </c>
+      <c r="M879" t="n">
+        <v>2116</v>
+      </c>
+      <c r="N879" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O879" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P879" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q879" t="n">
+        <v>36</v>
+      </c>
+      <c r="R879" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="n">
+        <v>6</v>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D880" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E880" t="n">
+        <v>13</v>
+      </c>
+      <c r="F880" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G880" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H880" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I880" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J880" t="n">
+        <v>310</v>
+      </c>
+      <c r="K880" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L880" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M880" t="n">
+        <v>3903</v>
+      </c>
+      <c r="N880" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O880" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P880" t="n">
+        <v>108</v>
+      </c>
+      <c r="Q880" t="n">
+        <v>36</v>
+      </c>
+      <c r="R880" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>6</v>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D881" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E881" t="n">
+        <v>13</v>
+      </c>
+      <c r="F881" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G881" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H881" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I881" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J881" t="n">
+        <v>480</v>
+      </c>
+      <c r="K881" t="n">
+        <v>3300</v>
+      </c>
+      <c r="L881" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M881" t="n">
+        <v>3412</v>
+      </c>
+      <c r="N881" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O881" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P881" t="n">
+        <v>95</v>
+      </c>
+      <c r="Q881" t="n">
+        <v>36</v>
+      </c>
+      <c r="R881" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="n">
+        <v>6</v>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D882" s="2" t="n">
+        <v>44399</v>
+      </c>
+      <c r="E882" t="n">
+        <v>13</v>
+      </c>
+      <c r="F882" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G882" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H882" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I882" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J882" t="n">
+        <v>260</v>
+      </c>
+      <c r="K882" t="n">
+        <v>2300</v>
+      </c>
+      <c r="L882" t="n">
+        <v>2500</v>
+      </c>
+      <c r="M882" t="n">
+        <v>2415</v>
+      </c>
+      <c r="N882" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O882" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P882" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q882" t="n">
+        <v>36</v>
+      </c>
+      <c r="R882" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="n">
+        <v>6</v>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D883" s="2" t="n">
         <v>44400</v>
       </c>
-      <c r="E879" t="n">
-        <v>13</v>
-      </c>
-      <c r="F879" t="n">
-        <v>100112037</v>
-      </c>
-      <c r="G879" t="inlineStr">
-        <is>
-          <t>Cebollín</t>
-        </is>
-      </c>
-      <c r="H879" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I879" t="inlineStr">
+      <c r="E883" t="n">
+        <v>13</v>
+      </c>
+      <c r="F883" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G883" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H883" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I883" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J883" t="n">
+        <v>150</v>
+      </c>
+      <c r="K883" t="n">
+        <v>4000</v>
+      </c>
+      <c r="L883" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M883" t="n">
+        <v>4000</v>
+      </c>
+      <c r="N883" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O883" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P883" t="n">
+        <v>111</v>
+      </c>
+      <c r="Q883" t="n">
+        <v>36</v>
+      </c>
+      <c r="R883" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="n">
+        <v>6</v>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D884" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E884" t="n">
+        <v>13</v>
+      </c>
+      <c r="F884" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G884" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H884" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I884" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J884" t="n">
+        <v>330</v>
+      </c>
+      <c r="K884" t="n">
+        <v>3500</v>
+      </c>
+      <c r="L884" t="n">
+        <v>3500</v>
+      </c>
+      <c r="M884" t="n">
+        <v>3500</v>
+      </c>
+      <c r="N884" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O884" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P884" t="n">
+        <v>97</v>
+      </c>
+      <c r="Q884" t="n">
+        <v>36</v>
+      </c>
+      <c r="R884" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="n">
+        <v>6</v>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D885" s="2" t="n">
+        <v>44400</v>
+      </c>
+      <c r="E885" t="n">
+        <v>13</v>
+      </c>
+      <c r="F885" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G885" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H885" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I885" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J879" t="n">
+      <c r="J885" t="n">
         <v>270</v>
       </c>
-      <c r="K879" t="n">
+      <c r="K885" t="n">
         <v>2500</v>
       </c>
-      <c r="L879" t="n">
+      <c r="L885" t="n">
         <v>2500</v>
       </c>
-      <c r="M879" t="n">
+      <c r="M885" t="n">
         <v>2500</v>
       </c>
-      <c r="N879" t="inlineStr">
-        <is>
-          <t>$/paquete 36 unidades</t>
-        </is>
-      </c>
-      <c r="O879" t="inlineStr">
+      <c r="N885" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O885" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P879" t="n">
+      <c r="P885" t="n">
         <v>69</v>
       </c>
-      <c r="Q879" t="n">
-        <v>36</v>
-      </c>
-      <c r="R879" t="inlineStr">
+      <c r="Q885" t="n">
+        <v>36</v>
+      </c>
+      <c r="R885" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cebollín.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cebollín.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R921"/>
+  <dimension ref="A1:R927"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61533,7 +61533,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E850" t="n">
         <v>13</v>
@@ -61557,16 +61557,16 @@
         </is>
       </c>
       <c r="J850" t="n">
-        <v>380</v>
+        <v>650</v>
       </c>
       <c r="K850" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="L850" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="M850" t="n">
-        <v>2700</v>
+        <v>3285</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
@@ -61579,7 +61579,7 @@
         </is>
       </c>
       <c r="P850" t="n">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="Q850" t="n">
         <v>36</v>
@@ -61605,7 +61605,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E851" t="n">
         <v>13</v>
@@ -61629,16 +61629,16 @@
         </is>
       </c>
       <c r="J851" t="n">
-        <v>360</v>
+        <v>660</v>
       </c>
       <c r="K851" t="n">
-        <v>2700</v>
+        <v>3200</v>
       </c>
       <c r="L851" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="M851" t="n">
-        <v>2700</v>
+        <v>3355</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
@@ -61651,7 +61651,7 @@
         </is>
       </c>
       <c r="P851" t="n">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="Q851" t="n">
         <v>36</v>
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E852" t="n">
         <v>13</v>
@@ -61701,16 +61701,16 @@
         </is>
       </c>
       <c r="J852" t="n">
-        <v>730</v>
+        <v>790</v>
       </c>
       <c r="K852" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L852" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="M852" t="n">
-        <v>2253</v>
+        <v>2667</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
@@ -61723,7 +61723,7 @@
         </is>
       </c>
       <c r="P852" t="n">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="Q852" t="n">
         <v>36</v>
@@ -61749,7 +61749,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E853" t="n">
         <v>13</v>
@@ -61773,16 +61773,16 @@
         </is>
       </c>
       <c r="J853" t="n">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="K853" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L853" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="M853" t="n">
-        <v>2255</v>
+        <v>2601</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
@@ -61795,7 +61795,7 @@
         </is>
       </c>
       <c r="P853" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="Q853" t="n">
         <v>36</v>
@@ -61821,7 +61821,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E854" t="n">
         <v>13</v>
@@ -61845,16 +61845,16 @@
         </is>
       </c>
       <c r="J854" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="K854" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="L854" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="M854" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
@@ -61867,7 +61867,7 @@
         </is>
       </c>
       <c r="P854" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="Q854" t="n">
         <v>36</v>
@@ -61893,7 +61893,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E855" t="n">
         <v>13</v>
@@ -61917,16 +61917,16 @@
         </is>
       </c>
       <c r="J855" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="K855" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="L855" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="M855" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61939,7 +61939,7 @@
         </is>
       </c>
       <c r="P855" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="Q855" t="n">
         <v>36</v>
@@ -61965,7 +61965,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E856" t="n">
         <v>13</v>
@@ -61989,16 +61989,16 @@
         </is>
       </c>
       <c r="J856" t="n">
-        <v>550</v>
+        <v>380</v>
       </c>
       <c r="K856" t="n">
-        <v>3200</v>
+        <v>2700</v>
       </c>
       <c r="L856" t="n">
-        <v>3200</v>
+        <v>2700</v>
       </c>
       <c r="M856" t="n">
-        <v>3200</v>
+        <v>2700</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62007,11 +62007,11 @@
       </c>
       <c r="O856" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P856" t="n">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="Q856" t="n">
         <v>36</v>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E857" t="n">
         <v>13</v>
@@ -62057,20 +62057,20 @@
       </c>
       <c r="I857" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J857" t="n">
-        <v>1170</v>
+        <v>360</v>
       </c>
       <c r="K857" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="L857" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="M857" t="n">
-        <v>2619</v>
+        <v>2700</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
@@ -62083,7 +62083,7 @@
         </is>
       </c>
       <c r="P857" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q857" t="n">
         <v>36</v>
@@ -62109,7 +62109,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E858" t="n">
         <v>13</v>
@@ -62129,20 +62129,20 @@
       </c>
       <c r="I858" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J858" t="n">
-        <v>790</v>
+        <v>730</v>
       </c>
       <c r="K858" t="n">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="L858" t="n">
         <v>2300</v>
       </c>
       <c r="M858" t="n">
-        <v>2192</v>
+        <v>2253</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
@@ -62151,11 +62151,11 @@
       </c>
       <c r="O858" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P858" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q858" t="n">
         <v>36</v>
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E859" t="n">
         <v>13</v>
@@ -62201,20 +62201,20 @@
       </c>
       <c r="I859" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J859" t="n">
-        <v>430</v>
+        <v>760</v>
       </c>
       <c r="K859" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="L859" t="n">
-        <v>2600</v>
+        <v>2300</v>
       </c>
       <c r="M859" t="n">
-        <v>2563</v>
+        <v>2255</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62227,7 +62227,7 @@
         </is>
       </c>
       <c r="P859" t="n">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="Q859" t="n">
         <v>36</v>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E860" t="n">
         <v>13</v>
@@ -62273,20 +62273,20 @@
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J860" t="n">
-        <v>920</v>
+        <v>220</v>
       </c>
       <c r="K860" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="L860" t="n">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="M860" t="n">
-        <v>2273</v>
+        <v>1800</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
@@ -62295,11 +62295,11 @@
       </c>
       <c r="O860" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P860" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="Q860" t="n">
         <v>36</v>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E861" t="n">
         <v>13</v>
@@ -62349,16 +62349,16 @@
         </is>
       </c>
       <c r="J861" t="n">
-        <v>640</v>
+        <v>270</v>
       </c>
       <c r="K861" t="n">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="L861" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="M861" t="n">
-        <v>1972</v>
+        <v>1800</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62371,7 +62371,7 @@
         </is>
       </c>
       <c r="P861" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q861" t="n">
         <v>36</v>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E862" t="n">
         <v>13</v>
@@ -62421,16 +62421,16 @@
         </is>
       </c>
       <c r="J862" t="n">
-        <v>290</v>
+        <v>550</v>
       </c>
       <c r="K862" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="L862" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="M862" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62439,11 +62439,11 @@
       </c>
       <c r="O862" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P862" t="n">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="Q862" t="n">
         <v>36</v>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E863" t="n">
         <v>13</v>
@@ -62489,20 +62489,20 @@
       </c>
       <c r="I863" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J863" t="n">
-        <v>340</v>
+        <v>1170</v>
       </c>
       <c r="K863" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L863" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="M863" t="n">
-        <v>4000</v>
+        <v>2619</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
@@ -62515,7 +62515,7 @@
         </is>
       </c>
       <c r="P863" t="n">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="Q863" t="n">
         <v>36</v>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E864" t="n">
         <v>13</v>
@@ -62561,20 +62561,20 @@
       </c>
       <c r="I864" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J864" t="n">
-        <v>760</v>
+        <v>790</v>
       </c>
       <c r="K864" t="n">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="L864" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="M864" t="n">
-        <v>2897</v>
+        <v>2192</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62583,11 +62583,11 @@
       </c>
       <c r="O864" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P864" t="n">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="Q864" t="n">
         <v>36</v>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E865" t="n">
         <v>13</v>
@@ -62633,20 +62633,20 @@
       </c>
       <c r="I865" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J865" t="n">
-        <v>790</v>
+        <v>430</v>
       </c>
       <c r="K865" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L865" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="M865" t="n">
-        <v>2904</v>
+        <v>2563</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62659,7 +62659,7 @@
         </is>
       </c>
       <c r="P865" t="n">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="Q865" t="n">
         <v>36</v>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E866" t="n">
         <v>13</v>
@@ -62705,20 +62705,20 @@
       </c>
       <c r="I866" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J866" t="n">
-        <v>550</v>
+        <v>920</v>
       </c>
       <c r="K866" t="n">
+        <v>2200</v>
+      </c>
+      <c r="L866" t="n">
         <v>2300</v>
       </c>
-      <c r="L866" t="n">
-        <v>2500</v>
-      </c>
       <c r="M866" t="n">
-        <v>2391</v>
+        <v>2273</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
@@ -62727,11 +62727,11 @@
       </c>
       <c r="O866" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P866" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q866" t="n">
         <v>36</v>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E867" t="n">
         <v>13</v>
@@ -62781,16 +62781,16 @@
         </is>
       </c>
       <c r="J867" t="n">
-        <v>610</v>
+        <v>640</v>
       </c>
       <c r="K867" t="n">
-        <v>2400</v>
+        <v>1900</v>
       </c>
       <c r="L867" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M867" t="n">
-        <v>2446</v>
+        <v>1972</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
@@ -62803,7 +62803,7 @@
         </is>
       </c>
       <c r="P867" t="n">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="Q867" t="n">
         <v>36</v>
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E868" t="n">
         <v>13</v>
@@ -62853,16 +62853,16 @@
         </is>
       </c>
       <c r="J868" t="n">
-        <v>790</v>
+        <v>290</v>
       </c>
       <c r="K868" t="n">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="L868" t="n">
         <v>4000</v>
       </c>
       <c r="M868" t="n">
-        <v>3867</v>
+        <v>4000</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
@@ -62875,7 +62875,7 @@
         </is>
       </c>
       <c r="P868" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q868" t="n">
         <v>36</v>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E869" t="n">
         <v>13</v>
@@ -62925,16 +62925,16 @@
         </is>
       </c>
       <c r="J869" t="n">
-        <v>840</v>
+        <v>340</v>
       </c>
       <c r="K869" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="L869" t="n">
         <v>4000</v>
       </c>
       <c r="M869" t="n">
-        <v>3895</v>
+        <v>4000</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
@@ -62947,7 +62947,7 @@
         </is>
       </c>
       <c r="P869" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q869" t="n">
         <v>36</v>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E870" t="n">
         <v>13</v>
@@ -62997,7 +62997,7 @@
         </is>
       </c>
       <c r="J870" t="n">
-        <v>690</v>
+        <v>760</v>
       </c>
       <c r="K870" t="n">
         <v>2800</v>
@@ -63006,7 +63006,7 @@
         <v>3000</v>
       </c>
       <c r="M870" t="n">
-        <v>2913</v>
+        <v>2897</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63019,7 +63019,7 @@
         </is>
       </c>
       <c r="P870" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q870" t="n">
         <v>36</v>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E871" t="n">
         <v>13</v>
@@ -63069,16 +63069,16 @@
         </is>
       </c>
       <c r="J871" t="n">
-        <v>750</v>
+        <v>790</v>
       </c>
       <c r="K871" t="n">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="L871" t="n">
         <v>3000</v>
       </c>
       <c r="M871" t="n">
-        <v>2848</v>
+        <v>2904</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63091,7 +63091,7 @@
         </is>
       </c>
       <c r="P871" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q871" t="n">
         <v>36</v>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E872" t="n">
         <v>13</v>
@@ -63141,16 +63141,16 @@
         </is>
       </c>
       <c r="J872" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="K872" t="n">
-        <v>2600</v>
+        <v>2300</v>
       </c>
       <c r="L872" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="M872" t="n">
-        <v>2600</v>
+        <v>2391</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63163,7 +63163,7 @@
         </is>
       </c>
       <c r="P872" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q872" t="n">
         <v>36</v>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E873" t="n">
         <v>13</v>
@@ -63213,16 +63213,16 @@
         </is>
       </c>
       <c r="J873" t="n">
-        <v>250</v>
+        <v>610</v>
       </c>
       <c r="K873" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="L873" t="n">
         <v>2500</v>
       </c>
       <c r="M873" t="n">
-        <v>2500</v>
+        <v>2446</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
@@ -63235,7 +63235,7 @@
         </is>
       </c>
       <c r="P873" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q873" t="n">
         <v>36</v>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E874" t="n">
         <v>13</v>
@@ -63281,20 +63281,20 @@
       </c>
       <c r="I874" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J874" t="n">
-        <v>620</v>
+        <v>790</v>
       </c>
       <c r="K874" t="n">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="L874" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="M874" t="n">
-        <v>3719</v>
+        <v>3867</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
@@ -63307,7 +63307,7 @@
         </is>
       </c>
       <c r="P874" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Q874" t="n">
         <v>36</v>
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E875" t="n">
         <v>13</v>
@@ -63353,20 +63353,20 @@
       </c>
       <c r="I875" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J875" t="n">
-        <v>1030</v>
+        <v>840</v>
       </c>
       <c r="K875" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="L875" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="M875" t="n">
-        <v>3693</v>
+        <v>3895</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
@@ -63379,7 +63379,7 @@
         </is>
       </c>
       <c r="P875" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="Q875" t="n">
         <v>36</v>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E876" t="n">
         <v>13</v>
@@ -63425,20 +63425,20 @@
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J876" t="n">
-        <v>420</v>
+        <v>690</v>
       </c>
       <c r="K876" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="L876" t="n">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="M876" t="n">
-        <v>3252</v>
+        <v>2913</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
@@ -63451,7 +63451,7 @@
         </is>
       </c>
       <c r="P876" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="Q876" t="n">
         <v>36</v>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E877" t="n">
         <v>13</v>
@@ -63497,20 +63497,20 @@
       </c>
       <c r="I877" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J877" t="n">
-        <v>640</v>
+        <v>750</v>
       </c>
       <c r="K877" t="n">
+        <v>2700</v>
+      </c>
+      <c r="L877" t="n">
         <v>3000</v>
       </c>
-      <c r="L877" t="n">
-        <v>3200</v>
-      </c>
       <c r="M877" t="n">
-        <v>3109</v>
+        <v>2848</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
@@ -63523,7 +63523,7 @@
         </is>
       </c>
       <c r="P877" t="n">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="Q877" t="n">
         <v>36</v>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E878" t="n">
         <v>13</v>
@@ -63569,20 +63569,20 @@
       </c>
       <c r="I878" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J878" t="n">
-        <v>680</v>
+        <v>250</v>
       </c>
       <c r="K878" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="L878" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="M878" t="n">
-        <v>2603</v>
+        <v>2600</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E879" t="n">
         <v>13</v>
@@ -63641,20 +63641,20 @@
       </c>
       <c r="I879" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J879" t="n">
-        <v>720</v>
+        <v>250</v>
       </c>
       <c r="K879" t="n">
         <v>2500</v>
       </c>
       <c r="L879" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="M879" t="n">
-        <v>2557</v>
+        <v>2500</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
@@ -63667,7 +63667,7 @@
         </is>
       </c>
       <c r="P879" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q879" t="n">
         <v>36</v>
@@ -63693,7 +63693,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E880" t="n">
         <v>13</v>
@@ -63713,20 +63713,20 @@
       </c>
       <c r="I880" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J880" t="n">
-        <v>460</v>
+        <v>620</v>
       </c>
       <c r="K880" t="n">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="L880" t="n">
-        <v>2200</v>
+        <v>3800</v>
       </c>
       <c r="M880" t="n">
-        <v>2109</v>
+        <v>3719</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
@@ -63739,7 +63739,7 @@
         </is>
       </c>
       <c r="P880" t="n">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="Q880" t="n">
         <v>36</v>
@@ -63765,7 +63765,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E881" t="n">
         <v>13</v>
@@ -63785,20 +63785,20 @@
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J881" t="n">
-        <v>520</v>
+        <v>1030</v>
       </c>
       <c r="K881" t="n">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="L881" t="n">
-        <v>2200</v>
+        <v>3800</v>
       </c>
       <c r="M881" t="n">
-        <v>2108</v>
+        <v>3693</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
@@ -63811,7 +63811,7 @@
         </is>
       </c>
       <c r="P881" t="n">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="Q881" t="n">
         <v>36</v>
@@ -63837,7 +63837,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E882" t="n">
         <v>13</v>
@@ -63857,20 +63857,20 @@
       </c>
       <c r="I882" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J882" t="n">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="K882" t="n">
-        <v>2700</v>
+        <v>3200</v>
       </c>
       <c r="L882" t="n">
-        <v>2700</v>
+        <v>3300</v>
       </c>
       <c r="M882" t="n">
-        <v>2700</v>
+        <v>3252</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
@@ -63879,11 +63879,11 @@
       </c>
       <c r="O882" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P882" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="Q882" t="n">
         <v>36</v>
@@ -63909,7 +63909,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E883" t="n">
         <v>13</v>
@@ -63929,20 +63929,20 @@
       </c>
       <c r="I883" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J883" t="n">
-        <v>810</v>
+        <v>640</v>
       </c>
       <c r="K883" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L883" t="n">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="M883" t="n">
-        <v>2454</v>
+        <v>3109</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
@@ -63955,7 +63955,7 @@
         </is>
       </c>
       <c r="P883" t="n">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="Q883" t="n">
         <v>36</v>
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E884" t="n">
         <v>13</v>
@@ -64001,20 +64001,20 @@
       </c>
       <c r="I884" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J884" t="n">
-        <v>510</v>
+        <v>680</v>
       </c>
       <c r="K884" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L884" t="n">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="M884" t="n">
-        <v>2114</v>
+        <v>2603</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
@@ -64023,11 +64023,11 @@
       </c>
       <c r="O884" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P884" t="n">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="Q884" t="n">
         <v>36</v>
@@ -64053,7 +64053,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E885" t="n">
         <v>13</v>
@@ -64073,20 +64073,20 @@
       </c>
       <c r="I885" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J885" t="n">
-        <v>440</v>
+        <v>720</v>
       </c>
       <c r="K885" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L885" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="M885" t="n">
-        <v>2800</v>
+        <v>2557</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
@@ -64095,11 +64095,11 @@
       </c>
       <c r="O885" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P885" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="Q885" t="n">
         <v>36</v>
@@ -64125,7 +64125,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E886" t="n">
         <v>13</v>
@@ -64145,20 +64145,20 @@
       </c>
       <c r="I886" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J886" t="n">
-        <v>360</v>
+        <v>460</v>
       </c>
       <c r="K886" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L886" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="M886" t="n">
-        <v>2800</v>
+        <v>2109</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
@@ -64167,11 +64167,11 @@
       </c>
       <c r="O886" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P886" t="n">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="Q886" t="n">
         <v>36</v>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E887" t="n">
         <v>13</v>
@@ -64217,20 +64217,20 @@
       </c>
       <c r="I887" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J887" t="n">
-        <v>790</v>
+        <v>520</v>
       </c>
       <c r="K887" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="L887" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="M887" t="n">
-        <v>2447</v>
+        <v>2108</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
@@ -64239,11 +64239,11 @@
       </c>
       <c r="O887" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P887" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="Q887" t="n">
         <v>36</v>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E888" t="n">
         <v>13</v>
@@ -64289,20 +64289,20 @@
       </c>
       <c r="I888" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J888" t="n">
-        <v>640</v>
+        <v>380</v>
       </c>
       <c r="K888" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="L888" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="M888" t="n">
-        <v>2444</v>
+        <v>2700</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
@@ -64315,7 +64315,7 @@
         </is>
       </c>
       <c r="P888" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="Q888" t="n">
         <v>36</v>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E889" t="n">
         <v>13</v>
@@ -64361,20 +64361,20 @@
       </c>
       <c r="I889" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J889" t="n">
-        <v>540</v>
+        <v>810</v>
       </c>
       <c r="K889" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L889" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M889" t="n">
-        <v>2093</v>
+        <v>2454</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64383,11 +64383,11 @@
       </c>
       <c r="O889" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P889" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="Q889" t="n">
         <v>36</v>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E890" t="n">
         <v>13</v>
@@ -64437,7 +64437,7 @@
         </is>
       </c>
       <c r="J890" t="n">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="K890" t="n">
         <v>2000</v>
@@ -64446,7 +64446,7 @@
         <v>2200</v>
       </c>
       <c r="M890" t="n">
-        <v>2089</v>
+        <v>2114</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
@@ -64459,7 +64459,7 @@
         </is>
       </c>
       <c r="P890" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q890" t="n">
         <v>36</v>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E891" t="n">
         <v>13</v>
@@ -64509,16 +64509,16 @@
         </is>
       </c>
       <c r="J891" t="n">
-        <v>380</v>
+        <v>440</v>
       </c>
       <c r="K891" t="n">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="L891" t="n">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="M891" t="n">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64531,7 +64531,7 @@
         </is>
       </c>
       <c r="P891" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q891" t="n">
         <v>36</v>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E892" t="n">
         <v>13</v>
@@ -64581,7 +64581,7 @@
         </is>
       </c>
       <c r="J892" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="K892" t="n">
         <v>2800</v>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E893" t="n">
         <v>13</v>
@@ -64653,16 +64653,16 @@
         </is>
       </c>
       <c r="J893" t="n">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="K893" t="n">
+        <v>2400</v>
+      </c>
+      <c r="L893" t="n">
         <v>2500</v>
       </c>
-      <c r="L893" t="n">
-        <v>2700</v>
-      </c>
       <c r="M893" t="n">
-        <v>2608</v>
+        <v>2447</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
@@ -64675,7 +64675,7 @@
         </is>
       </c>
       <c r="P893" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Q893" t="n">
         <v>36</v>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E894" t="n">
         <v>13</v>
@@ -64725,16 +64725,16 @@
         </is>
       </c>
       <c r="J894" t="n">
-        <v>680</v>
+        <v>640</v>
       </c>
       <c r="K894" t="n">
+        <v>2400</v>
+      </c>
+      <c r="L894" t="n">
         <v>2500</v>
       </c>
-      <c r="L894" t="n">
-        <v>2600</v>
-      </c>
       <c r="M894" t="n">
-        <v>2560</v>
+        <v>2444</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
@@ -64747,7 +64747,7 @@
         </is>
       </c>
       <c r="P894" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q894" t="n">
         <v>36</v>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E895" t="n">
         <v>13</v>
@@ -64797,16 +64797,16 @@
         </is>
       </c>
       <c r="J895" t="n">
-        <v>310</v>
+        <v>540</v>
       </c>
       <c r="K895" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L895" t="n">
         <v>2200</v>
       </c>
       <c r="M895" t="n">
-        <v>2200</v>
+        <v>2093</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
@@ -64819,7 +64819,7 @@
         </is>
       </c>
       <c r="P895" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q895" t="n">
         <v>36</v>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E896" t="n">
         <v>13</v>
@@ -64869,16 +64869,16 @@
         </is>
       </c>
       <c r="J896" t="n">
-        <v>320</v>
+        <v>450</v>
       </c>
       <c r="K896" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L896" t="n">
         <v>2200</v>
       </c>
       <c r="M896" t="n">
-        <v>2200</v>
+        <v>2089</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
@@ -64891,7 +64891,7 @@
         </is>
       </c>
       <c r="P896" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q896" t="n">
         <v>36</v>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E897" t="n">
         <v>13</v>
@@ -64937,20 +64937,20 @@
       </c>
       <c r="I897" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J897" t="n">
-        <v>820</v>
+        <v>380</v>
       </c>
       <c r="K897" t="n">
-        <v>2600</v>
+        <v>2900</v>
       </c>
       <c r="L897" t="n">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="M897" t="n">
-        <v>2715</v>
+        <v>2900</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64963,7 +64963,7 @@
         </is>
       </c>
       <c r="P897" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="Q897" t="n">
         <v>36</v>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E898" t="n">
         <v>13</v>
@@ -65009,20 +65009,20 @@
       </c>
       <c r="I898" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J898" t="n">
-        <v>970</v>
+        <v>340</v>
       </c>
       <c r="K898" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="L898" t="n">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="M898" t="n">
-        <v>2739</v>
+        <v>2800</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65035,7 +65035,7 @@
         </is>
       </c>
       <c r="P898" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q898" t="n">
         <v>36</v>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E899" t="n">
         <v>13</v>
@@ -65081,20 +65081,20 @@
       </c>
       <c r="I899" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J899" t="n">
-        <v>290</v>
+        <v>780</v>
       </c>
       <c r="K899" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L899" t="n">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="M899" t="n">
-        <v>2200</v>
+        <v>2608</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65107,7 +65107,7 @@
         </is>
       </c>
       <c r="P899" t="n">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="Q899" t="n">
         <v>36</v>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E900" t="n">
         <v>13</v>
@@ -65153,20 +65153,20 @@
       </c>
       <c r="I900" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J900" t="n">
-        <v>330</v>
+        <v>680</v>
       </c>
       <c r="K900" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L900" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="M900" t="n">
-        <v>2000</v>
+        <v>2560</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
@@ -65179,7 +65179,7 @@
         </is>
       </c>
       <c r="P900" t="n">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="Q900" t="n">
         <v>36</v>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E901" t="n">
         <v>13</v>
@@ -65225,20 +65225,20 @@
       </c>
       <c r="I901" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J901" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="K901" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="L901" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="M901" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
@@ -65251,7 +65251,7 @@
         </is>
       </c>
       <c r="P901" t="n">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="Q901" t="n">
         <v>36</v>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E902" t="n">
         <v>13</v>
@@ -65297,20 +65297,20 @@
       </c>
       <c r="I902" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J902" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="K902" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="L902" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="M902" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
@@ -65323,7 +65323,7 @@
         </is>
       </c>
       <c r="P902" t="n">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="Q902" t="n">
         <v>36</v>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E903" t="n">
         <v>13</v>
@@ -65373,16 +65373,16 @@
         </is>
       </c>
       <c r="J903" t="n">
-        <v>810</v>
+        <v>820</v>
       </c>
       <c r="K903" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="L903" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="M903" t="n">
-        <v>2252</v>
+        <v>2715</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65395,7 +65395,7 @@
         </is>
       </c>
       <c r="P903" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="Q903" t="n">
         <v>36</v>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E904" t="n">
         <v>13</v>
@@ -65445,16 +65445,16 @@
         </is>
       </c>
       <c r="J904" t="n">
-        <v>690</v>
+        <v>970</v>
       </c>
       <c r="K904" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="L904" t="n">
-        <v>2400</v>
+        <v>2900</v>
       </c>
       <c r="M904" t="n">
-        <v>2319</v>
+        <v>2739</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65467,7 +65467,7 @@
         </is>
       </c>
       <c r="P904" t="n">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="Q904" t="n">
         <v>36</v>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E905" t="n">
         <v>13</v>
@@ -65517,16 +65517,16 @@
         </is>
       </c>
       <c r="J905" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="K905" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="L905" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="M905" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65539,7 +65539,7 @@
         </is>
       </c>
       <c r="P905" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="Q905" t="n">
         <v>36</v>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E906" t="n">
         <v>13</v>
@@ -65589,7 +65589,7 @@
         </is>
       </c>
       <c r="J906" t="n">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="K906" t="n">
         <v>2000</v>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E907" t="n">
         <v>13</v>
@@ -65661,16 +65661,16 @@
         </is>
       </c>
       <c r="J907" t="n">
-        <v>600</v>
+        <v>330</v>
       </c>
       <c r="K907" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="L907" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="M907" t="n">
-        <v>2880</v>
+        <v>2600</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65683,7 +65683,7 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Q907" t="n">
         <v>36</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E908" t="n">
         <v>13</v>
@@ -65729,20 +65729,20 @@
       </c>
       <c r="I908" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J908" t="n">
-        <v>770</v>
+        <v>350</v>
       </c>
       <c r="K908" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="L908" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="M908" t="n">
-        <v>2375</v>
+        <v>2700</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65751,11 +65751,11 @@
       </c>
       <c r="O908" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P908" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="Q908" t="n">
         <v>36</v>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E909" t="n">
         <v>13</v>
@@ -65801,20 +65801,20 @@
       </c>
       <c r="I909" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J909" t="n">
-        <v>410</v>
+        <v>810</v>
       </c>
       <c r="K909" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="L909" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="M909" t="n">
-        <v>1863</v>
+        <v>2252</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65827,7 +65827,7 @@
         </is>
       </c>
       <c r="P909" t="n">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="Q909" t="n">
         <v>36</v>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E910" t="n">
         <v>13</v>
@@ -65873,20 +65873,20 @@
       </c>
       <c r="I910" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J910" t="n">
-        <v>720</v>
+        <v>690</v>
       </c>
       <c r="K910" t="n">
-        <v>3800</v>
+        <v>2200</v>
       </c>
       <c r="L910" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="M910" t="n">
-        <v>3906</v>
+        <v>2319</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65895,11 +65895,11 @@
       </c>
       <c r="O910" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P910" t="n">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="Q910" t="n">
         <v>36</v>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E911" t="n">
         <v>13</v>
@@ -65945,20 +65945,20 @@
       </c>
       <c r="I911" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J911" t="n">
-        <v>810</v>
+        <v>250</v>
       </c>
       <c r="K911" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="L911" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M911" t="n">
-        <v>3852</v>
+        <v>2000</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65967,11 +65967,11 @@
       </c>
       <c r="O911" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P911" t="n">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="Q911" t="n">
         <v>36</v>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E912" t="n">
         <v>13</v>
@@ -66017,20 +66017,20 @@
       </c>
       <c r="I912" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J912" t="n">
-        <v>800</v>
+        <v>290</v>
       </c>
       <c r="K912" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L912" t="n">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="M912" t="n">
-        <v>3161</v>
+        <v>2000</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66039,11 +66039,11 @@
       </c>
       <c r="O912" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P912" t="n">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="Q912" t="n">
         <v>36</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E913" t="n">
         <v>13</v>
@@ -66089,20 +66089,20 @@
       </c>
       <c r="I913" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J913" t="n">
-        <v>920</v>
+        <v>600</v>
       </c>
       <c r="K913" t="n">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="L913" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="M913" t="n">
-        <v>3047</v>
+        <v>2880</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66111,11 +66111,11 @@
       </c>
       <c r="O913" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P913" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Q913" t="n">
         <v>36</v>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E914" t="n">
         <v>13</v>
@@ -66161,20 +66161,20 @@
       </c>
       <c r="I914" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J914" t="n">
-        <v>250</v>
+        <v>770</v>
       </c>
       <c r="K914" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="L914" t="n">
         <v>2500</v>
       </c>
       <c r="M914" t="n">
-        <v>2500</v>
+        <v>2375</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66187,7 +66187,7 @@
         </is>
       </c>
       <c r="P914" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q914" t="n">
         <v>36</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E915" t="n">
         <v>13</v>
@@ -66237,16 +66237,16 @@
         </is>
       </c>
       <c r="J915" t="n">
-        <v>320</v>
+        <v>410</v>
       </c>
       <c r="K915" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L915" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M915" t="n">
-        <v>2500</v>
+        <v>1863</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66255,11 +66255,11 @@
       </c>
       <c r="O915" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P915" t="n">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="Q915" t="n">
         <v>36</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E916" t="n">
         <v>13</v>
@@ -66309,16 +66309,16 @@
         </is>
       </c>
       <c r="J916" t="n">
-        <v>260</v>
+        <v>720</v>
       </c>
       <c r="K916" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L916" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M916" t="n">
-        <v>3000</v>
+        <v>3906</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66331,7 +66331,7 @@
         </is>
       </c>
       <c r="P916" t="n">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="Q916" t="n">
         <v>36</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E917" t="n">
         <v>13</v>
@@ -66381,16 +66381,16 @@
         </is>
       </c>
       <c r="J917" t="n">
-        <v>380</v>
+        <v>810</v>
       </c>
       <c r="K917" t="n">
-        <v>3000</v>
+        <v>3700</v>
       </c>
       <c r="L917" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M917" t="n">
-        <v>3000</v>
+        <v>3852</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66403,7 +66403,7 @@
         </is>
       </c>
       <c r="P917" t="n">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="Q917" t="n">
         <v>36</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E918" t="n">
         <v>13</v>
@@ -66453,16 +66453,16 @@
         </is>
       </c>
       <c r="J918" t="n">
-        <v>770</v>
+        <v>800</v>
       </c>
       <c r="K918" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L918" t="n">
-        <v>2600</v>
+        <v>3300</v>
       </c>
       <c r="M918" t="n">
-        <v>2514</v>
+        <v>3161</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66475,7 +66475,7 @@
         </is>
       </c>
       <c r="P918" t="n">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="Q918" t="n">
         <v>36</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E919" t="n">
         <v>13</v>
@@ -66525,16 +66525,16 @@
         </is>
       </c>
       <c r="J919" t="n">
-        <v>820</v>
+        <v>920</v>
       </c>
       <c r="K919" t="n">
-        <v>2400</v>
+        <v>2900</v>
       </c>
       <c r="L919" t="n">
-        <v>2600</v>
+        <v>3200</v>
       </c>
       <c r="M919" t="n">
-        <v>2515</v>
+        <v>3047</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66547,7 +66547,7 @@
         </is>
       </c>
       <c r="P919" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="Q919" t="n">
         <v>36</v>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E920" t="n">
         <v>13</v>
@@ -66600,13 +66600,13 @@
         <v>250</v>
       </c>
       <c r="K920" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L920" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M920" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66619,7 +66619,7 @@
         </is>
       </c>
       <c r="P920" t="n">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="Q920" t="n">
         <v>36</v>
@@ -66645,58 +66645,490 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E921" t="n">
+        <v>13</v>
+      </c>
+      <c r="F921" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G921" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H921" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I921" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J921" t="n">
+        <v>320</v>
+      </c>
+      <c r="K921" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L921" t="n">
+        <v>2500</v>
+      </c>
+      <c r="M921" t="n">
+        <v>2500</v>
+      </c>
+      <c r="N921" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O921" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P921" t="n">
+        <v>69</v>
+      </c>
+      <c r="Q921" t="n">
+        <v>36</v>
+      </c>
+      <c r="R921" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="n">
+        <v>6</v>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D922" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E921" t="n">
-        <v>13</v>
-      </c>
-      <c r="F921" t="n">
-        <v>100112037</v>
-      </c>
-      <c r="G921" t="inlineStr">
-        <is>
-          <t>Cebollín</t>
-        </is>
-      </c>
-      <c r="H921" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I921" t="inlineStr">
+      <c r="E922" t="n">
+        <v>13</v>
+      </c>
+      <c r="F922" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G922" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H922" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I922" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J922" t="n">
+        <v>260</v>
+      </c>
+      <c r="K922" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L922" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M922" t="n">
+        <v>3000</v>
+      </c>
+      <c r="N922" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O922" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P922" t="n">
+        <v>83</v>
+      </c>
+      <c r="Q922" t="n">
+        <v>36</v>
+      </c>
+      <c r="R922" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="n">
+        <v>6</v>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D923" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E923" t="n">
+        <v>13</v>
+      </c>
+      <c r="F923" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G923" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H923" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I923" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J923" t="n">
+        <v>380</v>
+      </c>
+      <c r="K923" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L923" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M923" t="n">
+        <v>3000</v>
+      </c>
+      <c r="N923" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O923" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P923" t="n">
+        <v>83</v>
+      </c>
+      <c r="Q923" t="n">
+        <v>36</v>
+      </c>
+      <c r="R923" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="n">
+        <v>6</v>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D924" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E924" t="n">
+        <v>13</v>
+      </c>
+      <c r="F924" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G924" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H924" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I924" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J924" t="n">
+        <v>770</v>
+      </c>
+      <c r="K924" t="n">
+        <v>2400</v>
+      </c>
+      <c r="L924" t="n">
+        <v>2600</v>
+      </c>
+      <c r="M924" t="n">
+        <v>2514</v>
+      </c>
+      <c r="N924" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O924" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P924" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q924" t="n">
+        <v>36</v>
+      </c>
+      <c r="R924" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="n">
+        <v>6</v>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D925" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E925" t="n">
+        <v>13</v>
+      </c>
+      <c r="F925" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G925" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H925" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I925" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J925" t="n">
+        <v>820</v>
+      </c>
+      <c r="K925" t="n">
+        <v>2400</v>
+      </c>
+      <c r="L925" t="n">
+        <v>2600</v>
+      </c>
+      <c r="M925" t="n">
+        <v>2515</v>
+      </c>
+      <c r="N925" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O925" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P925" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q925" t="n">
+        <v>36</v>
+      </c>
+      <c r="R925" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="n">
+        <v>6</v>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D926" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E926" t="n">
+        <v>13</v>
+      </c>
+      <c r="F926" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G926" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H926" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I926" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J921" t="n">
+      <c r="J926" t="n">
+        <v>250</v>
+      </c>
+      <c r="K926" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L926" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M926" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N926" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O926" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P926" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q926" t="n">
+        <v>36</v>
+      </c>
+      <c r="R926" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="n">
+        <v>6</v>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D927" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E927" t="n">
+        <v>13</v>
+      </c>
+      <c r="F927" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G927" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H927" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I927" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J927" t="n">
         <v>200</v>
       </c>
-      <c r="K921" t="n">
+      <c r="K927" t="n">
         <v>2000</v>
       </c>
-      <c r="L921" t="n">
+      <c r="L927" t="n">
         <v>2000</v>
       </c>
-      <c r="M921" t="n">
+      <c r="M927" t="n">
         <v>2000</v>
       </c>
-      <c r="N921" t="inlineStr">
-        <is>
-          <t>$/paquete 36 unidades</t>
-        </is>
-      </c>
-      <c r="O921" t="inlineStr">
+      <c r="N927" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O927" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P921" t="n">
+      <c r="P927" t="n">
         <v>56</v>
       </c>
-      <c r="Q921" t="n">
-        <v>36</v>
-      </c>
-      <c r="R921" t="inlineStr">
+      <c r="Q927" t="n">
+        <v>36</v>
+      </c>
+      <c r="R927" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cebollín.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cebollín.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R933"/>
+  <dimension ref="A1:R936"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52749,7 +52749,7 @@
         </is>
       </c>
       <c r="D728" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E728" t="n">
         <v>13</v>
@@ -52773,16 +52773,16 @@
         </is>
       </c>
       <c r="J728" t="n">
-        <v>580</v>
+        <v>1250</v>
       </c>
       <c r="K728" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L728" t="n">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="M728" t="n">
-        <v>3500</v>
+        <v>3192</v>
       </c>
       <c r="N728" t="inlineStr">
         <is>
@@ -52791,11 +52791,11 @@
       </c>
       <c r="O728" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P728" t="n">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="Q728" t="n">
         <v>36</v>
@@ -52821,7 +52821,7 @@
         </is>
       </c>
       <c r="D729" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E729" t="n">
         <v>13</v>
@@ -52845,16 +52845,16 @@
         </is>
       </c>
       <c r="J729" t="n">
-        <v>810</v>
+        <v>1100</v>
       </c>
       <c r="K729" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L729" t="n">
-        <v>3200</v>
+        <v>2700</v>
       </c>
       <c r="M729" t="n">
-        <v>3109</v>
+        <v>2609</v>
       </c>
       <c r="N729" t="inlineStr">
         <is>
@@ -52863,11 +52863,11 @@
       </c>
       <c r="O729" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P729" t="n">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="Q729" t="n">
         <v>36</v>
@@ -52893,7 +52893,7 @@
         </is>
       </c>
       <c r="D730" s="2" t="n">
-        <v>44196</v>
+        <v>44463</v>
       </c>
       <c r="E730" t="n">
         <v>13</v>
@@ -52917,16 +52917,16 @@
         </is>
       </c>
       <c r="J730" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="K730" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L730" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="M730" t="n">
-        <v>2552</v>
+        <v>2114</v>
       </c>
       <c r="N730" t="inlineStr">
         <is>
@@ -52935,11 +52935,11 @@
       </c>
       <c r="O730" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P730" t="n">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="Q730" t="n">
         <v>36</v>
@@ -52965,7 +52965,7 @@
         </is>
       </c>
       <c r="D731" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E731" t="n">
         <v>13</v>
@@ -52985,20 +52985,20 @@
       </c>
       <c r="I731" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J731" t="n">
-        <v>830</v>
+        <v>580</v>
       </c>
       <c r="K731" t="n">
-        <v>2600</v>
+        <v>3500</v>
       </c>
       <c r="L731" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M731" t="n">
-        <v>2812</v>
+        <v>3500</v>
       </c>
       <c r="N731" t="inlineStr">
         <is>
@@ -53007,11 +53007,11 @@
       </c>
       <c r="O731" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P731" t="n">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="Q731" t="n">
         <v>36</v>
@@ -53037,7 +53037,7 @@
         </is>
       </c>
       <c r="D732" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E732" t="n">
         <v>13</v>
@@ -53061,16 +53061,16 @@
         </is>
       </c>
       <c r="J732" t="n">
-        <v>1010</v>
+        <v>810</v>
       </c>
       <c r="K732" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="L732" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="M732" t="n">
-        <v>2707</v>
+        <v>3109</v>
       </c>
       <c r="N732" t="inlineStr">
         <is>
@@ -53083,7 +53083,7 @@
         </is>
       </c>
       <c r="P732" t="n">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="Q732" t="n">
         <v>36</v>
@@ -53109,7 +53109,7 @@
         </is>
       </c>
       <c r="D733" s="2" t="n">
-        <v>44301</v>
+        <v>44196</v>
       </c>
       <c r="E733" t="n">
         <v>13</v>
@@ -53133,16 +53133,16 @@
         </is>
       </c>
       <c r="J733" t="n">
-        <v>280</v>
+        <v>500</v>
       </c>
       <c r="K733" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L733" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="M733" t="n">
-        <v>2000</v>
+        <v>2552</v>
       </c>
       <c r="N733" t="inlineStr">
         <is>
@@ -53151,11 +53151,11 @@
       </c>
       <c r="O733" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P733" t="n">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="Q733" t="n">
         <v>36</v>
@@ -53201,20 +53201,20 @@
       </c>
       <c r="I734" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J734" t="n">
-        <v>330</v>
+        <v>830</v>
       </c>
       <c r="K734" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="L734" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M734" t="n">
-        <v>2000</v>
+        <v>2812</v>
       </c>
       <c r="N734" t="inlineStr">
         <is>
@@ -53223,11 +53223,11 @@
       </c>
       <c r="O734" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P734" t="n">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="Q734" t="n">
         <v>36</v>
@@ -53253,7 +53253,7 @@
         </is>
       </c>
       <c r="D735" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E735" t="n">
         <v>13</v>
@@ -53277,16 +53277,16 @@
         </is>
       </c>
       <c r="J735" t="n">
-        <v>580</v>
+        <v>1010</v>
       </c>
       <c r="K735" t="n">
-        <v>3800</v>
+        <v>2600</v>
       </c>
       <c r="L735" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="M735" t="n">
-        <v>3924</v>
+        <v>2707</v>
       </c>
       <c r="N735" t="inlineStr">
         <is>
@@ -53295,11 +53295,11 @@
       </c>
       <c r="O735" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P735" t="n">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="Q735" t="n">
         <v>36</v>
@@ -53325,7 +53325,7 @@
         </is>
       </c>
       <c r="D736" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E736" t="n">
         <v>13</v>
@@ -53345,20 +53345,20 @@
       </c>
       <c r="I736" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J736" t="n">
         <v>280</v>
       </c>
       <c r="K736" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="L736" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M736" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="N736" t="inlineStr">
         <is>
@@ -53367,11 +53367,11 @@
       </c>
       <c r="O736" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P736" t="n">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="Q736" t="n">
         <v>36</v>
@@ -53397,7 +53397,7 @@
         </is>
       </c>
       <c r="D737" s="2" t="n">
-        <v>44251</v>
+        <v>44301</v>
       </c>
       <c r="E737" t="n">
         <v>13</v>
@@ -53421,16 +53421,16 @@
         </is>
       </c>
       <c r="J737" t="n">
-        <v>390</v>
+        <v>330</v>
       </c>
       <c r="K737" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="L737" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="M737" t="n">
-        <v>3464</v>
+        <v>2000</v>
       </c>
       <c r="N737" t="inlineStr">
         <is>
@@ -53439,11 +53439,11 @@
       </c>
       <c r="O737" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P737" t="n">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="Q737" t="n">
         <v>36</v>
@@ -53489,20 +53489,20 @@
       </c>
       <c r="I738" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J738" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="K738" t="n">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="L738" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M738" t="n">
-        <v>3500</v>
+        <v>3924</v>
       </c>
       <c r="N738" t="inlineStr">
         <is>
@@ -53511,11 +53511,11 @@
       </c>
       <c r="O738" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P738" t="n">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="Q738" t="n">
         <v>36</v>
@@ -53541,7 +53541,7 @@
         </is>
       </c>
       <c r="D739" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E739" t="n">
         <v>13</v>
@@ -53565,16 +53565,16 @@
         </is>
       </c>
       <c r="J739" t="n">
-        <v>850</v>
+        <v>280</v>
       </c>
       <c r="K739" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="L739" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="M739" t="n">
-        <v>2556</v>
+        <v>4000</v>
       </c>
       <c r="N739" t="inlineStr">
         <is>
@@ -53583,11 +53583,11 @@
       </c>
       <c r="O739" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P739" t="n">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="Q739" t="n">
         <v>36</v>
@@ -53613,7 +53613,7 @@
         </is>
       </c>
       <c r="D740" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E740" t="n">
         <v>13</v>
@@ -53633,20 +53633,20 @@
       </c>
       <c r="I740" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J740" t="n">
-        <v>900</v>
+        <v>390</v>
       </c>
       <c r="K740" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="L740" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M740" t="n">
-        <v>2683</v>
+        <v>3464</v>
       </c>
       <c r="N740" t="inlineStr">
         <is>
@@ -53655,11 +53655,11 @@
       </c>
       <c r="O740" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P740" t="n">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="Q740" t="n">
         <v>36</v>
@@ -53685,7 +53685,7 @@
         </is>
       </c>
       <c r="D741" s="2" t="n">
-        <v>44243</v>
+        <v>44251</v>
       </c>
       <c r="E741" t="n">
         <v>13</v>
@@ -53709,16 +53709,16 @@
         </is>
       </c>
       <c r="J741" t="n">
-        <v>520</v>
+        <v>200</v>
       </c>
       <c r="K741" t="n">
-        <v>2200</v>
+        <v>3500</v>
       </c>
       <c r="L741" t="n">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="M741" t="n">
-        <v>2262</v>
+        <v>3500</v>
       </c>
       <c r="N741" t="inlineStr">
         <is>
@@ -53727,11 +53727,11 @@
       </c>
       <c r="O741" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P741" t="n">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="Q741" t="n">
         <v>36</v>
@@ -53777,20 +53777,20 @@
       </c>
       <c r="I742" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J742" t="n">
-        <v>440</v>
+        <v>850</v>
       </c>
       <c r="K742" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L742" t="n">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="M742" t="n">
-        <v>2250</v>
+        <v>2556</v>
       </c>
       <c r="N742" t="inlineStr">
         <is>
@@ -53799,11 +53799,11 @@
       </c>
       <c r="O742" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P742" t="n">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="Q742" t="n">
         <v>36</v>
@@ -53829,7 +53829,7 @@
         </is>
       </c>
       <c r="D743" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E743" t="n">
         <v>13</v>
@@ -53853,16 +53853,16 @@
         </is>
       </c>
       <c r="J743" t="n">
-        <v>590</v>
+        <v>900</v>
       </c>
       <c r="K743" t="n">
-        <v>3800</v>
+        <v>2500</v>
       </c>
       <c r="L743" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="M743" t="n">
-        <v>3892</v>
+        <v>2683</v>
       </c>
       <c r="N743" t="inlineStr">
         <is>
@@ -53871,11 +53871,11 @@
       </c>
       <c r="O743" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P743" t="n">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="Q743" t="n">
         <v>36</v>
@@ -53901,7 +53901,7 @@
         </is>
       </c>
       <c r="D744" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E744" t="n">
         <v>13</v>
@@ -53921,20 +53921,20 @@
       </c>
       <c r="I744" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J744" t="n">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="K744" t="n">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="L744" t="n">
-        <v>4000</v>
+        <v>2300</v>
       </c>
       <c r="M744" t="n">
-        <v>4000</v>
+        <v>2262</v>
       </c>
       <c r="N744" t="inlineStr">
         <is>
@@ -53943,11 +53943,11 @@
       </c>
       <c r="O744" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P744" t="n">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="Q744" t="n">
         <v>36</v>
@@ -53973,7 +53973,7 @@
         </is>
       </c>
       <c r="D745" s="2" t="n">
-        <v>44252</v>
+        <v>44243</v>
       </c>
       <c r="E745" t="n">
         <v>13</v>
@@ -53997,16 +53997,16 @@
         </is>
       </c>
       <c r="J745" t="n">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="K745" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="L745" t="n">
-        <v>3600</v>
+        <v>2300</v>
       </c>
       <c r="M745" t="n">
-        <v>3547</v>
+        <v>2250</v>
       </c>
       <c r="N745" t="inlineStr">
         <is>
@@ -54015,11 +54015,11 @@
       </c>
       <c r="O745" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P745" t="n">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="Q745" t="n">
         <v>36</v>
@@ -54065,20 +54065,20 @@
       </c>
       <c r="I746" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J746" t="n">
-        <v>290</v>
+        <v>590</v>
       </c>
       <c r="K746" t="n">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="L746" t="n">
-        <v>3500</v>
+        <v>4000</v>
       </c>
       <c r="M746" t="n">
-        <v>3500</v>
+        <v>3892</v>
       </c>
       <c r="N746" t="inlineStr">
         <is>
@@ -54087,11 +54087,11 @@
       </c>
       <c r="O746" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P746" t="n">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="Q746" t="n">
         <v>36</v>
@@ -54117,7 +54117,7 @@
         </is>
       </c>
       <c r="D747" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E747" t="n">
         <v>13</v>
@@ -54137,20 +54137,20 @@
       </c>
       <c r="I747" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J747" t="n">
-        <v>630</v>
+        <v>440</v>
       </c>
       <c r="K747" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="L747" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M747" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="N747" t="inlineStr">
         <is>
@@ -54163,7 +54163,7 @@
         </is>
       </c>
       <c r="P747" t="n">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="Q747" t="n">
         <v>36</v>
@@ -54189,7 +54189,7 @@
         </is>
       </c>
       <c r="D748" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E748" t="n">
         <v>13</v>
@@ -54209,20 +54209,20 @@
       </c>
       <c r="I748" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J748" t="n">
-        <v>920</v>
+        <v>470</v>
       </c>
       <c r="K748" t="n">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="L748" t="n">
-        <v>2500</v>
+        <v>3600</v>
       </c>
       <c r="M748" t="n">
-        <v>2405</v>
+        <v>3547</v>
       </c>
       <c r="N748" t="inlineStr">
         <is>
@@ -54231,11 +54231,11 @@
       </c>
       <c r="O748" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P748" t="n">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="Q748" t="n">
         <v>36</v>
@@ -54261,7 +54261,7 @@
         </is>
       </c>
       <c r="D749" s="2" t="n">
-        <v>44166</v>
+        <v>44252</v>
       </c>
       <c r="E749" t="n">
         <v>13</v>
@@ -54285,16 +54285,16 @@
         </is>
       </c>
       <c r="J749" t="n">
-        <v>600</v>
+        <v>290</v>
       </c>
       <c r="K749" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L749" t="n">
-        <v>2100</v>
+        <v>3500</v>
       </c>
       <c r="M749" t="n">
-        <v>2033</v>
+        <v>3500</v>
       </c>
       <c r="N749" t="inlineStr">
         <is>
@@ -54307,7 +54307,7 @@
         </is>
       </c>
       <c r="P749" t="n">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="Q749" t="n">
         <v>36</v>
@@ -54333,7 +54333,7 @@
         </is>
       </c>
       <c r="D750" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E750" t="n">
         <v>13</v>
@@ -54357,17 +54357,17 @@
         </is>
       </c>
       <c r="J750" t="n">
-        <v>490</v>
+        <v>630</v>
       </c>
       <c r="K750" t="n">
         <v>2700</v>
       </c>
       <c r="L750" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M750" t="n">
         <v>2800</v>
       </c>
-      <c r="M750" t="n">
-        <v>2743</v>
-      </c>
       <c r="N750" t="inlineStr">
         <is>
           <t>$/paquete 36 unidades</t>
@@ -54379,7 +54379,7 @@
         </is>
       </c>
       <c r="P750" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q750" t="n">
         <v>36</v>
@@ -54405,7 +54405,7 @@
         </is>
       </c>
       <c r="D751" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E751" t="n">
         <v>13</v>
@@ -54429,16 +54429,16 @@
         </is>
       </c>
       <c r="J751" t="n">
-        <v>850</v>
+        <v>920</v>
       </c>
       <c r="K751" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="L751" t="n">
         <v>2500</v>
       </c>
       <c r="M751" t="n">
-        <v>2479</v>
+        <v>2405</v>
       </c>
       <c r="N751" t="inlineStr">
         <is>
@@ -54451,7 +54451,7 @@
         </is>
       </c>
       <c r="P751" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q751" t="n">
         <v>36</v>
@@ -54477,7 +54477,7 @@
         </is>
       </c>
       <c r="D752" s="2" t="n">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="E752" t="n">
         <v>13</v>
@@ -54501,16 +54501,16 @@
         </is>
       </c>
       <c r="J752" t="n">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="K752" t="n">
         <v>2000</v>
       </c>
       <c r="L752" t="n">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="M752" t="n">
-        <v>2066</v>
+        <v>2033</v>
       </c>
       <c r="N752" t="inlineStr">
         <is>
@@ -54523,7 +54523,7 @@
         </is>
       </c>
       <c r="P752" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q752" t="n">
         <v>36</v>
@@ -54549,7 +54549,7 @@
         </is>
       </c>
       <c r="D753" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E753" t="n">
         <v>13</v>
@@ -54573,16 +54573,16 @@
         </is>
       </c>
       <c r="J753" t="n">
-        <v>380</v>
+        <v>490</v>
       </c>
       <c r="K753" t="n">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="L753" t="n">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="M753" t="n">
-        <v>2900</v>
+        <v>2743</v>
       </c>
       <c r="N753" t="inlineStr">
         <is>
@@ -54591,11 +54591,11 @@
       </c>
       <c r="O753" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P753" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Q753" t="n">
         <v>36</v>
@@ -54621,7 +54621,7 @@
         </is>
       </c>
       <c r="D754" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E754" t="n">
         <v>13</v>
@@ -54641,20 +54641,20 @@
       </c>
       <c r="I754" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J754" t="n">
-        <v>410</v>
+        <v>850</v>
       </c>
       <c r="K754" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L754" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M754" t="n">
-        <v>3000</v>
+        <v>2479</v>
       </c>
       <c r="N754" t="inlineStr">
         <is>
@@ -54667,7 +54667,7 @@
         </is>
       </c>
       <c r="P754" t="n">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="Q754" t="n">
         <v>36</v>
@@ -54693,7 +54693,7 @@
         </is>
       </c>
       <c r="D755" s="2" t="n">
-        <v>44369</v>
+        <v>44168</v>
       </c>
       <c r="E755" t="n">
         <v>13</v>
@@ -54713,20 +54713,20 @@
       </c>
       <c r="I755" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J755" t="n">
-        <v>750</v>
+        <v>580</v>
       </c>
       <c r="K755" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="L755" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="M755" t="n">
-        <v>2460</v>
+        <v>2066</v>
       </c>
       <c r="N755" t="inlineStr">
         <is>
@@ -54735,11 +54735,11 @@
       </c>
       <c r="O755" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P755" t="n">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="Q755" t="n">
         <v>36</v>
@@ -54785,20 +54785,20 @@
       </c>
       <c r="I756" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J756" t="n">
-        <v>790</v>
+        <v>380</v>
       </c>
       <c r="K756" t="n">
-        <v>2400</v>
+        <v>2900</v>
       </c>
       <c r="L756" t="n">
-        <v>2600</v>
+        <v>2900</v>
       </c>
       <c r="M756" t="n">
-        <v>2519</v>
+        <v>2900</v>
       </c>
       <c r="N756" t="inlineStr">
         <is>
@@ -54807,11 +54807,11 @@
       </c>
       <c r="O756" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P756" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="Q756" t="n">
         <v>36</v>
@@ -54857,20 +54857,20 @@
       </c>
       <c r="I757" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J757" t="n">
-        <v>290</v>
+        <v>410</v>
       </c>
       <c r="K757" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L757" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M757" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="N757" t="inlineStr">
         <is>
@@ -54879,11 +54879,11 @@
       </c>
       <c r="O757" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P757" t="n">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="Q757" t="n">
         <v>36</v>
@@ -54929,20 +54929,20 @@
       </c>
       <c r="I758" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J758" t="n">
-        <v>330</v>
+        <v>750</v>
       </c>
       <c r="K758" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="L758" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M758" t="n">
-        <v>2200</v>
+        <v>2460</v>
       </c>
       <c r="N758" t="inlineStr">
         <is>
@@ -54951,11 +54951,11 @@
       </c>
       <c r="O758" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P758" t="n">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="Q758" t="n">
         <v>36</v>
@@ -54981,7 +54981,7 @@
         </is>
       </c>
       <c r="D759" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E759" t="n">
         <v>13</v>
@@ -55001,20 +55001,20 @@
       </c>
       <c r="I759" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J759" t="n">
-        <v>710</v>
+        <v>790</v>
       </c>
       <c r="K759" t="n">
-        <v>3800</v>
+        <v>2400</v>
       </c>
       <c r="L759" t="n">
-        <v>4000</v>
+        <v>2600</v>
       </c>
       <c r="M759" t="n">
-        <v>3907</v>
+        <v>2519</v>
       </c>
       <c r="N759" t="inlineStr">
         <is>
@@ -55023,11 +55023,11 @@
       </c>
       <c r="O759" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P759" t="n">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="Q759" t="n">
         <v>36</v>
@@ -55053,7 +55053,7 @@
         </is>
       </c>
       <c r="D760" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E760" t="n">
         <v>13</v>
@@ -55073,20 +55073,20 @@
       </c>
       <c r="I760" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J760" t="n">
-        <v>700</v>
+        <v>290</v>
       </c>
       <c r="K760" t="n">
-        <v>3700</v>
+        <v>2200</v>
       </c>
       <c r="L760" t="n">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="M760" t="n">
-        <v>3854</v>
+        <v>2200</v>
       </c>
       <c r="N760" t="inlineStr">
         <is>
@@ -55095,11 +55095,11 @@
       </c>
       <c r="O760" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P760" t="n">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="Q760" t="n">
         <v>36</v>
@@ -55125,7 +55125,7 @@
         </is>
       </c>
       <c r="D761" s="2" t="n">
-        <v>44433</v>
+        <v>44369</v>
       </c>
       <c r="E761" t="n">
         <v>13</v>
@@ -55145,20 +55145,20 @@
       </c>
       <c r="I761" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J761" t="n">
-        <v>840</v>
+        <v>330</v>
       </c>
       <c r="K761" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="L761" t="n">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="M761" t="n">
-        <v>3107</v>
+        <v>2200</v>
       </c>
       <c r="N761" t="inlineStr">
         <is>
@@ -55167,11 +55167,11 @@
       </c>
       <c r="O761" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P761" t="n">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="Q761" t="n">
         <v>36</v>
@@ -55217,20 +55217,20 @@
       </c>
       <c r="I762" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J762" t="n">
-        <v>810</v>
+        <v>710</v>
       </c>
       <c r="K762" t="n">
-        <v>2900</v>
+        <v>3800</v>
       </c>
       <c r="L762" t="n">
-        <v>3300</v>
+        <v>4000</v>
       </c>
       <c r="M762" t="n">
-        <v>3107</v>
+        <v>3907</v>
       </c>
       <c r="N762" t="inlineStr">
         <is>
@@ -55239,11 +55239,11 @@
       </c>
       <c r="O762" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P762" t="n">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="Q762" t="n">
         <v>36</v>
@@ -55289,20 +55289,20 @@
       </c>
       <c r="I763" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J763" t="n">
-        <v>270</v>
+        <v>700</v>
       </c>
       <c r="K763" t="n">
-        <v>2200</v>
+        <v>3700</v>
       </c>
       <c r="L763" t="n">
-        <v>2200</v>
+        <v>4000</v>
       </c>
       <c r="M763" t="n">
-        <v>2200</v>
+        <v>3854</v>
       </c>
       <c r="N763" t="inlineStr">
         <is>
@@ -55311,11 +55311,11 @@
       </c>
       <c r="O763" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P763" t="n">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="Q763" t="n">
         <v>36</v>
@@ -55361,20 +55361,20 @@
       </c>
       <c r="I764" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J764" t="n">
-        <v>310</v>
+        <v>840</v>
       </c>
       <c r="K764" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L764" t="n">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="M764" t="n">
-        <v>2200</v>
+        <v>3107</v>
       </c>
       <c r="N764" t="inlineStr">
         <is>
@@ -55383,11 +55383,11 @@
       </c>
       <c r="O764" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P764" t="n">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="Q764" t="n">
         <v>36</v>
@@ -55413,7 +55413,7 @@
         </is>
       </c>
       <c r="D765" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E765" t="n">
         <v>13</v>
@@ -55433,20 +55433,20 @@
       </c>
       <c r="I765" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J765" t="n">
-        <v>350</v>
+        <v>810</v>
       </c>
       <c r="K765" t="n">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="L765" t="n">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="M765" t="n">
-        <v>3000</v>
+        <v>3107</v>
       </c>
       <c r="N765" t="inlineStr">
         <is>
@@ -55455,11 +55455,11 @@
       </c>
       <c r="O765" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P765" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q765" t="n">
         <v>36</v>
@@ -55485,7 +55485,7 @@
         </is>
       </c>
       <c r="D766" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E766" t="n">
         <v>13</v>
@@ -55505,20 +55505,20 @@
       </c>
       <c r="I766" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J766" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="K766" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="L766" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="M766" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="N766" t="inlineStr">
         <is>
@@ -55527,11 +55527,11 @@
       </c>
       <c r="O766" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P766" t="n">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="Q766" t="n">
         <v>36</v>
@@ -55557,7 +55557,7 @@
         </is>
       </c>
       <c r="D767" s="2" t="n">
-        <v>44221</v>
+        <v>44433</v>
       </c>
       <c r="E767" t="n">
         <v>13</v>
@@ -55577,20 +55577,20 @@
       </c>
       <c r="I767" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J767" t="n">
-        <v>520</v>
+        <v>310</v>
       </c>
       <c r="K767" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="L767" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="M767" t="n">
-        <v>2608</v>
+        <v>2200</v>
       </c>
       <c r="N767" t="inlineStr">
         <is>
@@ -55599,11 +55599,11 @@
       </c>
       <c r="O767" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P767" t="n">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="Q767" t="n">
         <v>36</v>
@@ -55649,20 +55649,20 @@
       </c>
       <c r="I768" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J768" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="K768" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L768" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M768" t="n">
-        <v>2602</v>
+        <v>3000</v>
       </c>
       <c r="N768" t="inlineStr">
         <is>
@@ -55671,11 +55671,11 @@
       </c>
       <c r="O768" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P768" t="n">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="Q768" t="n">
         <v>36</v>
@@ -55721,20 +55721,20 @@
       </c>
       <c r="I769" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J769" t="n">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="K769" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L769" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="M769" t="n">
-        <v>2164</v>
+        <v>3000</v>
       </c>
       <c r="N769" t="inlineStr">
         <is>
@@ -55743,11 +55743,11 @@
       </c>
       <c r="O769" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P769" t="n">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="Q769" t="n">
         <v>36</v>
@@ -55793,20 +55793,20 @@
       </c>
       <c r="I770" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J770" t="n">
-        <v>280</v>
+        <v>520</v>
       </c>
       <c r="K770" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L770" t="n">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="M770" t="n">
-        <v>2107</v>
+        <v>2608</v>
       </c>
       <c r="N770" t="inlineStr">
         <is>
@@ -55815,11 +55815,11 @@
       </c>
       <c r="O770" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P770" t="n">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="Q770" t="n">
         <v>36</v>
@@ -55845,7 +55845,7 @@
         </is>
       </c>
       <c r="D771" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E771" t="n">
         <v>13</v>
@@ -55865,20 +55865,20 @@
       </c>
       <c r="I771" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J771" t="n">
-        <v>370</v>
+        <v>450</v>
       </c>
       <c r="K771" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L771" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="M771" t="n">
-        <v>2800</v>
+        <v>2602</v>
       </c>
       <c r="N771" t="inlineStr">
         <is>
@@ -55887,11 +55887,11 @@
       </c>
       <c r="O771" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P771" t="n">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Q771" t="n">
         <v>36</v>
@@ -55917,7 +55917,7 @@
         </is>
       </c>
       <c r="D772" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E772" t="n">
         <v>13</v>
@@ -55937,20 +55937,20 @@
       </c>
       <c r="I772" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J772" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="K772" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L772" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="M772" t="n">
-        <v>2800</v>
+        <v>2164</v>
       </c>
       <c r="N772" t="inlineStr">
         <is>
@@ -55959,11 +55959,11 @@
       </c>
       <c r="O772" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P772" t="n">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="Q772" t="n">
         <v>36</v>
@@ -55989,7 +55989,7 @@
         </is>
       </c>
       <c r="D773" s="2" t="n">
-        <v>44371</v>
+        <v>44221</v>
       </c>
       <c r="E773" t="n">
         <v>13</v>
@@ -56009,20 +56009,20 @@
       </c>
       <c r="I773" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J773" t="n">
-        <v>710</v>
+        <v>280</v>
       </c>
       <c r="K773" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L773" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="M773" t="n">
-        <v>2559</v>
+        <v>2107</v>
       </c>
       <c r="N773" t="inlineStr">
         <is>
@@ -56031,11 +56031,11 @@
       </c>
       <c r="O773" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P773" t="n">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="Q773" t="n">
         <v>36</v>
@@ -56081,20 +56081,20 @@
       </c>
       <c r="I774" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J774" t="n">
-        <v>750</v>
+        <v>370</v>
       </c>
       <c r="K774" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="L774" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="M774" t="n">
-        <v>2509</v>
+        <v>2800</v>
       </c>
       <c r="N774" t="inlineStr">
         <is>
@@ -56103,11 +56103,11 @@
       </c>
       <c r="O774" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P774" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="Q774" t="n">
         <v>36</v>
@@ -56153,20 +56153,20 @@
       </c>
       <c r="I775" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J775" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="K775" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="L775" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="M775" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="N775" t="inlineStr">
         <is>
@@ -56175,11 +56175,11 @@
       </c>
       <c r="O775" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P775" t="n">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="Q775" t="n">
         <v>36</v>
@@ -56225,20 +56225,20 @@
       </c>
       <c r="I776" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J776" t="n">
-        <v>270</v>
+        <v>710</v>
       </c>
       <c r="K776" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L776" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="M776" t="n">
-        <v>2200</v>
+        <v>2559</v>
       </c>
       <c r="N776" t="inlineStr">
         <is>
@@ -56247,11 +56247,11 @@
       </c>
       <c r="O776" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P776" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="Q776" t="n">
         <v>36</v>
@@ -56277,7 +56277,7 @@
         </is>
       </c>
       <c r="D777" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E777" t="n">
         <v>13</v>
@@ -56301,16 +56301,16 @@
         </is>
       </c>
       <c r="J777" t="n">
-        <v>1010</v>
+        <v>750</v>
       </c>
       <c r="K777" t="n">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="L777" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="M777" t="n">
-        <v>2407</v>
+        <v>2509</v>
       </c>
       <c r="N777" t="inlineStr">
         <is>
@@ -56319,11 +56319,11 @@
       </c>
       <c r="O777" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P777" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q777" t="n">
         <v>36</v>
@@ -56349,7 +56349,7 @@
         </is>
       </c>
       <c r="D778" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E778" t="n">
         <v>13</v>
@@ -56369,20 +56369,20 @@
       </c>
       <c r="I778" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J778" t="n">
-        <v>830</v>
+        <v>360</v>
       </c>
       <c r="K778" t="n">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="L778" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="M778" t="n">
-        <v>2389</v>
+        <v>2200</v>
       </c>
       <c r="N778" t="inlineStr">
         <is>
@@ -56391,11 +56391,11 @@
       </c>
       <c r="O778" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P778" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="Q778" t="n">
         <v>36</v>
@@ -56421,7 +56421,7 @@
         </is>
       </c>
       <c r="D779" s="2" t="n">
-        <v>44316</v>
+        <v>44371</v>
       </c>
       <c r="E779" t="n">
         <v>13</v>
@@ -56445,16 +56445,16 @@
         </is>
       </c>
       <c r="J779" t="n">
-        <v>330</v>
+        <v>270</v>
       </c>
       <c r="K779" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="L779" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="M779" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="N779" t="inlineStr">
         <is>
@@ -56463,11 +56463,11 @@
       </c>
       <c r="O779" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P779" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="Q779" t="n">
         <v>36</v>
@@ -56513,20 +56513,20 @@
       </c>
       <c r="I780" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J780" t="n">
-        <v>300</v>
+        <v>1010</v>
       </c>
       <c r="K780" t="n">
-        <v>1700</v>
+        <v>2300</v>
       </c>
       <c r="L780" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="M780" t="n">
-        <v>1700</v>
+        <v>2407</v>
       </c>
       <c r="N780" t="inlineStr">
         <is>
@@ -56535,11 +56535,11 @@
       </c>
       <c r="O780" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P780" t="n">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="Q780" t="n">
         <v>36</v>
@@ -56565,7 +56565,7 @@
         </is>
       </c>
       <c r="D781" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E781" t="n">
         <v>13</v>
@@ -56589,16 +56589,16 @@
         </is>
       </c>
       <c r="J781" t="n">
-        <v>640</v>
+        <v>830</v>
       </c>
       <c r="K781" t="n">
-        <v>3400</v>
+        <v>2300</v>
       </c>
       <c r="L781" t="n">
-        <v>3600</v>
+        <v>2500</v>
       </c>
       <c r="M781" t="n">
-        <v>3512</v>
+        <v>2389</v>
       </c>
       <c r="N781" t="inlineStr">
         <is>
@@ -56607,11 +56607,11 @@
       </c>
       <c r="O781" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P781" t="n">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="Q781" t="n">
         <v>36</v>
@@ -56637,7 +56637,7 @@
         </is>
       </c>
       <c r="D782" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E782" t="n">
         <v>13</v>
@@ -56657,20 +56657,20 @@
       </c>
       <c r="I782" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J782" t="n">
-        <v>660</v>
+        <v>330</v>
       </c>
       <c r="K782" t="n">
-        <v>3400</v>
+        <v>1800</v>
       </c>
       <c r="L782" t="n">
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="M782" t="n">
-        <v>3518</v>
+        <v>1800</v>
       </c>
       <c r="N782" t="inlineStr">
         <is>
@@ -56679,11 +56679,11 @@
       </c>
       <c r="O782" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P782" t="n">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="Q782" t="n">
         <v>36</v>
@@ -56709,7 +56709,7 @@
         </is>
       </c>
       <c r="D783" s="2" t="n">
-        <v>44279</v>
+        <v>44316</v>
       </c>
       <c r="E783" t="n">
         <v>13</v>
@@ -56733,16 +56733,16 @@
         </is>
       </c>
       <c r="J783" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K783" t="n">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="L783" t="n">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="M783" t="n">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="N783" t="inlineStr">
         <is>
@@ -56751,11 +56751,11 @@
       </c>
       <c r="O783" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P783" t="n">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="Q783" t="n">
         <v>36</v>
@@ -56801,20 +56801,20 @@
       </c>
       <c r="I784" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J784" t="n">
-        <v>230</v>
+        <v>640</v>
       </c>
       <c r="K784" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="L784" t="n">
-        <v>2800</v>
+        <v>3600</v>
       </c>
       <c r="M784" t="n">
-        <v>2800</v>
+        <v>3512</v>
       </c>
       <c r="N784" t="inlineStr">
         <is>
@@ -56823,11 +56823,11 @@
       </c>
       <c r="O784" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P784" t="n">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="Q784" t="n">
         <v>36</v>
@@ -56853,7 +56853,7 @@
         </is>
       </c>
       <c r="D785" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E785" t="n">
         <v>13</v>
@@ -56873,20 +56873,20 @@
       </c>
       <c r="I785" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J785" t="n">
-        <v>250</v>
+        <v>660</v>
       </c>
       <c r="K785" t="n">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="L785" t="n">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="M785" t="n">
-        <v>3396</v>
+        <v>3518</v>
       </c>
       <c r="N785" t="inlineStr">
         <is>
@@ -56899,7 +56899,7 @@
         </is>
       </c>
       <c r="P785" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Q785" t="n">
         <v>36</v>
@@ -56925,7 +56925,7 @@
         </is>
       </c>
       <c r="D786" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E786" t="n">
         <v>13</v>
@@ -56945,20 +56945,20 @@
       </c>
       <c r="I786" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J786" t="n">
-        <v>340</v>
+        <v>250</v>
       </c>
       <c r="K786" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="L786" t="n">
         <v>3000</v>
       </c>
       <c r="M786" t="n">
-        <v>2841</v>
+        <v>3000</v>
       </c>
       <c r="N786" t="inlineStr">
         <is>
@@ -56967,11 +56967,11 @@
       </c>
       <c r="O786" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P786" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Q786" t="n">
         <v>36</v>
@@ -56997,7 +56997,7 @@
         </is>
       </c>
       <c r="D787" s="2" t="n">
-        <v>44397</v>
+        <v>44279</v>
       </c>
       <c r="E787" t="n">
         <v>13</v>
@@ -57021,16 +57021,16 @@
         </is>
       </c>
       <c r="J787" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="K787" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="L787" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="M787" t="n">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="N787" t="inlineStr">
         <is>
@@ -57043,7 +57043,7 @@
         </is>
       </c>
       <c r="P787" t="n">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="Q787" t="n">
         <v>36</v>
@@ -57069,7 +57069,7 @@
         </is>
       </c>
       <c r="D788" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E788" t="n">
         <v>13</v>
@@ -57093,16 +57093,16 @@
         </is>
       </c>
       <c r="J788" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="K788" t="n">
-        <v>2800</v>
+        <v>3300</v>
       </c>
       <c r="L788" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M788" t="n">
-        <v>2800</v>
+        <v>3396</v>
       </c>
       <c r="N788" t="inlineStr">
         <is>
@@ -57111,11 +57111,11 @@
       </c>
       <c r="O788" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P788" t="n">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="Q788" t="n">
         <v>36</v>
@@ -57141,7 +57141,7 @@
         </is>
       </c>
       <c r="D789" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E789" t="n">
         <v>13</v>
@@ -57161,20 +57161,20 @@
       </c>
       <c r="I789" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J789" t="n">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="K789" t="n">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="L789" t="n">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="M789" t="n">
-        <v>2900</v>
+        <v>2841</v>
       </c>
       <c r="N789" t="inlineStr">
         <is>
@@ -57187,7 +57187,7 @@
         </is>
       </c>
       <c r="P789" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q789" t="n">
         <v>36</v>
@@ -57213,7 +57213,7 @@
         </is>
       </c>
       <c r="D790" s="2" t="n">
-        <v>44363</v>
+        <v>44397</v>
       </c>
       <c r="E790" t="n">
         <v>13</v>
@@ -57233,20 +57233,20 @@
       </c>
       <c r="I790" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J790" t="n">
-        <v>670</v>
+        <v>260</v>
       </c>
       <c r="K790" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="L790" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="M790" t="n">
-        <v>2413</v>
+        <v>2100</v>
       </c>
       <c r="N790" t="inlineStr">
         <is>
@@ -57255,11 +57255,11 @@
       </c>
       <c r="O790" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P790" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="Q790" t="n">
         <v>36</v>
@@ -57305,20 +57305,20 @@
       </c>
       <c r="I791" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J791" t="n">
-        <v>670</v>
+        <v>330</v>
       </c>
       <c r="K791" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="L791" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="M791" t="n">
-        <v>2516</v>
+        <v>2800</v>
       </c>
       <c r="N791" t="inlineStr">
         <is>
@@ -57327,11 +57327,11 @@
       </c>
       <c r="O791" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P791" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="Q791" t="n">
         <v>36</v>
@@ -57377,20 +57377,20 @@
       </c>
       <c r="I792" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J792" t="n">
-        <v>250</v>
+        <v>370</v>
       </c>
       <c r="K792" t="n">
-        <v>2000</v>
+        <v>2900</v>
       </c>
       <c r="L792" t="n">
-        <v>2000</v>
+        <v>2900</v>
       </c>
       <c r="M792" t="n">
-        <v>2000</v>
+        <v>2900</v>
       </c>
       <c r="N792" t="inlineStr">
         <is>
@@ -57399,11 +57399,11 @@
       </c>
       <c r="O792" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P792" t="n">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="Q792" t="n">
         <v>36</v>
@@ -57449,20 +57449,20 @@
       </c>
       <c r="I793" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J793" t="n">
-        <v>240</v>
+        <v>670</v>
       </c>
       <c r="K793" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="L793" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M793" t="n">
-        <v>2000</v>
+        <v>2413</v>
       </c>
       <c r="N793" t="inlineStr">
         <is>
@@ -57471,11 +57471,11 @@
       </c>
       <c r="O793" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P793" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="Q793" t="n">
         <v>36</v>
@@ -57501,7 +57501,7 @@
         </is>
       </c>
       <c r="D794" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E794" t="n">
         <v>13</v>
@@ -57525,16 +57525,16 @@
         </is>
       </c>
       <c r="J794" t="n">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="K794" t="n">
-        <v>3400</v>
+        <v>2400</v>
       </c>
       <c r="L794" t="n">
-        <v>3600</v>
+        <v>2600</v>
       </c>
       <c r="M794" t="n">
-        <v>3515</v>
+        <v>2516</v>
       </c>
       <c r="N794" t="inlineStr">
         <is>
@@ -57543,11 +57543,11 @@
       </c>
       <c r="O794" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P794" t="n">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="Q794" t="n">
         <v>36</v>
@@ -57573,7 +57573,7 @@
         </is>
       </c>
       <c r="D795" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E795" t="n">
         <v>13</v>
@@ -57593,20 +57593,20 @@
       </c>
       <c r="I795" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J795" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="K795" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="L795" t="n">
-        <v>3600</v>
+        <v>2000</v>
       </c>
       <c r="M795" t="n">
-        <v>3512</v>
+        <v>2000</v>
       </c>
       <c r="N795" t="inlineStr">
         <is>
@@ -57615,11 +57615,11 @@
       </c>
       <c r="O795" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P795" t="n">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="Q795" t="n">
         <v>36</v>
@@ -57645,7 +57645,7 @@
         </is>
       </c>
       <c r="D796" s="2" t="n">
-        <v>44277</v>
+        <v>44363</v>
       </c>
       <c r="E796" t="n">
         <v>13</v>
@@ -57669,16 +57669,16 @@
         </is>
       </c>
       <c r="J796" t="n">
-        <v>480</v>
+        <v>240</v>
       </c>
       <c r="K796" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L796" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M796" t="n">
-        <v>2900</v>
+        <v>2000</v>
       </c>
       <c r="N796" t="inlineStr">
         <is>
@@ -57687,11 +57687,11 @@
       </c>
       <c r="O796" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P796" t="n">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="Q796" t="n">
         <v>36</v>
@@ -57737,20 +57737,20 @@
       </c>
       <c r="I797" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J797" t="n">
-        <v>540</v>
+        <v>660</v>
       </c>
       <c r="K797" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="L797" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="M797" t="n">
-        <v>2911</v>
+        <v>3515</v>
       </c>
       <c r="N797" t="inlineStr">
         <is>
@@ -57759,11 +57759,11 @@
       </c>
       <c r="O797" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P797" t="n">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="Q797" t="n">
         <v>36</v>
@@ -57789,7 +57789,7 @@
         </is>
       </c>
       <c r="D798" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E798" t="n">
         <v>13</v>
@@ -57813,16 +57813,16 @@
         </is>
       </c>
       <c r="J798" t="n">
-        <v>580</v>
+        <v>750</v>
       </c>
       <c r="K798" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="L798" t="n">
-        <v>3300</v>
+        <v>3600</v>
       </c>
       <c r="M798" t="n">
-        <v>3171</v>
+        <v>3512</v>
       </c>
       <c r="N798" t="inlineStr">
         <is>
@@ -57831,11 +57831,11 @@
       </c>
       <c r="O798" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P798" t="n">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="Q798" t="n">
         <v>36</v>
@@ -57861,7 +57861,7 @@
         </is>
       </c>
       <c r="D799" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E799" t="n">
         <v>13</v>
@@ -57881,20 +57881,20 @@
       </c>
       <c r="I799" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J799" t="n">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="K799" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L799" t="n">
         <v>3000</v>
       </c>
-      <c r="L799" t="n">
-        <v>3400</v>
-      </c>
       <c r="M799" t="n">
-        <v>3238</v>
+        <v>2900</v>
       </c>
       <c r="N799" t="inlineStr">
         <is>
@@ -57903,11 +57903,11 @@
       </c>
       <c r="O799" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P799" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="Q799" t="n">
         <v>36</v>
@@ -57933,7 +57933,7 @@
         </is>
       </c>
       <c r="D800" s="2" t="n">
-        <v>44291</v>
+        <v>44277</v>
       </c>
       <c r="E800" t="n">
         <v>13</v>
@@ -57957,16 +57957,16 @@
         </is>
       </c>
       <c r="J800" t="n">
-        <v>200</v>
+        <v>540</v>
       </c>
       <c r="K800" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L800" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M800" t="n">
-        <v>2500</v>
+        <v>2911</v>
       </c>
       <c r="N800" t="inlineStr">
         <is>
@@ -57975,11 +57975,11 @@
       </c>
       <c r="O800" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P800" t="n">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="Q800" t="n">
         <v>36</v>
@@ -58025,20 +58025,20 @@
       </c>
       <c r="I801" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J801" t="n">
-        <v>220</v>
+        <v>580</v>
       </c>
       <c r="K801" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L801" t="n">
-        <v>2400</v>
+        <v>3300</v>
       </c>
       <c r="M801" t="n">
-        <v>2400</v>
+        <v>3171</v>
       </c>
       <c r="N801" t="inlineStr">
         <is>
@@ -58047,11 +58047,11 @@
       </c>
       <c r="O801" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P801" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="Q801" t="n">
         <v>36</v>
@@ -58077,7 +58077,7 @@
         </is>
       </c>
       <c r="D802" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E802" t="n">
         <v>13</v>
@@ -58101,16 +58101,16 @@
         </is>
       </c>
       <c r="J802" t="n">
-        <v>820</v>
+        <v>640</v>
       </c>
       <c r="K802" t="n">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="L802" t="n">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="M802" t="n">
-        <v>3407</v>
+        <v>3238</v>
       </c>
       <c r="N802" t="inlineStr">
         <is>
@@ -58119,11 +58119,11 @@
       </c>
       <c r="O802" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P802" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Q802" t="n">
         <v>36</v>
@@ -58149,7 +58149,7 @@
         </is>
       </c>
       <c r="D803" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E803" t="n">
         <v>13</v>
@@ -58169,20 +58169,20 @@
       </c>
       <c r="I803" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J803" t="n">
-        <v>900</v>
+        <v>200</v>
       </c>
       <c r="K803" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="L803" t="n">
-        <v>3600</v>
+        <v>2500</v>
       </c>
       <c r="M803" t="n">
-        <v>3507</v>
+        <v>2500</v>
       </c>
       <c r="N803" t="inlineStr">
         <is>
@@ -58191,11 +58191,11 @@
       </c>
       <c r="O803" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P803" t="n">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="Q803" t="n">
         <v>36</v>
@@ -58221,7 +58221,7 @@
         </is>
       </c>
       <c r="D804" s="2" t="n">
-        <v>44273</v>
+        <v>44291</v>
       </c>
       <c r="E804" t="n">
         <v>13</v>
@@ -58245,16 +58245,16 @@
         </is>
       </c>
       <c r="J804" t="n">
-        <v>540</v>
+        <v>220</v>
       </c>
       <c r="K804" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="L804" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M804" t="n">
-        <v>2907</v>
+        <v>2400</v>
       </c>
       <c r="N804" t="inlineStr">
         <is>
@@ -58263,11 +58263,11 @@
       </c>
       <c r="O804" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P804" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="Q804" t="n">
         <v>36</v>
@@ -58313,20 +58313,20 @@
       </c>
       <c r="I805" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J805" t="n">
-        <v>690</v>
+        <v>820</v>
       </c>
       <c r="K805" t="n">
-        <v>2800</v>
+        <v>3300</v>
       </c>
       <c r="L805" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M805" t="n">
-        <v>2904</v>
+        <v>3407</v>
       </c>
       <c r="N805" t="inlineStr">
         <is>
@@ -58335,11 +58335,11 @@
       </c>
       <c r="O805" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P805" t="n">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="Q805" t="n">
         <v>36</v>
@@ -58365,7 +58365,7 @@
         </is>
       </c>
       <c r="D806" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E806" t="n">
         <v>13</v>
@@ -58385,20 +58385,20 @@
       </c>
       <c r="I806" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J806" t="n">
-        <v>350</v>
+        <v>900</v>
       </c>
       <c r="K806" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="L806" t="n">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="M806" t="n">
-        <v>4000</v>
+        <v>3507</v>
       </c>
       <c r="N806" t="inlineStr">
         <is>
@@ -58407,11 +58407,11 @@
       </c>
       <c r="O806" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P806" t="n">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="Q806" t="n">
         <v>36</v>
@@ -58437,7 +58437,7 @@
         </is>
       </c>
       <c r="D807" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E807" t="n">
         <v>13</v>
@@ -58457,20 +58457,20 @@
       </c>
       <c r="I807" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J807" t="n">
-        <v>270</v>
+        <v>540</v>
       </c>
       <c r="K807" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="L807" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M807" t="n">
-        <v>4000</v>
+        <v>2907</v>
       </c>
       <c r="N807" t="inlineStr">
         <is>
@@ -58479,11 +58479,11 @@
       </c>
       <c r="O807" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P807" t="n">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="Q807" t="n">
         <v>36</v>
@@ -58509,7 +58509,7 @@
         </is>
       </c>
       <c r="D808" s="2" t="n">
-        <v>44438</v>
+        <v>44273</v>
       </c>
       <c r="E808" t="n">
         <v>13</v>
@@ -58529,20 +58529,20 @@
       </c>
       <c r="I808" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J808" t="n">
-        <v>800</v>
+        <v>690</v>
       </c>
       <c r="K808" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L808" t="n">
         <v>3000</v>
       </c>
-      <c r="L808" t="n">
-        <v>3200</v>
-      </c>
       <c r="M808" t="n">
-        <v>3105</v>
+        <v>2904</v>
       </c>
       <c r="N808" t="inlineStr">
         <is>
@@ -58551,11 +58551,11 @@
       </c>
       <c r="O808" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P808" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="Q808" t="n">
         <v>36</v>
@@ -58601,20 +58601,20 @@
       </c>
       <c r="I809" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J809" t="n">
-        <v>680</v>
+        <v>350</v>
       </c>
       <c r="K809" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L809" t="n">
-        <v>3300</v>
+        <v>4000</v>
       </c>
       <c r="M809" t="n">
-        <v>3185</v>
+        <v>4000</v>
       </c>
       <c r="N809" t="inlineStr">
         <is>
@@ -58623,11 +58623,11 @@
       </c>
       <c r="O809" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P809" t="n">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="Q809" t="n">
         <v>36</v>
@@ -58673,20 +58673,20 @@
       </c>
       <c r="I810" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J810" t="n">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="K810" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="L810" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M810" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="N810" t="inlineStr">
         <is>
@@ -58695,11 +58695,11 @@
       </c>
       <c r="O810" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P810" t="n">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="Q810" t="n">
         <v>36</v>
@@ -58745,20 +58745,20 @@
       </c>
       <c r="I811" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J811" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K811" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L811" t="n">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="M811" t="n">
-        <v>2400</v>
+        <v>3105</v>
       </c>
       <c r="N811" t="inlineStr">
         <is>
@@ -58767,11 +58767,11 @@
       </c>
       <c r="O811" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P811" t="n">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="Q811" t="n">
         <v>36</v>
@@ -58797,7 +58797,7 @@
         </is>
       </c>
       <c r="D812" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E812" t="n">
         <v>13</v>
@@ -58817,20 +58817,20 @@
       </c>
       <c r="I812" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J812" t="n">
-        <v>440</v>
+        <v>680</v>
       </c>
       <c r="K812" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="L812" t="n">
-        <v>2700</v>
+        <v>3300</v>
       </c>
       <c r="M812" t="n">
-        <v>2700</v>
+        <v>3185</v>
       </c>
       <c r="N812" t="inlineStr">
         <is>
@@ -58839,11 +58839,11 @@
       </c>
       <c r="O812" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P812" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="Q812" t="n">
         <v>36</v>
@@ -58869,7 +58869,7 @@
         </is>
       </c>
       <c r="D813" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E813" t="n">
         <v>13</v>
@@ -58889,20 +58889,20 @@
       </c>
       <c r="I813" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J813" t="n">
-        <v>360</v>
+        <v>220</v>
       </c>
       <c r="K813" t="n">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="L813" t="n">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="M813" t="n">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="N813" t="inlineStr">
         <is>
@@ -58911,11 +58911,11 @@
       </c>
       <c r="O813" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P813" t="n">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="Q813" t="n">
         <v>36</v>
@@ -58941,7 +58941,7 @@
         </is>
       </c>
       <c r="D814" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E814" t="n">
         <v>13</v>
@@ -58961,20 +58961,20 @@
       </c>
       <c r="I814" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J814" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="K814" t="n">
         <v>2400</v>
       </c>
       <c r="L814" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="M814" t="n">
-        <v>2446</v>
+        <v>2400</v>
       </c>
       <c r="N814" t="inlineStr">
         <is>
@@ -58983,11 +58983,11 @@
       </c>
       <c r="O814" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P814" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q814" t="n">
         <v>36</v>
@@ -59033,20 +59033,20 @@
       </c>
       <c r="I815" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J815" t="n">
-        <v>900</v>
+        <v>440</v>
       </c>
       <c r="K815" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="L815" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="M815" t="n">
-        <v>2447</v>
+        <v>2700</v>
       </c>
       <c r="N815" t="inlineStr">
         <is>
@@ -59055,11 +59055,11 @@
       </c>
       <c r="O815" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P815" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="Q815" t="n">
         <v>36</v>
@@ -59105,20 +59105,20 @@
       </c>
       <c r="I816" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J816" t="n">
-        <v>250</v>
+        <v>360</v>
       </c>
       <c r="K816" t="n">
-        <v>2200</v>
+        <v>2900</v>
       </c>
       <c r="L816" t="n">
-        <v>2200</v>
+        <v>2900</v>
       </c>
       <c r="M816" t="n">
-        <v>2200</v>
+        <v>2900</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
@@ -59127,11 +59127,11 @@
       </c>
       <c r="O816" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P816" t="n">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="Q816" t="n">
         <v>36</v>
@@ -59177,20 +59177,20 @@
       </c>
       <c r="I817" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J817" t="n">
-        <v>310</v>
+        <v>720</v>
       </c>
       <c r="K817" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L817" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M817" t="n">
-        <v>2000</v>
+        <v>2446</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
@@ -59199,11 +59199,11 @@
       </c>
       <c r="O817" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P817" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="Q817" t="n">
         <v>36</v>
@@ -59229,7 +59229,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E818" t="n">
         <v>13</v>
@@ -59253,16 +59253,16 @@
         </is>
       </c>
       <c r="J818" t="n">
-        <v>720</v>
+        <v>900</v>
       </c>
       <c r="K818" t="n">
-        <v>3300</v>
+        <v>2400</v>
       </c>
       <c r="L818" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M818" t="n">
-        <v>3422</v>
+        <v>2447</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
@@ -59271,11 +59271,11 @@
       </c>
       <c r="O818" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P818" t="n">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="Q818" t="n">
         <v>36</v>
@@ -59301,7 +59301,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E819" t="n">
         <v>13</v>
@@ -59321,20 +59321,20 @@
       </c>
       <c r="I819" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J819" t="n">
-        <v>620</v>
+        <v>250</v>
       </c>
       <c r="K819" t="n">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="L819" t="n">
-        <v>3600</v>
+        <v>2200</v>
       </c>
       <c r="M819" t="n">
-        <v>3519</v>
+        <v>2200</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
@@ -59343,11 +59343,11 @@
       </c>
       <c r="O819" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P819" t="n">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="Q819" t="n">
         <v>36</v>
@@ -59373,7 +59373,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E820" t="n">
         <v>13</v>
@@ -59397,16 +59397,16 @@
         </is>
       </c>
       <c r="J820" t="n">
-        <v>200</v>
+        <v>310</v>
       </c>
       <c r="K820" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L820" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M820" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
@@ -59415,11 +59415,11 @@
       </c>
       <c r="O820" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P820" t="n">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="Q820" t="n">
         <v>36</v>
@@ -59465,20 +59465,20 @@
       </c>
       <c r="I821" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J821" t="n">
-        <v>240</v>
+        <v>720</v>
       </c>
       <c r="K821" t="n">
-        <v>2700</v>
+        <v>3300</v>
       </c>
       <c r="L821" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="M821" t="n">
-        <v>2700</v>
+        <v>3422</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
@@ -59487,11 +59487,11 @@
       </c>
       <c r="O821" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P821" t="n">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="Q821" t="n">
         <v>36</v>
@@ -59517,7 +59517,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E822" t="n">
         <v>13</v>
@@ -59537,20 +59537,20 @@
       </c>
       <c r="I822" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J822" t="n">
-        <v>520</v>
+        <v>620</v>
       </c>
       <c r="K822" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="L822" t="n">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="M822" t="n">
-        <v>3100</v>
+        <v>3519</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
@@ -59563,7 +59563,7 @@
         </is>
       </c>
       <c r="P822" t="n">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="Q822" t="n">
         <v>36</v>
@@ -59589,7 +59589,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E823" t="n">
         <v>13</v>
@@ -59609,20 +59609,20 @@
       </c>
       <c r="I823" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J823" t="n">
-        <v>1320</v>
+        <v>200</v>
       </c>
       <c r="K823" t="n">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="L823" t="n">
         <v>2800</v>
       </c>
       <c r="M823" t="n">
-        <v>2750</v>
+        <v>2800</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
@@ -59631,11 +59631,11 @@
       </c>
       <c r="O823" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P823" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q823" t="n">
         <v>36</v>
@@ -59661,7 +59661,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E824" t="n">
         <v>13</v>
@@ -59685,16 +59685,16 @@
         </is>
       </c>
       <c r="J824" t="n">
-        <v>700</v>
+        <v>240</v>
       </c>
       <c r="K824" t="n">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="L824" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="M824" t="n">
-        <v>2250</v>
+        <v>2700</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
@@ -59707,7 +59707,7 @@
         </is>
       </c>
       <c r="P824" t="n">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="Q824" t="n">
         <v>36</v>
@@ -59733,7 +59733,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E825" t="n">
         <v>13</v>
@@ -59757,16 +59757,16 @@
         </is>
       </c>
       <c r="J825" t="n">
-        <v>330</v>
+        <v>520</v>
       </c>
       <c r="K825" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="L825" t="n">
-        <v>2600</v>
+        <v>3200</v>
       </c>
       <c r="M825" t="n">
-        <v>2600</v>
+        <v>3100</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
@@ -59775,11 +59775,11 @@
       </c>
       <c r="O825" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P825" t="n">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q825" t="n">
         <v>36</v>
@@ -59805,7 +59805,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E826" t="n">
         <v>13</v>
@@ -59825,20 +59825,20 @@
       </c>
       <c r="I826" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J826" t="n">
-        <v>330</v>
+        <v>1320</v>
       </c>
       <c r="K826" t="n">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="L826" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="M826" t="n">
-        <v>2600</v>
+        <v>2750</v>
       </c>
       <c r="N826" t="inlineStr">
         <is>
@@ -59851,7 +59851,7 @@
         </is>
       </c>
       <c r="P826" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Q826" t="n">
         <v>36</v>
@@ -59877,7 +59877,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E827" t="n">
         <v>13</v>
@@ -59897,20 +59897,20 @@
       </c>
       <c r="I827" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J827" t="n">
-        <v>810</v>
+        <v>700</v>
       </c>
       <c r="K827" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="L827" t="n">
         <v>2300</v>
       </c>
       <c r="M827" t="n">
-        <v>2167</v>
+        <v>2250</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
@@ -59919,11 +59919,11 @@
       </c>
       <c r="O827" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P827" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q827" t="n">
         <v>36</v>
@@ -59969,20 +59969,20 @@
       </c>
       <c r="I828" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J828" t="n">
-        <v>650</v>
+        <v>330</v>
       </c>
       <c r="K828" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="L828" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="M828" t="n">
-        <v>2117</v>
+        <v>2600</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
@@ -59991,11 +59991,11 @@
       </c>
       <c r="O828" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P828" t="n">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="Q828" t="n">
         <v>36</v>
@@ -60041,20 +60041,20 @@
       </c>
       <c r="I829" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J829" t="n">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="K829" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="L829" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="M829" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
@@ -60063,11 +60063,11 @@
       </c>
       <c r="O829" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P829" t="n">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="Q829" t="n">
         <v>36</v>
@@ -60113,20 +60113,20 @@
       </c>
       <c r="I830" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J830" t="n">
-        <v>180</v>
+        <v>810</v>
       </c>
       <c r="K830" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="L830" t="n">
-        <v>1700</v>
+        <v>2300</v>
       </c>
       <c r="M830" t="n">
-        <v>1700</v>
+        <v>2167</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
@@ -60135,11 +60135,11 @@
       </c>
       <c r="O830" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P830" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="Q830" t="n">
         <v>36</v>
@@ -60165,7 +60165,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E831" t="n">
         <v>13</v>
@@ -60185,20 +60185,20 @@
       </c>
       <c r="I831" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J831" t="n">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="K831" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L831" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="M831" t="n">
-        <v>2500</v>
+        <v>2117</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
@@ -60211,7 +60211,7 @@
         </is>
       </c>
       <c r="P831" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="Q831" t="n">
         <v>36</v>
@@ -60237,7 +60237,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E832" t="n">
         <v>13</v>
@@ -60257,20 +60257,20 @@
       </c>
       <c r="I832" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J832" t="n">
-        <v>860</v>
+        <v>270</v>
       </c>
       <c r="K832" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L832" t="n">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="M832" t="n">
-        <v>2170</v>
+        <v>1800</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
@@ -60279,11 +60279,11 @@
       </c>
       <c r="O832" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P832" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Q832" t="n">
         <v>36</v>
@@ -60309,7 +60309,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E833" t="n">
         <v>13</v>
@@ -60333,16 +60333,16 @@
         </is>
       </c>
       <c r="J833" t="n">
-        <v>470</v>
+        <v>180</v>
       </c>
       <c r="K833" t="n">
         <v>1700</v>
       </c>
       <c r="L833" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M833" t="n">
-        <v>1840</v>
+        <v>1700</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
@@ -60355,7 +60355,7 @@
         </is>
       </c>
       <c r="P833" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q833" t="n">
         <v>36</v>
@@ -60381,7 +60381,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E834" t="n">
         <v>13</v>
@@ -60405,16 +60405,16 @@
         </is>
       </c>
       <c r="J834" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="K834" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="L834" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="M834" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
@@ -60423,11 +60423,11 @@
       </c>
       <c r="O834" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P834" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Q834" t="n">
         <v>36</v>
@@ -60453,7 +60453,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E835" t="n">
         <v>13</v>
@@ -60473,20 +60473,20 @@
       </c>
       <c r="I835" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J835" t="n">
-        <v>420</v>
+        <v>860</v>
       </c>
       <c r="K835" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="L835" t="n">
-        <v>2600</v>
+        <v>2300</v>
       </c>
       <c r="M835" t="n">
-        <v>2600</v>
+        <v>2170</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
@@ -60499,7 +60499,7 @@
         </is>
       </c>
       <c r="P835" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="Q835" t="n">
         <v>36</v>
@@ -60525,7 +60525,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E836" t="n">
         <v>13</v>
@@ -60545,20 +60545,20 @@
       </c>
       <c r="I836" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J836" t="n">
-        <v>970</v>
+        <v>470</v>
       </c>
       <c r="K836" t="n">
+        <v>1700</v>
+      </c>
+      <c r="L836" t="n">
         <v>2000</v>
       </c>
-      <c r="L836" t="n">
-        <v>2200</v>
-      </c>
       <c r="M836" t="n">
-        <v>2093</v>
+        <v>1840</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
@@ -60567,11 +60567,11 @@
       </c>
       <c r="O836" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P836" t="n">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="Q836" t="n">
         <v>36</v>
@@ -60617,20 +60617,20 @@
       </c>
       <c r="I837" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J837" t="n">
-        <v>840</v>
+        <v>330</v>
       </c>
       <c r="K837" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="L837" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="M837" t="n">
-        <v>2090</v>
+        <v>2600</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
@@ -60639,11 +60639,11 @@
       </c>
       <c r="O837" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P837" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="Q837" t="n">
         <v>36</v>
@@ -60689,20 +60689,20 @@
       </c>
       <c r="I838" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J838" t="n">
-        <v>290</v>
+        <v>420</v>
       </c>
       <c r="K838" t="n">
-        <v>1700</v>
+        <v>2600</v>
       </c>
       <c r="L838" t="n">
-        <v>1700</v>
+        <v>2600</v>
       </c>
       <c r="M838" t="n">
-        <v>1700</v>
+        <v>2600</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
@@ -60711,11 +60711,11 @@
       </c>
       <c r="O838" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P838" t="n">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="Q838" t="n">
         <v>36</v>
@@ -60761,20 +60761,20 @@
       </c>
       <c r="I839" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J839" t="n">
-        <v>280</v>
+        <v>970</v>
       </c>
       <c r="K839" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="L839" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="M839" t="n">
-        <v>1700</v>
+        <v>2093</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
@@ -60783,11 +60783,11 @@
       </c>
       <c r="O839" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P839" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="Q839" t="n">
         <v>36</v>
@@ -60813,7 +60813,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E840" t="n">
         <v>13</v>
@@ -60833,20 +60833,20 @@
       </c>
       <c r="I840" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J840" t="n">
-        <v>380</v>
+        <v>840</v>
       </c>
       <c r="K840" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L840" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="M840" t="n">
-        <v>3000</v>
+        <v>2090</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
@@ -60855,11 +60855,11 @@
       </c>
       <c r="O840" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P840" t="n">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="Q840" t="n">
         <v>36</v>
@@ -60885,7 +60885,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E841" t="n">
         <v>13</v>
@@ -60905,20 +60905,20 @@
       </c>
       <c r="I841" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J841" t="n">
-        <v>410</v>
+        <v>290</v>
       </c>
       <c r="K841" t="n">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="L841" t="n">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="M841" t="n">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
@@ -60927,11 +60927,11 @@
       </c>
       <c r="O841" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P841" t="n">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="Q841" t="n">
         <v>36</v>
@@ -60957,7 +60957,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E842" t="n">
         <v>13</v>
@@ -60977,20 +60977,20 @@
       </c>
       <c r="I842" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J842" t="n">
-        <v>800</v>
+        <v>280</v>
       </c>
       <c r="K842" t="n">
-        <v>2400</v>
+        <v>1700</v>
       </c>
       <c r="L842" t="n">
-        <v>2600</v>
+        <v>1700</v>
       </c>
       <c r="M842" t="n">
-        <v>2510</v>
+        <v>1700</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
@@ -60999,11 +60999,11 @@
       </c>
       <c r="O842" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P842" t="n">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="Q842" t="n">
         <v>36</v>
@@ -61049,20 +61049,20 @@
       </c>
       <c r="I843" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J843" t="n">
-        <v>840</v>
+        <v>380</v>
       </c>
       <c r="K843" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L843" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M843" t="n">
-        <v>2610</v>
+        <v>3000</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
@@ -61071,11 +61071,11 @@
       </c>
       <c r="O843" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P843" t="n">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="Q843" t="n">
         <v>36</v>
@@ -61121,20 +61121,20 @@
       </c>
       <c r="I844" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J844" t="n">
-        <v>250</v>
+        <v>410</v>
       </c>
       <c r="K844" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L844" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M844" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
@@ -61143,11 +61143,11 @@
       </c>
       <c r="O844" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P844" t="n">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="Q844" t="n">
         <v>36</v>
@@ -61193,20 +61193,20 @@
       </c>
       <c r="I845" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J845" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
       <c r="K845" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="L845" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="M845" t="n">
-        <v>2200</v>
+        <v>2510</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
@@ -61215,11 +61215,11 @@
       </c>
       <c r="O845" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P845" t="n">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="Q845" t="n">
         <v>36</v>
@@ -61245,7 +61245,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E846" t="n">
         <v>13</v>
@@ -61269,16 +61269,16 @@
         </is>
       </c>
       <c r="J846" t="n">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="K846" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="L846" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="M846" t="n">
-        <v>2812</v>
+        <v>2610</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
@@ -61287,11 +61287,11 @@
       </c>
       <c r="O846" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P846" t="n">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Q846" t="n">
         <v>36</v>
@@ -61317,7 +61317,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E847" t="n">
         <v>13</v>
@@ -61337,20 +61337,20 @@
       </c>
       <c r="I847" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J847" t="n">
-        <v>950</v>
+        <v>250</v>
       </c>
       <c r="K847" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="L847" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="M847" t="n">
-        <v>2667</v>
+        <v>2200</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
@@ -61359,11 +61359,11 @@
       </c>
       <c r="O847" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P847" t="n">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="Q847" t="n">
         <v>36</v>
@@ -61389,7 +61389,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E848" t="n">
         <v>13</v>
@@ -61413,16 +61413,16 @@
         </is>
       </c>
       <c r="J848" t="n">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="K848" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="L848" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="M848" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
@@ -61431,11 +61431,11 @@
       </c>
       <c r="O848" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P848" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="Q848" t="n">
         <v>36</v>
@@ -61481,20 +61481,20 @@
       </c>
       <c r="I849" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J849" t="n">
-        <v>280</v>
+        <v>830</v>
       </c>
       <c r="K849" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="L849" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M849" t="n">
-        <v>2000</v>
+        <v>2812</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
@@ -61503,11 +61503,11 @@
       </c>
       <c r="O849" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P849" t="n">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="Q849" t="n">
         <v>36</v>
@@ -61533,7 +61533,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E850" t="n">
         <v>13</v>
@@ -61553,20 +61553,20 @@
       </c>
       <c r="I850" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J850" t="n">
-        <v>580</v>
+        <v>950</v>
       </c>
       <c r="K850" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L850" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="M850" t="n">
-        <v>3043</v>
+        <v>2667</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
@@ -61579,7 +61579,7 @@
         </is>
       </c>
       <c r="P850" t="n">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="Q850" t="n">
         <v>36</v>
@@ -61605,7 +61605,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E851" t="n">
         <v>13</v>
@@ -61625,20 +61625,20 @@
       </c>
       <c r="I851" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J851" t="n">
-        <v>1020</v>
+        <v>270</v>
       </c>
       <c r="K851" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L851" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M851" t="n">
-        <v>2630</v>
+        <v>2000</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
@@ -61647,11 +61647,11 @@
       </c>
       <c r="O851" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P851" t="n">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="Q851" t="n">
         <v>36</v>
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E852" t="n">
         <v>13</v>
@@ -61701,16 +61701,16 @@
         </is>
       </c>
       <c r="J852" t="n">
-        <v>800</v>
+        <v>280</v>
       </c>
       <c r="K852" t="n">
         <v>2000</v>
       </c>
       <c r="L852" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="M852" t="n">
-        <v>2108</v>
+        <v>2000</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
@@ -61723,7 +61723,7 @@
         </is>
       </c>
       <c r="P852" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Q852" t="n">
         <v>36</v>
@@ -61749,7 +61749,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E853" t="n">
         <v>13</v>
@@ -61773,16 +61773,16 @@
         </is>
       </c>
       <c r="J853" t="n">
-        <v>440</v>
+        <v>580</v>
       </c>
       <c r="K853" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L853" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="M853" t="n">
-        <v>2800</v>
+        <v>3043</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
@@ -61795,7 +61795,7 @@
         </is>
       </c>
       <c r="P853" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="Q853" t="n">
         <v>36</v>
@@ -61821,7 +61821,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E854" t="n">
         <v>13</v>
@@ -61845,16 +61845,16 @@
         </is>
       </c>
       <c r="J854" t="n">
-        <v>730</v>
+        <v>1020</v>
       </c>
       <c r="K854" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L854" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M854" t="n">
-        <v>2401</v>
+        <v>2630</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
@@ -61867,7 +61867,7 @@
         </is>
       </c>
       <c r="P854" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="Q854" t="n">
         <v>36</v>
@@ -61893,7 +61893,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44175</v>
+        <v>44215</v>
       </c>
       <c r="E855" t="n">
         <v>13</v>
@@ -61917,7 +61917,7 @@
         </is>
       </c>
       <c r="J855" t="n">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="K855" t="n">
         <v>2000</v>
@@ -61926,7 +61926,7 @@
         <v>2200</v>
       </c>
       <c r="M855" t="n">
-        <v>2091</v>
+        <v>2108</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61939,7 +61939,7 @@
         </is>
       </c>
       <c r="P855" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q855" t="n">
         <v>36</v>
@@ -61965,7 +61965,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E856" t="n">
         <v>13</v>
@@ -61989,16 +61989,16 @@
         </is>
       </c>
       <c r="J856" t="n">
-        <v>650</v>
+        <v>440</v>
       </c>
       <c r="K856" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L856" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="M856" t="n">
-        <v>3285</v>
+        <v>2800</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62007,11 +62007,11 @@
       </c>
       <c r="O856" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P856" t="n">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="Q856" t="n">
         <v>36</v>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E857" t="n">
         <v>13</v>
@@ -62057,20 +62057,20 @@
       </c>
       <c r="I857" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J857" t="n">
-        <v>660</v>
+        <v>730</v>
       </c>
       <c r="K857" t="n">
-        <v>3200</v>
+        <v>2300</v>
       </c>
       <c r="L857" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M857" t="n">
-        <v>3355</v>
+        <v>2401</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
@@ -62083,7 +62083,7 @@
         </is>
       </c>
       <c r="P857" t="n">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="Q857" t="n">
         <v>36</v>
@@ -62109,7 +62109,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E858" t="n">
         <v>13</v>
@@ -62129,20 +62129,20 @@
       </c>
       <c r="I858" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J858" t="n">
-        <v>790</v>
+        <v>550</v>
       </c>
       <c r="K858" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L858" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="M858" t="n">
-        <v>2667</v>
+        <v>2091</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
@@ -62151,11 +62151,11 @@
       </c>
       <c r="O858" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P858" t="n">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="Q858" t="n">
         <v>36</v>
@@ -62201,20 +62201,20 @@
       </c>
       <c r="I859" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J859" t="n">
-        <v>750</v>
+        <v>650</v>
       </c>
       <c r="K859" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L859" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="M859" t="n">
-        <v>2601</v>
+        <v>3285</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62223,11 +62223,11 @@
       </c>
       <c r="O859" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P859" t="n">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="Q859" t="n">
         <v>36</v>
@@ -62273,20 +62273,20 @@
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J860" t="n">
-        <v>250</v>
+        <v>660</v>
       </c>
       <c r="K860" t="n">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="L860" t="n">
-        <v>2200</v>
+        <v>3500</v>
       </c>
       <c r="M860" t="n">
-        <v>2200</v>
+        <v>3355</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
@@ -62295,11 +62295,11 @@
       </c>
       <c r="O860" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P860" t="n">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="Q860" t="n">
         <v>36</v>
@@ -62345,20 +62345,20 @@
       </c>
       <c r="I861" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J861" t="n">
-        <v>290</v>
+        <v>790</v>
       </c>
       <c r="K861" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L861" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="M861" t="n">
-        <v>2200</v>
+        <v>2667</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62367,11 +62367,11 @@
       </c>
       <c r="O861" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P861" t="n">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="Q861" t="n">
         <v>36</v>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E862" t="n">
         <v>13</v>
@@ -62417,20 +62417,20 @@
       </c>
       <c r="I862" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J862" t="n">
-        <v>380</v>
+        <v>750</v>
       </c>
       <c r="K862" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="L862" t="n">
         <v>2700</v>
       </c>
       <c r="M862" t="n">
-        <v>2700</v>
+        <v>2601</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62439,11 +62439,11 @@
       </c>
       <c r="O862" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P862" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q862" t="n">
         <v>36</v>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E863" t="n">
         <v>13</v>
@@ -62489,20 +62489,20 @@
       </c>
       <c r="I863" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J863" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="K863" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="L863" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="M863" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
@@ -62511,11 +62511,11 @@
       </c>
       <c r="O863" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P863" t="n">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="Q863" t="n">
         <v>36</v>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E864" t="n">
         <v>13</v>
@@ -62561,20 +62561,20 @@
       </c>
       <c r="I864" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J864" t="n">
-        <v>730</v>
+        <v>290</v>
       </c>
       <c r="K864" t="n">
         <v>2200</v>
       </c>
       <c r="L864" t="n">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="M864" t="n">
-        <v>2253</v>
+        <v>2200</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62583,11 +62583,11 @@
       </c>
       <c r="O864" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P864" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q864" t="n">
         <v>36</v>
@@ -62633,20 +62633,20 @@
       </c>
       <c r="I865" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J865" t="n">
-        <v>760</v>
+        <v>380</v>
       </c>
       <c r="K865" t="n">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="L865" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="M865" t="n">
-        <v>2255</v>
+        <v>2700</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62655,11 +62655,11 @@
       </c>
       <c r="O865" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P865" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="Q865" t="n">
         <v>36</v>
@@ -62705,20 +62705,20 @@
       </c>
       <c r="I866" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J866" t="n">
-        <v>220</v>
+        <v>360</v>
       </c>
       <c r="K866" t="n">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="L866" t="n">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="M866" t="n">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
@@ -62727,11 +62727,11 @@
       </c>
       <c r="O866" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P866" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="Q866" t="n">
         <v>36</v>
@@ -62777,20 +62777,20 @@
       </c>
       <c r="I867" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J867" t="n">
-        <v>270</v>
+        <v>730</v>
       </c>
       <c r="K867" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="L867" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="M867" t="n">
-        <v>1800</v>
+        <v>2253</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
@@ -62799,11 +62799,11 @@
       </c>
       <c r="O867" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P867" t="n">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="Q867" t="n">
         <v>36</v>
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E868" t="n">
         <v>13</v>
@@ -62849,20 +62849,20 @@
       </c>
       <c r="I868" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J868" t="n">
-        <v>550</v>
+        <v>760</v>
       </c>
       <c r="K868" t="n">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="L868" t="n">
-        <v>3200</v>
+        <v>2300</v>
       </c>
       <c r="M868" t="n">
-        <v>3200</v>
+        <v>2255</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
@@ -62875,7 +62875,7 @@
         </is>
       </c>
       <c r="P868" t="n">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="Q868" t="n">
         <v>36</v>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E869" t="n">
         <v>13</v>
@@ -62921,20 +62921,20 @@
       </c>
       <c r="I869" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J869" t="n">
-        <v>1170</v>
+        <v>220</v>
       </c>
       <c r="K869" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L869" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="M869" t="n">
-        <v>2619</v>
+        <v>1800</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
@@ -62943,11 +62943,11 @@
       </c>
       <c r="O869" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P869" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="Q869" t="n">
         <v>36</v>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E870" t="n">
         <v>13</v>
@@ -62997,16 +62997,16 @@
         </is>
       </c>
       <c r="J870" t="n">
-        <v>790</v>
+        <v>270</v>
       </c>
       <c r="K870" t="n">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="L870" t="n">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="M870" t="n">
-        <v>2192</v>
+        <v>1800</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63019,7 +63019,7 @@
         </is>
       </c>
       <c r="P870" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="Q870" t="n">
         <v>36</v>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E871" t="n">
         <v>13</v>
@@ -63069,16 +63069,16 @@
         </is>
       </c>
       <c r="J871" t="n">
-        <v>430</v>
+        <v>550</v>
       </c>
       <c r="K871" t="n">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="L871" t="n">
-        <v>2600</v>
+        <v>3200</v>
       </c>
       <c r="M871" t="n">
-        <v>2563</v>
+        <v>3200</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63091,7 +63091,7 @@
         </is>
       </c>
       <c r="P871" t="n">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="Q871" t="n">
         <v>36</v>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E872" t="n">
         <v>13</v>
@@ -63141,16 +63141,16 @@
         </is>
       </c>
       <c r="J872" t="n">
-        <v>920</v>
+        <v>1170</v>
       </c>
       <c r="K872" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L872" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="M872" t="n">
-        <v>2273</v>
+        <v>2619</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63163,7 +63163,7 @@
         </is>
       </c>
       <c r="P872" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="Q872" t="n">
         <v>36</v>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44162</v>
+        <v>44203</v>
       </c>
       <c r="E873" t="n">
         <v>13</v>
@@ -63213,16 +63213,16 @@
         </is>
       </c>
       <c r="J873" t="n">
-        <v>640</v>
+        <v>790</v>
       </c>
       <c r="K873" t="n">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="L873" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="M873" t="n">
-        <v>1972</v>
+        <v>2192</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
@@ -63235,7 +63235,7 @@
         </is>
       </c>
       <c r="P873" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="Q873" t="n">
         <v>36</v>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E874" t="n">
         <v>13</v>
@@ -63285,16 +63285,16 @@
         </is>
       </c>
       <c r="J874" t="n">
-        <v>290</v>
+        <v>430</v>
       </c>
       <c r="K874" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L874" t="n">
-        <v>4000</v>
+        <v>2600</v>
       </c>
       <c r="M874" t="n">
-        <v>4000</v>
+        <v>2563</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
@@ -63303,11 +63303,11 @@
       </c>
       <c r="O874" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P874" t="n">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="Q874" t="n">
         <v>36</v>
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E875" t="n">
         <v>13</v>
@@ -63353,20 +63353,20 @@
       </c>
       <c r="I875" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J875" t="n">
-        <v>340</v>
+        <v>920</v>
       </c>
       <c r="K875" t="n">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="L875" t="n">
-        <v>4000</v>
+        <v>2300</v>
       </c>
       <c r="M875" t="n">
-        <v>4000</v>
+        <v>2273</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
@@ -63379,7 +63379,7 @@
         </is>
       </c>
       <c r="P875" t="n">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="Q875" t="n">
         <v>36</v>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E876" t="n">
         <v>13</v>
@@ -63425,20 +63425,20 @@
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J876" t="n">
-        <v>760</v>
+        <v>640</v>
       </c>
       <c r="K876" t="n">
-        <v>2800</v>
+        <v>1900</v>
       </c>
       <c r="L876" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M876" t="n">
-        <v>2897</v>
+        <v>1972</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
@@ -63447,11 +63447,11 @@
       </c>
       <c r="O876" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P876" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="Q876" t="n">
         <v>36</v>
@@ -63497,20 +63497,20 @@
       </c>
       <c r="I877" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J877" t="n">
-        <v>790</v>
+        <v>290</v>
       </c>
       <c r="K877" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="L877" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M877" t="n">
-        <v>2904</v>
+        <v>4000</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
@@ -63519,11 +63519,11 @@
       </c>
       <c r="O877" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P877" t="n">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="Q877" t="n">
         <v>36</v>
@@ -63569,20 +63569,20 @@
       </c>
       <c r="I878" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J878" t="n">
-        <v>550</v>
+        <v>340</v>
       </c>
       <c r="K878" t="n">
-        <v>2300</v>
+        <v>4000</v>
       </c>
       <c r="L878" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M878" t="n">
-        <v>2391</v>
+        <v>4000</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
@@ -63591,11 +63591,11 @@
       </c>
       <c r="O878" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P878" t="n">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="Q878" t="n">
         <v>36</v>
@@ -63641,20 +63641,20 @@
       </c>
       <c r="I879" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J879" t="n">
-        <v>610</v>
+        <v>760</v>
       </c>
       <c r="K879" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="L879" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M879" t="n">
-        <v>2446</v>
+        <v>2897</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
@@ -63663,11 +63663,11 @@
       </c>
       <c r="O879" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P879" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="Q879" t="n">
         <v>36</v>
@@ -63693,7 +63693,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E880" t="n">
         <v>13</v>
@@ -63713,20 +63713,20 @@
       </c>
       <c r="I880" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J880" t="n">
         <v>790</v>
       </c>
       <c r="K880" t="n">
-        <v>3700</v>
+        <v>2800</v>
       </c>
       <c r="L880" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M880" t="n">
-        <v>3867</v>
+        <v>2904</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
@@ -63735,11 +63735,11 @@
       </c>
       <c r="O880" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P880" t="n">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="Q880" t="n">
         <v>36</v>
@@ -63765,7 +63765,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E881" t="n">
         <v>13</v>
@@ -63785,20 +63785,20 @@
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J881" t="n">
-        <v>840</v>
+        <v>550</v>
       </c>
       <c r="K881" t="n">
-        <v>3800</v>
+        <v>2300</v>
       </c>
       <c r="L881" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="M881" t="n">
-        <v>3895</v>
+        <v>2391</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
@@ -63807,11 +63807,11 @@
       </c>
       <c r="O881" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P881" t="n">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="Q881" t="n">
         <v>36</v>
@@ -63837,7 +63837,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E882" t="n">
         <v>13</v>
@@ -63857,20 +63857,20 @@
       </c>
       <c r="I882" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J882" t="n">
-        <v>690</v>
+        <v>610</v>
       </c>
       <c r="K882" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="L882" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M882" t="n">
-        <v>2913</v>
+        <v>2446</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
@@ -63879,11 +63879,11 @@
       </c>
       <c r="O882" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P882" t="n">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q882" t="n">
         <v>36</v>
@@ -63929,20 +63929,20 @@
       </c>
       <c r="I883" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J883" t="n">
-        <v>750</v>
+        <v>790</v>
       </c>
       <c r="K883" t="n">
-        <v>2700</v>
+        <v>3700</v>
       </c>
       <c r="L883" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M883" t="n">
-        <v>2848</v>
+        <v>3867</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
@@ -63951,11 +63951,11 @@
       </c>
       <c r="O883" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P883" t="n">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="Q883" t="n">
         <v>36</v>
@@ -64001,20 +64001,20 @@
       </c>
       <c r="I884" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J884" t="n">
-        <v>250</v>
+        <v>840</v>
       </c>
       <c r="K884" t="n">
-        <v>2600</v>
+        <v>3800</v>
       </c>
       <c r="L884" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="M884" t="n">
-        <v>2600</v>
+        <v>3895</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
@@ -64023,11 +64023,11 @@
       </c>
       <c r="O884" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P884" t="n">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="Q884" t="n">
         <v>36</v>
@@ -64073,20 +64073,20 @@
       </c>
       <c r="I885" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J885" t="n">
-        <v>250</v>
+        <v>690</v>
       </c>
       <c r="K885" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L885" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M885" t="n">
-        <v>2500</v>
+        <v>2913</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
@@ -64095,11 +64095,11 @@
       </c>
       <c r="O885" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P885" t="n">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="Q885" t="n">
         <v>36</v>
@@ -64125,7 +64125,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E886" t="n">
         <v>13</v>
@@ -64149,16 +64149,16 @@
         </is>
       </c>
       <c r="J886" t="n">
-        <v>620</v>
+        <v>750</v>
       </c>
       <c r="K886" t="n">
-        <v>3600</v>
+        <v>2700</v>
       </c>
       <c r="L886" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="M886" t="n">
-        <v>3719</v>
+        <v>2848</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
@@ -64167,11 +64167,11 @@
       </c>
       <c r="O886" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P886" t="n">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="Q886" t="n">
         <v>36</v>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E887" t="n">
         <v>13</v>
@@ -64217,20 +64217,20 @@
       </c>
       <c r="I887" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J887" t="n">
-        <v>1030</v>
+        <v>250</v>
       </c>
       <c r="K887" t="n">
-        <v>3600</v>
+        <v>2600</v>
       </c>
       <c r="L887" t="n">
-        <v>3800</v>
+        <v>2600</v>
       </c>
       <c r="M887" t="n">
-        <v>3693</v>
+        <v>2600</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
@@ -64239,11 +64239,11 @@
       </c>
       <c r="O887" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P887" t="n">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="Q887" t="n">
         <v>36</v>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E888" t="n">
         <v>13</v>
@@ -64293,16 +64293,16 @@
         </is>
       </c>
       <c r="J888" t="n">
-        <v>420</v>
+        <v>250</v>
       </c>
       <c r="K888" t="n">
-        <v>3200</v>
+        <v>2500</v>
       </c>
       <c r="L888" t="n">
-        <v>3300</v>
+        <v>2500</v>
       </c>
       <c r="M888" t="n">
-        <v>3252</v>
+        <v>2500</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
@@ -64311,11 +64311,11 @@
       </c>
       <c r="O888" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P888" t="n">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="Q888" t="n">
         <v>36</v>
@@ -64361,20 +64361,20 @@
       </c>
       <c r="I889" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J889" t="n">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="K889" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="L889" t="n">
-        <v>3200</v>
+        <v>3800</v>
       </c>
       <c r="M889" t="n">
-        <v>3109</v>
+        <v>3719</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64383,11 +64383,11 @@
       </c>
       <c r="O889" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P889" t="n">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="Q889" t="n">
         <v>36</v>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E890" t="n">
         <v>13</v>
@@ -64437,16 +64437,16 @@
         </is>
       </c>
       <c r="J890" t="n">
-        <v>680</v>
+        <v>1030</v>
       </c>
       <c r="K890" t="n">
-        <v>2500</v>
+        <v>3600</v>
       </c>
       <c r="L890" t="n">
-        <v>2700</v>
+        <v>3800</v>
       </c>
       <c r="M890" t="n">
-        <v>2603</v>
+        <v>3693</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
@@ -64455,11 +64455,11 @@
       </c>
       <c r="O890" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P890" t="n">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="Q890" t="n">
         <v>36</v>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E891" t="n">
         <v>13</v>
@@ -64505,20 +64505,20 @@
       </c>
       <c r="I891" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J891" t="n">
-        <v>720</v>
+        <v>420</v>
       </c>
       <c r="K891" t="n">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="L891" t="n">
-        <v>2600</v>
+        <v>3300</v>
       </c>
       <c r="M891" t="n">
-        <v>2557</v>
+        <v>3252</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64527,11 +64527,11 @@
       </c>
       <c r="O891" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P891" t="n">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="Q891" t="n">
         <v>36</v>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E892" t="n">
         <v>13</v>
@@ -64581,16 +64581,16 @@
         </is>
       </c>
       <c r="J892" t="n">
-        <v>460</v>
+        <v>640</v>
       </c>
       <c r="K892" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L892" t="n">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="M892" t="n">
-        <v>2109</v>
+        <v>3109</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
@@ -64599,11 +64599,11 @@
       </c>
       <c r="O892" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P892" t="n">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="Q892" t="n">
         <v>36</v>
@@ -64649,20 +64649,20 @@
       </c>
       <c r="I893" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J893" t="n">
-        <v>520</v>
+        <v>680</v>
       </c>
       <c r="K893" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L893" t="n">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="M893" t="n">
-        <v>2108</v>
+        <v>2603</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
@@ -64671,11 +64671,11 @@
       </c>
       <c r="O893" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P893" t="n">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="Q893" t="n">
         <v>36</v>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E894" t="n">
         <v>13</v>
@@ -64721,20 +64721,20 @@
       </c>
       <c r="I894" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J894" t="n">
-        <v>380</v>
+        <v>720</v>
       </c>
       <c r="K894" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="L894" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="M894" t="n">
-        <v>2700</v>
+        <v>2557</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
@@ -64747,7 +64747,7 @@
         </is>
       </c>
       <c r="P894" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q894" t="n">
         <v>36</v>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E895" t="n">
         <v>13</v>
@@ -64793,20 +64793,20 @@
       </c>
       <c r="I895" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J895" t="n">
-        <v>810</v>
+        <v>460</v>
       </c>
       <c r="K895" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="L895" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="M895" t="n">
-        <v>2454</v>
+        <v>2109</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
@@ -64815,11 +64815,11 @@
       </c>
       <c r="O895" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P895" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="Q895" t="n">
         <v>36</v>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E896" t="n">
         <v>13</v>
@@ -64869,7 +64869,7 @@
         </is>
       </c>
       <c r="J896" t="n">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="K896" t="n">
         <v>2000</v>
@@ -64878,7 +64878,7 @@
         <v>2200</v>
       </c>
       <c r="M896" t="n">
-        <v>2114</v>
+        <v>2108</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E897" t="n">
         <v>13</v>
@@ -64941,16 +64941,16 @@
         </is>
       </c>
       <c r="J897" t="n">
-        <v>440</v>
+        <v>380</v>
       </c>
       <c r="K897" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="L897" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="M897" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64959,11 +64959,11 @@
       </c>
       <c r="O897" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P897" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q897" t="n">
         <v>36</v>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E898" t="n">
         <v>13</v>
@@ -65009,20 +65009,20 @@
       </c>
       <c r="I898" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J898" t="n">
-        <v>360</v>
+        <v>810</v>
       </c>
       <c r="K898" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="L898" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M898" t="n">
-        <v>2800</v>
+        <v>2454</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65035,7 +65035,7 @@
         </is>
       </c>
       <c r="P898" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="Q898" t="n">
         <v>36</v>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E899" t="n">
         <v>13</v>
@@ -65081,20 +65081,20 @@
       </c>
       <c r="I899" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J899" t="n">
-        <v>790</v>
+        <v>510</v>
       </c>
       <c r="K899" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="L899" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="M899" t="n">
-        <v>2447</v>
+        <v>2114</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65103,11 +65103,11 @@
       </c>
       <c r="O899" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P899" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="Q899" t="n">
         <v>36</v>
@@ -65153,20 +65153,20 @@
       </c>
       <c r="I900" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J900" t="n">
-        <v>640</v>
+        <v>440</v>
       </c>
       <c r="K900" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="L900" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M900" t="n">
-        <v>2444</v>
+        <v>2800</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
@@ -65175,11 +65175,11 @@
       </c>
       <c r="O900" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P900" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="Q900" t="n">
         <v>36</v>
@@ -65225,20 +65225,20 @@
       </c>
       <c r="I901" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J901" t="n">
-        <v>540</v>
+        <v>360</v>
       </c>
       <c r="K901" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="L901" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="M901" t="n">
-        <v>2093</v>
+        <v>2800</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
@@ -65247,11 +65247,11 @@
       </c>
       <c r="O901" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P901" t="n">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="Q901" t="n">
         <v>36</v>
@@ -65297,20 +65297,20 @@
       </c>
       <c r="I902" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J902" t="n">
-        <v>450</v>
+        <v>790</v>
       </c>
       <c r="K902" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L902" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M902" t="n">
-        <v>2089</v>
+        <v>2447</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
@@ -65319,11 +65319,11 @@
       </c>
       <c r="O902" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P902" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="Q902" t="n">
         <v>36</v>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E903" t="n">
         <v>13</v>
@@ -65369,20 +65369,20 @@
       </c>
       <c r="I903" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J903" t="n">
-        <v>380</v>
+        <v>640</v>
       </c>
       <c r="K903" t="n">
-        <v>2900</v>
+        <v>2400</v>
       </c>
       <c r="L903" t="n">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="M903" t="n">
-        <v>2900</v>
+        <v>2444</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65391,11 +65391,11 @@
       </c>
       <c r="O903" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P903" t="n">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="Q903" t="n">
         <v>36</v>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E904" t="n">
         <v>13</v>
@@ -65441,20 +65441,20 @@
       </c>
       <c r="I904" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J904" t="n">
-        <v>340</v>
+        <v>540</v>
       </c>
       <c r="K904" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L904" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="M904" t="n">
-        <v>2800</v>
+        <v>2093</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65463,11 +65463,11 @@
       </c>
       <c r="O904" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P904" t="n">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="Q904" t="n">
         <v>36</v>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E905" t="n">
         <v>13</v>
@@ -65513,20 +65513,20 @@
       </c>
       <c r="I905" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J905" t="n">
-        <v>780</v>
+        <v>450</v>
       </c>
       <c r="K905" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L905" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="M905" t="n">
-        <v>2608</v>
+        <v>2089</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65535,11 +65535,11 @@
       </c>
       <c r="O905" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P905" t="n">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="Q905" t="n">
         <v>36</v>
@@ -65585,20 +65585,20 @@
       </c>
       <c r="I906" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J906" t="n">
-        <v>680</v>
+        <v>380</v>
       </c>
       <c r="K906" t="n">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="L906" t="n">
-        <v>2600</v>
+        <v>2900</v>
       </c>
       <c r="M906" t="n">
-        <v>2560</v>
+        <v>2900</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65607,11 +65607,11 @@
       </c>
       <c r="O906" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P906" t="n">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="Q906" t="n">
         <v>36</v>
@@ -65657,20 +65657,20 @@
       </c>
       <c r="I907" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J907" t="n">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="K907" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="L907" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="M907" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65679,11 +65679,11 @@
       </c>
       <c r="O907" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P907" t="n">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="Q907" t="n">
         <v>36</v>
@@ -65729,20 +65729,20 @@
       </c>
       <c r="I908" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J908" t="n">
-        <v>320</v>
+        <v>780</v>
       </c>
       <c r="K908" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L908" t="n">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="M908" t="n">
-        <v>2200</v>
+        <v>2608</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65751,11 +65751,11 @@
       </c>
       <c r="O908" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P908" t="n">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="Q908" t="n">
         <v>36</v>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E909" t="n">
         <v>13</v>
@@ -65805,16 +65805,16 @@
         </is>
       </c>
       <c r="J909" t="n">
-        <v>820</v>
+        <v>680</v>
       </c>
       <c r="K909" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L909" t="n">
         <v>2600</v>
       </c>
-      <c r="L909" t="n">
-        <v>2800</v>
-      </c>
       <c r="M909" t="n">
-        <v>2715</v>
+        <v>2560</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65823,11 +65823,11 @@
       </c>
       <c r="O909" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P909" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q909" t="n">
         <v>36</v>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E910" t="n">
         <v>13</v>
@@ -65873,20 +65873,20 @@
       </c>
       <c r="I910" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J910" t="n">
-        <v>970</v>
+        <v>310</v>
       </c>
       <c r="K910" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="L910" t="n">
-        <v>2900</v>
+        <v>2200</v>
       </c>
       <c r="M910" t="n">
-        <v>2739</v>
+        <v>2200</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65895,11 +65895,11 @@
       </c>
       <c r="O910" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P910" t="n">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="Q910" t="n">
         <v>36</v>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E911" t="n">
         <v>13</v>
@@ -65949,7 +65949,7 @@
         </is>
       </c>
       <c r="J911" t="n">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="K911" t="n">
         <v>2200</v>
@@ -65967,7 +65967,7 @@
       </c>
       <c r="O911" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P911" t="n">
@@ -66017,20 +66017,20 @@
       </c>
       <c r="I912" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J912" t="n">
-        <v>330</v>
+        <v>820</v>
       </c>
       <c r="K912" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="L912" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M912" t="n">
-        <v>2000</v>
+        <v>2715</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66039,11 +66039,11 @@
       </c>
       <c r="O912" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P912" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="Q912" t="n">
         <v>36</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E913" t="n">
         <v>13</v>
@@ -66089,20 +66089,20 @@
       </c>
       <c r="I913" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J913" t="n">
-        <v>330</v>
+        <v>970</v>
       </c>
       <c r="K913" t="n">
         <v>2600</v>
       </c>
       <c r="L913" t="n">
-        <v>2600</v>
+        <v>2900</v>
       </c>
       <c r="M913" t="n">
-        <v>2600</v>
+        <v>2739</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66111,11 +66111,11 @@
       </c>
       <c r="O913" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P913" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="Q913" t="n">
         <v>36</v>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E914" t="n">
         <v>13</v>
@@ -66161,20 +66161,20 @@
       </c>
       <c r="I914" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J914" t="n">
-        <v>350</v>
+        <v>290</v>
       </c>
       <c r="K914" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="L914" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="M914" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66183,11 +66183,11 @@
       </c>
       <c r="O914" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P914" t="n">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="Q914" t="n">
         <v>36</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E915" t="n">
         <v>13</v>
@@ -66233,20 +66233,20 @@
       </c>
       <c r="I915" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J915" t="n">
-        <v>810</v>
+        <v>330</v>
       </c>
       <c r="K915" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L915" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="M915" t="n">
-        <v>2252</v>
+        <v>2000</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66255,11 +66255,11 @@
       </c>
       <c r="O915" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P915" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="Q915" t="n">
         <v>36</v>
@@ -66305,20 +66305,20 @@
       </c>
       <c r="I916" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J916" t="n">
-        <v>690</v>
+        <v>330</v>
       </c>
       <c r="K916" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="L916" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="M916" t="n">
-        <v>2319</v>
+        <v>2600</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66327,11 +66327,11 @@
       </c>
       <c r="O916" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P916" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="Q916" t="n">
         <v>36</v>
@@ -66377,20 +66377,20 @@
       </c>
       <c r="I917" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J917" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="K917" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="L917" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="M917" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66399,11 +66399,11 @@
       </c>
       <c r="O917" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P917" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="Q917" t="n">
         <v>36</v>
@@ -66449,20 +66449,20 @@
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J918" t="n">
-        <v>290</v>
+        <v>810</v>
       </c>
       <c r="K918" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="L918" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="M918" t="n">
-        <v>2000</v>
+        <v>2252</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66471,11 +66471,11 @@
       </c>
       <c r="O918" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P918" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="Q918" t="n">
         <v>36</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E919" t="n">
         <v>13</v>
@@ -66521,20 +66521,20 @@
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J919" t="n">
-        <v>600</v>
+        <v>690</v>
       </c>
       <c r="K919" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="L919" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M919" t="n">
-        <v>2880</v>
+        <v>2319</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66543,11 +66543,11 @@
       </c>
       <c r="O919" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P919" t="n">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="Q919" t="n">
         <v>36</v>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E920" t="n">
         <v>13</v>
@@ -66593,20 +66593,20 @@
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J920" t="n">
-        <v>770</v>
+        <v>250</v>
       </c>
       <c r="K920" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="L920" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M920" t="n">
-        <v>2375</v>
+        <v>2000</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66619,7 +66619,7 @@
         </is>
       </c>
       <c r="P920" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="Q920" t="n">
         <v>36</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E921" t="n">
         <v>13</v>
@@ -66669,16 +66669,16 @@
         </is>
       </c>
       <c r="J921" t="n">
-        <v>410</v>
+        <v>290</v>
       </c>
       <c r="K921" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L921" t="n">
         <v>2000</v>
       </c>
       <c r="M921" t="n">
-        <v>1863</v>
+        <v>2000</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66687,11 +66687,11 @@
       </c>
       <c r="O921" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P921" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="Q921" t="n">
         <v>36</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E922" t="n">
         <v>13</v>
@@ -66741,16 +66741,16 @@
         </is>
       </c>
       <c r="J922" t="n">
-        <v>720</v>
+        <v>600</v>
       </c>
       <c r="K922" t="n">
-        <v>3800</v>
+        <v>2800</v>
       </c>
       <c r="L922" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M922" t="n">
-        <v>3906</v>
+        <v>2880</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66763,7 +66763,7 @@
         </is>
       </c>
       <c r="P922" t="n">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="Q922" t="n">
         <v>36</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E923" t="n">
         <v>13</v>
@@ -66809,20 +66809,20 @@
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J923" t="n">
-        <v>810</v>
+        <v>770</v>
       </c>
       <c r="K923" t="n">
-        <v>3700</v>
+        <v>2300</v>
       </c>
       <c r="L923" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="M923" t="n">
-        <v>3852</v>
+        <v>2375</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66831,11 +66831,11 @@
       </c>
       <c r="O923" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P923" t="n">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="Q923" t="n">
         <v>36</v>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E924" t="n">
         <v>13</v>
@@ -66881,20 +66881,20 @@
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J924" t="n">
-        <v>800</v>
+        <v>410</v>
       </c>
       <c r="K924" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="L924" t="n">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="M924" t="n">
-        <v>3161</v>
+        <v>1863</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66907,7 +66907,7 @@
         </is>
       </c>
       <c r="P924" t="n">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="Q924" t="n">
         <v>36</v>
@@ -66953,20 +66953,20 @@
       </c>
       <c r="I925" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J925" t="n">
-        <v>920</v>
+        <v>720</v>
       </c>
       <c r="K925" t="n">
-        <v>2900</v>
+        <v>3800</v>
       </c>
       <c r="L925" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="M925" t="n">
-        <v>3047</v>
+        <v>3906</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66975,11 +66975,11 @@
       </c>
       <c r="O925" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P925" t="n">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="Q925" t="n">
         <v>36</v>
@@ -67025,20 +67025,20 @@
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J926" t="n">
-        <v>250</v>
+        <v>810</v>
       </c>
       <c r="K926" t="n">
-        <v>2500</v>
+        <v>3700</v>
       </c>
       <c r="L926" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M926" t="n">
-        <v>2500</v>
+        <v>3852</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67047,11 +67047,11 @@
       </c>
       <c r="O926" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P926" t="n">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="Q926" t="n">
         <v>36</v>
@@ -67097,20 +67097,20 @@
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J927" t="n">
-        <v>320</v>
+        <v>800</v>
       </c>
       <c r="K927" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L927" t="n">
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="M927" t="n">
-        <v>2500</v>
+        <v>3161</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67119,11 +67119,11 @@
       </c>
       <c r="O927" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P927" t="n">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="Q927" t="n">
         <v>36</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E928" t="n">
         <v>13</v>
@@ -67169,20 +67169,20 @@
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J928" t="n">
-        <v>260</v>
+        <v>920</v>
       </c>
       <c r="K928" t="n">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="L928" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="M928" t="n">
-        <v>3000</v>
+        <v>3047</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67191,11 +67191,11 @@
       </c>
       <c r="O928" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P928" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q928" t="n">
         <v>36</v>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E929" t="n">
         <v>13</v>
@@ -67241,20 +67241,20 @@
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="K929" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L929" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M929" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67263,11 +67263,11 @@
       </c>
       <c r="O929" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P929" t="n">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="Q929" t="n">
         <v>36</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E930" t="n">
         <v>13</v>
@@ -67313,20 +67313,20 @@
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J930" t="n">
-        <v>770</v>
+        <v>320</v>
       </c>
       <c r="K930" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="L930" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="M930" t="n">
-        <v>2514</v>
+        <v>2500</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67335,11 +67335,11 @@
       </c>
       <c r="O930" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P930" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q930" t="n">
         <v>36</v>
@@ -67385,20 +67385,20 @@
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J931" t="n">
-        <v>820</v>
+        <v>260</v>
       </c>
       <c r="K931" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L931" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="M931" t="n">
-        <v>2515</v>
+        <v>3000</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67407,11 +67407,11 @@
       </c>
       <c r="O931" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P931" t="n">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="Q931" t="n">
         <v>36</v>
@@ -67457,20 +67457,20 @@
       </c>
       <c r="I932" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J932" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="K932" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L932" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M932" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67479,11 +67479,11 @@
       </c>
       <c r="O932" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P932" t="n">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="Q932" t="n">
         <v>36</v>
@@ -67529,38 +67529,254 @@
       </c>
       <c r="I933" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J933" t="n">
+        <v>770</v>
+      </c>
+      <c r="K933" t="n">
+        <v>2400</v>
+      </c>
+      <c r="L933" t="n">
+        <v>2600</v>
+      </c>
+      <c r="M933" t="n">
+        <v>2514</v>
+      </c>
+      <c r="N933" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O933" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P933" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q933" t="n">
+        <v>36</v>
+      </c>
+      <c r="R933" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="n">
+        <v>6</v>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D934" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E934" t="n">
+        <v>13</v>
+      </c>
+      <c r="F934" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G934" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H934" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I934" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J934" t="n">
+        <v>820</v>
+      </c>
+      <c r="K934" t="n">
+        <v>2400</v>
+      </c>
+      <c r="L934" t="n">
+        <v>2600</v>
+      </c>
+      <c r="M934" t="n">
+        <v>2515</v>
+      </c>
+      <c r="N934" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O934" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P934" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q934" t="n">
+        <v>36</v>
+      </c>
+      <c r="R934" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="n">
+        <v>6</v>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D935" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E935" t="n">
+        <v>13</v>
+      </c>
+      <c r="F935" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G935" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H935" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I935" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J933" t="n">
+      <c r="J935" t="n">
+        <v>250</v>
+      </c>
+      <c r="K935" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L935" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M935" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N935" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O935" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P935" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q935" t="n">
+        <v>36</v>
+      </c>
+      <c r="R935" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="n">
+        <v>6</v>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D936" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E936" t="n">
+        <v>13</v>
+      </c>
+      <c r="F936" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G936" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H936" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I936" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J936" t="n">
         <v>200</v>
       </c>
-      <c r="K933" t="n">
+      <c r="K936" t="n">
         <v>2000</v>
       </c>
-      <c r="L933" t="n">
+      <c r="L936" t="n">
         <v>2000</v>
       </c>
-      <c r="M933" t="n">
+      <c r="M936" t="n">
         <v>2000</v>
       </c>
-      <c r="N933" t="inlineStr">
-        <is>
-          <t>$/paquete 36 unidades</t>
-        </is>
-      </c>
-      <c r="O933" t="inlineStr">
+      <c r="N936" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O936" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P933" t="n">
+      <c r="P936" t="n">
         <v>56</v>
       </c>
-      <c r="Q933" t="n">
-        <v>36</v>
-      </c>
-      <c r="R933" t="inlineStr">
+      <c r="Q936" t="n">
+        <v>36</v>
+      </c>
+      <c r="R936" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cebollín.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cebollín.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R966"/>
+  <dimension ref="A1:R972"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60741,7 +60741,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E839" t="n">
         <v>13</v>
@@ -60765,16 +60765,16 @@
         </is>
       </c>
       <c r="J839" t="n">
-        <v>350</v>
+        <v>860</v>
       </c>
       <c r="K839" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="L839" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M839" t="n">
-        <v>4000</v>
+        <v>2909</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
@@ -60787,7 +60787,7 @@
         </is>
       </c>
       <c r="P839" t="n">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="Q839" t="n">
         <v>36</v>
@@ -60813,7 +60813,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E840" t="n">
         <v>13</v>
@@ -60837,16 +60837,16 @@
         </is>
       </c>
       <c r="J840" t="n">
-        <v>270</v>
+        <v>780</v>
       </c>
       <c r="K840" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="L840" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M840" t="n">
-        <v>4000</v>
+        <v>2915</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
@@ -60859,7 +60859,7 @@
         </is>
       </c>
       <c r="P840" t="n">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="Q840" t="n">
         <v>36</v>
@@ -60885,7 +60885,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E841" t="n">
         <v>13</v>
@@ -60909,16 +60909,16 @@
         </is>
       </c>
       <c r="J841" t="n">
-        <v>800</v>
+        <v>1090</v>
       </c>
       <c r="K841" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="L841" t="n">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="M841" t="n">
-        <v>3105</v>
+        <v>2306</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
@@ -60931,7 +60931,7 @@
         </is>
       </c>
       <c r="P841" t="n">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="Q841" t="n">
         <v>36</v>
@@ -60957,7 +60957,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E842" t="n">
         <v>13</v>
@@ -60981,16 +60981,16 @@
         </is>
       </c>
       <c r="J842" t="n">
-        <v>680</v>
+        <v>1020</v>
       </c>
       <c r="K842" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="L842" t="n">
-        <v>3300</v>
+        <v>2400</v>
       </c>
       <c r="M842" t="n">
-        <v>3185</v>
+        <v>2304</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
@@ -61003,7 +61003,7 @@
         </is>
       </c>
       <c r="P842" t="n">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="Q842" t="n">
         <v>36</v>
@@ -61029,7 +61029,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E843" t="n">
         <v>13</v>
@@ -61053,16 +61053,16 @@
         </is>
       </c>
       <c r="J843" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="K843" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L843" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="M843" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
@@ -61075,7 +61075,7 @@
         </is>
       </c>
       <c r="P843" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="Q843" t="n">
         <v>36</v>
@@ -61101,7 +61101,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44438</v>
+        <v>44474</v>
       </c>
       <c r="E844" t="n">
         <v>13</v>
@@ -61125,16 +61125,16 @@
         </is>
       </c>
       <c r="J844" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="K844" t="n">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="L844" t="n">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="M844" t="n">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
@@ -61147,7 +61147,7 @@
         </is>
       </c>
       <c r="P844" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="Q844" t="n">
         <v>36</v>
@@ -61173,7 +61173,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E845" t="n">
         <v>13</v>
@@ -61197,16 +61197,16 @@
         </is>
       </c>
       <c r="J845" t="n">
-        <v>440</v>
+        <v>350</v>
       </c>
       <c r="K845" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="L845" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="M845" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
@@ -61219,7 +61219,7 @@
         </is>
       </c>
       <c r="P845" t="n">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="Q845" t="n">
         <v>36</v>
@@ -61245,7 +61245,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E846" t="n">
         <v>13</v>
@@ -61269,16 +61269,16 @@
         </is>
       </c>
       <c r="J846" t="n">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="K846" t="n">
-        <v>2900</v>
+        <v>4000</v>
       </c>
       <c r="L846" t="n">
-        <v>2900</v>
+        <v>4000</v>
       </c>
       <c r="M846" t="n">
-        <v>2900</v>
+        <v>4000</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
@@ -61291,7 +61291,7 @@
         </is>
       </c>
       <c r="P846" t="n">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="Q846" t="n">
         <v>36</v>
@@ -61317,7 +61317,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E847" t="n">
         <v>13</v>
@@ -61341,16 +61341,16 @@
         </is>
       </c>
       <c r="J847" t="n">
-        <v>720</v>
+        <v>800</v>
       </c>
       <c r="K847" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L847" t="n">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="M847" t="n">
-        <v>2446</v>
+        <v>3105</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
@@ -61363,7 +61363,7 @@
         </is>
       </c>
       <c r="P847" t="n">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="Q847" t="n">
         <v>36</v>
@@ -61389,7 +61389,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E848" t="n">
         <v>13</v>
@@ -61413,16 +61413,16 @@
         </is>
       </c>
       <c r="J848" t="n">
-        <v>900</v>
+        <v>680</v>
       </c>
       <c r="K848" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L848" t="n">
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="M848" t="n">
-        <v>2447</v>
+        <v>3185</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
@@ -61435,7 +61435,7 @@
         </is>
       </c>
       <c r="P848" t="n">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="Q848" t="n">
         <v>36</v>
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E849" t="n">
         <v>13</v>
@@ -61485,16 +61485,16 @@
         </is>
       </c>
       <c r="J849" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="K849" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L849" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M849" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
@@ -61507,7 +61507,7 @@
         </is>
       </c>
       <c r="P849" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="Q849" t="n">
         <v>36</v>
@@ -61533,7 +61533,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44372</v>
+        <v>44438</v>
       </c>
       <c r="E850" t="n">
         <v>13</v>
@@ -61557,16 +61557,16 @@
         </is>
       </c>
       <c r="J850" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="K850" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L850" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M850" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
@@ -61579,7 +61579,7 @@
         </is>
       </c>
       <c r="P850" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="Q850" t="n">
         <v>36</v>
@@ -61605,7 +61605,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E851" t="n">
         <v>13</v>
@@ -61625,20 +61625,20 @@
       </c>
       <c r="I851" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J851" t="n">
-        <v>720</v>
+        <v>440</v>
       </c>
       <c r="K851" t="n">
-        <v>3300</v>
+        <v>2700</v>
       </c>
       <c r="L851" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="M851" t="n">
-        <v>3422</v>
+        <v>2700</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
@@ -61651,7 +61651,7 @@
         </is>
       </c>
       <c r="P851" t="n">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="Q851" t="n">
         <v>36</v>
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E852" t="n">
         <v>13</v>
@@ -61697,20 +61697,20 @@
       </c>
       <c r="I852" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J852" t="n">
-        <v>620</v>
+        <v>360</v>
       </c>
       <c r="K852" t="n">
-        <v>3400</v>
+        <v>2900</v>
       </c>
       <c r="L852" t="n">
-        <v>3600</v>
+        <v>2900</v>
       </c>
       <c r="M852" t="n">
-        <v>3519</v>
+        <v>2900</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
@@ -61723,7 +61723,7 @@
         </is>
       </c>
       <c r="P852" t="n">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="Q852" t="n">
         <v>36</v>
@@ -61749,7 +61749,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E853" t="n">
         <v>13</v>
@@ -61769,20 +61769,20 @@
       </c>
       <c r="I853" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J853" t="n">
-        <v>200</v>
+        <v>720</v>
       </c>
       <c r="K853" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="L853" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M853" t="n">
-        <v>2800</v>
+        <v>2446</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
@@ -61795,7 +61795,7 @@
         </is>
       </c>
       <c r="P853" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="Q853" t="n">
         <v>36</v>
@@ -61821,7 +61821,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44286</v>
+        <v>44372</v>
       </c>
       <c r="E854" t="n">
         <v>13</v>
@@ -61841,20 +61841,20 @@
       </c>
       <c r="I854" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J854" t="n">
-        <v>240</v>
+        <v>900</v>
       </c>
       <c r="K854" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="L854" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="M854" t="n">
-        <v>2700</v>
+        <v>2447</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
@@ -61867,7 +61867,7 @@
         </is>
       </c>
       <c r="P854" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="Q854" t="n">
         <v>36</v>
@@ -61893,7 +61893,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E855" t="n">
         <v>13</v>
@@ -61913,20 +61913,20 @@
       </c>
       <c r="I855" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J855" t="n">
-        <v>520</v>
+        <v>250</v>
       </c>
       <c r="K855" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="L855" t="n">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="M855" t="n">
-        <v>3100</v>
+        <v>2200</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61935,11 +61935,11 @@
       </c>
       <c r="O855" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P855" t="n">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="Q855" t="n">
         <v>36</v>
@@ -61965,7 +61965,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44209</v>
+        <v>44372</v>
       </c>
       <c r="E856" t="n">
         <v>13</v>
@@ -61985,20 +61985,20 @@
       </c>
       <c r="I856" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J856" t="n">
-        <v>1320</v>
+        <v>310</v>
       </c>
       <c r="K856" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="L856" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M856" t="n">
-        <v>2750</v>
+        <v>2000</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62011,7 +62011,7 @@
         </is>
       </c>
       <c r="P856" t="n">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="Q856" t="n">
         <v>36</v>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44209</v>
+        <v>44286</v>
       </c>
       <c r="E857" t="n">
         <v>13</v>
@@ -62057,20 +62057,20 @@
       </c>
       <c r="I857" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J857" t="n">
-        <v>700</v>
+        <v>720</v>
       </c>
       <c r="K857" t="n">
-        <v>2200</v>
+        <v>3300</v>
       </c>
       <c r="L857" t="n">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="M857" t="n">
-        <v>2250</v>
+        <v>3422</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
@@ -62079,11 +62079,11 @@
       </c>
       <c r="O857" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P857" t="n">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="Q857" t="n">
         <v>36</v>
@@ -62109,7 +62109,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E858" t="n">
         <v>13</v>
@@ -62129,20 +62129,20 @@
       </c>
       <c r="I858" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J858" t="n">
-        <v>330</v>
+        <v>620</v>
       </c>
       <c r="K858" t="n">
-        <v>2600</v>
+        <v>3400</v>
       </c>
       <c r="L858" t="n">
-        <v>2600</v>
+        <v>3600</v>
       </c>
       <c r="M858" t="n">
-        <v>2600</v>
+        <v>3519</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
@@ -62151,11 +62151,11 @@
       </c>
       <c r="O858" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P858" t="n">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="Q858" t="n">
         <v>36</v>
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E859" t="n">
         <v>13</v>
@@ -62201,20 +62201,20 @@
       </c>
       <c r="I859" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J859" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="K859" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="L859" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="M859" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62223,11 +62223,11 @@
       </c>
       <c r="O859" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P859" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Q859" t="n">
         <v>36</v>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44356</v>
+        <v>44286</v>
       </c>
       <c r="E860" t="n">
         <v>13</v>
@@ -62273,20 +62273,20 @@
       </c>
       <c r="I860" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J860" t="n">
-        <v>810</v>
+        <v>240</v>
       </c>
       <c r="K860" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="L860" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="M860" t="n">
-        <v>2167</v>
+        <v>2700</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
@@ -62295,11 +62295,11 @@
       </c>
       <c r="O860" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P860" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="Q860" t="n">
         <v>36</v>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E861" t="n">
         <v>13</v>
@@ -62345,20 +62345,20 @@
       </c>
       <c r="I861" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J861" t="n">
-        <v>650</v>
+        <v>520</v>
       </c>
       <c r="K861" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L861" t="n">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="M861" t="n">
-        <v>2117</v>
+        <v>3100</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62371,7 +62371,7 @@
         </is>
       </c>
       <c r="P861" t="n">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="Q861" t="n">
         <v>36</v>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E862" t="n">
         <v>13</v>
@@ -62417,20 +62417,20 @@
       </c>
       <c r="I862" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J862" t="n">
-        <v>270</v>
+        <v>1320</v>
       </c>
       <c r="K862" t="n">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="L862" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="M862" t="n">
-        <v>1800</v>
+        <v>2750</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62439,11 +62439,11 @@
       </c>
       <c r="O862" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P862" t="n">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="Q862" t="n">
         <v>36</v>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44356</v>
+        <v>44209</v>
       </c>
       <c r="E863" t="n">
         <v>13</v>
@@ -62493,16 +62493,16 @@
         </is>
       </c>
       <c r="J863" t="n">
-        <v>180</v>
+        <v>700</v>
       </c>
       <c r="K863" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="L863" t="n">
-        <v>1700</v>
+        <v>2300</v>
       </c>
       <c r="M863" t="n">
-        <v>1700</v>
+        <v>2250</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
@@ -62515,7 +62515,7 @@
         </is>
       </c>
       <c r="P863" t="n">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="Q863" t="n">
         <v>36</v>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E864" t="n">
         <v>13</v>
@@ -62565,16 +62565,16 @@
         </is>
       </c>
       <c r="J864" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="K864" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="L864" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="M864" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62583,11 +62583,11 @@
       </c>
       <c r="O864" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P864" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q864" t="n">
         <v>36</v>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E865" t="n">
         <v>13</v>
@@ -62633,20 +62633,20 @@
       </c>
       <c r="I865" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J865" t="n">
-        <v>860</v>
+        <v>330</v>
       </c>
       <c r="K865" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="L865" t="n">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="M865" t="n">
-        <v>2170</v>
+        <v>2600</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62659,7 +62659,7 @@
         </is>
       </c>
       <c r="P865" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="Q865" t="n">
         <v>36</v>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44160</v>
+        <v>44356</v>
       </c>
       <c r="E866" t="n">
         <v>13</v>
@@ -62705,20 +62705,20 @@
       </c>
       <c r="I866" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J866" t="n">
-        <v>470</v>
+        <v>810</v>
       </c>
       <c r="K866" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="L866" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="M866" t="n">
-        <v>1840</v>
+        <v>2167</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
@@ -62727,11 +62727,11 @@
       </c>
       <c r="O866" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P866" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="Q866" t="n">
         <v>36</v>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E867" t="n">
         <v>13</v>
@@ -62777,20 +62777,20 @@
       </c>
       <c r="I867" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J867" t="n">
-        <v>330</v>
+        <v>650</v>
       </c>
       <c r="K867" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="L867" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="M867" t="n">
-        <v>2600</v>
+        <v>2117</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
@@ -62799,11 +62799,11 @@
       </c>
       <c r="O867" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P867" t="n">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="Q867" t="n">
         <v>36</v>
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E868" t="n">
         <v>13</v>
@@ -62849,20 +62849,20 @@
       </c>
       <c r="I868" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J868" t="n">
-        <v>420</v>
+        <v>270</v>
       </c>
       <c r="K868" t="n">
-        <v>2600</v>
+        <v>1800</v>
       </c>
       <c r="L868" t="n">
-        <v>2600</v>
+        <v>1800</v>
       </c>
       <c r="M868" t="n">
-        <v>2600</v>
+        <v>1800</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
@@ -62871,11 +62871,11 @@
       </c>
       <c r="O868" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P868" t="n">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="Q868" t="n">
         <v>36</v>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44351</v>
+        <v>44356</v>
       </c>
       <c r="E869" t="n">
         <v>13</v>
@@ -62921,20 +62921,20 @@
       </c>
       <c r="I869" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J869" t="n">
-        <v>970</v>
+        <v>180</v>
       </c>
       <c r="K869" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="L869" t="n">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="M869" t="n">
-        <v>2093</v>
+        <v>1700</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
@@ -62943,11 +62943,11 @@
       </c>
       <c r="O869" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P869" t="n">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="Q869" t="n">
         <v>36</v>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E870" t="n">
         <v>13</v>
@@ -62993,20 +62993,20 @@
       </c>
       <c r="I870" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J870" t="n">
-        <v>840</v>
+        <v>250</v>
       </c>
       <c r="K870" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L870" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M870" t="n">
-        <v>2090</v>
+        <v>2500</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63019,7 +63019,7 @@
         </is>
       </c>
       <c r="P870" t="n">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Q870" t="n">
         <v>36</v>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E871" t="n">
         <v>13</v>
@@ -63065,20 +63065,20 @@
       </c>
       <c r="I871" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J871" t="n">
-        <v>290</v>
+        <v>860</v>
       </c>
       <c r="K871" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="L871" t="n">
-        <v>1700</v>
+        <v>2300</v>
       </c>
       <c r="M871" t="n">
-        <v>1700</v>
+        <v>2170</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63087,11 +63087,11 @@
       </c>
       <c r="O871" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P871" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="Q871" t="n">
         <v>36</v>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44351</v>
+        <v>44160</v>
       </c>
       <c r="E872" t="n">
         <v>13</v>
@@ -63141,16 +63141,16 @@
         </is>
       </c>
       <c r="J872" t="n">
-        <v>280</v>
+        <v>470</v>
       </c>
       <c r="K872" t="n">
         <v>1700</v>
       </c>
       <c r="L872" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M872" t="n">
-        <v>1700</v>
+        <v>1840</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63163,7 +63163,7 @@
         </is>
       </c>
       <c r="P872" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="Q872" t="n">
         <v>36</v>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E873" t="n">
         <v>13</v>
@@ -63213,16 +63213,16 @@
         </is>
       </c>
       <c r="J873" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="K873" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="L873" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="M873" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
@@ -63235,7 +63235,7 @@
         </is>
       </c>
       <c r="P873" t="n">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="Q873" t="n">
         <v>36</v>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E874" t="n">
         <v>13</v>
@@ -63285,16 +63285,16 @@
         </is>
       </c>
       <c r="J874" t="n">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="K874" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="L874" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="M874" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="N874" t="inlineStr">
         <is>
@@ -63307,7 +63307,7 @@
         </is>
       </c>
       <c r="P874" t="n">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="Q874" t="n">
         <v>36</v>
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E875" t="n">
         <v>13</v>
@@ -63357,16 +63357,16 @@
         </is>
       </c>
       <c r="J875" t="n">
-        <v>800</v>
+        <v>970</v>
       </c>
       <c r="K875" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="L875" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="M875" t="n">
-        <v>2510</v>
+        <v>2093</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
@@ -63379,7 +63379,7 @@
         </is>
       </c>
       <c r="P875" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="Q875" t="n">
         <v>36</v>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E876" t="n">
         <v>13</v>
@@ -63432,13 +63432,13 @@
         <v>840</v>
       </c>
       <c r="K876" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L876" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="M876" t="n">
-        <v>2610</v>
+        <v>2090</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
@@ -63451,7 +63451,7 @@
         </is>
       </c>
       <c r="P876" t="n">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="Q876" t="n">
         <v>36</v>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E877" t="n">
         <v>13</v>
@@ -63501,16 +63501,16 @@
         </is>
       </c>
       <c r="J877" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="K877" t="n">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="L877" t="n">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="M877" t="n">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
@@ -63523,7 +63523,7 @@
         </is>
       </c>
       <c r="P877" t="n">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="Q877" t="n">
         <v>36</v>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44365</v>
+        <v>44351</v>
       </c>
       <c r="E878" t="n">
         <v>13</v>
@@ -63573,16 +63573,16 @@
         </is>
       </c>
       <c r="J878" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="K878" t="n">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="L878" t="n">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="M878" t="n">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
@@ -63595,7 +63595,7 @@
         </is>
       </c>
       <c r="P878" t="n">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="Q878" t="n">
         <v>36</v>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E879" t="n">
         <v>13</v>
@@ -63641,20 +63641,20 @@
       </c>
       <c r="I879" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J879" t="n">
-        <v>830</v>
+        <v>380</v>
       </c>
       <c r="K879" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="L879" t="n">
         <v>3000</v>
       </c>
       <c r="M879" t="n">
-        <v>2812</v>
+        <v>3000</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
@@ -63667,7 +63667,7 @@
         </is>
       </c>
       <c r="P879" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="Q879" t="n">
         <v>36</v>
@@ -63693,7 +63693,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E880" t="n">
         <v>13</v>
@@ -63713,20 +63713,20 @@
       </c>
       <c r="I880" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J880" t="n">
-        <v>950</v>
+        <v>410</v>
       </c>
       <c r="K880" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L880" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M880" t="n">
-        <v>2667</v>
+        <v>3000</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
@@ -63739,7 +63739,7 @@
         </is>
       </c>
       <c r="P880" t="n">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="Q880" t="n">
         <v>36</v>
@@ -63765,7 +63765,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E881" t="n">
         <v>13</v>
@@ -63785,20 +63785,20 @@
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J881" t="n">
-        <v>270</v>
+        <v>800</v>
       </c>
       <c r="K881" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L881" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="M881" t="n">
-        <v>2000</v>
+        <v>2510</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
@@ -63811,7 +63811,7 @@
         </is>
       </c>
       <c r="P881" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="Q881" t="n">
         <v>36</v>
@@ -63837,7 +63837,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44306</v>
+        <v>44365</v>
       </c>
       <c r="E882" t="n">
         <v>13</v>
@@ -63857,20 +63857,20 @@
       </c>
       <c r="I882" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J882" t="n">
-        <v>280</v>
+        <v>840</v>
       </c>
       <c r="K882" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L882" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="M882" t="n">
-        <v>2000</v>
+        <v>2610</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
@@ -63883,7 +63883,7 @@
         </is>
       </c>
       <c r="P882" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="Q882" t="n">
         <v>36</v>
@@ -63909,7 +63909,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E883" t="n">
         <v>13</v>
@@ -63929,20 +63929,20 @@
       </c>
       <c r="I883" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J883" t="n">
-        <v>580</v>
+        <v>250</v>
       </c>
       <c r="K883" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="L883" t="n">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="M883" t="n">
-        <v>3043</v>
+        <v>2200</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
@@ -63951,11 +63951,11 @@
       </c>
       <c r="O883" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P883" t="n">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="Q883" t="n">
         <v>36</v>
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44215</v>
+        <v>44365</v>
       </c>
       <c r="E884" t="n">
         <v>13</v>
@@ -64001,20 +64001,20 @@
       </c>
       <c r="I884" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J884" t="n">
-        <v>1020</v>
+        <v>350</v>
       </c>
       <c r="K884" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="L884" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="M884" t="n">
-        <v>2630</v>
+        <v>2200</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
@@ -64027,7 +64027,7 @@
         </is>
       </c>
       <c r="P884" t="n">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="Q884" t="n">
         <v>36</v>
@@ -64053,7 +64053,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44215</v>
+        <v>44306</v>
       </c>
       <c r="E885" t="n">
         <v>13</v>
@@ -64073,20 +64073,20 @@
       </c>
       <c r="I885" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J885" t="n">
-        <v>800</v>
+        <v>830</v>
       </c>
       <c r="K885" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="L885" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M885" t="n">
-        <v>2108</v>
+        <v>2812</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
@@ -64095,11 +64095,11 @@
       </c>
       <c r="O885" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P885" t="n">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="Q885" t="n">
         <v>36</v>
@@ -64125,7 +64125,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E886" t="n">
         <v>13</v>
@@ -64145,20 +64145,20 @@
       </c>
       <c r="I886" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J886" t="n">
-        <v>440</v>
+        <v>950</v>
       </c>
       <c r="K886" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L886" t="n">
         <v>2800</v>
       </c>
       <c r="M886" t="n">
-        <v>2800</v>
+        <v>2667</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
@@ -64171,7 +64171,7 @@
         </is>
       </c>
       <c r="P886" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q886" t="n">
         <v>36</v>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E887" t="n">
         <v>13</v>
@@ -64217,20 +64217,20 @@
       </c>
       <c r="I887" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J887" t="n">
-        <v>730</v>
+        <v>270</v>
       </c>
       <c r="K887" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="L887" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M887" t="n">
-        <v>2401</v>
+        <v>2000</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
@@ -64239,11 +64239,11 @@
       </c>
       <c r="O887" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P887" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="Q887" t="n">
         <v>36</v>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44175</v>
+        <v>44306</v>
       </c>
       <c r="E888" t="n">
         <v>13</v>
@@ -64293,16 +64293,16 @@
         </is>
       </c>
       <c r="J888" t="n">
-        <v>550</v>
+        <v>280</v>
       </c>
       <c r="K888" t="n">
         <v>2000</v>
       </c>
       <c r="L888" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="M888" t="n">
-        <v>2091</v>
+        <v>2000</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
@@ -64315,7 +64315,7 @@
         </is>
       </c>
       <c r="P888" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q888" t="n">
         <v>36</v>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E889" t="n">
         <v>13</v>
@@ -64365,16 +64365,16 @@
         </is>
       </c>
       <c r="J889" t="n">
-        <v>650</v>
+        <v>580</v>
       </c>
       <c r="K889" t="n">
         <v>3000</v>
       </c>
       <c r="L889" t="n">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="M889" t="n">
-        <v>3285</v>
+        <v>3043</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64383,11 +64383,11 @@
       </c>
       <c r="O889" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P889" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Q889" t="n">
         <v>36</v>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E890" t="n">
         <v>13</v>
@@ -64433,20 +64433,20 @@
       </c>
       <c r="I890" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J890" t="n">
-        <v>660</v>
+        <v>1020</v>
       </c>
       <c r="K890" t="n">
-        <v>3200</v>
+        <v>2500</v>
       </c>
       <c r="L890" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="M890" t="n">
-        <v>3355</v>
+        <v>2630</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
@@ -64459,7 +64459,7 @@
         </is>
       </c>
       <c r="P890" t="n">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="Q890" t="n">
         <v>36</v>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44461</v>
+        <v>44215</v>
       </c>
       <c r="E891" t="n">
         <v>13</v>
@@ -64505,20 +64505,20 @@
       </c>
       <c r="I891" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J891" t="n">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="K891" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L891" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="M891" t="n">
-        <v>2667</v>
+        <v>2108</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64527,11 +64527,11 @@
       </c>
       <c r="O891" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P891" t="n">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="Q891" t="n">
         <v>36</v>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E892" t="n">
         <v>13</v>
@@ -64577,20 +64577,20 @@
       </c>
       <c r="I892" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J892" t="n">
-        <v>750</v>
+        <v>440</v>
       </c>
       <c r="K892" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L892" t="n">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="M892" t="n">
-        <v>2601</v>
+        <v>2800</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
@@ -64603,7 +64603,7 @@
         </is>
       </c>
       <c r="P892" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Q892" t="n">
         <v>36</v>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E893" t="n">
         <v>13</v>
@@ -64649,20 +64649,20 @@
       </c>
       <c r="I893" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J893" t="n">
-        <v>250</v>
+        <v>730</v>
       </c>
       <c r="K893" t="n">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="L893" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M893" t="n">
-        <v>2200</v>
+        <v>2401</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
@@ -64671,11 +64671,11 @@
       </c>
       <c r="O893" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P893" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="Q893" t="n">
         <v>36</v>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44461</v>
+        <v>44175</v>
       </c>
       <c r="E894" t="n">
         <v>13</v>
@@ -64725,16 +64725,16 @@
         </is>
       </c>
       <c r="J894" t="n">
-        <v>290</v>
+        <v>550</v>
       </c>
       <c r="K894" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L894" t="n">
         <v>2200</v>
       </c>
       <c r="M894" t="n">
-        <v>2200</v>
+        <v>2091</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
@@ -64747,7 +64747,7 @@
         </is>
       </c>
       <c r="P894" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q894" t="n">
         <v>36</v>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E895" t="n">
         <v>13</v>
@@ -64797,16 +64797,16 @@
         </is>
       </c>
       <c r="J895" t="n">
-        <v>380</v>
+        <v>650</v>
       </c>
       <c r="K895" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="L895" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="M895" t="n">
-        <v>2700</v>
+        <v>3285</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
@@ -64819,7 +64819,7 @@
         </is>
       </c>
       <c r="P895" t="n">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="Q895" t="n">
         <v>36</v>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E896" t="n">
         <v>13</v>
@@ -64869,16 +64869,16 @@
         </is>
       </c>
       <c r="J896" t="n">
-        <v>360</v>
+        <v>660</v>
       </c>
       <c r="K896" t="n">
-        <v>2700</v>
+        <v>3200</v>
       </c>
       <c r="L896" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="M896" t="n">
-        <v>2700</v>
+        <v>3355</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
@@ -64891,7 +64891,7 @@
         </is>
       </c>
       <c r="P896" t="n">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="Q896" t="n">
         <v>36</v>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E897" t="n">
         <v>13</v>
@@ -64941,16 +64941,16 @@
         </is>
       </c>
       <c r="J897" t="n">
-        <v>730</v>
+        <v>790</v>
       </c>
       <c r="K897" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L897" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="M897" t="n">
-        <v>2253</v>
+        <v>2667</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64963,7 +64963,7 @@
         </is>
       </c>
       <c r="P897" t="n">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="Q897" t="n">
         <v>36</v>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E898" t="n">
         <v>13</v>
@@ -65013,16 +65013,16 @@
         </is>
       </c>
       <c r="J898" t="n">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="K898" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L898" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="M898" t="n">
-        <v>2255</v>
+        <v>2601</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65035,7 +65035,7 @@
         </is>
       </c>
       <c r="P898" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="Q898" t="n">
         <v>36</v>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E899" t="n">
         <v>13</v>
@@ -65085,16 +65085,16 @@
         </is>
       </c>
       <c r="J899" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="K899" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="L899" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="M899" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65107,7 +65107,7 @@
         </is>
       </c>
       <c r="P899" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="Q899" t="n">
         <v>36</v>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44357</v>
+        <v>44461</v>
       </c>
       <c r="E900" t="n">
         <v>13</v>
@@ -65157,16 +65157,16 @@
         </is>
       </c>
       <c r="J900" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="K900" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="L900" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="M900" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
@@ -65179,7 +65179,7 @@
         </is>
       </c>
       <c r="P900" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="Q900" t="n">
         <v>36</v>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E901" t="n">
         <v>13</v>
@@ -65229,16 +65229,16 @@
         </is>
       </c>
       <c r="J901" t="n">
-        <v>550</v>
+        <v>380</v>
       </c>
       <c r="K901" t="n">
-        <v>3200</v>
+        <v>2700</v>
       </c>
       <c r="L901" t="n">
-        <v>3200</v>
+        <v>2700</v>
       </c>
       <c r="M901" t="n">
-        <v>3200</v>
+        <v>2700</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
@@ -65247,11 +65247,11 @@
       </c>
       <c r="O901" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P901" t="n">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="Q901" t="n">
         <v>36</v>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E902" t="n">
         <v>13</v>
@@ -65297,20 +65297,20 @@
       </c>
       <c r="I902" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J902" t="n">
-        <v>1170</v>
+        <v>360</v>
       </c>
       <c r="K902" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="L902" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="M902" t="n">
-        <v>2619</v>
+        <v>2700</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
@@ -65323,7 +65323,7 @@
         </is>
       </c>
       <c r="P902" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q902" t="n">
         <v>36</v>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44203</v>
+        <v>44357</v>
       </c>
       <c r="E903" t="n">
         <v>13</v>
@@ -65369,20 +65369,20 @@
       </c>
       <c r="I903" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J903" t="n">
-        <v>790</v>
+        <v>730</v>
       </c>
       <c r="K903" t="n">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="L903" t="n">
         <v>2300</v>
       </c>
       <c r="M903" t="n">
-        <v>2192</v>
+        <v>2253</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65391,11 +65391,11 @@
       </c>
       <c r="O903" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P903" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q903" t="n">
         <v>36</v>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E904" t="n">
         <v>13</v>
@@ -65441,20 +65441,20 @@
       </c>
       <c r="I904" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J904" t="n">
-        <v>430</v>
+        <v>760</v>
       </c>
       <c r="K904" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="L904" t="n">
-        <v>2600</v>
+        <v>2300</v>
       </c>
       <c r="M904" t="n">
-        <v>2563</v>
+        <v>2255</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65467,7 +65467,7 @@
         </is>
       </c>
       <c r="P904" t="n">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="Q904" t="n">
         <v>36</v>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E905" t="n">
         <v>13</v>
@@ -65513,20 +65513,20 @@
       </c>
       <c r="I905" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J905" t="n">
-        <v>920</v>
+        <v>220</v>
       </c>
       <c r="K905" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="L905" t="n">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="M905" t="n">
-        <v>2273</v>
+        <v>1800</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65535,11 +65535,11 @@
       </c>
       <c r="O905" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P905" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="Q905" t="n">
         <v>36</v>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44162</v>
+        <v>44357</v>
       </c>
       <c r="E906" t="n">
         <v>13</v>
@@ -65589,16 +65589,16 @@
         </is>
       </c>
       <c r="J906" t="n">
-        <v>640</v>
+        <v>270</v>
       </c>
       <c r="K906" t="n">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="L906" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="M906" t="n">
-        <v>1972</v>
+        <v>1800</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65611,7 +65611,7 @@
         </is>
       </c>
       <c r="P906" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q906" t="n">
         <v>36</v>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E907" t="n">
         <v>13</v>
@@ -65661,16 +65661,16 @@
         </is>
       </c>
       <c r="J907" t="n">
-        <v>290</v>
+        <v>550</v>
       </c>
       <c r="K907" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="L907" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="M907" t="n">
-        <v>4000</v>
+        <v>3200</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65679,11 +65679,11 @@
       </c>
       <c r="O907" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P907" t="n">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="Q907" t="n">
         <v>36</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E908" t="n">
         <v>13</v>
@@ -65729,20 +65729,20 @@
       </c>
       <c r="I908" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J908" t="n">
-        <v>340</v>
+        <v>1170</v>
       </c>
       <c r="K908" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="L908" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="M908" t="n">
-        <v>4000</v>
+        <v>2619</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65755,7 +65755,7 @@
         </is>
       </c>
       <c r="P908" t="n">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="Q908" t="n">
         <v>36</v>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44410</v>
+        <v>44203</v>
       </c>
       <c r="E909" t="n">
         <v>13</v>
@@ -65801,20 +65801,20 @@
       </c>
       <c r="I909" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J909" t="n">
-        <v>760</v>
+        <v>790</v>
       </c>
       <c r="K909" t="n">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="L909" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="M909" t="n">
-        <v>2897</v>
+        <v>2192</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65823,11 +65823,11 @@
       </c>
       <c r="O909" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P909" t="n">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="Q909" t="n">
         <v>36</v>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E910" t="n">
         <v>13</v>
@@ -65873,20 +65873,20 @@
       </c>
       <c r="I910" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J910" t="n">
-        <v>790</v>
+        <v>430</v>
       </c>
       <c r="K910" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L910" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="M910" t="n">
-        <v>2904</v>
+        <v>2563</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65899,7 +65899,7 @@
         </is>
       </c>
       <c r="P910" t="n">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="Q910" t="n">
         <v>36</v>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E911" t="n">
         <v>13</v>
@@ -65945,20 +65945,20 @@
       </c>
       <c r="I911" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J911" t="n">
-        <v>550</v>
+        <v>920</v>
       </c>
       <c r="K911" t="n">
+        <v>2200</v>
+      </c>
+      <c r="L911" t="n">
         <v>2300</v>
       </c>
-      <c r="L911" t="n">
-        <v>2500</v>
-      </c>
       <c r="M911" t="n">
-        <v>2391</v>
+        <v>2273</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65967,11 +65967,11 @@
       </c>
       <c r="O911" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P911" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Q911" t="n">
         <v>36</v>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44410</v>
+        <v>44162</v>
       </c>
       <c r="E912" t="n">
         <v>13</v>
@@ -66021,16 +66021,16 @@
         </is>
       </c>
       <c r="J912" t="n">
-        <v>610</v>
+        <v>640</v>
       </c>
       <c r="K912" t="n">
-        <v>2400</v>
+        <v>1900</v>
       </c>
       <c r="L912" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M912" t="n">
-        <v>2446</v>
+        <v>1972</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66043,7 +66043,7 @@
         </is>
       </c>
       <c r="P912" t="n">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="Q912" t="n">
         <v>36</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E913" t="n">
         <v>13</v>
@@ -66093,16 +66093,16 @@
         </is>
       </c>
       <c r="J913" t="n">
-        <v>790</v>
+        <v>290</v>
       </c>
       <c r="K913" t="n">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="L913" t="n">
         <v>4000</v>
       </c>
       <c r="M913" t="n">
-        <v>3867</v>
+        <v>4000</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66115,7 +66115,7 @@
         </is>
       </c>
       <c r="P913" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q913" t="n">
         <v>36</v>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E914" t="n">
         <v>13</v>
@@ -66165,16 +66165,16 @@
         </is>
       </c>
       <c r="J914" t="n">
-        <v>840</v>
+        <v>340</v>
       </c>
       <c r="K914" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="L914" t="n">
         <v>4000</v>
       </c>
       <c r="M914" t="n">
-        <v>3895</v>
+        <v>4000</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66187,7 +66187,7 @@
         </is>
       </c>
       <c r="P914" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q914" t="n">
         <v>36</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E915" t="n">
         <v>13</v>
@@ -66237,7 +66237,7 @@
         </is>
       </c>
       <c r="J915" t="n">
-        <v>690</v>
+        <v>760</v>
       </c>
       <c r="K915" t="n">
         <v>2800</v>
@@ -66246,7 +66246,7 @@
         <v>3000</v>
       </c>
       <c r="M915" t="n">
-        <v>2913</v>
+        <v>2897</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66259,7 +66259,7 @@
         </is>
       </c>
       <c r="P915" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q915" t="n">
         <v>36</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E916" t="n">
         <v>13</v>
@@ -66309,16 +66309,16 @@
         </is>
       </c>
       <c r="J916" t="n">
-        <v>750</v>
+        <v>790</v>
       </c>
       <c r="K916" t="n">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="L916" t="n">
         <v>3000</v>
       </c>
       <c r="M916" t="n">
-        <v>2848</v>
+        <v>2904</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66331,7 +66331,7 @@
         </is>
       </c>
       <c r="P916" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q916" t="n">
         <v>36</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E917" t="n">
         <v>13</v>
@@ -66381,16 +66381,16 @@
         </is>
       </c>
       <c r="J917" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="K917" t="n">
-        <v>2600</v>
+        <v>2300</v>
       </c>
       <c r="L917" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="M917" t="n">
-        <v>2600</v>
+        <v>2391</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66403,7 +66403,7 @@
         </is>
       </c>
       <c r="P917" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q917" t="n">
         <v>36</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44411</v>
+        <v>44410</v>
       </c>
       <c r="E918" t="n">
         <v>13</v>
@@ -66453,16 +66453,16 @@
         </is>
       </c>
       <c r="J918" t="n">
-        <v>250</v>
+        <v>610</v>
       </c>
       <c r="K918" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="L918" t="n">
         <v>2500</v>
       </c>
       <c r="M918" t="n">
-        <v>2500</v>
+        <v>2446</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66475,7 +66475,7 @@
         </is>
       </c>
       <c r="P918" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q918" t="n">
         <v>36</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E919" t="n">
         <v>13</v>
@@ -66521,20 +66521,20 @@
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J919" t="n">
-        <v>620</v>
+        <v>790</v>
       </c>
       <c r="K919" t="n">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="L919" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="M919" t="n">
-        <v>3719</v>
+        <v>3867</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66547,7 +66547,7 @@
         </is>
       </c>
       <c r="P919" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="Q919" t="n">
         <v>36</v>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E920" t="n">
         <v>13</v>
@@ -66593,20 +66593,20 @@
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J920" t="n">
-        <v>1030</v>
+        <v>840</v>
       </c>
       <c r="K920" t="n">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="L920" t="n">
-        <v>3800</v>
+        <v>4000</v>
       </c>
       <c r="M920" t="n">
-        <v>3693</v>
+        <v>3895</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66619,7 +66619,7 @@
         </is>
       </c>
       <c r="P920" t="n">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="Q920" t="n">
         <v>36</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E921" t="n">
         <v>13</v>
@@ -66665,20 +66665,20 @@
       </c>
       <c r="I921" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J921" t="n">
-        <v>420</v>
+        <v>690</v>
       </c>
       <c r="K921" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="L921" t="n">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="M921" t="n">
-        <v>3252</v>
+        <v>2913</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66691,7 +66691,7 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="Q921" t="n">
         <v>36</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44257</v>
+        <v>44411</v>
       </c>
       <c r="E922" t="n">
         <v>13</v>
@@ -66737,20 +66737,20 @@
       </c>
       <c r="I922" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J922" t="n">
-        <v>640</v>
+        <v>750</v>
       </c>
       <c r="K922" t="n">
+        <v>2700</v>
+      </c>
+      <c r="L922" t="n">
         <v>3000</v>
       </c>
-      <c r="L922" t="n">
-        <v>3200</v>
-      </c>
       <c r="M922" t="n">
-        <v>3109</v>
+        <v>2848</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66763,7 +66763,7 @@
         </is>
       </c>
       <c r="P922" t="n">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="Q922" t="n">
         <v>36</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E923" t="n">
         <v>13</v>
@@ -66809,20 +66809,20 @@
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J923" t="n">
-        <v>680</v>
+        <v>250</v>
       </c>
       <c r="K923" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="L923" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="M923" t="n">
-        <v>2603</v>
+        <v>2600</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44244</v>
+        <v>44411</v>
       </c>
       <c r="E924" t="n">
         <v>13</v>
@@ -66881,20 +66881,20 @@
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J924" t="n">
-        <v>720</v>
+        <v>250</v>
       </c>
       <c r="K924" t="n">
         <v>2500</v>
       </c>
       <c r="L924" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="M924" t="n">
-        <v>2557</v>
+        <v>2500</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66907,7 +66907,7 @@
         </is>
       </c>
       <c r="P924" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Q924" t="n">
         <v>36</v>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E925" t="n">
         <v>13</v>
@@ -66953,20 +66953,20 @@
       </c>
       <c r="I925" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J925" t="n">
-        <v>460</v>
+        <v>620</v>
       </c>
       <c r="K925" t="n">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="L925" t="n">
-        <v>2200</v>
+        <v>3800</v>
       </c>
       <c r="M925" t="n">
-        <v>2109</v>
+        <v>3719</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66979,7 +66979,7 @@
         </is>
       </c>
       <c r="P925" t="n">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="Q925" t="n">
         <v>36</v>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44244</v>
+        <v>44257</v>
       </c>
       <c r="E926" t="n">
         <v>13</v>
@@ -67025,20 +67025,20 @@
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J926" t="n">
-        <v>520</v>
+        <v>1030</v>
       </c>
       <c r="K926" t="n">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="L926" t="n">
-        <v>2200</v>
+        <v>3800</v>
       </c>
       <c r="M926" t="n">
-        <v>2108</v>
+        <v>3693</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67051,7 +67051,7 @@
         </is>
       </c>
       <c r="P926" t="n">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="Q926" t="n">
         <v>36</v>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E927" t="n">
         <v>13</v>
@@ -67097,20 +67097,20 @@
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J927" t="n">
-        <v>380</v>
+        <v>420</v>
       </c>
       <c r="K927" t="n">
-        <v>2700</v>
+        <v>3200</v>
       </c>
       <c r="L927" t="n">
-        <v>2700</v>
+        <v>3300</v>
       </c>
       <c r="M927" t="n">
-        <v>2700</v>
+        <v>3252</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67119,11 +67119,11 @@
       </c>
       <c r="O927" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P927" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="Q927" t="n">
         <v>36</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44176</v>
+        <v>44257</v>
       </c>
       <c r="E928" t="n">
         <v>13</v>
@@ -67169,20 +67169,20 @@
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J928" t="n">
-        <v>810</v>
+        <v>640</v>
       </c>
       <c r="K928" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L928" t="n">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="M928" t="n">
-        <v>2454</v>
+        <v>3109</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67195,7 +67195,7 @@
         </is>
       </c>
       <c r="P928" t="n">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="Q928" t="n">
         <v>36</v>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44176</v>
+        <v>44244</v>
       </c>
       <c r="E929" t="n">
         <v>13</v>
@@ -67241,20 +67241,20 @@
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>510</v>
+        <v>680</v>
       </c>
       <c r="K929" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L929" t="n">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="M929" t="n">
-        <v>2114</v>
+        <v>2603</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67263,11 +67263,11 @@
       </c>
       <c r="O929" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P929" t="n">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="Q929" t="n">
         <v>36</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E930" t="n">
         <v>13</v>
@@ -67313,20 +67313,20 @@
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J930" t="n">
-        <v>440</v>
+        <v>720</v>
       </c>
       <c r="K930" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L930" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="M930" t="n">
-        <v>2800</v>
+        <v>2557</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67335,11 +67335,11 @@
       </c>
       <c r="O930" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P930" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="Q930" t="n">
         <v>36</v>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E931" t="n">
         <v>13</v>
@@ -67385,20 +67385,20 @@
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J931" t="n">
-        <v>360</v>
+        <v>460</v>
       </c>
       <c r="K931" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L931" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="M931" t="n">
-        <v>2800</v>
+        <v>2109</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67407,11 +67407,11 @@
       </c>
       <c r="O931" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P931" t="n">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="Q931" t="n">
         <v>36</v>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44239</v>
+        <v>44244</v>
       </c>
       <c r="E932" t="n">
         <v>13</v>
@@ -67457,20 +67457,20 @@
       </c>
       <c r="I932" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J932" t="n">
-        <v>790</v>
+        <v>520</v>
       </c>
       <c r="K932" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="L932" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="M932" t="n">
-        <v>2447</v>
+        <v>2108</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67479,11 +67479,11 @@
       </c>
       <c r="O932" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P932" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="Q932" t="n">
         <v>36</v>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E933" t="n">
         <v>13</v>
@@ -67529,20 +67529,20 @@
       </c>
       <c r="I933" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J933" t="n">
-        <v>640</v>
+        <v>380</v>
       </c>
       <c r="K933" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="L933" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="M933" t="n">
-        <v>2444</v>
+        <v>2700</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67555,7 +67555,7 @@
         </is>
       </c>
       <c r="P933" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="Q933" t="n">
         <v>36</v>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E934" t="n">
         <v>13</v>
@@ -67601,20 +67601,20 @@
       </c>
       <c r="I934" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J934" t="n">
-        <v>540</v>
+        <v>810</v>
       </c>
       <c r="K934" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L934" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M934" t="n">
-        <v>2093</v>
+        <v>2454</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67623,11 +67623,11 @@
       </c>
       <c r="O934" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P934" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="Q934" t="n">
         <v>36</v>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44239</v>
+        <v>44176</v>
       </c>
       <c r="E935" t="n">
         <v>13</v>
@@ -67677,7 +67677,7 @@
         </is>
       </c>
       <c r="J935" t="n">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="K935" t="n">
         <v>2000</v>
@@ -67686,7 +67686,7 @@
         <v>2200</v>
       </c>
       <c r="M935" t="n">
-        <v>2089</v>
+        <v>2114</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67699,7 +67699,7 @@
         </is>
       </c>
       <c r="P935" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q935" t="n">
         <v>36</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E936" t="n">
         <v>13</v>
@@ -67749,16 +67749,16 @@
         </is>
       </c>
       <c r="J936" t="n">
-        <v>380</v>
+        <v>440</v>
       </c>
       <c r="K936" t="n">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="L936" t="n">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="M936" t="n">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67771,7 +67771,7 @@
         </is>
       </c>
       <c r="P936" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q936" t="n">
         <v>36</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E937" t="n">
         <v>13</v>
@@ -67821,7 +67821,7 @@
         </is>
       </c>
       <c r="J937" t="n">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="K937" t="n">
         <v>2800</v>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E938" t="n">
         <v>13</v>
@@ -67893,16 +67893,16 @@
         </is>
       </c>
       <c r="J938" t="n">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="K938" t="n">
+        <v>2400</v>
+      </c>
+      <c r="L938" t="n">
         <v>2500</v>
       </c>
-      <c r="L938" t="n">
-        <v>2700</v>
-      </c>
       <c r="M938" t="n">
-        <v>2608</v>
+        <v>2447</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67915,7 +67915,7 @@
         </is>
       </c>
       <c r="P938" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="Q938" t="n">
         <v>36</v>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E939" t="n">
         <v>13</v>
@@ -67965,16 +67965,16 @@
         </is>
       </c>
       <c r="J939" t="n">
-        <v>680</v>
+        <v>640</v>
       </c>
       <c r="K939" t="n">
+        <v>2400</v>
+      </c>
+      <c r="L939" t="n">
         <v>2500</v>
       </c>
-      <c r="L939" t="n">
-        <v>2600</v>
-      </c>
       <c r="M939" t="n">
-        <v>2560</v>
+        <v>2444</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67987,7 +67987,7 @@
         </is>
       </c>
       <c r="P939" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q939" t="n">
         <v>36</v>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E940" t="n">
         <v>13</v>
@@ -68037,16 +68037,16 @@
         </is>
       </c>
       <c r="J940" t="n">
-        <v>310</v>
+        <v>540</v>
       </c>
       <c r="K940" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L940" t="n">
         <v>2200</v>
       </c>
       <c r="M940" t="n">
-        <v>2200</v>
+        <v>2093</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68059,7 +68059,7 @@
         </is>
       </c>
       <c r="P940" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q940" t="n">
         <v>36</v>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44376</v>
+        <v>44239</v>
       </c>
       <c r="E941" t="n">
         <v>13</v>
@@ -68109,16 +68109,16 @@
         </is>
       </c>
       <c r="J941" t="n">
-        <v>320</v>
+        <v>450</v>
       </c>
       <c r="K941" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L941" t="n">
         <v>2200</v>
       </c>
       <c r="M941" t="n">
-        <v>2200</v>
+        <v>2089</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68131,7 +68131,7 @@
         </is>
       </c>
       <c r="P941" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q941" t="n">
         <v>36</v>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E942" t="n">
         <v>13</v>
@@ -68177,20 +68177,20 @@
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J942" t="n">
-        <v>820</v>
+        <v>380</v>
       </c>
       <c r="K942" t="n">
-        <v>2600</v>
+        <v>2900</v>
       </c>
       <c r="L942" t="n">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="M942" t="n">
-        <v>2715</v>
+        <v>2900</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68203,7 +68203,7 @@
         </is>
       </c>
       <c r="P942" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="Q942" t="n">
         <v>36</v>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E943" t="n">
         <v>13</v>
@@ -68249,20 +68249,20 @@
       </c>
       <c r="I943" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J943" t="n">
-        <v>970</v>
+        <v>340</v>
       </c>
       <c r="K943" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="L943" t="n">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="M943" t="n">
-        <v>2739</v>
+        <v>2800</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68275,7 +68275,7 @@
         </is>
       </c>
       <c r="P943" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q943" t="n">
         <v>36</v>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E944" t="n">
         <v>13</v>
@@ -68321,20 +68321,20 @@
       </c>
       <c r="I944" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J944" t="n">
-        <v>290</v>
+        <v>780</v>
       </c>
       <c r="K944" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L944" t="n">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="M944" t="n">
-        <v>2200</v>
+        <v>2608</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68347,7 +68347,7 @@
         </is>
       </c>
       <c r="P944" t="n">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="Q944" t="n">
         <v>36</v>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44292</v>
+        <v>44376</v>
       </c>
       <c r="E945" t="n">
         <v>13</v>
@@ -68393,20 +68393,20 @@
       </c>
       <c r="I945" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J945" t="n">
-        <v>330</v>
+        <v>680</v>
       </c>
       <c r="K945" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L945" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="M945" t="n">
-        <v>2000</v>
+        <v>2560</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68419,7 +68419,7 @@
         </is>
       </c>
       <c r="P945" t="n">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="Q945" t="n">
         <v>36</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E946" t="n">
         <v>13</v>
@@ -68465,20 +68465,20 @@
       </c>
       <c r="I946" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J946" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="K946" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="L946" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="M946" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68491,7 +68491,7 @@
         </is>
       </c>
       <c r="P946" t="n">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="Q946" t="n">
         <v>36</v>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44358</v>
+        <v>44376</v>
       </c>
       <c r="E947" t="n">
         <v>13</v>
@@ -68537,20 +68537,20 @@
       </c>
       <c r="I947" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J947" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="K947" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="L947" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="M947" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68563,7 +68563,7 @@
         </is>
       </c>
       <c r="P947" t="n">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="Q947" t="n">
         <v>36</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E948" t="n">
         <v>13</v>
@@ -68613,16 +68613,16 @@
         </is>
       </c>
       <c r="J948" t="n">
-        <v>810</v>
+        <v>820</v>
       </c>
       <c r="K948" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="L948" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="M948" t="n">
-        <v>2252</v>
+        <v>2715</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68635,7 +68635,7 @@
         </is>
       </c>
       <c r="P948" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="Q948" t="n">
         <v>36</v>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E949" t="n">
         <v>13</v>
@@ -68685,16 +68685,16 @@
         </is>
       </c>
       <c r="J949" t="n">
-        <v>690</v>
+        <v>970</v>
       </c>
       <c r="K949" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="L949" t="n">
-        <v>2400</v>
+        <v>2900</v>
       </c>
       <c r="M949" t="n">
-        <v>2319</v>
+        <v>2739</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68707,7 +68707,7 @@
         </is>
       </c>
       <c r="P949" t="n">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="Q949" t="n">
         <v>36</v>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E950" t="n">
         <v>13</v>
@@ -68757,16 +68757,16 @@
         </is>
       </c>
       <c r="J950" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="K950" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="L950" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="M950" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68779,7 +68779,7 @@
         </is>
       </c>
       <c r="P950" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="Q950" t="n">
         <v>36</v>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44358</v>
+        <v>44292</v>
       </c>
       <c r="E951" t="n">
         <v>13</v>
@@ -68829,7 +68829,7 @@
         </is>
       </c>
       <c r="J951" t="n">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="K951" t="n">
         <v>2000</v>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E952" t="n">
         <v>13</v>
@@ -68901,16 +68901,16 @@
         </is>
       </c>
       <c r="J952" t="n">
-        <v>600</v>
+        <v>330</v>
       </c>
       <c r="K952" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="L952" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="M952" t="n">
-        <v>2880</v>
+        <v>2600</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68923,7 +68923,7 @@
         </is>
       </c>
       <c r="P952" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Q952" t="n">
         <v>36</v>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E953" t="n">
         <v>13</v>
@@ -68969,20 +68969,20 @@
       </c>
       <c r="I953" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J953" t="n">
-        <v>770</v>
+        <v>350</v>
       </c>
       <c r="K953" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="L953" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="M953" t="n">
-        <v>2375</v>
+        <v>2700</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68991,11 +68991,11 @@
       </c>
       <c r="O953" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P953" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="Q953" t="n">
         <v>36</v>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44211</v>
+        <v>44358</v>
       </c>
       <c r="E954" t="n">
         <v>13</v>
@@ -69041,20 +69041,20 @@
       </c>
       <c r="I954" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J954" t="n">
-        <v>410</v>
+        <v>810</v>
       </c>
       <c r="K954" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="L954" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="M954" t="n">
-        <v>1863</v>
+        <v>2252</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69067,7 +69067,7 @@
         </is>
       </c>
       <c r="P954" t="n">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="Q954" t="n">
         <v>36</v>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E955" t="n">
         <v>13</v>
@@ -69113,20 +69113,20 @@
       </c>
       <c r="I955" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J955" t="n">
-        <v>720</v>
+        <v>690</v>
       </c>
       <c r="K955" t="n">
-        <v>3800</v>
+        <v>2200</v>
       </c>
       <c r="L955" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="M955" t="n">
-        <v>3906</v>
+        <v>2319</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69135,11 +69135,11 @@
       </c>
       <c r="O955" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P955" t="n">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="Q955" t="n">
         <v>36</v>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E956" t="n">
         <v>13</v>
@@ -69185,20 +69185,20 @@
       </c>
       <c r="I956" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J956" t="n">
-        <v>810</v>
+        <v>250</v>
       </c>
       <c r="K956" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="L956" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M956" t="n">
-        <v>3852</v>
+        <v>2000</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69207,11 +69207,11 @@
       </c>
       <c r="O956" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P956" t="n">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="Q956" t="n">
         <v>36</v>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44425</v>
+        <v>44358</v>
       </c>
       <c r="E957" t="n">
         <v>13</v>
@@ -69257,20 +69257,20 @@
       </c>
       <c r="I957" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J957" t="n">
-        <v>800</v>
+        <v>290</v>
       </c>
       <c r="K957" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L957" t="n">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="M957" t="n">
-        <v>3161</v>
+        <v>2000</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69279,11 +69279,11 @@
       </c>
       <c r="O957" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P957" t="n">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="Q957" t="n">
         <v>36</v>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E958" t="n">
         <v>13</v>
@@ -69329,20 +69329,20 @@
       </c>
       <c r="I958" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J958" t="n">
-        <v>920</v>
+        <v>600</v>
       </c>
       <c r="K958" t="n">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="L958" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="M958" t="n">
-        <v>3047</v>
+        <v>2880</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69351,11 +69351,11 @@
       </c>
       <c r="O958" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P958" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Q958" t="n">
         <v>36</v>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E959" t="n">
         <v>13</v>
@@ -69401,20 +69401,20 @@
       </c>
       <c r="I959" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J959" t="n">
-        <v>250</v>
+        <v>770</v>
       </c>
       <c r="K959" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="L959" t="n">
         <v>2500</v>
       </c>
       <c r="M959" t="n">
-        <v>2500</v>
+        <v>2375</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69427,7 +69427,7 @@
         </is>
       </c>
       <c r="P959" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q959" t="n">
         <v>36</v>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44425</v>
+        <v>44211</v>
       </c>
       <c r="E960" t="n">
         <v>13</v>
@@ -69477,16 +69477,16 @@
         </is>
       </c>
       <c r="J960" t="n">
-        <v>320</v>
+        <v>410</v>
       </c>
       <c r="K960" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L960" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M960" t="n">
-        <v>2500</v>
+        <v>1863</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69495,11 +69495,11 @@
       </c>
       <c r="O960" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P960" t="n">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="Q960" t="n">
         <v>36</v>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E961" t="n">
         <v>13</v>
@@ -69549,16 +69549,16 @@
         </is>
       </c>
       <c r="J961" t="n">
-        <v>260</v>
+        <v>720</v>
       </c>
       <c r="K961" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L961" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M961" t="n">
-        <v>3000</v>
+        <v>3906</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69571,7 +69571,7 @@
         </is>
       </c>
       <c r="P961" t="n">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="Q961" t="n">
         <v>36</v>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E962" t="n">
         <v>13</v>
@@ -69621,16 +69621,16 @@
         </is>
       </c>
       <c r="J962" t="n">
-        <v>380</v>
+        <v>810</v>
       </c>
       <c r="K962" t="n">
-        <v>3000</v>
+        <v>3700</v>
       </c>
       <c r="L962" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M962" t="n">
-        <v>3000</v>
+        <v>3852</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69643,7 +69643,7 @@
         </is>
       </c>
       <c r="P962" t="n">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="Q962" t="n">
         <v>36</v>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E963" t="n">
         <v>13</v>
@@ -69693,16 +69693,16 @@
         </is>
       </c>
       <c r="J963" t="n">
-        <v>770</v>
+        <v>800</v>
       </c>
       <c r="K963" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L963" t="n">
-        <v>2600</v>
+        <v>3300</v>
       </c>
       <c r="M963" t="n">
-        <v>2514</v>
+        <v>3161</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69715,7 +69715,7 @@
         </is>
       </c>
       <c r="P963" t="n">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="Q963" t="n">
         <v>36</v>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E964" t="n">
         <v>13</v>
@@ -69765,16 +69765,16 @@
         </is>
       </c>
       <c r="J964" t="n">
-        <v>820</v>
+        <v>920</v>
       </c>
       <c r="K964" t="n">
-        <v>2400</v>
+        <v>2900</v>
       </c>
       <c r="L964" t="n">
-        <v>2600</v>
+        <v>3200</v>
       </c>
       <c r="M964" t="n">
-        <v>2515</v>
+        <v>3047</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69787,7 +69787,7 @@
         </is>
       </c>
       <c r="P964" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="Q964" t="n">
         <v>36</v>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44323</v>
+        <v>44425</v>
       </c>
       <c r="E965" t="n">
         <v>13</v>
@@ -69840,13 +69840,13 @@
         <v>250</v>
       </c>
       <c r="K965" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L965" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M965" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69859,7 +69859,7 @@
         </is>
       </c>
       <c r="P965" t="n">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="Q965" t="n">
         <v>36</v>
@@ -69885,58 +69885,490 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E966" t="n">
+        <v>13</v>
+      </c>
+      <c r="F966" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G966" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H966" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I966" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J966" t="n">
+        <v>320</v>
+      </c>
+      <c r="K966" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L966" t="n">
+        <v>2500</v>
+      </c>
+      <c r="M966" t="n">
+        <v>2500</v>
+      </c>
+      <c r="N966" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O966" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P966" t="n">
+        <v>69</v>
+      </c>
+      <c r="Q966" t="n">
+        <v>36</v>
+      </c>
+      <c r="R966" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="n">
+        <v>6</v>
+      </c>
+      <c r="B967" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C967" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D967" s="2" t="n">
         <v>44323</v>
       </c>
-      <c r="E966" t="n">
-        <v>13</v>
-      </c>
-      <c r="F966" t="n">
-        <v>100112037</v>
-      </c>
-      <c r="G966" t="inlineStr">
-        <is>
-          <t>Cebollín</t>
-        </is>
-      </c>
-      <c r="H966" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I966" t="inlineStr">
+      <c r="E967" t="n">
+        <v>13</v>
+      </c>
+      <c r="F967" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G967" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H967" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I967" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J967" t="n">
+        <v>260</v>
+      </c>
+      <c r="K967" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L967" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M967" t="n">
+        <v>3000</v>
+      </c>
+      <c r="N967" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O967" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P967" t="n">
+        <v>83</v>
+      </c>
+      <c r="Q967" t="n">
+        <v>36</v>
+      </c>
+      <c r="R967" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="n">
+        <v>6</v>
+      </c>
+      <c r="B968" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D968" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E968" t="n">
+        <v>13</v>
+      </c>
+      <c r="F968" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G968" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H968" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I968" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J968" t="n">
+        <v>380</v>
+      </c>
+      <c r="K968" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L968" t="n">
+        <v>3000</v>
+      </c>
+      <c r="M968" t="n">
+        <v>3000</v>
+      </c>
+      <c r="N968" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O968" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P968" t="n">
+        <v>83</v>
+      </c>
+      <c r="Q968" t="n">
+        <v>36</v>
+      </c>
+      <c r="R968" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="n">
+        <v>6</v>
+      </c>
+      <c r="B969" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D969" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E969" t="n">
+        <v>13</v>
+      </c>
+      <c r="F969" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G969" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H969" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I969" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J969" t="n">
+        <v>770</v>
+      </c>
+      <c r="K969" t="n">
+        <v>2400</v>
+      </c>
+      <c r="L969" t="n">
+        <v>2600</v>
+      </c>
+      <c r="M969" t="n">
+        <v>2514</v>
+      </c>
+      <c r="N969" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O969" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P969" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q969" t="n">
+        <v>36</v>
+      </c>
+      <c r="R969" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="n">
+        <v>6</v>
+      </c>
+      <c r="B970" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D970" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E970" t="n">
+        <v>13</v>
+      </c>
+      <c r="F970" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G970" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H970" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I970" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J970" t="n">
+        <v>820</v>
+      </c>
+      <c r="K970" t="n">
+        <v>2400</v>
+      </c>
+      <c r="L970" t="n">
+        <v>2600</v>
+      </c>
+      <c r="M970" t="n">
+        <v>2515</v>
+      </c>
+      <c r="N970" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O970" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P970" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q970" t="n">
+        <v>36</v>
+      </c>
+      <c r="R970" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="n">
+        <v>6</v>
+      </c>
+      <c r="B971" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D971" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E971" t="n">
+        <v>13</v>
+      </c>
+      <c r="F971" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G971" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H971" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I971" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J966" t="n">
+      <c r="J971" t="n">
+        <v>250</v>
+      </c>
+      <c r="K971" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L971" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M971" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N971" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O971" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P971" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q971" t="n">
+        <v>36</v>
+      </c>
+      <c r="R971" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="n">
+        <v>6</v>
+      </c>
+      <c r="B972" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D972" s="2" t="n">
+        <v>44323</v>
+      </c>
+      <c r="E972" t="n">
+        <v>13</v>
+      </c>
+      <c r="F972" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G972" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H972" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I972" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J972" t="n">
         <v>200</v>
       </c>
-      <c r="K966" t="n">
+      <c r="K972" t="n">
         <v>2000</v>
       </c>
-      <c r="L966" t="n">
+      <c r="L972" t="n">
         <v>2000</v>
       </c>
-      <c r="M966" t="n">
+      <c r="M972" t="n">
         <v>2000</v>
       </c>
-      <c r="N966" t="inlineStr">
-        <is>
-          <t>$/paquete 36 unidades</t>
-        </is>
-      </c>
-      <c r="O966" t="inlineStr">
+      <c r="N972" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O972" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P966" t="n">
+      <c r="P972" t="n">
         <v>56</v>
       </c>
-      <c r="Q966" t="n">
-        <v>36</v>
-      </c>
-      <c r="R966" t="inlineStr">
+      <c r="Q972" t="n">
+        <v>36</v>
+      </c>
+      <c r="R972" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cebollín.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cebollín.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R978"/>
+  <dimension ref="A1:R984"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59085,7 +59085,7 @@
         </is>
       </c>
       <c r="D816" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E816" t="n">
         <v>13</v>
@@ -59109,16 +59109,16 @@
         </is>
       </c>
       <c r="J816" t="n">
-        <v>680</v>
+        <v>770</v>
       </c>
       <c r="K816" t="n">
-        <v>3200</v>
+        <v>2700</v>
       </c>
       <c r="L816" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M816" t="n">
-        <v>3363</v>
+        <v>2848</v>
       </c>
       <c r="N816" t="inlineStr">
         <is>
@@ -59131,7 +59131,7 @@
         </is>
       </c>
       <c r="P816" t="n">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="Q816" t="n">
         <v>36</v>
@@ -59157,7 +59157,7 @@
         </is>
       </c>
       <c r="D817" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E817" t="n">
         <v>13</v>
@@ -59181,16 +59181,16 @@
         </is>
       </c>
       <c r="J817" t="n">
-        <v>710</v>
+        <v>760</v>
       </c>
       <c r="K817" t="n">
-        <v>3100</v>
+        <v>2700</v>
       </c>
       <c r="L817" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M817" t="n">
-        <v>3292</v>
+        <v>2838</v>
       </c>
       <c r="N817" t="inlineStr">
         <is>
@@ -59203,7 +59203,7 @@
         </is>
       </c>
       <c r="P817" t="n">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="Q817" t="n">
         <v>36</v>
@@ -59229,7 +59229,7 @@
         </is>
       </c>
       <c r="D818" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E818" t="n">
         <v>13</v>
@@ -59253,16 +59253,16 @@
         </is>
       </c>
       <c r="J818" t="n">
-        <v>830</v>
+        <v>930</v>
       </c>
       <c r="K818" t="n">
+        <v>2300</v>
+      </c>
+      <c r="L818" t="n">
         <v>2500</v>
       </c>
-      <c r="L818" t="n">
-        <v>2800</v>
-      </c>
       <c r="M818" t="n">
-        <v>2659</v>
+        <v>2395</v>
       </c>
       <c r="N818" t="inlineStr">
         <is>
@@ -59275,7 +59275,7 @@
         </is>
       </c>
       <c r="P818" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="Q818" t="n">
         <v>36</v>
@@ -59301,7 +59301,7 @@
         </is>
       </c>
       <c r="D819" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E819" t="n">
         <v>13</v>
@@ -59325,16 +59325,16 @@
         </is>
       </c>
       <c r="J819" t="n">
-        <v>800</v>
+        <v>890</v>
       </c>
       <c r="K819" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="L819" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M819" t="n">
-        <v>2590</v>
+        <v>2358</v>
       </c>
       <c r="N819" t="inlineStr">
         <is>
@@ -59347,7 +59347,7 @@
         </is>
       </c>
       <c r="P819" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q819" t="n">
         <v>36</v>
@@ -59373,7 +59373,7 @@
         </is>
       </c>
       <c r="D820" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E820" t="n">
         <v>13</v>
@@ -59397,16 +59397,16 @@
         </is>
       </c>
       <c r="J820" t="n">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="K820" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L820" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="M820" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="N820" t="inlineStr">
         <is>
@@ -59419,7 +59419,7 @@
         </is>
       </c>
       <c r="P820" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Q820" t="n">
         <v>36</v>
@@ -59445,7 +59445,7 @@
         </is>
       </c>
       <c r="D821" s="2" t="n">
-        <v>44468</v>
+        <v>44476</v>
       </c>
       <c r="E821" t="n">
         <v>13</v>
@@ -59469,16 +59469,16 @@
         </is>
       </c>
       <c r="J821" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="K821" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L821" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="M821" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="N821" t="inlineStr">
         <is>
@@ -59491,7 +59491,7 @@
         </is>
       </c>
       <c r="P821" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Q821" t="n">
         <v>36</v>
@@ -59517,7 +59517,7 @@
         </is>
       </c>
       <c r="D822" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E822" t="n">
         <v>13</v>
@@ -59541,16 +59541,16 @@
         </is>
       </c>
       <c r="J822" t="n">
-        <v>380</v>
+        <v>680</v>
       </c>
       <c r="K822" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="L822" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M822" t="n">
-        <v>3000</v>
+        <v>3363</v>
       </c>
       <c r="N822" t="inlineStr">
         <is>
@@ -59563,7 +59563,7 @@
         </is>
       </c>
       <c r="P822" t="n">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="Q822" t="n">
         <v>36</v>
@@ -59589,7 +59589,7 @@
         </is>
       </c>
       <c r="D823" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E823" t="n">
         <v>13</v>
@@ -59613,16 +59613,16 @@
         </is>
       </c>
       <c r="J823" t="n">
-        <v>450</v>
+        <v>710</v>
       </c>
       <c r="K823" t="n">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="L823" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M823" t="n">
-        <v>3000</v>
+        <v>3292</v>
       </c>
       <c r="N823" t="inlineStr">
         <is>
@@ -59635,7 +59635,7 @@
         </is>
       </c>
       <c r="P823" t="n">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="Q823" t="n">
         <v>36</v>
@@ -59661,7 +59661,7 @@
         </is>
       </c>
       <c r="D824" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E824" t="n">
         <v>13</v>
@@ -59685,16 +59685,16 @@
         </is>
       </c>
       <c r="J824" t="n">
-        <v>730</v>
+        <v>830</v>
       </c>
       <c r="K824" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L824" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M824" t="n">
-        <v>2418</v>
+        <v>2659</v>
       </c>
       <c r="N824" t="inlineStr">
         <is>
@@ -59707,7 +59707,7 @@
         </is>
       </c>
       <c r="P824" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="Q824" t="n">
         <v>36</v>
@@ -59733,7 +59733,7 @@
         </is>
       </c>
       <c r="D825" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E825" t="n">
         <v>13</v>
@@ -59757,16 +59757,16 @@
         </is>
       </c>
       <c r="J825" t="n">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="K825" t="n">
         <v>2400</v>
       </c>
       <c r="L825" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="M825" t="n">
-        <v>2513</v>
+        <v>2590</v>
       </c>
       <c r="N825" t="inlineStr">
         <is>
@@ -59779,7 +59779,7 @@
         </is>
       </c>
       <c r="P825" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q825" t="n">
         <v>36</v>
@@ -59805,7 +59805,7 @@
         </is>
       </c>
       <c r="D826" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E826" t="n">
         <v>13</v>
@@ -59829,7 +59829,7 @@
         </is>
       </c>
       <c r="J826" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="K826" t="n">
         <v>2000</v>
@@ -59877,7 +59877,7 @@
         </is>
       </c>
       <c r="D827" s="2" t="n">
-        <v>44386</v>
+        <v>44468</v>
       </c>
       <c r="E827" t="n">
         <v>13</v>
@@ -59901,16 +59901,16 @@
         </is>
       </c>
       <c r="J827" t="n">
-        <v>460</v>
+        <v>250</v>
       </c>
       <c r="K827" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L827" t="n">
         <v>2000</v>
       </c>
       <c r="M827" t="n">
-        <v>1909</v>
+        <v>2000</v>
       </c>
       <c r="N827" t="inlineStr">
         <is>
@@ -59923,7 +59923,7 @@
         </is>
       </c>
       <c r="P827" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q827" t="n">
         <v>36</v>
@@ -59949,7 +59949,7 @@
         </is>
       </c>
       <c r="D828" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E828" t="n">
         <v>13</v>
@@ -59973,16 +59973,16 @@
         </is>
       </c>
       <c r="J828" t="n">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="K828" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="L828" t="n">
         <v>3000</v>
       </c>
       <c r="M828" t="n">
-        <v>2912</v>
+        <v>3000</v>
       </c>
       <c r="N828" t="inlineStr">
         <is>
@@ -59995,7 +59995,7 @@
         </is>
       </c>
       <c r="P828" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q828" t="n">
         <v>36</v>
@@ -60021,7 +60021,7 @@
         </is>
       </c>
       <c r="D829" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E829" t="n">
         <v>13</v>
@@ -60041,20 +60041,20 @@
       </c>
       <c r="I829" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J829" t="n">
-        <v>490</v>
+        <v>450</v>
       </c>
       <c r="K829" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="L829" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M829" t="n">
-        <v>2406</v>
+        <v>3000</v>
       </c>
       <c r="N829" t="inlineStr">
         <is>
@@ -60063,11 +60063,11 @@
       </c>
       <c r="O829" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P829" t="n">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="Q829" t="n">
         <v>36</v>
@@ -60093,7 +60093,7 @@
         </is>
       </c>
       <c r="D830" s="2" t="n">
-        <v>44384</v>
+        <v>44386</v>
       </c>
       <c r="E830" t="n">
         <v>13</v>
@@ -60113,20 +60113,20 @@
       </c>
       <c r="I830" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J830" t="n">
-        <v>270</v>
+        <v>730</v>
       </c>
       <c r="K830" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="L830" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M830" t="n">
-        <v>1911</v>
+        <v>2418</v>
       </c>
       <c r="N830" t="inlineStr">
         <is>
@@ -60139,7 +60139,7 @@
         </is>
       </c>
       <c r="P830" t="n">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="Q830" t="n">
         <v>36</v>
@@ -60165,7 +60165,7 @@
         </is>
       </c>
       <c r="D831" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E831" t="n">
         <v>13</v>
@@ -60189,16 +60189,16 @@
         </is>
       </c>
       <c r="J831" t="n">
-        <v>400</v>
+        <v>850</v>
       </c>
       <c r="K831" t="n">
-        <v>3700</v>
+        <v>2400</v>
       </c>
       <c r="L831" t="n">
-        <v>3700</v>
+        <v>2600</v>
       </c>
       <c r="M831" t="n">
-        <v>3700</v>
+        <v>2513</v>
       </c>
       <c r="N831" t="inlineStr">
         <is>
@@ -60207,11 +60207,11 @@
       </c>
       <c r="O831" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P831" t="n">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="Q831" t="n">
         <v>36</v>
@@ -60237,7 +60237,7 @@
         </is>
       </c>
       <c r="D832" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E832" t="n">
         <v>13</v>
@@ -60257,20 +60257,20 @@
       </c>
       <c r="I832" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J832" t="n">
-        <v>650</v>
+        <v>250</v>
       </c>
       <c r="K832" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L832" t="n">
-        <v>3800</v>
+        <v>2000</v>
       </c>
       <c r="M832" t="n">
-        <v>3671</v>
+        <v>2000</v>
       </c>
       <c r="N832" t="inlineStr">
         <is>
@@ -60279,11 +60279,11 @@
       </c>
       <c r="O832" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P832" t="n">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="Q832" t="n">
         <v>36</v>
@@ -60309,7 +60309,7 @@
         </is>
       </c>
       <c r="D833" s="2" t="n">
-        <v>44263</v>
+        <v>44386</v>
       </c>
       <c r="E833" t="n">
         <v>13</v>
@@ -60333,16 +60333,16 @@
         </is>
       </c>
       <c r="J833" t="n">
-        <v>280</v>
+        <v>460</v>
       </c>
       <c r="K833" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="L833" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M833" t="n">
-        <v>3000</v>
+        <v>1909</v>
       </c>
       <c r="N833" t="inlineStr">
         <is>
@@ -60351,11 +60351,11 @@
       </c>
       <c r="O833" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P833" t="n">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="Q833" t="n">
         <v>36</v>
@@ -60381,7 +60381,7 @@
         </is>
       </c>
       <c r="D834" s="2" t="n">
-        <v>44263</v>
+        <v>44384</v>
       </c>
       <c r="E834" t="n">
         <v>13</v>
@@ -60401,20 +60401,20 @@
       </c>
       <c r="I834" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J834" t="n">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="K834" t="n">
+        <v>2800</v>
+      </c>
+      <c r="L834" t="n">
         <v>3000</v>
       </c>
-      <c r="L834" t="n">
-        <v>3200</v>
-      </c>
       <c r="M834" t="n">
-        <v>3111</v>
+        <v>2912</v>
       </c>
       <c r="N834" t="inlineStr">
         <is>
@@ -60423,11 +60423,11 @@
       </c>
       <c r="O834" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P834" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="Q834" t="n">
         <v>36</v>
@@ -60453,7 +60453,7 @@
         </is>
       </c>
       <c r="D835" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E835" t="n">
         <v>13</v>
@@ -60473,20 +60473,20 @@
       </c>
       <c r="I835" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J835" t="n">
-        <v>330</v>
+        <v>490</v>
       </c>
       <c r="K835" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="L835" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M835" t="n">
-        <v>2800</v>
+        <v>2406</v>
       </c>
       <c r="N835" t="inlineStr">
         <is>
@@ -60499,7 +60499,7 @@
         </is>
       </c>
       <c r="P835" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="Q835" t="n">
         <v>36</v>
@@ -60525,7 +60525,7 @@
         </is>
       </c>
       <c r="D836" s="2" t="n">
-        <v>44363</v>
+        <v>44384</v>
       </c>
       <c r="E836" t="n">
         <v>13</v>
@@ -60545,20 +60545,20 @@
       </c>
       <c r="I836" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J836" t="n">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="K836" t="n">
-        <v>2900</v>
+        <v>1800</v>
       </c>
       <c r="L836" t="n">
-        <v>2900</v>
+        <v>2000</v>
       </c>
       <c r="M836" t="n">
-        <v>2900</v>
+        <v>1911</v>
       </c>
       <c r="N836" t="inlineStr">
         <is>
@@ -60567,11 +60567,11 @@
       </c>
       <c r="O836" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P836" t="n">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="Q836" t="n">
         <v>36</v>
@@ -60597,7 +60597,7 @@
         </is>
       </c>
       <c r="D837" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E837" t="n">
         <v>13</v>
@@ -60621,16 +60621,16 @@
         </is>
       </c>
       <c r="J837" t="n">
-        <v>670</v>
+        <v>400</v>
       </c>
       <c r="K837" t="n">
-        <v>2300</v>
+        <v>3700</v>
       </c>
       <c r="L837" t="n">
-        <v>2500</v>
+        <v>3700</v>
       </c>
       <c r="M837" t="n">
-        <v>2413</v>
+        <v>3700</v>
       </c>
       <c r="N837" t="inlineStr">
         <is>
@@ -60643,7 +60643,7 @@
         </is>
       </c>
       <c r="P837" t="n">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="Q837" t="n">
         <v>36</v>
@@ -60669,7 +60669,7 @@
         </is>
       </c>
       <c r="D838" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E838" t="n">
         <v>13</v>
@@ -60693,16 +60693,16 @@
         </is>
       </c>
       <c r="J838" t="n">
-        <v>670</v>
+        <v>650</v>
       </c>
       <c r="K838" t="n">
-        <v>2400</v>
+        <v>3500</v>
       </c>
       <c r="L838" t="n">
-        <v>2600</v>
+        <v>3800</v>
       </c>
       <c r="M838" t="n">
-        <v>2516</v>
+        <v>3671</v>
       </c>
       <c r="N838" t="inlineStr">
         <is>
@@ -60715,7 +60715,7 @@
         </is>
       </c>
       <c r="P838" t="n">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="Q838" t="n">
         <v>36</v>
@@ -60741,7 +60741,7 @@
         </is>
       </c>
       <c r="D839" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E839" t="n">
         <v>13</v>
@@ -60765,16 +60765,16 @@
         </is>
       </c>
       <c r="J839" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K839" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L839" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M839" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N839" t="inlineStr">
         <is>
@@ -60787,7 +60787,7 @@
         </is>
       </c>
       <c r="P839" t="n">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="Q839" t="n">
         <v>36</v>
@@ -60813,7 +60813,7 @@
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>44363</v>
+        <v>44263</v>
       </c>
       <c r="E840" t="n">
         <v>13</v>
@@ -60837,16 +60837,16 @@
         </is>
       </c>
       <c r="J840" t="n">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="K840" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L840" t="n">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="M840" t="n">
-        <v>2000</v>
+        <v>3111</v>
       </c>
       <c r="N840" t="inlineStr">
         <is>
@@ -60859,7 +60859,7 @@
         </is>
       </c>
       <c r="P840" t="n">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="Q840" t="n">
         <v>36</v>
@@ -60885,7 +60885,7 @@
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E841" t="n">
         <v>13</v>
@@ -60905,20 +60905,20 @@
       </c>
       <c r="I841" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J841" t="n">
-        <v>830</v>
+        <v>330</v>
       </c>
       <c r="K841" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="L841" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M841" t="n">
-        <v>2812</v>
+        <v>2800</v>
       </c>
       <c r="N841" t="inlineStr">
         <is>
@@ -60957,7 +60957,7 @@
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E842" t="n">
         <v>13</v>
@@ -60977,20 +60977,20 @@
       </c>
       <c r="I842" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J842" t="n">
-        <v>950</v>
+        <v>370</v>
       </c>
       <c r="K842" t="n">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="L842" t="n">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="M842" t="n">
-        <v>2667</v>
+        <v>2900</v>
       </c>
       <c r="N842" t="inlineStr">
         <is>
@@ -61003,7 +61003,7 @@
         </is>
       </c>
       <c r="P842" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="Q842" t="n">
         <v>36</v>
@@ -61029,7 +61029,7 @@
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E843" t="n">
         <v>13</v>
@@ -61049,20 +61049,20 @@
       </c>
       <c r="I843" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J843" t="n">
-        <v>270</v>
+        <v>670</v>
       </c>
       <c r="K843" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="L843" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M843" t="n">
-        <v>2000</v>
+        <v>2413</v>
       </c>
       <c r="N843" t="inlineStr">
         <is>
@@ -61075,7 +61075,7 @@
         </is>
       </c>
       <c r="P843" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="Q843" t="n">
         <v>36</v>
@@ -61101,7 +61101,7 @@
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>44306</v>
+        <v>44363</v>
       </c>
       <c r="E844" t="n">
         <v>13</v>
@@ -61121,20 +61121,20 @@
       </c>
       <c r="I844" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J844" t="n">
-        <v>280</v>
+        <v>670</v>
       </c>
       <c r="K844" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L844" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="M844" t="n">
-        <v>2000</v>
+        <v>2516</v>
       </c>
       <c r="N844" t="inlineStr">
         <is>
@@ -61147,7 +61147,7 @@
         </is>
       </c>
       <c r="P844" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="Q844" t="n">
         <v>36</v>
@@ -61173,7 +61173,7 @@
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E845" t="n">
         <v>13</v>
@@ -61193,20 +61193,20 @@
       </c>
       <c r="I845" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J845" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="K845" t="n">
-        <v>2900</v>
+        <v>2000</v>
       </c>
       <c r="L845" t="n">
-        <v>2900</v>
+        <v>2000</v>
       </c>
       <c r="M845" t="n">
-        <v>2900</v>
+        <v>2000</v>
       </c>
       <c r="N845" t="inlineStr">
         <is>
@@ -61219,7 +61219,7 @@
         </is>
       </c>
       <c r="P845" t="n">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="Q845" t="n">
         <v>36</v>
@@ -61245,7 +61245,7 @@
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>44369</v>
+        <v>44363</v>
       </c>
       <c r="E846" t="n">
         <v>13</v>
@@ -61265,20 +61265,20 @@
       </c>
       <c r="I846" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J846" t="n">
-        <v>410</v>
+        <v>240</v>
       </c>
       <c r="K846" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L846" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M846" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N846" t="inlineStr">
         <is>
@@ -61291,7 +61291,7 @@
         </is>
       </c>
       <c r="P846" t="n">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="Q846" t="n">
         <v>36</v>
@@ -61317,7 +61317,7 @@
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E847" t="n">
         <v>13</v>
@@ -61341,16 +61341,16 @@
         </is>
       </c>
       <c r="J847" t="n">
-        <v>750</v>
+        <v>830</v>
       </c>
       <c r="K847" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="L847" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M847" t="n">
-        <v>2460</v>
+        <v>2812</v>
       </c>
       <c r="N847" t="inlineStr">
         <is>
@@ -61363,7 +61363,7 @@
         </is>
       </c>
       <c r="P847" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="Q847" t="n">
         <v>36</v>
@@ -61389,7 +61389,7 @@
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E848" t="n">
         <v>13</v>
@@ -61413,16 +61413,16 @@
         </is>
       </c>
       <c r="J848" t="n">
-        <v>790</v>
+        <v>950</v>
       </c>
       <c r="K848" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="L848" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="M848" t="n">
-        <v>2519</v>
+        <v>2667</v>
       </c>
       <c r="N848" t="inlineStr">
         <is>
@@ -61435,7 +61435,7 @@
         </is>
       </c>
       <c r="P848" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="Q848" t="n">
         <v>36</v>
@@ -61461,7 +61461,7 @@
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E849" t="n">
         <v>13</v>
@@ -61485,16 +61485,16 @@
         </is>
       </c>
       <c r="J849" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="K849" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L849" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="M849" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="N849" t="inlineStr">
         <is>
@@ -61507,7 +61507,7 @@
         </is>
       </c>
       <c r="P849" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q849" t="n">
         <v>36</v>
@@ -61533,7 +61533,7 @@
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>44369</v>
+        <v>44306</v>
       </c>
       <c r="E850" t="n">
         <v>13</v>
@@ -61557,16 +61557,16 @@
         </is>
       </c>
       <c r="J850" t="n">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="K850" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L850" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="M850" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="N850" t="inlineStr">
         <is>
@@ -61579,7 +61579,7 @@
         </is>
       </c>
       <c r="P850" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q850" t="n">
         <v>36</v>
@@ -61605,7 +61605,7 @@
         </is>
       </c>
       <c r="D851" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E851" t="n">
         <v>13</v>
@@ -61629,16 +61629,16 @@
         </is>
       </c>
       <c r="J851" t="n">
-        <v>680</v>
+        <v>380</v>
       </c>
       <c r="K851" t="n">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="L851" t="n">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="M851" t="n">
-        <v>2899</v>
+        <v>2900</v>
       </c>
       <c r="N851" t="inlineStr">
         <is>
@@ -61647,7 +61647,7 @@
       </c>
       <c r="O851" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P851" t="n">
@@ -61677,7 +61677,7 @@
         </is>
       </c>
       <c r="D852" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E852" t="n">
         <v>13</v>
@@ -61697,20 +61697,20 @@
       </c>
       <c r="I852" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J852" t="n">
-        <v>500</v>
+        <v>410</v>
       </c>
       <c r="K852" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="L852" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M852" t="n">
-        <v>2440</v>
+        <v>3000</v>
       </c>
       <c r="N852" t="inlineStr">
         <is>
@@ -61723,7 +61723,7 @@
         </is>
       </c>
       <c r="P852" t="n">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="Q852" t="n">
         <v>36</v>
@@ -61749,7 +61749,7 @@
         </is>
       </c>
       <c r="D853" s="2" t="n">
-        <v>44172</v>
+        <v>44369</v>
       </c>
       <c r="E853" t="n">
         <v>13</v>
@@ -61769,20 +61769,20 @@
       </c>
       <c r="I853" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J853" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="K853" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L853" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M853" t="n">
-        <v>2000</v>
+        <v>2460</v>
       </c>
       <c r="N853" t="inlineStr">
         <is>
@@ -61791,11 +61791,11 @@
       </c>
       <c r="O853" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P853" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="Q853" t="n">
         <v>36</v>
@@ -61821,7 +61821,7 @@
         </is>
       </c>
       <c r="D854" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E854" t="n">
         <v>13</v>
@@ -61845,16 +61845,16 @@
         </is>
       </c>
       <c r="J854" t="n">
-        <v>830</v>
+        <v>790</v>
       </c>
       <c r="K854" t="n">
+        <v>2400</v>
+      </c>
+      <c r="L854" t="n">
         <v>2600</v>
       </c>
-      <c r="L854" t="n">
-        <v>3000</v>
-      </c>
       <c r="M854" t="n">
-        <v>2812</v>
+        <v>2519</v>
       </c>
       <c r="N854" t="inlineStr">
         <is>
@@ -61863,11 +61863,11 @@
       </c>
       <c r="O854" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P854" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="Q854" t="n">
         <v>36</v>
@@ -61893,7 +61893,7 @@
         </is>
       </c>
       <c r="D855" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E855" t="n">
         <v>13</v>
@@ -61913,20 +61913,20 @@
       </c>
       <c r="I855" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J855" t="n">
-        <v>1010</v>
+        <v>290</v>
       </c>
       <c r="K855" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="L855" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="M855" t="n">
-        <v>2707</v>
+        <v>2200</v>
       </c>
       <c r="N855" t="inlineStr">
         <is>
@@ -61935,11 +61935,11 @@
       </c>
       <c r="O855" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P855" t="n">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="Q855" t="n">
         <v>36</v>
@@ -61965,7 +61965,7 @@
         </is>
       </c>
       <c r="D856" s="2" t="n">
-        <v>44301</v>
+        <v>44369</v>
       </c>
       <c r="E856" t="n">
         <v>13</v>
@@ -61989,16 +61989,16 @@
         </is>
       </c>
       <c r="J856" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="K856" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="L856" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="M856" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="N856" t="inlineStr">
         <is>
@@ -62007,11 +62007,11 @@
       </c>
       <c r="O856" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P856" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="Q856" t="n">
         <v>36</v>
@@ -62037,7 +62037,7 @@
         </is>
       </c>
       <c r="D857" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E857" t="n">
         <v>13</v>
@@ -62057,20 +62057,20 @@
       </c>
       <c r="I857" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J857" t="n">
-        <v>330</v>
+        <v>680</v>
       </c>
       <c r="K857" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="L857" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M857" t="n">
-        <v>2000</v>
+        <v>2899</v>
       </c>
       <c r="N857" t="inlineStr">
         <is>
@@ -62083,7 +62083,7 @@
         </is>
       </c>
       <c r="P857" t="n">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="Q857" t="n">
         <v>36</v>
@@ -62109,7 +62109,7 @@
         </is>
       </c>
       <c r="D858" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E858" t="n">
         <v>13</v>
@@ -62129,20 +62129,20 @@
       </c>
       <c r="I858" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J858" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="K858" t="n">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="L858" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="M858" t="n">
-        <v>2700</v>
+        <v>2440</v>
       </c>
       <c r="N858" t="inlineStr">
         <is>
@@ -62151,11 +62151,11 @@
       </c>
       <c r="O858" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P858" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="Q858" t="n">
         <v>36</v>
@@ -62181,7 +62181,7 @@
         </is>
       </c>
       <c r="D859" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E859" t="n">
         <v>13</v>
@@ -62201,20 +62201,20 @@
       </c>
       <c r="I859" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J859" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="K859" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="L859" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="M859" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="N859" t="inlineStr">
         <is>
@@ -62227,7 +62227,7 @@
         </is>
       </c>
       <c r="P859" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="Q859" t="n">
         <v>36</v>
@@ -62253,7 +62253,7 @@
         </is>
       </c>
       <c r="D860" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E860" t="n">
         <v>13</v>
@@ -62277,16 +62277,16 @@
         </is>
       </c>
       <c r="J860" t="n">
-        <v>730</v>
+        <v>830</v>
       </c>
       <c r="K860" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="L860" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="M860" t="n">
-        <v>2253</v>
+        <v>2812</v>
       </c>
       <c r="N860" t="inlineStr">
         <is>
@@ -62299,7 +62299,7 @@
         </is>
       </c>
       <c r="P860" t="n">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="Q860" t="n">
         <v>36</v>
@@ -62325,7 +62325,7 @@
         </is>
       </c>
       <c r="D861" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E861" t="n">
         <v>13</v>
@@ -62349,16 +62349,16 @@
         </is>
       </c>
       <c r="J861" t="n">
-        <v>760</v>
+        <v>1010</v>
       </c>
       <c r="K861" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="L861" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="M861" t="n">
-        <v>2255</v>
+        <v>2707</v>
       </c>
       <c r="N861" t="inlineStr">
         <is>
@@ -62371,7 +62371,7 @@
         </is>
       </c>
       <c r="P861" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="Q861" t="n">
         <v>36</v>
@@ -62397,7 +62397,7 @@
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E862" t="n">
         <v>13</v>
@@ -62421,16 +62421,16 @@
         </is>
       </c>
       <c r="J862" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="K862" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L862" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M862" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="N862" t="inlineStr">
         <is>
@@ -62443,7 +62443,7 @@
         </is>
       </c>
       <c r="P862" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Q862" t="n">
         <v>36</v>
@@ -62469,7 +62469,7 @@
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E863" t="n">
         <v>13</v>
@@ -62493,16 +62493,16 @@
         </is>
       </c>
       <c r="J863" t="n">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="K863" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L863" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M863" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="N863" t="inlineStr">
         <is>
@@ -62515,7 +62515,7 @@
         </is>
       </c>
       <c r="P863" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Q863" t="n">
         <v>36</v>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E864" t="n">
         <v>13</v>
@@ -62565,16 +62565,16 @@
         </is>
       </c>
       <c r="J864" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="K864" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="L864" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="M864" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="N864" t="inlineStr">
         <is>
@@ -62587,7 +62587,7 @@
         </is>
       </c>
       <c r="P864" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q864" t="n">
         <v>36</v>
@@ -62613,7 +62613,7 @@
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E865" t="n">
         <v>13</v>
@@ -62637,16 +62637,16 @@
         </is>
       </c>
       <c r="J865" t="n">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="K865" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="L865" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="M865" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="N865" t="inlineStr">
         <is>
@@ -62659,7 +62659,7 @@
         </is>
       </c>
       <c r="P865" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q865" t="n">
         <v>36</v>
@@ -62685,7 +62685,7 @@
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E866" t="n">
         <v>13</v>
@@ -62709,16 +62709,16 @@
         </is>
       </c>
       <c r="J866" t="n">
-        <v>640</v>
+        <v>730</v>
       </c>
       <c r="K866" t="n">
+        <v>2200</v>
+      </c>
+      <c r="L866" t="n">
         <v>2300</v>
       </c>
-      <c r="L866" t="n">
-        <v>2500</v>
-      </c>
       <c r="M866" t="n">
-        <v>2419</v>
+        <v>2253</v>
       </c>
       <c r="N866" t="inlineStr">
         <is>
@@ -62731,7 +62731,7 @@
         </is>
       </c>
       <c r="P866" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q866" t="n">
         <v>36</v>
@@ -62757,7 +62757,7 @@
         </is>
       </c>
       <c r="D867" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E867" t="n">
         <v>13</v>
@@ -62781,16 +62781,16 @@
         </is>
       </c>
       <c r="J867" t="n">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="K867" t="n">
+        <v>2200</v>
+      </c>
+      <c r="L867" t="n">
         <v>2300</v>
       </c>
-      <c r="L867" t="n">
-        <v>2500</v>
-      </c>
       <c r="M867" t="n">
-        <v>2417</v>
+        <v>2255</v>
       </c>
       <c r="N867" t="inlineStr">
         <is>
@@ -62803,7 +62803,7 @@
         </is>
       </c>
       <c r="P867" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q867" t="n">
         <v>36</v>
@@ -62829,7 +62829,7 @@
         </is>
       </c>
       <c r="D868" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E868" t="n">
         <v>13</v>
@@ -62853,16 +62853,16 @@
         </is>
       </c>
       <c r="J868" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="K868" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L868" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="M868" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="N868" t="inlineStr">
         <is>
@@ -62875,7 +62875,7 @@
         </is>
       </c>
       <c r="P868" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Q868" t="n">
         <v>36</v>
@@ -62901,7 +62901,7 @@
         </is>
       </c>
       <c r="D869" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E869" t="n">
         <v>13</v>
@@ -62925,16 +62925,16 @@
         </is>
       </c>
       <c r="J869" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="K869" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L869" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="M869" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="N869" t="inlineStr">
         <is>
@@ -62947,7 +62947,7 @@
         </is>
       </c>
       <c r="P869" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Q869" t="n">
         <v>36</v>
@@ -62973,7 +62973,7 @@
         </is>
       </c>
       <c r="D870" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E870" t="n">
         <v>13</v>
@@ -62997,16 +62997,16 @@
         </is>
       </c>
       <c r="J870" t="n">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="K870" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L870" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M870" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="N870" t="inlineStr">
         <is>
@@ -63015,11 +63015,11 @@
       </c>
       <c r="O870" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P870" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Q870" t="n">
         <v>36</v>
@@ -63045,7 +63045,7 @@
         </is>
       </c>
       <c r="D871" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E871" t="n">
         <v>13</v>
@@ -63065,20 +63065,20 @@
       </c>
       <c r="I871" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J871" t="n">
-        <v>780</v>
+        <v>270</v>
       </c>
       <c r="K871" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="L871" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="M871" t="n">
-        <v>2487</v>
+        <v>2800</v>
       </c>
       <c r="N871" t="inlineStr">
         <is>
@@ -63087,11 +63087,11 @@
       </c>
       <c r="O871" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P871" t="n">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="Q871" t="n">
         <v>36</v>
@@ -63117,7 +63117,7 @@
         </is>
       </c>
       <c r="D872" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E872" t="n">
         <v>13</v>
@@ -63141,16 +63141,16 @@
         </is>
       </c>
       <c r="J872" t="n">
-        <v>710</v>
+        <v>640</v>
       </c>
       <c r="K872" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="L872" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="M872" t="n">
-        <v>2507</v>
+        <v>2419</v>
       </c>
       <c r="N872" t="inlineStr">
         <is>
@@ -63159,11 +63159,11 @@
       </c>
       <c r="O872" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P872" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q872" t="n">
         <v>36</v>
@@ -63189,7 +63189,7 @@
         </is>
       </c>
       <c r="D873" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E873" t="n">
         <v>13</v>
@@ -63209,20 +63209,20 @@
       </c>
       <c r="I873" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J873" t="n">
-        <v>220</v>
+        <v>720</v>
       </c>
       <c r="K873" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="L873" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M873" t="n">
-        <v>2000</v>
+        <v>2417</v>
       </c>
       <c r="N873" t="inlineStr">
         <is>
@@ -63231,11 +63231,11 @@
       </c>
       <c r="O873" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P873" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="Q873" t="n">
         <v>36</v>
@@ -63261,7 +63261,7 @@
         </is>
       </c>
       <c r="D874" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E874" t="n">
         <v>13</v>
@@ -63285,7 +63285,7 @@
         </is>
       </c>
       <c r="J874" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="K874" t="n">
         <v>2000</v>
@@ -63303,7 +63303,7 @@
       </c>
       <c r="O874" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P874" t="n">
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E875" t="n">
         <v>13</v>
@@ -63353,20 +63353,20 @@
       </c>
       <c r="I875" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J875" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="K875" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L875" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M875" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
@@ -63375,11 +63375,11 @@
       </c>
       <c r="O875" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P875" t="n">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="Q875" t="n">
         <v>36</v>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E876" t="n">
         <v>13</v>
@@ -63429,7 +63429,7 @@
         </is>
       </c>
       <c r="J876" t="n">
-        <v>330</v>
+        <v>270</v>
       </c>
       <c r="K876" t="n">
         <v>3000</v>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E877" t="n">
         <v>13</v>
@@ -63501,16 +63501,16 @@
         </is>
       </c>
       <c r="J877" t="n">
-        <v>250</v>
+        <v>780</v>
       </c>
       <c r="K877" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="L877" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="M877" t="n">
-        <v>2700</v>
+        <v>2487</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
@@ -63523,7 +63523,7 @@
         </is>
       </c>
       <c r="P877" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Q877" t="n">
         <v>36</v>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E878" t="n">
         <v>13</v>
@@ -63573,16 +63573,16 @@
         </is>
       </c>
       <c r="J878" t="n">
-        <v>440</v>
+        <v>710</v>
       </c>
       <c r="K878" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="L878" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="M878" t="n">
-        <v>2623</v>
+        <v>2507</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
@@ -63595,7 +63595,7 @@
         </is>
       </c>
       <c r="P878" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q878" t="n">
         <v>36</v>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E879" t="n">
         <v>13</v>
@@ -63645,16 +63645,16 @@
         </is>
       </c>
       <c r="J879" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="K879" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L879" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="M879" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
@@ -63667,7 +63667,7 @@
         </is>
       </c>
       <c r="P879" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q879" t="n">
         <v>36</v>
@@ -63693,7 +63693,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E880" t="n">
         <v>13</v>
@@ -63717,16 +63717,16 @@
         </is>
       </c>
       <c r="J880" t="n">
-        <v>410</v>
+        <v>220</v>
       </c>
       <c r="K880" t="n">
         <v>2000</v>
       </c>
       <c r="L880" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="M880" t="n">
-        <v>2102</v>
+        <v>2000</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
@@ -63739,7 +63739,7 @@
         </is>
       </c>
       <c r="P880" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q880" t="n">
         <v>36</v>
@@ -63765,7 +63765,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E881" t="n">
         <v>13</v>
@@ -63785,20 +63785,20 @@
       </c>
       <c r="I881" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J881" t="n">
-        <v>780</v>
+        <v>380</v>
       </c>
       <c r="K881" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="L881" t="n">
         <v>3000</v>
       </c>
       <c r="M881" t="n">
-        <v>2785</v>
+        <v>3000</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
@@ -63811,7 +63811,7 @@
         </is>
       </c>
       <c r="P881" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="Q881" t="n">
         <v>36</v>
@@ -63837,7 +63837,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E882" t="n">
         <v>13</v>
@@ -63857,20 +63857,20 @@
       </c>
       <c r="I882" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J882" t="n">
-        <v>830</v>
+        <v>330</v>
       </c>
       <c r="K882" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L882" t="n">
         <v>3000</v>
       </c>
       <c r="M882" t="n">
-        <v>2723</v>
+        <v>3000</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
@@ -63883,7 +63883,7 @@
         </is>
       </c>
       <c r="P882" t="n">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="Q882" t="n">
         <v>36</v>
@@ -63909,7 +63909,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E883" t="n">
         <v>13</v>
@@ -63929,20 +63929,20 @@
       </c>
       <c r="I883" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J883" t="n">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="K883" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="L883" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="M883" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
@@ -63955,7 +63955,7 @@
         </is>
       </c>
       <c r="P883" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="Q883" t="n">
         <v>36</v>
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E884" t="n">
         <v>13</v>
@@ -64001,20 +64001,20 @@
       </c>
       <c r="I884" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J884" t="n">
-        <v>320</v>
+        <v>440</v>
       </c>
       <c r="K884" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L884" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="M884" t="n">
-        <v>2000</v>
+        <v>2623</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
@@ -64027,7 +64027,7 @@
         </is>
       </c>
       <c r="P884" t="n">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="Q884" t="n">
         <v>36</v>
@@ -64053,7 +64053,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E885" t="n">
         <v>13</v>
@@ -64073,20 +64073,20 @@
       </c>
       <c r="I885" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J885" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K885" t="n">
-        <v>3300</v>
+        <v>2200</v>
       </c>
       <c r="L885" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="M885" t="n">
-        <v>3396</v>
+        <v>2200</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
@@ -64095,11 +64095,11 @@
       </c>
       <c r="O885" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P885" t="n">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="Q885" t="n">
         <v>36</v>
@@ -64125,7 +64125,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E886" t="n">
         <v>13</v>
@@ -64145,20 +64145,20 @@
       </c>
       <c r="I886" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J886" t="n">
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="K886" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="L886" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="M886" t="n">
-        <v>2841</v>
+        <v>2102</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
@@ -64171,7 +64171,7 @@
         </is>
       </c>
       <c r="P886" t="n">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="Q886" t="n">
         <v>36</v>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E887" t="n">
         <v>13</v>
@@ -64217,20 +64217,20 @@
       </c>
       <c r="I887" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J887" t="n">
-        <v>260</v>
+        <v>780</v>
       </c>
       <c r="K887" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="L887" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M887" t="n">
-        <v>2100</v>
+        <v>2785</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
@@ -64239,11 +64239,11 @@
       </c>
       <c r="O887" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P887" t="n">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="Q887" t="n">
         <v>36</v>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E888" t="n">
         <v>13</v>
@@ -64289,20 +64289,20 @@
       </c>
       <c r="I888" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J888" t="n">
         <v>830</v>
       </c>
       <c r="K888" t="n">
-        <v>3800</v>
+        <v>2500</v>
       </c>
       <c r="L888" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M888" t="n">
-        <v>3906</v>
+        <v>2723</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
@@ -64311,11 +64311,11 @@
       </c>
       <c r="O888" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P888" t="n">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="Q888" t="n">
         <v>36</v>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E889" t="n">
         <v>13</v>
@@ -64361,20 +64361,20 @@
       </c>
       <c r="I889" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J889" t="n">
-        <v>710</v>
+        <v>310</v>
       </c>
       <c r="K889" t="n">
-        <v>3800</v>
+        <v>2000</v>
       </c>
       <c r="L889" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M889" t="n">
-        <v>3904</v>
+        <v>2000</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64383,11 +64383,11 @@
       </c>
       <c r="O889" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P889" t="n">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="Q889" t="n">
         <v>36</v>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E890" t="n">
         <v>13</v>
@@ -64433,20 +64433,20 @@
       </c>
       <c r="I890" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J890" t="n">
-        <v>680</v>
+        <v>320</v>
       </c>
       <c r="K890" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L890" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M890" t="n">
-        <v>2912</v>
+        <v>2000</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
@@ -64455,11 +64455,11 @@
       </c>
       <c r="O890" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P890" t="n">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="Q890" t="n">
         <v>36</v>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E891" t="n">
         <v>13</v>
@@ -64505,20 +64505,20 @@
       </c>
       <c r="I891" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J891" t="n">
-        <v>720</v>
+        <v>250</v>
       </c>
       <c r="K891" t="n">
-        <v>2700</v>
+        <v>3300</v>
       </c>
       <c r="L891" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M891" t="n">
-        <v>2875</v>
+        <v>3396</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64531,7 +64531,7 @@
         </is>
       </c>
       <c r="P891" t="n">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="Q891" t="n">
         <v>36</v>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E892" t="n">
         <v>13</v>
@@ -64577,20 +64577,20 @@
       </c>
       <c r="I892" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J892" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K892" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="L892" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M892" t="n">
-        <v>2500</v>
+        <v>2841</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
@@ -64599,11 +64599,11 @@
       </c>
       <c r="O892" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P892" t="n">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="Q892" t="n">
         <v>36</v>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E893" t="n">
         <v>13</v>
@@ -64653,16 +64653,16 @@
         </is>
       </c>
       <c r="J893" t="n">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="K893" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L893" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="M893" t="n">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
@@ -64675,7 +64675,7 @@
         </is>
       </c>
       <c r="P893" t="n">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="Q893" t="n">
         <v>36</v>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E894" t="n">
         <v>13</v>
@@ -64721,20 +64721,20 @@
       </c>
       <c r="I894" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J894" t="n">
-        <v>660</v>
+        <v>830</v>
       </c>
       <c r="K894" t="n">
-        <v>2400</v>
+        <v>3800</v>
       </c>
       <c r="L894" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="M894" t="n">
-        <v>2512</v>
+        <v>3906</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
@@ -64747,7 +64747,7 @@
         </is>
       </c>
       <c r="P894" t="n">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="Q894" t="n">
         <v>36</v>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E895" t="n">
         <v>13</v>
@@ -64793,20 +64793,20 @@
       </c>
       <c r="I895" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J895" t="n">
-        <v>680</v>
+        <v>710</v>
       </c>
       <c r="K895" t="n">
-        <v>2400</v>
+        <v>3800</v>
       </c>
       <c r="L895" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="M895" t="n">
-        <v>2524</v>
+        <v>3904</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
@@ -64819,7 +64819,7 @@
         </is>
       </c>
       <c r="P895" t="n">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="Q895" t="n">
         <v>36</v>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E896" t="n">
         <v>13</v>
@@ -64865,20 +64865,20 @@
       </c>
       <c r="I896" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J896" t="n">
-        <v>370</v>
+        <v>680</v>
       </c>
       <c r="K896" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="L896" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M896" t="n">
-        <v>1919</v>
+        <v>2912</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
@@ -64891,7 +64891,7 @@
         </is>
       </c>
       <c r="P896" t="n">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="Q896" t="n">
         <v>36</v>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E897" t="n">
         <v>13</v>
@@ -64937,20 +64937,20 @@
       </c>
       <c r="I897" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J897" t="n">
-        <v>380</v>
+        <v>720</v>
       </c>
       <c r="K897" t="n">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="L897" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M897" t="n">
-        <v>1932</v>
+        <v>2875</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64963,7 +64963,7 @@
         </is>
       </c>
       <c r="P897" t="n">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="Q897" t="n">
         <v>36</v>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E898" t="n">
         <v>13</v>
@@ -65009,20 +65009,20 @@
       </c>
       <c r="I898" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J898" t="n">
-        <v>820</v>
+        <v>250</v>
       </c>
       <c r="K898" t="n">
         <v>2500</v>
       </c>
       <c r="L898" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="M898" t="n">
-        <v>2593</v>
+        <v>2500</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65035,7 +65035,7 @@
         </is>
       </c>
       <c r="P898" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Q898" t="n">
         <v>36</v>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E899" t="n">
         <v>13</v>
@@ -65081,20 +65081,20 @@
       </c>
       <c r="I899" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J899" t="n">
-        <v>850</v>
+        <v>220</v>
       </c>
       <c r="K899" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="L899" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="M899" t="n">
-        <v>2506</v>
+        <v>2500</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65107,7 +65107,7 @@
         </is>
       </c>
       <c r="P899" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q899" t="n">
         <v>36</v>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E900" t="n">
         <v>13</v>
@@ -65153,20 +65153,20 @@
       </c>
       <c r="I900" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J900" t="n">
-        <v>260</v>
+        <v>660</v>
       </c>
       <c r="K900" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L900" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="M900" t="n">
-        <v>2000</v>
+        <v>2512</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
@@ -65179,7 +65179,7 @@
         </is>
       </c>
       <c r="P900" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="Q900" t="n">
         <v>36</v>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E901" t="n">
         <v>13</v>
@@ -65225,20 +65225,20 @@
       </c>
       <c r="I901" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J901" t="n">
-        <v>200</v>
+        <v>680</v>
       </c>
       <c r="K901" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="L901" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="M901" t="n">
-        <v>1800</v>
+        <v>2524</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
@@ -65251,7 +65251,7 @@
         </is>
       </c>
       <c r="P901" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="Q901" t="n">
         <v>36</v>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E902" t="n">
         <v>13</v>
@@ -65297,20 +65297,20 @@
       </c>
       <c r="I902" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J902" t="n">
-        <v>440</v>
+        <v>370</v>
       </c>
       <c r="K902" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="L902" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M902" t="n">
-        <v>3000</v>
+        <v>1919</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
@@ -65323,7 +65323,7 @@
         </is>
       </c>
       <c r="P902" t="n">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="Q902" t="n">
         <v>36</v>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E903" t="n">
         <v>13</v>
@@ -65369,20 +65369,20 @@
       </c>
       <c r="I903" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J903" t="n">
         <v>380</v>
       </c>
       <c r="K903" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="L903" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M903" t="n">
-        <v>3000</v>
+        <v>1932</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65395,7 +65395,7 @@
         </is>
       </c>
       <c r="P903" t="n">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="Q903" t="n">
         <v>36</v>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E904" t="n">
         <v>13</v>
@@ -65445,7 +65445,7 @@
         </is>
       </c>
       <c r="J904" t="n">
-        <v>810</v>
+        <v>820</v>
       </c>
       <c r="K904" t="n">
         <v>2500</v>
@@ -65454,7 +65454,7 @@
         <v>2700</v>
       </c>
       <c r="M904" t="n">
-        <v>2616</v>
+        <v>2593</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65467,7 +65467,7 @@
         </is>
       </c>
       <c r="P904" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q904" t="n">
         <v>36</v>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E905" t="n">
         <v>13</v>
@@ -65517,7 +65517,7 @@
         </is>
       </c>
       <c r="J905" t="n">
-        <v>710</v>
+        <v>850</v>
       </c>
       <c r="K905" t="n">
         <v>2400</v>
@@ -65526,7 +65526,7 @@
         <v>2600</v>
       </c>
       <c r="M905" t="n">
-        <v>2515</v>
+        <v>2506</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E906" t="n">
         <v>13</v>
@@ -65592,13 +65592,13 @@
         <v>260</v>
       </c>
       <c r="K906" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L906" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="M906" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65611,7 +65611,7 @@
         </is>
       </c>
       <c r="P906" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q906" t="n">
         <v>36</v>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E907" t="n">
         <v>13</v>
@@ -65661,16 +65661,16 @@
         </is>
       </c>
       <c r="J907" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K907" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="L907" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="M907" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65683,7 +65683,7 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="Q907" t="n">
         <v>36</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E908" t="n">
         <v>13</v>
@@ -65733,16 +65733,16 @@
         </is>
       </c>
       <c r="J908" t="n">
-        <v>720</v>
+        <v>440</v>
       </c>
       <c r="K908" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="L908" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M908" t="n">
-        <v>3906</v>
+        <v>3000</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65755,7 +65755,7 @@
         </is>
       </c>
       <c r="P908" t="n">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="Q908" t="n">
         <v>36</v>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E909" t="n">
         <v>13</v>
@@ -65805,16 +65805,16 @@
         </is>
       </c>
       <c r="J909" t="n">
-        <v>810</v>
+        <v>380</v>
       </c>
       <c r="K909" t="n">
-        <v>3700</v>
+        <v>3000</v>
       </c>
       <c r="L909" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M909" t="n">
-        <v>3852</v>
+        <v>3000</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65827,7 +65827,7 @@
         </is>
       </c>
       <c r="P909" t="n">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="Q909" t="n">
         <v>36</v>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E910" t="n">
         <v>13</v>
@@ -65877,16 +65877,16 @@
         </is>
       </c>
       <c r="J910" t="n">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="K910" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L910" t="n">
-        <v>3300</v>
+        <v>2700</v>
       </c>
       <c r="M910" t="n">
-        <v>3161</v>
+        <v>2616</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65899,7 +65899,7 @@
         </is>
       </c>
       <c r="P910" t="n">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="Q910" t="n">
         <v>36</v>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E911" t="n">
         <v>13</v>
@@ -65949,16 +65949,16 @@
         </is>
       </c>
       <c r="J911" t="n">
-        <v>920</v>
+        <v>710</v>
       </c>
       <c r="K911" t="n">
-        <v>2900</v>
+        <v>2400</v>
       </c>
       <c r="L911" t="n">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="M911" t="n">
-        <v>3047</v>
+        <v>2515</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65971,7 +65971,7 @@
         </is>
       </c>
       <c r="P911" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="Q911" t="n">
         <v>36</v>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E912" t="n">
         <v>13</v>
@@ -66021,16 +66021,16 @@
         </is>
       </c>
       <c r="J912" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="K912" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="L912" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="M912" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66043,7 +66043,7 @@
         </is>
       </c>
       <c r="P912" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="Q912" t="n">
         <v>36</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E913" t="n">
         <v>13</v>
@@ -66093,16 +66093,16 @@
         </is>
       </c>
       <c r="J913" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="K913" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="L913" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="M913" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66115,7 +66115,7 @@
         </is>
       </c>
       <c r="P913" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="Q913" t="n">
         <v>36</v>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E914" t="n">
         <v>13</v>
@@ -66165,16 +66165,16 @@
         </is>
       </c>
       <c r="J914" t="n">
-        <v>420</v>
+        <v>720</v>
       </c>
       <c r="K914" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L914" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M914" t="n">
-        <v>3000</v>
+        <v>3906</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66187,7 +66187,7 @@
         </is>
       </c>
       <c r="P914" t="n">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="Q914" t="n">
         <v>36</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E915" t="n">
         <v>13</v>
@@ -66237,16 +66237,16 @@
         </is>
       </c>
       <c r="J915" t="n">
-        <v>270</v>
+        <v>810</v>
       </c>
       <c r="K915" t="n">
-        <v>3000</v>
+        <v>3700</v>
       </c>
       <c r="L915" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M915" t="n">
-        <v>3000</v>
+        <v>3852</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66259,7 +66259,7 @@
         </is>
       </c>
       <c r="P915" t="n">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="Q915" t="n">
         <v>36</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E916" t="n">
         <v>13</v>
@@ -66309,16 +66309,16 @@
         </is>
       </c>
       <c r="J916" t="n">
-        <v>820</v>
+        <v>800</v>
       </c>
       <c r="K916" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L916" t="n">
-        <v>2600</v>
+        <v>3300</v>
       </c>
       <c r="M916" t="n">
-        <v>2485</v>
+        <v>3161</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66331,7 +66331,7 @@
         </is>
       </c>
       <c r="P916" t="n">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="Q916" t="n">
         <v>36</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E917" t="n">
         <v>13</v>
@@ -66381,16 +66381,16 @@
         </is>
       </c>
       <c r="J917" t="n">
-        <v>770</v>
+        <v>920</v>
       </c>
       <c r="K917" t="n">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="L917" t="n">
-        <v>2700</v>
+        <v>3200</v>
       </c>
       <c r="M917" t="n">
-        <v>2599</v>
+        <v>3047</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66403,7 +66403,7 @@
         </is>
       </c>
       <c r="P917" t="n">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="Q917" t="n">
         <v>36</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E918" t="n">
         <v>13</v>
@@ -66453,16 +66453,16 @@
         </is>
       </c>
       <c r="J918" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K918" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L918" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M918" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66475,7 +66475,7 @@
         </is>
       </c>
       <c r="P918" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="Q918" t="n">
         <v>36</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E919" t="n">
         <v>13</v>
@@ -66525,16 +66525,16 @@
         </is>
       </c>
       <c r="J919" t="n">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="K919" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L919" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M919" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66547,7 +66547,7 @@
         </is>
       </c>
       <c r="P919" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="Q919" t="n">
         <v>36</v>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E920" t="n">
         <v>13</v>
@@ -66597,16 +66597,16 @@
         </is>
       </c>
       <c r="J920" t="n">
-        <v>490</v>
+        <v>420</v>
       </c>
       <c r="K920" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="L920" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M920" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66615,11 +66615,11 @@
       </c>
       <c r="O920" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P920" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="Q920" t="n">
         <v>36</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E921" t="n">
         <v>13</v>
@@ -66665,20 +66665,20 @@
       </c>
       <c r="I921" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J921" t="n">
-        <v>1140</v>
+        <v>270</v>
       </c>
       <c r="K921" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L921" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M921" t="n">
-        <v>2470</v>
+        <v>3000</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66691,7 +66691,7 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="Q921" t="n">
         <v>36</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E922" t="n">
         <v>13</v>
@@ -66737,20 +66737,20 @@
       </c>
       <c r="I922" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J922" t="n">
-        <v>790</v>
+        <v>820</v>
       </c>
       <c r="K922" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L922" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="M922" t="n">
-        <v>2095</v>
+        <v>2485</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66759,11 +66759,11 @@
       </c>
       <c r="O922" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P922" t="n">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Q922" t="n">
         <v>36</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E923" t="n">
         <v>13</v>
@@ -66809,20 +66809,20 @@
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J923" t="n">
-        <v>670</v>
+        <v>770</v>
       </c>
       <c r="K923" t="n">
-        <v>3200</v>
+        <v>2500</v>
       </c>
       <c r="L923" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="M923" t="n">
-        <v>3366</v>
+        <v>2599</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66831,11 +66831,11 @@
       </c>
       <c r="O923" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P923" t="n">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="Q923" t="n">
         <v>36</v>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E924" t="n">
         <v>13</v>
@@ -66881,20 +66881,20 @@
       </c>
       <c r="I924" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J924" t="n">
-        <v>710</v>
+        <v>200</v>
       </c>
       <c r="K924" t="n">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="L924" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="M924" t="n">
-        <v>3365</v>
+        <v>2200</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66903,11 +66903,11 @@
       </c>
       <c r="O924" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P924" t="n">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="Q924" t="n">
         <v>36</v>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E925" t="n">
         <v>13</v>
@@ -66953,20 +66953,20 @@
       </c>
       <c r="I925" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J925" t="n">
-        <v>840</v>
+        <v>190</v>
       </c>
       <c r="K925" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="L925" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="M925" t="n">
-        <v>2657</v>
+        <v>2200</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66975,11 +66975,11 @@
       </c>
       <c r="O925" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P925" t="n">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="Q925" t="n">
         <v>36</v>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E926" t="n">
         <v>13</v>
@@ -67025,11 +67025,11 @@
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J926" t="n">
-        <v>830</v>
+        <v>490</v>
       </c>
       <c r="K926" t="n">
         <v>2700</v>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E927" t="n">
         <v>13</v>
@@ -67097,20 +67097,20 @@
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J927" t="n">
-        <v>250</v>
+        <v>1140</v>
       </c>
       <c r="K927" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="L927" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M927" t="n">
-        <v>2200</v>
+        <v>2470</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67119,11 +67119,11 @@
       </c>
       <c r="O927" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P927" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="Q927" t="n">
         <v>36</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E928" t="n">
         <v>13</v>
@@ -67173,16 +67173,16 @@
         </is>
       </c>
       <c r="J928" t="n">
-        <v>300</v>
+        <v>790</v>
       </c>
       <c r="K928" t="n">
         <v>2000</v>
       </c>
       <c r="L928" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="M928" t="n">
-        <v>2000</v>
+        <v>2095</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67195,7 +67195,7 @@
         </is>
       </c>
       <c r="P928" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q928" t="n">
         <v>36</v>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E929" t="n">
         <v>13</v>
@@ -67241,20 +67241,20 @@
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>810</v>
+        <v>670</v>
       </c>
       <c r="K929" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="L929" t="n">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="M929" t="n">
-        <v>3509</v>
+        <v>3366</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67267,7 +67267,7 @@
         </is>
       </c>
       <c r="P929" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q929" t="n">
         <v>36</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E930" t="n">
         <v>13</v>
@@ -67313,20 +67313,20 @@
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J930" t="n">
-        <v>560</v>
+        <v>710</v>
       </c>
       <c r="K930" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="L930" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M930" t="n">
-        <v>2911</v>
+        <v>3365</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67335,11 +67335,11 @@
       </c>
       <c r="O930" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P930" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="Q930" t="n">
         <v>36</v>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E931" t="n">
         <v>13</v>
@@ -67389,16 +67389,16 @@
         </is>
       </c>
       <c r="J931" t="n">
-        <v>770</v>
+        <v>840</v>
       </c>
       <c r="K931" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="L931" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="M931" t="n">
-        <v>3443</v>
+        <v>2657</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67411,7 +67411,7 @@
         </is>
       </c>
       <c r="P931" t="n">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="Q931" t="n">
         <v>36</v>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E932" t="n">
         <v>13</v>
@@ -67461,16 +67461,16 @@
         </is>
       </c>
       <c r="J932" t="n">
-        <v>370</v>
+        <v>830</v>
       </c>
       <c r="K932" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="L932" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="M932" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67483,7 +67483,7 @@
         </is>
       </c>
       <c r="P932" t="n">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="Q932" t="n">
         <v>36</v>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E933" t="n">
         <v>13</v>
@@ -67533,16 +67533,16 @@
         </is>
       </c>
       <c r="J933" t="n">
-        <v>540</v>
+        <v>250</v>
       </c>
       <c r="K933" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="L933" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="M933" t="n">
-        <v>2893</v>
+        <v>2200</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67555,7 +67555,7 @@
         </is>
       </c>
       <c r="P933" t="n">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="Q933" t="n">
         <v>36</v>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E934" t="n">
         <v>13</v>
@@ -67605,16 +67605,16 @@
         </is>
       </c>
       <c r="J934" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K934" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L934" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M934" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67627,7 +67627,7 @@
         </is>
       </c>
       <c r="P934" t="n">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="Q934" t="n">
         <v>36</v>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E935" t="n">
         <v>13</v>
@@ -67673,20 +67673,20 @@
       </c>
       <c r="I935" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J935" t="n">
-        <v>350</v>
+        <v>810</v>
       </c>
       <c r="K935" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="L935" t="n">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="M935" t="n">
-        <v>4000</v>
+        <v>3509</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67699,7 +67699,7 @@
         </is>
       </c>
       <c r="P935" t="n">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="Q935" t="n">
         <v>36</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E936" t="n">
         <v>13</v>
@@ -67745,20 +67745,20 @@
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J936" t="n">
-        <v>270</v>
+        <v>560</v>
       </c>
       <c r="K936" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="L936" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M936" t="n">
-        <v>4000</v>
+        <v>2911</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67767,11 +67767,11 @@
       </c>
       <c r="O936" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P936" t="n">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="Q936" t="n">
         <v>36</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E937" t="n">
         <v>13</v>
@@ -67821,16 +67821,16 @@
         </is>
       </c>
       <c r="J937" t="n">
-        <v>800</v>
+        <v>770</v>
       </c>
       <c r="K937" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="L937" t="n">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="M937" t="n">
-        <v>3105</v>
+        <v>3443</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67843,7 +67843,7 @@
         </is>
       </c>
       <c r="P937" t="n">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="Q937" t="n">
         <v>36</v>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E938" t="n">
         <v>13</v>
@@ -67893,16 +67893,16 @@
         </is>
       </c>
       <c r="J938" t="n">
-        <v>680</v>
+        <v>370</v>
       </c>
       <c r="K938" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L938" t="n">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="M938" t="n">
-        <v>3185</v>
+        <v>3500</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67915,7 +67915,7 @@
         </is>
       </c>
       <c r="P938" t="n">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="Q938" t="n">
         <v>36</v>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E939" t="n">
         <v>13</v>
@@ -67965,16 +67965,16 @@
         </is>
       </c>
       <c r="J939" t="n">
-        <v>220</v>
+        <v>540</v>
       </c>
       <c r="K939" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L939" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M939" t="n">
-        <v>2500</v>
+        <v>2893</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67987,7 +67987,7 @@
         </is>
       </c>
       <c r="P939" t="n">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="Q939" t="n">
         <v>36</v>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E940" t="n">
         <v>13</v>
@@ -68037,16 +68037,16 @@
         </is>
       </c>
       <c r="J940" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K940" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L940" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="M940" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68059,7 +68059,7 @@
         </is>
       </c>
       <c r="P940" t="n">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="Q940" t="n">
         <v>36</v>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E941" t="n">
         <v>13</v>
@@ -68109,16 +68109,16 @@
         </is>
       </c>
       <c r="J941" t="n">
-        <v>520</v>
+        <v>350</v>
       </c>
       <c r="K941" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L941" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="M941" t="n">
-        <v>3062</v>
+        <v>4000</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68127,11 +68127,11 @@
       </c>
       <c r="O941" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P941" t="n">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="Q941" t="n">
         <v>36</v>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E942" t="n">
         <v>13</v>
@@ -68177,20 +68177,20 @@
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J942" t="n">
-        <v>970</v>
+        <v>270</v>
       </c>
       <c r="K942" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="L942" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="M942" t="n">
-        <v>2601</v>
+        <v>4000</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68203,7 +68203,7 @@
         </is>
       </c>
       <c r="P942" t="n">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="Q942" t="n">
         <v>36</v>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E943" t="n">
         <v>13</v>
@@ -68249,20 +68249,20 @@
       </c>
       <c r="I943" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J943" t="n">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="K943" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L943" t="n">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="M943" t="n">
-        <v>2129</v>
+        <v>3105</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68271,11 +68271,11 @@
       </c>
       <c r="O943" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P943" t="n">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="Q943" t="n">
         <v>36</v>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E944" t="n">
         <v>13</v>
@@ -68321,20 +68321,20 @@
       </c>
       <c r="I944" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J944" t="n">
-        <v>650</v>
+        <v>680</v>
       </c>
       <c r="K944" t="n">
         <v>3000</v>
       </c>
       <c r="L944" t="n">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="M944" t="n">
-        <v>3285</v>
+        <v>3185</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68343,11 +68343,11 @@
       </c>
       <c r="O944" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P944" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q944" t="n">
         <v>36</v>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E945" t="n">
         <v>13</v>
@@ -68393,20 +68393,20 @@
       </c>
       <c r="I945" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J945" t="n">
-        <v>660</v>
+        <v>220</v>
       </c>
       <c r="K945" t="n">
-        <v>3200</v>
+        <v>2500</v>
       </c>
       <c r="L945" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M945" t="n">
-        <v>3355</v>
+        <v>2500</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68415,11 +68415,11 @@
       </c>
       <c r="O945" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P945" t="n">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="Q945" t="n">
         <v>36</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E946" t="n">
         <v>13</v>
@@ -68465,20 +68465,20 @@
       </c>
       <c r="I946" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J946" t="n">
-        <v>790</v>
+        <v>300</v>
       </c>
       <c r="K946" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="L946" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="M946" t="n">
-        <v>2667</v>
+        <v>2400</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68487,11 +68487,11 @@
       </c>
       <c r="O946" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P946" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="Q946" t="n">
         <v>36</v>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E947" t="n">
         <v>13</v>
@@ -68537,20 +68537,20 @@
       </c>
       <c r="I947" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J947" t="n">
-        <v>750</v>
+        <v>520</v>
       </c>
       <c r="K947" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L947" t="n">
-        <v>2700</v>
+        <v>3200</v>
       </c>
       <c r="M947" t="n">
-        <v>2601</v>
+        <v>3062</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68563,7 +68563,7 @@
         </is>
       </c>
       <c r="P947" t="n">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="Q947" t="n">
         <v>36</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E948" t="n">
         <v>13</v>
@@ -68609,20 +68609,20 @@
       </c>
       <c r="I948" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J948" t="n">
-        <v>250</v>
+        <v>970</v>
       </c>
       <c r="K948" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L948" t="n">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="M948" t="n">
-        <v>2200</v>
+        <v>2601</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68631,11 +68631,11 @@
       </c>
       <c r="O948" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P948" t="n">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="Q948" t="n">
         <v>36</v>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E949" t="n">
         <v>13</v>
@@ -68685,16 +68685,16 @@
         </is>
       </c>
       <c r="J949" t="n">
-        <v>290</v>
+        <v>560</v>
       </c>
       <c r="K949" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L949" t="n">
         <v>2200</v>
       </c>
       <c r="M949" t="n">
-        <v>2200</v>
+        <v>2129</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68707,7 +68707,7 @@
         </is>
       </c>
       <c r="P949" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q949" t="n">
         <v>36</v>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E950" t="n">
         <v>13</v>
@@ -68757,16 +68757,16 @@
         </is>
       </c>
       <c r="J950" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="K950" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="L950" t="n">
         <v>3500</v>
       </c>
       <c r="M950" t="n">
-        <v>3473</v>
+        <v>3285</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68775,11 +68775,11 @@
       </c>
       <c r="O950" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P950" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="Q950" t="n">
         <v>36</v>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E951" t="n">
         <v>13</v>
@@ -68825,20 +68825,20 @@
       </c>
       <c r="I951" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J951" t="n">
-        <v>1110</v>
+        <v>660</v>
       </c>
       <c r="K951" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="L951" t="n">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="M951" t="n">
-        <v>3183</v>
+        <v>3355</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68851,7 +68851,7 @@
         </is>
       </c>
       <c r="P951" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Q951" t="n">
         <v>36</v>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E952" t="n">
         <v>13</v>
@@ -68897,20 +68897,20 @@
       </c>
       <c r="I952" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J952" t="n">
-        <v>690</v>
+        <v>790</v>
       </c>
       <c r="K952" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="L952" t="n">
         <v>2800</v>
       </c>
       <c r="M952" t="n">
-        <v>2706</v>
+        <v>2667</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68919,11 +68919,11 @@
       </c>
       <c r="O952" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P952" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q952" t="n">
         <v>36</v>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E953" t="n">
         <v>13</v>
@@ -68973,16 +68973,16 @@
         </is>
       </c>
       <c r="J953" t="n">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="K953" t="n">
-        <v>3300</v>
+        <v>2500</v>
       </c>
       <c r="L953" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="M953" t="n">
-        <v>3422</v>
+        <v>2601</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68991,11 +68991,11 @@
       </c>
       <c r="O953" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P953" t="n">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="Q953" t="n">
         <v>36</v>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E954" t="n">
         <v>13</v>
@@ -69041,20 +69041,20 @@
       </c>
       <c r="I954" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J954" t="n">
-        <v>620</v>
+        <v>250</v>
       </c>
       <c r="K954" t="n">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="L954" t="n">
-        <v>3600</v>
+        <v>2200</v>
       </c>
       <c r="M954" t="n">
-        <v>3519</v>
+        <v>2200</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69063,11 +69063,11 @@
       </c>
       <c r="O954" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P954" t="n">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="Q954" t="n">
         <v>36</v>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E955" t="n">
         <v>13</v>
@@ -69117,16 +69117,16 @@
         </is>
       </c>
       <c r="J955" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="K955" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="L955" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="M955" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69135,11 +69135,11 @@
       </c>
       <c r="O955" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P955" t="n">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="Q955" t="n">
         <v>36</v>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E956" t="n">
         <v>13</v>
@@ -69185,20 +69185,20 @@
       </c>
       <c r="I956" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J956" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K956" t="n">
-        <v>2700</v>
+        <v>3400</v>
       </c>
       <c r="L956" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="M956" t="n">
-        <v>2700</v>
+        <v>3473</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69211,7 +69211,7 @@
         </is>
       </c>
       <c r="P956" t="n">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="Q956" t="n">
         <v>36</v>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E957" t="n">
         <v>13</v>
@@ -69257,20 +69257,20 @@
       </c>
       <c r="I957" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J957" t="n">
-        <v>440</v>
+        <v>1110</v>
       </c>
       <c r="K957" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L957" t="n">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="M957" t="n">
-        <v>3500</v>
+        <v>3183</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69279,11 +69279,11 @@
       </c>
       <c r="O957" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P957" t="n">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Q957" t="n">
         <v>36</v>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E958" t="n">
         <v>13</v>
@@ -69329,20 +69329,20 @@
       </c>
       <c r="I958" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J958" t="n">
-        <v>360</v>
+        <v>690</v>
       </c>
       <c r="K958" t="n">
-        <v>3500</v>
+        <v>2600</v>
       </c>
       <c r="L958" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="M958" t="n">
-        <v>3500</v>
+        <v>2706</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69355,7 +69355,7 @@
         </is>
       </c>
       <c r="P958" t="n">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="Q958" t="n">
         <v>36</v>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E959" t="n">
         <v>13</v>
@@ -69405,16 +69405,16 @@
         </is>
       </c>
       <c r="J959" t="n">
-        <v>760</v>
+        <v>720</v>
       </c>
       <c r="K959" t="n">
-        <v>2800</v>
+        <v>3300</v>
       </c>
       <c r="L959" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M959" t="n">
-        <v>2892</v>
+        <v>3422</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69427,7 +69427,7 @@
         </is>
       </c>
       <c r="P959" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="Q959" t="n">
         <v>36</v>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E960" t="n">
         <v>13</v>
@@ -69477,16 +69477,16 @@
         </is>
       </c>
       <c r="J960" t="n">
-        <v>810</v>
+        <v>620</v>
       </c>
       <c r="K960" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="L960" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="M960" t="n">
-        <v>2904</v>
+        <v>3519</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69499,7 +69499,7 @@
         </is>
       </c>
       <c r="P960" t="n">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="Q960" t="n">
         <v>36</v>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E961" t="n">
         <v>13</v>
@@ -69552,13 +69552,13 @@
         <v>200</v>
       </c>
       <c r="K961" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="L961" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="M961" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69571,7 +69571,7 @@
         </is>
       </c>
       <c r="P961" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Q961" t="n">
         <v>36</v>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E962" t="n">
         <v>13</v>
@@ -69621,16 +69621,16 @@
         </is>
       </c>
       <c r="J962" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="K962" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="L962" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="M962" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69643,7 +69643,7 @@
         </is>
       </c>
       <c r="P962" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Q962" t="n">
         <v>36</v>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E963" t="n">
         <v>13</v>
@@ -69689,20 +69689,20 @@
       </c>
       <c r="I963" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J963" t="n">
-        <v>760</v>
+        <v>440</v>
       </c>
       <c r="K963" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L963" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M963" t="n">
-        <v>2789</v>
+        <v>3500</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69715,7 +69715,7 @@
         </is>
       </c>
       <c r="P963" t="n">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="Q963" t="n">
         <v>36</v>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E964" t="n">
         <v>13</v>
@@ -69761,20 +69761,20 @@
       </c>
       <c r="I964" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J964" t="n">
-        <v>860</v>
+        <v>360</v>
       </c>
       <c r="K964" t="n">
-        <v>2400</v>
+        <v>3500</v>
       </c>
       <c r="L964" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M964" t="n">
-        <v>2628</v>
+        <v>3500</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69787,7 +69787,7 @@
         </is>
       </c>
       <c r="P964" t="n">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="Q964" t="n">
         <v>36</v>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E965" t="n">
         <v>13</v>
@@ -69833,20 +69833,20 @@
       </c>
       <c r="I965" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J965" t="n">
-        <v>220</v>
+        <v>760</v>
       </c>
       <c r="K965" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="L965" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M965" t="n">
-        <v>2000</v>
+        <v>2892</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69859,7 +69859,7 @@
         </is>
       </c>
       <c r="P965" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="Q965" t="n">
         <v>36</v>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E966" t="n">
         <v>13</v>
@@ -69905,20 +69905,20 @@
       </c>
       <c r="I966" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J966" t="n">
-        <v>230</v>
+        <v>810</v>
       </c>
       <c r="K966" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="L966" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M966" t="n">
-        <v>2000</v>
+        <v>2904</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69931,7 +69931,7 @@
         </is>
       </c>
       <c r="P966" t="n">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="Q966" t="n">
         <v>36</v>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E967" t="n">
         <v>13</v>
@@ -69977,20 +69977,20 @@
       </c>
       <c r="I967" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J967" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="K967" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="L967" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="M967" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -70003,7 +70003,7 @@
         </is>
       </c>
       <c r="P967" t="n">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Q967" t="n">
         <v>36</v>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E968" t="n">
         <v>13</v>
@@ -70049,20 +70049,20 @@
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J968" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="K968" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L968" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M968" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
@@ -70075,7 +70075,7 @@
         </is>
       </c>
       <c r="P968" t="n">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="Q968" t="n">
         <v>36</v>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E969" t="n">
         <v>13</v>
@@ -70125,16 +70125,16 @@
         </is>
       </c>
       <c r="J969" t="n">
-        <v>640</v>
+        <v>760</v>
       </c>
       <c r="K969" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L969" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M969" t="n">
-        <v>2431</v>
+        <v>2789</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70147,7 +70147,7 @@
         </is>
       </c>
       <c r="P969" t="n">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="Q969" t="n">
         <v>36</v>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E970" t="n">
         <v>13</v>
@@ -70197,16 +70197,16 @@
         </is>
       </c>
       <c r="J970" t="n">
-        <v>670</v>
+        <v>860</v>
       </c>
       <c r="K970" t="n">
         <v>2400</v>
       </c>
       <c r="L970" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="M970" t="n">
-        <v>2516</v>
+        <v>2628</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70219,7 +70219,7 @@
         </is>
       </c>
       <c r="P970" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q970" t="n">
         <v>36</v>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E971" t="n">
         <v>13</v>
@@ -70269,7 +70269,7 @@
         </is>
       </c>
       <c r="J971" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="K971" t="n">
         <v>2000</v>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E972" t="n">
         <v>13</v>
@@ -70341,7 +70341,7 @@
         </is>
       </c>
       <c r="J972" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="K972" t="n">
         <v>2000</v>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E973" t="n">
         <v>13</v>
@@ -70413,16 +70413,16 @@
         </is>
       </c>
       <c r="J973" t="n">
-        <v>710</v>
+        <v>330</v>
       </c>
       <c r="K973" t="n">
-        <v>3700</v>
+        <v>2800</v>
       </c>
       <c r="L973" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="M973" t="n">
-        <v>3861</v>
+        <v>2800</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70435,7 +70435,7 @@
         </is>
       </c>
       <c r="P973" t="n">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="Q973" t="n">
         <v>36</v>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E974" t="n">
         <v>13</v>
@@ -70485,16 +70485,16 @@
         </is>
       </c>
       <c r="J974" t="n">
-        <v>640</v>
+        <v>270</v>
       </c>
       <c r="K974" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="L974" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M974" t="n">
-        <v>3912</v>
+        <v>3000</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70507,7 +70507,7 @@
         </is>
       </c>
       <c r="P974" t="n">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="Q974" t="n">
         <v>36</v>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E975" t="n">
         <v>13</v>
@@ -70557,16 +70557,16 @@
         </is>
       </c>
       <c r="J975" t="n">
-        <v>840</v>
+        <v>640</v>
       </c>
       <c r="K975" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="L975" t="n">
-        <v>3200</v>
+        <v>2500</v>
       </c>
       <c r="M975" t="n">
-        <v>3105</v>
+        <v>2431</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70579,7 +70579,7 @@
         </is>
       </c>
       <c r="P975" t="n">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="Q975" t="n">
         <v>36</v>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E976" t="n">
         <v>13</v>
@@ -70629,16 +70629,16 @@
         </is>
       </c>
       <c r="J976" t="n">
-        <v>860</v>
+        <v>670</v>
       </c>
       <c r="K976" t="n">
-        <v>2900</v>
+        <v>2400</v>
       </c>
       <c r="L976" t="n">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="M976" t="n">
-        <v>3043</v>
+        <v>2516</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70651,7 +70651,7 @@
         </is>
       </c>
       <c r="P976" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="Q976" t="n">
         <v>36</v>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E977" t="n">
         <v>13</v>
@@ -70704,13 +70704,13 @@
         <v>250</v>
       </c>
       <c r="K977" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="L977" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="M977" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70723,7 +70723,7 @@
         </is>
       </c>
       <c r="P977" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="Q977" t="n">
         <v>36</v>
@@ -70749,58 +70749,490 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E978" t="n">
+        <v>13</v>
+      </c>
+      <c r="F978" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G978" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H978" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I978" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J978" t="n">
+        <v>240</v>
+      </c>
+      <c r="K978" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L978" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M978" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N978" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O978" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P978" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q978" t="n">
+        <v>36</v>
+      </c>
+      <c r="R978" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="n">
+        <v>6</v>
+      </c>
+      <c r="B979" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C979" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D979" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E978" t="n">
-        <v>13</v>
-      </c>
-      <c r="F978" t="n">
-        <v>100112037</v>
-      </c>
-      <c r="G978" t="inlineStr">
-        <is>
-          <t>Cebollín</t>
-        </is>
-      </c>
-      <c r="H978" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I978" t="inlineStr">
+      <c r="E979" t="n">
+        <v>13</v>
+      </c>
+      <c r="F979" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G979" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H979" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I979" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J979" t="n">
+        <v>710</v>
+      </c>
+      <c r="K979" t="n">
+        <v>3700</v>
+      </c>
+      <c r="L979" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M979" t="n">
+        <v>3861</v>
+      </c>
+      <c r="N979" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O979" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P979" t="n">
+        <v>107</v>
+      </c>
+      <c r="Q979" t="n">
+        <v>36</v>
+      </c>
+      <c r="R979" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="n">
+        <v>6</v>
+      </c>
+      <c r="B980" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C980" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D980" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E980" t="n">
+        <v>13</v>
+      </c>
+      <c r="F980" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G980" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H980" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I980" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J980" t="n">
+        <v>640</v>
+      </c>
+      <c r="K980" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L980" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M980" t="n">
+        <v>3912</v>
+      </c>
+      <c r="N980" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O980" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P980" t="n">
+        <v>109</v>
+      </c>
+      <c r="Q980" t="n">
+        <v>36</v>
+      </c>
+      <c r="R980" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="n">
+        <v>6</v>
+      </c>
+      <c r="B981" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C981" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D981" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E981" t="n">
+        <v>13</v>
+      </c>
+      <c r="F981" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G981" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H981" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I981" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J981" t="n">
+        <v>840</v>
+      </c>
+      <c r="K981" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L981" t="n">
+        <v>3200</v>
+      </c>
+      <c r="M981" t="n">
+        <v>3105</v>
+      </c>
+      <c r="N981" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O981" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P981" t="n">
+        <v>86</v>
+      </c>
+      <c r="Q981" t="n">
+        <v>36</v>
+      </c>
+      <c r="R981" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="n">
+        <v>6</v>
+      </c>
+      <c r="B982" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C982" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D982" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E982" t="n">
+        <v>13</v>
+      </c>
+      <c r="F982" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G982" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H982" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I982" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J982" t="n">
+        <v>860</v>
+      </c>
+      <c r="K982" t="n">
+        <v>2900</v>
+      </c>
+      <c r="L982" t="n">
+        <v>3200</v>
+      </c>
+      <c r="M982" t="n">
+        <v>3043</v>
+      </c>
+      <c r="N982" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O982" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P982" t="n">
+        <v>85</v>
+      </c>
+      <c r="Q982" t="n">
+        <v>36</v>
+      </c>
+      <c r="R982" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="n">
+        <v>6</v>
+      </c>
+      <c r="B983" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D983" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E983" t="n">
+        <v>13</v>
+      </c>
+      <c r="F983" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G983" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H983" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I983" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J978" t="n">
+      <c r="J983" t="n">
+        <v>250</v>
+      </c>
+      <c r="K983" t="n">
+        <v>2400</v>
+      </c>
+      <c r="L983" t="n">
+        <v>2400</v>
+      </c>
+      <c r="M983" t="n">
+        <v>2400</v>
+      </c>
+      <c r="N983" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O983" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P983" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q983" t="n">
+        <v>36</v>
+      </c>
+      <c r="R983" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="n">
+        <v>6</v>
+      </c>
+      <c r="B984" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D984" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E984" t="n">
+        <v>13</v>
+      </c>
+      <c r="F984" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G984" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H984" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I984" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J984" t="n">
         <v>290</v>
       </c>
-      <c r="K978" t="n">
+      <c r="K984" t="n">
         <v>2300</v>
       </c>
-      <c r="L978" t="n">
+      <c r="L984" t="n">
         <v>2300</v>
       </c>
-      <c r="M978" t="n">
+      <c r="M984" t="n">
         <v>2300</v>
       </c>
-      <c r="N978" t="inlineStr">
-        <is>
-          <t>$/paquete 36 unidades</t>
-        </is>
-      </c>
-      <c r="O978" t="inlineStr">
+      <c r="N984" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O984" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P978" t="n">
+      <c r="P984" t="n">
         <v>64</v>
       </c>
-      <c r="Q978" t="n">
-        <v>36</v>
-      </c>
-      <c r="R978" t="inlineStr">
+      <c r="Q984" t="n">
+        <v>36</v>
+      </c>
+      <c r="R984" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cebollín.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cebollín.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1039"/>
+  <dimension ref="A1:R1045"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E912" t="n">
         <v>13</v>
@@ -66021,16 +66021,16 @@
         </is>
       </c>
       <c r="J912" t="n">
-        <v>680</v>
+        <v>780</v>
       </c>
       <c r="K912" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L912" t="n">
         <v>2700</v>
       </c>
-      <c r="L912" t="n">
-        <v>3000</v>
-      </c>
       <c r="M912" t="n">
-        <v>2899</v>
+        <v>2613</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66039,11 +66039,11 @@
       </c>
       <c r="O912" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P912" t="n">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="Q912" t="n">
         <v>36</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E913" t="n">
         <v>13</v>
@@ -66089,20 +66089,20 @@
       </c>
       <c r="I913" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J913" t="n">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="K913" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L913" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M913" t="n">
-        <v>2440</v>
+        <v>2664</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66115,7 +66115,7 @@
         </is>
       </c>
       <c r="P913" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="Q913" t="n">
         <v>36</v>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44172</v>
+        <v>44491</v>
       </c>
       <c r="E914" t="n">
         <v>13</v>
@@ -66161,20 +66161,20 @@
       </c>
       <c r="I914" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J914" t="n">
-        <v>250</v>
+        <v>730</v>
       </c>
       <c r="K914" t="n">
         <v>2000</v>
       </c>
       <c r="L914" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="M914" t="n">
-        <v>2000</v>
+        <v>2156</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66183,11 +66183,11 @@
       </c>
       <c r="O914" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P914" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q914" t="n">
         <v>36</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E915" t="n">
         <v>13</v>
@@ -66237,16 +66237,16 @@
         </is>
       </c>
       <c r="J915" t="n">
-        <v>830</v>
+        <v>810</v>
       </c>
       <c r="K915" t="n">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="L915" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M915" t="n">
-        <v>2812</v>
+        <v>2267</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66255,11 +66255,11 @@
       </c>
       <c r="O915" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P915" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="Q915" t="n">
         <v>36</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E916" t="n">
         <v>13</v>
@@ -66305,20 +66305,20 @@
       </c>
       <c r="I916" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J916" t="n">
-        <v>1010</v>
+        <v>250</v>
       </c>
       <c r="K916" t="n">
-        <v>2600</v>
+        <v>1800</v>
       </c>
       <c r="L916" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="M916" t="n">
-        <v>2707</v>
+        <v>1800</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66327,11 +66327,11 @@
       </c>
       <c r="O916" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P916" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="Q916" t="n">
         <v>36</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44301</v>
+        <v>44491</v>
       </c>
       <c r="E917" t="n">
         <v>13</v>
@@ -66381,16 +66381,16 @@
         </is>
       </c>
       <c r="J917" t="n">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="K917" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L917" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="M917" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66399,11 +66399,11 @@
       </c>
       <c r="O917" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P917" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Q917" t="n">
         <v>36</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44301</v>
+        <v>44172</v>
       </c>
       <c r="E918" t="n">
         <v>13</v>
@@ -66449,20 +66449,20 @@
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J918" t="n">
-        <v>330</v>
+        <v>680</v>
       </c>
       <c r="K918" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="L918" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M918" t="n">
-        <v>2000</v>
+        <v>2899</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66475,7 +66475,7 @@
         </is>
       </c>
       <c r="P918" t="n">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="Q918" t="n">
         <v>36</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E919" t="n">
         <v>13</v>
@@ -66521,20 +66521,20 @@
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J919" t="n">
-        <v>380</v>
+        <v>500</v>
       </c>
       <c r="K919" t="n">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="L919" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="M919" t="n">
-        <v>2700</v>
+        <v>2440</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66543,11 +66543,11 @@
       </c>
       <c r="O919" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P919" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="Q919" t="n">
         <v>36</v>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44357</v>
+        <v>44172</v>
       </c>
       <c r="E920" t="n">
         <v>13</v>
@@ -66593,20 +66593,20 @@
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J920" t="n">
-        <v>360</v>
+        <v>250</v>
       </c>
       <c r="K920" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="L920" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="M920" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66619,7 +66619,7 @@
         </is>
       </c>
       <c r="P920" t="n">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="Q920" t="n">
         <v>36</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E921" t="n">
         <v>13</v>
@@ -66669,16 +66669,16 @@
         </is>
       </c>
       <c r="J921" t="n">
-        <v>730</v>
+        <v>830</v>
       </c>
       <c r="K921" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="L921" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="M921" t="n">
-        <v>2253</v>
+        <v>2812</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66691,7 +66691,7 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="Q921" t="n">
         <v>36</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E922" t="n">
         <v>13</v>
@@ -66741,16 +66741,16 @@
         </is>
       </c>
       <c r="J922" t="n">
-        <v>760</v>
+        <v>1010</v>
       </c>
       <c r="K922" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="L922" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="M922" t="n">
-        <v>2255</v>
+        <v>2707</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66763,7 +66763,7 @@
         </is>
       </c>
       <c r="P922" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="Q922" t="n">
         <v>36</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E923" t="n">
         <v>13</v>
@@ -66813,16 +66813,16 @@
         </is>
       </c>
       <c r="J923" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="K923" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L923" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M923" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66835,7 +66835,7 @@
         </is>
       </c>
       <c r="P923" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Q923" t="n">
         <v>36</v>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44357</v>
+        <v>44301</v>
       </c>
       <c r="E924" t="n">
         <v>13</v>
@@ -66885,16 +66885,16 @@
         </is>
       </c>
       <c r="J924" t="n">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="K924" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L924" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M924" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66907,7 +66907,7 @@
         </is>
       </c>
       <c r="P924" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Q924" t="n">
         <v>36</v>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E925" t="n">
         <v>13</v>
@@ -66957,16 +66957,16 @@
         </is>
       </c>
       <c r="J925" t="n">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="K925" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="L925" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="M925" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66979,7 +66979,7 @@
         </is>
       </c>
       <c r="P925" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q925" t="n">
         <v>36</v>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E926" t="n">
         <v>13</v>
@@ -67029,16 +67029,16 @@
         </is>
       </c>
       <c r="J926" t="n">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="K926" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="L926" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="M926" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67051,7 +67051,7 @@
         </is>
       </c>
       <c r="P926" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q926" t="n">
         <v>36</v>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E927" t="n">
         <v>13</v>
@@ -67101,16 +67101,16 @@
         </is>
       </c>
       <c r="J927" t="n">
-        <v>640</v>
+        <v>730</v>
       </c>
       <c r="K927" t="n">
+        <v>2200</v>
+      </c>
+      <c r="L927" t="n">
         <v>2300</v>
       </c>
-      <c r="L927" t="n">
-        <v>2500</v>
-      </c>
       <c r="M927" t="n">
-        <v>2419</v>
+        <v>2253</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67123,7 +67123,7 @@
         </is>
       </c>
       <c r="P927" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q927" t="n">
         <v>36</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E928" t="n">
         <v>13</v>
@@ -67173,16 +67173,16 @@
         </is>
       </c>
       <c r="J928" t="n">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="K928" t="n">
+        <v>2200</v>
+      </c>
+      <c r="L928" t="n">
         <v>2300</v>
       </c>
-      <c r="L928" t="n">
-        <v>2500</v>
-      </c>
       <c r="M928" t="n">
-        <v>2417</v>
+        <v>2255</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67195,7 +67195,7 @@
         </is>
       </c>
       <c r="P928" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q928" t="n">
         <v>36</v>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E929" t="n">
         <v>13</v>
@@ -67245,16 +67245,16 @@
         </is>
       </c>
       <c r="J929" t="n">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="K929" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L929" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="M929" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67267,7 +67267,7 @@
         </is>
       </c>
       <c r="P929" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Q929" t="n">
         <v>36</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44328</v>
+        <v>44357</v>
       </c>
       <c r="E930" t="n">
         <v>13</v>
@@ -67317,16 +67317,16 @@
         </is>
       </c>
       <c r="J930" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="K930" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L930" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="M930" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67339,7 +67339,7 @@
         </is>
       </c>
       <c r="P930" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Q930" t="n">
         <v>36</v>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E931" t="n">
         <v>13</v>
@@ -67389,16 +67389,16 @@
         </is>
       </c>
       <c r="J931" t="n">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="K931" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L931" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M931" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67407,11 +67407,11 @@
       </c>
       <c r="O931" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P931" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Q931" t="n">
         <v>36</v>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E932" t="n">
         <v>13</v>
@@ -67457,20 +67457,20 @@
       </c>
       <c r="I932" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J932" t="n">
-        <v>780</v>
+        <v>270</v>
       </c>
       <c r="K932" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="L932" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="M932" t="n">
-        <v>2487</v>
+        <v>2800</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67479,11 +67479,11 @@
       </c>
       <c r="O932" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P932" t="n">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="Q932" t="n">
         <v>36</v>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E933" t="n">
         <v>13</v>
@@ -67533,16 +67533,16 @@
         </is>
       </c>
       <c r="J933" t="n">
-        <v>710</v>
+        <v>640</v>
       </c>
       <c r="K933" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="L933" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="M933" t="n">
-        <v>2507</v>
+        <v>2419</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67551,11 +67551,11 @@
       </c>
       <c r="O933" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P933" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q933" t="n">
         <v>36</v>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E934" t="n">
         <v>13</v>
@@ -67601,20 +67601,20 @@
       </c>
       <c r="I934" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J934" t="n">
-        <v>220</v>
+        <v>720</v>
       </c>
       <c r="K934" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="L934" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M934" t="n">
-        <v>2000</v>
+        <v>2417</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67623,11 +67623,11 @@
       </c>
       <c r="O934" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P934" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="Q934" t="n">
         <v>36</v>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44321</v>
+        <v>44328</v>
       </c>
       <c r="E935" t="n">
         <v>13</v>
@@ -67677,7 +67677,7 @@
         </is>
       </c>
       <c r="J935" t="n">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="K935" t="n">
         <v>2000</v>
@@ -67695,7 +67695,7 @@
       </c>
       <c r="O935" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P935" t="n">
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44223</v>
+        <v>44328</v>
       </c>
       <c r="E936" t="n">
         <v>13</v>
@@ -67745,20 +67745,20 @@
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J936" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="K936" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L936" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M936" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67767,11 +67767,11 @@
       </c>
       <c r="O936" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P936" t="n">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="Q936" t="n">
         <v>36</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E937" t="n">
         <v>13</v>
@@ -67821,7 +67821,7 @@
         </is>
       </c>
       <c r="J937" t="n">
-        <v>330</v>
+        <v>270</v>
       </c>
       <c r="K937" t="n">
         <v>3000</v>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E938" t="n">
         <v>13</v>
@@ -67893,16 +67893,16 @@
         </is>
       </c>
       <c r="J938" t="n">
-        <v>250</v>
+        <v>780</v>
       </c>
       <c r="K938" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="L938" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="M938" t="n">
-        <v>2700</v>
+        <v>2487</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67915,7 +67915,7 @@
         </is>
       </c>
       <c r="P938" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Q938" t="n">
         <v>36</v>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E939" t="n">
         <v>13</v>
@@ -67965,16 +67965,16 @@
         </is>
       </c>
       <c r="J939" t="n">
-        <v>440</v>
+        <v>710</v>
       </c>
       <c r="K939" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="L939" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="M939" t="n">
-        <v>2623</v>
+        <v>2507</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67987,7 +67987,7 @@
         </is>
       </c>
       <c r="P939" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Q939" t="n">
         <v>36</v>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E940" t="n">
         <v>13</v>
@@ -68037,16 +68037,16 @@
         </is>
       </c>
       <c r="J940" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="K940" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L940" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="M940" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68059,7 +68059,7 @@
         </is>
       </c>
       <c r="P940" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q940" t="n">
         <v>36</v>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44223</v>
+        <v>44321</v>
       </c>
       <c r="E941" t="n">
         <v>13</v>
@@ -68109,16 +68109,16 @@
         </is>
       </c>
       <c r="J941" t="n">
-        <v>410</v>
+        <v>220</v>
       </c>
       <c r="K941" t="n">
         <v>2000</v>
       </c>
       <c r="L941" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="M941" t="n">
-        <v>2102</v>
+        <v>2000</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68131,7 +68131,7 @@
         </is>
       </c>
       <c r="P941" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q941" t="n">
         <v>36</v>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E942" t="n">
         <v>13</v>
@@ -68177,20 +68177,20 @@
       </c>
       <c r="I942" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J942" t="n">
-        <v>780</v>
+        <v>380</v>
       </c>
       <c r="K942" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="L942" t="n">
         <v>3000</v>
       </c>
       <c r="M942" t="n">
-        <v>2785</v>
+        <v>3000</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68203,7 +68203,7 @@
         </is>
       </c>
       <c r="P942" t="n">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="Q942" t="n">
         <v>36</v>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E943" t="n">
         <v>13</v>
@@ -68249,20 +68249,20 @@
       </c>
       <c r="I943" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J943" t="n">
-        <v>830</v>
+        <v>330</v>
       </c>
       <c r="K943" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L943" t="n">
         <v>3000</v>
       </c>
       <c r="M943" t="n">
-        <v>2723</v>
+        <v>3000</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68275,7 +68275,7 @@
         </is>
       </c>
       <c r="P943" t="n">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="Q943" t="n">
         <v>36</v>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E944" t="n">
         <v>13</v>
@@ -68321,20 +68321,20 @@
       </c>
       <c r="I944" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J944" t="n">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="K944" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="L944" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="M944" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68347,7 +68347,7 @@
         </is>
       </c>
       <c r="P944" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="Q944" t="n">
         <v>36</v>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44298</v>
+        <v>44223</v>
       </c>
       <c r="E945" t="n">
         <v>13</v>
@@ -68393,20 +68393,20 @@
       </c>
       <c r="I945" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J945" t="n">
-        <v>320</v>
+        <v>440</v>
       </c>
       <c r="K945" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L945" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="M945" t="n">
-        <v>2000</v>
+        <v>2623</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68419,7 +68419,7 @@
         </is>
       </c>
       <c r="P945" t="n">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="Q945" t="n">
         <v>36</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E946" t="n">
         <v>13</v>
@@ -68465,20 +68465,20 @@
       </c>
       <c r="I946" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J946" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K946" t="n">
-        <v>3300</v>
+        <v>2200</v>
       </c>
       <c r="L946" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="M946" t="n">
-        <v>3396</v>
+        <v>2200</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68487,11 +68487,11 @@
       </c>
       <c r="O946" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P946" t="n">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="Q946" t="n">
         <v>36</v>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44397</v>
+        <v>44223</v>
       </c>
       <c r="E947" t="n">
         <v>13</v>
@@ -68537,20 +68537,20 @@
       </c>
       <c r="I947" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J947" t="n">
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="K947" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="L947" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="M947" t="n">
-        <v>2841</v>
+        <v>2102</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68563,7 +68563,7 @@
         </is>
       </c>
       <c r="P947" t="n">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="Q947" t="n">
         <v>36</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44397</v>
+        <v>44298</v>
       </c>
       <c r="E948" t="n">
         <v>13</v>
@@ -68609,20 +68609,20 @@
       </c>
       <c r="I948" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J948" t="n">
-        <v>260</v>
+        <v>780</v>
       </c>
       <c r="K948" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="L948" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M948" t="n">
-        <v>2100</v>
+        <v>2785</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68631,11 +68631,11 @@
       </c>
       <c r="O948" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P948" t="n">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="Q948" t="n">
         <v>36</v>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E949" t="n">
         <v>13</v>
@@ -68681,20 +68681,20 @@
       </c>
       <c r="I949" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J949" t="n">
         <v>830</v>
       </c>
       <c r="K949" t="n">
-        <v>3800</v>
+        <v>2500</v>
       </c>
       <c r="L949" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M949" t="n">
-        <v>3906</v>
+        <v>2723</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68703,11 +68703,11 @@
       </c>
       <c r="O949" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P949" t="n">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="Q949" t="n">
         <v>36</v>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E950" t="n">
         <v>13</v>
@@ -68753,20 +68753,20 @@
       </c>
       <c r="I950" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J950" t="n">
-        <v>710</v>
+        <v>310</v>
       </c>
       <c r="K950" t="n">
-        <v>3800</v>
+        <v>2000</v>
       </c>
       <c r="L950" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M950" t="n">
-        <v>3904</v>
+        <v>2000</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68775,11 +68775,11 @@
       </c>
       <c r="O950" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P950" t="n">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="Q950" t="n">
         <v>36</v>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44414</v>
+        <v>44298</v>
       </c>
       <c r="E951" t="n">
         <v>13</v>
@@ -68825,20 +68825,20 @@
       </c>
       <c r="I951" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J951" t="n">
-        <v>680</v>
+        <v>320</v>
       </c>
       <c r="K951" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L951" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M951" t="n">
-        <v>2912</v>
+        <v>2000</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68847,11 +68847,11 @@
       </c>
       <c r="O951" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P951" t="n">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="Q951" t="n">
         <v>36</v>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E952" t="n">
         <v>13</v>
@@ -68897,20 +68897,20 @@
       </c>
       <c r="I952" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J952" t="n">
-        <v>720</v>
+        <v>250</v>
       </c>
       <c r="K952" t="n">
-        <v>2700</v>
+        <v>3300</v>
       </c>
       <c r="L952" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M952" t="n">
-        <v>2875</v>
+        <v>3396</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68923,7 +68923,7 @@
         </is>
       </c>
       <c r="P952" t="n">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="Q952" t="n">
         <v>36</v>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E953" t="n">
         <v>13</v>
@@ -68969,20 +68969,20 @@
       </c>
       <c r="I953" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J953" t="n">
-        <v>250</v>
+        <v>340</v>
       </c>
       <c r="K953" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="L953" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M953" t="n">
-        <v>2500</v>
+        <v>2841</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68991,11 +68991,11 @@
       </c>
       <c r="O953" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P953" t="n">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="Q953" t="n">
         <v>36</v>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44414</v>
+        <v>44397</v>
       </c>
       <c r="E954" t="n">
         <v>13</v>
@@ -69045,16 +69045,16 @@
         </is>
       </c>
       <c r="J954" t="n">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="K954" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L954" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="M954" t="n">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69067,7 +69067,7 @@
         </is>
       </c>
       <c r="P954" t="n">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="Q954" t="n">
         <v>36</v>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E955" t="n">
         <v>13</v>
@@ -69113,20 +69113,20 @@
       </c>
       <c r="I955" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J955" t="n">
-        <v>660</v>
+        <v>830</v>
       </c>
       <c r="K955" t="n">
-        <v>2400</v>
+        <v>3800</v>
       </c>
       <c r="L955" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="M955" t="n">
-        <v>2512</v>
+        <v>3906</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69139,7 +69139,7 @@
         </is>
       </c>
       <c r="P955" t="n">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="Q955" t="n">
         <v>36</v>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E956" t="n">
         <v>13</v>
@@ -69185,20 +69185,20 @@
       </c>
       <c r="I956" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J956" t="n">
-        <v>680</v>
+        <v>710</v>
       </c>
       <c r="K956" t="n">
-        <v>2400</v>
+        <v>3800</v>
       </c>
       <c r="L956" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="M956" t="n">
-        <v>2524</v>
+        <v>3904</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69211,7 +69211,7 @@
         </is>
       </c>
       <c r="P956" t="n">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="Q956" t="n">
         <v>36</v>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E957" t="n">
         <v>13</v>
@@ -69257,20 +69257,20 @@
       </c>
       <c r="I957" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J957" t="n">
-        <v>370</v>
+        <v>680</v>
       </c>
       <c r="K957" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="L957" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M957" t="n">
-        <v>1919</v>
+        <v>2912</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69283,7 +69283,7 @@
         </is>
       </c>
       <c r="P957" t="n">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="Q957" t="n">
         <v>36</v>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44333</v>
+        <v>44414</v>
       </c>
       <c r="E958" t="n">
         <v>13</v>
@@ -69329,20 +69329,20 @@
       </c>
       <c r="I958" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J958" t="n">
-        <v>380</v>
+        <v>720</v>
       </c>
       <c r="K958" t="n">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="L958" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M958" t="n">
-        <v>1932</v>
+        <v>2875</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69355,7 +69355,7 @@
         </is>
       </c>
       <c r="P958" t="n">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="Q958" t="n">
         <v>36</v>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E959" t="n">
         <v>13</v>
@@ -69401,20 +69401,20 @@
       </c>
       <c r="I959" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J959" t="n">
-        <v>820</v>
+        <v>250</v>
       </c>
       <c r="K959" t="n">
         <v>2500</v>
       </c>
       <c r="L959" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="M959" t="n">
-        <v>2593</v>
+        <v>2500</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69427,7 +69427,7 @@
         </is>
       </c>
       <c r="P959" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Q959" t="n">
         <v>36</v>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44314</v>
+        <v>44414</v>
       </c>
       <c r="E960" t="n">
         <v>13</v>
@@ -69473,20 +69473,20 @@
       </c>
       <c r="I960" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J960" t="n">
-        <v>850</v>
+        <v>220</v>
       </c>
       <c r="K960" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="L960" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="M960" t="n">
-        <v>2506</v>
+        <v>2500</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69499,7 +69499,7 @@
         </is>
       </c>
       <c r="P960" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q960" t="n">
         <v>36</v>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E961" t="n">
         <v>13</v>
@@ -69545,20 +69545,20 @@
       </c>
       <c r="I961" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J961" t="n">
-        <v>260</v>
+        <v>660</v>
       </c>
       <c r="K961" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L961" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="M961" t="n">
-        <v>2000</v>
+        <v>2512</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69571,7 +69571,7 @@
         </is>
       </c>
       <c r="P961" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="Q961" t="n">
         <v>36</v>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44314</v>
+        <v>44333</v>
       </c>
       <c r="E962" t="n">
         <v>13</v>
@@ -69617,20 +69617,20 @@
       </c>
       <c r="I962" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J962" t="n">
-        <v>200</v>
+        <v>680</v>
       </c>
       <c r="K962" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="L962" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="M962" t="n">
-        <v>1800</v>
+        <v>2524</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69643,7 +69643,7 @@
         </is>
       </c>
       <c r="P962" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="Q962" t="n">
         <v>36</v>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E963" t="n">
         <v>13</v>
@@ -69689,20 +69689,20 @@
       </c>
       <c r="I963" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J963" t="n">
-        <v>440</v>
+        <v>370</v>
       </c>
       <c r="K963" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="L963" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M963" t="n">
-        <v>3000</v>
+        <v>1919</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69715,7 +69715,7 @@
         </is>
       </c>
       <c r="P963" t="n">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="Q963" t="n">
         <v>36</v>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44392</v>
+        <v>44333</v>
       </c>
       <c r="E964" t="n">
         <v>13</v>
@@ -69761,20 +69761,20 @@
       </c>
       <c r="I964" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J964" t="n">
         <v>380</v>
       </c>
       <c r="K964" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="L964" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M964" t="n">
-        <v>3000</v>
+        <v>1932</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69787,7 +69787,7 @@
         </is>
       </c>
       <c r="P964" t="n">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="Q964" t="n">
         <v>36</v>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E965" t="n">
         <v>13</v>
@@ -69837,7 +69837,7 @@
         </is>
       </c>
       <c r="J965" t="n">
-        <v>810</v>
+        <v>820</v>
       </c>
       <c r="K965" t="n">
         <v>2500</v>
@@ -69846,7 +69846,7 @@
         <v>2700</v>
       </c>
       <c r="M965" t="n">
-        <v>2616</v>
+        <v>2593</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69859,7 +69859,7 @@
         </is>
       </c>
       <c r="P965" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q965" t="n">
         <v>36</v>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E966" t="n">
         <v>13</v>
@@ -69909,7 +69909,7 @@
         </is>
       </c>
       <c r="J966" t="n">
-        <v>710</v>
+        <v>850</v>
       </c>
       <c r="K966" t="n">
         <v>2400</v>
@@ -69918,7 +69918,7 @@
         <v>2600</v>
       </c>
       <c r="M966" t="n">
-        <v>2515</v>
+        <v>2506</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E967" t="n">
         <v>13</v>
@@ -69984,13 +69984,13 @@
         <v>260</v>
       </c>
       <c r="K967" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L967" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="M967" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -70003,7 +70003,7 @@
         </is>
       </c>
       <c r="P967" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q967" t="n">
         <v>36</v>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44392</v>
+        <v>44314</v>
       </c>
       <c r="E968" t="n">
         <v>13</v>
@@ -70053,16 +70053,16 @@
         </is>
       </c>
       <c r="J968" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K968" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="L968" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="M968" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
@@ -70075,7 +70075,7 @@
         </is>
       </c>
       <c r="P968" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="Q968" t="n">
         <v>36</v>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E969" t="n">
         <v>13</v>
@@ -70125,16 +70125,16 @@
         </is>
       </c>
       <c r="J969" t="n">
-        <v>720</v>
+        <v>440</v>
       </c>
       <c r="K969" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="L969" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M969" t="n">
-        <v>3906</v>
+        <v>3000</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70147,7 +70147,7 @@
         </is>
       </c>
       <c r="P969" t="n">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="Q969" t="n">
         <v>36</v>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E970" t="n">
         <v>13</v>
@@ -70197,16 +70197,16 @@
         </is>
       </c>
       <c r="J970" t="n">
-        <v>810</v>
+        <v>380</v>
       </c>
       <c r="K970" t="n">
-        <v>3700</v>
+        <v>3000</v>
       </c>
       <c r="L970" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M970" t="n">
-        <v>3852</v>
+        <v>3000</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70219,7 +70219,7 @@
         </is>
       </c>
       <c r="P970" t="n">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="Q970" t="n">
         <v>36</v>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E971" t="n">
         <v>13</v>
@@ -70269,16 +70269,16 @@
         </is>
       </c>
       <c r="J971" t="n">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="K971" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L971" t="n">
-        <v>3300</v>
+        <v>2700</v>
       </c>
       <c r="M971" t="n">
-        <v>3161</v>
+        <v>2616</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70291,7 +70291,7 @@
         </is>
       </c>
       <c r="P971" t="n">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="Q971" t="n">
         <v>36</v>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E972" t="n">
         <v>13</v>
@@ -70341,16 +70341,16 @@
         </is>
       </c>
       <c r="J972" t="n">
-        <v>920</v>
+        <v>710</v>
       </c>
       <c r="K972" t="n">
-        <v>2900</v>
+        <v>2400</v>
       </c>
       <c r="L972" t="n">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="M972" t="n">
-        <v>3047</v>
+        <v>2515</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
@@ -70363,7 +70363,7 @@
         </is>
       </c>
       <c r="P972" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="Q972" t="n">
         <v>36</v>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E973" t="n">
         <v>13</v>
@@ -70413,16 +70413,16 @@
         </is>
       </c>
       <c r="J973" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="K973" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="L973" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="M973" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70435,7 +70435,7 @@
         </is>
       </c>
       <c r="P973" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="Q973" t="n">
         <v>36</v>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44425</v>
+        <v>44392</v>
       </c>
       <c r="E974" t="n">
         <v>13</v>
@@ -70485,16 +70485,16 @@
         </is>
       </c>
       <c r="J974" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="K974" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="L974" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="M974" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70507,7 +70507,7 @@
         </is>
       </c>
       <c r="P974" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="Q974" t="n">
         <v>36</v>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E975" t="n">
         <v>13</v>
@@ -70557,16 +70557,16 @@
         </is>
       </c>
       <c r="J975" t="n">
-        <v>420</v>
+        <v>720</v>
       </c>
       <c r="K975" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L975" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M975" t="n">
-        <v>3000</v>
+        <v>3906</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70579,7 +70579,7 @@
         </is>
       </c>
       <c r="P975" t="n">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="Q975" t="n">
         <v>36</v>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E976" t="n">
         <v>13</v>
@@ -70629,16 +70629,16 @@
         </is>
       </c>
       <c r="J976" t="n">
-        <v>270</v>
+        <v>810</v>
       </c>
       <c r="K976" t="n">
-        <v>3000</v>
+        <v>3700</v>
       </c>
       <c r="L976" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M976" t="n">
-        <v>3000</v>
+        <v>3852</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70651,7 +70651,7 @@
         </is>
       </c>
       <c r="P976" t="n">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="Q976" t="n">
         <v>36</v>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E977" t="n">
         <v>13</v>
@@ -70701,16 +70701,16 @@
         </is>
       </c>
       <c r="J977" t="n">
-        <v>820</v>
+        <v>800</v>
       </c>
       <c r="K977" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L977" t="n">
-        <v>2600</v>
+        <v>3300</v>
       </c>
       <c r="M977" t="n">
-        <v>2485</v>
+        <v>3161</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70723,7 +70723,7 @@
         </is>
       </c>
       <c r="P977" t="n">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="Q977" t="n">
         <v>36</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E978" t="n">
         <v>13</v>
@@ -70773,16 +70773,16 @@
         </is>
       </c>
       <c r="J978" t="n">
-        <v>770</v>
+        <v>920</v>
       </c>
       <c r="K978" t="n">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="L978" t="n">
-        <v>2700</v>
+        <v>3200</v>
       </c>
       <c r="M978" t="n">
-        <v>2599</v>
+        <v>3047</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70795,7 +70795,7 @@
         </is>
       </c>
       <c r="P978" t="n">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="Q978" t="n">
         <v>36</v>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E979" t="n">
         <v>13</v>
@@ -70845,16 +70845,16 @@
         </is>
       </c>
       <c r="J979" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K979" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L979" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M979" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70867,7 +70867,7 @@
         </is>
       </c>
       <c r="P979" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="Q979" t="n">
         <v>36</v>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44390</v>
+        <v>44425</v>
       </c>
       <c r="E980" t="n">
         <v>13</v>
@@ -70917,16 +70917,16 @@
         </is>
       </c>
       <c r="J980" t="n">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="K980" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L980" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M980" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70939,7 +70939,7 @@
         </is>
       </c>
       <c r="P980" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="Q980" t="n">
         <v>36</v>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E981" t="n">
         <v>13</v>
@@ -70989,16 +70989,16 @@
         </is>
       </c>
       <c r="J981" t="n">
-        <v>490</v>
+        <v>420</v>
       </c>
       <c r="K981" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="L981" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M981" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71007,11 +71007,11 @@
       </c>
       <c r="O981" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P981" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="Q981" t="n">
         <v>36</v>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E982" t="n">
         <v>13</v>
@@ -71057,20 +71057,20 @@
       </c>
       <c r="I982" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J982" t="n">
-        <v>1140</v>
+        <v>270</v>
       </c>
       <c r="K982" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L982" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M982" t="n">
-        <v>2470</v>
+        <v>3000</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71083,7 +71083,7 @@
         </is>
       </c>
       <c r="P982" t="n">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="Q982" t="n">
         <v>36</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44187</v>
+        <v>44390</v>
       </c>
       <c r="E983" t="n">
         <v>13</v>
@@ -71129,20 +71129,20 @@
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J983" t="n">
-        <v>790</v>
+        <v>820</v>
       </c>
       <c r="K983" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L983" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="M983" t="n">
-        <v>2095</v>
+        <v>2485</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71151,11 +71151,11 @@
       </c>
       <c r="O983" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P983" t="n">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="Q983" t="n">
         <v>36</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -71201,20 +71201,20 @@
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J984" t="n">
-        <v>670</v>
+        <v>770</v>
       </c>
       <c r="K984" t="n">
-        <v>3200</v>
+        <v>2500</v>
       </c>
       <c r="L984" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="M984" t="n">
-        <v>3366</v>
+        <v>2599</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71223,11 +71223,11 @@
       </c>
       <c r="O984" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P984" t="n">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="Q984" t="n">
         <v>36</v>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E985" t="n">
         <v>13</v>
@@ -71273,20 +71273,20 @@
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J985" t="n">
-        <v>710</v>
+        <v>200</v>
       </c>
       <c r="K985" t="n">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="L985" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="M985" t="n">
-        <v>3365</v>
+        <v>2200</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71295,11 +71295,11 @@
       </c>
       <c r="O985" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P985" t="n">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="Q985" t="n">
         <v>36</v>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44466</v>
+        <v>44390</v>
       </c>
       <c r="E986" t="n">
         <v>13</v>
@@ -71345,20 +71345,20 @@
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J986" t="n">
-        <v>840</v>
+        <v>190</v>
       </c>
       <c r="K986" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="L986" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="M986" t="n">
-        <v>2657</v>
+        <v>2200</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71367,11 +71367,11 @@
       </c>
       <c r="O986" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P986" t="n">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="Q986" t="n">
         <v>36</v>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E987" t="n">
         <v>13</v>
@@ -71417,11 +71417,11 @@
       </c>
       <c r="I987" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J987" t="n">
-        <v>830</v>
+        <v>490</v>
       </c>
       <c r="K987" t="n">
         <v>2700</v>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E988" t="n">
         <v>13</v>
@@ -71489,20 +71489,20 @@
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J988" t="n">
-        <v>250</v>
+        <v>1140</v>
       </c>
       <c r="K988" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="L988" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M988" t="n">
-        <v>2200</v>
+        <v>2470</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71511,11 +71511,11 @@
       </c>
       <c r="O988" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P988" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="Q988" t="n">
         <v>36</v>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44466</v>
+        <v>44187</v>
       </c>
       <c r="E989" t="n">
         <v>13</v>
@@ -71565,16 +71565,16 @@
         </is>
       </c>
       <c r="J989" t="n">
-        <v>300</v>
+        <v>790</v>
       </c>
       <c r="K989" t="n">
         <v>2000</v>
       </c>
       <c r="L989" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="M989" t="n">
-        <v>2000</v>
+        <v>2095</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71587,7 +71587,7 @@
         </is>
       </c>
       <c r="P989" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q989" t="n">
         <v>36</v>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E990" t="n">
         <v>13</v>
@@ -71633,20 +71633,20 @@
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J990" t="n">
-        <v>810</v>
+        <v>670</v>
       </c>
       <c r="K990" t="n">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="L990" t="n">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="M990" t="n">
-        <v>3509</v>
+        <v>3366</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71659,7 +71659,7 @@
         </is>
       </c>
       <c r="P990" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q990" t="n">
         <v>36</v>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44270</v>
+        <v>44466</v>
       </c>
       <c r="E991" t="n">
         <v>13</v>
@@ -71705,20 +71705,20 @@
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J991" t="n">
-        <v>560</v>
+        <v>710</v>
       </c>
       <c r="K991" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="L991" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M991" t="n">
-        <v>2911</v>
+        <v>3365</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
@@ -71727,11 +71727,11 @@
       </c>
       <c r="O991" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P991" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="Q991" t="n">
         <v>36</v>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E992" t="n">
         <v>13</v>
@@ -71781,16 +71781,16 @@
         </is>
       </c>
       <c r="J992" t="n">
-        <v>770</v>
+        <v>840</v>
       </c>
       <c r="K992" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="L992" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="M992" t="n">
-        <v>3443</v>
+        <v>2657</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71803,7 +71803,7 @@
         </is>
       </c>
       <c r="P992" t="n">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="Q992" t="n">
         <v>36</v>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E993" t="n">
         <v>13</v>
@@ -71853,16 +71853,16 @@
         </is>
       </c>
       <c r="J993" t="n">
-        <v>370</v>
+        <v>830</v>
       </c>
       <c r="K993" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="L993" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="M993" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71875,7 +71875,7 @@
         </is>
       </c>
       <c r="P993" t="n">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="Q993" t="n">
         <v>36</v>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -71925,16 +71925,16 @@
         </is>
       </c>
       <c r="J994" t="n">
-        <v>540</v>
+        <v>250</v>
       </c>
       <c r="K994" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="L994" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="M994" t="n">
-        <v>2893</v>
+        <v>2200</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71947,7 +71947,7 @@
         </is>
       </c>
       <c r="P994" t="n">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="Q994" t="n">
         <v>36</v>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44250</v>
+        <v>44466</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -71997,16 +71997,16 @@
         </is>
       </c>
       <c r="J995" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K995" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L995" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M995" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
@@ -72019,7 +72019,7 @@
         </is>
       </c>
       <c r="P995" t="n">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="Q995" t="n">
         <v>36</v>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -72065,20 +72065,20 @@
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J996" t="n">
-        <v>350</v>
+        <v>810</v>
       </c>
       <c r="K996" t="n">
-        <v>4000</v>
+        <v>3400</v>
       </c>
       <c r="L996" t="n">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="M996" t="n">
-        <v>4000</v>
+        <v>3509</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72091,7 +72091,7 @@
         </is>
       </c>
       <c r="P996" t="n">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="Q996" t="n">
         <v>36</v>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44438</v>
+        <v>44270</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -72137,20 +72137,20 @@
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J997" t="n">
-        <v>270</v>
+        <v>560</v>
       </c>
       <c r="K997" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="L997" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M997" t="n">
-        <v>4000</v>
+        <v>2911</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72159,11 +72159,11 @@
       </c>
       <c r="O997" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P997" t="n">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="Q997" t="n">
         <v>36</v>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E998" t="n">
         <v>13</v>
@@ -72213,16 +72213,16 @@
         </is>
       </c>
       <c r="J998" t="n">
-        <v>800</v>
+        <v>770</v>
       </c>
       <c r="K998" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="L998" t="n">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="M998" t="n">
-        <v>3105</v>
+        <v>3443</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
@@ -72235,7 +72235,7 @@
         </is>
       </c>
       <c r="P998" t="n">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="Q998" t="n">
         <v>36</v>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E999" t="n">
         <v>13</v>
@@ -72285,16 +72285,16 @@
         </is>
       </c>
       <c r="J999" t="n">
-        <v>680</v>
+        <v>370</v>
       </c>
       <c r="K999" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L999" t="n">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="M999" t="n">
-        <v>3185</v>
+        <v>3500</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
@@ -72307,7 +72307,7 @@
         </is>
       </c>
       <c r="P999" t="n">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="Q999" t="n">
         <v>36</v>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1000" t="n">
         <v>13</v>
@@ -72357,16 +72357,16 @@
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>220</v>
+        <v>540</v>
       </c>
       <c r="K1000" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L1000" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M1000" t="n">
-        <v>2500</v>
+        <v>2893</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
@@ -72379,7 +72379,7 @@
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="Q1000" t="n">
         <v>36</v>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44438</v>
+        <v>44250</v>
       </c>
       <c r="E1001" t="n">
         <v>13</v>
@@ -72429,16 +72429,16 @@
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K1001" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L1001" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="M1001" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72451,7 +72451,7 @@
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="Q1001" t="n">
         <v>36</v>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1002" t="n">
         <v>13</v>
@@ -72501,16 +72501,16 @@
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>520</v>
+        <v>350</v>
       </c>
       <c r="K1002" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="L1002" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="M1002" t="n">
-        <v>3062</v>
+        <v>4000</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72519,11 +72519,11 @@
       </c>
       <c r="O1002" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="Q1002" t="n">
         <v>36</v>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1003" t="n">
         <v>13</v>
@@ -72569,20 +72569,20 @@
       </c>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>970</v>
+        <v>270</v>
       </c>
       <c r="K1003" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="L1003" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="M1003" t="n">
-        <v>2601</v>
+        <v>4000</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72595,7 +72595,7 @@
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="Q1003" t="n">
         <v>36</v>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44201</v>
+        <v>44438</v>
       </c>
       <c r="E1004" t="n">
         <v>13</v>
@@ -72641,20 +72641,20 @@
       </c>
       <c r="I1004" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="K1004" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L1004" t="n">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="M1004" t="n">
-        <v>2129</v>
+        <v>3105</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72663,11 +72663,11 @@
       </c>
       <c r="O1004" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="Q1004" t="n">
         <v>36</v>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E1005" t="n">
         <v>13</v>
@@ -72713,20 +72713,20 @@
       </c>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>650</v>
+        <v>680</v>
       </c>
       <c r="K1005" t="n">
         <v>3000</v>
       </c>
       <c r="L1005" t="n">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="M1005" t="n">
-        <v>3285</v>
+        <v>3185</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72735,11 +72735,11 @@
       </c>
       <c r="O1005" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q1005" t="n">
         <v>36</v>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E1006" t="n">
         <v>13</v>
@@ -72785,20 +72785,20 @@
       </c>
       <c r="I1006" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>660</v>
+        <v>220</v>
       </c>
       <c r="K1006" t="n">
-        <v>3200</v>
+        <v>2500</v>
       </c>
       <c r="L1006" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="M1006" t="n">
-        <v>3355</v>
+        <v>2500</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72807,11 +72807,11 @@
       </c>
       <c r="O1006" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="Q1006" t="n">
         <v>36</v>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44461</v>
+        <v>44438</v>
       </c>
       <c r="E1007" t="n">
         <v>13</v>
@@ -72857,20 +72857,20 @@
       </c>
       <c r="I1007" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>790</v>
+        <v>300</v>
       </c>
       <c r="K1007" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="L1007" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="M1007" t="n">
-        <v>2667</v>
+        <v>2400</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72879,11 +72879,11 @@
       </c>
       <c r="O1007" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="Q1007" t="n">
         <v>36</v>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E1008" t="n">
         <v>13</v>
@@ -72929,20 +72929,20 @@
       </c>
       <c r="I1008" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>750</v>
+        <v>520</v>
       </c>
       <c r="K1008" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L1008" t="n">
-        <v>2700</v>
+        <v>3200</v>
       </c>
       <c r="M1008" t="n">
-        <v>2601</v>
+        <v>3062</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72955,7 +72955,7 @@
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="Q1008" t="n">
         <v>36</v>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E1009" t="n">
         <v>13</v>
@@ -73001,20 +73001,20 @@
       </c>
       <c r="I1009" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>250</v>
+        <v>970</v>
       </c>
       <c r="K1009" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L1009" t="n">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="M1009" t="n">
-        <v>2200</v>
+        <v>2601</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
@@ -73023,11 +73023,11 @@
       </c>
       <c r="O1009" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="Q1009" t="n">
         <v>36</v>
@@ -73053,7 +73053,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44461</v>
+        <v>44201</v>
       </c>
       <c r="E1010" t="n">
         <v>13</v>
@@ -73077,16 +73077,16 @@
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>290</v>
+        <v>560</v>
       </c>
       <c r="K1010" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L1010" t="n">
         <v>2200</v>
       </c>
       <c r="M1010" t="n">
-        <v>2200</v>
+        <v>2129</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
@@ -73099,7 +73099,7 @@
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q1010" t="n">
         <v>36</v>
@@ -73125,7 +73125,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E1011" t="n">
         <v>13</v>
@@ -73149,16 +73149,16 @@
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>600</v>
+        <v>650</v>
       </c>
       <c r="K1011" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="L1011" t="n">
         <v>3500</v>
       </c>
       <c r="M1011" t="n">
-        <v>3473</v>
+        <v>3285</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
@@ -73167,11 +73167,11 @@
       </c>
       <c r="O1011" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="Q1011" t="n">
         <v>36</v>
@@ -73197,7 +73197,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E1012" t="n">
         <v>13</v>
@@ -73217,20 +73217,20 @@
       </c>
       <c r="I1012" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>1110</v>
+        <v>660</v>
       </c>
       <c r="K1012" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="L1012" t="n">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="M1012" t="n">
-        <v>3183</v>
+        <v>3355</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
@@ -73243,7 +73243,7 @@
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="Q1012" t="n">
         <v>36</v>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44193</v>
+        <v>44461</v>
       </c>
       <c r="E1013" t="n">
         <v>13</v>
@@ -73289,20 +73289,20 @@
       </c>
       <c r="I1013" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>690</v>
+        <v>790</v>
       </c>
       <c r="K1013" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="L1013" t="n">
         <v>2800</v>
       </c>
       <c r="M1013" t="n">
-        <v>2706</v>
+        <v>2667</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
@@ -73311,11 +73311,11 @@
       </c>
       <c r="O1013" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q1013" t="n">
         <v>36</v>
@@ -73341,7 +73341,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E1014" t="n">
         <v>13</v>
@@ -73365,16 +73365,16 @@
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="K1014" t="n">
-        <v>3300</v>
+        <v>2500</v>
       </c>
       <c r="L1014" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="M1014" t="n">
-        <v>3422</v>
+        <v>2601</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
@@ -73383,11 +73383,11 @@
       </c>
       <c r="O1014" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="Q1014" t="n">
         <v>36</v>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E1015" t="n">
         <v>13</v>
@@ -73433,20 +73433,20 @@
       </c>
       <c r="I1015" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>620</v>
+        <v>250</v>
       </c>
       <c r="K1015" t="n">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="L1015" t="n">
-        <v>3600</v>
+        <v>2200</v>
       </c>
       <c r="M1015" t="n">
-        <v>3519</v>
+        <v>2200</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73455,11 +73455,11 @@
       </c>
       <c r="O1015" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="Q1015" t="n">
         <v>36</v>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44286</v>
+        <v>44461</v>
       </c>
       <c r="E1016" t="n">
         <v>13</v>
@@ -73509,16 +73509,16 @@
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="K1016" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="L1016" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="M1016" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
@@ -73527,11 +73527,11 @@
       </c>
       <c r="O1016" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="Q1016" t="n">
         <v>36</v>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44286</v>
+        <v>44193</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -73577,20 +73577,20 @@
       </c>
       <c r="I1017" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>240</v>
+        <v>600</v>
       </c>
       <c r="K1017" t="n">
-        <v>2700</v>
+        <v>3400</v>
       </c>
       <c r="L1017" t="n">
-        <v>2700</v>
+        <v>3500</v>
       </c>
       <c r="M1017" t="n">
-        <v>2700</v>
+        <v>3473</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73603,7 +73603,7 @@
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="Q1017" t="n">
         <v>36</v>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E1018" t="n">
         <v>13</v>
@@ -73649,20 +73649,20 @@
       </c>
       <c r="I1018" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>440</v>
+        <v>1110</v>
       </c>
       <c r="K1018" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L1018" t="n">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="M1018" t="n">
-        <v>3500</v>
+        <v>3183</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
@@ -73671,11 +73671,11 @@
       </c>
       <c r="O1018" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="Q1018" t="n">
         <v>36</v>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44389</v>
+        <v>44193</v>
       </c>
       <c r="E1019" t="n">
         <v>13</v>
@@ -73721,20 +73721,20 @@
       </c>
       <c r="I1019" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>360</v>
+        <v>690</v>
       </c>
       <c r="K1019" t="n">
-        <v>3500</v>
+        <v>2600</v>
       </c>
       <c r="L1019" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="M1019" t="n">
-        <v>3500</v>
+        <v>2706</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73747,7 +73747,7 @@
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="Q1019" t="n">
         <v>36</v>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1020" t="n">
         <v>13</v>
@@ -73797,16 +73797,16 @@
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>760</v>
+        <v>720</v>
       </c>
       <c r="K1020" t="n">
-        <v>2800</v>
+        <v>3300</v>
       </c>
       <c r="L1020" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M1020" t="n">
-        <v>2892</v>
+        <v>3422</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73819,7 +73819,7 @@
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="Q1020" t="n">
         <v>36</v>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1021" t="n">
         <v>13</v>
@@ -73869,16 +73869,16 @@
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>810</v>
+        <v>620</v>
       </c>
       <c r="K1021" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="L1021" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="M1021" t="n">
-        <v>2904</v>
+        <v>3519</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73891,7 +73891,7 @@
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="Q1021" t="n">
         <v>36</v>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1022" t="n">
         <v>13</v>
@@ -73944,13 +73944,13 @@
         <v>200</v>
       </c>
       <c r="K1022" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="L1022" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="M1022" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73963,7 +73963,7 @@
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Q1022" t="n">
         <v>36</v>
@@ -73989,7 +73989,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44389</v>
+        <v>44286</v>
       </c>
       <c r="E1023" t="n">
         <v>13</v>
@@ -74013,16 +74013,16 @@
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="K1023" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="L1023" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="M1023" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
@@ -74035,7 +74035,7 @@
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Q1023" t="n">
         <v>36</v>
@@ -74061,7 +74061,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1024" t="n">
         <v>13</v>
@@ -74081,20 +74081,20 @@
       </c>
       <c r="I1024" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>760</v>
+        <v>440</v>
       </c>
       <c r="K1024" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="L1024" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M1024" t="n">
-        <v>2789</v>
+        <v>3500</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
@@ -74107,7 +74107,7 @@
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="Q1024" t="n">
         <v>36</v>
@@ -74133,7 +74133,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1025" t="n">
         <v>13</v>
@@ -74153,20 +74153,20 @@
       </c>
       <c r="I1025" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>860</v>
+        <v>360</v>
       </c>
       <c r="K1025" t="n">
-        <v>2400</v>
+        <v>3500</v>
       </c>
       <c r="L1025" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M1025" t="n">
-        <v>2628</v>
+        <v>3500</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
@@ -74179,7 +74179,7 @@
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="Q1025" t="n">
         <v>36</v>
@@ -74205,7 +74205,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1026" t="n">
         <v>13</v>
@@ -74225,20 +74225,20 @@
       </c>
       <c r="I1026" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>220</v>
+        <v>760</v>
       </c>
       <c r="K1026" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="L1026" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M1026" t="n">
-        <v>2000</v>
+        <v>2892</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
@@ -74251,7 +74251,7 @@
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="Q1026" t="n">
         <v>36</v>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44312</v>
+        <v>44389</v>
       </c>
       <c r="E1027" t="n">
         <v>13</v>
@@ -74297,20 +74297,20 @@
       </c>
       <c r="I1027" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>230</v>
+        <v>810</v>
       </c>
       <c r="K1027" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="L1027" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M1027" t="n">
-        <v>2000</v>
+        <v>2904</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
@@ -74323,7 +74323,7 @@
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="Q1027" t="n">
         <v>36</v>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E1028" t="n">
         <v>13</v>
@@ -74369,20 +74369,20 @@
       </c>
       <c r="I1028" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="K1028" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="L1028" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="M1028" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
@@ -74395,7 +74395,7 @@
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="Q1028" t="n">
         <v>36</v>
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44326</v>
+        <v>44389</v>
       </c>
       <c r="E1029" t="n">
         <v>13</v>
@@ -74441,20 +74441,20 @@
       </c>
       <c r="I1029" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="K1029" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L1029" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M1029" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
@@ -74467,7 +74467,7 @@
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="Q1029" t="n">
         <v>36</v>
@@ -74493,7 +74493,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1030" t="n">
         <v>13</v>
@@ -74517,16 +74517,16 @@
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>640</v>
+        <v>760</v>
       </c>
       <c r="K1030" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L1030" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M1030" t="n">
-        <v>2431</v>
+        <v>2789</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
@@ -74539,7 +74539,7 @@
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="Q1030" t="n">
         <v>36</v>
@@ -74565,7 +74565,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1031" t="n">
         <v>13</v>
@@ -74589,16 +74589,16 @@
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>670</v>
+        <v>860</v>
       </c>
       <c r="K1031" t="n">
         <v>2400</v>
       </c>
       <c r="L1031" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="M1031" t="n">
-        <v>2516</v>
+        <v>2628</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
@@ -74611,7 +74611,7 @@
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q1031" t="n">
         <v>36</v>
@@ -74637,7 +74637,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1032" t="n">
         <v>13</v>
@@ -74661,7 +74661,7 @@
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="K1032" t="n">
         <v>2000</v>
@@ -74709,7 +74709,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44326</v>
+        <v>44312</v>
       </c>
       <c r="E1033" t="n">
         <v>13</v>
@@ -74733,7 +74733,7 @@
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="K1033" t="n">
         <v>2000</v>
@@ -74781,7 +74781,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1034" t="n">
         <v>13</v>
@@ -74805,16 +74805,16 @@
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>710</v>
+        <v>330</v>
       </c>
       <c r="K1034" t="n">
-        <v>3700</v>
+        <v>2800</v>
       </c>
       <c r="L1034" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="M1034" t="n">
-        <v>3861</v>
+        <v>2800</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
@@ -74827,7 +74827,7 @@
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="Q1034" t="n">
         <v>36</v>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1035" t="n">
         <v>13</v>
@@ -74877,16 +74877,16 @@
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>640</v>
+        <v>270</v>
       </c>
       <c r="K1035" t="n">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="L1035" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M1035" t="n">
-        <v>3912</v>
+        <v>3000</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
@@ -74899,7 +74899,7 @@
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="Q1035" t="n">
         <v>36</v>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1036" t="n">
         <v>13</v>
@@ -74949,16 +74949,16 @@
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>840</v>
+        <v>640</v>
       </c>
       <c r="K1036" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="L1036" t="n">
-        <v>3200</v>
+        <v>2500</v>
       </c>
       <c r="M1036" t="n">
-        <v>3105</v>
+        <v>2431</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
@@ -74971,7 +74971,7 @@
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="Q1036" t="n">
         <v>36</v>
@@ -74997,7 +74997,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1037" t="n">
         <v>13</v>
@@ -75021,16 +75021,16 @@
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>860</v>
+        <v>670</v>
       </c>
       <c r="K1037" t="n">
-        <v>2900</v>
+        <v>2400</v>
       </c>
       <c r="L1037" t="n">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="M1037" t="n">
-        <v>3043</v>
+        <v>2516</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
@@ -75043,7 +75043,7 @@
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="Q1037" t="n">
         <v>36</v>
@@ -75069,7 +75069,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44432</v>
+        <v>44326</v>
       </c>
       <c r="E1038" t="n">
         <v>13</v>
@@ -75096,13 +75096,13 @@
         <v>250</v>
       </c>
       <c r="K1038" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="L1038" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="M1038" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
@@ -75115,7 +75115,7 @@
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="Q1038" t="n">
         <v>36</v>
@@ -75141,58 +75141,490 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
+        <v>44326</v>
+      </c>
+      <c r="E1039" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1039" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1039" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1039" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1039" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1039" t="n">
+        <v>240</v>
+      </c>
+      <c r="K1039" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L1039" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M1039" t="n">
+        <v>2000</v>
+      </c>
+      <c r="N1039" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1039" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1039" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q1039" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1039" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1040" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1040" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1040" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="E1039" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1039" t="n">
-        <v>100112037</v>
-      </c>
-      <c r="G1039" t="inlineStr">
-        <is>
-          <t>Cebollín</t>
-        </is>
-      </c>
-      <c r="H1039" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I1039" t="inlineStr">
+      <c r="E1040" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1040" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1040" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1040" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1040" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1040" t="n">
+        <v>710</v>
+      </c>
+      <c r="K1040" t="n">
+        <v>3700</v>
+      </c>
+      <c r="L1040" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M1040" t="n">
+        <v>3861</v>
+      </c>
+      <c r="N1040" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1040" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P1040" t="n">
+        <v>107</v>
+      </c>
+      <c r="Q1040" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1040" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1041" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1041" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1041" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1041" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1041" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1041" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1041" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1041" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1041" t="n">
+        <v>640</v>
+      </c>
+      <c r="K1041" t="n">
+        <v>3800</v>
+      </c>
+      <c r="L1041" t="n">
+        <v>4000</v>
+      </c>
+      <c r="M1041" t="n">
+        <v>3912</v>
+      </c>
+      <c r="N1041" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1041" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1041" t="n">
+        <v>109</v>
+      </c>
+      <c r="Q1041" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1041" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1042" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1042" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1042" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1042" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1042" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1042" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1042" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1042" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1042" t="n">
+        <v>840</v>
+      </c>
+      <c r="K1042" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L1042" t="n">
+        <v>3200</v>
+      </c>
+      <c r="M1042" t="n">
+        <v>3105</v>
+      </c>
+      <c r="N1042" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1042" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P1042" t="n">
+        <v>86</v>
+      </c>
+      <c r="Q1042" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1042" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1043" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1043" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1043" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1043" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1043" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1043" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1043" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1043" t="n">
+        <v>860</v>
+      </c>
+      <c r="K1043" t="n">
+        <v>2900</v>
+      </c>
+      <c r="L1043" t="n">
+        <v>3200</v>
+      </c>
+      <c r="M1043" t="n">
+        <v>3043</v>
+      </c>
+      <c r="N1043" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1043" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1043" t="n">
+        <v>85</v>
+      </c>
+      <c r="Q1043" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1043" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1044" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1044" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1044" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1044" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1044" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1044" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1044" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1039" t="n">
+      <c r="J1044" t="n">
+        <v>250</v>
+      </c>
+      <c r="K1044" t="n">
+        <v>2400</v>
+      </c>
+      <c r="L1044" t="n">
+        <v>2400</v>
+      </c>
+      <c r="M1044" t="n">
+        <v>2400</v>
+      </c>
+      <c r="N1044" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1044" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P1044" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q1044" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1044" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1045" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1045" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1045" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E1045" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1045" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1045" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1045" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1045" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1045" t="n">
         <v>290</v>
       </c>
-      <c r="K1039" t="n">
+      <c r="K1045" t="n">
         <v>2300</v>
       </c>
-      <c r="L1039" t="n">
+      <c r="L1045" t="n">
         <v>2300</v>
       </c>
-      <c r="M1039" t="n">
+      <c r="M1045" t="n">
         <v>2300</v>
       </c>
-      <c r="N1039" t="inlineStr">
-        <is>
-          <t>$/paquete 36 unidades</t>
-        </is>
-      </c>
-      <c r="O1039" t="inlineStr">
+      <c r="N1045" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1045" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P1039" t="n">
+      <c r="P1045" t="n">
         <v>64</v>
       </c>
-      <c r="Q1039" t="n">
-        <v>36</v>
-      </c>
-      <c r="R1039" t="inlineStr">
+      <c r="Q1045" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1045" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cebollín.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cebollín.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1081"/>
+  <dimension ref="A1:R1087"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E916" t="n">
         <v>13</v>
@@ -66312,13 +66312,13 @@
         <v>770</v>
       </c>
       <c r="K916" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="L916" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M916" t="n">
-        <v>2914</v>
+        <v>2348</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66331,7 +66331,7 @@
         </is>
       </c>
       <c r="P916" t="n">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="Q916" t="n">
         <v>36</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E917" t="n">
         <v>13</v>
@@ -66381,16 +66381,16 @@
         </is>
       </c>
       <c r="J917" t="n">
-        <v>900</v>
+        <v>810</v>
       </c>
       <c r="K917" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="L917" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M917" t="n">
-        <v>2857</v>
+        <v>2304</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66403,7 +66403,7 @@
         </is>
       </c>
       <c r="P917" t="n">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="Q917" t="n">
         <v>36</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E918" t="n">
         <v>13</v>
@@ -66456,13 +66456,13 @@
         <v>920</v>
       </c>
       <c r="K918" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="L918" t="n">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="M918" t="n">
-        <v>2413</v>
+        <v>2049</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66475,7 +66475,7 @@
         </is>
       </c>
       <c r="P918" t="n">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="Q918" t="n">
         <v>36</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E919" t="n">
         <v>13</v>
@@ -66525,16 +66525,16 @@
         </is>
       </c>
       <c r="J919" t="n">
-        <v>1010</v>
+        <v>890</v>
       </c>
       <c r="K919" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="L919" t="n">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="M919" t="n">
-        <v>2389</v>
+        <v>2052</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66547,7 +66547,7 @@
         </is>
       </c>
       <c r="P919" t="n">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="Q919" t="n">
         <v>36</v>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E920" t="n">
         <v>13</v>
@@ -66600,13 +66600,13 @@
         <v>300</v>
       </c>
       <c r="K920" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="L920" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="M920" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66619,7 +66619,7 @@
         </is>
       </c>
       <c r="P920" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q920" t="n">
         <v>36</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E921" t="n">
         <v>13</v>
@@ -66669,16 +66669,16 @@
         </is>
       </c>
       <c r="J921" t="n">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="K921" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="L921" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="M921" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66691,7 +66691,7 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="Q921" t="n">
         <v>36</v>
@@ -66737,20 +66737,20 @@
       </c>
       <c r="I922" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J922" t="n">
-        <v>310</v>
+        <v>770</v>
       </c>
       <c r="K922" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="L922" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="M922" t="n">
-        <v>1800</v>
+        <v>2914</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66759,11 +66759,11 @@
       </c>
       <c r="O922" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P922" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="Q922" t="n">
         <v>36</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E923" t="n">
         <v>13</v>
@@ -66813,16 +66813,16 @@
         </is>
       </c>
       <c r="J923" t="n">
-        <v>410</v>
+        <v>900</v>
       </c>
       <c r="K923" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="L923" t="n">
         <v>3000</v>
       </c>
       <c r="M923" t="n">
-        <v>2912</v>
+        <v>2857</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66831,11 +66831,11 @@
       </c>
       <c r="O923" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P923" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q923" t="n">
         <v>36</v>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E924" t="n">
         <v>13</v>
@@ -66885,7 +66885,7 @@
         </is>
       </c>
       <c r="J924" t="n">
-        <v>490</v>
+        <v>920</v>
       </c>
       <c r="K924" t="n">
         <v>2300</v>
@@ -66894,7 +66894,7 @@
         <v>2500</v>
       </c>
       <c r="M924" t="n">
-        <v>2406</v>
+        <v>2413</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E925" t="n">
         <v>13</v>
@@ -66953,20 +66953,20 @@
       </c>
       <c r="I925" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J925" t="n">
-        <v>270</v>
+        <v>1010</v>
       </c>
       <c r="K925" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="L925" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M925" t="n">
-        <v>1911</v>
+        <v>2389</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66975,11 +66975,11 @@
       </c>
       <c r="O925" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P925" t="n">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="Q925" t="n">
         <v>36</v>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44246</v>
+        <v>44481</v>
       </c>
       <c r="E926" t="n">
         <v>13</v>
@@ -67025,20 +67025,20 @@
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J926" t="n">
-        <v>810</v>
+        <v>300</v>
       </c>
       <c r="K926" t="n">
-        <v>2600</v>
+        <v>1800</v>
       </c>
       <c r="L926" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="M926" t="n">
-        <v>2646</v>
+        <v>1800</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67051,7 +67051,7 @@
         </is>
       </c>
       <c r="P926" t="n">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="Q926" t="n">
         <v>36</v>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44246</v>
+        <v>44481</v>
       </c>
       <c r="E927" t="n">
         <v>13</v>
@@ -67097,20 +67097,20 @@
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J927" t="n">
-        <v>720</v>
+        <v>310</v>
       </c>
       <c r="K927" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L927" t="n">
-        <v>2600</v>
+        <v>1800</v>
       </c>
       <c r="M927" t="n">
-        <v>2546</v>
+        <v>1800</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67123,7 +67123,7 @@
         </is>
       </c>
       <c r="P927" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="Q927" t="n">
         <v>36</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44246</v>
+        <v>44481</v>
       </c>
       <c r="E928" t="n">
         <v>13</v>
@@ -67173,16 +67173,16 @@
         </is>
       </c>
       <c r="J928" t="n">
-        <v>470</v>
+        <v>310</v>
       </c>
       <c r="K928" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="L928" t="n">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="M928" t="n">
-        <v>2253</v>
+        <v>1800</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67191,11 +67191,11 @@
       </c>
       <c r="O928" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P928" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="Q928" t="n">
         <v>36</v>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E929" t="n">
         <v>13</v>
@@ -67241,20 +67241,20 @@
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>250</v>
+        <v>410</v>
       </c>
       <c r="K929" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="L929" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M929" t="n">
-        <v>2200</v>
+        <v>2912</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67263,11 +67263,11 @@
       </c>
       <c r="O929" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P929" t="n">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="Q929" t="n">
         <v>36</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44487</v>
+        <v>44384</v>
       </c>
       <c r="E930" t="n">
         <v>13</v>
@@ -67313,20 +67313,20 @@
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J930" t="n">
-        <v>770</v>
+        <v>490</v>
       </c>
       <c r="K930" t="n">
+        <v>2300</v>
+      </c>
+      <c r="L930" t="n">
         <v>2500</v>
       </c>
-      <c r="L930" t="n">
-        <v>2700</v>
-      </c>
       <c r="M930" t="n">
-        <v>2614</v>
+        <v>2406</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67339,7 +67339,7 @@
         </is>
       </c>
       <c r="P930" t="n">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="Q930" t="n">
         <v>36</v>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44487</v>
+        <v>44384</v>
       </c>
       <c r="E931" t="n">
         <v>13</v>
@@ -67385,20 +67385,20 @@
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J931" t="n">
-        <v>670</v>
+        <v>270</v>
       </c>
       <c r="K931" t="n">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="L931" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="M931" t="n">
-        <v>2561</v>
+        <v>1911</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67407,11 +67407,11 @@
       </c>
       <c r="O931" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P931" t="n">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="Q931" t="n">
         <v>36</v>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E932" t="n">
         <v>13</v>
@@ -67461,16 +67461,16 @@
         </is>
       </c>
       <c r="J932" t="n">
-        <v>610</v>
+        <v>810</v>
       </c>
       <c r="K932" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="L932" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="M932" t="n">
-        <v>2172</v>
+        <v>2646</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67483,7 +67483,7 @@
         </is>
       </c>
       <c r="P932" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="Q932" t="n">
         <v>36</v>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E933" t="n">
         <v>13</v>
@@ -67533,16 +67533,16 @@
         </is>
       </c>
       <c r="J933" t="n">
-        <v>530</v>
+        <v>720</v>
       </c>
       <c r="K933" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L933" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="M933" t="n">
-        <v>2109</v>
+        <v>2546</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67555,7 +67555,7 @@
         </is>
       </c>
       <c r="P933" t="n">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="Q933" t="n">
         <v>36</v>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E934" t="n">
         <v>13</v>
@@ -67605,16 +67605,16 @@
         </is>
       </c>
       <c r="J934" t="n">
-        <v>220</v>
+        <v>470</v>
       </c>
       <c r="K934" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="L934" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="M934" t="n">
-        <v>1800</v>
+        <v>2253</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67627,7 +67627,7 @@
         </is>
       </c>
       <c r="P934" t="n">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="Q934" t="n">
         <v>36</v>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44487</v>
+        <v>44246</v>
       </c>
       <c r="E935" t="n">
         <v>13</v>
@@ -67677,16 +67677,16 @@
         </is>
       </c>
       <c r="J935" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="K935" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="L935" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="M935" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67699,7 +67699,7 @@
         </is>
       </c>
       <c r="P935" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="Q935" t="n">
         <v>36</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E936" t="n">
         <v>13</v>
@@ -67749,16 +67749,16 @@
         </is>
       </c>
       <c r="J936" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="K936" t="n">
-        <v>3800</v>
+        <v>2500</v>
       </c>
       <c r="L936" t="n">
-        <v>4000</v>
+        <v>2700</v>
       </c>
       <c r="M936" t="n">
-        <v>3906</v>
+        <v>2614</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67771,7 +67771,7 @@
         </is>
       </c>
       <c r="P936" t="n">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="Q936" t="n">
         <v>36</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E937" t="n">
         <v>13</v>
@@ -67821,16 +67821,16 @@
         </is>
       </c>
       <c r="J937" t="n">
-        <v>810</v>
+        <v>670</v>
       </c>
       <c r="K937" t="n">
-        <v>3700</v>
+        <v>2400</v>
       </c>
       <c r="L937" t="n">
-        <v>4000</v>
+        <v>2700</v>
       </c>
       <c r="M937" t="n">
-        <v>3852</v>
+        <v>2561</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67843,7 +67843,7 @@
         </is>
       </c>
       <c r="P937" t="n">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="Q937" t="n">
         <v>36</v>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E938" t="n">
         <v>13</v>
@@ -67893,16 +67893,16 @@
         </is>
       </c>
       <c r="J938" t="n">
-        <v>800</v>
+        <v>610</v>
       </c>
       <c r="K938" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L938" t="n">
-        <v>3300</v>
+        <v>2300</v>
       </c>
       <c r="M938" t="n">
-        <v>3161</v>
+        <v>2172</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67915,7 +67915,7 @@
         </is>
       </c>
       <c r="P938" t="n">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="Q938" t="n">
         <v>36</v>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E939" t="n">
         <v>13</v>
@@ -67965,16 +67965,16 @@
         </is>
       </c>
       <c r="J939" t="n">
-        <v>920</v>
+        <v>530</v>
       </c>
       <c r="K939" t="n">
-        <v>2900</v>
+        <v>2000</v>
       </c>
       <c r="L939" t="n">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="M939" t="n">
-        <v>3047</v>
+        <v>2109</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67987,7 +67987,7 @@
         </is>
       </c>
       <c r="P939" t="n">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="Q939" t="n">
         <v>36</v>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E940" t="n">
         <v>13</v>
@@ -68037,16 +68037,16 @@
         </is>
       </c>
       <c r="J940" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="K940" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L940" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="M940" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68059,7 +68059,7 @@
         </is>
       </c>
       <c r="P940" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="Q940" t="n">
         <v>36</v>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E941" t="n">
         <v>13</v>
@@ -68109,16 +68109,16 @@
         </is>
       </c>
       <c r="J941" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="K941" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L941" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="M941" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68131,7 +68131,7 @@
         </is>
       </c>
       <c r="P941" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="Q941" t="n">
         <v>36</v>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E942" t="n">
         <v>13</v>
@@ -68181,16 +68181,16 @@
         </is>
       </c>
       <c r="J942" t="n">
-        <v>450</v>
+        <v>720</v>
       </c>
       <c r="K942" t="n">
-        <v>2800</v>
+        <v>3800</v>
       </c>
       <c r="L942" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="M942" t="n">
-        <v>2800</v>
+        <v>3906</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68203,7 +68203,7 @@
         </is>
       </c>
       <c r="P942" t="n">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="Q942" t="n">
         <v>36</v>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E943" t="n">
         <v>13</v>
@@ -68253,16 +68253,16 @@
         </is>
       </c>
       <c r="J943" t="n">
-        <v>340</v>
+        <v>810</v>
       </c>
       <c r="K943" t="n">
-        <v>2900</v>
+        <v>3700</v>
       </c>
       <c r="L943" t="n">
-        <v>2900</v>
+        <v>4000</v>
       </c>
       <c r="M943" t="n">
-        <v>2900</v>
+        <v>3852</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68275,7 +68275,7 @@
         </is>
       </c>
       <c r="P943" t="n">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="Q943" t="n">
         <v>36</v>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E944" t="n">
         <v>13</v>
@@ -68325,16 +68325,16 @@
         </is>
       </c>
       <c r="J944" t="n">
-        <v>640</v>
+        <v>800</v>
       </c>
       <c r="K944" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="L944" t="n">
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="M944" t="n">
-        <v>2419</v>
+        <v>3161</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68347,7 +68347,7 @@
         </is>
       </c>
       <c r="P944" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="Q944" t="n">
         <v>36</v>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E945" t="n">
         <v>13</v>
@@ -68397,16 +68397,16 @@
         </is>
       </c>
       <c r="J945" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="K945" t="n">
-        <v>2400</v>
+        <v>2900</v>
       </c>
       <c r="L945" t="n">
-        <v>2600</v>
+        <v>3200</v>
       </c>
       <c r="M945" t="n">
-        <v>2517</v>
+        <v>3047</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68419,7 +68419,7 @@
         </is>
       </c>
       <c r="P945" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="Q945" t="n">
         <v>36</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E946" t="n">
         <v>13</v>
@@ -68469,16 +68469,16 @@
         </is>
       </c>
       <c r="J946" t="n">
-        <v>470</v>
+        <v>250</v>
       </c>
       <c r="K946" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L946" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M946" t="n">
-        <v>1906</v>
+        <v>2500</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68491,7 +68491,7 @@
         </is>
       </c>
       <c r="P946" t="n">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="Q946" t="n">
         <v>36</v>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E947" t="n">
         <v>13</v>
@@ -68541,16 +68541,16 @@
         </is>
       </c>
       <c r="J947" t="n">
-        <v>430</v>
+        <v>320</v>
       </c>
       <c r="K947" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L947" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M947" t="n">
-        <v>1921</v>
+        <v>2500</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68563,7 +68563,7 @@
         </is>
       </c>
       <c r="P947" t="n">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="Q947" t="n">
         <v>36</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E948" t="n">
         <v>13</v>
@@ -68613,16 +68613,16 @@
         </is>
       </c>
       <c r="J948" t="n">
-        <v>320</v>
+        <v>450</v>
       </c>
       <c r="K948" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L948" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M948" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68635,7 +68635,7 @@
         </is>
       </c>
       <c r="P948" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Q948" t="n">
         <v>36</v>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E949" t="n">
         <v>13</v>
@@ -68685,16 +68685,16 @@
         </is>
       </c>
       <c r="J949" t="n">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="K949" t="n">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="L949" t="n">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="M949" t="n">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68707,7 +68707,7 @@
         </is>
       </c>
       <c r="P949" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q949" t="n">
         <v>36</v>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E950" t="n">
         <v>13</v>
@@ -68757,16 +68757,16 @@
         </is>
       </c>
       <c r="J950" t="n">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="K950" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="L950" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="M950" t="n">
-        <v>2518</v>
+        <v>2419</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68779,7 +68779,7 @@
         </is>
       </c>
       <c r="P950" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q950" t="n">
         <v>36</v>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E951" t="n">
         <v>13</v>
@@ -68829,7 +68829,7 @@
         </is>
       </c>
       <c r="J951" t="n">
-        <v>860</v>
+        <v>720</v>
       </c>
       <c r="K951" t="n">
         <v>2400</v>
@@ -68838,7 +68838,7 @@
         <v>2600</v>
       </c>
       <c r="M951" t="n">
-        <v>2498</v>
+        <v>2517</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68851,7 +68851,7 @@
         </is>
       </c>
       <c r="P951" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q951" t="n">
         <v>36</v>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E952" t="n">
         <v>13</v>
@@ -68901,16 +68901,16 @@
         </is>
       </c>
       <c r="J952" t="n">
-        <v>250</v>
+        <v>470</v>
       </c>
       <c r="K952" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="L952" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="M952" t="n">
-        <v>2200</v>
+        <v>1906</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68923,7 +68923,7 @@
         </is>
       </c>
       <c r="P952" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="Q952" t="n">
         <v>36</v>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E953" t="n">
         <v>13</v>
@@ -68973,16 +68973,16 @@
         </is>
       </c>
       <c r="J953" t="n">
-        <v>320</v>
+        <v>430</v>
       </c>
       <c r="K953" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="L953" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="M953" t="n">
-        <v>2200</v>
+        <v>1921</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68995,7 +68995,7 @@
         </is>
       </c>
       <c r="P953" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="Q953" t="n">
         <v>36</v>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E954" t="n">
         <v>13</v>
@@ -69045,16 +69045,16 @@
         </is>
       </c>
       <c r="J954" t="n">
-        <v>670</v>
+        <v>320</v>
       </c>
       <c r="K954" t="n">
         <v>3000</v>
       </c>
       <c r="L954" t="n">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="M954" t="n">
-        <v>3166</v>
+        <v>3000</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69067,7 +69067,7 @@
         </is>
       </c>
       <c r="P954" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="Q954" t="n">
         <v>36</v>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E955" t="n">
         <v>13</v>
@@ -69117,16 +69117,16 @@
         </is>
       </c>
       <c r="J955" t="n">
-        <v>680</v>
+        <v>370</v>
       </c>
       <c r="K955" t="n">
         <v>3000</v>
       </c>
       <c r="L955" t="n">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="M955" t="n">
-        <v>3172</v>
+        <v>3000</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69139,7 +69139,7 @@
         </is>
       </c>
       <c r="P955" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="Q955" t="n">
         <v>36</v>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E956" t="n">
         <v>13</v>
@@ -69189,7 +69189,7 @@
         </is>
       </c>
       <c r="J956" t="n">
-        <v>850</v>
+        <v>660</v>
       </c>
       <c r="K956" t="n">
         <v>2400</v>
@@ -69198,7 +69198,7 @@
         <v>2600</v>
       </c>
       <c r="M956" t="n">
-        <v>2506</v>
+        <v>2518</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E957" t="n">
         <v>13</v>
@@ -69261,7 +69261,7 @@
         </is>
       </c>
       <c r="J957" t="n">
-        <v>790</v>
+        <v>860</v>
       </c>
       <c r="K957" t="n">
         <v>2400</v>
@@ -69270,7 +69270,7 @@
         <v>2600</v>
       </c>
       <c r="M957" t="n">
-        <v>2511</v>
+        <v>2498</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69283,7 +69283,7 @@
         </is>
       </c>
       <c r="P957" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q957" t="n">
         <v>36</v>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E958" t="n">
         <v>13</v>
@@ -69336,13 +69336,13 @@
         <v>250</v>
       </c>
       <c r="K958" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="L958" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="M958" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69355,7 +69355,7 @@
         </is>
       </c>
       <c r="P958" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="Q958" t="n">
         <v>36</v>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E959" t="n">
         <v>13</v>
@@ -69405,16 +69405,16 @@
         </is>
       </c>
       <c r="J959" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="K959" t="n">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="L959" t="n">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="M959" t="n">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69427,7 +69427,7 @@
         </is>
       </c>
       <c r="P959" t="n">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="Q959" t="n">
         <v>36</v>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E960" t="n">
         <v>13</v>
@@ -69477,16 +69477,16 @@
         </is>
       </c>
       <c r="J960" t="n">
-        <v>490</v>
+        <v>670</v>
       </c>
       <c r="K960" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="L960" t="n">
-        <v>2800</v>
+        <v>3300</v>
       </c>
       <c r="M960" t="n">
-        <v>2743</v>
+        <v>3166</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69495,11 +69495,11 @@
       </c>
       <c r="O960" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P960" t="n">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="Q960" t="n">
         <v>36</v>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E961" t="n">
         <v>13</v>
@@ -69545,20 +69545,20 @@
       </c>
       <c r="I961" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J961" t="n">
-        <v>850</v>
+        <v>680</v>
       </c>
       <c r="K961" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L961" t="n">
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="M961" t="n">
-        <v>2479</v>
+        <v>3172</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69571,7 +69571,7 @@
         </is>
       </c>
       <c r="P961" t="n">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="Q961" t="n">
         <v>36</v>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E962" t="n">
         <v>13</v>
@@ -69617,20 +69617,20 @@
       </c>
       <c r="I962" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J962" t="n">
-        <v>580</v>
+        <v>850</v>
       </c>
       <c r="K962" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L962" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="M962" t="n">
-        <v>2066</v>
+        <v>2506</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69639,11 +69639,11 @@
       </c>
       <c r="O962" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P962" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="Q962" t="n">
         <v>36</v>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E963" t="n">
         <v>13</v>
@@ -69689,20 +69689,20 @@
       </c>
       <c r="I963" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J963" t="n">
-        <v>440</v>
+        <v>790</v>
       </c>
       <c r="K963" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="L963" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="M963" t="n">
-        <v>2800</v>
+        <v>2511</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69715,7 +69715,7 @@
         </is>
       </c>
       <c r="P963" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="Q963" t="n">
         <v>36</v>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E964" t="n">
         <v>13</v>
@@ -69761,20 +69761,20 @@
       </c>
       <c r="I964" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J964" t="n">
-        <v>730</v>
+        <v>250</v>
       </c>
       <c r="K964" t="n">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="L964" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="M964" t="n">
-        <v>2401</v>
+        <v>1800</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69783,11 +69783,11 @@
       </c>
       <c r="O964" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P964" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="Q964" t="n">
         <v>36</v>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E965" t="n">
         <v>13</v>
@@ -69837,16 +69837,16 @@
         </is>
       </c>
       <c r="J965" t="n">
-        <v>550</v>
+        <v>310</v>
       </c>
       <c r="K965" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="L965" t="n">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="M965" t="n">
-        <v>2091</v>
+        <v>1900</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69859,7 +69859,7 @@
         </is>
       </c>
       <c r="P965" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="Q965" t="n">
         <v>36</v>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E966" t="n">
         <v>13</v>
@@ -69909,16 +69909,16 @@
         </is>
       </c>
       <c r="J966" t="n">
-        <v>440</v>
+        <v>490</v>
       </c>
       <c r="K966" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="L966" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M966" t="n">
-        <v>3000</v>
+        <v>2743</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69927,11 +69927,11 @@
       </c>
       <c r="O966" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P966" t="n">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="Q966" t="n">
         <v>36</v>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E967" t="n">
         <v>13</v>
@@ -69977,20 +69977,20 @@
       </c>
       <c r="I967" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J967" t="n">
-        <v>380</v>
+        <v>850</v>
       </c>
       <c r="K967" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L967" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M967" t="n">
-        <v>3000</v>
+        <v>2479</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -70003,7 +70003,7 @@
         </is>
       </c>
       <c r="P967" t="n">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="Q967" t="n">
         <v>36</v>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E968" t="n">
         <v>13</v>
@@ -70049,20 +70049,20 @@
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J968" t="n">
-        <v>810</v>
+        <v>580</v>
       </c>
       <c r="K968" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L968" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="M968" t="n">
-        <v>2616</v>
+        <v>2066</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
@@ -70071,11 +70071,11 @@
       </c>
       <c r="O968" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P968" t="n">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="Q968" t="n">
         <v>36</v>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E969" t="n">
         <v>13</v>
@@ -70121,20 +70121,20 @@
       </c>
       <c r="I969" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J969" t="n">
-        <v>710</v>
+        <v>440</v>
       </c>
       <c r="K969" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="L969" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="M969" t="n">
-        <v>2515</v>
+        <v>2800</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70147,7 +70147,7 @@
         </is>
       </c>
       <c r="P969" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="Q969" t="n">
         <v>36</v>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E970" t="n">
         <v>13</v>
@@ -70193,20 +70193,20 @@
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J970" t="n">
-        <v>260</v>
+        <v>730</v>
       </c>
       <c r="K970" t="n">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="L970" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M970" t="n">
-        <v>2200</v>
+        <v>2401</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70215,11 +70215,11 @@
       </c>
       <c r="O970" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P970" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="Q970" t="n">
         <v>36</v>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E971" t="n">
         <v>13</v>
@@ -70269,16 +70269,16 @@
         </is>
       </c>
       <c r="J971" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="K971" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L971" t="n">
         <v>2200</v>
       </c>
       <c r="M971" t="n">
-        <v>2200</v>
+        <v>2091</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70291,7 +70291,7 @@
         </is>
       </c>
       <c r="P971" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q971" t="n">
         <v>36</v>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E972" t="n">
         <v>13</v>
@@ -70337,20 +70337,20 @@
       </c>
       <c r="I972" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J972" t="n">
-        <v>720</v>
+        <v>440</v>
       </c>
       <c r="K972" t="n">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="L972" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M972" t="n">
-        <v>3422</v>
+        <v>3000</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
@@ -70363,7 +70363,7 @@
         </is>
       </c>
       <c r="P972" t="n">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="Q972" t="n">
         <v>36</v>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E973" t="n">
         <v>13</v>
@@ -70409,20 +70409,20 @@
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J973" t="n">
-        <v>620</v>
+        <v>380</v>
       </c>
       <c r="K973" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="L973" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="M973" t="n">
-        <v>3519</v>
+        <v>3000</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70435,7 +70435,7 @@
         </is>
       </c>
       <c r="P973" t="n">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="Q973" t="n">
         <v>36</v>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E974" t="n">
         <v>13</v>
@@ -70481,20 +70481,20 @@
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J974" t="n">
-        <v>200</v>
+        <v>810</v>
       </c>
       <c r="K974" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L974" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="M974" t="n">
-        <v>2800</v>
+        <v>2616</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70507,7 +70507,7 @@
         </is>
       </c>
       <c r="P974" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="Q974" t="n">
         <v>36</v>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E975" t="n">
         <v>13</v>
@@ -70553,20 +70553,20 @@
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J975" t="n">
-        <v>240</v>
+        <v>710</v>
       </c>
       <c r="K975" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="L975" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="M975" t="n">
-        <v>2700</v>
+        <v>2515</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70579,7 +70579,7 @@
         </is>
       </c>
       <c r="P975" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Q975" t="n">
         <v>36</v>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E976" t="n">
         <v>13</v>
@@ -70625,20 +70625,20 @@
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J976" t="n">
-        <v>740</v>
+        <v>260</v>
       </c>
       <c r="K976" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="L976" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="M976" t="n">
-        <v>2854</v>
+        <v>2200</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70651,7 +70651,7 @@
         </is>
       </c>
       <c r="P976" t="n">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="Q976" t="n">
         <v>36</v>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E977" t="n">
         <v>13</v>
@@ -70697,20 +70697,20 @@
       </c>
       <c r="I977" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J977" t="n">
-        <v>620</v>
+        <v>250</v>
       </c>
       <c r="K977" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="L977" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="M977" t="n">
-        <v>2869</v>
+        <v>2200</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70723,7 +70723,7 @@
         </is>
       </c>
       <c r="P977" t="n">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="Q977" t="n">
         <v>36</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E978" t="n">
         <v>13</v>
@@ -70773,16 +70773,16 @@
         </is>
       </c>
       <c r="J978" t="n">
-        <v>820</v>
+        <v>720</v>
       </c>
       <c r="K978" t="n">
-        <v>2200</v>
+        <v>3300</v>
       </c>
       <c r="L978" t="n">
-        <v>2400</v>
+        <v>3500</v>
       </c>
       <c r="M978" t="n">
-        <v>2305</v>
+        <v>3422</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70795,7 +70795,7 @@
         </is>
       </c>
       <c r="P978" t="n">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="Q978" t="n">
         <v>36</v>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E979" t="n">
         <v>13</v>
@@ -70845,16 +70845,16 @@
         </is>
       </c>
       <c r="J979" t="n">
-        <v>740</v>
+        <v>620</v>
       </c>
       <c r="K979" t="n">
-        <v>2000</v>
+        <v>3400</v>
       </c>
       <c r="L979" t="n">
-        <v>2300</v>
+        <v>3600</v>
       </c>
       <c r="M979" t="n">
-        <v>2162</v>
+        <v>3519</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70867,7 +70867,7 @@
         </is>
       </c>
       <c r="P979" t="n">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="Q979" t="n">
         <v>36</v>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E980" t="n">
         <v>13</v>
@@ -70917,16 +70917,16 @@
         </is>
       </c>
       <c r="J980" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="K980" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="L980" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="M980" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70939,7 +70939,7 @@
         </is>
       </c>
       <c r="P980" t="n">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="Q980" t="n">
         <v>36</v>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E981" t="n">
         <v>13</v>
@@ -70989,16 +70989,16 @@
         </is>
       </c>
       <c r="J981" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K981" t="n">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="L981" t="n">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="M981" t="n">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71011,7 +71011,7 @@
         </is>
       </c>
       <c r="P981" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="Q981" t="n">
         <v>36</v>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E982" t="n">
         <v>13</v>
@@ -71061,16 +71061,16 @@
         </is>
       </c>
       <c r="J982" t="n">
-        <v>150</v>
+        <v>740</v>
       </c>
       <c r="K982" t="n">
-        <v>4000</v>
+        <v>2700</v>
       </c>
       <c r="L982" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M982" t="n">
-        <v>4000</v>
+        <v>2854</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71079,11 +71079,11 @@
       </c>
       <c r="O982" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P982" t="n">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="Q982" t="n">
         <v>36</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E983" t="n">
         <v>13</v>
@@ -71129,20 +71129,20 @@
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J983" t="n">
-        <v>330</v>
+        <v>620</v>
       </c>
       <c r="K983" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="L983" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M983" t="n">
-        <v>3500</v>
+        <v>2869</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71155,7 +71155,7 @@
         </is>
       </c>
       <c r="P983" t="n">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="Q983" t="n">
         <v>36</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -71201,20 +71201,20 @@
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J984" t="n">
-        <v>270</v>
+        <v>820</v>
       </c>
       <c r="K984" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="L984" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="M984" t="n">
-        <v>2500</v>
+        <v>2305</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71223,11 +71223,11 @@
       </c>
       <c r="O984" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P984" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="Q984" t="n">
         <v>36</v>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E985" t="n">
         <v>13</v>
@@ -71273,20 +71273,20 @@
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J985" t="n">
-        <v>680</v>
+        <v>740</v>
       </c>
       <c r="K985" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L985" t="n">
-        <v>3200</v>
+        <v>2300</v>
       </c>
       <c r="M985" t="n">
-        <v>3103</v>
+        <v>2162</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71295,11 +71295,11 @@
       </c>
       <c r="O985" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P985" t="n">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="Q985" t="n">
         <v>36</v>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E986" t="n">
         <v>13</v>
@@ -71345,20 +71345,20 @@
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J986" t="n">
-        <v>740</v>
+        <v>260</v>
       </c>
       <c r="K986" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="L986" t="n">
-        <v>3200</v>
+        <v>1800</v>
       </c>
       <c r="M986" t="n">
-        <v>3105</v>
+        <v>1800</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71367,11 +71367,11 @@
       </c>
       <c r="O986" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P986" t="n">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="Q986" t="n">
         <v>36</v>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E987" t="n">
         <v>13</v>
@@ -71417,20 +71417,20 @@
       </c>
       <c r="I987" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J987" t="n">
-        <v>720</v>
+        <v>200</v>
       </c>
       <c r="K987" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L987" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="M987" t="n">
-        <v>2617</v>
+        <v>1800</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71439,11 +71439,11 @@
       </c>
       <c r="O987" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P987" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="Q987" t="n">
         <v>36</v>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E988" t="n">
         <v>13</v>
@@ -71489,20 +71489,20 @@
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J988" t="n">
-        <v>680</v>
+        <v>150</v>
       </c>
       <c r="K988" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="L988" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="M988" t="n">
-        <v>2606</v>
+        <v>4000</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71515,7 +71515,7 @@
         </is>
       </c>
       <c r="P988" t="n">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="Q988" t="n">
         <v>36</v>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E989" t="n">
         <v>13</v>
@@ -71561,20 +71561,20 @@
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J989" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="K989" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L989" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M989" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71583,11 +71583,11 @@
       </c>
       <c r="O989" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P989" t="n">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="Q989" t="n">
         <v>36</v>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E990" t="n">
         <v>13</v>
@@ -71640,13 +71640,13 @@
         <v>270</v>
       </c>
       <c r="K990" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L990" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M990" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71659,7 +71659,7 @@
         </is>
       </c>
       <c r="P990" t="n">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="Q990" t="n">
         <v>36</v>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E991" t="n">
         <v>13</v>
@@ -71709,16 +71709,16 @@
         </is>
       </c>
       <c r="J991" t="n">
-        <v>520</v>
+        <v>680</v>
       </c>
       <c r="K991" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="L991" t="n">
-        <v>2600</v>
+        <v>3200</v>
       </c>
       <c r="M991" t="n">
-        <v>2600</v>
+        <v>3103</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
@@ -71727,11 +71727,11 @@
       </c>
       <c r="O991" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P991" t="n">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q991" t="n">
         <v>36</v>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E992" t="n">
         <v>13</v>
@@ -71777,20 +71777,20 @@
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J992" t="n">
-        <v>890</v>
+        <v>740</v>
       </c>
       <c r="K992" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="L992" t="n">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="M992" t="n">
-        <v>2370</v>
+        <v>3105</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71803,7 +71803,7 @@
         </is>
       </c>
       <c r="P992" t="n">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="Q992" t="n">
         <v>36</v>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E993" t="n">
         <v>13</v>
@@ -71849,20 +71849,20 @@
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J993" t="n">
-        <v>540</v>
+        <v>720</v>
       </c>
       <c r="K993" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L993" t="n">
-        <v>2100</v>
+        <v>2700</v>
       </c>
       <c r="M993" t="n">
-        <v>2070</v>
+        <v>2617</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71871,11 +71871,11 @@
       </c>
       <c r="O993" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P993" t="n">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="Q993" t="n">
         <v>36</v>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -71921,20 +71921,20 @@
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J994" t="n">
         <v>680</v>
       </c>
       <c r="K994" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L994" t="n">
         <v>2700</v>
       </c>
-      <c r="L994" t="n">
-        <v>3000</v>
-      </c>
       <c r="M994" t="n">
-        <v>2854</v>
+        <v>2606</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71943,11 +71943,11 @@
       </c>
       <c r="O994" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P994" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="Q994" t="n">
         <v>36</v>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -71993,20 +71993,20 @@
       </c>
       <c r="I995" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J995" t="n">
-        <v>730</v>
+        <v>300</v>
       </c>
       <c r="K995" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="L995" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M995" t="n">
-        <v>2860</v>
+        <v>2000</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
@@ -72015,11 +72015,11 @@
       </c>
       <c r="O995" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P995" t="n">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="Q995" t="n">
         <v>36</v>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -72065,20 +72065,20 @@
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J996" t="n">
-        <v>640</v>
+        <v>270</v>
       </c>
       <c r="K996" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="L996" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M996" t="n">
-        <v>2403</v>
+        <v>2000</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72087,11 +72087,11 @@
       </c>
       <c r="O996" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P996" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="Q996" t="n">
         <v>36</v>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -72137,20 +72137,20 @@
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J997" t="n">
-        <v>630</v>
+        <v>520</v>
       </c>
       <c r="K997" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="L997" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="M997" t="n">
-        <v>2357</v>
+        <v>2600</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72163,7 +72163,7 @@
         </is>
       </c>
       <c r="P997" t="n">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="Q997" t="n">
         <v>36</v>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E998" t="n">
         <v>13</v>
@@ -72209,20 +72209,20 @@
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J998" t="n">
-        <v>240</v>
+        <v>890</v>
       </c>
       <c r="K998" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="L998" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="M998" t="n">
-        <v>1800</v>
+        <v>2370</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
@@ -72231,11 +72231,11 @@
       </c>
       <c r="O998" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P998" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="Q998" t="n">
         <v>36</v>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E999" t="n">
         <v>13</v>
@@ -72285,16 +72285,16 @@
         </is>
       </c>
       <c r="J999" t="n">
-        <v>260</v>
+        <v>540</v>
       </c>
       <c r="K999" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="L999" t="n">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="M999" t="n">
-        <v>1900</v>
+        <v>2070</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
@@ -72307,7 +72307,7 @@
         </is>
       </c>
       <c r="P999" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Q999" t="n">
         <v>36</v>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1000" t="n">
         <v>13</v>
@@ -72357,16 +72357,16 @@
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>420</v>
+        <v>680</v>
       </c>
       <c r="K1000" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="L1000" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M1000" t="n">
-        <v>2800</v>
+        <v>2854</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
@@ -72379,7 +72379,7 @@
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q1000" t="n">
         <v>36</v>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1001" t="n">
         <v>13</v>
@@ -72429,16 +72429,16 @@
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>450</v>
+        <v>730</v>
       </c>
       <c r="K1001" t="n">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="L1001" t="n">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="M1001" t="n">
-        <v>2900</v>
+        <v>2860</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72451,7 +72451,7 @@
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q1001" t="n">
         <v>36</v>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1002" t="n">
         <v>13</v>
@@ -72501,7 +72501,7 @@
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="K1002" t="n">
         <v>2300</v>
@@ -72510,7 +72510,7 @@
         <v>2500</v>
       </c>
       <c r="M1002" t="n">
-        <v>2418</v>
+        <v>2403</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1003" t="n">
         <v>13</v>
@@ -72573,16 +72573,16 @@
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>700</v>
+        <v>630</v>
       </c>
       <c r="K1003" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="L1003" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="M1003" t="n">
-        <v>2511</v>
+        <v>2357</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72595,7 +72595,7 @@
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Q1003" t="n">
         <v>36</v>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1004" t="n">
         <v>13</v>
@@ -72645,16 +72645,16 @@
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="K1004" t="n">
         <v>1800</v>
       </c>
       <c r="L1004" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="M1004" t="n">
-        <v>1911</v>
+        <v>1800</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72667,7 +72667,7 @@
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q1004" t="n">
         <v>36</v>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1005" t="n">
         <v>13</v>
@@ -72717,16 +72717,16 @@
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>470</v>
+        <v>260</v>
       </c>
       <c r="K1005" t="n">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="L1005" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="M1005" t="n">
-        <v>1928</v>
+        <v>1900</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72739,7 +72739,7 @@
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q1005" t="n">
         <v>36</v>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1006" t="n">
         <v>13</v>
@@ -72789,16 +72789,16 @@
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>810</v>
+        <v>420</v>
       </c>
       <c r="K1006" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="L1006" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="M1006" t="n">
-        <v>3363</v>
+        <v>2800</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72811,7 +72811,7 @@
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="Q1006" t="n">
         <v>36</v>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1007" t="n">
         <v>13</v>
@@ -72861,16 +72861,16 @@
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>710</v>
+        <v>450</v>
       </c>
       <c r="K1007" t="n">
-        <v>3200</v>
+        <v>2900</v>
       </c>
       <c r="L1007" t="n">
-        <v>3500</v>
+        <v>2900</v>
       </c>
       <c r="M1007" t="n">
-        <v>3361</v>
+        <v>2900</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72883,7 +72883,7 @@
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="Q1007" t="n">
         <v>36</v>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1008" t="n">
         <v>13</v>
@@ -72933,16 +72933,16 @@
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>870</v>
+        <v>660</v>
       </c>
       <c r="K1008" t="n">
         <v>2300</v>
       </c>
       <c r="L1008" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M1008" t="n">
-        <v>2570</v>
+        <v>2418</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72955,7 +72955,7 @@
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q1008" t="n">
         <v>36</v>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1009" t="n">
         <v>13</v>
@@ -73005,7 +73005,7 @@
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>810</v>
+        <v>700</v>
       </c>
       <c r="K1009" t="n">
         <v>2400</v>
@@ -73014,7 +73014,7 @@
         <v>2600</v>
       </c>
       <c r="M1009" t="n">
-        <v>2501</v>
+        <v>2511</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
@@ -73027,7 +73027,7 @@
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q1009" t="n">
         <v>36</v>
@@ -73053,7 +73053,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1010" t="n">
         <v>13</v>
@@ -73077,16 +73077,16 @@
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K1010" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L1010" t="n">
         <v>2000</v>
       </c>
       <c r="M1010" t="n">
-        <v>2000</v>
+        <v>1911</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
@@ -73099,7 +73099,7 @@
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q1010" t="n">
         <v>36</v>
@@ -73125,7 +73125,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1011" t="n">
         <v>13</v>
@@ -73149,16 +73149,16 @@
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>250</v>
+        <v>470</v>
       </c>
       <c r="K1011" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L1011" t="n">
         <v>2000</v>
       </c>
       <c r="M1011" t="n">
-        <v>2000</v>
+        <v>1928</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
@@ -73171,7 +73171,7 @@
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q1011" t="n">
         <v>36</v>
@@ -73197,7 +73197,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1012" t="n">
         <v>13</v>
@@ -73221,16 +73221,16 @@
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>330</v>
+        <v>810</v>
       </c>
       <c r="K1012" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="L1012" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M1012" t="n">
-        <v>2800</v>
+        <v>3363</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
@@ -73243,7 +73243,7 @@
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="Q1012" t="n">
         <v>36</v>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1013" t="n">
         <v>13</v>
@@ -73293,16 +73293,16 @@
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>270</v>
+        <v>710</v>
       </c>
       <c r="K1013" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="L1013" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M1013" t="n">
-        <v>2800</v>
+        <v>3361</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
@@ -73315,7 +73315,7 @@
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="Q1013" t="n">
         <v>36</v>
@@ -73341,7 +73341,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1014" t="n">
         <v>13</v>
@@ -73365,16 +73365,16 @@
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>640</v>
+        <v>870</v>
       </c>
       <c r="K1014" t="n">
         <v>2300</v>
       </c>
       <c r="L1014" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M1014" t="n">
-        <v>2419</v>
+        <v>2570</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
@@ -73387,7 +73387,7 @@
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="Q1014" t="n">
         <v>36</v>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1015" t="n">
         <v>13</v>
@@ -73437,16 +73437,16 @@
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="K1015" t="n">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="L1015" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="M1015" t="n">
-        <v>2417</v>
+        <v>2501</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73459,7 +73459,7 @@
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q1015" t="n">
         <v>36</v>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1016" t="n">
         <v>13</v>
@@ -73509,7 +73509,7 @@
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K1016" t="n">
         <v>2000</v>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1018" t="n">
         <v>13</v>
@@ -73649,20 +73649,20 @@
       </c>
       <c r="I1018" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>830</v>
+        <v>330</v>
       </c>
       <c r="K1018" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="L1018" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M1018" t="n">
-        <v>2812</v>
+        <v>2800</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1019" t="n">
         <v>13</v>
@@ -73721,20 +73721,20 @@
       </c>
       <c r="I1019" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>1010</v>
+        <v>270</v>
       </c>
       <c r="K1019" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="L1019" t="n">
         <v>2800</v>
       </c>
       <c r="M1019" t="n">
-        <v>2707</v>
+        <v>2800</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73747,7 +73747,7 @@
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q1019" t="n">
         <v>36</v>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1020" t="n">
         <v>13</v>
@@ -73793,20 +73793,20 @@
       </c>
       <c r="I1020" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>280</v>
+        <v>640</v>
       </c>
       <c r="K1020" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="L1020" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M1020" t="n">
-        <v>2000</v>
+        <v>2419</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73819,7 +73819,7 @@
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="Q1020" t="n">
         <v>36</v>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1021" t="n">
         <v>13</v>
@@ -73865,20 +73865,20 @@
       </c>
       <c r="I1021" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>330</v>
+        <v>720</v>
       </c>
       <c r="K1021" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="L1021" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M1021" t="n">
-        <v>2000</v>
+        <v>2417</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73891,7 +73891,7 @@
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="Q1021" t="n">
         <v>36</v>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E1022" t="n">
         <v>13</v>
@@ -73937,20 +73937,20 @@
       </c>
       <c r="I1022" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>440</v>
+        <v>180</v>
       </c>
       <c r="K1022" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L1022" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M1022" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73963,7 +73963,7 @@
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="Q1022" t="n">
         <v>36</v>
@@ -73989,7 +73989,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E1023" t="n">
         <v>13</v>
@@ -74009,20 +74009,20 @@
       </c>
       <c r="I1023" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="K1023" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L1023" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M1023" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
@@ -74035,7 +74035,7 @@
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="Q1023" t="n">
         <v>36</v>
@@ -74061,7 +74061,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1024" t="n">
         <v>13</v>
@@ -74085,16 +74085,16 @@
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="K1024" t="n">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="L1024" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M1024" t="n">
-        <v>2408</v>
+        <v>2812</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
@@ -74107,7 +74107,7 @@
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="Q1024" t="n">
         <v>36</v>
@@ -74133,7 +74133,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1025" t="n">
         <v>13</v>
@@ -74157,16 +74157,16 @@
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>960</v>
+        <v>1010</v>
       </c>
       <c r="K1025" t="n">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="L1025" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M1025" t="n">
-        <v>2392</v>
+        <v>2707</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
@@ -74179,7 +74179,7 @@
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="Q1025" t="n">
         <v>36</v>
@@ -74205,7 +74205,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1026" t="n">
         <v>13</v>
@@ -74229,16 +74229,16 @@
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>490</v>
+        <v>280</v>
       </c>
       <c r="K1026" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L1026" t="n">
         <v>2000</v>
       </c>
       <c r="M1026" t="n">
-        <v>1906</v>
+        <v>2000</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
@@ -74251,7 +74251,7 @@
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q1026" t="n">
         <v>36</v>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1027" t="n">
         <v>13</v>
@@ -74301,16 +74301,16 @@
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>550</v>
+        <v>330</v>
       </c>
       <c r="K1027" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L1027" t="n">
         <v>2000</v>
       </c>
       <c r="M1027" t="n">
-        <v>1902</v>
+        <v>2000</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
@@ -74323,7 +74323,7 @@
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q1027" t="n">
         <v>36</v>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1028" t="n">
         <v>13</v>
@@ -74369,20 +74369,20 @@
       </c>
       <c r="I1028" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>810</v>
+        <v>440</v>
       </c>
       <c r="K1028" t="n">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="L1028" t="n">
-        <v>3600</v>
+        <v>2800</v>
       </c>
       <c r="M1028" t="n">
-        <v>3509</v>
+        <v>2800</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
@@ -74395,7 +74395,7 @@
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="Q1028" t="n">
         <v>36</v>
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1029" t="n">
         <v>13</v>
@@ -74441,20 +74441,20 @@
       </c>
       <c r="I1029" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>560</v>
+        <v>450</v>
       </c>
       <c r="K1029" t="n">
         <v>2800</v>
       </c>
       <c r="L1029" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M1029" t="n">
-        <v>2911</v>
+        <v>2800</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
@@ -74463,11 +74463,11 @@
       </c>
       <c r="O1029" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q1029" t="n">
         <v>36</v>
@@ -74493,7 +74493,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E1030" t="n">
         <v>13</v>
@@ -74517,16 +74517,16 @@
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>830</v>
+        <v>850</v>
       </c>
       <c r="K1030" t="n">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="L1030" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M1030" t="n">
-        <v>2859</v>
+        <v>2408</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
@@ -74539,7 +74539,7 @@
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="Q1030" t="n">
         <v>36</v>
@@ -74565,7 +74565,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E1031" t="n">
         <v>13</v>
@@ -74589,16 +74589,16 @@
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="K1031" t="n">
-        <v>2600</v>
+        <v>2300</v>
       </c>
       <c r="L1031" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M1031" t="n">
-        <v>2709</v>
+        <v>2392</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
@@ -74611,7 +74611,7 @@
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="Q1031" t="n">
         <v>36</v>
@@ -74637,7 +74637,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E1032" t="n">
         <v>13</v>
@@ -74661,16 +74661,16 @@
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>250</v>
+        <v>490</v>
       </c>
       <c r="K1032" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L1032" t="n">
         <v>2000</v>
       </c>
       <c r="M1032" t="n">
-        <v>2000</v>
+        <v>1906</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
@@ -74683,7 +74683,7 @@
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q1032" t="n">
         <v>36</v>
@@ -74709,7 +74709,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E1033" t="n">
         <v>13</v>
@@ -74733,16 +74733,16 @@
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>290</v>
+        <v>550</v>
       </c>
       <c r="K1033" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L1033" t="n">
         <v>2000</v>
       </c>
       <c r="M1033" t="n">
-        <v>2000</v>
+        <v>1902</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
@@ -74755,7 +74755,7 @@
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q1033" t="n">
         <v>36</v>
@@ -74781,7 +74781,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1034" t="n">
         <v>13</v>
@@ -74801,20 +74801,20 @@
       </c>
       <c r="I1034" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>440</v>
+        <v>810</v>
       </c>
       <c r="K1034" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="L1034" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="M1034" t="n">
-        <v>3000</v>
+        <v>3509</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
@@ -74823,11 +74823,11 @@
       </c>
       <c r="O1034" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="Q1034" t="n">
         <v>36</v>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1035" t="n">
         <v>13</v>
@@ -74873,20 +74873,20 @@
       </c>
       <c r="I1035" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>300</v>
+        <v>560</v>
       </c>
       <c r="K1035" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L1035" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M1035" t="n">
-        <v>2500</v>
+        <v>2911</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
@@ -74899,7 +74899,7 @@
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="Q1035" t="n">
         <v>36</v>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1036" t="n">
         <v>13</v>
@@ -74949,16 +74949,16 @@
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>570</v>
+        <v>830</v>
       </c>
       <c r="K1036" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="L1036" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M1036" t="n">
-        <v>2623</v>
+        <v>2859</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
@@ -74967,11 +74967,11 @@
       </c>
       <c r="O1036" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="Q1036" t="n">
         <v>36</v>
@@ -74997,7 +74997,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1037" t="n">
         <v>13</v>
@@ -75017,20 +75017,20 @@
       </c>
       <c r="I1037" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>200</v>
+        <v>970</v>
       </c>
       <c r="K1037" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="L1037" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M1037" t="n">
-        <v>2000</v>
+        <v>2709</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
@@ -75039,11 +75039,11 @@
       </c>
       <c r="O1037" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="Q1037" t="n">
         <v>36</v>
@@ -75069,7 +75069,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1038" t="n">
         <v>13</v>
@@ -75093,16 +75093,16 @@
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="K1038" t="n">
         <v>2000</v>
       </c>
       <c r="L1038" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="M1038" t="n">
-        <v>2175</v>
+        <v>2000</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
@@ -75111,11 +75111,11 @@
       </c>
       <c r="O1038" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q1038" t="n">
         <v>36</v>
@@ -75141,7 +75141,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E1039" t="n">
         <v>13</v>
@@ -75161,20 +75161,20 @@
       </c>
       <c r="I1039" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>790</v>
+        <v>290</v>
       </c>
       <c r="K1039" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="L1039" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M1039" t="n">
-        <v>3867</v>
+        <v>2000</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
@@ -75183,11 +75183,11 @@
       </c>
       <c r="O1039" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="Q1039" t="n">
         <v>36</v>
@@ -75213,7 +75213,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1040" t="n">
         <v>13</v>
@@ -75237,16 +75237,16 @@
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>640</v>
+        <v>440</v>
       </c>
       <c r="K1040" t="n">
-        <v>3700</v>
+        <v>3000</v>
       </c>
       <c r="L1040" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M1040" t="n">
-        <v>3859</v>
+        <v>3000</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
@@ -75259,7 +75259,7 @@
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="Q1040" t="n">
         <v>36</v>
@@ -75285,7 +75285,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1041" t="n">
         <v>13</v>
@@ -75309,16 +75309,16 @@
         </is>
       </c>
       <c r="J1041" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="K1041" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L1041" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M1041" t="n">
-        <v>2925</v>
+        <v>2500</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
@@ -75331,7 +75331,7 @@
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="Q1041" t="n">
         <v>36</v>
@@ -75357,7 +75357,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1042" t="n">
         <v>13</v>
@@ -75381,16 +75381,16 @@
         </is>
       </c>
       <c r="J1042" t="n">
-        <v>740</v>
+        <v>570</v>
       </c>
       <c r="K1042" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L1042" t="n">
         <v>2700</v>
       </c>
-      <c r="L1042" t="n">
-        <v>3000</v>
-      </c>
       <c r="M1042" t="n">
-        <v>2858</v>
+        <v>2623</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
@@ -75403,7 +75403,7 @@
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="Q1042" t="n">
         <v>36</v>
@@ -75429,7 +75429,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1043" t="n">
         <v>13</v>
@@ -75453,16 +75453,16 @@
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K1043" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L1043" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="M1043" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
@@ -75475,7 +75475,7 @@
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q1043" t="n">
         <v>36</v>
@@ -75501,7 +75501,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1044" t="n">
         <v>13</v>
@@ -75525,16 +75525,16 @@
         </is>
       </c>
       <c r="J1044" t="n">
-        <v>290</v>
+        <v>480</v>
       </c>
       <c r="K1044" t="n">
         <v>2000</v>
       </c>
       <c r="L1044" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="M1044" t="n">
-        <v>2000</v>
+        <v>2175</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
@@ -75547,7 +75547,7 @@
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q1044" t="n">
         <v>36</v>
@@ -75573,7 +75573,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1045" t="n">
         <v>13</v>
@@ -75597,16 +75597,16 @@
         </is>
       </c>
       <c r="J1045" t="n">
-        <v>280</v>
+        <v>790</v>
       </c>
       <c r="K1045" t="n">
-        <v>3000</v>
+        <v>3700</v>
       </c>
       <c r="L1045" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M1045" t="n">
-        <v>3000</v>
+        <v>3867</v>
       </c>
       <c r="N1045" t="inlineStr">
         <is>
@@ -75619,7 +75619,7 @@
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="Q1045" t="n">
         <v>36</v>
@@ -75645,7 +75645,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1046" t="n">
         <v>13</v>
@@ -75669,16 +75669,16 @@
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="K1046" t="n">
-        <v>2900</v>
+        <v>3700</v>
       </c>
       <c r="L1046" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M1046" t="n">
-        <v>2956</v>
+        <v>3859</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
@@ -75691,7 +75691,7 @@
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="Q1046" t="n">
         <v>36</v>
@@ -75717,7 +75717,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1047" t="n">
         <v>13</v>
@@ -75741,16 +75741,16 @@
         </is>
       </c>
       <c r="J1047" t="n">
-        <v>660</v>
+        <v>750</v>
       </c>
       <c r="K1047" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L1047" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="M1047" t="n">
-        <v>2548</v>
+        <v>2925</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
@@ -75763,7 +75763,7 @@
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="Q1047" t="n">
         <v>36</v>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1048" t="n">
         <v>13</v>
@@ -75813,16 +75813,16 @@
         </is>
       </c>
       <c r="J1048" t="n">
-        <v>690</v>
+        <v>740</v>
       </c>
       <c r="K1048" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="L1048" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M1048" t="n">
-        <v>2613</v>
+        <v>2858</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
@@ -75835,7 +75835,7 @@
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="Q1048" t="n">
         <v>36</v>
@@ -75861,7 +75861,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1049" t="n">
         <v>13</v>
@@ -75885,7 +75885,7 @@
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K1049" t="n">
         <v>2200</v>
@@ -75933,7 +75933,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1050" t="n">
         <v>13</v>
@@ -75957,16 +75957,16 @@
         </is>
       </c>
       <c r="J1050" t="n">
-        <v>180</v>
+        <v>290</v>
       </c>
       <c r="K1050" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L1050" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="M1050" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="N1050" t="inlineStr">
         <is>
@@ -75979,7 +75979,7 @@
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q1050" t="n">
         <v>36</v>
@@ -76005,7 +76005,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1051" t="n">
         <v>13</v>
@@ -76025,20 +76025,20 @@
       </c>
       <c r="I1051" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1051" t="n">
-        <v>680</v>
+        <v>280</v>
       </c>
       <c r="K1051" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L1051" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M1051" t="n">
-        <v>2603</v>
+        <v>3000</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
@@ -76051,7 +76051,7 @@
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="Q1051" t="n">
         <v>36</v>
@@ -76077,7 +76077,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1052" t="n">
         <v>13</v>
@@ -76097,20 +76097,20 @@
       </c>
       <c r="I1052" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1052" t="n">
-        <v>720</v>
+        <v>620</v>
       </c>
       <c r="K1052" t="n">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="L1052" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="M1052" t="n">
-        <v>2557</v>
+        <v>2956</v>
       </c>
       <c r="N1052" t="inlineStr">
         <is>
@@ -76123,7 +76123,7 @@
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="Q1052" t="n">
         <v>36</v>
@@ -76149,7 +76149,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1053" t="n">
         <v>13</v>
@@ -76169,20 +76169,20 @@
       </c>
       <c r="I1053" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>460</v>
+        <v>660</v>
       </c>
       <c r="K1053" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L1053" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="M1053" t="n">
-        <v>2109</v>
+        <v>2548</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
@@ -76195,7 +76195,7 @@
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="Q1053" t="n">
         <v>36</v>
@@ -76221,7 +76221,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1054" t="n">
         <v>13</v>
@@ -76241,20 +76241,20 @@
       </c>
       <c r="I1054" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1054" t="n">
-        <v>520</v>
+        <v>690</v>
       </c>
       <c r="K1054" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L1054" t="n">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="M1054" t="n">
-        <v>2108</v>
+        <v>2613</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
@@ -76267,7 +76267,7 @@
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="Q1054" t="n">
         <v>36</v>
@@ -76293,7 +76293,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1055" t="n">
         <v>13</v>
@@ -76313,20 +76313,20 @@
       </c>
       <c r="I1055" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>830</v>
+        <v>150</v>
       </c>
       <c r="K1055" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="L1055" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="M1055" t="n">
-        <v>2606</v>
+        <v>2200</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
@@ -76339,7 +76339,7 @@
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="Q1055" t="n">
         <v>36</v>
@@ -76365,7 +76365,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1056" t="n">
         <v>13</v>
@@ -76385,20 +76385,20 @@
       </c>
       <c r="I1056" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1056" t="n">
-        <v>1020</v>
+        <v>180</v>
       </c>
       <c r="K1056" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="L1056" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="M1056" t="n">
-        <v>2506</v>
+        <v>2200</v>
       </c>
       <c r="N1056" t="inlineStr">
         <is>
@@ -76411,7 +76411,7 @@
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="Q1056" t="n">
         <v>36</v>
@@ -76437,7 +76437,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1057" t="n">
         <v>13</v>
@@ -76457,20 +76457,20 @@
       </c>
       <c r="I1057" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>250</v>
+        <v>680</v>
       </c>
       <c r="K1057" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L1057" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="M1057" t="n">
-        <v>2000</v>
+        <v>2603</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
@@ -76483,7 +76483,7 @@
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="Q1057" t="n">
         <v>36</v>
@@ -76509,7 +76509,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1058" t="n">
         <v>13</v>
@@ -76529,20 +76529,20 @@
       </c>
       <c r="I1058" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1058" t="n">
-        <v>280</v>
+        <v>720</v>
       </c>
       <c r="K1058" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L1058" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="M1058" t="n">
-        <v>2000</v>
+        <v>2557</v>
       </c>
       <c r="N1058" t="inlineStr">
         <is>
@@ -76555,7 +76555,7 @@
         </is>
       </c>
       <c r="P1058" t="n">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="Q1058" t="n">
         <v>36</v>
@@ -76581,7 +76581,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1059" t="n">
         <v>13</v>
@@ -76601,20 +76601,20 @@
       </c>
       <c r="I1059" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1059" t="n">
-        <v>820</v>
+        <v>460</v>
       </c>
       <c r="K1059" t="n">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="L1059" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="M1059" t="n">
-        <v>3407</v>
+        <v>2109</v>
       </c>
       <c r="N1059" t="inlineStr">
         <is>
@@ -76627,7 +76627,7 @@
         </is>
       </c>
       <c r="P1059" t="n">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="Q1059" t="n">
         <v>36</v>
@@ -76653,7 +76653,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1060" t="n">
         <v>13</v>
@@ -76673,20 +76673,20 @@
       </c>
       <c r="I1060" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1060" t="n">
-        <v>900</v>
+        <v>520</v>
       </c>
       <c r="K1060" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="L1060" t="n">
-        <v>3600</v>
+        <v>2200</v>
       </c>
       <c r="M1060" t="n">
-        <v>3507</v>
+        <v>2108</v>
       </c>
       <c r="N1060" t="inlineStr">
         <is>
@@ -76699,7 +76699,7 @@
         </is>
       </c>
       <c r="P1060" t="n">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="Q1060" t="n">
         <v>36</v>
@@ -76725,7 +76725,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1061" t="n">
         <v>13</v>
@@ -76745,20 +76745,20 @@
       </c>
       <c r="I1061" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>540</v>
+        <v>830</v>
       </c>
       <c r="K1061" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L1061" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="M1061" t="n">
-        <v>2907</v>
+        <v>2606</v>
       </c>
       <c r="N1061" t="inlineStr">
         <is>
@@ -76771,7 +76771,7 @@
         </is>
       </c>
       <c r="P1061" t="n">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="Q1061" t="n">
         <v>36</v>
@@ -76797,7 +76797,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1062" t="n">
         <v>13</v>
@@ -76817,20 +76817,20 @@
       </c>
       <c r="I1062" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>690</v>
+        <v>1020</v>
       </c>
       <c r="K1062" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="L1062" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="M1062" t="n">
-        <v>2904</v>
+        <v>2506</v>
       </c>
       <c r="N1062" t="inlineStr">
         <is>
@@ -76843,7 +76843,7 @@
         </is>
       </c>
       <c r="P1062" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="Q1062" t="n">
         <v>36</v>
@@ -76869,7 +76869,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E1063" t="n">
         <v>13</v>
@@ -76889,20 +76889,20 @@
       </c>
       <c r="I1063" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>710</v>
+        <v>250</v>
       </c>
       <c r="K1063" t="n">
-        <v>3800</v>
+        <v>2000</v>
       </c>
       <c r="L1063" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M1063" t="n">
-        <v>3907</v>
+        <v>2000</v>
       </c>
       <c r="N1063" t="inlineStr">
         <is>
@@ -76915,7 +76915,7 @@
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="Q1063" t="n">
         <v>36</v>
@@ -76941,7 +76941,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E1064" t="n">
         <v>13</v>
@@ -76961,20 +76961,20 @@
       </c>
       <c r="I1064" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1064" t="n">
-        <v>700</v>
+        <v>280</v>
       </c>
       <c r="K1064" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="L1064" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M1064" t="n">
-        <v>3854</v>
+        <v>2000</v>
       </c>
       <c r="N1064" t="inlineStr">
         <is>
@@ -76987,7 +76987,7 @@
         </is>
       </c>
       <c r="P1064" t="n">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="Q1064" t="n">
         <v>36</v>
@@ -77013,7 +77013,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1065" t="n">
         <v>13</v>
@@ -77037,16 +77037,16 @@
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>840</v>
+        <v>820</v>
       </c>
       <c r="K1065" t="n">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="L1065" t="n">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="M1065" t="n">
-        <v>3107</v>
+        <v>3407</v>
       </c>
       <c r="N1065" t="inlineStr">
         <is>
@@ -77059,7 +77059,7 @@
         </is>
       </c>
       <c r="P1065" t="n">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="Q1065" t="n">
         <v>36</v>
@@ -77085,7 +77085,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1066" t="n">
         <v>13</v>
@@ -77109,16 +77109,16 @@
         </is>
       </c>
       <c r="J1066" t="n">
-        <v>810</v>
+        <v>900</v>
       </c>
       <c r="K1066" t="n">
-        <v>2900</v>
+        <v>3400</v>
       </c>
       <c r="L1066" t="n">
-        <v>3300</v>
+        <v>3600</v>
       </c>
       <c r="M1066" t="n">
-        <v>3107</v>
+        <v>3507</v>
       </c>
       <c r="N1066" t="inlineStr">
         <is>
@@ -77131,7 +77131,7 @@
         </is>
       </c>
       <c r="P1066" t="n">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="Q1066" t="n">
         <v>36</v>
@@ -77157,7 +77157,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1067" t="n">
         <v>13</v>
@@ -77181,16 +77181,16 @@
         </is>
       </c>
       <c r="J1067" t="n">
-        <v>270</v>
+        <v>540</v>
       </c>
       <c r="K1067" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="L1067" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M1067" t="n">
-        <v>2200</v>
+        <v>2907</v>
       </c>
       <c r="N1067" t="inlineStr">
         <is>
@@ -77203,7 +77203,7 @@
         </is>
       </c>
       <c r="P1067" t="n">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="Q1067" t="n">
         <v>36</v>
@@ -77229,7 +77229,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1068" t="n">
         <v>13</v>
@@ -77253,16 +77253,16 @@
         </is>
       </c>
       <c r="J1068" t="n">
-        <v>310</v>
+        <v>690</v>
       </c>
       <c r="K1068" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="L1068" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M1068" t="n">
-        <v>2200</v>
+        <v>2904</v>
       </c>
       <c r="N1068" t="inlineStr">
         <is>
@@ -77275,7 +77275,7 @@
         </is>
       </c>
       <c r="P1068" t="n">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="Q1068" t="n">
         <v>36</v>
@@ -77301,7 +77301,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1069" t="n">
         <v>13</v>
@@ -77321,20 +77321,20 @@
       </c>
       <c r="I1069" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1069" t="n">
-        <v>830</v>
+        <v>710</v>
       </c>
       <c r="K1069" t="n">
-        <v>2600</v>
+        <v>3800</v>
       </c>
       <c r="L1069" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M1069" t="n">
-        <v>2812</v>
+        <v>3907</v>
       </c>
       <c r="N1069" t="inlineStr">
         <is>
@@ -77347,7 +77347,7 @@
         </is>
       </c>
       <c r="P1069" t="n">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="Q1069" t="n">
         <v>36</v>
@@ -77373,7 +77373,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1070" t="n">
         <v>13</v>
@@ -77393,20 +77393,20 @@
       </c>
       <c r="I1070" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>1020</v>
+        <v>700</v>
       </c>
       <c r="K1070" t="n">
-        <v>2500</v>
+        <v>3700</v>
       </c>
       <c r="L1070" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="M1070" t="n">
-        <v>2662</v>
+        <v>3854</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
@@ -77419,7 +77419,7 @@
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="Q1070" t="n">
         <v>36</v>
@@ -77445,7 +77445,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1071" t="n">
         <v>13</v>
@@ -77465,20 +77465,20 @@
       </c>
       <c r="I1071" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1071" t="n">
-        <v>300</v>
+        <v>840</v>
       </c>
       <c r="K1071" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L1071" t="n">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="M1071" t="n">
-        <v>2000</v>
+        <v>3107</v>
       </c>
       <c r="N1071" t="inlineStr">
         <is>
@@ -77491,7 +77491,7 @@
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="Q1071" t="n">
         <v>36</v>
@@ -77517,7 +77517,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1072" t="n">
         <v>13</v>
@@ -77537,20 +77537,20 @@
       </c>
       <c r="I1072" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1072" t="n">
-        <v>330</v>
+        <v>810</v>
       </c>
       <c r="K1072" t="n">
-        <v>2000</v>
+        <v>2900</v>
       </c>
       <c r="L1072" t="n">
-        <v>2000</v>
+        <v>3300</v>
       </c>
       <c r="M1072" t="n">
-        <v>2000</v>
+        <v>3107</v>
       </c>
       <c r="N1072" t="inlineStr">
         <is>
@@ -77563,7 +77563,7 @@
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="Q1072" t="n">
         <v>36</v>
@@ -77589,7 +77589,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E1073" t="n">
         <v>13</v>
@@ -77609,20 +77609,20 @@
       </c>
       <c r="I1073" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1073" t="n">
-        <v>440</v>
+        <v>270</v>
       </c>
       <c r="K1073" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="L1073" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="M1073" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="N1073" t="inlineStr">
         <is>
@@ -77631,11 +77631,11 @@
       </c>
       <c r="O1073" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="Q1073" t="n">
         <v>36</v>
@@ -77661,7 +77661,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E1074" t="n">
         <v>13</v>
@@ -77681,20 +77681,20 @@
       </c>
       <c r="I1074" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1074" t="n">
-        <v>840</v>
+        <v>310</v>
       </c>
       <c r="K1074" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="L1074" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="M1074" t="n">
-        <v>2444</v>
+        <v>2200</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
@@ -77707,7 +77707,7 @@
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="Q1074" t="n">
         <v>36</v>
@@ -77733,7 +77733,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1075" t="n">
         <v>13</v>
@@ -77753,20 +77753,20 @@
       </c>
       <c r="I1075" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1075" t="n">
-        <v>560</v>
+        <v>830</v>
       </c>
       <c r="K1075" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="L1075" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M1075" t="n">
-        <v>2089</v>
+        <v>2812</v>
       </c>
       <c r="N1075" t="inlineStr">
         <is>
@@ -77775,11 +77775,11 @@
       </c>
       <c r="O1075" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="Q1075" t="n">
         <v>36</v>
@@ -77805,7 +77805,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1076" t="n">
         <v>13</v>
@@ -77825,20 +77825,20 @@
       </c>
       <c r="I1076" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1076" t="n">
-        <v>780</v>
+        <v>1020</v>
       </c>
       <c r="K1076" t="n">
         <v>2500</v>
       </c>
       <c r="L1076" t="n">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="M1076" t="n">
-        <v>2613</v>
+        <v>2662</v>
       </c>
       <c r="N1076" t="inlineStr">
         <is>
@@ -77847,11 +77847,11 @@
       </c>
       <c r="O1076" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q1076" t="n">
         <v>36</v>
@@ -77877,7 +77877,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1077" t="n">
         <v>13</v>
@@ -77897,20 +77897,20 @@
       </c>
       <c r="I1077" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1077" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="K1077" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L1077" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M1077" t="n">
-        <v>2664</v>
+        <v>2000</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
@@ -77919,11 +77919,11 @@
       </c>
       <c r="O1077" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="Q1077" t="n">
         <v>36</v>
@@ -77949,7 +77949,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1078" t="n">
         <v>13</v>
@@ -77969,20 +77969,20 @@
       </c>
       <c r="I1078" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1078" t="n">
-        <v>730</v>
+        <v>330</v>
       </c>
       <c r="K1078" t="n">
         <v>2000</v>
       </c>
       <c r="L1078" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="M1078" t="n">
-        <v>2156</v>
+        <v>2000</v>
       </c>
       <c r="N1078" t="inlineStr">
         <is>
@@ -77991,11 +77991,11 @@
       </c>
       <c r="O1078" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q1078" t="n">
         <v>36</v>
@@ -78021,7 +78021,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1079" t="n">
         <v>13</v>
@@ -78041,20 +78041,20 @@
       </c>
       <c r="I1079" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1079" t="n">
-        <v>810</v>
+        <v>440</v>
       </c>
       <c r="K1079" t="n">
-        <v>2100</v>
+        <v>2700</v>
       </c>
       <c r="L1079" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M1079" t="n">
-        <v>2267</v>
+        <v>2700</v>
       </c>
       <c r="N1079" t="inlineStr">
         <is>
@@ -78067,7 +78067,7 @@
         </is>
       </c>
       <c r="P1079" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="Q1079" t="n">
         <v>36</v>
@@ -78093,7 +78093,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1080" t="n">
         <v>13</v>
@@ -78113,20 +78113,20 @@
       </c>
       <c r="I1080" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1080" t="n">
-        <v>250</v>
+        <v>840</v>
       </c>
       <c r="K1080" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="L1080" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="M1080" t="n">
-        <v>1800</v>
+        <v>2444</v>
       </c>
       <c r="N1080" t="inlineStr">
         <is>
@@ -78135,11 +78135,11 @@
       </c>
       <c r="O1080" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1080" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="Q1080" t="n">
         <v>36</v>
@@ -78165,58 +78165,490 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1081" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1081" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1081" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1081" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1081" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1081" t="n">
+        <v>560</v>
+      </c>
+      <c r="K1081" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L1081" t="n">
+        <v>2200</v>
+      </c>
+      <c r="M1081" t="n">
+        <v>2089</v>
+      </c>
+      <c r="N1081" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1081" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1081" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q1081" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1081" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1082" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1082" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1082" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E1081" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1081" t="n">
-        <v>100112037</v>
-      </c>
-      <c r="G1081" t="inlineStr">
-        <is>
-          <t>Cebollín</t>
-        </is>
-      </c>
-      <c r="H1081" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I1081" t="inlineStr">
+      <c r="E1082" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1082" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1082" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1082" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1082" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1082" t="n">
+        <v>780</v>
+      </c>
+      <c r="K1082" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L1082" t="n">
+        <v>2700</v>
+      </c>
+      <c r="M1082" t="n">
+        <v>2613</v>
+      </c>
+      <c r="N1082" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1082" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P1082" t="n">
+        <v>73</v>
+      </c>
+      <c r="Q1082" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1082" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1083" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1083" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1083" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1083" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1083" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1083" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1083" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1083" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1083" t="n">
+        <v>750</v>
+      </c>
+      <c r="K1083" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L1083" t="n">
+        <v>2800</v>
+      </c>
+      <c r="M1083" t="n">
+        <v>2664</v>
+      </c>
+      <c r="N1083" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1083" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1083" t="n">
+        <v>74</v>
+      </c>
+      <c r="Q1083" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1083" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1084" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1084" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1084" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1084" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1084" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1084" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1084" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1084" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1084" t="n">
+        <v>730</v>
+      </c>
+      <c r="K1084" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L1084" t="n">
+        <v>2300</v>
+      </c>
+      <c r="M1084" t="n">
+        <v>2156</v>
+      </c>
+      <c r="N1084" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1084" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P1084" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q1084" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1084" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1085" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1085" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1085" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1085" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1085" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1085" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1085" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1085" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1085" t="n">
+        <v>810</v>
+      </c>
+      <c r="K1085" t="n">
+        <v>2100</v>
+      </c>
+      <c r="L1085" t="n">
+        <v>2400</v>
+      </c>
+      <c r="M1085" t="n">
+        <v>2267</v>
+      </c>
+      <c r="N1085" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1085" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1085" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q1085" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1085" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1086" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1086" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1086" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1086" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1086" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1086" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1086" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1086" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1081" t="n">
+      <c r="J1086" t="n">
+        <v>250</v>
+      </c>
+      <c r="K1086" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L1086" t="n">
+        <v>1800</v>
+      </c>
+      <c r="M1086" t="n">
+        <v>1800</v>
+      </c>
+      <c r="N1086" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1086" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P1086" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q1086" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1086" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1087" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1087" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1087" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1087" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1087" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1087" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1087" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1087" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1087" t="n">
         <v>330</v>
       </c>
-      <c r="K1081" t="n">
+      <c r="K1087" t="n">
         <v>1800</v>
       </c>
-      <c r="L1081" t="n">
+      <c r="L1087" t="n">
         <v>1800</v>
       </c>
-      <c r="M1081" t="n">
+      <c r="M1087" t="n">
         <v>1800</v>
       </c>
-      <c r="N1081" t="inlineStr">
-        <is>
-          <t>$/paquete 36 unidades</t>
-        </is>
-      </c>
-      <c r="O1081" t="inlineStr">
+      <c r="N1087" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1087" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P1081" t="n">
+      <c r="P1087" t="n">
         <v>50</v>
       </c>
-      <c r="Q1081" t="n">
-        <v>36</v>
-      </c>
-      <c r="R1081" t="inlineStr">
+      <c r="Q1087" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1087" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cebollín.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cebollín.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1087"/>
+  <dimension ref="A1:R1093"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E936" t="n">
         <v>13</v>
@@ -67749,16 +67749,16 @@
         </is>
       </c>
       <c r="J936" t="n">
-        <v>770</v>
+        <v>910</v>
       </c>
       <c r="K936" t="n">
+        <v>2300</v>
+      </c>
+      <c r="L936" t="n">
         <v>2500</v>
       </c>
-      <c r="L936" t="n">
-        <v>2700</v>
-      </c>
       <c r="M936" t="n">
-        <v>2614</v>
+        <v>2384</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67771,7 +67771,7 @@
         </is>
       </c>
       <c r="P936" t="n">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="Q936" t="n">
         <v>36</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E937" t="n">
         <v>13</v>
@@ -67821,16 +67821,16 @@
         </is>
       </c>
       <c r="J937" t="n">
-        <v>670</v>
+        <v>860</v>
       </c>
       <c r="K937" t="n">
+        <v>2200</v>
+      </c>
+      <c r="L937" t="n">
         <v>2400</v>
       </c>
-      <c r="L937" t="n">
-        <v>2700</v>
-      </c>
       <c r="M937" t="n">
-        <v>2561</v>
+        <v>2302</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67843,7 +67843,7 @@
         </is>
       </c>
       <c r="P937" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="Q937" t="n">
         <v>36</v>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E938" t="n">
         <v>13</v>
@@ -67893,16 +67893,16 @@
         </is>
       </c>
       <c r="J938" t="n">
-        <v>610</v>
+        <v>1030</v>
       </c>
       <c r="K938" t="n">
         <v>2000</v>
       </c>
       <c r="L938" t="n">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="M938" t="n">
-        <v>2172</v>
+        <v>2044</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67915,7 +67915,7 @@
         </is>
       </c>
       <c r="P938" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q938" t="n">
         <v>36</v>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E939" t="n">
         <v>13</v>
@@ -67965,16 +67965,16 @@
         </is>
       </c>
       <c r="J939" t="n">
-        <v>530</v>
+        <v>1050</v>
       </c>
       <c r="K939" t="n">
         <v>2000</v>
       </c>
       <c r="L939" t="n">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="M939" t="n">
-        <v>2109</v>
+        <v>2047</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67987,7 +67987,7 @@
         </is>
       </c>
       <c r="P939" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q939" t="n">
         <v>36</v>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E940" t="n">
         <v>13</v>
@@ -68037,16 +68037,16 @@
         </is>
       </c>
       <c r="J940" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="K940" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="L940" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="M940" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68059,7 +68059,7 @@
         </is>
       </c>
       <c r="P940" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q940" t="n">
         <v>36</v>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E941" t="n">
         <v>13</v>
@@ -68109,16 +68109,16 @@
         </is>
       </c>
       <c r="J941" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="K941" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="L941" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="M941" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68131,7 +68131,7 @@
         </is>
       </c>
       <c r="P941" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q941" t="n">
         <v>36</v>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E942" t="n">
         <v>13</v>
@@ -68181,16 +68181,16 @@
         </is>
       </c>
       <c r="J942" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="K942" t="n">
-        <v>3800</v>
+        <v>2500</v>
       </c>
       <c r="L942" t="n">
-        <v>4000</v>
+        <v>2700</v>
       </c>
       <c r="M942" t="n">
-        <v>3906</v>
+        <v>2614</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68203,7 +68203,7 @@
         </is>
       </c>
       <c r="P942" t="n">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="Q942" t="n">
         <v>36</v>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E943" t="n">
         <v>13</v>
@@ -68253,16 +68253,16 @@
         </is>
       </c>
       <c r="J943" t="n">
-        <v>810</v>
+        <v>670</v>
       </c>
       <c r="K943" t="n">
-        <v>3700</v>
+        <v>2400</v>
       </c>
       <c r="L943" t="n">
-        <v>4000</v>
+        <v>2700</v>
       </c>
       <c r="M943" t="n">
-        <v>3852</v>
+        <v>2561</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68275,7 +68275,7 @@
         </is>
       </c>
       <c r="P943" t="n">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="Q943" t="n">
         <v>36</v>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E944" t="n">
         <v>13</v>
@@ -68325,16 +68325,16 @@
         </is>
       </c>
       <c r="J944" t="n">
-        <v>800</v>
+        <v>610</v>
       </c>
       <c r="K944" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L944" t="n">
-        <v>3300</v>
+        <v>2300</v>
       </c>
       <c r="M944" t="n">
-        <v>3161</v>
+        <v>2172</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68347,7 +68347,7 @@
         </is>
       </c>
       <c r="P944" t="n">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="Q944" t="n">
         <v>36</v>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E945" t="n">
         <v>13</v>
@@ -68397,16 +68397,16 @@
         </is>
       </c>
       <c r="J945" t="n">
-        <v>920</v>
+        <v>530</v>
       </c>
       <c r="K945" t="n">
-        <v>2900</v>
+        <v>2000</v>
       </c>
       <c r="L945" t="n">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="M945" t="n">
-        <v>3047</v>
+        <v>2109</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68419,7 +68419,7 @@
         </is>
       </c>
       <c r="P945" t="n">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="Q945" t="n">
         <v>36</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E946" t="n">
         <v>13</v>
@@ -68469,16 +68469,16 @@
         </is>
       </c>
       <c r="J946" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="K946" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L946" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="M946" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68491,7 +68491,7 @@
         </is>
       </c>
       <c r="P946" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="Q946" t="n">
         <v>36</v>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E947" t="n">
         <v>13</v>
@@ -68541,16 +68541,16 @@
         </is>
       </c>
       <c r="J947" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="K947" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L947" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="M947" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68563,7 +68563,7 @@
         </is>
       </c>
       <c r="P947" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="Q947" t="n">
         <v>36</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E948" t="n">
         <v>13</v>
@@ -68613,16 +68613,16 @@
         </is>
       </c>
       <c r="J948" t="n">
-        <v>450</v>
+        <v>720</v>
       </c>
       <c r="K948" t="n">
-        <v>2800</v>
+        <v>3800</v>
       </c>
       <c r="L948" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="M948" t="n">
-        <v>2800</v>
+        <v>3906</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68635,7 +68635,7 @@
         </is>
       </c>
       <c r="P948" t="n">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="Q948" t="n">
         <v>36</v>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E949" t="n">
         <v>13</v>
@@ -68685,16 +68685,16 @@
         </is>
       </c>
       <c r="J949" t="n">
-        <v>340</v>
+        <v>810</v>
       </c>
       <c r="K949" t="n">
-        <v>2900</v>
+        <v>3700</v>
       </c>
       <c r="L949" t="n">
-        <v>2900</v>
+        <v>4000</v>
       </c>
       <c r="M949" t="n">
-        <v>2900</v>
+        <v>3852</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68707,7 +68707,7 @@
         </is>
       </c>
       <c r="P949" t="n">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="Q949" t="n">
         <v>36</v>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E950" t="n">
         <v>13</v>
@@ -68757,16 +68757,16 @@
         </is>
       </c>
       <c r="J950" t="n">
-        <v>640</v>
+        <v>800</v>
       </c>
       <c r="K950" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="L950" t="n">
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="M950" t="n">
-        <v>2419</v>
+        <v>3161</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68779,7 +68779,7 @@
         </is>
       </c>
       <c r="P950" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="Q950" t="n">
         <v>36</v>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E951" t="n">
         <v>13</v>
@@ -68829,16 +68829,16 @@
         </is>
       </c>
       <c r="J951" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="K951" t="n">
-        <v>2400</v>
+        <v>2900</v>
       </c>
       <c r="L951" t="n">
-        <v>2600</v>
+        <v>3200</v>
       </c>
       <c r="M951" t="n">
-        <v>2517</v>
+        <v>3047</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68851,7 +68851,7 @@
         </is>
       </c>
       <c r="P951" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="Q951" t="n">
         <v>36</v>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E952" t="n">
         <v>13</v>
@@ -68901,16 +68901,16 @@
         </is>
       </c>
       <c r="J952" t="n">
-        <v>470</v>
+        <v>250</v>
       </c>
       <c r="K952" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L952" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M952" t="n">
-        <v>1906</v>
+        <v>2500</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68923,7 +68923,7 @@
         </is>
       </c>
       <c r="P952" t="n">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="Q952" t="n">
         <v>36</v>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E953" t="n">
         <v>13</v>
@@ -68973,16 +68973,16 @@
         </is>
       </c>
       <c r="J953" t="n">
-        <v>430</v>
+        <v>320</v>
       </c>
       <c r="K953" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L953" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M953" t="n">
-        <v>1921</v>
+        <v>2500</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68995,7 +68995,7 @@
         </is>
       </c>
       <c r="P953" t="n">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="Q953" t="n">
         <v>36</v>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E954" t="n">
         <v>13</v>
@@ -69045,16 +69045,16 @@
         </is>
       </c>
       <c r="J954" t="n">
-        <v>320</v>
+        <v>450</v>
       </c>
       <c r="K954" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L954" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M954" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69067,7 +69067,7 @@
         </is>
       </c>
       <c r="P954" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Q954" t="n">
         <v>36</v>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E955" t="n">
         <v>13</v>
@@ -69117,16 +69117,16 @@
         </is>
       </c>
       <c r="J955" t="n">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="K955" t="n">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="L955" t="n">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="M955" t="n">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69139,7 +69139,7 @@
         </is>
       </c>
       <c r="P955" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q955" t="n">
         <v>36</v>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E956" t="n">
         <v>13</v>
@@ -69189,16 +69189,16 @@
         </is>
       </c>
       <c r="J956" t="n">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="K956" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="L956" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="M956" t="n">
-        <v>2518</v>
+        <v>2419</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69211,7 +69211,7 @@
         </is>
       </c>
       <c r="P956" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q956" t="n">
         <v>36</v>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E957" t="n">
         <v>13</v>
@@ -69261,7 +69261,7 @@
         </is>
       </c>
       <c r="J957" t="n">
-        <v>860</v>
+        <v>720</v>
       </c>
       <c r="K957" t="n">
         <v>2400</v>
@@ -69270,7 +69270,7 @@
         <v>2600</v>
       </c>
       <c r="M957" t="n">
-        <v>2498</v>
+        <v>2517</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69283,7 +69283,7 @@
         </is>
       </c>
       <c r="P957" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q957" t="n">
         <v>36</v>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E958" t="n">
         <v>13</v>
@@ -69333,16 +69333,16 @@
         </is>
       </c>
       <c r="J958" t="n">
-        <v>250</v>
+        <v>470</v>
       </c>
       <c r="K958" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="L958" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="M958" t="n">
-        <v>2200</v>
+        <v>1906</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69355,7 +69355,7 @@
         </is>
       </c>
       <c r="P958" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="Q958" t="n">
         <v>36</v>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E959" t="n">
         <v>13</v>
@@ -69405,16 +69405,16 @@
         </is>
       </c>
       <c r="J959" t="n">
-        <v>320</v>
+        <v>430</v>
       </c>
       <c r="K959" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="L959" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="M959" t="n">
-        <v>2200</v>
+        <v>1921</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69427,7 +69427,7 @@
         </is>
       </c>
       <c r="P959" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="Q959" t="n">
         <v>36</v>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E960" t="n">
         <v>13</v>
@@ -69477,16 +69477,16 @@
         </is>
       </c>
       <c r="J960" t="n">
-        <v>670</v>
+        <v>320</v>
       </c>
       <c r="K960" t="n">
         <v>3000</v>
       </c>
       <c r="L960" t="n">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="M960" t="n">
-        <v>3166</v>
+        <v>3000</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69499,7 +69499,7 @@
         </is>
       </c>
       <c r="P960" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="Q960" t="n">
         <v>36</v>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E961" t="n">
         <v>13</v>
@@ -69549,16 +69549,16 @@
         </is>
       </c>
       <c r="J961" t="n">
-        <v>680</v>
+        <v>370</v>
       </c>
       <c r="K961" t="n">
         <v>3000</v>
       </c>
       <c r="L961" t="n">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="M961" t="n">
-        <v>3172</v>
+        <v>3000</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69571,7 +69571,7 @@
         </is>
       </c>
       <c r="P961" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="Q961" t="n">
         <v>36</v>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E962" t="n">
         <v>13</v>
@@ -69621,7 +69621,7 @@
         </is>
       </c>
       <c r="J962" t="n">
-        <v>850</v>
+        <v>660</v>
       </c>
       <c r="K962" t="n">
         <v>2400</v>
@@ -69630,7 +69630,7 @@
         <v>2600</v>
       </c>
       <c r="M962" t="n">
-        <v>2506</v>
+        <v>2518</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E963" t="n">
         <v>13</v>
@@ -69693,7 +69693,7 @@
         </is>
       </c>
       <c r="J963" t="n">
-        <v>790</v>
+        <v>860</v>
       </c>
       <c r="K963" t="n">
         <v>2400</v>
@@ -69702,7 +69702,7 @@
         <v>2600</v>
       </c>
       <c r="M963" t="n">
-        <v>2511</v>
+        <v>2498</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69715,7 +69715,7 @@
         </is>
       </c>
       <c r="P963" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q963" t="n">
         <v>36</v>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E964" t="n">
         <v>13</v>
@@ -69768,13 +69768,13 @@
         <v>250</v>
       </c>
       <c r="K964" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="L964" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="M964" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69787,7 +69787,7 @@
         </is>
       </c>
       <c r="P964" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="Q964" t="n">
         <v>36</v>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E965" t="n">
         <v>13</v>
@@ -69837,16 +69837,16 @@
         </is>
       </c>
       <c r="J965" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="K965" t="n">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="L965" t="n">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="M965" t="n">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69859,7 +69859,7 @@
         </is>
       </c>
       <c r="P965" t="n">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="Q965" t="n">
         <v>36</v>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E966" t="n">
         <v>13</v>
@@ -69909,16 +69909,16 @@
         </is>
       </c>
       <c r="J966" t="n">
-        <v>490</v>
+        <v>670</v>
       </c>
       <c r="K966" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="L966" t="n">
-        <v>2800</v>
+        <v>3300</v>
       </c>
       <c r="M966" t="n">
-        <v>2743</v>
+        <v>3166</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69927,11 +69927,11 @@
       </c>
       <c r="O966" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P966" t="n">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="Q966" t="n">
         <v>36</v>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E967" t="n">
         <v>13</v>
@@ -69977,20 +69977,20 @@
       </c>
       <c r="I967" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J967" t="n">
-        <v>850</v>
+        <v>680</v>
       </c>
       <c r="K967" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L967" t="n">
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="M967" t="n">
-        <v>2479</v>
+        <v>3172</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -70003,7 +70003,7 @@
         </is>
       </c>
       <c r="P967" t="n">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="Q967" t="n">
         <v>36</v>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E968" t="n">
         <v>13</v>
@@ -70049,20 +70049,20 @@
       </c>
       <c r="I968" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J968" t="n">
-        <v>580</v>
+        <v>850</v>
       </c>
       <c r="K968" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L968" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="M968" t="n">
-        <v>2066</v>
+        <v>2506</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
@@ -70071,11 +70071,11 @@
       </c>
       <c r="O968" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P968" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="Q968" t="n">
         <v>36</v>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E969" t="n">
         <v>13</v>
@@ -70121,20 +70121,20 @@
       </c>
       <c r="I969" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J969" t="n">
-        <v>440</v>
+        <v>790</v>
       </c>
       <c r="K969" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="L969" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="M969" t="n">
-        <v>2800</v>
+        <v>2511</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70147,7 +70147,7 @@
         </is>
       </c>
       <c r="P969" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="Q969" t="n">
         <v>36</v>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E970" t="n">
         <v>13</v>
@@ -70193,20 +70193,20 @@
       </c>
       <c r="I970" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J970" t="n">
-        <v>730</v>
+        <v>250</v>
       </c>
       <c r="K970" t="n">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="L970" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="M970" t="n">
-        <v>2401</v>
+        <v>1800</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70215,11 +70215,11 @@
       </c>
       <c r="O970" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P970" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="Q970" t="n">
         <v>36</v>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E971" t="n">
         <v>13</v>
@@ -70269,16 +70269,16 @@
         </is>
       </c>
       <c r="J971" t="n">
-        <v>550</v>
+        <v>310</v>
       </c>
       <c r="K971" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="L971" t="n">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="M971" t="n">
-        <v>2091</v>
+        <v>1900</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70291,7 +70291,7 @@
         </is>
       </c>
       <c r="P971" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="Q971" t="n">
         <v>36</v>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E972" t="n">
         <v>13</v>
@@ -70341,16 +70341,16 @@
         </is>
       </c>
       <c r="J972" t="n">
-        <v>440</v>
+        <v>490</v>
       </c>
       <c r="K972" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="L972" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M972" t="n">
-        <v>3000</v>
+        <v>2743</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
@@ -70359,11 +70359,11 @@
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P972" t="n">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="Q972" t="n">
         <v>36</v>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E973" t="n">
         <v>13</v>
@@ -70409,20 +70409,20 @@
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J973" t="n">
-        <v>380</v>
+        <v>850</v>
       </c>
       <c r="K973" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L973" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M973" t="n">
-        <v>3000</v>
+        <v>2479</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70435,7 +70435,7 @@
         </is>
       </c>
       <c r="P973" t="n">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="Q973" t="n">
         <v>36</v>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E974" t="n">
         <v>13</v>
@@ -70481,20 +70481,20 @@
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J974" t="n">
-        <v>810</v>
+        <v>580</v>
       </c>
       <c r="K974" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L974" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="M974" t="n">
-        <v>2616</v>
+        <v>2066</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70503,11 +70503,11 @@
       </c>
       <c r="O974" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P974" t="n">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="Q974" t="n">
         <v>36</v>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E975" t="n">
         <v>13</v>
@@ -70553,20 +70553,20 @@
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J975" t="n">
-        <v>710</v>
+        <v>440</v>
       </c>
       <c r="K975" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="L975" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="M975" t="n">
-        <v>2515</v>
+        <v>2800</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70579,7 +70579,7 @@
         </is>
       </c>
       <c r="P975" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="Q975" t="n">
         <v>36</v>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E976" t="n">
         <v>13</v>
@@ -70625,20 +70625,20 @@
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J976" t="n">
-        <v>260</v>
+        <v>730</v>
       </c>
       <c r="K976" t="n">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="L976" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M976" t="n">
-        <v>2200</v>
+        <v>2401</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70647,11 +70647,11 @@
       </c>
       <c r="O976" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P976" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="Q976" t="n">
         <v>36</v>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E977" t="n">
         <v>13</v>
@@ -70701,16 +70701,16 @@
         </is>
       </c>
       <c r="J977" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="K977" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L977" t="n">
         <v>2200</v>
       </c>
       <c r="M977" t="n">
-        <v>2200</v>
+        <v>2091</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70723,7 +70723,7 @@
         </is>
       </c>
       <c r="P977" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q977" t="n">
         <v>36</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E978" t="n">
         <v>13</v>
@@ -70769,20 +70769,20 @@
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J978" t="n">
-        <v>720</v>
+        <v>440</v>
       </c>
       <c r="K978" t="n">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="L978" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M978" t="n">
-        <v>3422</v>
+        <v>3000</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70795,7 +70795,7 @@
         </is>
       </c>
       <c r="P978" t="n">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="Q978" t="n">
         <v>36</v>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E979" t="n">
         <v>13</v>
@@ -70841,20 +70841,20 @@
       </c>
       <c r="I979" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J979" t="n">
-        <v>620</v>
+        <v>380</v>
       </c>
       <c r="K979" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="L979" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="M979" t="n">
-        <v>3519</v>
+        <v>3000</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70867,7 +70867,7 @@
         </is>
       </c>
       <c r="P979" t="n">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="Q979" t="n">
         <v>36</v>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E980" t="n">
         <v>13</v>
@@ -70913,20 +70913,20 @@
       </c>
       <c r="I980" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J980" t="n">
-        <v>200</v>
+        <v>810</v>
       </c>
       <c r="K980" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L980" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="M980" t="n">
-        <v>2800</v>
+        <v>2616</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70939,7 +70939,7 @@
         </is>
       </c>
       <c r="P980" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="Q980" t="n">
         <v>36</v>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E981" t="n">
         <v>13</v>
@@ -70985,20 +70985,20 @@
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J981" t="n">
-        <v>240</v>
+        <v>710</v>
       </c>
       <c r="K981" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="L981" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="M981" t="n">
-        <v>2700</v>
+        <v>2515</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71011,7 +71011,7 @@
         </is>
       </c>
       <c r="P981" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Q981" t="n">
         <v>36</v>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E982" t="n">
         <v>13</v>
@@ -71057,20 +71057,20 @@
       </c>
       <c r="I982" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J982" t="n">
-        <v>740</v>
+        <v>260</v>
       </c>
       <c r="K982" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="L982" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="M982" t="n">
-        <v>2854</v>
+        <v>2200</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71083,7 +71083,7 @@
         </is>
       </c>
       <c r="P982" t="n">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="Q982" t="n">
         <v>36</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E983" t="n">
         <v>13</v>
@@ -71129,20 +71129,20 @@
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J983" t="n">
-        <v>620</v>
+        <v>250</v>
       </c>
       <c r="K983" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="L983" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="M983" t="n">
-        <v>2869</v>
+        <v>2200</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71155,7 +71155,7 @@
         </is>
       </c>
       <c r="P983" t="n">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="Q983" t="n">
         <v>36</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -71205,16 +71205,16 @@
         </is>
       </c>
       <c r="J984" t="n">
-        <v>820</v>
+        <v>720</v>
       </c>
       <c r="K984" t="n">
-        <v>2200</v>
+        <v>3300</v>
       </c>
       <c r="L984" t="n">
-        <v>2400</v>
+        <v>3500</v>
       </c>
       <c r="M984" t="n">
-        <v>2305</v>
+        <v>3422</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71227,7 +71227,7 @@
         </is>
       </c>
       <c r="P984" t="n">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="Q984" t="n">
         <v>36</v>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E985" t="n">
         <v>13</v>
@@ -71277,16 +71277,16 @@
         </is>
       </c>
       <c r="J985" t="n">
-        <v>740</v>
+        <v>620</v>
       </c>
       <c r="K985" t="n">
-        <v>2000</v>
+        <v>3400</v>
       </c>
       <c r="L985" t="n">
-        <v>2300</v>
+        <v>3600</v>
       </c>
       <c r="M985" t="n">
-        <v>2162</v>
+        <v>3519</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71299,7 +71299,7 @@
         </is>
       </c>
       <c r="P985" t="n">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="Q985" t="n">
         <v>36</v>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E986" t="n">
         <v>13</v>
@@ -71349,16 +71349,16 @@
         </is>
       </c>
       <c r="J986" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="K986" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="L986" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="M986" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71371,7 +71371,7 @@
         </is>
       </c>
       <c r="P986" t="n">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="Q986" t="n">
         <v>36</v>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E987" t="n">
         <v>13</v>
@@ -71421,16 +71421,16 @@
         </is>
       </c>
       <c r="J987" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K987" t="n">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="L987" t="n">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="M987" t="n">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71443,7 +71443,7 @@
         </is>
       </c>
       <c r="P987" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="Q987" t="n">
         <v>36</v>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E988" t="n">
         <v>13</v>
@@ -71493,16 +71493,16 @@
         </is>
       </c>
       <c r="J988" t="n">
-        <v>150</v>
+        <v>740</v>
       </c>
       <c r="K988" t="n">
-        <v>4000</v>
+        <v>2700</v>
       </c>
       <c r="L988" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M988" t="n">
-        <v>4000</v>
+        <v>2854</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71511,11 +71511,11 @@
       </c>
       <c r="O988" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P988" t="n">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="Q988" t="n">
         <v>36</v>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E989" t="n">
         <v>13</v>
@@ -71561,20 +71561,20 @@
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J989" t="n">
-        <v>330</v>
+        <v>620</v>
       </c>
       <c r="K989" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="L989" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M989" t="n">
-        <v>3500</v>
+        <v>2869</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71587,7 +71587,7 @@
         </is>
       </c>
       <c r="P989" t="n">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="Q989" t="n">
         <v>36</v>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E990" t="n">
         <v>13</v>
@@ -71633,20 +71633,20 @@
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J990" t="n">
-        <v>270</v>
+        <v>820</v>
       </c>
       <c r="K990" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="L990" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="M990" t="n">
-        <v>2500</v>
+        <v>2305</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71655,11 +71655,11 @@
       </c>
       <c r="O990" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P990" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="Q990" t="n">
         <v>36</v>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E991" t="n">
         <v>13</v>
@@ -71705,20 +71705,20 @@
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J991" t="n">
-        <v>680</v>
+        <v>740</v>
       </c>
       <c r="K991" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L991" t="n">
-        <v>3200</v>
+        <v>2300</v>
       </c>
       <c r="M991" t="n">
-        <v>3103</v>
+        <v>2162</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
@@ -71727,11 +71727,11 @@
       </c>
       <c r="O991" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P991" t="n">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="Q991" t="n">
         <v>36</v>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E992" t="n">
         <v>13</v>
@@ -71777,20 +71777,20 @@
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J992" t="n">
-        <v>740</v>
+        <v>260</v>
       </c>
       <c r="K992" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="L992" t="n">
-        <v>3200</v>
+        <v>1800</v>
       </c>
       <c r="M992" t="n">
-        <v>3105</v>
+        <v>1800</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71799,11 +71799,11 @@
       </c>
       <c r="O992" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P992" t="n">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="Q992" t="n">
         <v>36</v>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E993" t="n">
         <v>13</v>
@@ -71849,20 +71849,20 @@
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J993" t="n">
-        <v>720</v>
+        <v>200</v>
       </c>
       <c r="K993" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L993" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="M993" t="n">
-        <v>2617</v>
+        <v>1800</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71871,11 +71871,11 @@
       </c>
       <c r="O993" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P993" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="Q993" t="n">
         <v>36</v>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -71921,20 +71921,20 @@
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J994" t="n">
-        <v>680</v>
+        <v>150</v>
       </c>
       <c r="K994" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="L994" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="M994" t="n">
-        <v>2606</v>
+        <v>4000</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71947,7 +71947,7 @@
         </is>
       </c>
       <c r="P994" t="n">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="Q994" t="n">
         <v>36</v>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -71993,20 +71993,20 @@
       </c>
       <c r="I995" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J995" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="K995" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L995" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M995" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
@@ -72015,11 +72015,11 @@
       </c>
       <c r="O995" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P995" t="n">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="Q995" t="n">
         <v>36</v>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -72072,13 +72072,13 @@
         <v>270</v>
       </c>
       <c r="K996" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L996" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M996" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72091,7 +72091,7 @@
         </is>
       </c>
       <c r="P996" t="n">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="Q996" t="n">
         <v>36</v>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -72141,16 +72141,16 @@
         </is>
       </c>
       <c r="J997" t="n">
-        <v>520</v>
+        <v>680</v>
       </c>
       <c r="K997" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="L997" t="n">
-        <v>2600</v>
+        <v>3200</v>
       </c>
       <c r="M997" t="n">
-        <v>2600</v>
+        <v>3103</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72159,11 +72159,11 @@
       </c>
       <c r="O997" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P997" t="n">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q997" t="n">
         <v>36</v>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E998" t="n">
         <v>13</v>
@@ -72209,20 +72209,20 @@
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J998" t="n">
-        <v>890</v>
+        <v>740</v>
       </c>
       <c r="K998" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="L998" t="n">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="M998" t="n">
-        <v>2370</v>
+        <v>3105</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
@@ -72235,7 +72235,7 @@
         </is>
       </c>
       <c r="P998" t="n">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="Q998" t="n">
         <v>36</v>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E999" t="n">
         <v>13</v>
@@ -72281,20 +72281,20 @@
       </c>
       <c r="I999" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J999" t="n">
-        <v>540</v>
+        <v>720</v>
       </c>
       <c r="K999" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L999" t="n">
-        <v>2100</v>
+        <v>2700</v>
       </c>
       <c r="M999" t="n">
-        <v>2070</v>
+        <v>2617</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
@@ -72303,11 +72303,11 @@
       </c>
       <c r="O999" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P999" t="n">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="Q999" t="n">
         <v>36</v>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1000" t="n">
         <v>13</v>
@@ -72353,20 +72353,20 @@
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1000" t="n">
         <v>680</v>
       </c>
       <c r="K1000" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L1000" t="n">
         <v>2700</v>
       </c>
-      <c r="L1000" t="n">
-        <v>3000</v>
-      </c>
       <c r="M1000" t="n">
-        <v>2854</v>
+        <v>2606</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
@@ -72375,11 +72375,11 @@
       </c>
       <c r="O1000" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="Q1000" t="n">
         <v>36</v>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1001" t="n">
         <v>13</v>
@@ -72425,20 +72425,20 @@
       </c>
       <c r="I1001" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>730</v>
+        <v>300</v>
       </c>
       <c r="K1001" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="L1001" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M1001" t="n">
-        <v>2860</v>
+        <v>2000</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72447,11 +72447,11 @@
       </c>
       <c r="O1001" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="Q1001" t="n">
         <v>36</v>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1002" t="n">
         <v>13</v>
@@ -72497,20 +72497,20 @@
       </c>
       <c r="I1002" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>640</v>
+        <v>270</v>
       </c>
       <c r="K1002" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="L1002" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M1002" t="n">
-        <v>2403</v>
+        <v>2000</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72519,11 +72519,11 @@
       </c>
       <c r="O1002" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="Q1002" t="n">
         <v>36</v>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1003" t="n">
         <v>13</v>
@@ -72569,20 +72569,20 @@
       </c>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>630</v>
+        <v>520</v>
       </c>
       <c r="K1003" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="L1003" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="M1003" t="n">
-        <v>2357</v>
+        <v>2600</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72595,7 +72595,7 @@
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="Q1003" t="n">
         <v>36</v>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1004" t="n">
         <v>13</v>
@@ -72641,20 +72641,20 @@
       </c>
       <c r="I1004" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>240</v>
+        <v>890</v>
       </c>
       <c r="K1004" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="L1004" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="M1004" t="n">
-        <v>1800</v>
+        <v>2370</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72663,11 +72663,11 @@
       </c>
       <c r="O1004" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="Q1004" t="n">
         <v>36</v>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1005" t="n">
         <v>13</v>
@@ -72717,16 +72717,16 @@
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>260</v>
+        <v>540</v>
       </c>
       <c r="K1005" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="L1005" t="n">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="M1005" t="n">
-        <v>1900</v>
+        <v>2070</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72739,7 +72739,7 @@
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Q1005" t="n">
         <v>36</v>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1006" t="n">
         <v>13</v>
@@ -72789,16 +72789,16 @@
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>420</v>
+        <v>680</v>
       </c>
       <c r="K1006" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="L1006" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M1006" t="n">
-        <v>2800</v>
+        <v>2854</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72811,7 +72811,7 @@
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q1006" t="n">
         <v>36</v>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1007" t="n">
         <v>13</v>
@@ -72861,16 +72861,16 @@
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>450</v>
+        <v>730</v>
       </c>
       <c r="K1007" t="n">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="L1007" t="n">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="M1007" t="n">
-        <v>2900</v>
+        <v>2860</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72883,7 +72883,7 @@
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q1007" t="n">
         <v>36</v>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1008" t="n">
         <v>13</v>
@@ -72933,7 +72933,7 @@
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="K1008" t="n">
         <v>2300</v>
@@ -72942,7 +72942,7 @@
         <v>2500</v>
       </c>
       <c r="M1008" t="n">
-        <v>2418</v>
+        <v>2403</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1009" t="n">
         <v>13</v>
@@ -73005,16 +73005,16 @@
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>700</v>
+        <v>630</v>
       </c>
       <c r="K1009" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="L1009" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="M1009" t="n">
-        <v>2511</v>
+        <v>2357</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
@@ -73027,7 +73027,7 @@
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Q1009" t="n">
         <v>36</v>
@@ -73053,7 +73053,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1010" t="n">
         <v>13</v>
@@ -73077,16 +73077,16 @@
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="K1010" t="n">
         <v>1800</v>
       </c>
       <c r="L1010" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="M1010" t="n">
-        <v>1911</v>
+        <v>1800</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
@@ -73099,7 +73099,7 @@
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q1010" t="n">
         <v>36</v>
@@ -73125,7 +73125,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1011" t="n">
         <v>13</v>
@@ -73149,16 +73149,16 @@
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>470</v>
+        <v>260</v>
       </c>
       <c r="K1011" t="n">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="L1011" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="M1011" t="n">
-        <v>1928</v>
+        <v>1900</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
@@ -73171,7 +73171,7 @@
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q1011" t="n">
         <v>36</v>
@@ -73197,7 +73197,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1012" t="n">
         <v>13</v>
@@ -73221,16 +73221,16 @@
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>810</v>
+        <v>420</v>
       </c>
       <c r="K1012" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="L1012" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="M1012" t="n">
-        <v>3363</v>
+        <v>2800</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
@@ -73243,7 +73243,7 @@
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="Q1012" t="n">
         <v>36</v>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1013" t="n">
         <v>13</v>
@@ -73293,16 +73293,16 @@
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>710</v>
+        <v>450</v>
       </c>
       <c r="K1013" t="n">
-        <v>3200</v>
+        <v>2900</v>
       </c>
       <c r="L1013" t="n">
-        <v>3500</v>
+        <v>2900</v>
       </c>
       <c r="M1013" t="n">
-        <v>3361</v>
+        <v>2900</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
@@ -73315,7 +73315,7 @@
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="Q1013" t="n">
         <v>36</v>
@@ -73341,7 +73341,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1014" t="n">
         <v>13</v>
@@ -73365,16 +73365,16 @@
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>870</v>
+        <v>660</v>
       </c>
       <c r="K1014" t="n">
         <v>2300</v>
       </c>
       <c r="L1014" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M1014" t="n">
-        <v>2570</v>
+        <v>2418</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
@@ -73387,7 +73387,7 @@
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q1014" t="n">
         <v>36</v>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1015" t="n">
         <v>13</v>
@@ -73437,7 +73437,7 @@
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>810</v>
+        <v>700</v>
       </c>
       <c r="K1015" t="n">
         <v>2400</v>
@@ -73446,7 +73446,7 @@
         <v>2600</v>
       </c>
       <c r="M1015" t="n">
-        <v>2501</v>
+        <v>2511</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73459,7 +73459,7 @@
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q1015" t="n">
         <v>36</v>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1016" t="n">
         <v>13</v>
@@ -73509,16 +73509,16 @@
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K1016" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L1016" t="n">
         <v>2000</v>
       </c>
       <c r="M1016" t="n">
-        <v>2000</v>
+        <v>1911</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
@@ -73531,7 +73531,7 @@
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q1016" t="n">
         <v>36</v>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -73581,16 +73581,16 @@
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>250</v>
+        <v>470</v>
       </c>
       <c r="K1017" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L1017" t="n">
         <v>2000</v>
       </c>
       <c r="M1017" t="n">
-        <v>2000</v>
+        <v>1928</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73603,7 +73603,7 @@
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q1017" t="n">
         <v>36</v>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1018" t="n">
         <v>13</v>
@@ -73653,16 +73653,16 @@
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>330</v>
+        <v>810</v>
       </c>
       <c r="K1018" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="L1018" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M1018" t="n">
-        <v>2800</v>
+        <v>3363</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
@@ -73675,7 +73675,7 @@
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="Q1018" t="n">
         <v>36</v>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1019" t="n">
         <v>13</v>
@@ -73725,16 +73725,16 @@
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>270</v>
+        <v>710</v>
       </c>
       <c r="K1019" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="L1019" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M1019" t="n">
-        <v>2800</v>
+        <v>3361</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73747,7 +73747,7 @@
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="Q1019" t="n">
         <v>36</v>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1020" t="n">
         <v>13</v>
@@ -73797,16 +73797,16 @@
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>640</v>
+        <v>870</v>
       </c>
       <c r="K1020" t="n">
         <v>2300</v>
       </c>
       <c r="L1020" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M1020" t="n">
-        <v>2419</v>
+        <v>2570</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73819,7 +73819,7 @@
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="Q1020" t="n">
         <v>36</v>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1021" t="n">
         <v>13</v>
@@ -73869,16 +73869,16 @@
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="K1021" t="n">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="L1021" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="M1021" t="n">
-        <v>2417</v>
+        <v>2501</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73891,7 +73891,7 @@
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q1021" t="n">
         <v>36</v>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1022" t="n">
         <v>13</v>
@@ -73941,7 +73941,7 @@
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K1022" t="n">
         <v>2000</v>
@@ -73989,7 +73989,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1023" t="n">
         <v>13</v>
@@ -74061,7 +74061,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1024" t="n">
         <v>13</v>
@@ -74081,20 +74081,20 @@
       </c>
       <c r="I1024" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>830</v>
+        <v>330</v>
       </c>
       <c r="K1024" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="L1024" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M1024" t="n">
-        <v>2812</v>
+        <v>2800</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
@@ -74133,7 +74133,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1025" t="n">
         <v>13</v>
@@ -74153,20 +74153,20 @@
       </c>
       <c r="I1025" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>1010</v>
+        <v>270</v>
       </c>
       <c r="K1025" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="L1025" t="n">
         <v>2800</v>
       </c>
       <c r="M1025" t="n">
-        <v>2707</v>
+        <v>2800</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
@@ -74179,7 +74179,7 @@
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q1025" t="n">
         <v>36</v>
@@ -74205,7 +74205,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1026" t="n">
         <v>13</v>
@@ -74225,20 +74225,20 @@
       </c>
       <c r="I1026" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>280</v>
+        <v>640</v>
       </c>
       <c r="K1026" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="L1026" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M1026" t="n">
-        <v>2000</v>
+        <v>2419</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
@@ -74251,7 +74251,7 @@
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="Q1026" t="n">
         <v>36</v>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1027" t="n">
         <v>13</v>
@@ -74297,20 +74297,20 @@
       </c>
       <c r="I1027" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>330</v>
+        <v>720</v>
       </c>
       <c r="K1027" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="L1027" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M1027" t="n">
-        <v>2000</v>
+        <v>2417</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
@@ -74323,7 +74323,7 @@
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="Q1027" t="n">
         <v>36</v>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E1028" t="n">
         <v>13</v>
@@ -74369,20 +74369,20 @@
       </c>
       <c r="I1028" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>440</v>
+        <v>180</v>
       </c>
       <c r="K1028" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L1028" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M1028" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
@@ -74395,7 +74395,7 @@
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="Q1028" t="n">
         <v>36</v>
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E1029" t="n">
         <v>13</v>
@@ -74441,20 +74441,20 @@
       </c>
       <c r="I1029" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="K1029" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L1029" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M1029" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
@@ -74467,7 +74467,7 @@
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="Q1029" t="n">
         <v>36</v>
@@ -74493,7 +74493,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1030" t="n">
         <v>13</v>
@@ -74517,16 +74517,16 @@
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="K1030" t="n">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="L1030" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M1030" t="n">
-        <v>2408</v>
+        <v>2812</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
@@ -74539,7 +74539,7 @@
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="Q1030" t="n">
         <v>36</v>
@@ -74565,7 +74565,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1031" t="n">
         <v>13</v>
@@ -74589,16 +74589,16 @@
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>960</v>
+        <v>1010</v>
       </c>
       <c r="K1031" t="n">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="L1031" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M1031" t="n">
-        <v>2392</v>
+        <v>2707</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
@@ -74611,7 +74611,7 @@
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="Q1031" t="n">
         <v>36</v>
@@ -74637,7 +74637,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1032" t="n">
         <v>13</v>
@@ -74661,16 +74661,16 @@
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>490</v>
+        <v>280</v>
       </c>
       <c r="K1032" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L1032" t="n">
         <v>2000</v>
       </c>
       <c r="M1032" t="n">
-        <v>1906</v>
+        <v>2000</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
@@ -74683,7 +74683,7 @@
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q1032" t="n">
         <v>36</v>
@@ -74709,7 +74709,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1033" t="n">
         <v>13</v>
@@ -74733,16 +74733,16 @@
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>550</v>
+        <v>330</v>
       </c>
       <c r="K1033" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L1033" t="n">
         <v>2000</v>
       </c>
       <c r="M1033" t="n">
-        <v>1902</v>
+        <v>2000</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
@@ -74755,7 +74755,7 @@
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q1033" t="n">
         <v>36</v>
@@ -74781,7 +74781,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1034" t="n">
         <v>13</v>
@@ -74801,20 +74801,20 @@
       </c>
       <c r="I1034" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>810</v>
+        <v>440</v>
       </c>
       <c r="K1034" t="n">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="L1034" t="n">
-        <v>3600</v>
+        <v>2800</v>
       </c>
       <c r="M1034" t="n">
-        <v>3509</v>
+        <v>2800</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
@@ -74827,7 +74827,7 @@
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="Q1034" t="n">
         <v>36</v>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1035" t="n">
         <v>13</v>
@@ -74873,20 +74873,20 @@
       </c>
       <c r="I1035" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>560</v>
+        <v>450</v>
       </c>
       <c r="K1035" t="n">
         <v>2800</v>
       </c>
       <c r="L1035" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M1035" t="n">
-        <v>2911</v>
+        <v>2800</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
@@ -74895,11 +74895,11 @@
       </c>
       <c r="O1035" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q1035" t="n">
         <v>36</v>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E1036" t="n">
         <v>13</v>
@@ -74949,16 +74949,16 @@
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>830</v>
+        <v>850</v>
       </c>
       <c r="K1036" t="n">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="L1036" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M1036" t="n">
-        <v>2859</v>
+        <v>2408</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
@@ -74971,7 +74971,7 @@
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="Q1036" t="n">
         <v>36</v>
@@ -74997,7 +74997,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E1037" t="n">
         <v>13</v>
@@ -75021,16 +75021,16 @@
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="K1037" t="n">
-        <v>2600</v>
+        <v>2300</v>
       </c>
       <c r="L1037" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M1037" t="n">
-        <v>2709</v>
+        <v>2392</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
@@ -75043,7 +75043,7 @@
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="Q1037" t="n">
         <v>36</v>
@@ -75069,7 +75069,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E1038" t="n">
         <v>13</v>
@@ -75093,16 +75093,16 @@
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>250</v>
+        <v>490</v>
       </c>
       <c r="K1038" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L1038" t="n">
         <v>2000</v>
       </c>
       <c r="M1038" t="n">
-        <v>2000</v>
+        <v>1906</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
@@ -75115,7 +75115,7 @@
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q1038" t="n">
         <v>36</v>
@@ -75141,7 +75141,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E1039" t="n">
         <v>13</v>
@@ -75165,16 +75165,16 @@
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>290</v>
+        <v>550</v>
       </c>
       <c r="K1039" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L1039" t="n">
         <v>2000</v>
       </c>
       <c r="M1039" t="n">
-        <v>2000</v>
+        <v>1902</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
@@ -75187,7 +75187,7 @@
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q1039" t="n">
         <v>36</v>
@@ -75213,7 +75213,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1040" t="n">
         <v>13</v>
@@ -75233,20 +75233,20 @@
       </c>
       <c r="I1040" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>440</v>
+        <v>810</v>
       </c>
       <c r="K1040" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="L1040" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="M1040" t="n">
-        <v>3000</v>
+        <v>3509</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
@@ -75255,11 +75255,11 @@
       </c>
       <c r="O1040" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="Q1040" t="n">
         <v>36</v>
@@ -75285,7 +75285,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1041" t="n">
         <v>13</v>
@@ -75305,20 +75305,20 @@
       </c>
       <c r="I1041" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1041" t="n">
-        <v>300</v>
+        <v>560</v>
       </c>
       <c r="K1041" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L1041" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M1041" t="n">
-        <v>2500</v>
+        <v>2911</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
@@ -75331,7 +75331,7 @@
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="Q1041" t="n">
         <v>36</v>
@@ -75357,7 +75357,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1042" t="n">
         <v>13</v>
@@ -75381,16 +75381,16 @@
         </is>
       </c>
       <c r="J1042" t="n">
-        <v>570</v>
+        <v>830</v>
       </c>
       <c r="K1042" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="L1042" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M1042" t="n">
-        <v>2623</v>
+        <v>2859</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
@@ -75399,11 +75399,11 @@
       </c>
       <c r="O1042" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="Q1042" t="n">
         <v>36</v>
@@ -75429,7 +75429,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1043" t="n">
         <v>13</v>
@@ -75449,20 +75449,20 @@
       </c>
       <c r="I1043" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>200</v>
+        <v>970</v>
       </c>
       <c r="K1043" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="L1043" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M1043" t="n">
-        <v>2000</v>
+        <v>2709</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
@@ -75471,11 +75471,11 @@
       </c>
       <c r="O1043" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="Q1043" t="n">
         <v>36</v>
@@ -75501,7 +75501,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1044" t="n">
         <v>13</v>
@@ -75525,16 +75525,16 @@
         </is>
       </c>
       <c r="J1044" t="n">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="K1044" t="n">
         <v>2000</v>
       </c>
       <c r="L1044" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="M1044" t="n">
-        <v>2175</v>
+        <v>2000</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
@@ -75543,11 +75543,11 @@
       </c>
       <c r="O1044" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q1044" t="n">
         <v>36</v>
@@ -75573,7 +75573,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E1045" t="n">
         <v>13</v>
@@ -75593,20 +75593,20 @@
       </c>
       <c r="I1045" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1045" t="n">
-        <v>790</v>
+        <v>290</v>
       </c>
       <c r="K1045" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="L1045" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M1045" t="n">
-        <v>3867</v>
+        <v>2000</v>
       </c>
       <c r="N1045" t="inlineStr">
         <is>
@@ -75615,11 +75615,11 @@
       </c>
       <c r="O1045" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="Q1045" t="n">
         <v>36</v>
@@ -75645,7 +75645,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1046" t="n">
         <v>13</v>
@@ -75669,16 +75669,16 @@
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>640</v>
+        <v>440</v>
       </c>
       <c r="K1046" t="n">
-        <v>3700</v>
+        <v>3000</v>
       </c>
       <c r="L1046" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M1046" t="n">
-        <v>3859</v>
+        <v>3000</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
@@ -75691,7 +75691,7 @@
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="Q1046" t="n">
         <v>36</v>
@@ -75717,7 +75717,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1047" t="n">
         <v>13</v>
@@ -75741,16 +75741,16 @@
         </is>
       </c>
       <c r="J1047" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="K1047" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L1047" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M1047" t="n">
-        <v>2925</v>
+        <v>2500</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
@@ -75763,7 +75763,7 @@
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="Q1047" t="n">
         <v>36</v>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1048" t="n">
         <v>13</v>
@@ -75813,16 +75813,16 @@
         </is>
       </c>
       <c r="J1048" t="n">
-        <v>740</v>
+        <v>570</v>
       </c>
       <c r="K1048" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L1048" t="n">
         <v>2700</v>
       </c>
-      <c r="L1048" t="n">
-        <v>3000</v>
-      </c>
       <c r="M1048" t="n">
-        <v>2858</v>
+        <v>2623</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
@@ -75835,7 +75835,7 @@
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="Q1048" t="n">
         <v>36</v>
@@ -75861,7 +75861,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1049" t="n">
         <v>13</v>
@@ -75885,16 +75885,16 @@
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K1049" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L1049" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="M1049" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
@@ -75907,7 +75907,7 @@
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q1049" t="n">
         <v>36</v>
@@ -75933,7 +75933,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1050" t="n">
         <v>13</v>
@@ -75957,16 +75957,16 @@
         </is>
       </c>
       <c r="J1050" t="n">
-        <v>290</v>
+        <v>480</v>
       </c>
       <c r="K1050" t="n">
         <v>2000</v>
       </c>
       <c r="L1050" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="M1050" t="n">
-        <v>2000</v>
+        <v>2175</v>
       </c>
       <c r="N1050" t="inlineStr">
         <is>
@@ -75979,7 +75979,7 @@
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q1050" t="n">
         <v>36</v>
@@ -76005,7 +76005,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1051" t="n">
         <v>13</v>
@@ -76029,16 +76029,16 @@
         </is>
       </c>
       <c r="J1051" t="n">
-        <v>280</v>
+        <v>790</v>
       </c>
       <c r="K1051" t="n">
-        <v>3000</v>
+        <v>3700</v>
       </c>
       <c r="L1051" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M1051" t="n">
-        <v>3000</v>
+        <v>3867</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
@@ -76051,7 +76051,7 @@
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="Q1051" t="n">
         <v>36</v>
@@ -76077,7 +76077,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1052" t="n">
         <v>13</v>
@@ -76101,16 +76101,16 @@
         </is>
       </c>
       <c r="J1052" t="n">
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="K1052" t="n">
-        <v>2900</v>
+        <v>3700</v>
       </c>
       <c r="L1052" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M1052" t="n">
-        <v>2956</v>
+        <v>3859</v>
       </c>
       <c r="N1052" t="inlineStr">
         <is>
@@ -76123,7 +76123,7 @@
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="Q1052" t="n">
         <v>36</v>
@@ -76149,7 +76149,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1053" t="n">
         <v>13</v>
@@ -76173,16 +76173,16 @@
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>660</v>
+        <v>750</v>
       </c>
       <c r="K1053" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L1053" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="M1053" t="n">
-        <v>2548</v>
+        <v>2925</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
@@ -76195,7 +76195,7 @@
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="Q1053" t="n">
         <v>36</v>
@@ -76221,7 +76221,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1054" t="n">
         <v>13</v>
@@ -76245,16 +76245,16 @@
         </is>
       </c>
       <c r="J1054" t="n">
-        <v>690</v>
+        <v>740</v>
       </c>
       <c r="K1054" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="L1054" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M1054" t="n">
-        <v>2613</v>
+        <v>2858</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
@@ -76267,7 +76267,7 @@
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="Q1054" t="n">
         <v>36</v>
@@ -76293,7 +76293,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1055" t="n">
         <v>13</v>
@@ -76317,7 +76317,7 @@
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K1055" t="n">
         <v>2200</v>
@@ -76365,7 +76365,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1056" t="n">
         <v>13</v>
@@ -76389,16 +76389,16 @@
         </is>
       </c>
       <c r="J1056" t="n">
-        <v>180</v>
+        <v>290</v>
       </c>
       <c r="K1056" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L1056" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="M1056" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="N1056" t="inlineStr">
         <is>
@@ -76411,7 +76411,7 @@
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q1056" t="n">
         <v>36</v>
@@ -76437,7 +76437,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1057" t="n">
         <v>13</v>
@@ -76457,20 +76457,20 @@
       </c>
       <c r="I1057" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>680</v>
+        <v>280</v>
       </c>
       <c r="K1057" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L1057" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M1057" t="n">
-        <v>2603</v>
+        <v>3000</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
@@ -76483,7 +76483,7 @@
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="Q1057" t="n">
         <v>36</v>
@@ -76509,7 +76509,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1058" t="n">
         <v>13</v>
@@ -76529,20 +76529,20 @@
       </c>
       <c r="I1058" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1058" t="n">
-        <v>720</v>
+        <v>620</v>
       </c>
       <c r="K1058" t="n">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="L1058" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="M1058" t="n">
-        <v>2557</v>
+        <v>2956</v>
       </c>
       <c r="N1058" t="inlineStr">
         <is>
@@ -76555,7 +76555,7 @@
         </is>
       </c>
       <c r="P1058" t="n">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="Q1058" t="n">
         <v>36</v>
@@ -76581,7 +76581,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1059" t="n">
         <v>13</v>
@@ -76601,20 +76601,20 @@
       </c>
       <c r="I1059" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1059" t="n">
-        <v>460</v>
+        <v>660</v>
       </c>
       <c r="K1059" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L1059" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="M1059" t="n">
-        <v>2109</v>
+        <v>2548</v>
       </c>
       <c r="N1059" t="inlineStr">
         <is>
@@ -76627,7 +76627,7 @@
         </is>
       </c>
       <c r="P1059" t="n">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="Q1059" t="n">
         <v>36</v>
@@ -76653,7 +76653,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1060" t="n">
         <v>13</v>
@@ -76673,20 +76673,20 @@
       </c>
       <c r="I1060" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1060" t="n">
-        <v>520</v>
+        <v>690</v>
       </c>
       <c r="K1060" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L1060" t="n">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="M1060" t="n">
-        <v>2108</v>
+        <v>2613</v>
       </c>
       <c r="N1060" t="inlineStr">
         <is>
@@ -76699,7 +76699,7 @@
         </is>
       </c>
       <c r="P1060" t="n">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="Q1060" t="n">
         <v>36</v>
@@ -76725,7 +76725,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1061" t="n">
         <v>13</v>
@@ -76745,20 +76745,20 @@
       </c>
       <c r="I1061" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>830</v>
+        <v>150</v>
       </c>
       <c r="K1061" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="L1061" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="M1061" t="n">
-        <v>2606</v>
+        <v>2200</v>
       </c>
       <c r="N1061" t="inlineStr">
         <is>
@@ -76771,7 +76771,7 @@
         </is>
       </c>
       <c r="P1061" t="n">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="Q1061" t="n">
         <v>36</v>
@@ -76797,7 +76797,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1062" t="n">
         <v>13</v>
@@ -76817,20 +76817,20 @@
       </c>
       <c r="I1062" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>1020</v>
+        <v>180</v>
       </c>
       <c r="K1062" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="L1062" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="M1062" t="n">
-        <v>2506</v>
+        <v>2200</v>
       </c>
       <c r="N1062" t="inlineStr">
         <is>
@@ -76843,7 +76843,7 @@
         </is>
       </c>
       <c r="P1062" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="Q1062" t="n">
         <v>36</v>
@@ -76869,7 +76869,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1063" t="n">
         <v>13</v>
@@ -76889,20 +76889,20 @@
       </c>
       <c r="I1063" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>250</v>
+        <v>680</v>
       </c>
       <c r="K1063" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L1063" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="M1063" t="n">
-        <v>2000</v>
+        <v>2603</v>
       </c>
       <c r="N1063" t="inlineStr">
         <is>
@@ -76915,7 +76915,7 @@
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="Q1063" t="n">
         <v>36</v>
@@ -76941,7 +76941,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1064" t="n">
         <v>13</v>
@@ -76961,20 +76961,20 @@
       </c>
       <c r="I1064" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1064" t="n">
-        <v>280</v>
+        <v>720</v>
       </c>
       <c r="K1064" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L1064" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="M1064" t="n">
-        <v>2000</v>
+        <v>2557</v>
       </c>
       <c r="N1064" t="inlineStr">
         <is>
@@ -76987,7 +76987,7 @@
         </is>
       </c>
       <c r="P1064" t="n">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="Q1064" t="n">
         <v>36</v>
@@ -77013,7 +77013,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1065" t="n">
         <v>13</v>
@@ -77033,20 +77033,20 @@
       </c>
       <c r="I1065" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>820</v>
+        <v>460</v>
       </c>
       <c r="K1065" t="n">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="L1065" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="M1065" t="n">
-        <v>3407</v>
+        <v>2109</v>
       </c>
       <c r="N1065" t="inlineStr">
         <is>
@@ -77059,7 +77059,7 @@
         </is>
       </c>
       <c r="P1065" t="n">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="Q1065" t="n">
         <v>36</v>
@@ -77085,7 +77085,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1066" t="n">
         <v>13</v>
@@ -77105,20 +77105,20 @@
       </c>
       <c r="I1066" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1066" t="n">
-        <v>900</v>
+        <v>520</v>
       </c>
       <c r="K1066" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="L1066" t="n">
-        <v>3600</v>
+        <v>2200</v>
       </c>
       <c r="M1066" t="n">
-        <v>3507</v>
+        <v>2108</v>
       </c>
       <c r="N1066" t="inlineStr">
         <is>
@@ -77131,7 +77131,7 @@
         </is>
       </c>
       <c r="P1066" t="n">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="Q1066" t="n">
         <v>36</v>
@@ -77157,7 +77157,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1067" t="n">
         <v>13</v>
@@ -77177,20 +77177,20 @@
       </c>
       <c r="I1067" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1067" t="n">
-        <v>540</v>
+        <v>830</v>
       </c>
       <c r="K1067" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L1067" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="M1067" t="n">
-        <v>2907</v>
+        <v>2606</v>
       </c>
       <c r="N1067" t="inlineStr">
         <is>
@@ -77203,7 +77203,7 @@
         </is>
       </c>
       <c r="P1067" t="n">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="Q1067" t="n">
         <v>36</v>
@@ -77229,7 +77229,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1068" t="n">
         <v>13</v>
@@ -77249,20 +77249,20 @@
       </c>
       <c r="I1068" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1068" t="n">
-        <v>690</v>
+        <v>1020</v>
       </c>
       <c r="K1068" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="L1068" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="M1068" t="n">
-        <v>2904</v>
+        <v>2506</v>
       </c>
       <c r="N1068" t="inlineStr">
         <is>
@@ -77275,7 +77275,7 @@
         </is>
       </c>
       <c r="P1068" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="Q1068" t="n">
         <v>36</v>
@@ -77301,7 +77301,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E1069" t="n">
         <v>13</v>
@@ -77321,20 +77321,20 @@
       </c>
       <c r="I1069" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1069" t="n">
-        <v>710</v>
+        <v>250</v>
       </c>
       <c r="K1069" t="n">
-        <v>3800</v>
+        <v>2000</v>
       </c>
       <c r="L1069" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M1069" t="n">
-        <v>3907</v>
+        <v>2000</v>
       </c>
       <c r="N1069" t="inlineStr">
         <is>
@@ -77347,7 +77347,7 @@
         </is>
       </c>
       <c r="P1069" t="n">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="Q1069" t="n">
         <v>36</v>
@@ -77373,7 +77373,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E1070" t="n">
         <v>13</v>
@@ -77393,20 +77393,20 @@
       </c>
       <c r="I1070" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>700</v>
+        <v>280</v>
       </c>
       <c r="K1070" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="L1070" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M1070" t="n">
-        <v>3854</v>
+        <v>2000</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
@@ -77419,7 +77419,7 @@
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="Q1070" t="n">
         <v>36</v>
@@ -77445,7 +77445,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1071" t="n">
         <v>13</v>
@@ -77469,16 +77469,16 @@
         </is>
       </c>
       <c r="J1071" t="n">
-        <v>840</v>
+        <v>820</v>
       </c>
       <c r="K1071" t="n">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="L1071" t="n">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="M1071" t="n">
-        <v>3107</v>
+        <v>3407</v>
       </c>
       <c r="N1071" t="inlineStr">
         <is>
@@ -77491,7 +77491,7 @@
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="Q1071" t="n">
         <v>36</v>
@@ -77517,7 +77517,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1072" t="n">
         <v>13</v>
@@ -77541,16 +77541,16 @@
         </is>
       </c>
       <c r="J1072" t="n">
-        <v>810</v>
+        <v>900</v>
       </c>
       <c r="K1072" t="n">
-        <v>2900</v>
+        <v>3400</v>
       </c>
       <c r="L1072" t="n">
-        <v>3300</v>
+        <v>3600</v>
       </c>
       <c r="M1072" t="n">
-        <v>3107</v>
+        <v>3507</v>
       </c>
       <c r="N1072" t="inlineStr">
         <is>
@@ -77563,7 +77563,7 @@
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="Q1072" t="n">
         <v>36</v>
@@ -77589,7 +77589,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1073" t="n">
         <v>13</v>
@@ -77613,16 +77613,16 @@
         </is>
       </c>
       <c r="J1073" t="n">
-        <v>270</v>
+        <v>540</v>
       </c>
       <c r="K1073" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="L1073" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M1073" t="n">
-        <v>2200</v>
+        <v>2907</v>
       </c>
       <c r="N1073" t="inlineStr">
         <is>
@@ -77635,7 +77635,7 @@
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="Q1073" t="n">
         <v>36</v>
@@ -77661,7 +77661,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1074" t="n">
         <v>13</v>
@@ -77685,16 +77685,16 @@
         </is>
       </c>
       <c r="J1074" t="n">
-        <v>310</v>
+        <v>690</v>
       </c>
       <c r="K1074" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="L1074" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M1074" t="n">
-        <v>2200</v>
+        <v>2904</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
@@ -77707,7 +77707,7 @@
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="Q1074" t="n">
         <v>36</v>
@@ -77733,7 +77733,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1075" t="n">
         <v>13</v>
@@ -77753,20 +77753,20 @@
       </c>
       <c r="I1075" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1075" t="n">
-        <v>830</v>
+        <v>710</v>
       </c>
       <c r="K1075" t="n">
-        <v>2600</v>
+        <v>3800</v>
       </c>
       <c r="L1075" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M1075" t="n">
-        <v>2812</v>
+        <v>3907</v>
       </c>
       <c r="N1075" t="inlineStr">
         <is>
@@ -77779,7 +77779,7 @@
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="Q1075" t="n">
         <v>36</v>
@@ -77805,7 +77805,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1076" t="n">
         <v>13</v>
@@ -77825,20 +77825,20 @@
       </c>
       <c r="I1076" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1076" t="n">
-        <v>1020</v>
+        <v>700</v>
       </c>
       <c r="K1076" t="n">
-        <v>2500</v>
+        <v>3700</v>
       </c>
       <c r="L1076" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="M1076" t="n">
-        <v>2662</v>
+        <v>3854</v>
       </c>
       <c r="N1076" t="inlineStr">
         <is>
@@ -77851,7 +77851,7 @@
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="Q1076" t="n">
         <v>36</v>
@@ -77877,7 +77877,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1077" t="n">
         <v>13</v>
@@ -77897,20 +77897,20 @@
       </c>
       <c r="I1077" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1077" t="n">
-        <v>300</v>
+        <v>840</v>
       </c>
       <c r="K1077" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L1077" t="n">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="M1077" t="n">
-        <v>2000</v>
+        <v>3107</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
@@ -77923,7 +77923,7 @@
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="Q1077" t="n">
         <v>36</v>
@@ -77949,7 +77949,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1078" t="n">
         <v>13</v>
@@ -77969,20 +77969,20 @@
       </c>
       <c r="I1078" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1078" t="n">
-        <v>330</v>
+        <v>810</v>
       </c>
       <c r="K1078" t="n">
-        <v>2000</v>
+        <v>2900</v>
       </c>
       <c r="L1078" t="n">
-        <v>2000</v>
+        <v>3300</v>
       </c>
       <c r="M1078" t="n">
-        <v>2000</v>
+        <v>3107</v>
       </c>
       <c r="N1078" t="inlineStr">
         <is>
@@ -77995,7 +77995,7 @@
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="Q1078" t="n">
         <v>36</v>
@@ -78021,7 +78021,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E1079" t="n">
         <v>13</v>
@@ -78041,20 +78041,20 @@
       </c>
       <c r="I1079" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1079" t="n">
-        <v>440</v>
+        <v>270</v>
       </c>
       <c r="K1079" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="L1079" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="M1079" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="N1079" t="inlineStr">
         <is>
@@ -78063,11 +78063,11 @@
       </c>
       <c r="O1079" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1079" t="n">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="Q1079" t="n">
         <v>36</v>
@@ -78093,7 +78093,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E1080" t="n">
         <v>13</v>
@@ -78113,20 +78113,20 @@
       </c>
       <c r="I1080" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1080" t="n">
-        <v>840</v>
+        <v>310</v>
       </c>
       <c r="K1080" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="L1080" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="M1080" t="n">
-        <v>2444</v>
+        <v>2200</v>
       </c>
       <c r="N1080" t="inlineStr">
         <is>
@@ -78139,7 +78139,7 @@
         </is>
       </c>
       <c r="P1080" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="Q1080" t="n">
         <v>36</v>
@@ -78165,7 +78165,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1081" t="n">
         <v>13</v>
@@ -78185,20 +78185,20 @@
       </c>
       <c r="I1081" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1081" t="n">
-        <v>560</v>
+        <v>830</v>
       </c>
       <c r="K1081" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="L1081" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M1081" t="n">
-        <v>2089</v>
+        <v>2812</v>
       </c>
       <c r="N1081" t="inlineStr">
         <is>
@@ -78207,11 +78207,11 @@
       </c>
       <c r="O1081" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1081" t="n">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="Q1081" t="n">
         <v>36</v>
@@ -78237,7 +78237,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1082" t="n">
         <v>13</v>
@@ -78257,20 +78257,20 @@
       </c>
       <c r="I1082" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1082" t="n">
-        <v>780</v>
+        <v>1020</v>
       </c>
       <c r="K1082" t="n">
         <v>2500</v>
       </c>
       <c r="L1082" t="n">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="M1082" t="n">
-        <v>2613</v>
+        <v>2662</v>
       </c>
       <c r="N1082" t="inlineStr">
         <is>
@@ -78279,11 +78279,11 @@
       </c>
       <c r="O1082" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1082" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q1082" t="n">
         <v>36</v>
@@ -78309,7 +78309,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1083" t="n">
         <v>13</v>
@@ -78329,20 +78329,20 @@
       </c>
       <c r="I1083" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1083" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="K1083" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L1083" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M1083" t="n">
-        <v>2664</v>
+        <v>2000</v>
       </c>
       <c r="N1083" t="inlineStr">
         <is>
@@ -78351,11 +78351,11 @@
       </c>
       <c r="O1083" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1083" t="n">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="Q1083" t="n">
         <v>36</v>
@@ -78381,7 +78381,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1084" t="n">
         <v>13</v>
@@ -78401,20 +78401,20 @@
       </c>
       <c r="I1084" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1084" t="n">
-        <v>730</v>
+        <v>330</v>
       </c>
       <c r="K1084" t="n">
         <v>2000</v>
       </c>
       <c r="L1084" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="M1084" t="n">
-        <v>2156</v>
+        <v>2000</v>
       </c>
       <c r="N1084" t="inlineStr">
         <is>
@@ -78423,11 +78423,11 @@
       </c>
       <c r="O1084" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1084" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q1084" t="n">
         <v>36</v>
@@ -78453,7 +78453,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1085" t="n">
         <v>13</v>
@@ -78473,20 +78473,20 @@
       </c>
       <c r="I1085" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>810</v>
+        <v>440</v>
       </c>
       <c r="K1085" t="n">
-        <v>2100</v>
+        <v>2700</v>
       </c>
       <c r="L1085" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M1085" t="n">
-        <v>2267</v>
+        <v>2700</v>
       </c>
       <c r="N1085" t="inlineStr">
         <is>
@@ -78499,7 +78499,7 @@
         </is>
       </c>
       <c r="P1085" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="Q1085" t="n">
         <v>36</v>
@@ -78525,7 +78525,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1086" t="n">
         <v>13</v>
@@ -78545,20 +78545,20 @@
       </c>
       <c r="I1086" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1086" t="n">
-        <v>250</v>
+        <v>840</v>
       </c>
       <c r="K1086" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="L1086" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="M1086" t="n">
-        <v>1800</v>
+        <v>2444</v>
       </c>
       <c r="N1086" t="inlineStr">
         <is>
@@ -78567,11 +78567,11 @@
       </c>
       <c r="O1086" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1086" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="Q1086" t="n">
         <v>36</v>
@@ -78597,58 +78597,490 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1087" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1087" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1087" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1087" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1087" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1087" t="n">
+        <v>560</v>
+      </c>
+      <c r="K1087" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L1087" t="n">
+        <v>2200</v>
+      </c>
+      <c r="M1087" t="n">
+        <v>2089</v>
+      </c>
+      <c r="N1087" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1087" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1087" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q1087" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1087" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1088" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1088" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1088" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E1087" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1087" t="n">
-        <v>100112037</v>
-      </c>
-      <c r="G1087" t="inlineStr">
-        <is>
-          <t>Cebollín</t>
-        </is>
-      </c>
-      <c r="H1087" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I1087" t="inlineStr">
+      <c r="E1088" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1088" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1088" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1088" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1088" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1088" t="n">
+        <v>780</v>
+      </c>
+      <c r="K1088" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L1088" t="n">
+        <v>2700</v>
+      </c>
+      <c r="M1088" t="n">
+        <v>2613</v>
+      </c>
+      <c r="N1088" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1088" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P1088" t="n">
+        <v>73</v>
+      </c>
+      <c r="Q1088" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1088" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1089" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1089" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1089" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1089" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1089" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1089" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1089" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1089" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1089" t="n">
+        <v>750</v>
+      </c>
+      <c r="K1089" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L1089" t="n">
+        <v>2800</v>
+      </c>
+      <c r="M1089" t="n">
+        <v>2664</v>
+      </c>
+      <c r="N1089" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1089" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1089" t="n">
+        <v>74</v>
+      </c>
+      <c r="Q1089" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1089" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1090" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1090" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1090" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1090" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1090" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1090" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1090" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1090" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1090" t="n">
+        <v>730</v>
+      </c>
+      <c r="K1090" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L1090" t="n">
+        <v>2300</v>
+      </c>
+      <c r="M1090" t="n">
+        <v>2156</v>
+      </c>
+      <c r="N1090" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1090" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P1090" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q1090" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1090" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1091" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1091" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1091" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1091" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1091" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1091" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1091" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1091" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1091" t="n">
+        <v>810</v>
+      </c>
+      <c r="K1091" t="n">
+        <v>2100</v>
+      </c>
+      <c r="L1091" t="n">
+        <v>2400</v>
+      </c>
+      <c r="M1091" t="n">
+        <v>2267</v>
+      </c>
+      <c r="N1091" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1091" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1091" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q1091" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1091" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1092" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1092" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1092" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1092" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1092" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1092" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1092" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1092" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1087" t="n">
+      <c r="J1092" t="n">
+        <v>250</v>
+      </c>
+      <c r="K1092" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L1092" t="n">
+        <v>1800</v>
+      </c>
+      <c r="M1092" t="n">
+        <v>1800</v>
+      </c>
+      <c r="N1092" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1092" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P1092" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q1092" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1092" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1093" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1093" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1093" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1093" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1093" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1093" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1093" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1093" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1093" t="n">
         <v>330</v>
       </c>
-      <c r="K1087" t="n">
+      <c r="K1093" t="n">
         <v>1800</v>
       </c>
-      <c r="L1087" t="n">
+      <c r="L1093" t="n">
         <v>1800</v>
       </c>
-      <c r="M1087" t="n">
+      <c r="M1093" t="n">
         <v>1800</v>
       </c>
-      <c r="N1087" t="inlineStr">
-        <is>
-          <t>$/paquete 36 unidades</t>
-        </is>
-      </c>
-      <c r="O1087" t="inlineStr">
+      <c r="N1093" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1093" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P1087" t="n">
+      <c r="P1093" t="n">
         <v>50</v>
       </c>
-      <c r="Q1087" t="n">
-        <v>36</v>
-      </c>
-      <c r="R1087" t="inlineStr">
+      <c r="Q1093" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1093" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cebollín.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cebollín.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1093"/>
+  <dimension ref="A1:R1099"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63333,7 +63333,7 @@
         </is>
       </c>
       <c r="D875" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E875" t="n">
         <v>13</v>
@@ -63353,20 +63353,20 @@
       </c>
       <c r="I875" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J875" t="n">
-        <v>660</v>
+        <v>940</v>
       </c>
       <c r="K875" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="L875" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="M875" t="n">
-        <v>2512</v>
+        <v>2353</v>
       </c>
       <c r="N875" t="inlineStr">
         <is>
@@ -63379,7 +63379,7 @@
         </is>
       </c>
       <c r="P875" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Q875" t="n">
         <v>36</v>
@@ -63405,7 +63405,7 @@
         </is>
       </c>
       <c r="D876" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E876" t="n">
         <v>13</v>
@@ -63425,20 +63425,20 @@
       </c>
       <c r="I876" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J876" t="n">
-        <v>680</v>
+        <v>750</v>
       </c>
       <c r="K876" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="L876" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="M876" t="n">
-        <v>2524</v>
+        <v>2368</v>
       </c>
       <c r="N876" t="inlineStr">
         <is>
@@ -63451,7 +63451,7 @@
         </is>
       </c>
       <c r="P876" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q876" t="n">
         <v>36</v>
@@ -63477,7 +63477,7 @@
         </is>
       </c>
       <c r="D877" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E877" t="n">
         <v>13</v>
@@ -63497,20 +63497,20 @@
       </c>
       <c r="I877" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J877" t="n">
-        <v>370</v>
+        <v>1040</v>
       </c>
       <c r="K877" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L877" t="n">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="M877" t="n">
-        <v>1919</v>
+        <v>2053</v>
       </c>
       <c r="N877" t="inlineStr">
         <is>
@@ -63523,7 +63523,7 @@
         </is>
       </c>
       <c r="P877" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Q877" t="n">
         <v>36</v>
@@ -63549,7 +63549,7 @@
         </is>
       </c>
       <c r="D878" s="2" t="n">
-        <v>44333</v>
+        <v>44508</v>
       </c>
       <c r="E878" t="n">
         <v>13</v>
@@ -63569,20 +63569,20 @@
       </c>
       <c r="I878" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J878" t="n">
-        <v>380</v>
+        <v>870</v>
       </c>
       <c r="K878" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L878" t="n">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="M878" t="n">
-        <v>1932</v>
+        <v>2054</v>
       </c>
       <c r="N878" t="inlineStr">
         <is>
@@ -63595,7 +63595,7 @@
         </is>
       </c>
       <c r="P878" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Q878" t="n">
         <v>36</v>
@@ -63621,7 +63621,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>44356</v>
+        <v>44508</v>
       </c>
       <c r="E879" t="n">
         <v>13</v>
@@ -63641,20 +63641,20 @@
       </c>
       <c r="I879" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J879" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="K879" t="n">
-        <v>2600</v>
+        <v>1600</v>
       </c>
       <c r="L879" t="n">
-        <v>2600</v>
+        <v>1600</v>
       </c>
       <c r="M879" t="n">
-        <v>2600</v>
+        <v>1600</v>
       </c>
       <c r="N879" t="inlineStr">
         <is>
@@ -63667,7 +63667,7 @@
         </is>
       </c>
       <c r="P879" t="n">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="Q879" t="n">
         <v>36</v>
@@ -63693,7 +63693,7 @@
         </is>
       </c>
       <c r="D880" s="2" t="n">
-        <v>44356</v>
+        <v>44508</v>
       </c>
       <c r="E880" t="n">
         <v>13</v>
@@ -63713,20 +63713,20 @@
       </c>
       <c r="I880" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J880" t="n">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="K880" t="n">
-        <v>2600</v>
+        <v>1600</v>
       </c>
       <c r="L880" t="n">
-        <v>2600</v>
+        <v>1600</v>
       </c>
       <c r="M880" t="n">
-        <v>2600</v>
+        <v>1600</v>
       </c>
       <c r="N880" t="inlineStr">
         <is>
@@ -63739,7 +63739,7 @@
         </is>
       </c>
       <c r="P880" t="n">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="Q880" t="n">
         <v>36</v>
@@ -63765,7 +63765,7 @@
         </is>
       </c>
       <c r="D881" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E881" t="n">
         <v>13</v>
@@ -63789,16 +63789,16 @@
         </is>
       </c>
       <c r="J881" t="n">
-        <v>810</v>
+        <v>660</v>
       </c>
       <c r="K881" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L881" t="n">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="M881" t="n">
-        <v>2167</v>
+        <v>2512</v>
       </c>
       <c r="N881" t="inlineStr">
         <is>
@@ -63811,7 +63811,7 @@
         </is>
       </c>
       <c r="P881" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="Q881" t="n">
         <v>36</v>
@@ -63837,7 +63837,7 @@
         </is>
       </c>
       <c r="D882" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E882" t="n">
         <v>13</v>
@@ -63861,16 +63861,16 @@
         </is>
       </c>
       <c r="J882" t="n">
-        <v>650</v>
+        <v>680</v>
       </c>
       <c r="K882" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L882" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="M882" t="n">
-        <v>2117</v>
+        <v>2524</v>
       </c>
       <c r="N882" t="inlineStr">
         <is>
@@ -63883,7 +63883,7 @@
         </is>
       </c>
       <c r="P882" t="n">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Q882" t="n">
         <v>36</v>
@@ -63909,7 +63909,7 @@
         </is>
       </c>
       <c r="D883" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E883" t="n">
         <v>13</v>
@@ -63933,16 +63933,16 @@
         </is>
       </c>
       <c r="J883" t="n">
-        <v>270</v>
+        <v>370</v>
       </c>
       <c r="K883" t="n">
         <v>1800</v>
       </c>
       <c r="L883" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M883" t="n">
-        <v>1800</v>
+        <v>1919</v>
       </c>
       <c r="N883" t="inlineStr">
         <is>
@@ -63955,7 +63955,7 @@
         </is>
       </c>
       <c r="P883" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q883" t="n">
         <v>36</v>
@@ -63981,7 +63981,7 @@
         </is>
       </c>
       <c r="D884" s="2" t="n">
-        <v>44356</v>
+        <v>44333</v>
       </c>
       <c r="E884" t="n">
         <v>13</v>
@@ -64005,16 +64005,16 @@
         </is>
       </c>
       <c r="J884" t="n">
-        <v>180</v>
+        <v>380</v>
       </c>
       <c r="K884" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="L884" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M884" t="n">
-        <v>1700</v>
+        <v>1932</v>
       </c>
       <c r="N884" t="inlineStr">
         <is>
@@ -64027,7 +64027,7 @@
         </is>
       </c>
       <c r="P884" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="Q884" t="n">
         <v>36</v>
@@ -64053,7 +64053,7 @@
         </is>
       </c>
       <c r="D885" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E885" t="n">
         <v>13</v>
@@ -64077,16 +64077,16 @@
         </is>
       </c>
       <c r="J885" t="n">
-        <v>260</v>
+        <v>330</v>
       </c>
       <c r="K885" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="L885" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="M885" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="N885" t="inlineStr">
         <is>
@@ -64099,7 +64099,7 @@
         </is>
       </c>
       <c r="P885" t="n">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="Q885" t="n">
         <v>36</v>
@@ -64125,7 +64125,7 @@
         </is>
       </c>
       <c r="D886" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E886" t="n">
         <v>13</v>
@@ -64149,16 +64149,16 @@
         </is>
       </c>
       <c r="J886" t="n">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="K886" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="L886" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="M886" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="N886" t="inlineStr">
         <is>
@@ -64171,7 +64171,7 @@
         </is>
       </c>
       <c r="P886" t="n">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="Q886" t="n">
         <v>36</v>
@@ -64197,7 +64197,7 @@
         </is>
       </c>
       <c r="D887" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E887" t="n">
         <v>13</v>
@@ -64221,16 +64221,16 @@
         </is>
       </c>
       <c r="J887" t="n">
-        <v>770</v>
+        <v>810</v>
       </c>
       <c r="K887" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="L887" t="n">
-        <v>2600</v>
+        <v>2300</v>
       </c>
       <c r="M887" t="n">
-        <v>2514</v>
+        <v>2167</v>
       </c>
       <c r="N887" t="inlineStr">
         <is>
@@ -64243,7 +64243,7 @@
         </is>
       </c>
       <c r="P887" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Q887" t="n">
         <v>36</v>
@@ -64269,7 +64269,7 @@
         </is>
       </c>
       <c r="D888" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E888" t="n">
         <v>13</v>
@@ -64293,16 +64293,16 @@
         </is>
       </c>
       <c r="J888" t="n">
-        <v>820</v>
+        <v>650</v>
       </c>
       <c r="K888" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="L888" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="M888" t="n">
-        <v>2515</v>
+        <v>2117</v>
       </c>
       <c r="N888" t="inlineStr">
         <is>
@@ -64315,7 +64315,7 @@
         </is>
       </c>
       <c r="P888" t="n">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="Q888" t="n">
         <v>36</v>
@@ -64341,7 +64341,7 @@
         </is>
       </c>
       <c r="D889" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E889" t="n">
         <v>13</v>
@@ -64365,16 +64365,16 @@
         </is>
       </c>
       <c r="J889" t="n">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="K889" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L889" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="M889" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="N889" t="inlineStr">
         <is>
@@ -64387,7 +64387,7 @@
         </is>
       </c>
       <c r="P889" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Q889" t="n">
         <v>36</v>
@@ -64413,7 +64413,7 @@
         </is>
       </c>
       <c r="D890" s="2" t="n">
-        <v>44323</v>
+        <v>44356</v>
       </c>
       <c r="E890" t="n">
         <v>13</v>
@@ -64437,16 +64437,16 @@
         </is>
       </c>
       <c r="J890" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K890" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="L890" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M890" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="N890" t="inlineStr">
         <is>
@@ -64459,7 +64459,7 @@
         </is>
       </c>
       <c r="P890" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="Q890" t="n">
         <v>36</v>
@@ -64485,7 +64485,7 @@
         </is>
       </c>
       <c r="D891" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E891" t="n">
         <v>13</v>
@@ -64505,20 +64505,20 @@
       </c>
       <c r="I891" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J891" t="n">
-        <v>830</v>
+        <v>260</v>
       </c>
       <c r="K891" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="L891" t="n">
         <v>3000</v>
       </c>
       <c r="M891" t="n">
-        <v>2812</v>
+        <v>3000</v>
       </c>
       <c r="N891" t="inlineStr">
         <is>
@@ -64531,7 +64531,7 @@
         </is>
       </c>
       <c r="P891" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="Q891" t="n">
         <v>36</v>
@@ -64557,7 +64557,7 @@
         </is>
       </c>
       <c r="D892" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E892" t="n">
         <v>13</v>
@@ -64577,20 +64577,20 @@
       </c>
       <c r="I892" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J892" t="n">
-        <v>950</v>
+        <v>380</v>
       </c>
       <c r="K892" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L892" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M892" t="n">
-        <v>2667</v>
+        <v>3000</v>
       </c>
       <c r="N892" t="inlineStr">
         <is>
@@ -64603,7 +64603,7 @@
         </is>
       </c>
       <c r="P892" t="n">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="Q892" t="n">
         <v>36</v>
@@ -64629,7 +64629,7 @@
         </is>
       </c>
       <c r="D893" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E893" t="n">
         <v>13</v>
@@ -64649,20 +64649,20 @@
       </c>
       <c r="I893" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J893" t="n">
-        <v>270</v>
+        <v>770</v>
       </c>
       <c r="K893" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L893" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="M893" t="n">
-        <v>2000</v>
+        <v>2514</v>
       </c>
       <c r="N893" t="inlineStr">
         <is>
@@ -64675,7 +64675,7 @@
         </is>
       </c>
       <c r="P893" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="Q893" t="n">
         <v>36</v>
@@ -64701,7 +64701,7 @@
         </is>
       </c>
       <c r="D894" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E894" t="n">
         <v>13</v>
@@ -64721,20 +64721,20 @@
       </c>
       <c r="I894" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J894" t="n">
-        <v>280</v>
+        <v>820</v>
       </c>
       <c r="K894" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L894" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="M894" t="n">
-        <v>2000</v>
+        <v>2515</v>
       </c>
       <c r="N894" t="inlineStr">
         <is>
@@ -64747,7 +64747,7 @@
         </is>
       </c>
       <c r="P894" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="Q894" t="n">
         <v>36</v>
@@ -64773,7 +64773,7 @@
         </is>
       </c>
       <c r="D895" s="2" t="n">
-        <v>44211</v>
+        <v>44323</v>
       </c>
       <c r="E895" t="n">
         <v>13</v>
@@ -64793,20 +64793,20 @@
       </c>
       <c r="I895" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J895" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="K895" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L895" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M895" t="n">
-        <v>2880</v>
+        <v>2000</v>
       </c>
       <c r="N895" t="inlineStr">
         <is>
@@ -64819,7 +64819,7 @@
         </is>
       </c>
       <c r="P895" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="Q895" t="n">
         <v>36</v>
@@ -64845,7 +64845,7 @@
         </is>
       </c>
       <c r="D896" s="2" t="n">
-        <v>44211</v>
+        <v>44323</v>
       </c>
       <c r="E896" t="n">
         <v>13</v>
@@ -64865,20 +64865,20 @@
       </c>
       <c r="I896" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J896" t="n">
-        <v>770</v>
+        <v>200</v>
       </c>
       <c r="K896" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="L896" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M896" t="n">
-        <v>2375</v>
+        <v>2000</v>
       </c>
       <c r="N896" t="inlineStr">
         <is>
@@ -64887,11 +64887,11 @@
       </c>
       <c r="O896" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P896" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="Q896" t="n">
         <v>36</v>
@@ -64917,7 +64917,7 @@
         </is>
       </c>
       <c r="D897" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E897" t="n">
         <v>13</v>
@@ -64937,20 +64937,20 @@
       </c>
       <c r="I897" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J897" t="n">
-        <v>410</v>
+        <v>830</v>
       </c>
       <c r="K897" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="L897" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M897" t="n">
-        <v>1863</v>
+        <v>2812</v>
       </c>
       <c r="N897" t="inlineStr">
         <is>
@@ -64963,7 +64963,7 @@
         </is>
       </c>
       <c r="P897" t="n">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="Q897" t="n">
         <v>36</v>
@@ -64989,7 +64989,7 @@
         </is>
       </c>
       <c r="D898" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E898" t="n">
         <v>13</v>
@@ -65009,20 +65009,20 @@
       </c>
       <c r="I898" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J898" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="K898" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L898" t="n">
-        <v>3300</v>
+        <v>2800</v>
       </c>
       <c r="M898" t="n">
-        <v>3159</v>
+        <v>2667</v>
       </c>
       <c r="N898" t="inlineStr">
         <is>
@@ -65031,11 +65031,11 @@
       </c>
       <c r="O898" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P898" t="n">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="Q898" t="n">
         <v>36</v>
@@ -65061,7 +65061,7 @@
         </is>
       </c>
       <c r="D899" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E899" t="n">
         <v>13</v>
@@ -65081,20 +65081,20 @@
       </c>
       <c r="I899" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J899" t="n">
-        <v>620</v>
+        <v>270</v>
       </c>
       <c r="K899" t="n">
-        <v>3200</v>
+        <v>2000</v>
       </c>
       <c r="L899" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="M899" t="n">
-        <v>3365</v>
+        <v>2000</v>
       </c>
       <c r="N899" t="inlineStr">
         <is>
@@ -65103,11 +65103,11 @@
       </c>
       <c r="O899" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P899" t="n">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="Q899" t="n">
         <v>36</v>
@@ -65133,7 +65133,7 @@
         </is>
       </c>
       <c r="D900" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E900" t="n">
         <v>13</v>
@@ -65153,20 +65153,20 @@
       </c>
       <c r="I900" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J900" t="n">
-        <v>840</v>
+        <v>280</v>
       </c>
       <c r="K900" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="L900" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="M900" t="n">
-        <v>2443</v>
+        <v>2000</v>
       </c>
       <c r="N900" t="inlineStr">
         <is>
@@ -65175,11 +65175,11 @@
       </c>
       <c r="O900" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P900" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="Q900" t="n">
         <v>36</v>
@@ -65205,7 +65205,7 @@
         </is>
       </c>
       <c r="D901" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E901" t="n">
         <v>13</v>
@@ -65225,20 +65225,20 @@
       </c>
       <c r="I901" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J901" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K901" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="L901" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M901" t="n">
-        <v>2567</v>
+        <v>2880</v>
       </c>
       <c r="N901" t="inlineStr">
         <is>
@@ -65247,11 +65247,11 @@
       </c>
       <c r="O901" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P901" t="n">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="Q901" t="n">
         <v>36</v>
@@ -65277,7 +65277,7 @@
         </is>
       </c>
       <c r="D902" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E902" t="n">
         <v>13</v>
@@ -65297,20 +65297,20 @@
       </c>
       <c r="I902" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J902" t="n">
-        <v>250</v>
+        <v>770</v>
       </c>
       <c r="K902" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="L902" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M902" t="n">
-        <v>2000</v>
+        <v>2375</v>
       </c>
       <c r="N902" t="inlineStr">
         <is>
@@ -65323,7 +65323,7 @@
         </is>
       </c>
       <c r="P902" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="Q902" t="n">
         <v>36</v>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E903" t="n">
         <v>13</v>
@@ -65373,16 +65373,16 @@
         </is>
       </c>
       <c r="J903" t="n">
-        <v>270</v>
+        <v>410</v>
       </c>
       <c r="K903" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L903" t="n">
         <v>2000</v>
       </c>
       <c r="M903" t="n">
-        <v>2000</v>
+        <v>1863</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65391,11 +65391,11 @@
       </c>
       <c r="O903" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P903" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q903" t="n">
         <v>36</v>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E904" t="n">
         <v>13</v>
@@ -65445,16 +65445,16 @@
         </is>
       </c>
       <c r="J904" t="n">
-        <v>580</v>
+        <v>700</v>
       </c>
       <c r="K904" t="n">
         <v>3000</v>
       </c>
       <c r="L904" t="n">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="M904" t="n">
-        <v>3043</v>
+        <v>3159</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65463,11 +65463,11 @@
       </c>
       <c r="O904" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P904" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q904" t="n">
         <v>36</v>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E905" t="n">
         <v>13</v>
@@ -65513,20 +65513,20 @@
       </c>
       <c r="I905" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J905" t="n">
-        <v>1020</v>
+        <v>620</v>
       </c>
       <c r="K905" t="n">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="L905" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M905" t="n">
-        <v>2630</v>
+        <v>3365</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65539,7 +65539,7 @@
         </is>
       </c>
       <c r="P905" t="n">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="Q905" t="n">
         <v>36</v>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E906" t="n">
         <v>13</v>
@@ -65585,20 +65585,20 @@
       </c>
       <c r="I906" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J906" t="n">
-        <v>800</v>
+        <v>840</v>
       </c>
       <c r="K906" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="L906" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="M906" t="n">
-        <v>2108</v>
+        <v>2443</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65607,11 +65607,11 @@
       </c>
       <c r="O906" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P906" t="n">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="Q906" t="n">
         <v>36</v>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E907" t="n">
         <v>13</v>
@@ -65657,20 +65657,20 @@
       </c>
       <c r="I907" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J907" t="n">
-        <v>470</v>
+        <v>700</v>
       </c>
       <c r="K907" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="L907" t="n">
-        <v>4000</v>
+        <v>2700</v>
       </c>
       <c r="M907" t="n">
-        <v>4000</v>
+        <v>2567</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65679,11 +65679,11 @@
       </c>
       <c r="O907" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P907" t="n">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="Q907" t="n">
         <v>36</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E908" t="n">
         <v>13</v>
@@ -65729,20 +65729,20 @@
       </c>
       <c r="I908" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J908" t="n">
-        <v>440</v>
+        <v>250</v>
       </c>
       <c r="K908" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="L908" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M908" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65751,11 +65751,11 @@
       </c>
       <c r="O908" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P908" t="n">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="Q908" t="n">
         <v>36</v>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E909" t="n">
         <v>13</v>
@@ -65801,20 +65801,20 @@
       </c>
       <c r="I909" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J909" t="n">
-        <v>870</v>
+        <v>270</v>
       </c>
       <c r="K909" t="n">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="L909" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="M909" t="n">
-        <v>3413</v>
+        <v>2000</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65823,11 +65823,11 @@
       </c>
       <c r="O909" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P909" t="n">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="Q909" t="n">
         <v>36</v>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E910" t="n">
         <v>13</v>
@@ -65873,20 +65873,20 @@
       </c>
       <c r="I910" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J910" t="n">
-        <v>830</v>
+        <v>580</v>
       </c>
       <c r="K910" t="n">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="L910" t="n">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="M910" t="n">
-        <v>3411</v>
+        <v>3043</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65899,7 +65899,7 @@
         </is>
       </c>
       <c r="P910" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="Q910" t="n">
         <v>36</v>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E911" t="n">
         <v>13</v>
@@ -65945,20 +65945,20 @@
       </c>
       <c r="I911" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J911" t="n">
-        <v>540</v>
+        <v>1020</v>
       </c>
       <c r="K911" t="n">
         <v>2500</v>
       </c>
       <c r="L911" t="n">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="M911" t="n">
-        <v>2607</v>
+        <v>2630</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65967,11 +65967,11 @@
       </c>
       <c r="O911" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P911" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q911" t="n">
         <v>36</v>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E912" t="n">
         <v>13</v>
@@ -66021,16 +66021,16 @@
         </is>
       </c>
       <c r="J912" t="n">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="K912" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="L912" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="M912" t="n">
-        <v>2518</v>
+        <v>2108</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66043,7 +66043,7 @@
         </is>
       </c>
       <c r="P912" t="n">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="Q912" t="n">
         <v>36</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E913" t="n">
         <v>13</v>
@@ -66093,16 +66093,16 @@
         </is>
       </c>
       <c r="J913" t="n">
-        <v>400</v>
+        <v>470</v>
       </c>
       <c r="K913" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="L913" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="M913" t="n">
-        <v>2730</v>
+        <v>4000</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66111,11 +66111,11 @@
       </c>
       <c r="O913" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P913" t="n">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="Q913" t="n">
         <v>36</v>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E914" t="n">
         <v>13</v>
@@ -66161,20 +66161,20 @@
       </c>
       <c r="I914" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J914" t="n">
-        <v>930</v>
+        <v>440</v>
       </c>
       <c r="K914" t="n">
-        <v>2300</v>
+        <v>4000</v>
       </c>
       <c r="L914" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M914" t="n">
-        <v>2411</v>
+        <v>4000</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66187,7 +66187,7 @@
         </is>
       </c>
       <c r="P914" t="n">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="Q914" t="n">
         <v>36</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E915" t="n">
         <v>13</v>
@@ -66233,20 +66233,20 @@
       </c>
       <c r="I915" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J915" t="n">
-        <v>620</v>
+        <v>870</v>
       </c>
       <c r="K915" t="n">
-        <v>2000</v>
+        <v>3300</v>
       </c>
       <c r="L915" t="n">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="M915" t="n">
-        <v>2155</v>
+        <v>3413</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66255,11 +66255,11 @@
       </c>
       <c r="O915" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P915" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="Q915" t="n">
         <v>36</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E916" t="n">
         <v>13</v>
@@ -66305,20 +66305,20 @@
       </c>
       <c r="I916" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J916" t="n">
-        <v>770</v>
+        <v>830</v>
       </c>
       <c r="K916" t="n">
-        <v>2200</v>
+        <v>3300</v>
       </c>
       <c r="L916" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M916" t="n">
-        <v>2348</v>
+        <v>3411</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66327,11 +66327,11 @@
       </c>
       <c r="O916" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P916" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="Q916" t="n">
         <v>36</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E917" t="n">
         <v>13</v>
@@ -66377,20 +66377,20 @@
       </c>
       <c r="I917" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J917" t="n">
-        <v>810</v>
+        <v>540</v>
       </c>
       <c r="K917" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L917" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M917" t="n">
-        <v>2304</v>
+        <v>2607</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66399,11 +66399,11 @@
       </c>
       <c r="O917" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P917" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="Q917" t="n">
         <v>36</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E918" t="n">
         <v>13</v>
@@ -66449,20 +66449,20 @@
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J918" t="n">
-        <v>920</v>
+        <v>560</v>
       </c>
       <c r="K918" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L918" t="n">
-        <v>2100</v>
+        <v>2600</v>
       </c>
       <c r="M918" t="n">
-        <v>2049</v>
+        <v>2518</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66471,11 +66471,11 @@
       </c>
       <c r="O918" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P918" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="Q918" t="n">
         <v>36</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E919" t="n">
         <v>13</v>
@@ -66521,20 +66521,20 @@
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J919" t="n">
-        <v>890</v>
+        <v>400</v>
       </c>
       <c r="K919" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="L919" t="n">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="M919" t="n">
-        <v>2052</v>
+        <v>2730</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66547,7 +66547,7 @@
         </is>
       </c>
       <c r="P919" t="n">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="Q919" t="n">
         <v>36</v>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E920" t="n">
         <v>13</v>
@@ -66593,20 +66593,20 @@
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J920" t="n">
-        <v>300</v>
+        <v>930</v>
       </c>
       <c r="K920" t="n">
-        <v>1700</v>
+        <v>2300</v>
       </c>
       <c r="L920" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="M920" t="n">
-        <v>1700</v>
+        <v>2411</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66615,11 +66615,11 @@
       </c>
       <c r="O920" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P920" t="n">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="Q920" t="n">
         <v>36</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E921" t="n">
         <v>13</v>
@@ -66669,16 +66669,16 @@
         </is>
       </c>
       <c r="J921" t="n">
-        <v>250</v>
+        <v>620</v>
       </c>
       <c r="K921" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L921" t="n">
-        <v>1600</v>
+        <v>2300</v>
       </c>
       <c r="M921" t="n">
-        <v>1600</v>
+        <v>2155</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66691,7 +66691,7 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="Q921" t="n">
         <v>36</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E922" t="n">
         <v>13</v>
@@ -66744,13 +66744,13 @@
         <v>770</v>
       </c>
       <c r="K922" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="L922" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M922" t="n">
-        <v>2914</v>
+        <v>2348</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66763,7 +66763,7 @@
         </is>
       </c>
       <c r="P922" t="n">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="Q922" t="n">
         <v>36</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E923" t="n">
         <v>13</v>
@@ -66813,16 +66813,16 @@
         </is>
       </c>
       <c r="J923" t="n">
-        <v>900</v>
+        <v>810</v>
       </c>
       <c r="K923" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="L923" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M923" t="n">
-        <v>2857</v>
+        <v>2304</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66835,7 +66835,7 @@
         </is>
       </c>
       <c r="P923" t="n">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="Q923" t="n">
         <v>36</v>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E924" t="n">
         <v>13</v>
@@ -66888,13 +66888,13 @@
         <v>920</v>
       </c>
       <c r="K924" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="L924" t="n">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="M924" t="n">
-        <v>2413</v>
+        <v>2049</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66907,7 +66907,7 @@
         </is>
       </c>
       <c r="P924" t="n">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="Q924" t="n">
         <v>36</v>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E925" t="n">
         <v>13</v>
@@ -66957,16 +66957,16 @@
         </is>
       </c>
       <c r="J925" t="n">
-        <v>1010</v>
+        <v>890</v>
       </c>
       <c r="K925" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="L925" t="n">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="M925" t="n">
-        <v>2389</v>
+        <v>2052</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66979,7 +66979,7 @@
         </is>
       </c>
       <c r="P925" t="n">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="Q925" t="n">
         <v>36</v>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E926" t="n">
         <v>13</v>
@@ -67032,13 +67032,13 @@
         <v>300</v>
       </c>
       <c r="K926" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="L926" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="M926" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67051,7 +67051,7 @@
         </is>
       </c>
       <c r="P926" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q926" t="n">
         <v>36</v>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E927" t="n">
         <v>13</v>
@@ -67101,16 +67101,16 @@
         </is>
       </c>
       <c r="J927" t="n">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="K927" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="L927" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="M927" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67123,7 +67123,7 @@
         </is>
       </c>
       <c r="P927" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="Q927" t="n">
         <v>36</v>
@@ -67169,20 +67169,20 @@
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J928" t="n">
-        <v>310</v>
+        <v>770</v>
       </c>
       <c r="K928" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="L928" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="M928" t="n">
-        <v>1800</v>
+        <v>2914</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67191,11 +67191,11 @@
       </c>
       <c r="O928" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P928" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="Q928" t="n">
         <v>36</v>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E929" t="n">
         <v>13</v>
@@ -67245,16 +67245,16 @@
         </is>
       </c>
       <c r="J929" t="n">
-        <v>410</v>
+        <v>900</v>
       </c>
       <c r="K929" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="L929" t="n">
         <v>3000</v>
       </c>
       <c r="M929" t="n">
-        <v>2912</v>
+        <v>2857</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67263,11 +67263,11 @@
       </c>
       <c r="O929" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P929" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q929" t="n">
         <v>36</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E930" t="n">
         <v>13</v>
@@ -67317,7 +67317,7 @@
         </is>
       </c>
       <c r="J930" t="n">
-        <v>490</v>
+        <v>920</v>
       </c>
       <c r="K930" t="n">
         <v>2300</v>
@@ -67326,7 +67326,7 @@
         <v>2500</v>
       </c>
       <c r="M930" t="n">
-        <v>2406</v>
+        <v>2413</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E931" t="n">
         <v>13</v>
@@ -67385,20 +67385,20 @@
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J931" t="n">
-        <v>270</v>
+        <v>1010</v>
       </c>
       <c r="K931" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="L931" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M931" t="n">
-        <v>1911</v>
+        <v>2389</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67407,11 +67407,11 @@
       </c>
       <c r="O931" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P931" t="n">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="Q931" t="n">
         <v>36</v>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44246</v>
+        <v>44481</v>
       </c>
       <c r="E932" t="n">
         <v>13</v>
@@ -67457,20 +67457,20 @@
       </c>
       <c r="I932" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J932" t="n">
-        <v>810</v>
+        <v>300</v>
       </c>
       <c r="K932" t="n">
-        <v>2600</v>
+        <v>1800</v>
       </c>
       <c r="L932" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="M932" t="n">
-        <v>2646</v>
+        <v>1800</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67483,7 +67483,7 @@
         </is>
       </c>
       <c r="P932" t="n">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="Q932" t="n">
         <v>36</v>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44246</v>
+        <v>44481</v>
       </c>
       <c r="E933" t="n">
         <v>13</v>
@@ -67529,20 +67529,20 @@
       </c>
       <c r="I933" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J933" t="n">
-        <v>720</v>
+        <v>310</v>
       </c>
       <c r="K933" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L933" t="n">
-        <v>2600</v>
+        <v>1800</v>
       </c>
       <c r="M933" t="n">
-        <v>2546</v>
+        <v>1800</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67555,7 +67555,7 @@
         </is>
       </c>
       <c r="P933" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="Q933" t="n">
         <v>36</v>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44246</v>
+        <v>44481</v>
       </c>
       <c r="E934" t="n">
         <v>13</v>
@@ -67605,16 +67605,16 @@
         </is>
       </c>
       <c r="J934" t="n">
-        <v>470</v>
+        <v>310</v>
       </c>
       <c r="K934" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="L934" t="n">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="M934" t="n">
-        <v>2253</v>
+        <v>1800</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67623,11 +67623,11 @@
       </c>
       <c r="O934" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P934" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="Q934" t="n">
         <v>36</v>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E935" t="n">
         <v>13</v>
@@ -67673,20 +67673,20 @@
       </c>
       <c r="I935" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J935" t="n">
-        <v>250</v>
+        <v>410</v>
       </c>
       <c r="K935" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="L935" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M935" t="n">
-        <v>2200</v>
+        <v>2912</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67695,11 +67695,11 @@
       </c>
       <c r="O935" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P935" t="n">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="Q935" t="n">
         <v>36</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E936" t="n">
         <v>13</v>
@@ -67745,11 +67745,11 @@
       </c>
       <c r="I936" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J936" t="n">
-        <v>910</v>
+        <v>490</v>
       </c>
       <c r="K936" t="n">
         <v>2300</v>
@@ -67758,7 +67758,7 @@
         <v>2500</v>
       </c>
       <c r="M936" t="n">
-        <v>2384</v>
+        <v>2406</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67771,7 +67771,7 @@
         </is>
       </c>
       <c r="P936" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q936" t="n">
         <v>36</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E937" t="n">
         <v>13</v>
@@ -67817,20 +67817,20 @@
       </c>
       <c r="I937" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J937" t="n">
-        <v>860</v>
+        <v>270</v>
       </c>
       <c r="K937" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="L937" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="M937" t="n">
-        <v>2302</v>
+        <v>1911</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67839,11 +67839,11 @@
       </c>
       <c r="O937" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P937" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="Q937" t="n">
         <v>36</v>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E938" t="n">
         <v>13</v>
@@ -67893,16 +67893,16 @@
         </is>
       </c>
       <c r="J938" t="n">
-        <v>1030</v>
+        <v>810</v>
       </c>
       <c r="K938" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="L938" t="n">
-        <v>2100</v>
+        <v>2700</v>
       </c>
       <c r="M938" t="n">
-        <v>2044</v>
+        <v>2646</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67915,7 +67915,7 @@
         </is>
       </c>
       <c r="P938" t="n">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="Q938" t="n">
         <v>36</v>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E939" t="n">
         <v>13</v>
@@ -67965,16 +67965,16 @@
         </is>
       </c>
       <c r="J939" t="n">
-        <v>1050</v>
+        <v>720</v>
       </c>
       <c r="K939" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L939" t="n">
-        <v>2100</v>
+        <v>2600</v>
       </c>
       <c r="M939" t="n">
-        <v>2047</v>
+        <v>2546</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67987,7 +67987,7 @@
         </is>
       </c>
       <c r="P939" t="n">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="Q939" t="n">
         <v>36</v>
@@ -68013,7 +68013,7 @@
         </is>
       </c>
       <c r="D940" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E940" t="n">
         <v>13</v>
@@ -68037,16 +68037,16 @@
         </is>
       </c>
       <c r="J940" t="n">
-        <v>300</v>
+        <v>470</v>
       </c>
       <c r="K940" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="L940" t="n">
-        <v>1700</v>
+        <v>2300</v>
       </c>
       <c r="M940" t="n">
-        <v>1700</v>
+        <v>2253</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68059,7 +68059,7 @@
         </is>
       </c>
       <c r="P940" t="n">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="Q940" t="n">
         <v>36</v>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E941" t="n">
         <v>13</v>
@@ -68109,16 +68109,16 @@
         </is>
       </c>
       <c r="J941" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="K941" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="L941" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="M941" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68131,7 +68131,7 @@
         </is>
       </c>
       <c r="P941" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="Q941" t="n">
         <v>36</v>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E942" t="n">
         <v>13</v>
@@ -68181,16 +68181,16 @@
         </is>
       </c>
       <c r="J942" t="n">
-        <v>770</v>
+        <v>910</v>
       </c>
       <c r="K942" t="n">
+        <v>2300</v>
+      </c>
+      <c r="L942" t="n">
         <v>2500</v>
       </c>
-      <c r="L942" t="n">
-        <v>2700</v>
-      </c>
       <c r="M942" t="n">
-        <v>2614</v>
+        <v>2384</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68203,7 +68203,7 @@
         </is>
       </c>
       <c r="P942" t="n">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="Q942" t="n">
         <v>36</v>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E943" t="n">
         <v>13</v>
@@ -68253,16 +68253,16 @@
         </is>
       </c>
       <c r="J943" t="n">
-        <v>670</v>
+        <v>860</v>
       </c>
       <c r="K943" t="n">
+        <v>2200</v>
+      </c>
+      <c r="L943" t="n">
         <v>2400</v>
       </c>
-      <c r="L943" t="n">
-        <v>2700</v>
-      </c>
       <c r="M943" t="n">
-        <v>2561</v>
+        <v>2302</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68275,7 +68275,7 @@
         </is>
       </c>
       <c r="P943" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="Q943" t="n">
         <v>36</v>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E944" t="n">
         <v>13</v>
@@ -68325,16 +68325,16 @@
         </is>
       </c>
       <c r="J944" t="n">
-        <v>610</v>
+        <v>1030</v>
       </c>
       <c r="K944" t="n">
         <v>2000</v>
       </c>
       <c r="L944" t="n">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="M944" t="n">
-        <v>2172</v>
+        <v>2044</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68347,7 +68347,7 @@
         </is>
       </c>
       <c r="P944" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q944" t="n">
         <v>36</v>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E945" t="n">
         <v>13</v>
@@ -68397,16 +68397,16 @@
         </is>
       </c>
       <c r="J945" t="n">
-        <v>530</v>
+        <v>1050</v>
       </c>
       <c r="K945" t="n">
         <v>2000</v>
       </c>
       <c r="L945" t="n">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="M945" t="n">
-        <v>2109</v>
+        <v>2047</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68419,7 +68419,7 @@
         </is>
       </c>
       <c r="P945" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q945" t="n">
         <v>36</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E946" t="n">
         <v>13</v>
@@ -68469,16 +68469,16 @@
         </is>
       </c>
       <c r="J946" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="K946" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="L946" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="M946" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68491,7 +68491,7 @@
         </is>
       </c>
       <c r="P946" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q946" t="n">
         <v>36</v>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E947" t="n">
         <v>13</v>
@@ -68541,16 +68541,16 @@
         </is>
       </c>
       <c r="J947" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="K947" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="L947" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="M947" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68563,7 +68563,7 @@
         </is>
       </c>
       <c r="P947" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q947" t="n">
         <v>36</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E948" t="n">
         <v>13</v>
@@ -68613,16 +68613,16 @@
         </is>
       </c>
       <c r="J948" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="K948" t="n">
-        <v>3800</v>
+        <v>2500</v>
       </c>
       <c r="L948" t="n">
-        <v>4000</v>
+        <v>2700</v>
       </c>
       <c r="M948" t="n">
-        <v>3906</v>
+        <v>2614</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68635,7 +68635,7 @@
         </is>
       </c>
       <c r="P948" t="n">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="Q948" t="n">
         <v>36</v>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E949" t="n">
         <v>13</v>
@@ -68685,16 +68685,16 @@
         </is>
       </c>
       <c r="J949" t="n">
-        <v>810</v>
+        <v>670</v>
       </c>
       <c r="K949" t="n">
-        <v>3700</v>
+        <v>2400</v>
       </c>
       <c r="L949" t="n">
-        <v>4000</v>
+        <v>2700</v>
       </c>
       <c r="M949" t="n">
-        <v>3852</v>
+        <v>2561</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68707,7 +68707,7 @@
         </is>
       </c>
       <c r="P949" t="n">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="Q949" t="n">
         <v>36</v>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E950" t="n">
         <v>13</v>
@@ -68757,16 +68757,16 @@
         </is>
       </c>
       <c r="J950" t="n">
-        <v>800</v>
+        <v>610</v>
       </c>
       <c r="K950" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L950" t="n">
-        <v>3300</v>
+        <v>2300</v>
       </c>
       <c r="M950" t="n">
-        <v>3161</v>
+        <v>2172</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68779,7 +68779,7 @@
         </is>
       </c>
       <c r="P950" t="n">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="Q950" t="n">
         <v>36</v>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E951" t="n">
         <v>13</v>
@@ -68829,16 +68829,16 @@
         </is>
       </c>
       <c r="J951" t="n">
-        <v>920</v>
+        <v>530</v>
       </c>
       <c r="K951" t="n">
-        <v>2900</v>
+        <v>2000</v>
       </c>
       <c r="L951" t="n">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="M951" t="n">
-        <v>3047</v>
+        <v>2109</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68851,7 +68851,7 @@
         </is>
       </c>
       <c r="P951" t="n">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="Q951" t="n">
         <v>36</v>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E952" t="n">
         <v>13</v>
@@ -68901,16 +68901,16 @@
         </is>
       </c>
       <c r="J952" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="K952" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L952" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="M952" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68923,7 +68923,7 @@
         </is>
       </c>
       <c r="P952" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="Q952" t="n">
         <v>36</v>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E953" t="n">
         <v>13</v>
@@ -68973,16 +68973,16 @@
         </is>
       </c>
       <c r="J953" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="K953" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L953" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="M953" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68995,7 +68995,7 @@
         </is>
       </c>
       <c r="P953" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="Q953" t="n">
         <v>36</v>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E954" t="n">
         <v>13</v>
@@ -69045,16 +69045,16 @@
         </is>
       </c>
       <c r="J954" t="n">
-        <v>450</v>
+        <v>720</v>
       </c>
       <c r="K954" t="n">
-        <v>2800</v>
+        <v>3800</v>
       </c>
       <c r="L954" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="M954" t="n">
-        <v>2800</v>
+        <v>3906</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69067,7 +69067,7 @@
         </is>
       </c>
       <c r="P954" t="n">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="Q954" t="n">
         <v>36</v>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E955" t="n">
         <v>13</v>
@@ -69117,16 +69117,16 @@
         </is>
       </c>
       <c r="J955" t="n">
-        <v>340</v>
+        <v>810</v>
       </c>
       <c r="K955" t="n">
-        <v>2900</v>
+        <v>3700</v>
       </c>
       <c r="L955" t="n">
-        <v>2900</v>
+        <v>4000</v>
       </c>
       <c r="M955" t="n">
-        <v>2900</v>
+        <v>3852</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69139,7 +69139,7 @@
         </is>
       </c>
       <c r="P955" t="n">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="Q955" t="n">
         <v>36</v>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E956" t="n">
         <v>13</v>
@@ -69189,16 +69189,16 @@
         </is>
       </c>
       <c r="J956" t="n">
-        <v>640</v>
+        <v>800</v>
       </c>
       <c r="K956" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="L956" t="n">
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="M956" t="n">
-        <v>2419</v>
+        <v>3161</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69211,7 +69211,7 @@
         </is>
       </c>
       <c r="P956" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="Q956" t="n">
         <v>36</v>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E957" t="n">
         <v>13</v>
@@ -69261,16 +69261,16 @@
         </is>
       </c>
       <c r="J957" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="K957" t="n">
-        <v>2400</v>
+        <v>2900</v>
       </c>
       <c r="L957" t="n">
-        <v>2600</v>
+        <v>3200</v>
       </c>
       <c r="M957" t="n">
-        <v>2517</v>
+        <v>3047</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69283,7 +69283,7 @@
         </is>
       </c>
       <c r="P957" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="Q957" t="n">
         <v>36</v>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E958" t="n">
         <v>13</v>
@@ -69333,16 +69333,16 @@
         </is>
       </c>
       <c r="J958" t="n">
-        <v>470</v>
+        <v>250</v>
       </c>
       <c r="K958" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L958" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M958" t="n">
-        <v>1906</v>
+        <v>2500</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69355,7 +69355,7 @@
         </is>
       </c>
       <c r="P958" t="n">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="Q958" t="n">
         <v>36</v>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E959" t="n">
         <v>13</v>
@@ -69405,16 +69405,16 @@
         </is>
       </c>
       <c r="J959" t="n">
-        <v>430</v>
+        <v>320</v>
       </c>
       <c r="K959" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L959" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M959" t="n">
-        <v>1921</v>
+        <v>2500</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69427,7 +69427,7 @@
         </is>
       </c>
       <c r="P959" t="n">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="Q959" t="n">
         <v>36</v>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E960" t="n">
         <v>13</v>
@@ -69477,16 +69477,16 @@
         </is>
       </c>
       <c r="J960" t="n">
-        <v>320</v>
+        <v>450</v>
       </c>
       <c r="K960" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L960" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M960" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69499,7 +69499,7 @@
         </is>
       </c>
       <c r="P960" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Q960" t="n">
         <v>36</v>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E961" t="n">
         <v>13</v>
@@ -69549,16 +69549,16 @@
         </is>
       </c>
       <c r="J961" t="n">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="K961" t="n">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="L961" t="n">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="M961" t="n">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69571,7 +69571,7 @@
         </is>
       </c>
       <c r="P961" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q961" t="n">
         <v>36</v>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E962" t="n">
         <v>13</v>
@@ -69621,16 +69621,16 @@
         </is>
       </c>
       <c r="J962" t="n">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="K962" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="L962" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="M962" t="n">
-        <v>2518</v>
+        <v>2419</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69643,7 +69643,7 @@
         </is>
       </c>
       <c r="P962" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q962" t="n">
         <v>36</v>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E963" t="n">
         <v>13</v>
@@ -69693,7 +69693,7 @@
         </is>
       </c>
       <c r="J963" t="n">
-        <v>860</v>
+        <v>720</v>
       </c>
       <c r="K963" t="n">
         <v>2400</v>
@@ -69702,7 +69702,7 @@
         <v>2600</v>
       </c>
       <c r="M963" t="n">
-        <v>2498</v>
+        <v>2517</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69715,7 +69715,7 @@
         </is>
       </c>
       <c r="P963" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q963" t="n">
         <v>36</v>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E964" t="n">
         <v>13</v>
@@ -69765,16 +69765,16 @@
         </is>
       </c>
       <c r="J964" t="n">
-        <v>250</v>
+        <v>470</v>
       </c>
       <c r="K964" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="L964" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="M964" t="n">
-        <v>2200</v>
+        <v>1906</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69787,7 +69787,7 @@
         </is>
       </c>
       <c r="P964" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="Q964" t="n">
         <v>36</v>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E965" t="n">
         <v>13</v>
@@ -69837,16 +69837,16 @@
         </is>
       </c>
       <c r="J965" t="n">
-        <v>320</v>
+        <v>430</v>
       </c>
       <c r="K965" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="L965" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="M965" t="n">
-        <v>2200</v>
+        <v>1921</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69859,7 +69859,7 @@
         </is>
       </c>
       <c r="P965" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="Q965" t="n">
         <v>36</v>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E966" t="n">
         <v>13</v>
@@ -69909,16 +69909,16 @@
         </is>
       </c>
       <c r="J966" t="n">
-        <v>670</v>
+        <v>320</v>
       </c>
       <c r="K966" t="n">
         <v>3000</v>
       </c>
       <c r="L966" t="n">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="M966" t="n">
-        <v>3166</v>
+        <v>3000</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69931,7 +69931,7 @@
         </is>
       </c>
       <c r="P966" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="Q966" t="n">
         <v>36</v>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E967" t="n">
         <v>13</v>
@@ -69981,16 +69981,16 @@
         </is>
       </c>
       <c r="J967" t="n">
-        <v>680</v>
+        <v>370</v>
       </c>
       <c r="K967" t="n">
         <v>3000</v>
       </c>
       <c r="L967" t="n">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="M967" t="n">
-        <v>3172</v>
+        <v>3000</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -70003,7 +70003,7 @@
         </is>
       </c>
       <c r="P967" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="Q967" t="n">
         <v>36</v>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E968" t="n">
         <v>13</v>
@@ -70053,7 +70053,7 @@
         </is>
       </c>
       <c r="J968" t="n">
-        <v>850</v>
+        <v>660</v>
       </c>
       <c r="K968" t="n">
         <v>2400</v>
@@ -70062,7 +70062,7 @@
         <v>2600</v>
       </c>
       <c r="M968" t="n">
-        <v>2506</v>
+        <v>2518</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E969" t="n">
         <v>13</v>
@@ -70125,7 +70125,7 @@
         </is>
       </c>
       <c r="J969" t="n">
-        <v>790</v>
+        <v>860</v>
       </c>
       <c r="K969" t="n">
         <v>2400</v>
@@ -70134,7 +70134,7 @@
         <v>2600</v>
       </c>
       <c r="M969" t="n">
-        <v>2511</v>
+        <v>2498</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70147,7 +70147,7 @@
         </is>
       </c>
       <c r="P969" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q969" t="n">
         <v>36</v>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E970" t="n">
         <v>13</v>
@@ -70200,13 +70200,13 @@
         <v>250</v>
       </c>
       <c r="K970" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="L970" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="M970" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70219,7 +70219,7 @@
         </is>
       </c>
       <c r="P970" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="Q970" t="n">
         <v>36</v>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E971" t="n">
         <v>13</v>
@@ -70269,16 +70269,16 @@
         </is>
       </c>
       <c r="J971" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="K971" t="n">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="L971" t="n">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="M971" t="n">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70291,7 +70291,7 @@
         </is>
       </c>
       <c r="P971" t="n">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="Q971" t="n">
         <v>36</v>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E972" t="n">
         <v>13</v>
@@ -70341,16 +70341,16 @@
         </is>
       </c>
       <c r="J972" t="n">
-        <v>490</v>
+        <v>670</v>
       </c>
       <c r="K972" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="L972" t="n">
-        <v>2800</v>
+        <v>3300</v>
       </c>
       <c r="M972" t="n">
-        <v>2743</v>
+        <v>3166</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
@@ -70359,11 +70359,11 @@
       </c>
       <c r="O972" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P972" t="n">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="Q972" t="n">
         <v>36</v>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E973" t="n">
         <v>13</v>
@@ -70409,20 +70409,20 @@
       </c>
       <c r="I973" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J973" t="n">
-        <v>850</v>
+        <v>680</v>
       </c>
       <c r="K973" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L973" t="n">
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="M973" t="n">
-        <v>2479</v>
+        <v>3172</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70435,7 +70435,7 @@
         </is>
       </c>
       <c r="P973" t="n">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="Q973" t="n">
         <v>36</v>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E974" t="n">
         <v>13</v>
@@ -70481,20 +70481,20 @@
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J974" t="n">
-        <v>580</v>
+        <v>850</v>
       </c>
       <c r="K974" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L974" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="M974" t="n">
-        <v>2066</v>
+        <v>2506</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70503,11 +70503,11 @@
       </c>
       <c r="O974" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P974" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="Q974" t="n">
         <v>36</v>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E975" t="n">
         <v>13</v>
@@ -70553,20 +70553,20 @@
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J975" t="n">
-        <v>440</v>
+        <v>790</v>
       </c>
       <c r="K975" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="L975" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="M975" t="n">
-        <v>2800</v>
+        <v>2511</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70579,7 +70579,7 @@
         </is>
       </c>
       <c r="P975" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="Q975" t="n">
         <v>36</v>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E976" t="n">
         <v>13</v>
@@ -70625,20 +70625,20 @@
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J976" t="n">
-        <v>730</v>
+        <v>250</v>
       </c>
       <c r="K976" t="n">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="L976" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="M976" t="n">
-        <v>2401</v>
+        <v>1800</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70647,11 +70647,11 @@
       </c>
       <c r="O976" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P976" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="Q976" t="n">
         <v>36</v>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E977" t="n">
         <v>13</v>
@@ -70701,16 +70701,16 @@
         </is>
       </c>
       <c r="J977" t="n">
-        <v>550</v>
+        <v>310</v>
       </c>
       <c r="K977" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="L977" t="n">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="M977" t="n">
-        <v>2091</v>
+        <v>1900</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70723,7 +70723,7 @@
         </is>
       </c>
       <c r="P977" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="Q977" t="n">
         <v>36</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E978" t="n">
         <v>13</v>
@@ -70773,16 +70773,16 @@
         </is>
       </c>
       <c r="J978" t="n">
-        <v>440</v>
+        <v>490</v>
       </c>
       <c r="K978" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="L978" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M978" t="n">
-        <v>3000</v>
+        <v>2743</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70791,11 +70791,11 @@
       </c>
       <c r="O978" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P978" t="n">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="Q978" t="n">
         <v>36</v>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E979" t="n">
         <v>13</v>
@@ -70841,20 +70841,20 @@
       </c>
       <c r="I979" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J979" t="n">
-        <v>380</v>
+        <v>850</v>
       </c>
       <c r="K979" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L979" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M979" t="n">
-        <v>3000</v>
+        <v>2479</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70867,7 +70867,7 @@
         </is>
       </c>
       <c r="P979" t="n">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="Q979" t="n">
         <v>36</v>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E980" t="n">
         <v>13</v>
@@ -70913,20 +70913,20 @@
       </c>
       <c r="I980" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J980" t="n">
-        <v>810</v>
+        <v>580</v>
       </c>
       <c r="K980" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L980" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="M980" t="n">
-        <v>2616</v>
+        <v>2066</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70935,11 +70935,11 @@
       </c>
       <c r="O980" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P980" t="n">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="Q980" t="n">
         <v>36</v>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E981" t="n">
         <v>13</v>
@@ -70985,20 +70985,20 @@
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J981" t="n">
-        <v>710</v>
+        <v>440</v>
       </c>
       <c r="K981" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="L981" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="M981" t="n">
-        <v>2515</v>
+        <v>2800</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71011,7 +71011,7 @@
         </is>
       </c>
       <c r="P981" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="Q981" t="n">
         <v>36</v>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E982" t="n">
         <v>13</v>
@@ -71057,20 +71057,20 @@
       </c>
       <c r="I982" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J982" t="n">
-        <v>260</v>
+        <v>730</v>
       </c>
       <c r="K982" t="n">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="L982" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M982" t="n">
-        <v>2200</v>
+        <v>2401</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71079,11 +71079,11 @@
       </c>
       <c r="O982" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P982" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="Q982" t="n">
         <v>36</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E983" t="n">
         <v>13</v>
@@ -71133,16 +71133,16 @@
         </is>
       </c>
       <c r="J983" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="K983" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L983" t="n">
         <v>2200</v>
       </c>
       <c r="M983" t="n">
-        <v>2200</v>
+        <v>2091</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71155,7 +71155,7 @@
         </is>
       </c>
       <c r="P983" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q983" t="n">
         <v>36</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -71201,20 +71201,20 @@
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J984" t="n">
-        <v>720</v>
+        <v>440</v>
       </c>
       <c r="K984" t="n">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="L984" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M984" t="n">
-        <v>3422</v>
+        <v>3000</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71227,7 +71227,7 @@
         </is>
       </c>
       <c r="P984" t="n">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="Q984" t="n">
         <v>36</v>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E985" t="n">
         <v>13</v>
@@ -71273,20 +71273,20 @@
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J985" t="n">
-        <v>620</v>
+        <v>380</v>
       </c>
       <c r="K985" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="L985" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="M985" t="n">
-        <v>3519</v>
+        <v>3000</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71299,7 +71299,7 @@
         </is>
       </c>
       <c r="P985" t="n">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="Q985" t="n">
         <v>36</v>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E986" t="n">
         <v>13</v>
@@ -71345,20 +71345,20 @@
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J986" t="n">
-        <v>200</v>
+        <v>810</v>
       </c>
       <c r="K986" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L986" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="M986" t="n">
-        <v>2800</v>
+        <v>2616</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71371,7 +71371,7 @@
         </is>
       </c>
       <c r="P986" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="Q986" t="n">
         <v>36</v>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E987" t="n">
         <v>13</v>
@@ -71417,20 +71417,20 @@
       </c>
       <c r="I987" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J987" t="n">
-        <v>240</v>
+        <v>710</v>
       </c>
       <c r="K987" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="L987" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="M987" t="n">
-        <v>2700</v>
+        <v>2515</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71443,7 +71443,7 @@
         </is>
       </c>
       <c r="P987" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Q987" t="n">
         <v>36</v>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E988" t="n">
         <v>13</v>
@@ -71489,20 +71489,20 @@
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J988" t="n">
-        <v>740</v>
+        <v>260</v>
       </c>
       <c r="K988" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="L988" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="M988" t="n">
-        <v>2854</v>
+        <v>2200</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71515,7 +71515,7 @@
         </is>
       </c>
       <c r="P988" t="n">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="Q988" t="n">
         <v>36</v>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E989" t="n">
         <v>13</v>
@@ -71561,20 +71561,20 @@
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J989" t="n">
-        <v>620</v>
+        <v>250</v>
       </c>
       <c r="K989" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="L989" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="M989" t="n">
-        <v>2869</v>
+        <v>2200</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71587,7 +71587,7 @@
         </is>
       </c>
       <c r="P989" t="n">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="Q989" t="n">
         <v>36</v>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E990" t="n">
         <v>13</v>
@@ -71637,16 +71637,16 @@
         </is>
       </c>
       <c r="J990" t="n">
-        <v>820</v>
+        <v>720</v>
       </c>
       <c r="K990" t="n">
-        <v>2200</v>
+        <v>3300</v>
       </c>
       <c r="L990" t="n">
-        <v>2400</v>
+        <v>3500</v>
       </c>
       <c r="M990" t="n">
-        <v>2305</v>
+        <v>3422</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71659,7 +71659,7 @@
         </is>
       </c>
       <c r="P990" t="n">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="Q990" t="n">
         <v>36</v>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E991" t="n">
         <v>13</v>
@@ -71709,16 +71709,16 @@
         </is>
       </c>
       <c r="J991" t="n">
-        <v>740</v>
+        <v>620</v>
       </c>
       <c r="K991" t="n">
-        <v>2000</v>
+        <v>3400</v>
       </c>
       <c r="L991" t="n">
-        <v>2300</v>
+        <v>3600</v>
       </c>
       <c r="M991" t="n">
-        <v>2162</v>
+        <v>3519</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
@@ -71731,7 +71731,7 @@
         </is>
       </c>
       <c r="P991" t="n">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="Q991" t="n">
         <v>36</v>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E992" t="n">
         <v>13</v>
@@ -71781,16 +71781,16 @@
         </is>
       </c>
       <c r="J992" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="K992" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="L992" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="M992" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71803,7 +71803,7 @@
         </is>
       </c>
       <c r="P992" t="n">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="Q992" t="n">
         <v>36</v>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E993" t="n">
         <v>13</v>
@@ -71853,16 +71853,16 @@
         </is>
       </c>
       <c r="J993" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K993" t="n">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="L993" t="n">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="M993" t="n">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71875,7 +71875,7 @@
         </is>
       </c>
       <c r="P993" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="Q993" t="n">
         <v>36</v>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -71925,16 +71925,16 @@
         </is>
       </c>
       <c r="J994" t="n">
-        <v>150</v>
+        <v>740</v>
       </c>
       <c r="K994" t="n">
-        <v>4000</v>
+        <v>2700</v>
       </c>
       <c r="L994" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M994" t="n">
-        <v>4000</v>
+        <v>2854</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71943,11 +71943,11 @@
       </c>
       <c r="O994" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P994" t="n">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="Q994" t="n">
         <v>36</v>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -71993,20 +71993,20 @@
       </c>
       <c r="I995" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J995" t="n">
-        <v>330</v>
+        <v>620</v>
       </c>
       <c r="K995" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="L995" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M995" t="n">
-        <v>3500</v>
+        <v>2869</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
@@ -72019,7 +72019,7 @@
         </is>
       </c>
       <c r="P995" t="n">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="Q995" t="n">
         <v>36</v>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -72065,20 +72065,20 @@
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J996" t="n">
-        <v>270</v>
+        <v>820</v>
       </c>
       <c r="K996" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="L996" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="M996" t="n">
-        <v>2500</v>
+        <v>2305</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72087,11 +72087,11 @@
       </c>
       <c r="O996" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P996" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="Q996" t="n">
         <v>36</v>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -72137,20 +72137,20 @@
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J997" t="n">
-        <v>680</v>
+        <v>740</v>
       </c>
       <c r="K997" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L997" t="n">
-        <v>3200</v>
+        <v>2300</v>
       </c>
       <c r="M997" t="n">
-        <v>3103</v>
+        <v>2162</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72159,11 +72159,11 @@
       </c>
       <c r="O997" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P997" t="n">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="Q997" t="n">
         <v>36</v>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E998" t="n">
         <v>13</v>
@@ -72209,20 +72209,20 @@
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J998" t="n">
-        <v>740</v>
+        <v>260</v>
       </c>
       <c r="K998" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="L998" t="n">
-        <v>3200</v>
+        <v>1800</v>
       </c>
       <c r="M998" t="n">
-        <v>3105</v>
+        <v>1800</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
@@ -72231,11 +72231,11 @@
       </c>
       <c r="O998" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P998" t="n">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="Q998" t="n">
         <v>36</v>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E999" t="n">
         <v>13</v>
@@ -72281,20 +72281,20 @@
       </c>
       <c r="I999" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J999" t="n">
-        <v>720</v>
+        <v>200</v>
       </c>
       <c r="K999" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L999" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="M999" t="n">
-        <v>2617</v>
+        <v>1800</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
@@ -72303,11 +72303,11 @@
       </c>
       <c r="O999" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P999" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="Q999" t="n">
         <v>36</v>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1000" t="n">
         <v>13</v>
@@ -72353,20 +72353,20 @@
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>680</v>
+        <v>150</v>
       </c>
       <c r="K1000" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="L1000" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="M1000" t="n">
-        <v>2606</v>
+        <v>4000</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
@@ -72379,7 +72379,7 @@
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="Q1000" t="n">
         <v>36</v>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1001" t="n">
         <v>13</v>
@@ -72425,20 +72425,20 @@
       </c>
       <c r="I1001" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="K1001" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L1001" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M1001" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72447,11 +72447,11 @@
       </c>
       <c r="O1001" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="Q1001" t="n">
         <v>36</v>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1002" t="n">
         <v>13</v>
@@ -72504,13 +72504,13 @@
         <v>270</v>
       </c>
       <c r="K1002" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L1002" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M1002" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72523,7 +72523,7 @@
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="Q1002" t="n">
         <v>36</v>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1003" t="n">
         <v>13</v>
@@ -72573,16 +72573,16 @@
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>520</v>
+        <v>680</v>
       </c>
       <c r="K1003" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="L1003" t="n">
-        <v>2600</v>
+        <v>3200</v>
       </c>
       <c r="M1003" t="n">
-        <v>2600</v>
+        <v>3103</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72591,11 +72591,11 @@
       </c>
       <c r="O1003" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q1003" t="n">
         <v>36</v>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1004" t="n">
         <v>13</v>
@@ -72641,20 +72641,20 @@
       </c>
       <c r="I1004" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>890</v>
+        <v>740</v>
       </c>
       <c r="K1004" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="L1004" t="n">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="M1004" t="n">
-        <v>2370</v>
+        <v>3105</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72667,7 +72667,7 @@
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="Q1004" t="n">
         <v>36</v>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1005" t="n">
         <v>13</v>
@@ -72713,20 +72713,20 @@
       </c>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>540</v>
+        <v>720</v>
       </c>
       <c r="K1005" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L1005" t="n">
-        <v>2100</v>
+        <v>2700</v>
       </c>
       <c r="M1005" t="n">
-        <v>2070</v>
+        <v>2617</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72735,11 +72735,11 @@
       </c>
       <c r="O1005" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="Q1005" t="n">
         <v>36</v>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1006" t="n">
         <v>13</v>
@@ -72785,20 +72785,20 @@
       </c>
       <c r="I1006" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1006" t="n">
         <v>680</v>
       </c>
       <c r="K1006" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L1006" t="n">
         <v>2700</v>
       </c>
-      <c r="L1006" t="n">
-        <v>3000</v>
-      </c>
       <c r="M1006" t="n">
-        <v>2854</v>
+        <v>2606</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72807,11 +72807,11 @@
       </c>
       <c r="O1006" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="Q1006" t="n">
         <v>36</v>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1007" t="n">
         <v>13</v>
@@ -72857,20 +72857,20 @@
       </c>
       <c r="I1007" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>730</v>
+        <v>300</v>
       </c>
       <c r="K1007" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="L1007" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M1007" t="n">
-        <v>2860</v>
+        <v>2000</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72879,11 +72879,11 @@
       </c>
       <c r="O1007" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="Q1007" t="n">
         <v>36</v>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1008" t="n">
         <v>13</v>
@@ -72929,20 +72929,20 @@
       </c>
       <c r="I1008" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>640</v>
+        <v>270</v>
       </c>
       <c r="K1008" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="L1008" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M1008" t="n">
-        <v>2403</v>
+        <v>2000</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72951,11 +72951,11 @@
       </c>
       <c r="O1008" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="Q1008" t="n">
         <v>36</v>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1009" t="n">
         <v>13</v>
@@ -73001,20 +73001,20 @@
       </c>
       <c r="I1009" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>630</v>
+        <v>520</v>
       </c>
       <c r="K1009" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="L1009" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="M1009" t="n">
-        <v>2357</v>
+        <v>2600</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
@@ -73027,7 +73027,7 @@
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="Q1009" t="n">
         <v>36</v>
@@ -73053,7 +73053,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1010" t="n">
         <v>13</v>
@@ -73073,20 +73073,20 @@
       </c>
       <c r="I1010" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>240</v>
+        <v>890</v>
       </c>
       <c r="K1010" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="L1010" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="M1010" t="n">
-        <v>1800</v>
+        <v>2370</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
@@ -73095,11 +73095,11 @@
       </c>
       <c r="O1010" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="Q1010" t="n">
         <v>36</v>
@@ -73125,7 +73125,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1011" t="n">
         <v>13</v>
@@ -73149,16 +73149,16 @@
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>260</v>
+        <v>540</v>
       </c>
       <c r="K1011" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="L1011" t="n">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="M1011" t="n">
-        <v>1900</v>
+        <v>2070</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
@@ -73171,7 +73171,7 @@
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Q1011" t="n">
         <v>36</v>
@@ -73197,7 +73197,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1012" t="n">
         <v>13</v>
@@ -73221,16 +73221,16 @@
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>420</v>
+        <v>680</v>
       </c>
       <c r="K1012" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="L1012" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M1012" t="n">
-        <v>2800</v>
+        <v>2854</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
@@ -73243,7 +73243,7 @@
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q1012" t="n">
         <v>36</v>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1013" t="n">
         <v>13</v>
@@ -73293,16 +73293,16 @@
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>450</v>
+        <v>730</v>
       </c>
       <c r="K1013" t="n">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="L1013" t="n">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="M1013" t="n">
-        <v>2900</v>
+        <v>2860</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
@@ -73315,7 +73315,7 @@
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q1013" t="n">
         <v>36</v>
@@ -73341,7 +73341,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1014" t="n">
         <v>13</v>
@@ -73365,7 +73365,7 @@
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="K1014" t="n">
         <v>2300</v>
@@ -73374,7 +73374,7 @@
         <v>2500</v>
       </c>
       <c r="M1014" t="n">
-        <v>2418</v>
+        <v>2403</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1015" t="n">
         <v>13</v>
@@ -73437,16 +73437,16 @@
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>700</v>
+        <v>630</v>
       </c>
       <c r="K1015" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="L1015" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="M1015" t="n">
-        <v>2511</v>
+        <v>2357</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73459,7 +73459,7 @@
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Q1015" t="n">
         <v>36</v>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1016" t="n">
         <v>13</v>
@@ -73509,16 +73509,16 @@
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="K1016" t="n">
         <v>1800</v>
       </c>
       <c r="L1016" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="M1016" t="n">
-        <v>1911</v>
+        <v>1800</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
@@ -73531,7 +73531,7 @@
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q1016" t="n">
         <v>36</v>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -73581,16 +73581,16 @@
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>470</v>
+        <v>260</v>
       </c>
       <c r="K1017" t="n">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="L1017" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="M1017" t="n">
-        <v>1928</v>
+        <v>1900</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73603,7 +73603,7 @@
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q1017" t="n">
         <v>36</v>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1018" t="n">
         <v>13</v>
@@ -73653,16 +73653,16 @@
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>810</v>
+        <v>420</v>
       </c>
       <c r="K1018" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="L1018" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="M1018" t="n">
-        <v>3363</v>
+        <v>2800</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
@@ -73675,7 +73675,7 @@
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="Q1018" t="n">
         <v>36</v>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1019" t="n">
         <v>13</v>
@@ -73725,16 +73725,16 @@
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>710</v>
+        <v>450</v>
       </c>
       <c r="K1019" t="n">
-        <v>3200</v>
+        <v>2900</v>
       </c>
       <c r="L1019" t="n">
-        <v>3500</v>
+        <v>2900</v>
       </c>
       <c r="M1019" t="n">
-        <v>3361</v>
+        <v>2900</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73747,7 +73747,7 @@
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="Q1019" t="n">
         <v>36</v>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1020" t="n">
         <v>13</v>
@@ -73797,16 +73797,16 @@
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>870</v>
+        <v>660</v>
       </c>
       <c r="K1020" t="n">
         <v>2300</v>
       </c>
       <c r="L1020" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M1020" t="n">
-        <v>2570</v>
+        <v>2418</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73819,7 +73819,7 @@
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q1020" t="n">
         <v>36</v>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1021" t="n">
         <v>13</v>
@@ -73869,7 +73869,7 @@
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>810</v>
+        <v>700</v>
       </c>
       <c r="K1021" t="n">
         <v>2400</v>
@@ -73878,7 +73878,7 @@
         <v>2600</v>
       </c>
       <c r="M1021" t="n">
-        <v>2501</v>
+        <v>2511</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73891,7 +73891,7 @@
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q1021" t="n">
         <v>36</v>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1022" t="n">
         <v>13</v>
@@ -73941,16 +73941,16 @@
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K1022" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L1022" t="n">
         <v>2000</v>
       </c>
       <c r="M1022" t="n">
-        <v>2000</v>
+        <v>1911</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73963,7 +73963,7 @@
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q1022" t="n">
         <v>36</v>
@@ -73989,7 +73989,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1023" t="n">
         <v>13</v>
@@ -74013,16 +74013,16 @@
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>250</v>
+        <v>470</v>
       </c>
       <c r="K1023" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L1023" t="n">
         <v>2000</v>
       </c>
       <c r="M1023" t="n">
-        <v>2000</v>
+        <v>1928</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
@@ -74035,7 +74035,7 @@
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q1023" t="n">
         <v>36</v>
@@ -74061,7 +74061,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1024" t="n">
         <v>13</v>
@@ -74085,16 +74085,16 @@
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>330</v>
+        <v>810</v>
       </c>
       <c r="K1024" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="L1024" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M1024" t="n">
-        <v>2800</v>
+        <v>3363</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
@@ -74107,7 +74107,7 @@
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="Q1024" t="n">
         <v>36</v>
@@ -74133,7 +74133,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1025" t="n">
         <v>13</v>
@@ -74157,16 +74157,16 @@
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>270</v>
+        <v>710</v>
       </c>
       <c r="K1025" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="L1025" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M1025" t="n">
-        <v>2800</v>
+        <v>3361</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
@@ -74179,7 +74179,7 @@
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="Q1025" t="n">
         <v>36</v>
@@ -74205,7 +74205,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1026" t="n">
         <v>13</v>
@@ -74229,16 +74229,16 @@
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>640</v>
+        <v>870</v>
       </c>
       <c r="K1026" t="n">
         <v>2300</v>
       </c>
       <c r="L1026" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M1026" t="n">
-        <v>2419</v>
+        <v>2570</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
@@ -74251,7 +74251,7 @@
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="Q1026" t="n">
         <v>36</v>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1027" t="n">
         <v>13</v>
@@ -74301,16 +74301,16 @@
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="K1027" t="n">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="L1027" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="M1027" t="n">
-        <v>2417</v>
+        <v>2501</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
@@ -74323,7 +74323,7 @@
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q1027" t="n">
         <v>36</v>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1028" t="n">
         <v>13</v>
@@ -74373,7 +74373,7 @@
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K1028" t="n">
         <v>2000</v>
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1029" t="n">
         <v>13</v>
@@ -74493,7 +74493,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1030" t="n">
         <v>13</v>
@@ -74513,20 +74513,20 @@
       </c>
       <c r="I1030" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>830</v>
+        <v>330</v>
       </c>
       <c r="K1030" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="L1030" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M1030" t="n">
-        <v>2812</v>
+        <v>2800</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
@@ -74565,7 +74565,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1031" t="n">
         <v>13</v>
@@ -74585,20 +74585,20 @@
       </c>
       <c r="I1031" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>1010</v>
+        <v>270</v>
       </c>
       <c r="K1031" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="L1031" t="n">
         <v>2800</v>
       </c>
       <c r="M1031" t="n">
-        <v>2707</v>
+        <v>2800</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
@@ -74611,7 +74611,7 @@
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q1031" t="n">
         <v>36</v>
@@ -74637,7 +74637,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1032" t="n">
         <v>13</v>
@@ -74657,20 +74657,20 @@
       </c>
       <c r="I1032" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>280</v>
+        <v>640</v>
       </c>
       <c r="K1032" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="L1032" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M1032" t="n">
-        <v>2000</v>
+        <v>2419</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
@@ -74683,7 +74683,7 @@
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="Q1032" t="n">
         <v>36</v>
@@ -74709,7 +74709,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1033" t="n">
         <v>13</v>
@@ -74729,20 +74729,20 @@
       </c>
       <c r="I1033" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>330</v>
+        <v>720</v>
       </c>
       <c r="K1033" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="L1033" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M1033" t="n">
-        <v>2000</v>
+        <v>2417</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
@@ -74755,7 +74755,7 @@
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="Q1033" t="n">
         <v>36</v>
@@ -74781,7 +74781,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E1034" t="n">
         <v>13</v>
@@ -74801,20 +74801,20 @@
       </c>
       <c r="I1034" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>440</v>
+        <v>180</v>
       </c>
       <c r="K1034" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L1034" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M1034" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
@@ -74827,7 +74827,7 @@
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="Q1034" t="n">
         <v>36</v>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E1035" t="n">
         <v>13</v>
@@ -74873,20 +74873,20 @@
       </c>
       <c r="I1035" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="K1035" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L1035" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M1035" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
@@ -74899,7 +74899,7 @@
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="Q1035" t="n">
         <v>36</v>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1036" t="n">
         <v>13</v>
@@ -74949,16 +74949,16 @@
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="K1036" t="n">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="L1036" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M1036" t="n">
-        <v>2408</v>
+        <v>2812</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
@@ -74971,7 +74971,7 @@
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="Q1036" t="n">
         <v>36</v>
@@ -74997,7 +74997,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1037" t="n">
         <v>13</v>
@@ -75021,16 +75021,16 @@
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>960</v>
+        <v>1010</v>
       </c>
       <c r="K1037" t="n">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="L1037" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M1037" t="n">
-        <v>2392</v>
+        <v>2707</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
@@ -75043,7 +75043,7 @@
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="Q1037" t="n">
         <v>36</v>
@@ -75069,7 +75069,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1038" t="n">
         <v>13</v>
@@ -75093,16 +75093,16 @@
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>490</v>
+        <v>280</v>
       </c>
       <c r="K1038" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L1038" t="n">
         <v>2000</v>
       </c>
       <c r="M1038" t="n">
-        <v>1906</v>
+        <v>2000</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
@@ -75115,7 +75115,7 @@
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q1038" t="n">
         <v>36</v>
@@ -75141,7 +75141,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1039" t="n">
         <v>13</v>
@@ -75165,16 +75165,16 @@
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>550</v>
+        <v>330</v>
       </c>
       <c r="K1039" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L1039" t="n">
         <v>2000</v>
       </c>
       <c r="M1039" t="n">
-        <v>1902</v>
+        <v>2000</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
@@ -75187,7 +75187,7 @@
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q1039" t="n">
         <v>36</v>
@@ -75213,7 +75213,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1040" t="n">
         <v>13</v>
@@ -75233,20 +75233,20 @@
       </c>
       <c r="I1040" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>810</v>
+        <v>440</v>
       </c>
       <c r="K1040" t="n">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="L1040" t="n">
-        <v>3600</v>
+        <v>2800</v>
       </c>
       <c r="M1040" t="n">
-        <v>3509</v>
+        <v>2800</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
@@ -75259,7 +75259,7 @@
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="Q1040" t="n">
         <v>36</v>
@@ -75285,7 +75285,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1041" t="n">
         <v>13</v>
@@ -75305,20 +75305,20 @@
       </c>
       <c r="I1041" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1041" t="n">
-        <v>560</v>
+        <v>450</v>
       </c>
       <c r="K1041" t="n">
         <v>2800</v>
       </c>
       <c r="L1041" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M1041" t="n">
-        <v>2911</v>
+        <v>2800</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
@@ -75327,11 +75327,11 @@
       </c>
       <c r="O1041" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q1041" t="n">
         <v>36</v>
@@ -75357,7 +75357,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E1042" t="n">
         <v>13</v>
@@ -75381,16 +75381,16 @@
         </is>
       </c>
       <c r="J1042" t="n">
-        <v>830</v>
+        <v>850</v>
       </c>
       <c r="K1042" t="n">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="L1042" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M1042" t="n">
-        <v>2859</v>
+        <v>2408</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
@@ -75403,7 +75403,7 @@
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="Q1042" t="n">
         <v>36</v>
@@ -75429,7 +75429,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E1043" t="n">
         <v>13</v>
@@ -75453,16 +75453,16 @@
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="K1043" t="n">
-        <v>2600</v>
+        <v>2300</v>
       </c>
       <c r="L1043" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M1043" t="n">
-        <v>2709</v>
+        <v>2392</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
@@ -75475,7 +75475,7 @@
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="Q1043" t="n">
         <v>36</v>
@@ -75501,7 +75501,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E1044" t="n">
         <v>13</v>
@@ -75525,16 +75525,16 @@
         </is>
       </c>
       <c r="J1044" t="n">
-        <v>250</v>
+        <v>490</v>
       </c>
       <c r="K1044" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L1044" t="n">
         <v>2000</v>
       </c>
       <c r="M1044" t="n">
-        <v>2000</v>
+        <v>1906</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
@@ -75547,7 +75547,7 @@
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q1044" t="n">
         <v>36</v>
@@ -75573,7 +75573,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E1045" t="n">
         <v>13</v>
@@ -75597,16 +75597,16 @@
         </is>
       </c>
       <c r="J1045" t="n">
-        <v>290</v>
+        <v>550</v>
       </c>
       <c r="K1045" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L1045" t="n">
         <v>2000</v>
       </c>
       <c r="M1045" t="n">
-        <v>2000</v>
+        <v>1902</v>
       </c>
       <c r="N1045" t="inlineStr">
         <is>
@@ -75619,7 +75619,7 @@
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q1045" t="n">
         <v>36</v>
@@ -75645,7 +75645,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1046" t="n">
         <v>13</v>
@@ -75665,20 +75665,20 @@
       </c>
       <c r="I1046" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>440</v>
+        <v>810</v>
       </c>
       <c r="K1046" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="L1046" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="M1046" t="n">
-        <v>3000</v>
+        <v>3509</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
@@ -75687,11 +75687,11 @@
       </c>
       <c r="O1046" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="Q1046" t="n">
         <v>36</v>
@@ -75717,7 +75717,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1047" t="n">
         <v>13</v>
@@ -75737,20 +75737,20 @@
       </c>
       <c r="I1047" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1047" t="n">
-        <v>300</v>
+        <v>560</v>
       </c>
       <c r="K1047" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L1047" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M1047" t="n">
-        <v>2500</v>
+        <v>2911</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
@@ -75763,7 +75763,7 @@
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="Q1047" t="n">
         <v>36</v>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1048" t="n">
         <v>13</v>
@@ -75813,16 +75813,16 @@
         </is>
       </c>
       <c r="J1048" t="n">
-        <v>570</v>
+        <v>830</v>
       </c>
       <c r="K1048" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="L1048" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M1048" t="n">
-        <v>2623</v>
+        <v>2859</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
@@ -75831,11 +75831,11 @@
       </c>
       <c r="O1048" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="Q1048" t="n">
         <v>36</v>
@@ -75861,7 +75861,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1049" t="n">
         <v>13</v>
@@ -75881,20 +75881,20 @@
       </c>
       <c r="I1049" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>200</v>
+        <v>970</v>
       </c>
       <c r="K1049" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="L1049" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M1049" t="n">
-        <v>2000</v>
+        <v>2709</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
@@ -75903,11 +75903,11 @@
       </c>
       <c r="O1049" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="Q1049" t="n">
         <v>36</v>
@@ -75933,7 +75933,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1050" t="n">
         <v>13</v>
@@ -75957,16 +75957,16 @@
         </is>
       </c>
       <c r="J1050" t="n">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="K1050" t="n">
         <v>2000</v>
       </c>
       <c r="L1050" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="M1050" t="n">
-        <v>2175</v>
+        <v>2000</v>
       </c>
       <c r="N1050" t="inlineStr">
         <is>
@@ -75975,11 +75975,11 @@
       </c>
       <c r="O1050" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q1050" t="n">
         <v>36</v>
@@ -76005,7 +76005,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44421</v>
+        <v>44295</v>
       </c>
       <c r="E1051" t="n">
         <v>13</v>
@@ -76025,20 +76025,20 @@
       </c>
       <c r="I1051" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1051" t="n">
-        <v>790</v>
+        <v>290</v>
       </c>
       <c r="K1051" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="L1051" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M1051" t="n">
-        <v>3867</v>
+        <v>2000</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
@@ -76047,11 +76047,11 @@
       </c>
       <c r="O1051" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="Q1051" t="n">
         <v>36</v>
@@ -76077,7 +76077,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1052" t="n">
         <v>13</v>
@@ -76101,16 +76101,16 @@
         </is>
       </c>
       <c r="J1052" t="n">
-        <v>640</v>
+        <v>440</v>
       </c>
       <c r="K1052" t="n">
-        <v>3700</v>
+        <v>3000</v>
       </c>
       <c r="L1052" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M1052" t="n">
-        <v>3859</v>
+        <v>3000</v>
       </c>
       <c r="N1052" t="inlineStr">
         <is>
@@ -76123,7 +76123,7 @@
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="Q1052" t="n">
         <v>36</v>
@@ -76149,7 +76149,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1053" t="n">
         <v>13</v>
@@ -76173,16 +76173,16 @@
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="K1053" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L1053" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M1053" t="n">
-        <v>2925</v>
+        <v>2500</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
@@ -76195,7 +76195,7 @@
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="Q1053" t="n">
         <v>36</v>
@@ -76221,7 +76221,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1054" t="n">
         <v>13</v>
@@ -76245,16 +76245,16 @@
         </is>
       </c>
       <c r="J1054" t="n">
-        <v>740</v>
+        <v>570</v>
       </c>
       <c r="K1054" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L1054" t="n">
         <v>2700</v>
       </c>
-      <c r="L1054" t="n">
-        <v>3000</v>
-      </c>
       <c r="M1054" t="n">
-        <v>2858</v>
+        <v>2623</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
@@ -76267,7 +76267,7 @@
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="Q1054" t="n">
         <v>36</v>
@@ -76293,7 +76293,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1055" t="n">
         <v>13</v>
@@ -76317,16 +76317,16 @@
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K1055" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L1055" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="M1055" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
@@ -76339,7 +76339,7 @@
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q1055" t="n">
         <v>36</v>
@@ -76365,7 +76365,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44421</v>
+        <v>44217</v>
       </c>
       <c r="E1056" t="n">
         <v>13</v>
@@ -76389,16 +76389,16 @@
         </is>
       </c>
       <c r="J1056" t="n">
-        <v>290</v>
+        <v>480</v>
       </c>
       <c r="K1056" t="n">
         <v>2000</v>
       </c>
       <c r="L1056" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="M1056" t="n">
-        <v>2000</v>
+        <v>2175</v>
       </c>
       <c r="N1056" t="inlineStr">
         <is>
@@ -76411,7 +76411,7 @@
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q1056" t="n">
         <v>36</v>
@@ -76437,7 +76437,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1057" t="n">
         <v>13</v>
@@ -76461,16 +76461,16 @@
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>280</v>
+        <v>790</v>
       </c>
       <c r="K1057" t="n">
-        <v>3000</v>
+        <v>3700</v>
       </c>
       <c r="L1057" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M1057" t="n">
-        <v>3000</v>
+        <v>3867</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
@@ -76483,7 +76483,7 @@
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="Q1057" t="n">
         <v>36</v>
@@ -76509,7 +76509,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1058" t="n">
         <v>13</v>
@@ -76533,16 +76533,16 @@
         </is>
       </c>
       <c r="J1058" t="n">
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="K1058" t="n">
-        <v>2900</v>
+        <v>3700</v>
       </c>
       <c r="L1058" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M1058" t="n">
-        <v>2956</v>
+        <v>3859</v>
       </c>
       <c r="N1058" t="inlineStr">
         <is>
@@ -76555,7 +76555,7 @@
         </is>
       </c>
       <c r="P1058" t="n">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="Q1058" t="n">
         <v>36</v>
@@ -76581,7 +76581,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1059" t="n">
         <v>13</v>
@@ -76605,16 +76605,16 @@
         </is>
       </c>
       <c r="J1059" t="n">
-        <v>660</v>
+        <v>750</v>
       </c>
       <c r="K1059" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L1059" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="M1059" t="n">
-        <v>2548</v>
+        <v>2925</v>
       </c>
       <c r="N1059" t="inlineStr">
         <is>
@@ -76627,7 +76627,7 @@
         </is>
       </c>
       <c r="P1059" t="n">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="Q1059" t="n">
         <v>36</v>
@@ -76653,7 +76653,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1060" t="n">
         <v>13</v>
@@ -76677,16 +76677,16 @@
         </is>
       </c>
       <c r="J1060" t="n">
-        <v>690</v>
+        <v>740</v>
       </c>
       <c r="K1060" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="L1060" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M1060" t="n">
-        <v>2613</v>
+        <v>2858</v>
       </c>
       <c r="N1060" t="inlineStr">
         <is>
@@ -76699,7 +76699,7 @@
         </is>
       </c>
       <c r="P1060" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="Q1060" t="n">
         <v>36</v>
@@ -76725,7 +76725,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1061" t="n">
         <v>13</v>
@@ -76749,7 +76749,7 @@
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K1061" t="n">
         <v>2200</v>
@@ -76797,7 +76797,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1062" t="n">
         <v>13</v>
@@ -76821,16 +76821,16 @@
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>180</v>
+        <v>290</v>
       </c>
       <c r="K1062" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L1062" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="M1062" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="N1062" t="inlineStr">
         <is>
@@ -76843,7 +76843,7 @@
         </is>
       </c>
       <c r="P1062" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q1062" t="n">
         <v>36</v>
@@ -76869,7 +76869,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1063" t="n">
         <v>13</v>
@@ -76889,20 +76889,20 @@
       </c>
       <c r="I1063" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>680</v>
+        <v>280</v>
       </c>
       <c r="K1063" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L1063" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M1063" t="n">
-        <v>2603</v>
+        <v>3000</v>
       </c>
       <c r="N1063" t="inlineStr">
         <is>
@@ -76915,7 +76915,7 @@
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="Q1063" t="n">
         <v>36</v>
@@ -76941,7 +76941,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1064" t="n">
         <v>13</v>
@@ -76961,20 +76961,20 @@
       </c>
       <c r="I1064" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1064" t="n">
-        <v>720</v>
+        <v>620</v>
       </c>
       <c r="K1064" t="n">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="L1064" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="M1064" t="n">
-        <v>2557</v>
+        <v>2956</v>
       </c>
       <c r="N1064" t="inlineStr">
         <is>
@@ -76987,7 +76987,7 @@
         </is>
       </c>
       <c r="P1064" t="n">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="Q1064" t="n">
         <v>36</v>
@@ -77013,7 +77013,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1065" t="n">
         <v>13</v>
@@ -77033,20 +77033,20 @@
       </c>
       <c r="I1065" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>460</v>
+        <v>660</v>
       </c>
       <c r="K1065" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L1065" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="M1065" t="n">
-        <v>2109</v>
+        <v>2548</v>
       </c>
       <c r="N1065" t="inlineStr">
         <is>
@@ -77059,7 +77059,7 @@
         </is>
       </c>
       <c r="P1065" t="n">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="Q1065" t="n">
         <v>36</v>
@@ -77085,7 +77085,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1066" t="n">
         <v>13</v>
@@ -77105,20 +77105,20 @@
       </c>
       <c r="I1066" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1066" t="n">
-        <v>520</v>
+        <v>690</v>
       </c>
       <c r="K1066" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L1066" t="n">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="M1066" t="n">
-        <v>2108</v>
+        <v>2613</v>
       </c>
       <c r="N1066" t="inlineStr">
         <is>
@@ -77131,7 +77131,7 @@
         </is>
       </c>
       <c r="P1066" t="n">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="Q1066" t="n">
         <v>36</v>
@@ -77157,7 +77157,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1067" t="n">
         <v>13</v>
@@ -77177,20 +77177,20 @@
       </c>
       <c r="I1067" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1067" t="n">
-        <v>830</v>
+        <v>150</v>
       </c>
       <c r="K1067" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="L1067" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="M1067" t="n">
-        <v>2606</v>
+        <v>2200</v>
       </c>
       <c r="N1067" t="inlineStr">
         <is>
@@ -77203,7 +77203,7 @@
         </is>
       </c>
       <c r="P1067" t="n">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="Q1067" t="n">
         <v>36</v>
@@ -77229,7 +77229,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1068" t="n">
         <v>13</v>
@@ -77249,20 +77249,20 @@
       </c>
       <c r="I1068" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1068" t="n">
-        <v>1020</v>
+        <v>180</v>
       </c>
       <c r="K1068" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="L1068" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="M1068" t="n">
-        <v>2506</v>
+        <v>2200</v>
       </c>
       <c r="N1068" t="inlineStr">
         <is>
@@ -77275,7 +77275,7 @@
         </is>
       </c>
       <c r="P1068" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="Q1068" t="n">
         <v>36</v>
@@ -77301,7 +77301,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1069" t="n">
         <v>13</v>
@@ -77321,20 +77321,20 @@
       </c>
       <c r="I1069" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1069" t="n">
-        <v>250</v>
+        <v>680</v>
       </c>
       <c r="K1069" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L1069" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="M1069" t="n">
-        <v>2000</v>
+        <v>2603</v>
       </c>
       <c r="N1069" t="inlineStr">
         <is>
@@ -77347,7 +77347,7 @@
         </is>
       </c>
       <c r="P1069" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="Q1069" t="n">
         <v>36</v>
@@ -77373,7 +77373,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1070" t="n">
         <v>13</v>
@@ -77393,20 +77393,20 @@
       </c>
       <c r="I1070" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>280</v>
+        <v>720</v>
       </c>
       <c r="K1070" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L1070" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="M1070" t="n">
-        <v>2000</v>
+        <v>2557</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
@@ -77419,7 +77419,7 @@
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="Q1070" t="n">
         <v>36</v>
@@ -77445,7 +77445,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1071" t="n">
         <v>13</v>
@@ -77465,20 +77465,20 @@
       </c>
       <c r="I1071" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1071" t="n">
-        <v>820</v>
+        <v>460</v>
       </c>
       <c r="K1071" t="n">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="L1071" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="M1071" t="n">
-        <v>3407</v>
+        <v>2109</v>
       </c>
       <c r="N1071" t="inlineStr">
         <is>
@@ -77491,7 +77491,7 @@
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="Q1071" t="n">
         <v>36</v>
@@ -77517,7 +77517,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1072" t="n">
         <v>13</v>
@@ -77537,20 +77537,20 @@
       </c>
       <c r="I1072" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1072" t="n">
-        <v>900</v>
+        <v>520</v>
       </c>
       <c r="K1072" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="L1072" t="n">
-        <v>3600</v>
+        <v>2200</v>
       </c>
       <c r="M1072" t="n">
-        <v>3507</v>
+        <v>2108</v>
       </c>
       <c r="N1072" t="inlineStr">
         <is>
@@ -77563,7 +77563,7 @@
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="Q1072" t="n">
         <v>36</v>
@@ -77589,7 +77589,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1073" t="n">
         <v>13</v>
@@ -77609,20 +77609,20 @@
       </c>
       <c r="I1073" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1073" t="n">
-        <v>540</v>
+        <v>830</v>
       </c>
       <c r="K1073" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L1073" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="M1073" t="n">
-        <v>2907</v>
+        <v>2606</v>
       </c>
       <c r="N1073" t="inlineStr">
         <is>
@@ -77635,7 +77635,7 @@
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="Q1073" t="n">
         <v>36</v>
@@ -77661,7 +77661,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1074" t="n">
         <v>13</v>
@@ -77681,20 +77681,20 @@
       </c>
       <c r="I1074" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1074" t="n">
-        <v>690</v>
+        <v>1020</v>
       </c>
       <c r="K1074" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="L1074" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="M1074" t="n">
-        <v>2904</v>
+        <v>2506</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
@@ -77707,7 +77707,7 @@
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="Q1074" t="n">
         <v>36</v>
@@ -77733,7 +77733,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E1075" t="n">
         <v>13</v>
@@ -77753,20 +77753,20 @@
       </c>
       <c r="I1075" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1075" t="n">
-        <v>710</v>
+        <v>250</v>
       </c>
       <c r="K1075" t="n">
-        <v>3800</v>
+        <v>2000</v>
       </c>
       <c r="L1075" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M1075" t="n">
-        <v>3907</v>
+        <v>2000</v>
       </c>
       <c r="N1075" t="inlineStr">
         <is>
@@ -77779,7 +77779,7 @@
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="Q1075" t="n">
         <v>36</v>
@@ -77805,7 +77805,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E1076" t="n">
         <v>13</v>
@@ -77825,20 +77825,20 @@
       </c>
       <c r="I1076" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1076" t="n">
-        <v>700</v>
+        <v>280</v>
       </c>
       <c r="K1076" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="L1076" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M1076" t="n">
-        <v>3854</v>
+        <v>2000</v>
       </c>
       <c r="N1076" t="inlineStr">
         <is>
@@ -77851,7 +77851,7 @@
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="Q1076" t="n">
         <v>36</v>
@@ -77877,7 +77877,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1077" t="n">
         <v>13</v>
@@ -77901,16 +77901,16 @@
         </is>
       </c>
       <c r="J1077" t="n">
-        <v>840</v>
+        <v>820</v>
       </c>
       <c r="K1077" t="n">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="L1077" t="n">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="M1077" t="n">
-        <v>3107</v>
+        <v>3407</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
@@ -77923,7 +77923,7 @@
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="Q1077" t="n">
         <v>36</v>
@@ -77949,7 +77949,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1078" t="n">
         <v>13</v>
@@ -77973,16 +77973,16 @@
         </is>
       </c>
       <c r="J1078" t="n">
-        <v>810</v>
+        <v>900</v>
       </c>
       <c r="K1078" t="n">
-        <v>2900</v>
+        <v>3400</v>
       </c>
       <c r="L1078" t="n">
-        <v>3300</v>
+        <v>3600</v>
       </c>
       <c r="M1078" t="n">
-        <v>3107</v>
+        <v>3507</v>
       </c>
       <c r="N1078" t="inlineStr">
         <is>
@@ -77995,7 +77995,7 @@
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="Q1078" t="n">
         <v>36</v>
@@ -78021,7 +78021,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1079" t="n">
         <v>13</v>
@@ -78045,16 +78045,16 @@
         </is>
       </c>
       <c r="J1079" t="n">
-        <v>270</v>
+        <v>540</v>
       </c>
       <c r="K1079" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="L1079" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M1079" t="n">
-        <v>2200</v>
+        <v>2907</v>
       </c>
       <c r="N1079" t="inlineStr">
         <is>
@@ -78067,7 +78067,7 @@
         </is>
       </c>
       <c r="P1079" t="n">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="Q1079" t="n">
         <v>36</v>
@@ -78093,7 +78093,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1080" t="n">
         <v>13</v>
@@ -78117,16 +78117,16 @@
         </is>
       </c>
       <c r="J1080" t="n">
-        <v>310</v>
+        <v>690</v>
       </c>
       <c r="K1080" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="L1080" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M1080" t="n">
-        <v>2200</v>
+        <v>2904</v>
       </c>
       <c r="N1080" t="inlineStr">
         <is>
@@ -78139,7 +78139,7 @@
         </is>
       </c>
       <c r="P1080" t="n">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="Q1080" t="n">
         <v>36</v>
@@ -78165,7 +78165,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1081" t="n">
         <v>13</v>
@@ -78185,20 +78185,20 @@
       </c>
       <c r="I1081" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1081" t="n">
-        <v>830</v>
+        <v>710</v>
       </c>
       <c r="K1081" t="n">
-        <v>2600</v>
+        <v>3800</v>
       </c>
       <c r="L1081" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M1081" t="n">
-        <v>2812</v>
+        <v>3907</v>
       </c>
       <c r="N1081" t="inlineStr">
         <is>
@@ -78211,7 +78211,7 @@
         </is>
       </c>
       <c r="P1081" t="n">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="Q1081" t="n">
         <v>36</v>
@@ -78237,7 +78237,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1082" t="n">
         <v>13</v>
@@ -78257,20 +78257,20 @@
       </c>
       <c r="I1082" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1082" t="n">
-        <v>1020</v>
+        <v>700</v>
       </c>
       <c r="K1082" t="n">
-        <v>2500</v>
+        <v>3700</v>
       </c>
       <c r="L1082" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="M1082" t="n">
-        <v>2662</v>
+        <v>3854</v>
       </c>
       <c r="N1082" t="inlineStr">
         <is>
@@ -78283,7 +78283,7 @@
         </is>
       </c>
       <c r="P1082" t="n">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="Q1082" t="n">
         <v>36</v>
@@ -78309,7 +78309,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1083" t="n">
         <v>13</v>
@@ -78329,20 +78329,20 @@
       </c>
       <c r="I1083" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1083" t="n">
-        <v>300</v>
+        <v>840</v>
       </c>
       <c r="K1083" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L1083" t="n">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="M1083" t="n">
-        <v>2000</v>
+        <v>3107</v>
       </c>
       <c r="N1083" t="inlineStr">
         <is>
@@ -78355,7 +78355,7 @@
         </is>
       </c>
       <c r="P1083" t="n">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="Q1083" t="n">
         <v>36</v>
@@ -78381,7 +78381,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1084" t="n">
         <v>13</v>
@@ -78401,20 +78401,20 @@
       </c>
       <c r="I1084" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1084" t="n">
-        <v>330</v>
+        <v>810</v>
       </c>
       <c r="K1084" t="n">
-        <v>2000</v>
+        <v>2900</v>
       </c>
       <c r="L1084" t="n">
-        <v>2000</v>
+        <v>3300</v>
       </c>
       <c r="M1084" t="n">
-        <v>2000</v>
+        <v>3107</v>
       </c>
       <c r="N1084" t="inlineStr">
         <is>
@@ -78427,7 +78427,7 @@
         </is>
       </c>
       <c r="P1084" t="n">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="Q1084" t="n">
         <v>36</v>
@@ -78453,7 +78453,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E1085" t="n">
         <v>13</v>
@@ -78473,20 +78473,20 @@
       </c>
       <c r="I1085" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>440</v>
+        <v>270</v>
       </c>
       <c r="K1085" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="L1085" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="M1085" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="N1085" t="inlineStr">
         <is>
@@ -78495,11 +78495,11 @@
       </c>
       <c r="O1085" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1085" t="n">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="Q1085" t="n">
         <v>36</v>
@@ -78525,7 +78525,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E1086" t="n">
         <v>13</v>
@@ -78545,20 +78545,20 @@
       </c>
       <c r="I1086" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1086" t="n">
-        <v>840</v>
+        <v>310</v>
       </c>
       <c r="K1086" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="L1086" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="M1086" t="n">
-        <v>2444</v>
+        <v>2200</v>
       </c>
       <c r="N1086" t="inlineStr">
         <is>
@@ -78571,7 +78571,7 @@
         </is>
       </c>
       <c r="P1086" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="Q1086" t="n">
         <v>36</v>
@@ -78597,7 +78597,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1087" t="n">
         <v>13</v>
@@ -78617,20 +78617,20 @@
       </c>
       <c r="I1087" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1087" t="n">
-        <v>560</v>
+        <v>830</v>
       </c>
       <c r="K1087" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="L1087" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M1087" t="n">
-        <v>2089</v>
+        <v>2812</v>
       </c>
       <c r="N1087" t="inlineStr">
         <is>
@@ -78639,11 +78639,11 @@
       </c>
       <c r="O1087" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1087" t="n">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="Q1087" t="n">
         <v>36</v>
@@ -78669,7 +78669,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1088" t="n">
         <v>13</v>
@@ -78689,20 +78689,20 @@
       </c>
       <c r="I1088" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1088" t="n">
-        <v>780</v>
+        <v>1020</v>
       </c>
       <c r="K1088" t="n">
         <v>2500</v>
       </c>
       <c r="L1088" t="n">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="M1088" t="n">
-        <v>2613</v>
+        <v>2662</v>
       </c>
       <c r="N1088" t="inlineStr">
         <is>
@@ -78711,11 +78711,11 @@
       </c>
       <c r="O1088" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1088" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q1088" t="n">
         <v>36</v>
@@ -78741,7 +78741,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1089" t="n">
         <v>13</v>
@@ -78761,20 +78761,20 @@
       </c>
       <c r="I1089" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1089" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="K1089" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L1089" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M1089" t="n">
-        <v>2664</v>
+        <v>2000</v>
       </c>
       <c r="N1089" t="inlineStr">
         <is>
@@ -78783,11 +78783,11 @@
       </c>
       <c r="O1089" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="Q1089" t="n">
         <v>36</v>
@@ -78813,7 +78813,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1090" t="n">
         <v>13</v>
@@ -78833,20 +78833,20 @@
       </c>
       <c r="I1090" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1090" t="n">
-        <v>730</v>
+        <v>330</v>
       </c>
       <c r="K1090" t="n">
         <v>2000</v>
       </c>
       <c r="L1090" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="M1090" t="n">
-        <v>2156</v>
+        <v>2000</v>
       </c>
       <c r="N1090" t="inlineStr">
         <is>
@@ -78855,11 +78855,11 @@
       </c>
       <c r="O1090" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1090" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q1090" t="n">
         <v>36</v>
@@ -78885,7 +78885,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1091" t="n">
         <v>13</v>
@@ -78905,20 +78905,20 @@
       </c>
       <c r="I1091" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1091" t="n">
-        <v>810</v>
+        <v>440</v>
       </c>
       <c r="K1091" t="n">
-        <v>2100</v>
+        <v>2700</v>
       </c>
       <c r="L1091" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M1091" t="n">
-        <v>2267</v>
+        <v>2700</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
@@ -78931,7 +78931,7 @@
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="Q1091" t="n">
         <v>36</v>
@@ -78957,7 +78957,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1092" t="n">
         <v>13</v>
@@ -78977,20 +78977,20 @@
       </c>
       <c r="I1092" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>250</v>
+        <v>840</v>
       </c>
       <c r="K1092" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="L1092" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="M1092" t="n">
-        <v>1800</v>
+        <v>2444</v>
       </c>
       <c r="N1092" t="inlineStr">
         <is>
@@ -78999,11 +78999,11 @@
       </c>
       <c r="O1092" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="Q1092" t="n">
         <v>36</v>
@@ -79029,58 +79029,490 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1093" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1093" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1093" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1093" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1093" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1093" t="n">
+        <v>560</v>
+      </c>
+      <c r="K1093" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L1093" t="n">
+        <v>2200</v>
+      </c>
+      <c r="M1093" t="n">
+        <v>2089</v>
+      </c>
+      <c r="N1093" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1093" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1093" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q1093" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1093" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1094" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1094" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1094" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E1093" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1093" t="n">
-        <v>100112037</v>
-      </c>
-      <c r="G1093" t="inlineStr">
-        <is>
-          <t>Cebollín</t>
-        </is>
-      </c>
-      <c r="H1093" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I1093" t="inlineStr">
+      <c r="E1094" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1094" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1094" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1094" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1094" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1094" t="n">
+        <v>780</v>
+      </c>
+      <c r="K1094" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L1094" t="n">
+        <v>2700</v>
+      </c>
+      <c r="M1094" t="n">
+        <v>2613</v>
+      </c>
+      <c r="N1094" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1094" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P1094" t="n">
+        <v>73</v>
+      </c>
+      <c r="Q1094" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1094" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1095" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1095" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1095" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1095" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1095" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1095" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1095" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1095" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1095" t="n">
+        <v>750</v>
+      </c>
+      <c r="K1095" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L1095" t="n">
+        <v>2800</v>
+      </c>
+      <c r="M1095" t="n">
+        <v>2664</v>
+      </c>
+      <c r="N1095" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1095" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1095" t="n">
+        <v>74</v>
+      </c>
+      <c r="Q1095" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1095" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1096" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1096" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1096" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1096" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1096" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1096" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1096" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1096" t="n">
+        <v>730</v>
+      </c>
+      <c r="K1096" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L1096" t="n">
+        <v>2300</v>
+      </c>
+      <c r="M1096" t="n">
+        <v>2156</v>
+      </c>
+      <c r="N1096" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1096" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P1096" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q1096" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1096" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1097" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1097" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1097" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1097" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1097" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1097" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1097" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1097" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1097" t="n">
+        <v>810</v>
+      </c>
+      <c r="K1097" t="n">
+        <v>2100</v>
+      </c>
+      <c r="L1097" t="n">
+        <v>2400</v>
+      </c>
+      <c r="M1097" t="n">
+        <v>2267</v>
+      </c>
+      <c r="N1097" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1097" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1097" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q1097" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1097" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1098" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1098" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1098" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1098" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1098" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1098" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1098" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1098" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1093" t="n">
+      <c r="J1098" t="n">
+        <v>250</v>
+      </c>
+      <c r="K1098" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L1098" t="n">
+        <v>1800</v>
+      </c>
+      <c r="M1098" t="n">
+        <v>1800</v>
+      </c>
+      <c r="N1098" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1098" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P1098" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q1098" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1098" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1099" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1099" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1099" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1099" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1099" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1099" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1099" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1099" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1099" t="n">
         <v>330</v>
       </c>
-      <c r="K1093" t="n">
+      <c r="K1099" t="n">
         <v>1800</v>
       </c>
-      <c r="L1093" t="n">
+      <c r="L1099" t="n">
         <v>1800</v>
       </c>
-      <c r="M1093" t="n">
+      <c r="M1099" t="n">
         <v>1800</v>
       </c>
-      <c r="N1093" t="inlineStr">
-        <is>
-          <t>$/paquete 36 unidades</t>
-        </is>
-      </c>
-      <c r="O1093" t="inlineStr">
+      <c r="N1099" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1099" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P1093" t="n">
+      <c r="P1099" t="n">
         <v>50</v>
       </c>
-      <c r="Q1093" t="n">
-        <v>36</v>
-      </c>
-      <c r="R1093" t="inlineStr">
+      <c r="Q1099" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1099" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cebollín.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cebollín.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1099"/>
+  <dimension ref="A1:R1105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76437,7 +76437,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1057" t="n">
         <v>13</v>
@@ -76461,16 +76461,16 @@
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>790</v>
+        <v>910</v>
       </c>
       <c r="K1057" t="n">
-        <v>3700</v>
+        <v>2200</v>
       </c>
       <c r="L1057" t="n">
-        <v>4000</v>
+        <v>2300</v>
       </c>
       <c r="M1057" t="n">
-        <v>3867</v>
+        <v>2248</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
@@ -76483,7 +76483,7 @@
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="Q1057" t="n">
         <v>36</v>
@@ -76509,7 +76509,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1058" t="n">
         <v>13</v>
@@ -76533,16 +76533,16 @@
         </is>
       </c>
       <c r="J1058" t="n">
-        <v>640</v>
+        <v>790</v>
       </c>
       <c r="K1058" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="L1058" t="n">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="M1058" t="n">
-        <v>3859</v>
+        <v>2104</v>
       </c>
       <c r="N1058" t="inlineStr">
         <is>
@@ -76555,7 +76555,7 @@
         </is>
       </c>
       <c r="P1058" t="n">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="Q1058" t="n">
         <v>36</v>
@@ -76581,7 +76581,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1059" t="n">
         <v>13</v>
@@ -76605,16 +76605,16 @@
         </is>
       </c>
       <c r="J1059" t="n">
-        <v>750</v>
+        <v>1020</v>
       </c>
       <c r="K1059" t="n">
-        <v>2800</v>
+        <v>1900</v>
       </c>
       <c r="L1059" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M1059" t="n">
-        <v>2925</v>
+        <v>1952</v>
       </c>
       <c r="N1059" t="inlineStr">
         <is>
@@ -76627,7 +76627,7 @@
         </is>
       </c>
       <c r="P1059" t="n">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="Q1059" t="n">
         <v>36</v>
@@ -76653,7 +76653,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1060" t="n">
         <v>13</v>
@@ -76677,16 +76677,16 @@
         </is>
       </c>
       <c r="J1060" t="n">
-        <v>740</v>
+        <v>990</v>
       </c>
       <c r="K1060" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="L1060" t="n">
-        <v>3000</v>
+        <v>1900</v>
       </c>
       <c r="M1060" t="n">
-        <v>2858</v>
+        <v>1856</v>
       </c>
       <c r="N1060" t="inlineStr">
         <is>
@@ -76699,7 +76699,7 @@
         </is>
       </c>
       <c r="P1060" t="n">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="Q1060" t="n">
         <v>36</v>
@@ -76725,7 +76725,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1061" t="n">
         <v>13</v>
@@ -76749,16 +76749,16 @@
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K1061" t="n">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="L1061" t="n">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="M1061" t="n">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="N1061" t="inlineStr">
         <is>
@@ -76771,7 +76771,7 @@
         </is>
       </c>
       <c r="P1061" t="n">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="Q1061" t="n">
         <v>36</v>
@@ -76797,7 +76797,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1062" t="n">
         <v>13</v>
@@ -76821,16 +76821,16 @@
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="K1062" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="L1062" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="M1062" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="N1062" t="inlineStr">
         <is>
@@ -76843,7 +76843,7 @@
         </is>
       </c>
       <c r="P1062" t="n">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="Q1062" t="n">
         <v>36</v>
@@ -76869,7 +76869,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1063" t="n">
         <v>13</v>
@@ -76893,16 +76893,16 @@
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>280</v>
+        <v>790</v>
       </c>
       <c r="K1063" t="n">
-        <v>3000</v>
+        <v>3700</v>
       </c>
       <c r="L1063" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M1063" t="n">
-        <v>3000</v>
+        <v>3867</v>
       </c>
       <c r="N1063" t="inlineStr">
         <is>
@@ -76915,7 +76915,7 @@
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="Q1063" t="n">
         <v>36</v>
@@ -76941,7 +76941,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1064" t="n">
         <v>13</v>
@@ -76965,16 +76965,16 @@
         </is>
       </c>
       <c r="J1064" t="n">
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="K1064" t="n">
-        <v>2900</v>
+        <v>3700</v>
       </c>
       <c r="L1064" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M1064" t="n">
-        <v>2956</v>
+        <v>3859</v>
       </c>
       <c r="N1064" t="inlineStr">
         <is>
@@ -76987,7 +76987,7 @@
         </is>
       </c>
       <c r="P1064" t="n">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="Q1064" t="n">
         <v>36</v>
@@ -77013,7 +77013,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1065" t="n">
         <v>13</v>
@@ -77037,16 +77037,16 @@
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>660</v>
+        <v>750</v>
       </c>
       <c r="K1065" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L1065" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="M1065" t="n">
-        <v>2548</v>
+        <v>2925</v>
       </c>
       <c r="N1065" t="inlineStr">
         <is>
@@ -77059,7 +77059,7 @@
         </is>
       </c>
       <c r="P1065" t="n">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="Q1065" t="n">
         <v>36</v>
@@ -77085,7 +77085,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1066" t="n">
         <v>13</v>
@@ -77109,16 +77109,16 @@
         </is>
       </c>
       <c r="J1066" t="n">
-        <v>690</v>
+        <v>740</v>
       </c>
       <c r="K1066" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="L1066" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M1066" t="n">
-        <v>2613</v>
+        <v>2858</v>
       </c>
       <c r="N1066" t="inlineStr">
         <is>
@@ -77131,7 +77131,7 @@
         </is>
       </c>
       <c r="P1066" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="Q1066" t="n">
         <v>36</v>
@@ -77157,7 +77157,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1067" t="n">
         <v>13</v>
@@ -77181,7 +77181,7 @@
         </is>
       </c>
       <c r="J1067" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K1067" t="n">
         <v>2200</v>
@@ -77229,7 +77229,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1068" t="n">
         <v>13</v>
@@ -77253,16 +77253,16 @@
         </is>
       </c>
       <c r="J1068" t="n">
-        <v>180</v>
+        <v>290</v>
       </c>
       <c r="K1068" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L1068" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="M1068" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="N1068" t="inlineStr">
         <is>
@@ -77275,7 +77275,7 @@
         </is>
       </c>
       <c r="P1068" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q1068" t="n">
         <v>36</v>
@@ -77301,7 +77301,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1069" t="n">
         <v>13</v>
@@ -77321,20 +77321,20 @@
       </c>
       <c r="I1069" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1069" t="n">
-        <v>680</v>
+        <v>280</v>
       </c>
       <c r="K1069" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L1069" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M1069" t="n">
-        <v>2603</v>
+        <v>3000</v>
       </c>
       <c r="N1069" t="inlineStr">
         <is>
@@ -77347,7 +77347,7 @@
         </is>
       </c>
       <c r="P1069" t="n">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="Q1069" t="n">
         <v>36</v>
@@ -77373,7 +77373,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1070" t="n">
         <v>13</v>
@@ -77393,20 +77393,20 @@
       </c>
       <c r="I1070" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>720</v>
+        <v>620</v>
       </c>
       <c r="K1070" t="n">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="L1070" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="M1070" t="n">
-        <v>2557</v>
+        <v>2956</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
@@ -77419,7 +77419,7 @@
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="Q1070" t="n">
         <v>36</v>
@@ -77445,7 +77445,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1071" t="n">
         <v>13</v>
@@ -77465,20 +77465,20 @@
       </c>
       <c r="I1071" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1071" t="n">
-        <v>460</v>
+        <v>660</v>
       </c>
       <c r="K1071" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L1071" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="M1071" t="n">
-        <v>2109</v>
+        <v>2548</v>
       </c>
       <c r="N1071" t="inlineStr">
         <is>
@@ -77491,7 +77491,7 @@
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="Q1071" t="n">
         <v>36</v>
@@ -77517,7 +77517,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1072" t="n">
         <v>13</v>
@@ -77537,20 +77537,20 @@
       </c>
       <c r="I1072" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1072" t="n">
-        <v>520</v>
+        <v>690</v>
       </c>
       <c r="K1072" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L1072" t="n">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="M1072" t="n">
-        <v>2108</v>
+        <v>2613</v>
       </c>
       <c r="N1072" t="inlineStr">
         <is>
@@ -77563,7 +77563,7 @@
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="Q1072" t="n">
         <v>36</v>
@@ -77589,7 +77589,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1073" t="n">
         <v>13</v>
@@ -77609,20 +77609,20 @@
       </c>
       <c r="I1073" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1073" t="n">
-        <v>830</v>
+        <v>150</v>
       </c>
       <c r="K1073" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="L1073" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="M1073" t="n">
-        <v>2606</v>
+        <v>2200</v>
       </c>
       <c r="N1073" t="inlineStr">
         <is>
@@ -77635,7 +77635,7 @@
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="Q1073" t="n">
         <v>36</v>
@@ -77661,7 +77661,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1074" t="n">
         <v>13</v>
@@ -77681,20 +77681,20 @@
       </c>
       <c r="I1074" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1074" t="n">
-        <v>1020</v>
+        <v>180</v>
       </c>
       <c r="K1074" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="L1074" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="M1074" t="n">
-        <v>2506</v>
+        <v>2200</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
@@ -77707,7 +77707,7 @@
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="Q1074" t="n">
         <v>36</v>
@@ -77733,7 +77733,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1075" t="n">
         <v>13</v>
@@ -77753,20 +77753,20 @@
       </c>
       <c r="I1075" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1075" t="n">
-        <v>250</v>
+        <v>680</v>
       </c>
       <c r="K1075" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L1075" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="M1075" t="n">
-        <v>2000</v>
+        <v>2603</v>
       </c>
       <c r="N1075" t="inlineStr">
         <is>
@@ -77779,7 +77779,7 @@
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="Q1075" t="n">
         <v>36</v>
@@ -77805,7 +77805,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1076" t="n">
         <v>13</v>
@@ -77825,20 +77825,20 @@
       </c>
       <c r="I1076" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1076" t="n">
-        <v>280</v>
+        <v>720</v>
       </c>
       <c r="K1076" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L1076" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="M1076" t="n">
-        <v>2000</v>
+        <v>2557</v>
       </c>
       <c r="N1076" t="inlineStr">
         <is>
@@ -77851,7 +77851,7 @@
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="Q1076" t="n">
         <v>36</v>
@@ -77877,7 +77877,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1077" t="n">
         <v>13</v>
@@ -77897,20 +77897,20 @@
       </c>
       <c r="I1077" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1077" t="n">
-        <v>820</v>
+        <v>460</v>
       </c>
       <c r="K1077" t="n">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="L1077" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="M1077" t="n">
-        <v>3407</v>
+        <v>2109</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
@@ -77923,7 +77923,7 @@
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="Q1077" t="n">
         <v>36</v>
@@ -77949,7 +77949,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1078" t="n">
         <v>13</v>
@@ -77969,20 +77969,20 @@
       </c>
       <c r="I1078" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1078" t="n">
-        <v>900</v>
+        <v>520</v>
       </c>
       <c r="K1078" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="L1078" t="n">
-        <v>3600</v>
+        <v>2200</v>
       </c>
       <c r="M1078" t="n">
-        <v>3507</v>
+        <v>2108</v>
       </c>
       <c r="N1078" t="inlineStr">
         <is>
@@ -77995,7 +77995,7 @@
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="Q1078" t="n">
         <v>36</v>
@@ -78021,7 +78021,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1079" t="n">
         <v>13</v>
@@ -78041,20 +78041,20 @@
       </c>
       <c r="I1079" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1079" t="n">
-        <v>540</v>
+        <v>830</v>
       </c>
       <c r="K1079" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L1079" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="M1079" t="n">
-        <v>2907</v>
+        <v>2606</v>
       </c>
       <c r="N1079" t="inlineStr">
         <is>
@@ -78067,7 +78067,7 @@
         </is>
       </c>
       <c r="P1079" t="n">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="Q1079" t="n">
         <v>36</v>
@@ -78093,7 +78093,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1080" t="n">
         <v>13</v>
@@ -78113,20 +78113,20 @@
       </c>
       <c r="I1080" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1080" t="n">
-        <v>690</v>
+        <v>1020</v>
       </c>
       <c r="K1080" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="L1080" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="M1080" t="n">
-        <v>2904</v>
+        <v>2506</v>
       </c>
       <c r="N1080" t="inlineStr">
         <is>
@@ -78139,7 +78139,7 @@
         </is>
       </c>
       <c r="P1080" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="Q1080" t="n">
         <v>36</v>
@@ -78165,7 +78165,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E1081" t="n">
         <v>13</v>
@@ -78185,20 +78185,20 @@
       </c>
       <c r="I1081" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1081" t="n">
-        <v>710</v>
+        <v>250</v>
       </c>
       <c r="K1081" t="n">
-        <v>3800</v>
+        <v>2000</v>
       </c>
       <c r="L1081" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M1081" t="n">
-        <v>3907</v>
+        <v>2000</v>
       </c>
       <c r="N1081" t="inlineStr">
         <is>
@@ -78211,7 +78211,7 @@
         </is>
       </c>
       <c r="P1081" t="n">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="Q1081" t="n">
         <v>36</v>
@@ -78237,7 +78237,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E1082" t="n">
         <v>13</v>
@@ -78257,20 +78257,20 @@
       </c>
       <c r="I1082" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1082" t="n">
-        <v>700</v>
+        <v>280</v>
       </c>
       <c r="K1082" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="L1082" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M1082" t="n">
-        <v>3854</v>
+        <v>2000</v>
       </c>
       <c r="N1082" t="inlineStr">
         <is>
@@ -78283,7 +78283,7 @@
         </is>
       </c>
       <c r="P1082" t="n">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="Q1082" t="n">
         <v>36</v>
@@ -78309,7 +78309,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1083" t="n">
         <v>13</v>
@@ -78333,16 +78333,16 @@
         </is>
       </c>
       <c r="J1083" t="n">
-        <v>840</v>
+        <v>820</v>
       </c>
       <c r="K1083" t="n">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="L1083" t="n">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="M1083" t="n">
-        <v>3107</v>
+        <v>3407</v>
       </c>
       <c r="N1083" t="inlineStr">
         <is>
@@ -78355,7 +78355,7 @@
         </is>
       </c>
       <c r="P1083" t="n">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="Q1083" t="n">
         <v>36</v>
@@ -78381,7 +78381,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1084" t="n">
         <v>13</v>
@@ -78405,16 +78405,16 @@
         </is>
       </c>
       <c r="J1084" t="n">
-        <v>810</v>
+        <v>900</v>
       </c>
       <c r="K1084" t="n">
-        <v>2900</v>
+        <v>3400</v>
       </c>
       <c r="L1084" t="n">
-        <v>3300</v>
+        <v>3600</v>
       </c>
       <c r="M1084" t="n">
-        <v>3107</v>
+        <v>3507</v>
       </c>
       <c r="N1084" t="inlineStr">
         <is>
@@ -78427,7 +78427,7 @@
         </is>
       </c>
       <c r="P1084" t="n">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="Q1084" t="n">
         <v>36</v>
@@ -78453,7 +78453,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1085" t="n">
         <v>13</v>
@@ -78477,16 +78477,16 @@
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>270</v>
+        <v>540</v>
       </c>
       <c r="K1085" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="L1085" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M1085" t="n">
-        <v>2200</v>
+        <v>2907</v>
       </c>
       <c r="N1085" t="inlineStr">
         <is>
@@ -78499,7 +78499,7 @@
         </is>
       </c>
       <c r="P1085" t="n">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="Q1085" t="n">
         <v>36</v>
@@ -78525,7 +78525,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1086" t="n">
         <v>13</v>
@@ -78549,16 +78549,16 @@
         </is>
       </c>
       <c r="J1086" t="n">
-        <v>310</v>
+        <v>690</v>
       </c>
       <c r="K1086" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="L1086" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M1086" t="n">
-        <v>2200</v>
+        <v>2904</v>
       </c>
       <c r="N1086" t="inlineStr">
         <is>
@@ -78571,7 +78571,7 @@
         </is>
       </c>
       <c r="P1086" t="n">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="Q1086" t="n">
         <v>36</v>
@@ -78597,7 +78597,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1087" t="n">
         <v>13</v>
@@ -78617,20 +78617,20 @@
       </c>
       <c r="I1087" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1087" t="n">
-        <v>830</v>
+        <v>710</v>
       </c>
       <c r="K1087" t="n">
-        <v>2600</v>
+        <v>3800</v>
       </c>
       <c r="L1087" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M1087" t="n">
-        <v>2812</v>
+        <v>3907</v>
       </c>
       <c r="N1087" t="inlineStr">
         <is>
@@ -78643,7 +78643,7 @@
         </is>
       </c>
       <c r="P1087" t="n">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="Q1087" t="n">
         <v>36</v>
@@ -78669,7 +78669,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1088" t="n">
         <v>13</v>
@@ -78689,20 +78689,20 @@
       </c>
       <c r="I1088" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1088" t="n">
-        <v>1020</v>
+        <v>700</v>
       </c>
       <c r="K1088" t="n">
-        <v>2500</v>
+        <v>3700</v>
       </c>
       <c r="L1088" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="M1088" t="n">
-        <v>2662</v>
+        <v>3854</v>
       </c>
       <c r="N1088" t="inlineStr">
         <is>
@@ -78715,7 +78715,7 @@
         </is>
       </c>
       <c r="P1088" t="n">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="Q1088" t="n">
         <v>36</v>
@@ -78741,7 +78741,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1089" t="n">
         <v>13</v>
@@ -78761,20 +78761,20 @@
       </c>
       <c r="I1089" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1089" t="n">
-        <v>300</v>
+        <v>840</v>
       </c>
       <c r="K1089" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L1089" t="n">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="M1089" t="n">
-        <v>2000</v>
+        <v>3107</v>
       </c>
       <c r="N1089" t="inlineStr">
         <is>
@@ -78787,7 +78787,7 @@
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="Q1089" t="n">
         <v>36</v>
@@ -78813,7 +78813,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1090" t="n">
         <v>13</v>
@@ -78833,20 +78833,20 @@
       </c>
       <c r="I1090" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1090" t="n">
-        <v>330</v>
+        <v>810</v>
       </c>
       <c r="K1090" t="n">
-        <v>2000</v>
+        <v>2900</v>
       </c>
       <c r="L1090" t="n">
-        <v>2000</v>
+        <v>3300</v>
       </c>
       <c r="M1090" t="n">
-        <v>2000</v>
+        <v>3107</v>
       </c>
       <c r="N1090" t="inlineStr">
         <is>
@@ -78859,7 +78859,7 @@
         </is>
       </c>
       <c r="P1090" t="n">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="Q1090" t="n">
         <v>36</v>
@@ -78885,7 +78885,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E1091" t="n">
         <v>13</v>
@@ -78905,20 +78905,20 @@
       </c>
       <c r="I1091" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1091" t="n">
-        <v>440</v>
+        <v>270</v>
       </c>
       <c r="K1091" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="L1091" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="M1091" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
@@ -78927,11 +78927,11 @@
       </c>
       <c r="O1091" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="Q1091" t="n">
         <v>36</v>
@@ -78957,7 +78957,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E1092" t="n">
         <v>13</v>
@@ -78977,20 +78977,20 @@
       </c>
       <c r="I1092" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>840</v>
+        <v>310</v>
       </c>
       <c r="K1092" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="L1092" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="M1092" t="n">
-        <v>2444</v>
+        <v>2200</v>
       </c>
       <c r="N1092" t="inlineStr">
         <is>
@@ -79003,7 +79003,7 @@
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="Q1092" t="n">
         <v>36</v>
@@ -79029,7 +79029,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1093" t="n">
         <v>13</v>
@@ -79049,20 +79049,20 @@
       </c>
       <c r="I1093" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1093" t="n">
-        <v>560</v>
+        <v>830</v>
       </c>
       <c r="K1093" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="L1093" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M1093" t="n">
-        <v>2089</v>
+        <v>2812</v>
       </c>
       <c r="N1093" t="inlineStr">
         <is>
@@ -79071,11 +79071,11 @@
       </c>
       <c r="O1093" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="Q1093" t="n">
         <v>36</v>
@@ -79101,7 +79101,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1094" t="n">
         <v>13</v>
@@ -79121,20 +79121,20 @@
       </c>
       <c r="I1094" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1094" t="n">
-        <v>780</v>
+        <v>1020</v>
       </c>
       <c r="K1094" t="n">
         <v>2500</v>
       </c>
       <c r="L1094" t="n">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="M1094" t="n">
-        <v>2613</v>
+        <v>2662</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
@@ -79143,11 +79143,11 @@
       </c>
       <c r="O1094" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q1094" t="n">
         <v>36</v>
@@ -79173,7 +79173,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1095" t="n">
         <v>13</v>
@@ -79193,20 +79193,20 @@
       </c>
       <c r="I1095" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1095" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="K1095" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L1095" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M1095" t="n">
-        <v>2664</v>
+        <v>2000</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
@@ -79215,11 +79215,11 @@
       </c>
       <c r="O1095" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="Q1095" t="n">
         <v>36</v>
@@ -79245,7 +79245,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1096" t="n">
         <v>13</v>
@@ -79265,20 +79265,20 @@
       </c>
       <c r="I1096" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1096" t="n">
-        <v>730</v>
+        <v>330</v>
       </c>
       <c r="K1096" t="n">
         <v>2000</v>
       </c>
       <c r="L1096" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="M1096" t="n">
-        <v>2156</v>
+        <v>2000</v>
       </c>
       <c r="N1096" t="inlineStr">
         <is>
@@ -79287,11 +79287,11 @@
       </c>
       <c r="O1096" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1096" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q1096" t="n">
         <v>36</v>
@@ -79317,7 +79317,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1097" t="n">
         <v>13</v>
@@ -79337,20 +79337,20 @@
       </c>
       <c r="I1097" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1097" t="n">
-        <v>810</v>
+        <v>440</v>
       </c>
       <c r="K1097" t="n">
-        <v>2100</v>
+        <v>2700</v>
       </c>
       <c r="L1097" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M1097" t="n">
-        <v>2267</v>
+        <v>2700</v>
       </c>
       <c r="N1097" t="inlineStr">
         <is>
@@ -79363,7 +79363,7 @@
         </is>
       </c>
       <c r="P1097" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="Q1097" t="n">
         <v>36</v>
@@ -79389,7 +79389,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1098" t="n">
         <v>13</v>
@@ -79409,20 +79409,20 @@
       </c>
       <c r="I1098" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1098" t="n">
-        <v>250</v>
+        <v>840</v>
       </c>
       <c r="K1098" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="L1098" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="M1098" t="n">
-        <v>1800</v>
+        <v>2444</v>
       </c>
       <c r="N1098" t="inlineStr">
         <is>
@@ -79431,11 +79431,11 @@
       </c>
       <c r="O1098" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="Q1098" t="n">
         <v>36</v>
@@ -79461,58 +79461,490 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1099" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1099" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1099" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1099" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1099" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1099" t="n">
+        <v>560</v>
+      </c>
+      <c r="K1099" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L1099" t="n">
+        <v>2200</v>
+      </c>
+      <c r="M1099" t="n">
+        <v>2089</v>
+      </c>
+      <c r="N1099" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1099" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1099" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q1099" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1099" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1100" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1100" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1100" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E1099" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1099" t="n">
-        <v>100112037</v>
-      </c>
-      <c r="G1099" t="inlineStr">
-        <is>
-          <t>Cebollín</t>
-        </is>
-      </c>
-      <c r="H1099" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I1099" t="inlineStr">
+      <c r="E1100" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1100" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1100" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1100" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1100" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1100" t="n">
+        <v>780</v>
+      </c>
+      <c r="K1100" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L1100" t="n">
+        <v>2700</v>
+      </c>
+      <c r="M1100" t="n">
+        <v>2613</v>
+      </c>
+      <c r="N1100" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1100" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P1100" t="n">
+        <v>73</v>
+      </c>
+      <c r="Q1100" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1100" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1101" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1101" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1101" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1101" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1101" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1101" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1101" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1101" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1101" t="n">
+        <v>750</v>
+      </c>
+      <c r="K1101" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L1101" t="n">
+        <v>2800</v>
+      </c>
+      <c r="M1101" t="n">
+        <v>2664</v>
+      </c>
+      <c r="N1101" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1101" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1101" t="n">
+        <v>74</v>
+      </c>
+      <c r="Q1101" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1101" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1102" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1102" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1102" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1102" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1102" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1102" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1102" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1102" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1102" t="n">
+        <v>730</v>
+      </c>
+      <c r="K1102" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L1102" t="n">
+        <v>2300</v>
+      </c>
+      <c r="M1102" t="n">
+        <v>2156</v>
+      </c>
+      <c r="N1102" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1102" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P1102" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q1102" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1102" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1103" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1103" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1103" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1103" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1103" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1103" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1103" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1103" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1103" t="n">
+        <v>810</v>
+      </c>
+      <c r="K1103" t="n">
+        <v>2100</v>
+      </c>
+      <c r="L1103" t="n">
+        <v>2400</v>
+      </c>
+      <c r="M1103" t="n">
+        <v>2267</v>
+      </c>
+      <c r="N1103" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1103" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1103" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q1103" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1103" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1104" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1104" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1104" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1104" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1104" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1104" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1104" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1104" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1099" t="n">
+      <c r="J1104" t="n">
+        <v>250</v>
+      </c>
+      <c r="K1104" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L1104" t="n">
+        <v>1800</v>
+      </c>
+      <c r="M1104" t="n">
+        <v>1800</v>
+      </c>
+      <c r="N1104" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1104" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P1104" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q1104" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1104" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1105" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1105" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1105" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1105" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1105" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1105" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1105" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1105" t="n">
         <v>330</v>
       </c>
-      <c r="K1099" t="n">
+      <c r="K1105" t="n">
         <v>1800</v>
       </c>
-      <c r="L1099" t="n">
+      <c r="L1105" t="n">
         <v>1800</v>
       </c>
-      <c r="M1099" t="n">
+      <c r="M1105" t="n">
         <v>1800</v>
       </c>
-      <c r="N1099" t="inlineStr">
-        <is>
-          <t>$/paquete 36 unidades</t>
-        </is>
-      </c>
-      <c r="O1099" t="inlineStr">
+      <c r="N1105" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1105" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P1099" t="n">
+      <c r="P1105" t="n">
         <v>50</v>
       </c>
-      <c r="Q1099" t="n">
-        <v>36</v>
-      </c>
-      <c r="R1099" t="inlineStr">
+      <c r="Q1105" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1105" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cebollín.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cebollín.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1111"/>
+  <dimension ref="A1:R1117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65349,7 +65349,7 @@
         </is>
       </c>
       <c r="D903" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E903" t="n">
         <v>13</v>
@@ -65369,20 +65369,20 @@
       </c>
       <c r="I903" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J903" t="n">
-        <v>830</v>
+        <v>860</v>
       </c>
       <c r="K903" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="L903" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="M903" t="n">
-        <v>2812</v>
+        <v>2252</v>
       </c>
       <c r="N903" t="inlineStr">
         <is>
@@ -65395,7 +65395,7 @@
         </is>
       </c>
       <c r="P903" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="Q903" t="n">
         <v>36</v>
@@ -65421,7 +65421,7 @@
         </is>
       </c>
       <c r="D904" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E904" t="n">
         <v>13</v>
@@ -65441,20 +65441,20 @@
       </c>
       <c r="I904" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J904" t="n">
-        <v>950</v>
+        <v>880</v>
       </c>
       <c r="K904" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="L904" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="M904" t="n">
-        <v>2667</v>
+        <v>2252</v>
       </c>
       <c r="N904" t="inlineStr">
         <is>
@@ -65467,7 +65467,7 @@
         </is>
       </c>
       <c r="P904" t="n">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="Q904" t="n">
         <v>36</v>
@@ -65493,7 +65493,7 @@
         </is>
       </c>
       <c r="D905" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E905" t="n">
         <v>13</v>
@@ -65513,20 +65513,20 @@
       </c>
       <c r="I905" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J905" t="n">
-        <v>270</v>
+        <v>950</v>
       </c>
       <c r="K905" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="L905" t="n">
         <v>2000</v>
       </c>
       <c r="M905" t="n">
-        <v>2000</v>
+        <v>1951</v>
       </c>
       <c r="N905" t="inlineStr">
         <is>
@@ -65539,7 +65539,7 @@
         </is>
       </c>
       <c r="P905" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q905" t="n">
         <v>36</v>
@@ -65565,7 +65565,7 @@
         </is>
       </c>
       <c r="D906" s="2" t="n">
-        <v>44306</v>
+        <v>44511</v>
       </c>
       <c r="E906" t="n">
         <v>13</v>
@@ -65585,20 +65585,20 @@
       </c>
       <c r="I906" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J906" t="n">
-        <v>280</v>
+        <v>930</v>
       </c>
       <c r="K906" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="L906" t="n">
         <v>2000</v>
       </c>
       <c r="M906" t="n">
-        <v>2000</v>
+        <v>1957</v>
       </c>
       <c r="N906" t="inlineStr">
         <is>
@@ -65611,7 +65611,7 @@
         </is>
       </c>
       <c r="P906" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q906" t="n">
         <v>36</v>
@@ -65637,7 +65637,7 @@
         </is>
       </c>
       <c r="D907" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E907" t="n">
         <v>13</v>
@@ -65657,20 +65657,20 @@
       </c>
       <c r="I907" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J907" t="n">
-        <v>600</v>
+        <v>330</v>
       </c>
       <c r="K907" t="n">
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="L907" t="n">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="M907" t="n">
-        <v>2880</v>
+        <v>1700</v>
       </c>
       <c r="N907" t="inlineStr">
         <is>
@@ -65683,7 +65683,7 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="Q907" t="n">
         <v>36</v>
@@ -65709,7 +65709,7 @@
         </is>
       </c>
       <c r="D908" s="2" t="n">
-        <v>44211</v>
+        <v>44511</v>
       </c>
       <c r="E908" t="n">
         <v>13</v>
@@ -65729,20 +65729,20 @@
       </c>
       <c r="I908" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J908" t="n">
-        <v>770</v>
+        <v>350</v>
       </c>
       <c r="K908" t="n">
-        <v>2300</v>
+        <v>1700</v>
       </c>
       <c r="L908" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="M908" t="n">
-        <v>2375</v>
+        <v>1700</v>
       </c>
       <c r="N908" t="inlineStr">
         <is>
@@ -65751,11 +65751,11 @@
       </c>
       <c r="O908" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P908" t="n">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="Q908" t="n">
         <v>36</v>
@@ -65781,7 +65781,7 @@
         </is>
       </c>
       <c r="D909" s="2" t="n">
-        <v>44211</v>
+        <v>44306</v>
       </c>
       <c r="E909" t="n">
         <v>13</v>
@@ -65801,20 +65801,20 @@
       </c>
       <c r="I909" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J909" t="n">
-        <v>410</v>
+        <v>830</v>
       </c>
       <c r="K909" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="L909" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M909" t="n">
-        <v>1863</v>
+        <v>2812</v>
       </c>
       <c r="N909" t="inlineStr">
         <is>
@@ -65827,7 +65827,7 @@
         </is>
       </c>
       <c r="P909" t="n">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="Q909" t="n">
         <v>36</v>
@@ -65853,7 +65853,7 @@
         </is>
       </c>
       <c r="D910" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E910" t="n">
         <v>13</v>
@@ -65873,20 +65873,20 @@
       </c>
       <c r="I910" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J910" t="n">
-        <v>700</v>
+        <v>950</v>
       </c>
       <c r="K910" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L910" t="n">
-        <v>3300</v>
+        <v>2800</v>
       </c>
       <c r="M910" t="n">
-        <v>3159</v>
+        <v>2667</v>
       </c>
       <c r="N910" t="inlineStr">
         <is>
@@ -65895,11 +65895,11 @@
       </c>
       <c r="O910" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P910" t="n">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="Q910" t="n">
         <v>36</v>
@@ -65925,7 +65925,7 @@
         </is>
       </c>
       <c r="D911" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E911" t="n">
         <v>13</v>
@@ -65945,20 +65945,20 @@
       </c>
       <c r="I911" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J911" t="n">
-        <v>620</v>
+        <v>270</v>
       </c>
       <c r="K911" t="n">
-        <v>3200</v>
+        <v>2000</v>
       </c>
       <c r="L911" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="M911" t="n">
-        <v>3365</v>
+        <v>2000</v>
       </c>
       <c r="N911" t="inlineStr">
         <is>
@@ -65967,11 +65967,11 @@
       </c>
       <c r="O911" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P911" t="n">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="Q911" t="n">
         <v>36</v>
@@ -65997,7 +65997,7 @@
         </is>
       </c>
       <c r="D912" s="2" t="n">
-        <v>44469</v>
+        <v>44306</v>
       </c>
       <c r="E912" t="n">
         <v>13</v>
@@ -66017,20 +66017,20 @@
       </c>
       <c r="I912" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J912" t="n">
-        <v>840</v>
+        <v>280</v>
       </c>
       <c r="K912" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="L912" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="M912" t="n">
-        <v>2443</v>
+        <v>2000</v>
       </c>
       <c r="N912" t="inlineStr">
         <is>
@@ -66039,11 +66039,11 @@
       </c>
       <c r="O912" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P912" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="Q912" t="n">
         <v>36</v>
@@ -66069,7 +66069,7 @@
         </is>
       </c>
       <c r="D913" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E913" t="n">
         <v>13</v>
@@ -66089,20 +66089,20 @@
       </c>
       <c r="I913" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J913" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K913" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="L913" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M913" t="n">
-        <v>2567</v>
+        <v>2880</v>
       </c>
       <c r="N913" t="inlineStr">
         <is>
@@ -66111,11 +66111,11 @@
       </c>
       <c r="O913" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P913" t="n">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="Q913" t="n">
         <v>36</v>
@@ -66141,7 +66141,7 @@
         </is>
       </c>
       <c r="D914" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E914" t="n">
         <v>13</v>
@@ -66161,20 +66161,20 @@
       </c>
       <c r="I914" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J914" t="n">
-        <v>250</v>
+        <v>770</v>
       </c>
       <c r="K914" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="L914" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M914" t="n">
-        <v>2000</v>
+        <v>2375</v>
       </c>
       <c r="N914" t="inlineStr">
         <is>
@@ -66187,7 +66187,7 @@
         </is>
       </c>
       <c r="P914" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="Q914" t="n">
         <v>36</v>
@@ -66213,7 +66213,7 @@
         </is>
       </c>
       <c r="D915" s="2" t="n">
-        <v>44469</v>
+        <v>44211</v>
       </c>
       <c r="E915" t="n">
         <v>13</v>
@@ -66237,16 +66237,16 @@
         </is>
       </c>
       <c r="J915" t="n">
-        <v>270</v>
+        <v>410</v>
       </c>
       <c r="K915" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L915" t="n">
         <v>2000</v>
       </c>
       <c r="M915" t="n">
-        <v>2000</v>
+        <v>1863</v>
       </c>
       <c r="N915" t="inlineStr">
         <is>
@@ -66255,11 +66255,11 @@
       </c>
       <c r="O915" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P915" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q915" t="n">
         <v>36</v>
@@ -66285,7 +66285,7 @@
         </is>
       </c>
       <c r="D916" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E916" t="n">
         <v>13</v>
@@ -66309,16 +66309,16 @@
         </is>
       </c>
       <c r="J916" t="n">
-        <v>580</v>
+        <v>700</v>
       </c>
       <c r="K916" t="n">
         <v>3000</v>
       </c>
       <c r="L916" t="n">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="M916" t="n">
-        <v>3043</v>
+        <v>3159</v>
       </c>
       <c r="N916" t="inlineStr">
         <is>
@@ -66327,11 +66327,11 @@
       </c>
       <c r="O916" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P916" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q916" t="n">
         <v>36</v>
@@ -66357,7 +66357,7 @@
         </is>
       </c>
       <c r="D917" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E917" t="n">
         <v>13</v>
@@ -66377,20 +66377,20 @@
       </c>
       <c r="I917" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J917" t="n">
-        <v>1020</v>
+        <v>620</v>
       </c>
       <c r="K917" t="n">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="L917" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M917" t="n">
-        <v>2630</v>
+        <v>3365</v>
       </c>
       <c r="N917" t="inlineStr">
         <is>
@@ -66403,7 +66403,7 @@
         </is>
       </c>
       <c r="P917" t="n">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="Q917" t="n">
         <v>36</v>
@@ -66429,7 +66429,7 @@
         </is>
       </c>
       <c r="D918" s="2" t="n">
-        <v>44215</v>
+        <v>44469</v>
       </c>
       <c r="E918" t="n">
         <v>13</v>
@@ -66449,20 +66449,20 @@
       </c>
       <c r="I918" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J918" t="n">
-        <v>800</v>
+        <v>840</v>
       </c>
       <c r="K918" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="L918" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="M918" t="n">
-        <v>2108</v>
+        <v>2443</v>
       </c>
       <c r="N918" t="inlineStr">
         <is>
@@ -66471,11 +66471,11 @@
       </c>
       <c r="O918" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P918" t="n">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="Q918" t="n">
         <v>36</v>
@@ -66501,7 +66501,7 @@
         </is>
       </c>
       <c r="D919" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E919" t="n">
         <v>13</v>
@@ -66521,20 +66521,20 @@
       </c>
       <c r="I919" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J919" t="n">
-        <v>470</v>
+        <v>700</v>
       </c>
       <c r="K919" t="n">
-        <v>4000</v>
+        <v>2400</v>
       </c>
       <c r="L919" t="n">
-        <v>4000</v>
+        <v>2700</v>
       </c>
       <c r="M919" t="n">
-        <v>4000</v>
+        <v>2567</v>
       </c>
       <c r="N919" t="inlineStr">
         <is>
@@ -66543,11 +66543,11 @@
       </c>
       <c r="O919" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P919" t="n">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="Q919" t="n">
         <v>36</v>
@@ -66573,7 +66573,7 @@
         </is>
       </c>
       <c r="D920" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E920" t="n">
         <v>13</v>
@@ -66593,20 +66593,20 @@
       </c>
       <c r="I920" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J920" t="n">
-        <v>440</v>
+        <v>250</v>
       </c>
       <c r="K920" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="L920" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M920" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="N920" t="inlineStr">
         <is>
@@ -66615,11 +66615,11 @@
       </c>
       <c r="O920" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P920" t="n">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="Q920" t="n">
         <v>36</v>
@@ -66645,7 +66645,7 @@
         </is>
       </c>
       <c r="D921" s="2" t="n">
-        <v>44407</v>
+        <v>44469</v>
       </c>
       <c r="E921" t="n">
         <v>13</v>
@@ -66665,20 +66665,20 @@
       </c>
       <c r="I921" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J921" t="n">
-        <v>870</v>
+        <v>270</v>
       </c>
       <c r="K921" t="n">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="L921" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="M921" t="n">
-        <v>3413</v>
+        <v>2000</v>
       </c>
       <c r="N921" t="inlineStr">
         <is>
@@ -66687,11 +66687,11 @@
       </c>
       <c r="O921" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P921" t="n">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="Q921" t="n">
         <v>36</v>
@@ -66717,7 +66717,7 @@
         </is>
       </c>
       <c r="D922" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E922" t="n">
         <v>13</v>
@@ -66737,20 +66737,20 @@
       </c>
       <c r="I922" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J922" t="n">
-        <v>830</v>
+        <v>580</v>
       </c>
       <c r="K922" t="n">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="L922" t="n">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="M922" t="n">
-        <v>3411</v>
+        <v>3043</v>
       </c>
       <c r="N922" t="inlineStr">
         <is>
@@ -66763,7 +66763,7 @@
         </is>
       </c>
       <c r="P922" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="Q922" t="n">
         <v>36</v>
@@ -66789,7 +66789,7 @@
         </is>
       </c>
       <c r="D923" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E923" t="n">
         <v>13</v>
@@ -66809,20 +66809,20 @@
       </c>
       <c r="I923" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J923" t="n">
-        <v>540</v>
+        <v>1020</v>
       </c>
       <c r="K923" t="n">
         <v>2500</v>
       </c>
       <c r="L923" t="n">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="M923" t="n">
-        <v>2607</v>
+        <v>2630</v>
       </c>
       <c r="N923" t="inlineStr">
         <is>
@@ -66831,11 +66831,11 @@
       </c>
       <c r="O923" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P923" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q923" t="n">
         <v>36</v>
@@ -66861,7 +66861,7 @@
         </is>
       </c>
       <c r="D924" s="2" t="n">
-        <v>44407</v>
+        <v>44215</v>
       </c>
       <c r="E924" t="n">
         <v>13</v>
@@ -66885,16 +66885,16 @@
         </is>
       </c>
       <c r="J924" t="n">
-        <v>560</v>
+        <v>800</v>
       </c>
       <c r="K924" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="L924" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="M924" t="n">
-        <v>2518</v>
+        <v>2108</v>
       </c>
       <c r="N924" t="inlineStr">
         <is>
@@ -66907,7 +66907,7 @@
         </is>
       </c>
       <c r="P924" t="n">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="Q924" t="n">
         <v>36</v>
@@ -66933,7 +66933,7 @@
         </is>
       </c>
       <c r="D925" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E925" t="n">
         <v>13</v>
@@ -66957,16 +66957,16 @@
         </is>
       </c>
       <c r="J925" t="n">
-        <v>400</v>
+        <v>470</v>
       </c>
       <c r="K925" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="L925" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="M925" t="n">
-        <v>2730</v>
+        <v>4000</v>
       </c>
       <c r="N925" t="inlineStr">
         <is>
@@ -66975,11 +66975,11 @@
       </c>
       <c r="O925" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P925" t="n">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="Q925" t="n">
         <v>36</v>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="D926" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E926" t="n">
         <v>13</v>
@@ -67025,20 +67025,20 @@
       </c>
       <c r="I926" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J926" t="n">
-        <v>930</v>
+        <v>440</v>
       </c>
       <c r="K926" t="n">
-        <v>2300</v>
+        <v>4000</v>
       </c>
       <c r="L926" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M926" t="n">
-        <v>2411</v>
+        <v>4000</v>
       </c>
       <c r="N926" t="inlineStr">
         <is>
@@ -67051,7 +67051,7 @@
         </is>
       </c>
       <c r="P926" t="n">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="Q926" t="n">
         <v>36</v>
@@ -67077,7 +67077,7 @@
         </is>
       </c>
       <c r="D927" s="2" t="n">
-        <v>44186</v>
+        <v>44407</v>
       </c>
       <c r="E927" t="n">
         <v>13</v>
@@ -67097,20 +67097,20 @@
       </c>
       <c r="I927" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J927" t="n">
-        <v>620</v>
+        <v>870</v>
       </c>
       <c r="K927" t="n">
-        <v>2000</v>
+        <v>3300</v>
       </c>
       <c r="L927" t="n">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="M927" t="n">
-        <v>2155</v>
+        <v>3413</v>
       </c>
       <c r="N927" t="inlineStr">
         <is>
@@ -67119,11 +67119,11 @@
       </c>
       <c r="O927" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P927" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="Q927" t="n">
         <v>36</v>
@@ -67149,7 +67149,7 @@
         </is>
       </c>
       <c r="D928" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E928" t="n">
         <v>13</v>
@@ -67169,20 +67169,20 @@
       </c>
       <c r="I928" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J928" t="n">
-        <v>770</v>
+        <v>830</v>
       </c>
       <c r="K928" t="n">
-        <v>2200</v>
+        <v>3300</v>
       </c>
       <c r="L928" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M928" t="n">
-        <v>2348</v>
+        <v>3411</v>
       </c>
       <c r="N928" t="inlineStr">
         <is>
@@ -67191,11 +67191,11 @@
       </c>
       <c r="O928" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P928" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="Q928" t="n">
         <v>36</v>
@@ -67221,7 +67221,7 @@
         </is>
       </c>
       <c r="D929" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E929" t="n">
         <v>13</v>
@@ -67241,20 +67241,20 @@
       </c>
       <c r="I929" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J929" t="n">
-        <v>810</v>
+        <v>540</v>
       </c>
       <c r="K929" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L929" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M929" t="n">
-        <v>2304</v>
+        <v>2607</v>
       </c>
       <c r="N929" t="inlineStr">
         <is>
@@ -67263,11 +67263,11 @@
       </c>
       <c r="O929" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P929" t="n">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="Q929" t="n">
         <v>36</v>
@@ -67293,7 +67293,7 @@
         </is>
       </c>
       <c r="D930" s="2" t="n">
-        <v>44504</v>
+        <v>44407</v>
       </c>
       <c r="E930" t="n">
         <v>13</v>
@@ -67313,20 +67313,20 @@
       </c>
       <c r="I930" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J930" t="n">
-        <v>920</v>
+        <v>560</v>
       </c>
       <c r="K930" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L930" t="n">
-        <v>2100</v>
+        <v>2600</v>
       </c>
       <c r="M930" t="n">
-        <v>2049</v>
+        <v>2518</v>
       </c>
       <c r="N930" t="inlineStr">
         <is>
@@ -67335,11 +67335,11 @@
       </c>
       <c r="O930" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P930" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="Q930" t="n">
         <v>36</v>
@@ -67365,7 +67365,7 @@
         </is>
       </c>
       <c r="D931" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E931" t="n">
         <v>13</v>
@@ -67385,20 +67385,20 @@
       </c>
       <c r="I931" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J931" t="n">
-        <v>890</v>
+        <v>400</v>
       </c>
       <c r="K931" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="L931" t="n">
-        <v>2100</v>
+        <v>2800</v>
       </c>
       <c r="M931" t="n">
-        <v>2052</v>
+        <v>2730</v>
       </c>
       <c r="N931" t="inlineStr">
         <is>
@@ -67411,7 +67411,7 @@
         </is>
       </c>
       <c r="P931" t="n">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="Q931" t="n">
         <v>36</v>
@@ -67437,7 +67437,7 @@
         </is>
       </c>
       <c r="D932" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E932" t="n">
         <v>13</v>
@@ -67457,20 +67457,20 @@
       </c>
       <c r="I932" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J932" t="n">
-        <v>300</v>
+        <v>930</v>
       </c>
       <c r="K932" t="n">
-        <v>1700</v>
+        <v>2300</v>
       </c>
       <c r="L932" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="M932" t="n">
-        <v>1700</v>
+        <v>2411</v>
       </c>
       <c r="N932" t="inlineStr">
         <is>
@@ -67479,11 +67479,11 @@
       </c>
       <c r="O932" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P932" t="n">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="Q932" t="n">
         <v>36</v>
@@ -67509,7 +67509,7 @@
         </is>
       </c>
       <c r="D933" s="2" t="n">
-        <v>44504</v>
+        <v>44186</v>
       </c>
       <c r="E933" t="n">
         <v>13</v>
@@ -67533,16 +67533,16 @@
         </is>
       </c>
       <c r="J933" t="n">
-        <v>250</v>
+        <v>620</v>
       </c>
       <c r="K933" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L933" t="n">
-        <v>1600</v>
+        <v>2300</v>
       </c>
       <c r="M933" t="n">
-        <v>1600</v>
+        <v>2155</v>
       </c>
       <c r="N933" t="inlineStr">
         <is>
@@ -67555,7 +67555,7 @@
         </is>
       </c>
       <c r="P933" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="Q933" t="n">
         <v>36</v>
@@ -67581,7 +67581,7 @@
         </is>
       </c>
       <c r="D934" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E934" t="n">
         <v>13</v>
@@ -67608,13 +67608,13 @@
         <v>770</v>
       </c>
       <c r="K934" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="L934" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M934" t="n">
-        <v>2914</v>
+        <v>2348</v>
       </c>
       <c r="N934" t="inlineStr">
         <is>
@@ -67627,7 +67627,7 @@
         </is>
       </c>
       <c r="P934" t="n">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="Q934" t="n">
         <v>36</v>
@@ -67653,7 +67653,7 @@
         </is>
       </c>
       <c r="D935" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E935" t="n">
         <v>13</v>
@@ -67677,16 +67677,16 @@
         </is>
       </c>
       <c r="J935" t="n">
-        <v>900</v>
+        <v>810</v>
       </c>
       <c r="K935" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="L935" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M935" t="n">
-        <v>2857</v>
+        <v>2304</v>
       </c>
       <c r="N935" t="inlineStr">
         <is>
@@ -67699,7 +67699,7 @@
         </is>
       </c>
       <c r="P935" t="n">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="Q935" t="n">
         <v>36</v>
@@ -67725,7 +67725,7 @@
         </is>
       </c>
       <c r="D936" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E936" t="n">
         <v>13</v>
@@ -67752,13 +67752,13 @@
         <v>920</v>
       </c>
       <c r="K936" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="L936" t="n">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="M936" t="n">
-        <v>2413</v>
+        <v>2049</v>
       </c>
       <c r="N936" t="inlineStr">
         <is>
@@ -67771,7 +67771,7 @@
         </is>
       </c>
       <c r="P936" t="n">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="Q936" t="n">
         <v>36</v>
@@ -67797,7 +67797,7 @@
         </is>
       </c>
       <c r="D937" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E937" t="n">
         <v>13</v>
@@ -67821,16 +67821,16 @@
         </is>
       </c>
       <c r="J937" t="n">
-        <v>1010</v>
+        <v>890</v>
       </c>
       <c r="K937" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="L937" t="n">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="M937" t="n">
-        <v>2389</v>
+        <v>2052</v>
       </c>
       <c r="N937" t="inlineStr">
         <is>
@@ -67843,7 +67843,7 @@
         </is>
       </c>
       <c r="P937" t="n">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="Q937" t="n">
         <v>36</v>
@@ -67869,7 +67869,7 @@
         </is>
       </c>
       <c r="D938" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E938" t="n">
         <v>13</v>
@@ -67896,13 +67896,13 @@
         <v>300</v>
       </c>
       <c r="K938" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="L938" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="M938" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="N938" t="inlineStr">
         <is>
@@ -67915,7 +67915,7 @@
         </is>
       </c>
       <c r="P938" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q938" t="n">
         <v>36</v>
@@ -67941,7 +67941,7 @@
         </is>
       </c>
       <c r="D939" s="2" t="n">
-        <v>44481</v>
+        <v>44504</v>
       </c>
       <c r="E939" t="n">
         <v>13</v>
@@ -67965,16 +67965,16 @@
         </is>
       </c>
       <c r="J939" t="n">
-        <v>310</v>
+        <v>250</v>
       </c>
       <c r="K939" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="L939" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="M939" t="n">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="N939" t="inlineStr">
         <is>
@@ -67987,7 +67987,7 @@
         </is>
       </c>
       <c r="P939" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="Q939" t="n">
         <v>36</v>
@@ -68033,20 +68033,20 @@
       </c>
       <c r="I940" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J940" t="n">
-        <v>310</v>
+        <v>770</v>
       </c>
       <c r="K940" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="L940" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="M940" t="n">
-        <v>1800</v>
+        <v>2914</v>
       </c>
       <c r="N940" t="inlineStr">
         <is>
@@ -68055,11 +68055,11 @@
       </c>
       <c r="O940" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P940" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="Q940" t="n">
         <v>36</v>
@@ -68085,7 +68085,7 @@
         </is>
       </c>
       <c r="D941" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E941" t="n">
         <v>13</v>
@@ -68109,16 +68109,16 @@
         </is>
       </c>
       <c r="J941" t="n">
-        <v>410</v>
+        <v>900</v>
       </c>
       <c r="K941" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="L941" t="n">
         <v>3000</v>
       </c>
       <c r="M941" t="n">
-        <v>2912</v>
+        <v>2857</v>
       </c>
       <c r="N941" t="inlineStr">
         <is>
@@ -68127,11 +68127,11 @@
       </c>
       <c r="O941" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P941" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q941" t="n">
         <v>36</v>
@@ -68157,7 +68157,7 @@
         </is>
       </c>
       <c r="D942" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E942" t="n">
         <v>13</v>
@@ -68181,7 +68181,7 @@
         </is>
       </c>
       <c r="J942" t="n">
-        <v>490</v>
+        <v>920</v>
       </c>
       <c r="K942" t="n">
         <v>2300</v>
@@ -68190,7 +68190,7 @@
         <v>2500</v>
       </c>
       <c r="M942" t="n">
-        <v>2406</v>
+        <v>2413</v>
       </c>
       <c r="N942" t="inlineStr">
         <is>
@@ -68229,7 +68229,7 @@
         </is>
       </c>
       <c r="D943" s="2" t="n">
-        <v>44384</v>
+        <v>44481</v>
       </c>
       <c r="E943" t="n">
         <v>13</v>
@@ -68249,20 +68249,20 @@
       </c>
       <c r="I943" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J943" t="n">
-        <v>270</v>
+        <v>1010</v>
       </c>
       <c r="K943" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="L943" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M943" t="n">
-        <v>1911</v>
+        <v>2389</v>
       </c>
       <c r="N943" t="inlineStr">
         <is>
@@ -68271,11 +68271,11 @@
       </c>
       <c r="O943" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P943" t="n">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="Q943" t="n">
         <v>36</v>
@@ -68301,7 +68301,7 @@
         </is>
       </c>
       <c r="D944" s="2" t="n">
-        <v>44246</v>
+        <v>44481</v>
       </c>
       <c r="E944" t="n">
         <v>13</v>
@@ -68321,20 +68321,20 @@
       </c>
       <c r="I944" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J944" t="n">
-        <v>810</v>
+        <v>300</v>
       </c>
       <c r="K944" t="n">
-        <v>2600</v>
+        <v>1800</v>
       </c>
       <c r="L944" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="M944" t="n">
-        <v>2646</v>
+        <v>1800</v>
       </c>
       <c r="N944" t="inlineStr">
         <is>
@@ -68347,7 +68347,7 @@
         </is>
       </c>
       <c r="P944" t="n">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="Q944" t="n">
         <v>36</v>
@@ -68373,7 +68373,7 @@
         </is>
       </c>
       <c r="D945" s="2" t="n">
-        <v>44246</v>
+        <v>44481</v>
       </c>
       <c r="E945" t="n">
         <v>13</v>
@@ -68393,20 +68393,20 @@
       </c>
       <c r="I945" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J945" t="n">
-        <v>720</v>
+        <v>310</v>
       </c>
       <c r="K945" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L945" t="n">
-        <v>2600</v>
+        <v>1800</v>
       </c>
       <c r="M945" t="n">
-        <v>2546</v>
+        <v>1800</v>
       </c>
       <c r="N945" t="inlineStr">
         <is>
@@ -68419,7 +68419,7 @@
         </is>
       </c>
       <c r="P945" t="n">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="Q945" t="n">
         <v>36</v>
@@ -68445,7 +68445,7 @@
         </is>
       </c>
       <c r="D946" s="2" t="n">
-        <v>44246</v>
+        <v>44481</v>
       </c>
       <c r="E946" t="n">
         <v>13</v>
@@ -68469,16 +68469,16 @@
         </is>
       </c>
       <c r="J946" t="n">
-        <v>470</v>
+        <v>310</v>
       </c>
       <c r="K946" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="L946" t="n">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="M946" t="n">
-        <v>2253</v>
+        <v>1800</v>
       </c>
       <c r="N946" t="inlineStr">
         <is>
@@ -68487,11 +68487,11 @@
       </c>
       <c r="O946" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P946" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="Q946" t="n">
         <v>36</v>
@@ -68517,7 +68517,7 @@
         </is>
       </c>
       <c r="D947" s="2" t="n">
-        <v>44246</v>
+        <v>44384</v>
       </c>
       <c r="E947" t="n">
         <v>13</v>
@@ -68537,20 +68537,20 @@
       </c>
       <c r="I947" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J947" t="n">
-        <v>250</v>
+        <v>410</v>
       </c>
       <c r="K947" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="L947" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M947" t="n">
-        <v>2200</v>
+        <v>2912</v>
       </c>
       <c r="N947" t="inlineStr">
         <is>
@@ -68559,11 +68559,11 @@
       </c>
       <c r="O947" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P947" t="n">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="Q947" t="n">
         <v>36</v>
@@ -68589,7 +68589,7 @@
         </is>
       </c>
       <c r="D948" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E948" t="n">
         <v>13</v>
@@ -68609,11 +68609,11 @@
       </c>
       <c r="I948" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J948" t="n">
-        <v>910</v>
+        <v>490</v>
       </c>
       <c r="K948" t="n">
         <v>2300</v>
@@ -68622,7 +68622,7 @@
         <v>2500</v>
       </c>
       <c r="M948" t="n">
-        <v>2384</v>
+        <v>2406</v>
       </c>
       <c r="N948" t="inlineStr">
         <is>
@@ -68635,7 +68635,7 @@
         </is>
       </c>
       <c r="P948" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q948" t="n">
         <v>36</v>
@@ -68661,7 +68661,7 @@
         </is>
       </c>
       <c r="D949" s="2" t="n">
-        <v>44505</v>
+        <v>44384</v>
       </c>
       <c r="E949" t="n">
         <v>13</v>
@@ -68681,20 +68681,20 @@
       </c>
       <c r="I949" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J949" t="n">
-        <v>860</v>
+        <v>270</v>
       </c>
       <c r="K949" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="L949" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="M949" t="n">
-        <v>2302</v>
+        <v>1911</v>
       </c>
       <c r="N949" t="inlineStr">
         <is>
@@ -68703,11 +68703,11 @@
       </c>
       <c r="O949" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P949" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="Q949" t="n">
         <v>36</v>
@@ -68733,7 +68733,7 @@
         </is>
       </c>
       <c r="D950" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E950" t="n">
         <v>13</v>
@@ -68757,16 +68757,16 @@
         </is>
       </c>
       <c r="J950" t="n">
-        <v>1030</v>
+        <v>810</v>
       </c>
       <c r="K950" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="L950" t="n">
-        <v>2100</v>
+        <v>2700</v>
       </c>
       <c r="M950" t="n">
-        <v>2044</v>
+        <v>2646</v>
       </c>
       <c r="N950" t="inlineStr">
         <is>
@@ -68779,7 +68779,7 @@
         </is>
       </c>
       <c r="P950" t="n">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="Q950" t="n">
         <v>36</v>
@@ -68805,7 +68805,7 @@
         </is>
       </c>
       <c r="D951" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E951" t="n">
         <v>13</v>
@@ -68829,16 +68829,16 @@
         </is>
       </c>
       <c r="J951" t="n">
-        <v>1050</v>
+        <v>720</v>
       </c>
       <c r="K951" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L951" t="n">
-        <v>2100</v>
+        <v>2600</v>
       </c>
       <c r="M951" t="n">
-        <v>2047</v>
+        <v>2546</v>
       </c>
       <c r="N951" t="inlineStr">
         <is>
@@ -68851,7 +68851,7 @@
         </is>
       </c>
       <c r="P951" t="n">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="Q951" t="n">
         <v>36</v>
@@ -68877,7 +68877,7 @@
         </is>
       </c>
       <c r="D952" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E952" t="n">
         <v>13</v>
@@ -68901,16 +68901,16 @@
         </is>
       </c>
       <c r="J952" t="n">
-        <v>300</v>
+        <v>470</v>
       </c>
       <c r="K952" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="L952" t="n">
-        <v>1700</v>
+        <v>2300</v>
       </c>
       <c r="M952" t="n">
-        <v>1700</v>
+        <v>2253</v>
       </c>
       <c r="N952" t="inlineStr">
         <is>
@@ -68923,7 +68923,7 @@
         </is>
       </c>
       <c r="P952" t="n">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="Q952" t="n">
         <v>36</v>
@@ -68949,7 +68949,7 @@
         </is>
       </c>
       <c r="D953" s="2" t="n">
-        <v>44505</v>
+        <v>44246</v>
       </c>
       <c r="E953" t="n">
         <v>13</v>
@@ -68973,16 +68973,16 @@
         </is>
       </c>
       <c r="J953" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="K953" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="L953" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="M953" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="N953" t="inlineStr">
         <is>
@@ -68995,7 +68995,7 @@
         </is>
       </c>
       <c r="P953" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="Q953" t="n">
         <v>36</v>
@@ -69021,7 +69021,7 @@
         </is>
       </c>
       <c r="D954" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E954" t="n">
         <v>13</v>
@@ -69045,16 +69045,16 @@
         </is>
       </c>
       <c r="J954" t="n">
-        <v>770</v>
+        <v>910</v>
       </c>
       <c r="K954" t="n">
+        <v>2300</v>
+      </c>
+      <c r="L954" t="n">
         <v>2500</v>
       </c>
-      <c r="L954" t="n">
-        <v>2700</v>
-      </c>
       <c r="M954" t="n">
-        <v>2614</v>
+        <v>2384</v>
       </c>
       <c r="N954" t="inlineStr">
         <is>
@@ -69067,7 +69067,7 @@
         </is>
       </c>
       <c r="P954" t="n">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="Q954" t="n">
         <v>36</v>
@@ -69093,7 +69093,7 @@
         </is>
       </c>
       <c r="D955" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E955" t="n">
         <v>13</v>
@@ -69117,16 +69117,16 @@
         </is>
       </c>
       <c r="J955" t="n">
-        <v>670</v>
+        <v>860</v>
       </c>
       <c r="K955" t="n">
+        <v>2200</v>
+      </c>
+      <c r="L955" t="n">
         <v>2400</v>
       </c>
-      <c r="L955" t="n">
-        <v>2700</v>
-      </c>
       <c r="M955" t="n">
-        <v>2561</v>
+        <v>2302</v>
       </c>
       <c r="N955" t="inlineStr">
         <is>
@@ -69139,7 +69139,7 @@
         </is>
       </c>
       <c r="P955" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="Q955" t="n">
         <v>36</v>
@@ -69165,7 +69165,7 @@
         </is>
       </c>
       <c r="D956" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E956" t="n">
         <v>13</v>
@@ -69189,16 +69189,16 @@
         </is>
       </c>
       <c r="J956" t="n">
-        <v>610</v>
+        <v>1030</v>
       </c>
       <c r="K956" t="n">
         <v>2000</v>
       </c>
       <c r="L956" t="n">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="M956" t="n">
-        <v>2172</v>
+        <v>2044</v>
       </c>
       <c r="N956" t="inlineStr">
         <is>
@@ -69211,7 +69211,7 @@
         </is>
       </c>
       <c r="P956" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q956" t="n">
         <v>36</v>
@@ -69237,7 +69237,7 @@
         </is>
       </c>
       <c r="D957" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E957" t="n">
         <v>13</v>
@@ -69261,16 +69261,16 @@
         </is>
       </c>
       <c r="J957" t="n">
-        <v>530</v>
+        <v>1050</v>
       </c>
       <c r="K957" t="n">
         <v>2000</v>
       </c>
       <c r="L957" t="n">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="M957" t="n">
-        <v>2109</v>
+        <v>2047</v>
       </c>
       <c r="N957" t="inlineStr">
         <is>
@@ -69283,7 +69283,7 @@
         </is>
       </c>
       <c r="P957" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q957" t="n">
         <v>36</v>
@@ -69309,7 +69309,7 @@
         </is>
       </c>
       <c r="D958" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E958" t="n">
         <v>13</v>
@@ -69333,16 +69333,16 @@
         </is>
       </c>
       <c r="J958" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="K958" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="L958" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="M958" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="N958" t="inlineStr">
         <is>
@@ -69355,7 +69355,7 @@
         </is>
       </c>
       <c r="P958" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q958" t="n">
         <v>36</v>
@@ -69381,7 +69381,7 @@
         </is>
       </c>
       <c r="D959" s="2" t="n">
-        <v>44487</v>
+        <v>44505</v>
       </c>
       <c r="E959" t="n">
         <v>13</v>
@@ -69405,16 +69405,16 @@
         </is>
       </c>
       <c r="J959" t="n">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="K959" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="L959" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="M959" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="N959" t="inlineStr">
         <is>
@@ -69427,7 +69427,7 @@
         </is>
       </c>
       <c r="P959" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q959" t="n">
         <v>36</v>
@@ -69453,7 +69453,7 @@
         </is>
       </c>
       <c r="D960" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E960" t="n">
         <v>13</v>
@@ -69477,16 +69477,16 @@
         </is>
       </c>
       <c r="J960" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="K960" t="n">
-        <v>3800</v>
+        <v>2500</v>
       </c>
       <c r="L960" t="n">
-        <v>4000</v>
+        <v>2700</v>
       </c>
       <c r="M960" t="n">
-        <v>3906</v>
+        <v>2614</v>
       </c>
       <c r="N960" t="inlineStr">
         <is>
@@ -69499,7 +69499,7 @@
         </is>
       </c>
       <c r="P960" t="n">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="Q960" t="n">
         <v>36</v>
@@ -69525,7 +69525,7 @@
         </is>
       </c>
       <c r="D961" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E961" t="n">
         <v>13</v>
@@ -69549,16 +69549,16 @@
         </is>
       </c>
       <c r="J961" t="n">
-        <v>810</v>
+        <v>670</v>
       </c>
       <c r="K961" t="n">
-        <v>3700</v>
+        <v>2400</v>
       </c>
       <c r="L961" t="n">
-        <v>4000</v>
+        <v>2700</v>
       </c>
       <c r="M961" t="n">
-        <v>3852</v>
+        <v>2561</v>
       </c>
       <c r="N961" t="inlineStr">
         <is>
@@ -69571,7 +69571,7 @@
         </is>
       </c>
       <c r="P961" t="n">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="Q961" t="n">
         <v>36</v>
@@ -69597,7 +69597,7 @@
         </is>
       </c>
       <c r="D962" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E962" t="n">
         <v>13</v>
@@ -69621,16 +69621,16 @@
         </is>
       </c>
       <c r="J962" t="n">
-        <v>800</v>
+        <v>610</v>
       </c>
       <c r="K962" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L962" t="n">
-        <v>3300</v>
+        <v>2300</v>
       </c>
       <c r="M962" t="n">
-        <v>3161</v>
+        <v>2172</v>
       </c>
       <c r="N962" t="inlineStr">
         <is>
@@ -69643,7 +69643,7 @@
         </is>
       </c>
       <c r="P962" t="n">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="Q962" t="n">
         <v>36</v>
@@ -69669,7 +69669,7 @@
         </is>
       </c>
       <c r="D963" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E963" t="n">
         <v>13</v>
@@ -69693,16 +69693,16 @@
         </is>
       </c>
       <c r="J963" t="n">
-        <v>920</v>
+        <v>530</v>
       </c>
       <c r="K963" t="n">
-        <v>2900</v>
+        <v>2000</v>
       </c>
       <c r="L963" t="n">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="M963" t="n">
-        <v>3047</v>
+        <v>2109</v>
       </c>
       <c r="N963" t="inlineStr">
         <is>
@@ -69715,7 +69715,7 @@
         </is>
       </c>
       <c r="P963" t="n">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="Q963" t="n">
         <v>36</v>
@@ -69741,7 +69741,7 @@
         </is>
       </c>
       <c r="D964" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E964" t="n">
         <v>13</v>
@@ -69765,16 +69765,16 @@
         </is>
       </c>
       <c r="J964" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="K964" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L964" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="M964" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="N964" t="inlineStr">
         <is>
@@ -69787,7 +69787,7 @@
         </is>
       </c>
       <c r="P964" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="Q964" t="n">
         <v>36</v>
@@ -69813,7 +69813,7 @@
         </is>
       </c>
       <c r="D965" s="2" t="n">
-        <v>44425</v>
+        <v>44487</v>
       </c>
       <c r="E965" t="n">
         <v>13</v>
@@ -69837,16 +69837,16 @@
         </is>
       </c>
       <c r="J965" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="K965" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L965" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="M965" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="N965" t="inlineStr">
         <is>
@@ -69859,7 +69859,7 @@
         </is>
       </c>
       <c r="P965" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="Q965" t="n">
         <v>36</v>
@@ -69885,7 +69885,7 @@
         </is>
       </c>
       <c r="D966" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E966" t="n">
         <v>13</v>
@@ -69909,16 +69909,16 @@
         </is>
       </c>
       <c r="J966" t="n">
-        <v>450</v>
+        <v>720</v>
       </c>
       <c r="K966" t="n">
-        <v>2800</v>
+        <v>3800</v>
       </c>
       <c r="L966" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="M966" t="n">
-        <v>2800</v>
+        <v>3906</v>
       </c>
       <c r="N966" t="inlineStr">
         <is>
@@ -69931,7 +69931,7 @@
         </is>
       </c>
       <c r="P966" t="n">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="Q966" t="n">
         <v>36</v>
@@ -69957,7 +69957,7 @@
         </is>
       </c>
       <c r="D967" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E967" t="n">
         <v>13</v>
@@ -69981,16 +69981,16 @@
         </is>
       </c>
       <c r="J967" t="n">
-        <v>340</v>
+        <v>810</v>
       </c>
       <c r="K967" t="n">
-        <v>2900</v>
+        <v>3700</v>
       </c>
       <c r="L967" t="n">
-        <v>2900</v>
+        <v>4000</v>
       </c>
       <c r="M967" t="n">
-        <v>2900</v>
+        <v>3852</v>
       </c>
       <c r="N967" t="inlineStr">
         <is>
@@ -70003,7 +70003,7 @@
         </is>
       </c>
       <c r="P967" t="n">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="Q967" t="n">
         <v>36</v>
@@ -70029,7 +70029,7 @@
         </is>
       </c>
       <c r="D968" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E968" t="n">
         <v>13</v>
@@ -70053,16 +70053,16 @@
         </is>
       </c>
       <c r="J968" t="n">
-        <v>640</v>
+        <v>800</v>
       </c>
       <c r="K968" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="L968" t="n">
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="M968" t="n">
-        <v>2419</v>
+        <v>3161</v>
       </c>
       <c r="N968" t="inlineStr">
         <is>
@@ -70075,7 +70075,7 @@
         </is>
       </c>
       <c r="P968" t="n">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="Q968" t="n">
         <v>36</v>
@@ -70101,7 +70101,7 @@
         </is>
       </c>
       <c r="D969" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E969" t="n">
         <v>13</v>
@@ -70125,16 +70125,16 @@
         </is>
       </c>
       <c r="J969" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="K969" t="n">
-        <v>2400</v>
+        <v>2900</v>
       </c>
       <c r="L969" t="n">
-        <v>2600</v>
+        <v>3200</v>
       </c>
       <c r="M969" t="n">
-        <v>2517</v>
+        <v>3047</v>
       </c>
       <c r="N969" t="inlineStr">
         <is>
@@ -70147,7 +70147,7 @@
         </is>
       </c>
       <c r="P969" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="Q969" t="n">
         <v>36</v>
@@ -70173,7 +70173,7 @@
         </is>
       </c>
       <c r="D970" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E970" t="n">
         <v>13</v>
@@ -70197,16 +70197,16 @@
         </is>
       </c>
       <c r="J970" t="n">
-        <v>470</v>
+        <v>250</v>
       </c>
       <c r="K970" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L970" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M970" t="n">
-        <v>1906</v>
+        <v>2500</v>
       </c>
       <c r="N970" t="inlineStr">
         <is>
@@ -70219,7 +70219,7 @@
         </is>
       </c>
       <c r="P970" t="n">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="Q970" t="n">
         <v>36</v>
@@ -70245,7 +70245,7 @@
         </is>
       </c>
       <c r="D971" s="2" t="n">
-        <v>44343</v>
+        <v>44425</v>
       </c>
       <c r="E971" t="n">
         <v>13</v>
@@ -70269,16 +70269,16 @@
         </is>
       </c>
       <c r="J971" t="n">
-        <v>430</v>
+        <v>320</v>
       </c>
       <c r="K971" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L971" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M971" t="n">
-        <v>1921</v>
+        <v>2500</v>
       </c>
       <c r="N971" t="inlineStr">
         <is>
@@ -70291,7 +70291,7 @@
         </is>
       </c>
       <c r="P971" t="n">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="Q971" t="n">
         <v>36</v>
@@ -70317,7 +70317,7 @@
         </is>
       </c>
       <c r="D972" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E972" t="n">
         <v>13</v>
@@ -70341,16 +70341,16 @@
         </is>
       </c>
       <c r="J972" t="n">
-        <v>320</v>
+        <v>450</v>
       </c>
       <c r="K972" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L972" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M972" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="N972" t="inlineStr">
         <is>
@@ -70363,7 +70363,7 @@
         </is>
       </c>
       <c r="P972" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Q972" t="n">
         <v>36</v>
@@ -70389,7 +70389,7 @@
         </is>
       </c>
       <c r="D973" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E973" t="n">
         <v>13</v>
@@ -70413,16 +70413,16 @@
         </is>
       </c>
       <c r="J973" t="n">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="K973" t="n">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="L973" t="n">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="M973" t="n">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="N973" t="inlineStr">
         <is>
@@ -70435,7 +70435,7 @@
         </is>
       </c>
       <c r="P973" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q973" t="n">
         <v>36</v>
@@ -70461,7 +70461,7 @@
         </is>
       </c>
       <c r="D974" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E974" t="n">
         <v>13</v>
@@ -70485,16 +70485,16 @@
         </is>
       </c>
       <c r="J974" t="n">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="K974" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="L974" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="M974" t="n">
-        <v>2518</v>
+        <v>2419</v>
       </c>
       <c r="N974" t="inlineStr">
         <is>
@@ -70507,7 +70507,7 @@
         </is>
       </c>
       <c r="P974" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q974" t="n">
         <v>36</v>
@@ -70533,7 +70533,7 @@
         </is>
       </c>
       <c r="D975" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E975" t="n">
         <v>13</v>
@@ -70557,7 +70557,7 @@
         </is>
       </c>
       <c r="J975" t="n">
-        <v>860</v>
+        <v>720</v>
       </c>
       <c r="K975" t="n">
         <v>2400</v>
@@ -70566,7 +70566,7 @@
         <v>2600</v>
       </c>
       <c r="M975" t="n">
-        <v>2498</v>
+        <v>2517</v>
       </c>
       <c r="N975" t="inlineStr">
         <is>
@@ -70579,7 +70579,7 @@
         </is>
       </c>
       <c r="P975" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q975" t="n">
         <v>36</v>
@@ -70605,7 +70605,7 @@
         </is>
       </c>
       <c r="D976" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E976" t="n">
         <v>13</v>
@@ -70629,16 +70629,16 @@
         </is>
       </c>
       <c r="J976" t="n">
-        <v>250</v>
+        <v>470</v>
       </c>
       <c r="K976" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="L976" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="M976" t="n">
-        <v>2200</v>
+        <v>1906</v>
       </c>
       <c r="N976" t="inlineStr">
         <is>
@@ -70651,7 +70651,7 @@
         </is>
       </c>
       <c r="P976" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="Q976" t="n">
         <v>36</v>
@@ -70677,7 +70677,7 @@
         </is>
       </c>
       <c r="D977" s="2" t="n">
-        <v>44370</v>
+        <v>44343</v>
       </c>
       <c r="E977" t="n">
         <v>13</v>
@@ -70701,16 +70701,16 @@
         </is>
       </c>
       <c r="J977" t="n">
-        <v>320</v>
+        <v>430</v>
       </c>
       <c r="K977" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="L977" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="M977" t="n">
-        <v>2200</v>
+        <v>1921</v>
       </c>
       <c r="N977" t="inlineStr">
         <is>
@@ -70723,7 +70723,7 @@
         </is>
       </c>
       <c r="P977" t="n">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="Q977" t="n">
         <v>36</v>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E978" t="n">
         <v>13</v>
@@ -70773,16 +70773,16 @@
         </is>
       </c>
       <c r="J978" t="n">
-        <v>670</v>
+        <v>320</v>
       </c>
       <c r="K978" t="n">
         <v>3000</v>
       </c>
       <c r="L978" t="n">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="M978" t="n">
-        <v>3166</v>
+        <v>3000</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70795,7 +70795,7 @@
         </is>
       </c>
       <c r="P978" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="Q978" t="n">
         <v>36</v>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E979" t="n">
         <v>13</v>
@@ -70845,16 +70845,16 @@
         </is>
       </c>
       <c r="J979" t="n">
-        <v>680</v>
+        <v>370</v>
       </c>
       <c r="K979" t="n">
         <v>3000</v>
       </c>
       <c r="L979" t="n">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="M979" t="n">
-        <v>3172</v>
+        <v>3000</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70867,7 +70867,7 @@
         </is>
       </c>
       <c r="P979" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="Q979" t="n">
         <v>36</v>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E980" t="n">
         <v>13</v>
@@ -70917,7 +70917,7 @@
         </is>
       </c>
       <c r="J980" t="n">
-        <v>850</v>
+        <v>660</v>
       </c>
       <c r="K980" t="n">
         <v>2400</v>
@@ -70926,7 +70926,7 @@
         <v>2600</v>
       </c>
       <c r="M980" t="n">
-        <v>2506</v>
+        <v>2518</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E981" t="n">
         <v>13</v>
@@ -70989,7 +70989,7 @@
         </is>
       </c>
       <c r="J981" t="n">
-        <v>790</v>
+        <v>860</v>
       </c>
       <c r="K981" t="n">
         <v>2400</v>
@@ -70998,7 +70998,7 @@
         <v>2600</v>
       </c>
       <c r="M981" t="n">
-        <v>2511</v>
+        <v>2498</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71011,7 +71011,7 @@
         </is>
       </c>
       <c r="P981" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q981" t="n">
         <v>36</v>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E982" t="n">
         <v>13</v>
@@ -71064,13 +71064,13 @@
         <v>250</v>
       </c>
       <c r="K982" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="L982" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="M982" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71083,7 +71083,7 @@
         </is>
       </c>
       <c r="P982" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="Q982" t="n">
         <v>36</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44449</v>
+        <v>44370</v>
       </c>
       <c r="E983" t="n">
         <v>13</v>
@@ -71133,16 +71133,16 @@
         </is>
       </c>
       <c r="J983" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="K983" t="n">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="L983" t="n">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="M983" t="n">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71155,7 +71155,7 @@
         </is>
       </c>
       <c r="P983" t="n">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="Q983" t="n">
         <v>36</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -71205,16 +71205,16 @@
         </is>
       </c>
       <c r="J984" t="n">
-        <v>490</v>
+        <v>670</v>
       </c>
       <c r="K984" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="L984" t="n">
-        <v>2800</v>
+        <v>3300</v>
       </c>
       <c r="M984" t="n">
-        <v>2743</v>
+        <v>3166</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71223,11 +71223,11 @@
       </c>
       <c r="O984" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P984" t="n">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="Q984" t="n">
         <v>36</v>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E985" t="n">
         <v>13</v>
@@ -71273,20 +71273,20 @@
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J985" t="n">
-        <v>850</v>
+        <v>680</v>
       </c>
       <c r="K985" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L985" t="n">
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="M985" t="n">
-        <v>2479</v>
+        <v>3172</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71299,7 +71299,7 @@
         </is>
       </c>
       <c r="P985" t="n">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="Q985" t="n">
         <v>36</v>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44168</v>
+        <v>44449</v>
       </c>
       <c r="E986" t="n">
         <v>13</v>
@@ -71345,20 +71345,20 @@
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J986" t="n">
-        <v>580</v>
+        <v>850</v>
       </c>
       <c r="K986" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L986" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="M986" t="n">
-        <v>2066</v>
+        <v>2506</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71367,11 +71367,11 @@
       </c>
       <c r="O986" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P986" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="Q986" t="n">
         <v>36</v>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E987" t="n">
         <v>13</v>
@@ -71417,20 +71417,20 @@
       </c>
       <c r="I987" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J987" t="n">
-        <v>440</v>
+        <v>790</v>
       </c>
       <c r="K987" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="L987" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="M987" t="n">
-        <v>2800</v>
+        <v>2511</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71443,7 +71443,7 @@
         </is>
       </c>
       <c r="P987" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="Q987" t="n">
         <v>36</v>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E988" t="n">
         <v>13</v>
@@ -71489,20 +71489,20 @@
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J988" t="n">
-        <v>730</v>
+        <v>250</v>
       </c>
       <c r="K988" t="n">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="L988" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="M988" t="n">
-        <v>2401</v>
+        <v>1800</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71511,11 +71511,11 @@
       </c>
       <c r="O988" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P988" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="Q988" t="n">
         <v>36</v>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44175</v>
+        <v>44449</v>
       </c>
       <c r="E989" t="n">
         <v>13</v>
@@ -71565,16 +71565,16 @@
         </is>
       </c>
       <c r="J989" t="n">
-        <v>550</v>
+        <v>310</v>
       </c>
       <c r="K989" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="L989" t="n">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="M989" t="n">
-        <v>2091</v>
+        <v>1900</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71587,7 +71587,7 @@
         </is>
       </c>
       <c r="P989" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="Q989" t="n">
         <v>36</v>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E990" t="n">
         <v>13</v>
@@ -71637,16 +71637,16 @@
         </is>
       </c>
       <c r="J990" t="n">
-        <v>440</v>
+        <v>490</v>
       </c>
       <c r="K990" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="L990" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M990" t="n">
-        <v>3000</v>
+        <v>2743</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71655,11 +71655,11 @@
       </c>
       <c r="O990" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P990" t="n">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="Q990" t="n">
         <v>36</v>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E991" t="n">
         <v>13</v>
@@ -71705,20 +71705,20 @@
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J991" t="n">
-        <v>380</v>
+        <v>850</v>
       </c>
       <c r="K991" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L991" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M991" t="n">
-        <v>3000</v>
+        <v>2479</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
@@ -71731,7 +71731,7 @@
         </is>
       </c>
       <c r="P991" t="n">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="Q991" t="n">
         <v>36</v>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44392</v>
+        <v>44168</v>
       </c>
       <c r="E992" t="n">
         <v>13</v>
@@ -71777,20 +71777,20 @@
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J992" t="n">
-        <v>810</v>
+        <v>580</v>
       </c>
       <c r="K992" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L992" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="M992" t="n">
-        <v>2616</v>
+        <v>2066</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71799,11 +71799,11 @@
       </c>
       <c r="O992" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P992" t="n">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="Q992" t="n">
         <v>36</v>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E993" t="n">
         <v>13</v>
@@ -71849,20 +71849,20 @@
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J993" t="n">
-        <v>710</v>
+        <v>440</v>
       </c>
       <c r="K993" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="L993" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="M993" t="n">
-        <v>2515</v>
+        <v>2800</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71875,7 +71875,7 @@
         </is>
       </c>
       <c r="P993" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="Q993" t="n">
         <v>36</v>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -71921,20 +71921,20 @@
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J994" t="n">
-        <v>260</v>
+        <v>730</v>
       </c>
       <c r="K994" t="n">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="L994" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M994" t="n">
-        <v>2200</v>
+        <v>2401</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71943,11 +71943,11 @@
       </c>
       <c r="O994" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P994" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="Q994" t="n">
         <v>36</v>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44392</v>
+        <v>44175</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -71997,16 +71997,16 @@
         </is>
       </c>
       <c r="J995" t="n">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="K995" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L995" t="n">
         <v>2200</v>
       </c>
       <c r="M995" t="n">
-        <v>2200</v>
+        <v>2091</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
@@ -72019,7 +72019,7 @@
         </is>
       </c>
       <c r="P995" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q995" t="n">
         <v>36</v>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -72065,20 +72065,20 @@
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J996" t="n">
-        <v>720</v>
+        <v>440</v>
       </c>
       <c r="K996" t="n">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="L996" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M996" t="n">
-        <v>3422</v>
+        <v>3000</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72091,7 +72091,7 @@
         </is>
       </c>
       <c r="P996" t="n">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="Q996" t="n">
         <v>36</v>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -72137,20 +72137,20 @@
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J997" t="n">
-        <v>620</v>
+        <v>380</v>
       </c>
       <c r="K997" t="n">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="L997" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="M997" t="n">
-        <v>3519</v>
+        <v>3000</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72163,7 +72163,7 @@
         </is>
       </c>
       <c r="P997" t="n">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="Q997" t="n">
         <v>36</v>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E998" t="n">
         <v>13</v>
@@ -72209,20 +72209,20 @@
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J998" t="n">
-        <v>200</v>
+        <v>810</v>
       </c>
       <c r="K998" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L998" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="M998" t="n">
-        <v>2800</v>
+        <v>2616</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
@@ -72235,7 +72235,7 @@
         </is>
       </c>
       <c r="P998" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="Q998" t="n">
         <v>36</v>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44286</v>
+        <v>44392</v>
       </c>
       <c r="E999" t="n">
         <v>13</v>
@@ -72281,20 +72281,20 @@
       </c>
       <c r="I999" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J999" t="n">
-        <v>240</v>
+        <v>710</v>
       </c>
       <c r="K999" t="n">
-        <v>2700</v>
+        <v>2400</v>
       </c>
       <c r="L999" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="M999" t="n">
-        <v>2700</v>
+        <v>2515</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
@@ -72307,7 +72307,7 @@
         </is>
       </c>
       <c r="P999" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Q999" t="n">
         <v>36</v>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E1000" t="n">
         <v>13</v>
@@ -72353,20 +72353,20 @@
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1000" t="n">
-        <v>740</v>
+        <v>260</v>
       </c>
       <c r="K1000" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="L1000" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="M1000" t="n">
-        <v>2854</v>
+        <v>2200</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
@@ -72379,7 +72379,7 @@
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="Q1000" t="n">
         <v>36</v>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44473</v>
+        <v>44392</v>
       </c>
       <c r="E1001" t="n">
         <v>13</v>
@@ -72425,20 +72425,20 @@
       </c>
       <c r="I1001" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>620</v>
+        <v>250</v>
       </c>
       <c r="K1001" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="L1001" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="M1001" t="n">
-        <v>2869</v>
+        <v>2200</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72451,7 +72451,7 @@
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="Q1001" t="n">
         <v>36</v>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1002" t="n">
         <v>13</v>
@@ -72501,16 +72501,16 @@
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>820</v>
+        <v>720</v>
       </c>
       <c r="K1002" t="n">
-        <v>2200</v>
+        <v>3300</v>
       </c>
       <c r="L1002" t="n">
-        <v>2400</v>
+        <v>3500</v>
       </c>
       <c r="M1002" t="n">
-        <v>2305</v>
+        <v>3422</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72523,7 +72523,7 @@
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="Q1002" t="n">
         <v>36</v>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1003" t="n">
         <v>13</v>
@@ -72573,16 +72573,16 @@
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>740</v>
+        <v>620</v>
       </c>
       <c r="K1003" t="n">
-        <v>2000</v>
+        <v>3400</v>
       </c>
       <c r="L1003" t="n">
-        <v>2300</v>
+        <v>3600</v>
       </c>
       <c r="M1003" t="n">
-        <v>2162</v>
+        <v>3519</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72595,7 +72595,7 @@
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="Q1003" t="n">
         <v>36</v>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1004" t="n">
         <v>13</v>
@@ -72645,16 +72645,16 @@
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="K1004" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="L1004" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="M1004" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72667,7 +72667,7 @@
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="Q1004" t="n">
         <v>36</v>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44473</v>
+        <v>44286</v>
       </c>
       <c r="E1005" t="n">
         <v>13</v>
@@ -72717,16 +72717,16 @@
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="K1005" t="n">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="L1005" t="n">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="M1005" t="n">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72739,7 +72739,7 @@
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="Q1005" t="n">
         <v>36</v>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1006" t="n">
         <v>13</v>
@@ -72789,16 +72789,16 @@
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>150</v>
+        <v>740</v>
       </c>
       <c r="K1006" t="n">
-        <v>4000</v>
+        <v>2700</v>
       </c>
       <c r="L1006" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M1006" t="n">
-        <v>4000</v>
+        <v>2854</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72807,11 +72807,11 @@
       </c>
       <c r="O1006" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="Q1006" t="n">
         <v>36</v>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1007" t="n">
         <v>13</v>
@@ -72857,20 +72857,20 @@
       </c>
       <c r="I1007" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>330</v>
+        <v>620</v>
       </c>
       <c r="K1007" t="n">
-        <v>3500</v>
+        <v>2700</v>
       </c>
       <c r="L1007" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M1007" t="n">
-        <v>3500</v>
+        <v>2869</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72883,7 +72883,7 @@
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="Q1007" t="n">
         <v>36</v>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44400</v>
+        <v>44473</v>
       </c>
       <c r="E1008" t="n">
         <v>13</v>
@@ -72929,20 +72929,20 @@
       </c>
       <c r="I1008" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>270</v>
+        <v>820</v>
       </c>
       <c r="K1008" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="L1008" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="M1008" t="n">
-        <v>2500</v>
+        <v>2305</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72951,11 +72951,11 @@
       </c>
       <c r="O1008" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="Q1008" t="n">
         <v>36</v>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E1009" t="n">
         <v>13</v>
@@ -73001,20 +73001,20 @@
       </c>
       <c r="I1009" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>680</v>
+        <v>740</v>
       </c>
       <c r="K1009" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L1009" t="n">
-        <v>3200</v>
+        <v>2300</v>
       </c>
       <c r="M1009" t="n">
-        <v>3103</v>
+        <v>2162</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
@@ -73023,11 +73023,11 @@
       </c>
       <c r="O1009" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="Q1009" t="n">
         <v>36</v>
@@ -73053,7 +73053,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E1010" t="n">
         <v>13</v>
@@ -73073,20 +73073,20 @@
       </c>
       <c r="I1010" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>740</v>
+        <v>260</v>
       </c>
       <c r="K1010" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="L1010" t="n">
-        <v>3200</v>
+        <v>1800</v>
       </c>
       <c r="M1010" t="n">
-        <v>3105</v>
+        <v>1800</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
@@ -73095,11 +73095,11 @@
       </c>
       <c r="O1010" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="Q1010" t="n">
         <v>36</v>
@@ -73125,7 +73125,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44484</v>
+        <v>44473</v>
       </c>
       <c r="E1011" t="n">
         <v>13</v>
@@ -73145,20 +73145,20 @@
       </c>
       <c r="I1011" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>720</v>
+        <v>200</v>
       </c>
       <c r="K1011" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L1011" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="M1011" t="n">
-        <v>2617</v>
+        <v>1800</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
@@ -73167,11 +73167,11 @@
       </c>
       <c r="O1011" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="Q1011" t="n">
         <v>36</v>
@@ -73197,7 +73197,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1012" t="n">
         <v>13</v>
@@ -73217,20 +73217,20 @@
       </c>
       <c r="I1012" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>680</v>
+        <v>150</v>
       </c>
       <c r="K1012" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="L1012" t="n">
-        <v>2700</v>
+        <v>4000</v>
       </c>
       <c r="M1012" t="n">
-        <v>2606</v>
+        <v>4000</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
@@ -73243,7 +73243,7 @@
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="Q1012" t="n">
         <v>36</v>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1013" t="n">
         <v>13</v>
@@ -73289,20 +73289,20 @@
       </c>
       <c r="I1013" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="K1013" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L1013" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M1013" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
@@ -73311,11 +73311,11 @@
       </c>
       <c r="O1013" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="Q1013" t="n">
         <v>36</v>
@@ -73341,7 +73341,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44484</v>
+        <v>44400</v>
       </c>
       <c r="E1014" t="n">
         <v>13</v>
@@ -73368,13 +73368,13 @@
         <v>270</v>
       </c>
       <c r="K1014" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L1014" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M1014" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
@@ -73387,7 +73387,7 @@
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="Q1014" t="n">
         <v>36</v>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1015" t="n">
         <v>13</v>
@@ -73437,16 +73437,16 @@
         </is>
       </c>
       <c r="J1015" t="n">
-        <v>520</v>
+        <v>680</v>
       </c>
       <c r="K1015" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="L1015" t="n">
-        <v>2600</v>
+        <v>3200</v>
       </c>
       <c r="M1015" t="n">
-        <v>2600</v>
+        <v>3103</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73455,11 +73455,11 @@
       </c>
       <c r="O1015" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q1015" t="n">
         <v>36</v>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1016" t="n">
         <v>13</v>
@@ -73505,20 +73505,20 @@
       </c>
       <c r="I1016" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>890</v>
+        <v>740</v>
       </c>
       <c r="K1016" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="L1016" t="n">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="M1016" t="n">
-        <v>2370</v>
+        <v>3105</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
@@ -73531,7 +73531,7 @@
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="Q1016" t="n">
         <v>36</v>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44181</v>
+        <v>44484</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -73577,20 +73577,20 @@
       </c>
       <c r="I1017" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>540</v>
+        <v>720</v>
       </c>
       <c r="K1017" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L1017" t="n">
-        <v>2100</v>
+        <v>2700</v>
       </c>
       <c r="M1017" t="n">
-        <v>2070</v>
+        <v>2617</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73599,11 +73599,11 @@
       </c>
       <c r="O1017" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="Q1017" t="n">
         <v>36</v>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1018" t="n">
         <v>13</v>
@@ -73649,20 +73649,20 @@
       </c>
       <c r="I1018" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1018" t="n">
         <v>680</v>
       </c>
       <c r="K1018" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L1018" t="n">
         <v>2700</v>
       </c>
-      <c r="L1018" t="n">
-        <v>3000</v>
-      </c>
       <c r="M1018" t="n">
-        <v>2854</v>
+        <v>2606</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
@@ -73671,11 +73671,11 @@
       </c>
       <c r="O1018" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="Q1018" t="n">
         <v>36</v>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1019" t="n">
         <v>13</v>
@@ -73721,20 +73721,20 @@
       </c>
       <c r="I1019" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>730</v>
+        <v>300</v>
       </c>
       <c r="K1019" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="L1019" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M1019" t="n">
-        <v>2860</v>
+        <v>2000</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73743,11 +73743,11 @@
       </c>
       <c r="O1019" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="Q1019" t="n">
         <v>36</v>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44494</v>
+        <v>44484</v>
       </c>
       <c r="E1020" t="n">
         <v>13</v>
@@ -73793,20 +73793,20 @@
       </c>
       <c r="I1020" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>640</v>
+        <v>270</v>
       </c>
       <c r="K1020" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="L1020" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M1020" t="n">
-        <v>2403</v>
+        <v>2000</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73815,11 +73815,11 @@
       </c>
       <c r="O1020" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="Q1020" t="n">
         <v>36</v>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1021" t="n">
         <v>13</v>
@@ -73865,20 +73865,20 @@
       </c>
       <c r="I1021" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>630</v>
+        <v>520</v>
       </c>
       <c r="K1021" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="L1021" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="M1021" t="n">
-        <v>2357</v>
+        <v>2600</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73891,7 +73891,7 @@
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="Q1021" t="n">
         <v>36</v>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1022" t="n">
         <v>13</v>
@@ -73937,20 +73937,20 @@
       </c>
       <c r="I1022" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>240</v>
+        <v>890</v>
       </c>
       <c r="K1022" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="L1022" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="M1022" t="n">
-        <v>1800</v>
+        <v>2370</v>
       </c>
       <c r="N1022" t="inlineStr">
         <is>
@@ -73959,11 +73959,11 @@
       </c>
       <c r="O1022" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="Q1022" t="n">
         <v>36</v>
@@ -73989,7 +73989,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44494</v>
+        <v>44181</v>
       </c>
       <c r="E1023" t="n">
         <v>13</v>
@@ -74013,16 +74013,16 @@
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>260</v>
+        <v>540</v>
       </c>
       <c r="K1023" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="L1023" t="n">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="M1023" t="n">
-        <v>1900</v>
+        <v>2070</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
@@ -74035,7 +74035,7 @@
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Q1023" t="n">
         <v>36</v>
@@ -74061,7 +74061,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1024" t="n">
         <v>13</v>
@@ -74085,16 +74085,16 @@
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>420</v>
+        <v>680</v>
       </c>
       <c r="K1024" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="L1024" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M1024" t="n">
-        <v>2800</v>
+        <v>2854</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
@@ -74107,7 +74107,7 @@
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q1024" t="n">
         <v>36</v>
@@ -74133,7 +74133,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1025" t="n">
         <v>13</v>
@@ -74157,16 +74157,16 @@
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>450</v>
+        <v>730</v>
       </c>
       <c r="K1025" t="n">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="L1025" t="n">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="M1025" t="n">
-        <v>2900</v>
+        <v>2860</v>
       </c>
       <c r="N1025" t="inlineStr">
         <is>
@@ -74179,7 +74179,7 @@
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q1025" t="n">
         <v>36</v>
@@ -74205,7 +74205,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1026" t="n">
         <v>13</v>
@@ -74229,7 +74229,7 @@
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="K1026" t="n">
         <v>2300</v>
@@ -74238,7 +74238,7 @@
         <v>2500</v>
       </c>
       <c r="M1026" t="n">
-        <v>2418</v>
+        <v>2403</v>
       </c>
       <c r="N1026" t="inlineStr">
         <is>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1027" t="n">
         <v>13</v>
@@ -74301,16 +74301,16 @@
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>700</v>
+        <v>630</v>
       </c>
       <c r="K1027" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="L1027" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="M1027" t="n">
-        <v>2511</v>
+        <v>2357</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
@@ -74323,7 +74323,7 @@
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Q1027" t="n">
         <v>36</v>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1028" t="n">
         <v>13</v>
@@ -74373,16 +74373,16 @@
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="K1028" t="n">
         <v>1800</v>
       </c>
       <c r="L1028" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="M1028" t="n">
-        <v>1911</v>
+        <v>1800</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
@@ -74395,7 +74395,7 @@
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q1028" t="n">
         <v>36</v>
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44342</v>
+        <v>44494</v>
       </c>
       <c r="E1029" t="n">
         <v>13</v>
@@ -74445,16 +74445,16 @@
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>470</v>
+        <v>260</v>
       </c>
       <c r="K1029" t="n">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="L1029" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="M1029" t="n">
-        <v>1928</v>
+        <v>1900</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
@@ -74467,7 +74467,7 @@
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q1029" t="n">
         <v>36</v>
@@ -74493,7 +74493,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1030" t="n">
         <v>13</v>
@@ -74517,16 +74517,16 @@
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>810</v>
+        <v>420</v>
       </c>
       <c r="K1030" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="L1030" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="M1030" t="n">
-        <v>3363</v>
+        <v>2800</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
@@ -74539,7 +74539,7 @@
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="Q1030" t="n">
         <v>36</v>
@@ -74565,7 +74565,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1031" t="n">
         <v>13</v>
@@ -74589,16 +74589,16 @@
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>710</v>
+        <v>450</v>
       </c>
       <c r="K1031" t="n">
-        <v>3200</v>
+        <v>2900</v>
       </c>
       <c r="L1031" t="n">
-        <v>3500</v>
+        <v>2900</v>
       </c>
       <c r="M1031" t="n">
-        <v>3361</v>
+        <v>2900</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
@@ -74611,7 +74611,7 @@
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="Q1031" t="n">
         <v>36</v>
@@ -74637,7 +74637,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1032" t="n">
         <v>13</v>
@@ -74661,16 +74661,16 @@
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>870</v>
+        <v>660</v>
       </c>
       <c r="K1032" t="n">
         <v>2300</v>
       </c>
       <c r="L1032" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M1032" t="n">
-        <v>2570</v>
+        <v>2418</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
@@ -74683,7 +74683,7 @@
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q1032" t="n">
         <v>36</v>
@@ -74709,7 +74709,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1033" t="n">
         <v>13</v>
@@ -74733,7 +74733,7 @@
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>810</v>
+        <v>700</v>
       </c>
       <c r="K1033" t="n">
         <v>2400</v>
@@ -74742,7 +74742,7 @@
         <v>2600</v>
       </c>
       <c r="M1033" t="n">
-        <v>2501</v>
+        <v>2511</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
@@ -74755,7 +74755,7 @@
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q1033" t="n">
         <v>36</v>
@@ -74781,7 +74781,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1034" t="n">
         <v>13</v>
@@ -74805,16 +74805,16 @@
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>250</v>
+        <v>450</v>
       </c>
       <c r="K1034" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L1034" t="n">
         <v>2000</v>
       </c>
       <c r="M1034" t="n">
-        <v>2000</v>
+        <v>1911</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
@@ -74827,7 +74827,7 @@
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q1034" t="n">
         <v>36</v>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44445</v>
+        <v>44342</v>
       </c>
       <c r="E1035" t="n">
         <v>13</v>
@@ -74877,16 +74877,16 @@
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>250</v>
+        <v>470</v>
       </c>
       <c r="K1035" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L1035" t="n">
         <v>2000</v>
       </c>
       <c r="M1035" t="n">
-        <v>2000</v>
+        <v>1928</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
@@ -74899,7 +74899,7 @@
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q1035" t="n">
         <v>36</v>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1036" t="n">
         <v>13</v>
@@ -74949,16 +74949,16 @@
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>330</v>
+        <v>810</v>
       </c>
       <c r="K1036" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="L1036" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M1036" t="n">
-        <v>2800</v>
+        <v>3363</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
@@ -74971,7 +74971,7 @@
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="Q1036" t="n">
         <v>36</v>
@@ -74997,7 +74997,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1037" t="n">
         <v>13</v>
@@ -75021,16 +75021,16 @@
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>270</v>
+        <v>710</v>
       </c>
       <c r="K1037" t="n">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="L1037" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M1037" t="n">
-        <v>2800</v>
+        <v>3361</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
@@ -75043,7 +75043,7 @@
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="Q1037" t="n">
         <v>36</v>
@@ -75069,7 +75069,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1038" t="n">
         <v>13</v>
@@ -75093,16 +75093,16 @@
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>640</v>
+        <v>870</v>
       </c>
       <c r="K1038" t="n">
         <v>2300</v>
       </c>
       <c r="L1038" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M1038" t="n">
-        <v>2419</v>
+        <v>2570</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
@@ -75115,7 +75115,7 @@
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="Q1038" t="n">
         <v>36</v>
@@ -75141,7 +75141,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1039" t="n">
         <v>13</v>
@@ -75165,16 +75165,16 @@
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="K1039" t="n">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="L1039" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="M1039" t="n">
-        <v>2417</v>
+        <v>2501</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
@@ -75187,7 +75187,7 @@
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q1039" t="n">
         <v>36</v>
@@ -75213,7 +75213,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1040" t="n">
         <v>13</v>
@@ -75237,7 +75237,7 @@
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>180</v>
+        <v>250</v>
       </c>
       <c r="K1040" t="n">
         <v>2000</v>
@@ -75285,7 +75285,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44328</v>
+        <v>44445</v>
       </c>
       <c r="E1041" t="n">
         <v>13</v>
@@ -75357,7 +75357,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1042" t="n">
         <v>13</v>
@@ -75377,20 +75377,20 @@
       </c>
       <c r="I1042" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1042" t="n">
-        <v>830</v>
+        <v>330</v>
       </c>
       <c r="K1042" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="L1042" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M1042" t="n">
-        <v>2812</v>
+        <v>2800</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
@@ -75429,7 +75429,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1043" t="n">
         <v>13</v>
@@ -75449,20 +75449,20 @@
       </c>
       <c r="I1043" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>1010</v>
+        <v>270</v>
       </c>
       <c r="K1043" t="n">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="L1043" t="n">
         <v>2800</v>
       </c>
       <c r="M1043" t="n">
-        <v>2707</v>
+        <v>2800</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
@@ -75475,7 +75475,7 @@
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q1043" t="n">
         <v>36</v>
@@ -75501,7 +75501,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1044" t="n">
         <v>13</v>
@@ -75521,20 +75521,20 @@
       </c>
       <c r="I1044" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1044" t="n">
-        <v>280</v>
+        <v>640</v>
       </c>
       <c r="K1044" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="L1044" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M1044" t="n">
-        <v>2000</v>
+        <v>2419</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
@@ -75547,7 +75547,7 @@
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="Q1044" t="n">
         <v>36</v>
@@ -75573,7 +75573,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44301</v>
+        <v>44328</v>
       </c>
       <c r="E1045" t="n">
         <v>13</v>
@@ -75593,20 +75593,20 @@
       </c>
       <c r="I1045" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1045" t="n">
-        <v>330</v>
+        <v>720</v>
       </c>
       <c r="K1045" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="L1045" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M1045" t="n">
-        <v>2000</v>
+        <v>2417</v>
       </c>
       <c r="N1045" t="inlineStr">
         <is>
@@ -75619,7 +75619,7 @@
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="Q1045" t="n">
         <v>36</v>
@@ -75645,7 +75645,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E1046" t="n">
         <v>13</v>
@@ -75665,20 +75665,20 @@
       </c>
       <c r="I1046" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>440</v>
+        <v>180</v>
       </c>
       <c r="K1046" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L1046" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M1046" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="N1046" t="inlineStr">
         <is>
@@ -75691,7 +75691,7 @@
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="Q1046" t="n">
         <v>36</v>
@@ -75717,7 +75717,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44330</v>
+        <v>44328</v>
       </c>
       <c r="E1047" t="n">
         <v>13</v>
@@ -75737,20 +75737,20 @@
       </c>
       <c r="I1047" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1047" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="K1047" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L1047" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M1047" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
@@ -75763,7 +75763,7 @@
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="Q1047" t="n">
         <v>36</v>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1048" t="n">
         <v>13</v>
@@ -75813,16 +75813,16 @@
         </is>
       </c>
       <c r="J1048" t="n">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="K1048" t="n">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="L1048" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M1048" t="n">
-        <v>2408</v>
+        <v>2812</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
@@ -75835,7 +75835,7 @@
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="Q1048" t="n">
         <v>36</v>
@@ -75861,7 +75861,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1049" t="n">
         <v>13</v>
@@ -75885,16 +75885,16 @@
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>960</v>
+        <v>1010</v>
       </c>
       <c r="K1049" t="n">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="L1049" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M1049" t="n">
-        <v>2392</v>
+        <v>2707</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
@@ -75907,7 +75907,7 @@
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="Q1049" t="n">
         <v>36</v>
@@ -75933,7 +75933,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1050" t="n">
         <v>13</v>
@@ -75957,16 +75957,16 @@
         </is>
       </c>
       <c r="J1050" t="n">
-        <v>490</v>
+        <v>280</v>
       </c>
       <c r="K1050" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L1050" t="n">
         <v>2000</v>
       </c>
       <c r="M1050" t="n">
-        <v>1906</v>
+        <v>2000</v>
       </c>
       <c r="N1050" t="inlineStr">
         <is>
@@ -75979,7 +75979,7 @@
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q1050" t="n">
         <v>36</v>
@@ -76005,7 +76005,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44330</v>
+        <v>44301</v>
       </c>
       <c r="E1051" t="n">
         <v>13</v>
@@ -76029,16 +76029,16 @@
         </is>
       </c>
       <c r="J1051" t="n">
-        <v>550</v>
+        <v>330</v>
       </c>
       <c r="K1051" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L1051" t="n">
         <v>2000</v>
       </c>
       <c r="M1051" t="n">
-        <v>1902</v>
+        <v>2000</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
@@ -76051,7 +76051,7 @@
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q1051" t="n">
         <v>36</v>
@@ -76077,7 +76077,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1052" t="n">
         <v>13</v>
@@ -76097,20 +76097,20 @@
       </c>
       <c r="I1052" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1052" t="n">
-        <v>810</v>
+        <v>440</v>
       </c>
       <c r="K1052" t="n">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="L1052" t="n">
-        <v>3600</v>
+        <v>2800</v>
       </c>
       <c r="M1052" t="n">
-        <v>3509</v>
+        <v>2800</v>
       </c>
       <c r="N1052" t="inlineStr">
         <is>
@@ -76123,7 +76123,7 @@
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="Q1052" t="n">
         <v>36</v>
@@ -76149,7 +76149,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44270</v>
+        <v>44330</v>
       </c>
       <c r="E1053" t="n">
         <v>13</v>
@@ -76169,20 +76169,20 @@
       </c>
       <c r="I1053" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>560</v>
+        <v>450</v>
       </c>
       <c r="K1053" t="n">
         <v>2800</v>
       </c>
       <c r="L1053" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M1053" t="n">
-        <v>2911</v>
+        <v>2800</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
@@ -76191,11 +76191,11 @@
       </c>
       <c r="O1053" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q1053" t="n">
         <v>36</v>
@@ -76221,7 +76221,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E1054" t="n">
         <v>13</v>
@@ -76245,16 +76245,16 @@
         </is>
       </c>
       <c r="J1054" t="n">
-        <v>830</v>
+        <v>850</v>
       </c>
       <c r="K1054" t="n">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="L1054" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M1054" t="n">
-        <v>2859</v>
+        <v>2408</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
@@ -76267,7 +76267,7 @@
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="Q1054" t="n">
         <v>36</v>
@@ -76293,7 +76293,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E1055" t="n">
         <v>13</v>
@@ -76317,16 +76317,16 @@
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="K1055" t="n">
-        <v>2600</v>
+        <v>2300</v>
       </c>
       <c r="L1055" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M1055" t="n">
-        <v>2709</v>
+        <v>2392</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
@@ -76339,7 +76339,7 @@
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="Q1055" t="n">
         <v>36</v>
@@ -76365,7 +76365,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E1056" t="n">
         <v>13</v>
@@ -76389,16 +76389,16 @@
         </is>
       </c>
       <c r="J1056" t="n">
-        <v>250</v>
+        <v>490</v>
       </c>
       <c r="K1056" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L1056" t="n">
         <v>2000</v>
       </c>
       <c r="M1056" t="n">
-        <v>2000</v>
+        <v>1906</v>
       </c>
       <c r="N1056" t="inlineStr">
         <is>
@@ -76411,7 +76411,7 @@
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q1056" t="n">
         <v>36</v>
@@ -76437,7 +76437,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44295</v>
+        <v>44330</v>
       </c>
       <c r="E1057" t="n">
         <v>13</v>
@@ -76461,16 +76461,16 @@
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>290</v>
+        <v>550</v>
       </c>
       <c r="K1057" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L1057" t="n">
         <v>2000</v>
       </c>
       <c r="M1057" t="n">
-        <v>2000</v>
+        <v>1902</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
@@ -76483,7 +76483,7 @@
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q1057" t="n">
         <v>36</v>
@@ -76509,7 +76509,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1058" t="n">
         <v>13</v>
@@ -76529,20 +76529,20 @@
       </c>
       <c r="I1058" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1058" t="n">
-        <v>440</v>
+        <v>810</v>
       </c>
       <c r="K1058" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="L1058" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="M1058" t="n">
-        <v>3000</v>
+        <v>3509</v>
       </c>
       <c r="N1058" t="inlineStr">
         <is>
@@ -76551,11 +76551,11 @@
       </c>
       <c r="O1058" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1058" t="n">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="Q1058" t="n">
         <v>36</v>
@@ -76581,7 +76581,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1059" t="n">
         <v>13</v>
@@ -76601,20 +76601,20 @@
       </c>
       <c r="I1059" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1059" t="n">
-        <v>300</v>
+        <v>560</v>
       </c>
       <c r="K1059" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L1059" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M1059" t="n">
-        <v>2500</v>
+        <v>2911</v>
       </c>
       <c r="N1059" t="inlineStr">
         <is>
@@ -76627,7 +76627,7 @@
         </is>
       </c>
       <c r="P1059" t="n">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="Q1059" t="n">
         <v>36</v>
@@ -76653,7 +76653,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1060" t="n">
         <v>13</v>
@@ -76677,16 +76677,16 @@
         </is>
       </c>
       <c r="J1060" t="n">
-        <v>570</v>
+        <v>830</v>
       </c>
       <c r="K1060" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="L1060" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M1060" t="n">
-        <v>2623</v>
+        <v>2859</v>
       </c>
       <c r="N1060" t="inlineStr">
         <is>
@@ -76695,11 +76695,11 @@
       </c>
       <c r="O1060" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1060" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="Q1060" t="n">
         <v>36</v>
@@ -76725,7 +76725,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1061" t="n">
         <v>13</v>
@@ -76745,20 +76745,20 @@
       </c>
       <c r="I1061" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>200</v>
+        <v>970</v>
       </c>
       <c r="K1061" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="L1061" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M1061" t="n">
-        <v>2000</v>
+        <v>2709</v>
       </c>
       <c r="N1061" t="inlineStr">
         <is>
@@ -76767,11 +76767,11 @@
       </c>
       <c r="O1061" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1061" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="Q1061" t="n">
         <v>36</v>
@@ -76797,7 +76797,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1062" t="n">
         <v>13</v>
@@ -76821,16 +76821,16 @@
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="K1062" t="n">
         <v>2000</v>
       </c>
       <c r="L1062" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="M1062" t="n">
-        <v>2175</v>
+        <v>2000</v>
       </c>
       <c r="N1062" t="inlineStr">
         <is>
@@ -76839,11 +76839,11 @@
       </c>
       <c r="O1062" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1062" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q1062" t="n">
         <v>36</v>
@@ -76869,7 +76869,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E1063" t="n">
         <v>13</v>
@@ -76889,20 +76889,20 @@
       </c>
       <c r="I1063" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>910</v>
+        <v>290</v>
       </c>
       <c r="K1063" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L1063" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="M1063" t="n">
-        <v>2248</v>
+        <v>2000</v>
       </c>
       <c r="N1063" t="inlineStr">
         <is>
@@ -76911,11 +76911,11 @@
       </c>
       <c r="O1063" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="Q1063" t="n">
         <v>36</v>
@@ -76941,7 +76941,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1064" t="n">
         <v>13</v>
@@ -76965,16 +76965,16 @@
         </is>
       </c>
       <c r="J1064" t="n">
-        <v>790</v>
+        <v>440</v>
       </c>
       <c r="K1064" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L1064" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M1064" t="n">
-        <v>2104</v>
+        <v>3000</v>
       </c>
       <c r="N1064" t="inlineStr">
         <is>
@@ -76987,7 +76987,7 @@
         </is>
       </c>
       <c r="P1064" t="n">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="Q1064" t="n">
         <v>36</v>
@@ -77013,7 +77013,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1065" t="n">
         <v>13</v>
@@ -77037,16 +77037,16 @@
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>1020</v>
+        <v>300</v>
       </c>
       <c r="K1065" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="L1065" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M1065" t="n">
-        <v>1952</v>
+        <v>2500</v>
       </c>
       <c r="N1065" t="inlineStr">
         <is>
@@ -77059,7 +77059,7 @@
         </is>
       </c>
       <c r="P1065" t="n">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="Q1065" t="n">
         <v>36</v>
@@ -77085,7 +77085,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1066" t="n">
         <v>13</v>
@@ -77109,16 +77109,16 @@
         </is>
       </c>
       <c r="J1066" t="n">
-        <v>990</v>
+        <v>570</v>
       </c>
       <c r="K1066" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L1066" t="n">
-        <v>1900</v>
+        <v>2700</v>
       </c>
       <c r="M1066" t="n">
-        <v>1856</v>
+        <v>2623</v>
       </c>
       <c r="N1066" t="inlineStr">
         <is>
@@ -77131,7 +77131,7 @@
         </is>
       </c>
       <c r="P1066" t="n">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="Q1066" t="n">
         <v>36</v>
@@ -77157,7 +77157,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1067" t="n">
         <v>13</v>
@@ -77181,16 +77181,16 @@
         </is>
       </c>
       <c r="J1067" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="K1067" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L1067" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M1067" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="N1067" t="inlineStr">
         <is>
@@ -77203,7 +77203,7 @@
         </is>
       </c>
       <c r="P1067" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q1067" t="n">
         <v>36</v>
@@ -77229,7 +77229,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1068" t="n">
         <v>13</v>
@@ -77253,16 +77253,16 @@
         </is>
       </c>
       <c r="J1068" t="n">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="K1068" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L1068" t="n">
-        <v>1600</v>
+        <v>2300</v>
       </c>
       <c r="M1068" t="n">
-        <v>1600</v>
+        <v>2175</v>
       </c>
       <c r="N1068" t="inlineStr">
         <is>
@@ -77275,7 +77275,7 @@
         </is>
       </c>
       <c r="P1068" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="Q1068" t="n">
         <v>36</v>
@@ -77301,7 +77301,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1069" t="n">
         <v>13</v>
@@ -77325,16 +77325,16 @@
         </is>
       </c>
       <c r="J1069" t="n">
-        <v>790</v>
+        <v>910</v>
       </c>
       <c r="K1069" t="n">
-        <v>3700</v>
+        <v>2200</v>
       </c>
       <c r="L1069" t="n">
-        <v>4000</v>
+        <v>2300</v>
       </c>
       <c r="M1069" t="n">
-        <v>3867</v>
+        <v>2248</v>
       </c>
       <c r="N1069" t="inlineStr">
         <is>
@@ -77347,7 +77347,7 @@
         </is>
       </c>
       <c r="P1069" t="n">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="Q1069" t="n">
         <v>36</v>
@@ -77373,7 +77373,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1070" t="n">
         <v>13</v>
@@ -77397,16 +77397,16 @@
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>640</v>
+        <v>790</v>
       </c>
       <c r="K1070" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="L1070" t="n">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="M1070" t="n">
-        <v>3859</v>
+        <v>2104</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
@@ -77419,7 +77419,7 @@
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="Q1070" t="n">
         <v>36</v>
@@ -77445,7 +77445,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1071" t="n">
         <v>13</v>
@@ -77469,16 +77469,16 @@
         </is>
       </c>
       <c r="J1071" t="n">
-        <v>750</v>
+        <v>1020</v>
       </c>
       <c r="K1071" t="n">
-        <v>2800</v>
+        <v>1900</v>
       </c>
       <c r="L1071" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M1071" t="n">
-        <v>2925</v>
+        <v>1952</v>
       </c>
       <c r="N1071" t="inlineStr">
         <is>
@@ -77491,7 +77491,7 @@
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="Q1071" t="n">
         <v>36</v>
@@ -77517,7 +77517,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1072" t="n">
         <v>13</v>
@@ -77541,16 +77541,16 @@
         </is>
       </c>
       <c r="J1072" t="n">
-        <v>740</v>
+        <v>990</v>
       </c>
       <c r="K1072" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="L1072" t="n">
-        <v>3000</v>
+        <v>1900</v>
       </c>
       <c r="M1072" t="n">
-        <v>2858</v>
+        <v>1856</v>
       </c>
       <c r="N1072" t="inlineStr">
         <is>
@@ -77563,7 +77563,7 @@
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="Q1072" t="n">
         <v>36</v>
@@ -77589,7 +77589,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1073" t="n">
         <v>13</v>
@@ -77613,16 +77613,16 @@
         </is>
       </c>
       <c r="J1073" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K1073" t="n">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="L1073" t="n">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="M1073" t="n">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="N1073" t="inlineStr">
         <is>
@@ -77635,7 +77635,7 @@
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="Q1073" t="n">
         <v>36</v>
@@ -77661,7 +77661,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1074" t="n">
         <v>13</v>
@@ -77685,16 +77685,16 @@
         </is>
       </c>
       <c r="J1074" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="K1074" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="L1074" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="M1074" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
@@ -77707,7 +77707,7 @@
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="Q1074" t="n">
         <v>36</v>
@@ -77733,7 +77733,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1075" t="n">
         <v>13</v>
@@ -77757,16 +77757,16 @@
         </is>
       </c>
       <c r="J1075" t="n">
-        <v>280</v>
+        <v>790</v>
       </c>
       <c r="K1075" t="n">
-        <v>3000</v>
+        <v>3700</v>
       </c>
       <c r="L1075" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M1075" t="n">
-        <v>3000</v>
+        <v>3867</v>
       </c>
       <c r="N1075" t="inlineStr">
         <is>
@@ -77779,7 +77779,7 @@
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="Q1075" t="n">
         <v>36</v>
@@ -77805,7 +77805,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1076" t="n">
         <v>13</v>
@@ -77829,16 +77829,16 @@
         </is>
       </c>
       <c r="J1076" t="n">
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="K1076" t="n">
-        <v>2900</v>
+        <v>3700</v>
       </c>
       <c r="L1076" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M1076" t="n">
-        <v>2956</v>
+        <v>3859</v>
       </c>
       <c r="N1076" t="inlineStr">
         <is>
@@ -77851,7 +77851,7 @@
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="Q1076" t="n">
         <v>36</v>
@@ -77877,7 +77877,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1077" t="n">
         <v>13</v>
@@ -77901,16 +77901,16 @@
         </is>
       </c>
       <c r="J1077" t="n">
-        <v>660</v>
+        <v>750</v>
       </c>
       <c r="K1077" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L1077" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="M1077" t="n">
-        <v>2548</v>
+        <v>2925</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
@@ -77923,7 +77923,7 @@
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="Q1077" t="n">
         <v>36</v>
@@ -77949,7 +77949,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1078" t="n">
         <v>13</v>
@@ -77973,16 +77973,16 @@
         </is>
       </c>
       <c r="J1078" t="n">
-        <v>690</v>
+        <v>740</v>
       </c>
       <c r="K1078" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="L1078" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M1078" t="n">
-        <v>2613</v>
+        <v>2858</v>
       </c>
       <c r="N1078" t="inlineStr">
         <is>
@@ -77995,7 +77995,7 @@
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="Q1078" t="n">
         <v>36</v>
@@ -78021,7 +78021,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1079" t="n">
         <v>13</v>
@@ -78045,7 +78045,7 @@
         </is>
       </c>
       <c r="J1079" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K1079" t="n">
         <v>2200</v>
@@ -78093,7 +78093,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1080" t="n">
         <v>13</v>
@@ -78117,16 +78117,16 @@
         </is>
       </c>
       <c r="J1080" t="n">
-        <v>180</v>
+        <v>290</v>
       </c>
       <c r="K1080" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L1080" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="M1080" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="N1080" t="inlineStr">
         <is>
@@ -78139,7 +78139,7 @@
         </is>
       </c>
       <c r="P1080" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q1080" t="n">
         <v>36</v>
@@ -78165,7 +78165,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1081" t="n">
         <v>13</v>
@@ -78185,20 +78185,20 @@
       </c>
       <c r="I1081" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1081" t="n">
-        <v>680</v>
+        <v>280</v>
       </c>
       <c r="K1081" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L1081" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M1081" t="n">
-        <v>2603</v>
+        <v>3000</v>
       </c>
       <c r="N1081" t="inlineStr">
         <is>
@@ -78211,7 +78211,7 @@
         </is>
       </c>
       <c r="P1081" t="n">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="Q1081" t="n">
         <v>36</v>
@@ -78237,7 +78237,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1082" t="n">
         <v>13</v>
@@ -78257,20 +78257,20 @@
       </c>
       <c r="I1082" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1082" t="n">
-        <v>720</v>
+        <v>620</v>
       </c>
       <c r="K1082" t="n">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="L1082" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="M1082" t="n">
-        <v>2557</v>
+        <v>2956</v>
       </c>
       <c r="N1082" t="inlineStr">
         <is>
@@ -78283,7 +78283,7 @@
         </is>
       </c>
       <c r="P1082" t="n">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="Q1082" t="n">
         <v>36</v>
@@ -78309,7 +78309,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1083" t="n">
         <v>13</v>
@@ -78329,20 +78329,20 @@
       </c>
       <c r="I1083" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1083" t="n">
-        <v>460</v>
+        <v>660</v>
       </c>
       <c r="K1083" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L1083" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="M1083" t="n">
-        <v>2109</v>
+        <v>2548</v>
       </c>
       <c r="N1083" t="inlineStr">
         <is>
@@ -78355,7 +78355,7 @@
         </is>
       </c>
       <c r="P1083" t="n">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="Q1083" t="n">
         <v>36</v>
@@ -78381,7 +78381,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1084" t="n">
         <v>13</v>
@@ -78401,20 +78401,20 @@
       </c>
       <c r="I1084" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1084" t="n">
-        <v>520</v>
+        <v>690</v>
       </c>
       <c r="K1084" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L1084" t="n">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="M1084" t="n">
-        <v>2108</v>
+        <v>2613</v>
       </c>
       <c r="N1084" t="inlineStr">
         <is>
@@ -78427,7 +78427,7 @@
         </is>
       </c>
       <c r="P1084" t="n">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="Q1084" t="n">
         <v>36</v>
@@ -78453,7 +78453,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1085" t="n">
         <v>13</v>
@@ -78473,20 +78473,20 @@
       </c>
       <c r="I1085" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>830</v>
+        <v>150</v>
       </c>
       <c r="K1085" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="L1085" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="M1085" t="n">
-        <v>2606</v>
+        <v>2200</v>
       </c>
       <c r="N1085" t="inlineStr">
         <is>
@@ -78499,7 +78499,7 @@
         </is>
       </c>
       <c r="P1085" t="n">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="Q1085" t="n">
         <v>36</v>
@@ -78525,7 +78525,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1086" t="n">
         <v>13</v>
@@ -78545,20 +78545,20 @@
       </c>
       <c r="I1086" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1086" t="n">
-        <v>1020</v>
+        <v>180</v>
       </c>
       <c r="K1086" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="L1086" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="M1086" t="n">
-        <v>2506</v>
+        <v>2200</v>
       </c>
       <c r="N1086" t="inlineStr">
         <is>
@@ -78571,7 +78571,7 @@
         </is>
       </c>
       <c r="P1086" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="Q1086" t="n">
         <v>36</v>
@@ -78597,7 +78597,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1087" t="n">
         <v>13</v>
@@ -78617,20 +78617,20 @@
       </c>
       <c r="I1087" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1087" t="n">
-        <v>250</v>
+        <v>680</v>
       </c>
       <c r="K1087" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L1087" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="M1087" t="n">
-        <v>2000</v>
+        <v>2603</v>
       </c>
       <c r="N1087" t="inlineStr">
         <is>
@@ -78643,7 +78643,7 @@
         </is>
       </c>
       <c r="P1087" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="Q1087" t="n">
         <v>36</v>
@@ -78669,7 +78669,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1088" t="n">
         <v>13</v>
@@ -78689,20 +78689,20 @@
       </c>
       <c r="I1088" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1088" t="n">
-        <v>280</v>
+        <v>720</v>
       </c>
       <c r="K1088" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L1088" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="M1088" t="n">
-        <v>2000</v>
+        <v>2557</v>
       </c>
       <c r="N1088" t="inlineStr">
         <is>
@@ -78715,7 +78715,7 @@
         </is>
       </c>
       <c r="P1088" t="n">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="Q1088" t="n">
         <v>36</v>
@@ -78741,7 +78741,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1089" t="n">
         <v>13</v>
@@ -78761,20 +78761,20 @@
       </c>
       <c r="I1089" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1089" t="n">
-        <v>820</v>
+        <v>460</v>
       </c>
       <c r="K1089" t="n">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="L1089" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="M1089" t="n">
-        <v>3407</v>
+        <v>2109</v>
       </c>
       <c r="N1089" t="inlineStr">
         <is>
@@ -78787,7 +78787,7 @@
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="Q1089" t="n">
         <v>36</v>
@@ -78813,7 +78813,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1090" t="n">
         <v>13</v>
@@ -78833,20 +78833,20 @@
       </c>
       <c r="I1090" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1090" t="n">
-        <v>900</v>
+        <v>520</v>
       </c>
       <c r="K1090" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="L1090" t="n">
-        <v>3600</v>
+        <v>2200</v>
       </c>
       <c r="M1090" t="n">
-        <v>3507</v>
+        <v>2108</v>
       </c>
       <c r="N1090" t="inlineStr">
         <is>
@@ -78859,7 +78859,7 @@
         </is>
       </c>
       <c r="P1090" t="n">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="Q1090" t="n">
         <v>36</v>
@@ -78885,7 +78885,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1091" t="n">
         <v>13</v>
@@ -78905,20 +78905,20 @@
       </c>
       <c r="I1091" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1091" t="n">
-        <v>540</v>
+        <v>830</v>
       </c>
       <c r="K1091" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L1091" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="M1091" t="n">
-        <v>2907</v>
+        <v>2606</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
@@ -78931,7 +78931,7 @@
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="Q1091" t="n">
         <v>36</v>
@@ -78957,7 +78957,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1092" t="n">
         <v>13</v>
@@ -78977,20 +78977,20 @@
       </c>
       <c r="I1092" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>690</v>
+        <v>1020</v>
       </c>
       <c r="K1092" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="L1092" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="M1092" t="n">
-        <v>2904</v>
+        <v>2506</v>
       </c>
       <c r="N1092" t="inlineStr">
         <is>
@@ -79003,7 +79003,7 @@
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="Q1092" t="n">
         <v>36</v>
@@ -79029,7 +79029,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E1093" t="n">
         <v>13</v>
@@ -79049,20 +79049,20 @@
       </c>
       <c r="I1093" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1093" t="n">
-        <v>710</v>
+        <v>250</v>
       </c>
       <c r="K1093" t="n">
-        <v>3800</v>
+        <v>2000</v>
       </c>
       <c r="L1093" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M1093" t="n">
-        <v>3907</v>
+        <v>2000</v>
       </c>
       <c r="N1093" t="inlineStr">
         <is>
@@ -79075,7 +79075,7 @@
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="Q1093" t="n">
         <v>36</v>
@@ -79101,7 +79101,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E1094" t="n">
         <v>13</v>
@@ -79121,20 +79121,20 @@
       </c>
       <c r="I1094" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1094" t="n">
-        <v>700</v>
+        <v>280</v>
       </c>
       <c r="K1094" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="L1094" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M1094" t="n">
-        <v>3854</v>
+        <v>2000</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
@@ -79147,7 +79147,7 @@
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="Q1094" t="n">
         <v>36</v>
@@ -79173,7 +79173,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1095" t="n">
         <v>13</v>
@@ -79197,16 +79197,16 @@
         </is>
       </c>
       <c r="J1095" t="n">
-        <v>840</v>
+        <v>820</v>
       </c>
       <c r="K1095" t="n">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="L1095" t="n">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="M1095" t="n">
-        <v>3107</v>
+        <v>3407</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
@@ -79219,7 +79219,7 @@
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="Q1095" t="n">
         <v>36</v>
@@ -79245,7 +79245,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1096" t="n">
         <v>13</v>
@@ -79269,16 +79269,16 @@
         </is>
       </c>
       <c r="J1096" t="n">
-        <v>810</v>
+        <v>900</v>
       </c>
       <c r="K1096" t="n">
-        <v>2900</v>
+        <v>3400</v>
       </c>
       <c r="L1096" t="n">
-        <v>3300</v>
+        <v>3600</v>
       </c>
       <c r="M1096" t="n">
-        <v>3107</v>
+        <v>3507</v>
       </c>
       <c r="N1096" t="inlineStr">
         <is>
@@ -79291,7 +79291,7 @@
         </is>
       </c>
       <c r="P1096" t="n">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="Q1096" t="n">
         <v>36</v>
@@ -79317,7 +79317,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1097" t="n">
         <v>13</v>
@@ -79341,16 +79341,16 @@
         </is>
       </c>
       <c r="J1097" t="n">
-        <v>270</v>
+        <v>540</v>
       </c>
       <c r="K1097" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="L1097" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M1097" t="n">
-        <v>2200</v>
+        <v>2907</v>
       </c>
       <c r="N1097" t="inlineStr">
         <is>
@@ -79363,7 +79363,7 @@
         </is>
       </c>
       <c r="P1097" t="n">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="Q1097" t="n">
         <v>36</v>
@@ -79389,7 +79389,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1098" t="n">
         <v>13</v>
@@ -79413,16 +79413,16 @@
         </is>
       </c>
       <c r="J1098" t="n">
-        <v>310</v>
+        <v>690</v>
       </c>
       <c r="K1098" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="L1098" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M1098" t="n">
-        <v>2200</v>
+        <v>2904</v>
       </c>
       <c r="N1098" t="inlineStr">
         <is>
@@ -79435,7 +79435,7 @@
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="Q1098" t="n">
         <v>36</v>
@@ -79461,7 +79461,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1099" t="n">
         <v>13</v>
@@ -79481,20 +79481,20 @@
       </c>
       <c r="I1099" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1099" t="n">
-        <v>830</v>
+        <v>710</v>
       </c>
       <c r="K1099" t="n">
-        <v>2600</v>
+        <v>3800</v>
       </c>
       <c r="L1099" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M1099" t="n">
-        <v>2812</v>
+        <v>3907</v>
       </c>
       <c r="N1099" t="inlineStr">
         <is>
@@ -79507,7 +79507,7 @@
         </is>
       </c>
       <c r="P1099" t="n">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="Q1099" t="n">
         <v>36</v>
@@ -79533,7 +79533,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1100" t="n">
         <v>13</v>
@@ -79553,20 +79553,20 @@
       </c>
       <c r="I1100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1100" t="n">
-        <v>1020</v>
+        <v>700</v>
       </c>
       <c r="K1100" t="n">
-        <v>2500</v>
+        <v>3700</v>
       </c>
       <c r="L1100" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="M1100" t="n">
-        <v>2662</v>
+        <v>3854</v>
       </c>
       <c r="N1100" t="inlineStr">
         <is>
@@ -79579,7 +79579,7 @@
         </is>
       </c>
       <c r="P1100" t="n">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="Q1100" t="n">
         <v>36</v>
@@ -79605,7 +79605,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1101" t="n">
         <v>13</v>
@@ -79625,20 +79625,20 @@
       </c>
       <c r="I1101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1101" t="n">
-        <v>300</v>
+        <v>840</v>
       </c>
       <c r="K1101" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L1101" t="n">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="M1101" t="n">
-        <v>2000</v>
+        <v>3107</v>
       </c>
       <c r="N1101" t="inlineStr">
         <is>
@@ -79651,7 +79651,7 @@
         </is>
       </c>
       <c r="P1101" t="n">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="Q1101" t="n">
         <v>36</v>
@@ -79677,7 +79677,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1102" t="n">
         <v>13</v>
@@ -79697,20 +79697,20 @@
       </c>
       <c r="I1102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>330</v>
+        <v>810</v>
       </c>
       <c r="K1102" t="n">
-        <v>2000</v>
+        <v>2900</v>
       </c>
       <c r="L1102" t="n">
-        <v>2000</v>
+        <v>3300</v>
       </c>
       <c r="M1102" t="n">
-        <v>2000</v>
+        <v>3107</v>
       </c>
       <c r="N1102" t="inlineStr">
         <is>
@@ -79723,7 +79723,7 @@
         </is>
       </c>
       <c r="P1102" t="n">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="Q1102" t="n">
         <v>36</v>
@@ -79749,7 +79749,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E1103" t="n">
         <v>13</v>
@@ -79769,20 +79769,20 @@
       </c>
       <c r="I1103" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>440</v>
+        <v>270</v>
       </c>
       <c r="K1103" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="L1103" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="M1103" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="N1103" t="inlineStr">
         <is>
@@ -79791,11 +79791,11 @@
       </c>
       <c r="O1103" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1103" t="n">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="Q1103" t="n">
         <v>36</v>
@@ -79821,7 +79821,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E1104" t="n">
         <v>13</v>
@@ -79841,20 +79841,20 @@
       </c>
       <c r="I1104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1104" t="n">
-        <v>840</v>
+        <v>310</v>
       </c>
       <c r="K1104" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="L1104" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="M1104" t="n">
-        <v>2444</v>
+        <v>2200</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
@@ -79867,7 +79867,7 @@
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="Q1104" t="n">
         <v>36</v>
@@ -79893,7 +79893,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1105" t="n">
         <v>13</v>
@@ -79913,20 +79913,20 @@
       </c>
       <c r="I1105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1105" t="n">
-        <v>560</v>
+        <v>830</v>
       </c>
       <c r="K1105" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="L1105" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M1105" t="n">
-        <v>2089</v>
+        <v>2812</v>
       </c>
       <c r="N1105" t="inlineStr">
         <is>
@@ -79935,11 +79935,11 @@
       </c>
       <c r="O1105" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1105" t="n">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="Q1105" t="n">
         <v>36</v>
@@ -79965,7 +79965,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1106" t="n">
         <v>13</v>
@@ -79985,20 +79985,20 @@
       </c>
       <c r="I1106" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>780</v>
+        <v>1020</v>
       </c>
       <c r="K1106" t="n">
         <v>2500</v>
       </c>
       <c r="L1106" t="n">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="M1106" t="n">
-        <v>2613</v>
+        <v>2662</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
@@ -80007,11 +80007,11 @@
       </c>
       <c r="O1106" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q1106" t="n">
         <v>36</v>
@@ -80037,7 +80037,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1107" t="n">
         <v>13</v>
@@ -80057,20 +80057,20 @@
       </c>
       <c r="I1107" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1107" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="K1107" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L1107" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M1107" t="n">
-        <v>2664</v>
+        <v>2000</v>
       </c>
       <c r="N1107" t="inlineStr">
         <is>
@@ -80079,11 +80079,11 @@
       </c>
       <c r="O1107" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1107" t="n">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="Q1107" t="n">
         <v>36</v>
@@ -80109,7 +80109,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1108" t="n">
         <v>13</v>
@@ -80129,20 +80129,20 @@
       </c>
       <c r="I1108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>730</v>
+        <v>330</v>
       </c>
       <c r="K1108" t="n">
         <v>2000</v>
       </c>
       <c r="L1108" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="M1108" t="n">
-        <v>2156</v>
+        <v>2000</v>
       </c>
       <c r="N1108" t="inlineStr">
         <is>
@@ -80151,11 +80151,11 @@
       </c>
       <c r="O1108" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1108" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q1108" t="n">
         <v>36</v>
@@ -80181,7 +80181,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1109" t="n">
         <v>13</v>
@@ -80201,20 +80201,20 @@
       </c>
       <c r="I1109" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1109" t="n">
-        <v>810</v>
+        <v>440</v>
       </c>
       <c r="K1109" t="n">
-        <v>2100</v>
+        <v>2700</v>
       </c>
       <c r="L1109" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M1109" t="n">
-        <v>2267</v>
+        <v>2700</v>
       </c>
       <c r="N1109" t="inlineStr">
         <is>
@@ -80227,7 +80227,7 @@
         </is>
       </c>
       <c r="P1109" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="Q1109" t="n">
         <v>36</v>
@@ -80253,7 +80253,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1110" t="n">
         <v>13</v>
@@ -80273,20 +80273,20 @@
       </c>
       <c r="I1110" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>250</v>
+        <v>840</v>
       </c>
       <c r="K1110" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="L1110" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="M1110" t="n">
-        <v>1800</v>
+        <v>2444</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
@@ -80295,11 +80295,11 @@
       </c>
       <c r="O1110" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="Q1110" t="n">
         <v>36</v>
@@ -80325,58 +80325,490 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1111" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1111" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1111" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1111" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1111" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1111" t="n">
+        <v>560</v>
+      </c>
+      <c r="K1111" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L1111" t="n">
+        <v>2200</v>
+      </c>
+      <c r="M1111" t="n">
+        <v>2089</v>
+      </c>
+      <c r="N1111" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1111" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1111" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q1111" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1111" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1112" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1112" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1112" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E1111" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1111" t="n">
-        <v>100112037</v>
-      </c>
-      <c r="G1111" t="inlineStr">
-        <is>
-          <t>Cebollín</t>
-        </is>
-      </c>
-      <c r="H1111" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I1111" t="inlineStr">
+      <c r="E1112" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1112" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1112" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1112" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1112" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1112" t="n">
+        <v>780</v>
+      </c>
+      <c r="K1112" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L1112" t="n">
+        <v>2700</v>
+      </c>
+      <c r="M1112" t="n">
+        <v>2613</v>
+      </c>
+      <c r="N1112" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1112" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P1112" t="n">
+        <v>73</v>
+      </c>
+      <c r="Q1112" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1112" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1113" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1113" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1113" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1113" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1113" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1113" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1113" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1113" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1113" t="n">
+        <v>750</v>
+      </c>
+      <c r="K1113" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L1113" t="n">
+        <v>2800</v>
+      </c>
+      <c r="M1113" t="n">
+        <v>2664</v>
+      </c>
+      <c r="N1113" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1113" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1113" t="n">
+        <v>74</v>
+      </c>
+      <c r="Q1113" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1113" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1114" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1114" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1114" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1114" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1114" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1114" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1114" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1114" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1114" t="n">
+        <v>730</v>
+      </c>
+      <c r="K1114" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L1114" t="n">
+        <v>2300</v>
+      </c>
+      <c r="M1114" t="n">
+        <v>2156</v>
+      </c>
+      <c r="N1114" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1114" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P1114" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q1114" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1114" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1115" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1115" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1115" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1115" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1115" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1115" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1115" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1115" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1115" t="n">
+        <v>810</v>
+      </c>
+      <c r="K1115" t="n">
+        <v>2100</v>
+      </c>
+      <c r="L1115" t="n">
+        <v>2400</v>
+      </c>
+      <c r="M1115" t="n">
+        <v>2267</v>
+      </c>
+      <c r="N1115" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1115" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1115" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q1115" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1115" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1116" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1116" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1116" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1116" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1116" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1116" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1116" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1116" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1111" t="n">
+      <c r="J1116" t="n">
+        <v>250</v>
+      </c>
+      <c r="K1116" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L1116" t="n">
+        <v>1800</v>
+      </c>
+      <c r="M1116" t="n">
+        <v>1800</v>
+      </c>
+      <c r="N1116" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1116" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P1116" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q1116" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1116" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1117" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1117" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1117" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1117" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1117" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1117" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1117" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1117" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1117" t="n">
         <v>330</v>
       </c>
-      <c r="K1111" t="n">
+      <c r="K1117" t="n">
         <v>1800</v>
       </c>
-      <c r="L1111" t="n">
+      <c r="L1117" t="n">
         <v>1800</v>
       </c>
-      <c r="M1111" t="n">
+      <c r="M1117" t="n">
         <v>1800</v>
       </c>
-      <c r="N1111" t="inlineStr">
-        <is>
-          <t>$/paquete 36 unidades</t>
-        </is>
-      </c>
-      <c r="O1111" t="inlineStr">
+      <c r="N1117" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1117" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P1111" t="n">
+      <c r="P1117" t="n">
         <v>50</v>
       </c>
-      <c r="Q1111" t="n">
-        <v>36</v>
-      </c>
-      <c r="R1111" t="inlineStr">
+      <c r="Q1117" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1117" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cebollín.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cebollín.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1129"/>
+  <dimension ref="A1:R1135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77373,7 +77373,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1070" t="n">
         <v>13</v>
@@ -77393,20 +77393,20 @@
       </c>
       <c r="I1070" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>810</v>
+        <v>920</v>
       </c>
       <c r="K1070" t="n">
-        <v>3400</v>
+        <v>2100</v>
       </c>
       <c r="L1070" t="n">
-        <v>3600</v>
+        <v>2300</v>
       </c>
       <c r="M1070" t="n">
-        <v>3509</v>
+        <v>2196</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
@@ -77419,7 +77419,7 @@
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="Q1070" t="n">
         <v>36</v>
@@ -77445,7 +77445,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44270</v>
+        <v>44516</v>
       </c>
       <c r="E1071" t="n">
         <v>13</v>
@@ -77465,20 +77465,20 @@
       </c>
       <c r="I1071" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1071" t="n">
-        <v>560</v>
+        <v>900</v>
       </c>
       <c r="K1071" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="L1071" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="M1071" t="n">
-        <v>2911</v>
+        <v>2251</v>
       </c>
       <c r="N1071" t="inlineStr">
         <is>
@@ -77487,11 +77487,11 @@
       </c>
       <c r="O1071" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="Q1071" t="n">
         <v>36</v>
@@ -77517,7 +77517,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44295</v>
+        <v>44516</v>
       </c>
       <c r="E1072" t="n">
         <v>13</v>
@@ -77541,16 +77541,16 @@
         </is>
       </c>
       <c r="J1072" t="n">
-        <v>830</v>
+        <v>1040</v>
       </c>
       <c r="K1072" t="n">
-        <v>2700</v>
+        <v>1900</v>
       </c>
       <c r="L1072" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M1072" t="n">
-        <v>2859</v>
+        <v>1951</v>
       </c>
       <c r="N1072" t="inlineStr">
         <is>
@@ -77563,7 +77563,7 @@
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="Q1072" t="n">
         <v>36</v>
@@ -77589,7 +77589,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44295</v>
+        <v>44516</v>
       </c>
       <c r="E1073" t="n">
         <v>13</v>
@@ -77613,16 +77613,16 @@
         </is>
       </c>
       <c r="J1073" t="n">
-        <v>970</v>
+        <v>1020</v>
       </c>
       <c r="K1073" t="n">
-        <v>2600</v>
+        <v>1900</v>
       </c>
       <c r="L1073" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M1073" t="n">
-        <v>2709</v>
+        <v>1952</v>
       </c>
       <c r="N1073" t="inlineStr">
         <is>
@@ -77635,7 +77635,7 @@
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="Q1073" t="n">
         <v>36</v>
@@ -77661,7 +77661,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44295</v>
+        <v>44516</v>
       </c>
       <c r="E1074" t="n">
         <v>13</v>
@@ -77685,16 +77685,16 @@
         </is>
       </c>
       <c r="J1074" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K1074" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="L1074" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M1074" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
@@ -77707,7 +77707,7 @@
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="Q1074" t="n">
         <v>36</v>
@@ -77733,7 +77733,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44295</v>
+        <v>44516</v>
       </c>
       <c r="E1075" t="n">
         <v>13</v>
@@ -77757,16 +77757,16 @@
         </is>
       </c>
       <c r="J1075" t="n">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="K1075" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="L1075" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M1075" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="N1075" t="inlineStr">
         <is>
@@ -77779,7 +77779,7 @@
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="Q1075" t="n">
         <v>36</v>
@@ -77805,7 +77805,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1076" t="n">
         <v>13</v>
@@ -77825,20 +77825,20 @@
       </c>
       <c r="I1076" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1076" t="n">
-        <v>440</v>
+        <v>810</v>
       </c>
       <c r="K1076" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="L1076" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="M1076" t="n">
-        <v>3000</v>
+        <v>3509</v>
       </c>
       <c r="N1076" t="inlineStr">
         <is>
@@ -77847,11 +77847,11 @@
       </c>
       <c r="O1076" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="Q1076" t="n">
         <v>36</v>
@@ -77877,7 +77877,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44217</v>
+        <v>44270</v>
       </c>
       <c r="E1077" t="n">
         <v>13</v>
@@ -77897,20 +77897,20 @@
       </c>
       <c r="I1077" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1077" t="n">
-        <v>300</v>
+        <v>560</v>
       </c>
       <c r="K1077" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L1077" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M1077" t="n">
-        <v>2500</v>
+        <v>2911</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
@@ -77923,7 +77923,7 @@
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="Q1077" t="n">
         <v>36</v>
@@ -77949,7 +77949,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1078" t="n">
         <v>13</v>
@@ -77973,16 +77973,16 @@
         </is>
       </c>
       <c r="J1078" t="n">
-        <v>570</v>
+        <v>830</v>
       </c>
       <c r="K1078" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="L1078" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M1078" t="n">
-        <v>2623</v>
+        <v>2859</v>
       </c>
       <c r="N1078" t="inlineStr">
         <is>
@@ -77991,11 +77991,11 @@
       </c>
       <c r="O1078" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="Q1078" t="n">
         <v>36</v>
@@ -78021,7 +78021,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1079" t="n">
         <v>13</v>
@@ -78041,20 +78041,20 @@
       </c>
       <c r="I1079" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1079" t="n">
-        <v>200</v>
+        <v>970</v>
       </c>
       <c r="K1079" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="L1079" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M1079" t="n">
-        <v>2000</v>
+        <v>2709</v>
       </c>
       <c r="N1079" t="inlineStr">
         <is>
@@ -78063,11 +78063,11 @@
       </c>
       <c r="O1079" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1079" t="n">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="Q1079" t="n">
         <v>36</v>
@@ -78093,7 +78093,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44217</v>
+        <v>44295</v>
       </c>
       <c r="E1080" t="n">
         <v>13</v>
@@ -78117,16 +78117,16 @@
         </is>
       </c>
       <c r="J1080" t="n">
-        <v>480</v>
+        <v>250</v>
       </c>
       <c r="K1080" t="n">
         <v>2000</v>
       </c>
       <c r="L1080" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="M1080" t="n">
-        <v>2175</v>
+        <v>2000</v>
       </c>
       <c r="N1080" t="inlineStr">
         <is>
@@ -78135,11 +78135,11 @@
       </c>
       <c r="O1080" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1080" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q1080" t="n">
         <v>36</v>
@@ -78165,7 +78165,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44509</v>
+        <v>44295</v>
       </c>
       <c r="E1081" t="n">
         <v>13</v>
@@ -78185,20 +78185,20 @@
       </c>
       <c r="I1081" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1081" t="n">
-        <v>910</v>
+        <v>290</v>
       </c>
       <c r="K1081" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L1081" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="M1081" t="n">
-        <v>2248</v>
+        <v>2000</v>
       </c>
       <c r="N1081" t="inlineStr">
         <is>
@@ -78207,11 +78207,11 @@
       </c>
       <c r="O1081" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1081" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="Q1081" t="n">
         <v>36</v>
@@ -78237,7 +78237,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1082" t="n">
         <v>13</v>
@@ -78261,16 +78261,16 @@
         </is>
       </c>
       <c r="J1082" t="n">
-        <v>790</v>
+        <v>440</v>
       </c>
       <c r="K1082" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L1082" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M1082" t="n">
-        <v>2104</v>
+        <v>3000</v>
       </c>
       <c r="N1082" t="inlineStr">
         <is>
@@ -78283,7 +78283,7 @@
         </is>
       </c>
       <c r="P1082" t="n">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="Q1082" t="n">
         <v>36</v>
@@ -78309,7 +78309,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1083" t="n">
         <v>13</v>
@@ -78333,16 +78333,16 @@
         </is>
       </c>
       <c r="J1083" t="n">
-        <v>1020</v>
+        <v>300</v>
       </c>
       <c r="K1083" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="L1083" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M1083" t="n">
-        <v>1952</v>
+        <v>2500</v>
       </c>
       <c r="N1083" t="inlineStr">
         <is>
@@ -78355,7 +78355,7 @@
         </is>
       </c>
       <c r="P1083" t="n">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="Q1083" t="n">
         <v>36</v>
@@ -78381,7 +78381,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1084" t="n">
         <v>13</v>
@@ -78405,16 +78405,16 @@
         </is>
       </c>
       <c r="J1084" t="n">
-        <v>990</v>
+        <v>570</v>
       </c>
       <c r="K1084" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L1084" t="n">
-        <v>1900</v>
+        <v>2700</v>
       </c>
       <c r="M1084" t="n">
-        <v>1856</v>
+        <v>2623</v>
       </c>
       <c r="N1084" t="inlineStr">
         <is>
@@ -78427,7 +78427,7 @@
         </is>
       </c>
       <c r="P1084" t="n">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="Q1084" t="n">
         <v>36</v>
@@ -78453,7 +78453,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1085" t="n">
         <v>13</v>
@@ -78477,16 +78477,16 @@
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="K1085" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L1085" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M1085" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="N1085" t="inlineStr">
         <is>
@@ -78499,7 +78499,7 @@
         </is>
       </c>
       <c r="P1085" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q1085" t="n">
         <v>36</v>
@@ -78525,7 +78525,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44509</v>
+        <v>44217</v>
       </c>
       <c r="E1086" t="n">
         <v>13</v>
@@ -78549,16 +78549,16 @@
         </is>
       </c>
       <c r="J1086" t="n">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="K1086" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L1086" t="n">
-        <v>1600</v>
+        <v>2300</v>
       </c>
       <c r="M1086" t="n">
-        <v>1600</v>
+        <v>2175</v>
       </c>
       <c r="N1086" t="inlineStr">
         <is>
@@ -78571,7 +78571,7 @@
         </is>
       </c>
       <c r="P1086" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="Q1086" t="n">
         <v>36</v>
@@ -78597,7 +78597,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1087" t="n">
         <v>13</v>
@@ -78621,16 +78621,16 @@
         </is>
       </c>
       <c r="J1087" t="n">
-        <v>790</v>
+        <v>910</v>
       </c>
       <c r="K1087" t="n">
-        <v>3700</v>
+        <v>2200</v>
       </c>
       <c r="L1087" t="n">
-        <v>4000</v>
+        <v>2300</v>
       </c>
       <c r="M1087" t="n">
-        <v>3867</v>
+        <v>2248</v>
       </c>
       <c r="N1087" t="inlineStr">
         <is>
@@ -78643,7 +78643,7 @@
         </is>
       </c>
       <c r="P1087" t="n">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="Q1087" t="n">
         <v>36</v>
@@ -78669,7 +78669,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1088" t="n">
         <v>13</v>
@@ -78693,16 +78693,16 @@
         </is>
       </c>
       <c r="J1088" t="n">
-        <v>640</v>
+        <v>790</v>
       </c>
       <c r="K1088" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="L1088" t="n">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="M1088" t="n">
-        <v>3859</v>
+        <v>2104</v>
       </c>
       <c r="N1088" t="inlineStr">
         <is>
@@ -78715,7 +78715,7 @@
         </is>
       </c>
       <c r="P1088" t="n">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="Q1088" t="n">
         <v>36</v>
@@ -78741,7 +78741,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1089" t="n">
         <v>13</v>
@@ -78765,16 +78765,16 @@
         </is>
       </c>
       <c r="J1089" t="n">
-        <v>750</v>
+        <v>1020</v>
       </c>
       <c r="K1089" t="n">
-        <v>2800</v>
+        <v>1900</v>
       </c>
       <c r="L1089" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M1089" t="n">
-        <v>2925</v>
+        <v>1952</v>
       </c>
       <c r="N1089" t="inlineStr">
         <is>
@@ -78787,7 +78787,7 @@
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="Q1089" t="n">
         <v>36</v>
@@ -78813,7 +78813,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1090" t="n">
         <v>13</v>
@@ -78837,16 +78837,16 @@
         </is>
       </c>
       <c r="J1090" t="n">
-        <v>740</v>
+        <v>990</v>
       </c>
       <c r="K1090" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="L1090" t="n">
-        <v>3000</v>
+        <v>1900</v>
       </c>
       <c r="M1090" t="n">
-        <v>2858</v>
+        <v>1856</v>
       </c>
       <c r="N1090" t="inlineStr">
         <is>
@@ -78859,7 +78859,7 @@
         </is>
       </c>
       <c r="P1090" t="n">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="Q1090" t="n">
         <v>36</v>
@@ -78885,7 +78885,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1091" t="n">
         <v>13</v>
@@ -78909,16 +78909,16 @@
         </is>
       </c>
       <c r="J1091" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K1091" t="n">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="L1091" t="n">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="M1091" t="n">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
@@ -78931,7 +78931,7 @@
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="Q1091" t="n">
         <v>36</v>
@@ -78957,7 +78957,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44421</v>
+        <v>44509</v>
       </c>
       <c r="E1092" t="n">
         <v>13</v>
@@ -78981,16 +78981,16 @@
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="K1092" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="L1092" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="M1092" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="N1092" t="inlineStr">
         <is>
@@ -79003,7 +79003,7 @@
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="Q1092" t="n">
         <v>36</v>
@@ -79029,7 +79029,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1093" t="n">
         <v>13</v>
@@ -79053,16 +79053,16 @@
         </is>
       </c>
       <c r="J1093" t="n">
-        <v>280</v>
+        <v>790</v>
       </c>
       <c r="K1093" t="n">
-        <v>3000</v>
+        <v>3700</v>
       </c>
       <c r="L1093" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M1093" t="n">
-        <v>3000</v>
+        <v>3867</v>
       </c>
       <c r="N1093" t="inlineStr">
         <is>
@@ -79075,7 +79075,7 @@
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="Q1093" t="n">
         <v>36</v>
@@ -79101,7 +79101,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1094" t="n">
         <v>13</v>
@@ -79125,16 +79125,16 @@
         </is>
       </c>
       <c r="J1094" t="n">
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="K1094" t="n">
-        <v>2900</v>
+        <v>3700</v>
       </c>
       <c r="L1094" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M1094" t="n">
-        <v>2956</v>
+        <v>3859</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
@@ -79147,7 +79147,7 @@
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="Q1094" t="n">
         <v>36</v>
@@ -79173,7 +79173,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1095" t="n">
         <v>13</v>
@@ -79197,16 +79197,16 @@
         </is>
       </c>
       <c r="J1095" t="n">
-        <v>660</v>
+        <v>750</v>
       </c>
       <c r="K1095" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L1095" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="M1095" t="n">
-        <v>2548</v>
+        <v>2925</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
@@ -79219,7 +79219,7 @@
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="Q1095" t="n">
         <v>36</v>
@@ -79245,7 +79245,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1096" t="n">
         <v>13</v>
@@ -79269,16 +79269,16 @@
         </is>
       </c>
       <c r="J1096" t="n">
-        <v>690</v>
+        <v>740</v>
       </c>
       <c r="K1096" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="L1096" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M1096" t="n">
-        <v>2613</v>
+        <v>2858</v>
       </c>
       <c r="N1096" t="inlineStr">
         <is>
@@ -79291,7 +79291,7 @@
         </is>
       </c>
       <c r="P1096" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="Q1096" t="n">
         <v>36</v>
@@ -79317,7 +79317,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1097" t="n">
         <v>13</v>
@@ -79341,7 +79341,7 @@
         </is>
       </c>
       <c r="J1097" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="K1097" t="n">
         <v>2200</v>
@@ -79389,7 +79389,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44383</v>
+        <v>44421</v>
       </c>
       <c r="E1098" t="n">
         <v>13</v>
@@ -79413,16 +79413,16 @@
         </is>
       </c>
       <c r="J1098" t="n">
-        <v>180</v>
+        <v>290</v>
       </c>
       <c r="K1098" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L1098" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="M1098" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="N1098" t="inlineStr">
         <is>
@@ -79435,7 +79435,7 @@
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q1098" t="n">
         <v>36</v>
@@ -79461,7 +79461,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1099" t="n">
         <v>13</v>
@@ -79481,20 +79481,20 @@
       </c>
       <c r="I1099" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1099" t="n">
-        <v>680</v>
+        <v>280</v>
       </c>
       <c r="K1099" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L1099" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M1099" t="n">
-        <v>2603</v>
+        <v>3000</v>
       </c>
       <c r="N1099" t="inlineStr">
         <is>
@@ -79507,7 +79507,7 @@
         </is>
       </c>
       <c r="P1099" t="n">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="Q1099" t="n">
         <v>36</v>
@@ -79533,7 +79533,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1100" t="n">
         <v>13</v>
@@ -79553,20 +79553,20 @@
       </c>
       <c r="I1100" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1100" t="n">
-        <v>720</v>
+        <v>620</v>
       </c>
       <c r="K1100" t="n">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="L1100" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="M1100" t="n">
-        <v>2557</v>
+        <v>2956</v>
       </c>
       <c r="N1100" t="inlineStr">
         <is>
@@ -79579,7 +79579,7 @@
         </is>
       </c>
       <c r="P1100" t="n">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="Q1100" t="n">
         <v>36</v>
@@ -79605,7 +79605,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1101" t="n">
         <v>13</v>
@@ -79625,20 +79625,20 @@
       </c>
       <c r="I1101" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1101" t="n">
-        <v>460</v>
+        <v>660</v>
       </c>
       <c r="K1101" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L1101" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="M1101" t="n">
-        <v>2109</v>
+        <v>2548</v>
       </c>
       <c r="N1101" t="inlineStr">
         <is>
@@ -79651,7 +79651,7 @@
         </is>
       </c>
       <c r="P1101" t="n">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="Q1101" t="n">
         <v>36</v>
@@ -79677,7 +79677,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44244</v>
+        <v>44383</v>
       </c>
       <c r="E1102" t="n">
         <v>13</v>
@@ -79697,20 +79697,20 @@
       </c>
       <c r="I1102" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>520</v>
+        <v>690</v>
       </c>
       <c r="K1102" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L1102" t="n">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="M1102" t="n">
-        <v>2108</v>
+        <v>2613</v>
       </c>
       <c r="N1102" t="inlineStr">
         <is>
@@ -79723,7 +79723,7 @@
         </is>
       </c>
       <c r="P1102" t="n">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="Q1102" t="n">
         <v>36</v>
@@ -79749,7 +79749,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1103" t="n">
         <v>13</v>
@@ -79769,20 +79769,20 @@
       </c>
       <c r="I1103" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>830</v>
+        <v>150</v>
       </c>
       <c r="K1103" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="L1103" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="M1103" t="n">
-        <v>2606</v>
+        <v>2200</v>
       </c>
       <c r="N1103" t="inlineStr">
         <is>
@@ -79795,7 +79795,7 @@
         </is>
       </c>
       <c r="P1103" t="n">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="Q1103" t="n">
         <v>36</v>
@@ -79821,7 +79821,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44307</v>
+        <v>44383</v>
       </c>
       <c r="E1104" t="n">
         <v>13</v>
@@ -79841,20 +79841,20 @@
       </c>
       <c r="I1104" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1104" t="n">
-        <v>1020</v>
+        <v>180</v>
       </c>
       <c r="K1104" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="L1104" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="M1104" t="n">
-        <v>2506</v>
+        <v>2200</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
@@ -79867,7 +79867,7 @@
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="Q1104" t="n">
         <v>36</v>
@@ -79893,7 +79893,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1105" t="n">
         <v>13</v>
@@ -79913,20 +79913,20 @@
       </c>
       <c r="I1105" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1105" t="n">
-        <v>250</v>
+        <v>680</v>
       </c>
       <c r="K1105" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L1105" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="M1105" t="n">
-        <v>2000</v>
+        <v>2603</v>
       </c>
       <c r="N1105" t="inlineStr">
         <is>
@@ -79939,7 +79939,7 @@
         </is>
       </c>
       <c r="P1105" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="Q1105" t="n">
         <v>36</v>
@@ -79965,7 +79965,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44307</v>
+        <v>44244</v>
       </c>
       <c r="E1106" t="n">
         <v>13</v>
@@ -79985,20 +79985,20 @@
       </c>
       <c r="I1106" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>280</v>
+        <v>720</v>
       </c>
       <c r="K1106" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L1106" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="M1106" t="n">
-        <v>2000</v>
+        <v>2557</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
@@ -80011,7 +80011,7 @@
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="Q1106" t="n">
         <v>36</v>
@@ -80037,7 +80037,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1107" t="n">
         <v>13</v>
@@ -80057,20 +80057,20 @@
       </c>
       <c r="I1107" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1107" t="n">
-        <v>820</v>
+        <v>460</v>
       </c>
       <c r="K1107" t="n">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="L1107" t="n">
-        <v>3500</v>
+        <v>2200</v>
       </c>
       <c r="M1107" t="n">
-        <v>3407</v>
+        <v>2109</v>
       </c>
       <c r="N1107" t="inlineStr">
         <is>
@@ -80083,7 +80083,7 @@
         </is>
       </c>
       <c r="P1107" t="n">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="Q1107" t="n">
         <v>36</v>
@@ -80109,7 +80109,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44273</v>
+        <v>44244</v>
       </c>
       <c r="E1108" t="n">
         <v>13</v>
@@ -80129,20 +80129,20 @@
       </c>
       <c r="I1108" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>900</v>
+        <v>520</v>
       </c>
       <c r="K1108" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="L1108" t="n">
-        <v>3600</v>
+        <v>2200</v>
       </c>
       <c r="M1108" t="n">
-        <v>3507</v>
+        <v>2108</v>
       </c>
       <c r="N1108" t="inlineStr">
         <is>
@@ -80155,7 +80155,7 @@
         </is>
       </c>
       <c r="P1108" t="n">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="Q1108" t="n">
         <v>36</v>
@@ -80181,7 +80181,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1109" t="n">
         <v>13</v>
@@ -80201,20 +80201,20 @@
       </c>
       <c r="I1109" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1109" t="n">
-        <v>540</v>
+        <v>830</v>
       </c>
       <c r="K1109" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L1109" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="M1109" t="n">
-        <v>2907</v>
+        <v>2606</v>
       </c>
       <c r="N1109" t="inlineStr">
         <is>
@@ -80227,7 +80227,7 @@
         </is>
       </c>
       <c r="P1109" t="n">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="Q1109" t="n">
         <v>36</v>
@@ -80253,7 +80253,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44273</v>
+        <v>44307</v>
       </c>
       <c r="E1110" t="n">
         <v>13</v>
@@ -80273,20 +80273,20 @@
       </c>
       <c r="I1110" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>690</v>
+        <v>1020</v>
       </c>
       <c r="K1110" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="L1110" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="M1110" t="n">
-        <v>2904</v>
+        <v>2506</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
@@ -80299,7 +80299,7 @@
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="Q1110" t="n">
         <v>36</v>
@@ -80325,7 +80325,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E1111" t="n">
         <v>13</v>
@@ -80345,20 +80345,20 @@
       </c>
       <c r="I1111" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1111" t="n">
-        <v>710</v>
+        <v>250</v>
       </c>
       <c r="K1111" t="n">
-        <v>3800</v>
+        <v>2000</v>
       </c>
       <c r="L1111" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M1111" t="n">
-        <v>3907</v>
+        <v>2000</v>
       </c>
       <c r="N1111" t="inlineStr">
         <is>
@@ -80371,7 +80371,7 @@
         </is>
       </c>
       <c r="P1111" t="n">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="Q1111" t="n">
         <v>36</v>
@@ -80397,7 +80397,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44433</v>
+        <v>44307</v>
       </c>
       <c r="E1112" t="n">
         <v>13</v>
@@ -80417,20 +80417,20 @@
       </c>
       <c r="I1112" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1112" t="n">
-        <v>700</v>
+        <v>280</v>
       </c>
       <c r="K1112" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="L1112" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M1112" t="n">
-        <v>3854</v>
+        <v>2000</v>
       </c>
       <c r="N1112" t="inlineStr">
         <is>
@@ -80443,7 +80443,7 @@
         </is>
       </c>
       <c r="P1112" t="n">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="Q1112" t="n">
         <v>36</v>
@@ -80469,7 +80469,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1113" t="n">
         <v>13</v>
@@ -80493,16 +80493,16 @@
         </is>
       </c>
       <c r="J1113" t="n">
-        <v>840</v>
+        <v>820</v>
       </c>
       <c r="K1113" t="n">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="L1113" t="n">
-        <v>3200</v>
+        <v>3500</v>
       </c>
       <c r="M1113" t="n">
-        <v>3107</v>
+        <v>3407</v>
       </c>
       <c r="N1113" t="inlineStr">
         <is>
@@ -80515,7 +80515,7 @@
         </is>
       </c>
       <c r="P1113" t="n">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="Q1113" t="n">
         <v>36</v>
@@ -80541,7 +80541,7 @@
         </is>
       </c>
       <c r="D1114" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1114" t="n">
         <v>13</v>
@@ -80565,16 +80565,16 @@
         </is>
       </c>
       <c r="J1114" t="n">
-        <v>810</v>
+        <v>900</v>
       </c>
       <c r="K1114" t="n">
-        <v>2900</v>
+        <v>3400</v>
       </c>
       <c r="L1114" t="n">
-        <v>3300</v>
+        <v>3600</v>
       </c>
       <c r="M1114" t="n">
-        <v>3107</v>
+        <v>3507</v>
       </c>
       <c r="N1114" t="inlineStr">
         <is>
@@ -80587,7 +80587,7 @@
         </is>
       </c>
       <c r="P1114" t="n">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="Q1114" t="n">
         <v>36</v>
@@ -80613,7 +80613,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1115" t="n">
         <v>13</v>
@@ -80637,16 +80637,16 @@
         </is>
       </c>
       <c r="J1115" t="n">
-        <v>270</v>
+        <v>540</v>
       </c>
       <c r="K1115" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="L1115" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M1115" t="n">
-        <v>2200</v>
+        <v>2907</v>
       </c>
       <c r="N1115" t="inlineStr">
         <is>
@@ -80659,7 +80659,7 @@
         </is>
       </c>
       <c r="P1115" t="n">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="Q1115" t="n">
         <v>36</v>
@@ -80685,7 +80685,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44433</v>
+        <v>44273</v>
       </c>
       <c r="E1116" t="n">
         <v>13</v>
@@ -80709,16 +80709,16 @@
         </is>
       </c>
       <c r="J1116" t="n">
-        <v>310</v>
+        <v>690</v>
       </c>
       <c r="K1116" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="L1116" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M1116" t="n">
-        <v>2200</v>
+        <v>2904</v>
       </c>
       <c r="N1116" t="inlineStr">
         <is>
@@ -80731,7 +80731,7 @@
         </is>
       </c>
       <c r="P1116" t="n">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="Q1116" t="n">
         <v>36</v>
@@ -80757,7 +80757,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1117" t="n">
         <v>13</v>
@@ -80777,20 +80777,20 @@
       </c>
       <c r="I1117" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1117" t="n">
-        <v>830</v>
+        <v>710</v>
       </c>
       <c r="K1117" t="n">
-        <v>2600</v>
+        <v>3800</v>
       </c>
       <c r="L1117" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M1117" t="n">
-        <v>2812</v>
+        <v>3907</v>
       </c>
       <c r="N1117" t="inlineStr">
         <is>
@@ -80803,7 +80803,7 @@
         </is>
       </c>
       <c r="P1117" t="n">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="Q1117" t="n">
         <v>36</v>
@@ -80829,7 +80829,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1118" t="n">
         <v>13</v>
@@ -80849,20 +80849,20 @@
       </c>
       <c r="I1118" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1118" t="n">
-        <v>1020</v>
+        <v>700</v>
       </c>
       <c r="K1118" t="n">
-        <v>2500</v>
+        <v>3700</v>
       </c>
       <c r="L1118" t="n">
-        <v>2800</v>
+        <v>4000</v>
       </c>
       <c r="M1118" t="n">
-        <v>2662</v>
+        <v>3854</v>
       </c>
       <c r="N1118" t="inlineStr">
         <is>
@@ -80875,7 +80875,7 @@
         </is>
       </c>
       <c r="P1118" t="n">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="Q1118" t="n">
         <v>36</v>
@@ -80901,7 +80901,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1119" t="n">
         <v>13</v>
@@ -80921,20 +80921,20 @@
       </c>
       <c r="I1119" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1119" t="n">
-        <v>300</v>
+        <v>840</v>
       </c>
       <c r="K1119" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L1119" t="n">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="M1119" t="n">
-        <v>2000</v>
+        <v>3107</v>
       </c>
       <c r="N1119" t="inlineStr">
         <is>
@@ -80947,7 +80947,7 @@
         </is>
       </c>
       <c r="P1119" t="n">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="Q1119" t="n">
         <v>36</v>
@@ -80973,7 +80973,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44302</v>
+        <v>44433</v>
       </c>
       <c r="E1120" t="n">
         <v>13</v>
@@ -80993,20 +80993,20 @@
       </c>
       <c r="I1120" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1120" t="n">
-        <v>330</v>
+        <v>810</v>
       </c>
       <c r="K1120" t="n">
-        <v>2000</v>
+        <v>2900</v>
       </c>
       <c r="L1120" t="n">
-        <v>2000</v>
+        <v>3300</v>
       </c>
       <c r="M1120" t="n">
-        <v>2000</v>
+        <v>3107</v>
       </c>
       <c r="N1120" t="inlineStr">
         <is>
@@ -81019,7 +81019,7 @@
         </is>
       </c>
       <c r="P1120" t="n">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="Q1120" t="n">
         <v>36</v>
@@ -81045,7 +81045,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E1121" t="n">
         <v>13</v>
@@ -81065,20 +81065,20 @@
       </c>
       <c r="I1121" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1121" t="n">
-        <v>440</v>
+        <v>270</v>
       </c>
       <c r="K1121" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="L1121" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="M1121" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="N1121" t="inlineStr">
         <is>
@@ -81087,11 +81087,11 @@
       </c>
       <c r="O1121" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1121" t="n">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="Q1121" t="n">
         <v>36</v>
@@ -81117,7 +81117,7 @@
         </is>
       </c>
       <c r="D1122" s="2" t="n">
-        <v>44179</v>
+        <v>44433</v>
       </c>
       <c r="E1122" t="n">
         <v>13</v>
@@ -81137,20 +81137,20 @@
       </c>
       <c r="I1122" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1122" t="n">
-        <v>840</v>
+        <v>310</v>
       </c>
       <c r="K1122" t="n">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="L1122" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="M1122" t="n">
-        <v>2444</v>
+        <v>2200</v>
       </c>
       <c r="N1122" t="inlineStr">
         <is>
@@ -81163,7 +81163,7 @@
         </is>
       </c>
       <c r="P1122" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="Q1122" t="n">
         <v>36</v>
@@ -81189,7 +81189,7 @@
         </is>
       </c>
       <c r="D1123" s="2" t="n">
-        <v>44179</v>
+        <v>44302</v>
       </c>
       <c r="E1123" t="n">
         <v>13</v>
@@ -81209,20 +81209,20 @@
       </c>
       <c r="I1123" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1123" t="n">
-        <v>560</v>
+        <v>830</v>
       </c>
       <c r="K1123" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="L1123" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M1123" t="n">
-        <v>2089</v>
+        <v>2812</v>
       </c>
       <c r="N1123" t="inlineStr">
         <is>
@@ -81231,11 +81231,11 @@
       </c>
       <c r="O1123" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1123" t="n">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="Q1123" t="n">
         <v>36</v>
@@ -81261,7 +81261,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1124" t="n">
         <v>13</v>
@@ -81281,20 +81281,20 @@
       </c>
       <c r="I1124" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1124" t="n">
-        <v>780</v>
+        <v>1020</v>
       </c>
       <c r="K1124" t="n">
         <v>2500</v>
       </c>
       <c r="L1124" t="n">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="M1124" t="n">
-        <v>2613</v>
+        <v>2662</v>
       </c>
       <c r="N1124" t="inlineStr">
         <is>
@@ -81303,11 +81303,11 @@
       </c>
       <c r="O1124" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1124" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q1124" t="n">
         <v>36</v>
@@ -81333,7 +81333,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1125" t="n">
         <v>13</v>
@@ -81353,20 +81353,20 @@
       </c>
       <c r="I1125" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1125" t="n">
-        <v>750</v>
+        <v>300</v>
       </c>
       <c r="K1125" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L1125" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M1125" t="n">
-        <v>2664</v>
+        <v>2000</v>
       </c>
       <c r="N1125" t="inlineStr">
         <is>
@@ -81375,11 +81375,11 @@
       </c>
       <c r="O1125" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1125" t="n">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="Q1125" t="n">
         <v>36</v>
@@ -81405,7 +81405,7 @@
         </is>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>44491</v>
+        <v>44302</v>
       </c>
       <c r="E1126" t="n">
         <v>13</v>
@@ -81425,20 +81425,20 @@
       </c>
       <c r="I1126" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1126" t="n">
-        <v>730</v>
+        <v>330</v>
       </c>
       <c r="K1126" t="n">
         <v>2000</v>
       </c>
       <c r="L1126" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="M1126" t="n">
-        <v>2156</v>
+        <v>2000</v>
       </c>
       <c r="N1126" t="inlineStr">
         <is>
@@ -81447,11 +81447,11 @@
       </c>
       <c r="O1126" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1126" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q1126" t="n">
         <v>36</v>
@@ -81477,7 +81477,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1127" t="n">
         <v>13</v>
@@ -81497,20 +81497,20 @@
       </c>
       <c r="I1127" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1127" t="n">
-        <v>810</v>
+        <v>440</v>
       </c>
       <c r="K1127" t="n">
-        <v>2100</v>
+        <v>2700</v>
       </c>
       <c r="L1127" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M1127" t="n">
-        <v>2267</v>
+        <v>2700</v>
       </c>
       <c r="N1127" t="inlineStr">
         <is>
@@ -81523,7 +81523,7 @@
         </is>
       </c>
       <c r="P1127" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="Q1127" t="n">
         <v>36</v>
@@ -81549,7 +81549,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44491</v>
+        <v>44179</v>
       </c>
       <c r="E1128" t="n">
         <v>13</v>
@@ -81569,20 +81569,20 @@
       </c>
       <c r="I1128" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1128" t="n">
-        <v>250</v>
+        <v>840</v>
       </c>
       <c r="K1128" t="n">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="L1128" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="M1128" t="n">
-        <v>1800</v>
+        <v>2444</v>
       </c>
       <c r="N1128" t="inlineStr">
         <is>
@@ -81591,11 +81591,11 @@
       </c>
       <c r="O1128" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1128" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="Q1128" t="n">
         <v>36</v>
@@ -81621,58 +81621,490 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
+        <v>44179</v>
+      </c>
+      <c r="E1129" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1129" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1129" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1129" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1129" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1129" t="n">
+        <v>560</v>
+      </c>
+      <c r="K1129" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L1129" t="n">
+        <v>2200</v>
+      </c>
+      <c r="M1129" t="n">
+        <v>2089</v>
+      </c>
+      <c r="N1129" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1129" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1129" t="n">
+        <v>58</v>
+      </c>
+      <c r="Q1129" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1129" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1130" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1130" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1130" s="2" t="n">
         <v>44491</v>
       </c>
-      <c r="E1129" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1129" t="n">
-        <v>100112037</v>
-      </c>
-      <c r="G1129" t="inlineStr">
-        <is>
-          <t>Cebollín</t>
-        </is>
-      </c>
-      <c r="H1129" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I1129" t="inlineStr">
+      <c r="E1130" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1130" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1130" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1130" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1130" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1130" t="n">
+        <v>780</v>
+      </c>
+      <c r="K1130" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L1130" t="n">
+        <v>2700</v>
+      </c>
+      <c r="M1130" t="n">
+        <v>2613</v>
+      </c>
+      <c r="N1130" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1130" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P1130" t="n">
+        <v>73</v>
+      </c>
+      <c r="Q1130" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1130" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1131" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1131" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1131" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1131" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1131" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1131" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1131" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1131" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1131" t="n">
+        <v>750</v>
+      </c>
+      <c r="K1131" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L1131" t="n">
+        <v>2800</v>
+      </c>
+      <c r="M1131" t="n">
+        <v>2664</v>
+      </c>
+      <c r="N1131" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1131" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1131" t="n">
+        <v>74</v>
+      </c>
+      <c r="Q1131" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1131" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1132" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1132" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1132" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1132" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1132" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1132" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1132" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1132" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1132" t="n">
+        <v>730</v>
+      </c>
+      <c r="K1132" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L1132" t="n">
+        <v>2300</v>
+      </c>
+      <c r="M1132" t="n">
+        <v>2156</v>
+      </c>
+      <c r="N1132" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1132" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P1132" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q1132" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1132" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1133" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1133" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1133" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1133" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1133" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1133" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1133" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1133" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1133" t="n">
+        <v>810</v>
+      </c>
+      <c r="K1133" t="n">
+        <v>2100</v>
+      </c>
+      <c r="L1133" t="n">
+        <v>2400</v>
+      </c>
+      <c r="M1133" t="n">
+        <v>2267</v>
+      </c>
+      <c r="N1133" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1133" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1133" t="n">
+        <v>63</v>
+      </c>
+      <c r="Q1133" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1133" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1134" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1134" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1134" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1134" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1134" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1134" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1134" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1134" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1129" t="n">
+      <c r="J1134" t="n">
+        <v>250</v>
+      </c>
+      <c r="K1134" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L1134" t="n">
+        <v>1800</v>
+      </c>
+      <c r="M1134" t="n">
+        <v>1800</v>
+      </c>
+      <c r="N1134" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1134" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P1134" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q1134" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1134" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1135" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1135" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1135" s="2" t="n">
+        <v>44491</v>
+      </c>
+      <c r="E1135" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1135" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1135" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1135" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1135" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1135" t="n">
         <v>330</v>
       </c>
-      <c r="K1129" t="n">
+      <c r="K1135" t="n">
         <v>1800</v>
       </c>
-      <c r="L1129" t="n">
+      <c r="L1135" t="n">
         <v>1800</v>
       </c>
-      <c r="M1129" t="n">
+      <c r="M1135" t="n">
         <v>1800</v>
       </c>
-      <c r="N1129" t="inlineStr">
-        <is>
-          <t>$/paquete 36 unidades</t>
-        </is>
-      </c>
-      <c r="O1129" t="inlineStr">
+      <c r="N1135" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1135" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P1129" t="n">
+      <c r="P1135" t="n">
         <v>50</v>
       </c>
-      <c r="Q1129" t="n">
-        <v>36</v>
-      </c>
-      <c r="R1129" t="inlineStr">
+      <c r="Q1135" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1135" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cebollín.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cebollín.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1153"/>
+  <dimension ref="A1:R1159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70749,7 +70749,7 @@
         </is>
       </c>
       <c r="D978" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E978" t="n">
         <v>13</v>
@@ -70769,20 +70769,20 @@
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J978" t="n">
-        <v>810</v>
+        <v>610</v>
       </c>
       <c r="K978" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L978" t="n">
         <v>2600</v>
       </c>
-      <c r="L978" t="n">
-        <v>2700</v>
-      </c>
       <c r="M978" t="n">
-        <v>2646</v>
+        <v>2557</v>
       </c>
       <c r="N978" t="inlineStr">
         <is>
@@ -70795,7 +70795,7 @@
         </is>
       </c>
       <c r="P978" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Q978" t="n">
         <v>36</v>
@@ -70821,7 +70821,7 @@
         </is>
       </c>
       <c r="D979" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E979" t="n">
         <v>13</v>
@@ -70841,11 +70841,11 @@
       </c>
       <c r="I979" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J979" t="n">
-        <v>720</v>
+        <v>500</v>
       </c>
       <c r="K979" t="n">
         <v>2500</v>
@@ -70854,7 +70854,7 @@
         <v>2600</v>
       </c>
       <c r="M979" t="n">
-        <v>2546</v>
+        <v>2554</v>
       </c>
       <c r="N979" t="inlineStr">
         <is>
@@ -70893,7 +70893,7 @@
         </is>
       </c>
       <c r="D980" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E980" t="n">
         <v>13</v>
@@ -70913,20 +70913,20 @@
       </c>
       <c r="I980" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J980" t="n">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="K980" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L980" t="n">
         <v>2200</v>
       </c>
-      <c r="L980" t="n">
-        <v>2300</v>
-      </c>
       <c r="M980" t="n">
-        <v>2253</v>
+        <v>2115</v>
       </c>
       <c r="N980" t="inlineStr">
         <is>
@@ -70939,7 +70939,7 @@
         </is>
       </c>
       <c r="P980" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q980" t="n">
         <v>36</v>
@@ -70965,7 +70965,7 @@
         </is>
       </c>
       <c r="D981" s="2" t="n">
-        <v>44246</v>
+        <v>44522</v>
       </c>
       <c r="E981" t="n">
         <v>13</v>
@@ -70985,20 +70985,20 @@
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J981" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="K981" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L981" t="n">
         <v>2200</v>
       </c>
       <c r="M981" t="n">
-        <v>2200</v>
+        <v>2105</v>
       </c>
       <c r="N981" t="inlineStr">
         <is>
@@ -71011,7 +71011,7 @@
         </is>
       </c>
       <c r="P981" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q981" t="n">
         <v>36</v>
@@ -71037,7 +71037,7 @@
         </is>
       </c>
       <c r="D982" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E982" t="n">
         <v>13</v>
@@ -71057,20 +71057,20 @@
       </c>
       <c r="I982" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J982" t="n">
-        <v>780</v>
+        <v>250</v>
       </c>
       <c r="K982" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L982" t="n">
-        <v>2700</v>
+        <v>1800</v>
       </c>
       <c r="M982" t="n">
-        <v>2613</v>
+        <v>1800</v>
       </c>
       <c r="N982" t="inlineStr">
         <is>
@@ -71083,7 +71083,7 @@
         </is>
       </c>
       <c r="P982" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="Q982" t="n">
         <v>36</v>
@@ -71109,7 +71109,7 @@
         </is>
       </c>
       <c r="D983" s="2" t="n">
-        <v>44491</v>
+        <v>44522</v>
       </c>
       <c r="E983" t="n">
         <v>13</v>
@@ -71129,20 +71129,20 @@
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J983" t="n">
-        <v>750</v>
+        <v>150</v>
       </c>
       <c r="K983" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="L983" t="n">
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="M983" t="n">
-        <v>2664</v>
+        <v>1700</v>
       </c>
       <c r="N983" t="inlineStr">
         <is>
@@ -71155,7 +71155,7 @@
         </is>
       </c>
       <c r="P983" t="n">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="Q983" t="n">
         <v>36</v>
@@ -71181,7 +71181,7 @@
         </is>
       </c>
       <c r="D984" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E984" t="n">
         <v>13</v>
@@ -71205,16 +71205,16 @@
         </is>
       </c>
       <c r="J984" t="n">
-        <v>730</v>
+        <v>810</v>
       </c>
       <c r="K984" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="L984" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="M984" t="n">
-        <v>2156</v>
+        <v>2646</v>
       </c>
       <c r="N984" t="inlineStr">
         <is>
@@ -71227,7 +71227,7 @@
         </is>
       </c>
       <c r="P984" t="n">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="Q984" t="n">
         <v>36</v>
@@ -71253,7 +71253,7 @@
         </is>
       </c>
       <c r="D985" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E985" t="n">
         <v>13</v>
@@ -71277,16 +71277,16 @@
         </is>
       </c>
       <c r="J985" t="n">
-        <v>810</v>
+        <v>720</v>
       </c>
       <c r="K985" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="L985" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="M985" t="n">
-        <v>2267</v>
+        <v>2546</v>
       </c>
       <c r="N985" t="inlineStr">
         <is>
@@ -71299,7 +71299,7 @@
         </is>
       </c>
       <c r="P985" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="Q985" t="n">
         <v>36</v>
@@ -71325,7 +71325,7 @@
         </is>
       </c>
       <c r="D986" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E986" t="n">
         <v>13</v>
@@ -71349,16 +71349,16 @@
         </is>
       </c>
       <c r="J986" t="n">
-        <v>250</v>
+        <v>470</v>
       </c>
       <c r="K986" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="L986" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="M986" t="n">
-        <v>1800</v>
+        <v>2253</v>
       </c>
       <c r="N986" t="inlineStr">
         <is>
@@ -71371,7 +71371,7 @@
         </is>
       </c>
       <c r="P986" t="n">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="Q986" t="n">
         <v>36</v>
@@ -71397,7 +71397,7 @@
         </is>
       </c>
       <c r="D987" s="2" t="n">
-        <v>44491</v>
+        <v>44246</v>
       </c>
       <c r="E987" t="n">
         <v>13</v>
@@ -71421,16 +71421,16 @@
         </is>
       </c>
       <c r="J987" t="n">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="K987" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="L987" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="M987" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="N987" t="inlineStr">
         <is>
@@ -71443,7 +71443,7 @@
         </is>
       </c>
       <c r="P987" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="Q987" t="n">
         <v>36</v>
@@ -71469,7 +71469,7 @@
         </is>
       </c>
       <c r="D988" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E988" t="n">
         <v>13</v>
@@ -71489,20 +71489,20 @@
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J988" t="n">
-        <v>820</v>
+        <v>780</v>
       </c>
       <c r="K988" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="L988" t="n">
-        <v>3600</v>
+        <v>2700</v>
       </c>
       <c r="M988" t="n">
-        <v>3507</v>
+        <v>2613</v>
       </c>
       <c r="N988" t="inlineStr">
         <is>
@@ -71515,7 +71515,7 @@
         </is>
       </c>
       <c r="P988" t="n">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="Q988" t="n">
         <v>36</v>
@@ -71541,7 +71541,7 @@
         </is>
       </c>
       <c r="D989" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E989" t="n">
         <v>13</v>
@@ -71561,20 +71561,20 @@
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J989" t="n">
-        <v>830</v>
+        <v>750</v>
       </c>
       <c r="K989" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="L989" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="M989" t="n">
-        <v>3454</v>
+        <v>2664</v>
       </c>
       <c r="N989" t="inlineStr">
         <is>
@@ -71587,7 +71587,7 @@
         </is>
       </c>
       <c r="P989" t="n">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="Q989" t="n">
         <v>36</v>
@@ -71613,7 +71613,7 @@
         </is>
       </c>
       <c r="D990" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E990" t="n">
         <v>13</v>
@@ -71633,20 +71633,20 @@
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J990" t="n">
-        <v>580</v>
+        <v>730</v>
       </c>
       <c r="K990" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L990" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="M990" t="n">
-        <v>2910</v>
+        <v>2156</v>
       </c>
       <c r="N990" t="inlineStr">
         <is>
@@ -71659,7 +71659,7 @@
         </is>
       </c>
       <c r="P990" t="n">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="Q990" t="n">
         <v>36</v>
@@ -71685,7 +71685,7 @@
         </is>
       </c>
       <c r="D991" s="2" t="n">
-        <v>44272</v>
+        <v>44491</v>
       </c>
       <c r="E991" t="n">
         <v>13</v>
@@ -71705,20 +71705,20 @@
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J991" t="n">
-        <v>640</v>
+        <v>810</v>
       </c>
       <c r="K991" t="n">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="L991" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M991" t="n">
-        <v>2922</v>
+        <v>2267</v>
       </c>
       <c r="N991" t="inlineStr">
         <is>
@@ -71731,7 +71731,7 @@
         </is>
       </c>
       <c r="P991" t="n">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="Q991" t="n">
         <v>36</v>
@@ -71757,7 +71757,7 @@
         </is>
       </c>
       <c r="D992" s="2" t="n">
-        <v>44305</v>
+        <v>44491</v>
       </c>
       <c r="E992" t="n">
         <v>13</v>
@@ -71777,20 +71777,20 @@
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J992" t="n">
-        <v>820</v>
+        <v>250</v>
       </c>
       <c r="K992" t="n">
-        <v>2600</v>
+        <v>1800</v>
       </c>
       <c r="L992" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="M992" t="n">
-        <v>2829</v>
+        <v>1800</v>
       </c>
       <c r="N992" t="inlineStr">
         <is>
@@ -71803,7 +71803,7 @@
         </is>
       </c>
       <c r="P992" t="n">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="Q992" t="n">
         <v>36</v>
@@ -71829,7 +71829,7 @@
         </is>
       </c>
       <c r="D993" s="2" t="n">
-        <v>44305</v>
+        <v>44491</v>
       </c>
       <c r="E993" t="n">
         <v>13</v>
@@ -71849,20 +71849,20 @@
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J993" t="n">
-        <v>690</v>
+        <v>330</v>
       </c>
       <c r="K993" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L993" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="M993" t="n">
-        <v>2670</v>
+        <v>1800</v>
       </c>
       <c r="N993" t="inlineStr">
         <is>
@@ -71875,7 +71875,7 @@
         </is>
       </c>
       <c r="P993" t="n">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="Q993" t="n">
         <v>36</v>
@@ -71901,7 +71901,7 @@
         </is>
       </c>
       <c r="D994" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E994" t="n">
         <v>13</v>
@@ -71921,20 +71921,20 @@
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J994" t="n">
-        <v>300</v>
+        <v>820</v>
       </c>
       <c r="K994" t="n">
-        <v>2000</v>
+        <v>3400</v>
       </c>
       <c r="L994" t="n">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="M994" t="n">
-        <v>2000</v>
+        <v>3507</v>
       </c>
       <c r="N994" t="inlineStr">
         <is>
@@ -71947,7 +71947,7 @@
         </is>
       </c>
       <c r="P994" t="n">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="Q994" t="n">
         <v>36</v>
@@ -71973,7 +71973,7 @@
         </is>
       </c>
       <c r="D995" s="2" t="n">
-        <v>44305</v>
+        <v>44272</v>
       </c>
       <c r="E995" t="n">
         <v>13</v>
@@ -71993,20 +71993,20 @@
       </c>
       <c r="I995" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J995" t="n">
-        <v>260</v>
+        <v>830</v>
       </c>
       <c r="K995" t="n">
-        <v>2000</v>
+        <v>3400</v>
       </c>
       <c r="L995" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M995" t="n">
-        <v>2000</v>
+        <v>3454</v>
       </c>
       <c r="N995" t="inlineStr">
         <is>
@@ -72019,7 +72019,7 @@
         </is>
       </c>
       <c r="P995" t="n">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="Q995" t="n">
         <v>36</v>
@@ -72045,7 +72045,7 @@
         </is>
       </c>
       <c r="D996" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E996" t="n">
         <v>13</v>
@@ -72065,20 +72065,20 @@
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J996" t="n">
-        <v>630</v>
+        <v>580</v>
       </c>
       <c r="K996" t="n">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="L996" t="n">
         <v>3000</v>
       </c>
       <c r="M996" t="n">
-        <v>2800</v>
+        <v>2910</v>
       </c>
       <c r="N996" t="inlineStr">
         <is>
@@ -72087,11 +72087,11 @@
       </c>
       <c r="O996" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P996" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Q996" t="n">
         <v>36</v>
@@ -72117,7 +72117,7 @@
         </is>
       </c>
       <c r="D997" s="2" t="n">
-        <v>44166</v>
+        <v>44272</v>
       </c>
       <c r="E997" t="n">
         <v>13</v>
@@ -72137,20 +72137,20 @@
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J997" t="n">
-        <v>920</v>
+        <v>640</v>
       </c>
       <c r="K997" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="L997" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M997" t="n">
-        <v>2405</v>
+        <v>2922</v>
       </c>
       <c r="N997" t="inlineStr">
         <is>
@@ -72163,7 +72163,7 @@
         </is>
       </c>
       <c r="P997" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="Q997" t="n">
         <v>36</v>
@@ -72189,7 +72189,7 @@
         </is>
       </c>
       <c r="D998" s="2" t="n">
-        <v>44166</v>
+        <v>44305</v>
       </c>
       <c r="E998" t="n">
         <v>13</v>
@@ -72209,20 +72209,20 @@
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J998" t="n">
-        <v>600</v>
+        <v>820</v>
       </c>
       <c r="K998" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="L998" t="n">
-        <v>2100</v>
+        <v>3000</v>
       </c>
       <c r="M998" t="n">
-        <v>2033</v>
+        <v>2829</v>
       </c>
       <c r="N998" t="inlineStr">
         <is>
@@ -72231,11 +72231,11 @@
       </c>
       <c r="O998" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P998" t="n">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="Q998" t="n">
         <v>36</v>
@@ -72261,7 +72261,7 @@
         </is>
       </c>
       <c r="D999" s="2" t="n">
-        <v>44225</v>
+        <v>44305</v>
       </c>
       <c r="E999" t="n">
         <v>13</v>
@@ -72281,20 +72281,20 @@
       </c>
       <c r="I999" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J999" t="n">
-        <v>440</v>
+        <v>690</v>
       </c>
       <c r="K999" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L999" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M999" t="n">
-        <v>3000</v>
+        <v>2670</v>
       </c>
       <c r="N999" t="inlineStr">
         <is>
@@ -72303,11 +72303,11 @@
       </c>
       <c r="O999" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P999" t="n">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="Q999" t="n">
         <v>36</v>
@@ -72333,7 +72333,7 @@
         </is>
       </c>
       <c r="D1000" s="2" t="n">
-        <v>44225</v>
+        <v>44305</v>
       </c>
       <c r="E1000" t="n">
         <v>13</v>
@@ -72353,20 +72353,20 @@
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1000" t="n">
         <v>300</v>
       </c>
       <c r="K1000" t="n">
-        <v>2900</v>
+        <v>2000</v>
       </c>
       <c r="L1000" t="n">
-        <v>2900</v>
+        <v>2000</v>
       </c>
       <c r="M1000" t="n">
-        <v>2900</v>
+        <v>2000</v>
       </c>
       <c r="N1000" t="inlineStr">
         <is>
@@ -72375,11 +72375,11 @@
       </c>
       <c r="O1000" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="Q1000" t="n">
         <v>36</v>
@@ -72405,7 +72405,7 @@
         </is>
       </c>
       <c r="D1001" s="2" t="n">
-        <v>44225</v>
+        <v>44305</v>
       </c>
       <c r="E1001" t="n">
         <v>13</v>
@@ -72425,20 +72425,20 @@
       </c>
       <c r="I1001" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1001" t="n">
-        <v>620</v>
+        <v>260</v>
       </c>
       <c r="K1001" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L1001" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="M1001" t="n">
-        <v>2613</v>
+        <v>2000</v>
       </c>
       <c r="N1001" t="inlineStr">
         <is>
@@ -72447,11 +72447,11 @@
       </c>
       <c r="O1001" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="Q1001" t="n">
         <v>36</v>
@@ -72477,7 +72477,7 @@
         </is>
       </c>
       <c r="D1002" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E1002" t="n">
         <v>13</v>
@@ -72497,20 +72497,20 @@
       </c>
       <c r="I1002" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1002" t="n">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="K1002" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="L1002" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M1002" t="n">
-        <v>2578</v>
+        <v>2800</v>
       </c>
       <c r="N1002" t="inlineStr">
         <is>
@@ -72523,7 +72523,7 @@
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="Q1002" t="n">
         <v>36</v>
@@ -72549,7 +72549,7 @@
         </is>
       </c>
       <c r="D1003" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E1003" t="n">
         <v>13</v>
@@ -72569,20 +72569,20 @@
       </c>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1003" t="n">
-        <v>370</v>
+        <v>920</v>
       </c>
       <c r="K1003" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="L1003" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M1003" t="n">
-        <v>2119</v>
+        <v>2405</v>
       </c>
       <c r="N1003" t="inlineStr">
         <is>
@@ -72591,11 +72591,11 @@
       </c>
       <c r="O1003" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="Q1003" t="n">
         <v>36</v>
@@ -72621,7 +72621,7 @@
         </is>
       </c>
       <c r="D1004" s="2" t="n">
-        <v>44225</v>
+        <v>44166</v>
       </c>
       <c r="E1004" t="n">
         <v>13</v>
@@ -72645,16 +72645,16 @@
         </is>
       </c>
       <c r="J1004" t="n">
-        <v>430</v>
+        <v>600</v>
       </c>
       <c r="K1004" t="n">
         <v>2000</v>
       </c>
       <c r="L1004" t="n">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="M1004" t="n">
-        <v>2116</v>
+        <v>2033</v>
       </c>
       <c r="N1004" t="inlineStr">
         <is>
@@ -72667,7 +72667,7 @@
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Q1004" t="n">
         <v>36</v>
@@ -72693,7 +72693,7 @@
         </is>
       </c>
       <c r="D1005" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E1005" t="n">
         <v>13</v>
@@ -72717,16 +72717,16 @@
         </is>
       </c>
       <c r="J1005" t="n">
-        <v>660</v>
+        <v>440</v>
       </c>
       <c r="K1005" t="n">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="L1005" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M1005" t="n">
-        <v>3368</v>
+        <v>3000</v>
       </c>
       <c r="N1005" t="inlineStr">
         <is>
@@ -72739,7 +72739,7 @@
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="Q1005" t="n">
         <v>36</v>
@@ -72765,7 +72765,7 @@
         </is>
       </c>
       <c r="D1006" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E1006" t="n">
         <v>13</v>
@@ -72789,16 +72789,16 @@
         </is>
       </c>
       <c r="J1006" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="K1006" t="n">
-        <v>3300</v>
+        <v>2900</v>
       </c>
       <c r="L1006" t="n">
-        <v>3500</v>
+        <v>2900</v>
       </c>
       <c r="M1006" t="n">
-        <v>3405</v>
+        <v>2900</v>
       </c>
       <c r="N1006" t="inlineStr">
         <is>
@@ -72811,7 +72811,7 @@
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="Q1006" t="n">
         <v>36</v>
@@ -72837,7 +72837,7 @@
         </is>
       </c>
       <c r="D1007" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E1007" t="n">
         <v>13</v>
@@ -72861,16 +72861,16 @@
         </is>
       </c>
       <c r="J1007" t="n">
-        <v>760</v>
+        <v>620</v>
       </c>
       <c r="K1007" t="n">
         <v>2500</v>
       </c>
       <c r="L1007" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="M1007" t="n">
-        <v>2658</v>
+        <v>2613</v>
       </c>
       <c r="N1007" t="inlineStr">
         <is>
@@ -72883,7 +72883,7 @@
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q1007" t="n">
         <v>36</v>
@@ -72909,7 +72909,7 @@
         </is>
       </c>
       <c r="D1008" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E1008" t="n">
         <v>13</v>
@@ -72933,16 +72933,16 @@
         </is>
       </c>
       <c r="J1008" t="n">
-        <v>720</v>
+        <v>640</v>
       </c>
       <c r="K1008" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="L1008" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="M1008" t="n">
-        <v>2662</v>
+        <v>2578</v>
       </c>
       <c r="N1008" t="inlineStr">
         <is>
@@ -72955,7 +72955,7 @@
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q1008" t="n">
         <v>36</v>
@@ -72981,7 +72981,7 @@
         </is>
       </c>
       <c r="D1009" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E1009" t="n">
         <v>13</v>
@@ -73005,16 +73005,16 @@
         </is>
       </c>
       <c r="J1009" t="n">
-        <v>250</v>
+        <v>370</v>
       </c>
       <c r="K1009" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L1009" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="M1009" t="n">
-        <v>1800</v>
+        <v>2119</v>
       </c>
       <c r="N1009" t="inlineStr">
         <is>
@@ -73027,7 +73027,7 @@
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="Q1009" t="n">
         <v>36</v>
@@ -73053,7 +73053,7 @@
         </is>
       </c>
       <c r="D1010" s="2" t="n">
-        <v>44447</v>
+        <v>44225</v>
       </c>
       <c r="E1010" t="n">
         <v>13</v>
@@ -73077,16 +73077,16 @@
         </is>
       </c>
       <c r="J1010" t="n">
-        <v>200</v>
+        <v>430</v>
       </c>
       <c r="K1010" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L1010" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="M1010" t="n">
-        <v>1800</v>
+        <v>2116</v>
       </c>
       <c r="N1010" t="inlineStr">
         <is>
@@ -73099,7 +73099,7 @@
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="Q1010" t="n">
         <v>36</v>
@@ -73125,7 +73125,7 @@
         </is>
       </c>
       <c r="D1011" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E1011" t="n">
         <v>13</v>
@@ -73149,16 +73149,16 @@
         </is>
       </c>
       <c r="J1011" t="n">
-        <v>720</v>
+        <v>660</v>
       </c>
       <c r="K1011" t="n">
-        <v>3800</v>
+        <v>3200</v>
       </c>
       <c r="L1011" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M1011" t="n">
-        <v>3906</v>
+        <v>3368</v>
       </c>
       <c r="N1011" t="inlineStr">
         <is>
@@ -73171,7 +73171,7 @@
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="Q1011" t="n">
         <v>36</v>
@@ -73197,7 +73197,7 @@
         </is>
       </c>
       <c r="D1012" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E1012" t="n">
         <v>13</v>
@@ -73221,16 +73221,16 @@
         </is>
       </c>
       <c r="J1012" t="n">
-        <v>810</v>
+        <v>650</v>
       </c>
       <c r="K1012" t="n">
-        <v>3700</v>
+        <v>3300</v>
       </c>
       <c r="L1012" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M1012" t="n">
-        <v>3852</v>
+        <v>3405</v>
       </c>
       <c r="N1012" t="inlineStr">
         <is>
@@ -73243,7 +73243,7 @@
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="Q1012" t="n">
         <v>36</v>
@@ -73269,7 +73269,7 @@
         </is>
       </c>
       <c r="D1013" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E1013" t="n">
         <v>13</v>
@@ -73293,16 +73293,16 @@
         </is>
       </c>
       <c r="J1013" t="n">
-        <v>800</v>
+        <v>760</v>
       </c>
       <c r="K1013" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L1013" t="n">
-        <v>3300</v>
+        <v>2800</v>
       </c>
       <c r="M1013" t="n">
-        <v>3161</v>
+        <v>2658</v>
       </c>
       <c r="N1013" t="inlineStr">
         <is>
@@ -73315,7 +73315,7 @@
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="Q1013" t="n">
         <v>36</v>
@@ -73341,7 +73341,7 @@
         </is>
       </c>
       <c r="D1014" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E1014" t="n">
         <v>13</v>
@@ -73365,16 +73365,16 @@
         </is>
       </c>
       <c r="J1014" t="n">
-        <v>920</v>
+        <v>720</v>
       </c>
       <c r="K1014" t="n">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="L1014" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="M1014" t="n">
-        <v>3047</v>
+        <v>2662</v>
       </c>
       <c r="N1014" t="inlineStr">
         <is>
@@ -73387,7 +73387,7 @@
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="Q1014" t="n">
         <v>36</v>
@@ -73413,7 +73413,7 @@
         </is>
       </c>
       <c r="D1015" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E1015" t="n">
         <v>13</v>
@@ -73440,13 +73440,13 @@
         <v>250</v>
       </c>
       <c r="K1015" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L1015" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="M1015" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="N1015" t="inlineStr">
         <is>
@@ -73459,7 +73459,7 @@
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="Q1015" t="n">
         <v>36</v>
@@ -73485,7 +73485,7 @@
         </is>
       </c>
       <c r="D1016" s="2" t="n">
-        <v>44425</v>
+        <v>44447</v>
       </c>
       <c r="E1016" t="n">
         <v>13</v>
@@ -73509,16 +73509,16 @@
         </is>
       </c>
       <c r="J1016" t="n">
-        <v>320</v>
+        <v>200</v>
       </c>
       <c r="K1016" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="L1016" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="M1016" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="N1016" t="inlineStr">
         <is>
@@ -73531,7 +73531,7 @@
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="Q1016" t="n">
         <v>36</v>
@@ -73557,7 +73557,7 @@
         </is>
       </c>
       <c r="D1017" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E1017" t="n">
         <v>13</v>
@@ -73577,20 +73577,20 @@
       </c>
       <c r="I1017" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1017" t="n">
-        <v>1120</v>
+        <v>720</v>
       </c>
       <c r="K1017" t="n">
-        <v>2300</v>
+        <v>3800</v>
       </c>
       <c r="L1017" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M1017" t="n">
-        <v>2421</v>
+        <v>3906</v>
       </c>
       <c r="N1017" t="inlineStr">
         <is>
@@ -73603,7 +73603,7 @@
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="Q1017" t="n">
         <v>36</v>
@@ -73629,7 +73629,7 @@
         </is>
       </c>
       <c r="D1018" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E1018" t="n">
         <v>13</v>
@@ -73649,20 +73649,20 @@
       </c>
       <c r="I1018" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1018" t="n">
-        <v>890</v>
+        <v>810</v>
       </c>
       <c r="K1018" t="n">
-        <v>2400</v>
+        <v>3700</v>
       </c>
       <c r="L1018" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="M1018" t="n">
-        <v>2517</v>
+        <v>3852</v>
       </c>
       <c r="N1018" t="inlineStr">
         <is>
@@ -73675,7 +73675,7 @@
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="Q1018" t="n">
         <v>36</v>
@@ -73701,7 +73701,7 @@
         </is>
       </c>
       <c r="D1019" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E1019" t="n">
         <v>13</v>
@@ -73721,20 +73721,20 @@
       </c>
       <c r="I1019" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1019" t="n">
-        <v>250</v>
+        <v>800</v>
       </c>
       <c r="K1019" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="L1019" t="n">
-        <v>1800</v>
+        <v>3300</v>
       </c>
       <c r="M1019" t="n">
-        <v>1800</v>
+        <v>3161</v>
       </c>
       <c r="N1019" t="inlineStr">
         <is>
@@ -73747,7 +73747,7 @@
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="Q1019" t="n">
         <v>36</v>
@@ -73773,7 +73773,7 @@
         </is>
       </c>
       <c r="D1020" s="2" t="n">
-        <v>44315</v>
+        <v>44425</v>
       </c>
       <c r="E1020" t="n">
         <v>13</v>
@@ -73793,20 +73793,20 @@
       </c>
       <c r="I1020" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1020" t="n">
-        <v>250</v>
+        <v>920</v>
       </c>
       <c r="K1020" t="n">
-        <v>1800</v>
+        <v>2900</v>
       </c>
       <c r="L1020" t="n">
-        <v>1800</v>
+        <v>3200</v>
       </c>
       <c r="M1020" t="n">
-        <v>1800</v>
+        <v>3047</v>
       </c>
       <c r="N1020" t="inlineStr">
         <is>
@@ -73819,7 +73819,7 @@
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="Q1020" t="n">
         <v>36</v>
@@ -73845,7 +73845,7 @@
         </is>
       </c>
       <c r="D1021" s="2" t="n">
-        <v>44348</v>
+        <v>44425</v>
       </c>
       <c r="E1021" t="n">
         <v>13</v>
@@ -73865,20 +73865,20 @@
       </c>
       <c r="I1021" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1021" t="n">
-        <v>440</v>
+        <v>250</v>
       </c>
       <c r="K1021" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="L1021" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="M1021" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="N1021" t="inlineStr">
         <is>
@@ -73891,7 +73891,7 @@
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="Q1021" t="n">
         <v>36</v>
@@ -73917,7 +73917,7 @@
         </is>
       </c>
       <c r="D1022" s="2" t="n">
-        <v>44348</v>
+        <v>44425</v>
       </c>
       <c r="E1022" t="n">
         <v>13</v>
@@ -73937,11 +73937,11 @@
       </c>
       <c r="I1022" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1022" t="n">
-        <v>450</v>
+        <v>320</v>
       </c>
       <c r="K1022" t="n">
         <v>2500</v>
@@ -73989,7 +73989,7 @@
         </is>
       </c>
       <c r="D1023" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E1023" t="n">
         <v>13</v>
@@ -74013,16 +74013,16 @@
         </is>
       </c>
       <c r="J1023" t="n">
-        <v>860</v>
+        <v>1120</v>
       </c>
       <c r="K1023" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="L1023" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="M1023" t="n">
-        <v>2164</v>
+        <v>2421</v>
       </c>
       <c r="N1023" t="inlineStr">
         <is>
@@ -74035,7 +74035,7 @@
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="Q1023" t="n">
         <v>36</v>
@@ -74061,7 +74061,7 @@
         </is>
       </c>
       <c r="D1024" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E1024" t="n">
         <v>13</v>
@@ -74085,16 +74085,16 @@
         </is>
       </c>
       <c r="J1024" t="n">
-        <v>870</v>
+        <v>890</v>
       </c>
       <c r="K1024" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L1024" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="M1024" t="n">
-        <v>2092</v>
+        <v>2517</v>
       </c>
       <c r="N1024" t="inlineStr">
         <is>
@@ -74107,7 +74107,7 @@
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="Q1024" t="n">
         <v>36</v>
@@ -74133,7 +74133,7 @@
         </is>
       </c>
       <c r="D1025" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E1025" t="n">
         <v>13</v>
@@ -74157,7 +74157,7 @@
         </is>
       </c>
       <c r="J1025" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K1025" t="n">
         <v>1800</v>
@@ -74205,7 +74205,7 @@
         </is>
       </c>
       <c r="D1026" s="2" t="n">
-        <v>44348</v>
+        <v>44315</v>
       </c>
       <c r="E1026" t="n">
         <v>13</v>
@@ -74229,7 +74229,7 @@
         </is>
       </c>
       <c r="J1026" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="K1026" t="n">
         <v>1800</v>
@@ -74277,7 +74277,7 @@
         </is>
       </c>
       <c r="D1027" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E1027" t="n">
         <v>13</v>
@@ -74301,16 +74301,16 @@
         </is>
       </c>
       <c r="J1027" t="n">
-        <v>330</v>
+        <v>440</v>
       </c>
       <c r="K1027" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="L1027" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="M1027" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="N1027" t="inlineStr">
         <is>
@@ -74323,7 +74323,7 @@
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="Q1027" t="n">
         <v>36</v>
@@ -74349,7 +74349,7 @@
         </is>
       </c>
       <c r="D1028" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E1028" t="n">
         <v>13</v>
@@ -74373,16 +74373,16 @@
         </is>
       </c>
       <c r="J1028" t="n">
-        <v>290</v>
+        <v>450</v>
       </c>
       <c r="K1028" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L1028" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M1028" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N1028" t="inlineStr">
         <is>
@@ -74395,7 +74395,7 @@
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="Q1028" t="n">
         <v>36</v>
@@ -74421,7 +74421,7 @@
         </is>
       </c>
       <c r="D1029" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E1029" t="n">
         <v>13</v>
@@ -74445,16 +74445,16 @@
         </is>
       </c>
       <c r="J1029" t="n">
-        <v>830</v>
+        <v>860</v>
       </c>
       <c r="K1029" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L1029" t="n">
         <v>2300</v>
       </c>
-      <c r="L1029" t="n">
-        <v>2500</v>
-      </c>
       <c r="M1029" t="n">
-        <v>2406</v>
+        <v>2164</v>
       </c>
       <c r="N1029" t="inlineStr">
         <is>
@@ -74467,7 +74467,7 @@
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="Q1029" t="n">
         <v>36</v>
@@ -74493,7 +74493,7 @@
         </is>
       </c>
       <c r="D1030" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E1030" t="n">
         <v>13</v>
@@ -74517,16 +74517,16 @@
         </is>
       </c>
       <c r="J1030" t="n">
-        <v>690</v>
+        <v>870</v>
       </c>
       <c r="K1030" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="L1030" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="M1030" t="n">
-        <v>2507</v>
+        <v>2092</v>
       </c>
       <c r="N1030" t="inlineStr">
         <is>
@@ -74539,7 +74539,7 @@
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="Q1030" t="n">
         <v>36</v>
@@ -74565,7 +74565,7 @@
         </is>
       </c>
       <c r="D1031" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E1031" t="n">
         <v>13</v>
@@ -74589,16 +74589,16 @@
         </is>
       </c>
       <c r="J1031" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K1031" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L1031" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="M1031" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="N1031" t="inlineStr">
         <is>
@@ -74611,7 +74611,7 @@
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Q1031" t="n">
         <v>36</v>
@@ -74637,7 +74637,7 @@
         </is>
       </c>
       <c r="D1032" s="2" t="n">
-        <v>44322</v>
+        <v>44348</v>
       </c>
       <c r="E1032" t="n">
         <v>13</v>
@@ -74661,16 +74661,16 @@
         </is>
       </c>
       <c r="J1032" t="n">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="K1032" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L1032" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="M1032" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="N1032" t="inlineStr">
         <is>
@@ -74683,7 +74683,7 @@
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Q1032" t="n">
         <v>36</v>
@@ -74709,7 +74709,7 @@
         </is>
       </c>
       <c r="D1033" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E1033" t="n">
         <v>13</v>
@@ -74733,16 +74733,16 @@
         </is>
       </c>
       <c r="J1033" t="n">
-        <v>780</v>
+        <v>330</v>
       </c>
       <c r="K1033" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L1033" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="M1033" t="n">
-        <v>2513</v>
+        <v>3000</v>
       </c>
       <c r="N1033" t="inlineStr">
         <is>
@@ -74755,7 +74755,7 @@
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="Q1033" t="n">
         <v>36</v>
@@ -74781,7 +74781,7 @@
         </is>
       </c>
       <c r="D1034" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E1034" t="n">
         <v>13</v>
@@ -74805,16 +74805,16 @@
         </is>
       </c>
       <c r="J1034" t="n">
-        <v>790</v>
+        <v>290</v>
       </c>
       <c r="K1034" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L1034" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="M1034" t="n">
-        <v>2494</v>
+        <v>3000</v>
       </c>
       <c r="N1034" t="inlineStr">
         <is>
@@ -74827,7 +74827,7 @@
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="Q1034" t="n">
         <v>36</v>
@@ -74853,7 +74853,7 @@
         </is>
       </c>
       <c r="D1035" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E1035" t="n">
         <v>13</v>
@@ -74877,16 +74877,16 @@
         </is>
       </c>
       <c r="J1035" t="n">
-        <v>710</v>
+        <v>830</v>
       </c>
       <c r="K1035" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="L1035" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M1035" t="n">
-        <v>2107</v>
+        <v>2406</v>
       </c>
       <c r="N1035" t="inlineStr">
         <is>
@@ -74899,7 +74899,7 @@
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="Q1035" t="n">
         <v>36</v>
@@ -74925,7 +74925,7 @@
         </is>
       </c>
       <c r="D1036" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E1036" t="n">
         <v>13</v>
@@ -74949,16 +74949,16 @@
         </is>
       </c>
       <c r="J1036" t="n">
-        <v>760</v>
+        <v>690</v>
       </c>
       <c r="K1036" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L1036" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="M1036" t="n">
-        <v>2108</v>
+        <v>2507</v>
       </c>
       <c r="N1036" t="inlineStr">
         <is>
@@ -74971,7 +74971,7 @@
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Q1036" t="n">
         <v>36</v>
@@ -74997,7 +74997,7 @@
         </is>
       </c>
       <c r="D1037" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E1037" t="n">
         <v>13</v>
@@ -75021,16 +75021,16 @@
         </is>
       </c>
       <c r="J1037" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="K1037" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="L1037" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M1037" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="N1037" t="inlineStr">
         <is>
@@ -75043,7 +75043,7 @@
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="Q1037" t="n">
         <v>36</v>
@@ -75069,7 +75069,7 @@
         </is>
       </c>
       <c r="D1038" s="2" t="n">
-        <v>44495</v>
+        <v>44322</v>
       </c>
       <c r="E1038" t="n">
         <v>13</v>
@@ -75093,16 +75093,16 @@
         </is>
       </c>
       <c r="J1038" t="n">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="K1038" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="L1038" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M1038" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="N1038" t="inlineStr">
         <is>
@@ -75115,7 +75115,7 @@
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="Q1038" t="n">
         <v>36</v>
@@ -75141,7 +75141,7 @@
         </is>
       </c>
       <c r="D1039" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E1039" t="n">
         <v>13</v>
@@ -75165,16 +75165,16 @@
         </is>
       </c>
       <c r="J1039" t="n">
-        <v>690</v>
+        <v>780</v>
       </c>
       <c r="K1039" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L1039" t="n">
-        <v>3200</v>
+        <v>2600</v>
       </c>
       <c r="M1039" t="n">
-        <v>3072</v>
+        <v>2513</v>
       </c>
       <c r="N1039" t="inlineStr">
         <is>
@@ -75187,7 +75187,7 @@
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="Q1039" t="n">
         <v>36</v>
@@ -75213,7 +75213,7 @@
         </is>
       </c>
       <c r="D1040" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E1040" t="n">
         <v>13</v>
@@ -75237,16 +75237,16 @@
         </is>
       </c>
       <c r="J1040" t="n">
-        <v>390</v>
+        <v>790</v>
       </c>
       <c r="K1040" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L1040" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="M1040" t="n">
-        <v>3000</v>
+        <v>2494</v>
       </c>
       <c r="N1040" t="inlineStr">
         <is>
@@ -75259,7 +75259,7 @@
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="Q1040" t="n">
         <v>36</v>
@@ -75285,7 +75285,7 @@
         </is>
       </c>
       <c r="D1041" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E1041" t="n">
         <v>13</v>
@@ -75309,16 +75309,16 @@
         </is>
       </c>
       <c r="J1041" t="n">
-        <v>1010</v>
+        <v>710</v>
       </c>
       <c r="K1041" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L1041" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="M1041" t="n">
-        <v>2579</v>
+        <v>2107</v>
       </c>
       <c r="N1041" t="inlineStr">
         <is>
@@ -75331,7 +75331,7 @@
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="Q1041" t="n">
         <v>36</v>
@@ -75357,7 +75357,7 @@
         </is>
       </c>
       <c r="D1042" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E1042" t="n">
         <v>13</v>
@@ -75381,16 +75381,16 @@
         </is>
       </c>
       <c r="J1042" t="n">
-        <v>510</v>
+        <v>760</v>
       </c>
       <c r="K1042" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L1042" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="M1042" t="n">
-        <v>2610</v>
+        <v>2108</v>
       </c>
       <c r="N1042" t="inlineStr">
         <is>
@@ -75403,7 +75403,7 @@
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="Q1042" t="n">
         <v>36</v>
@@ -75429,7 +75429,7 @@
         </is>
       </c>
       <c r="D1043" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E1043" t="n">
         <v>13</v>
@@ -75453,16 +75453,16 @@
         </is>
       </c>
       <c r="J1043" t="n">
-        <v>740</v>
+        <v>250</v>
       </c>
       <c r="K1043" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="L1043" t="n">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="M1043" t="n">
-        <v>2151</v>
+        <v>1700</v>
       </c>
       <c r="N1043" t="inlineStr">
         <is>
@@ -75475,7 +75475,7 @@
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="Q1043" t="n">
         <v>36</v>
@@ -75501,7 +75501,7 @@
         </is>
       </c>
       <c r="D1044" s="2" t="n">
-        <v>44232</v>
+        <v>44495</v>
       </c>
       <c r="E1044" t="n">
         <v>13</v>
@@ -75525,16 +75525,16 @@
         </is>
       </c>
       <c r="J1044" t="n">
-        <v>390</v>
+        <v>280</v>
       </c>
       <c r="K1044" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="L1044" t="n">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="M1044" t="n">
-        <v>2123</v>
+        <v>1700</v>
       </c>
       <c r="N1044" t="inlineStr">
         <is>
@@ -75547,7 +75547,7 @@
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="Q1044" t="n">
         <v>36</v>
@@ -75573,7 +75573,7 @@
         </is>
       </c>
       <c r="D1045" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E1045" t="n">
         <v>13</v>
@@ -75597,16 +75597,16 @@
         </is>
       </c>
       <c r="J1045" t="n">
-        <v>370</v>
+        <v>690</v>
       </c>
       <c r="K1045" t="n">
         <v>3000</v>
       </c>
       <c r="L1045" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="M1045" t="n">
-        <v>3000</v>
+        <v>3072</v>
       </c>
       <c r="N1045" t="inlineStr">
         <is>
@@ -75619,7 +75619,7 @@
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q1045" t="n">
         <v>36</v>
@@ -75645,7 +75645,7 @@
         </is>
       </c>
       <c r="D1046" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E1046" t="n">
         <v>13</v>
@@ -75669,7 +75669,7 @@
         </is>
       </c>
       <c r="J1046" t="n">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="K1046" t="n">
         <v>3000</v>
@@ -75717,7 +75717,7 @@
         </is>
       </c>
       <c r="D1047" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E1047" t="n">
         <v>13</v>
@@ -75741,16 +75741,16 @@
         </is>
       </c>
       <c r="J1047" t="n">
-        <v>770</v>
+        <v>1010</v>
       </c>
       <c r="K1047" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="L1047" t="n">
         <v>2600</v>
       </c>
       <c r="M1047" t="n">
-        <v>2517</v>
+        <v>2579</v>
       </c>
       <c r="N1047" t="inlineStr">
         <is>
@@ -75763,7 +75763,7 @@
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q1047" t="n">
         <v>36</v>
@@ -75789,7 +75789,7 @@
         </is>
       </c>
       <c r="D1048" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E1048" t="n">
         <v>13</v>
@@ -75813,16 +75813,16 @@
         </is>
       </c>
       <c r="J1048" t="n">
-        <v>750</v>
+        <v>510</v>
       </c>
       <c r="K1048" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="L1048" t="n">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="M1048" t="n">
-        <v>2523</v>
+        <v>2610</v>
       </c>
       <c r="N1048" t="inlineStr">
         <is>
@@ -75835,7 +75835,7 @@
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q1048" t="n">
         <v>36</v>
@@ -75861,7 +75861,7 @@
         </is>
       </c>
       <c r="D1049" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E1049" t="n">
         <v>13</v>
@@ -75885,16 +75885,16 @@
         </is>
       </c>
       <c r="J1049" t="n">
-        <v>280</v>
+        <v>740</v>
       </c>
       <c r="K1049" t="n">
         <v>2000</v>
       </c>
       <c r="L1049" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="M1049" t="n">
-        <v>2000</v>
+        <v>2151</v>
       </c>
       <c r="N1049" t="inlineStr">
         <is>
@@ -75907,7 +75907,7 @@
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q1049" t="n">
         <v>36</v>
@@ -75933,7 +75933,7 @@
         </is>
       </c>
       <c r="D1050" s="2" t="n">
-        <v>44327</v>
+        <v>44232</v>
       </c>
       <c r="E1050" t="n">
         <v>13</v>
@@ -75957,16 +75957,16 @@
         </is>
       </c>
       <c r="J1050" t="n">
-        <v>250</v>
+        <v>390</v>
       </c>
       <c r="K1050" t="n">
         <v>2000</v>
       </c>
       <c r="L1050" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="M1050" t="n">
-        <v>2000</v>
+        <v>2123</v>
       </c>
       <c r="N1050" t="inlineStr">
         <is>
@@ -75979,7 +75979,7 @@
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q1050" t="n">
         <v>36</v>
@@ -76005,7 +76005,7 @@
         </is>
       </c>
       <c r="D1051" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E1051" t="n">
         <v>13</v>
@@ -76029,16 +76029,16 @@
         </is>
       </c>
       <c r="J1051" t="n">
-        <v>810</v>
+        <v>370</v>
       </c>
       <c r="K1051" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L1051" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="M1051" t="n">
-        <v>2247</v>
+        <v>3000</v>
       </c>
       <c r="N1051" t="inlineStr">
         <is>
@@ -76051,7 +76051,7 @@
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="Q1051" t="n">
         <v>36</v>
@@ -76077,7 +76077,7 @@
         </is>
       </c>
       <c r="D1052" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E1052" t="n">
         <v>13</v>
@@ -76101,16 +76101,16 @@
         </is>
       </c>
       <c r="J1052" t="n">
-        <v>920</v>
+        <v>420</v>
       </c>
       <c r="K1052" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L1052" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="M1052" t="n">
-        <v>2153</v>
+        <v>3000</v>
       </c>
       <c r="N1052" t="inlineStr">
         <is>
@@ -76123,7 +76123,7 @@
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="Q1052" t="n">
         <v>36</v>
@@ -76149,7 +76149,7 @@
         </is>
       </c>
       <c r="D1053" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E1053" t="n">
         <v>13</v>
@@ -76173,16 +76173,16 @@
         </is>
       </c>
       <c r="J1053" t="n">
-        <v>1010</v>
+        <v>770</v>
       </c>
       <c r="K1053" t="n">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="L1053" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="M1053" t="n">
-        <v>1954</v>
+        <v>2517</v>
       </c>
       <c r="N1053" t="inlineStr">
         <is>
@@ -76195,7 +76195,7 @@
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="Q1053" t="n">
         <v>36</v>
@@ -76221,7 +76221,7 @@
         </is>
       </c>
       <c r="D1054" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E1054" t="n">
         <v>13</v>
@@ -76245,16 +76245,16 @@
         </is>
       </c>
       <c r="J1054" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="K1054" t="n">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="L1054" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="M1054" t="n">
-        <v>1957</v>
+        <v>2523</v>
       </c>
       <c r="N1054" t="inlineStr">
         <is>
@@ -76267,7 +76267,7 @@
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="Q1054" t="n">
         <v>36</v>
@@ -76293,7 +76293,7 @@
         </is>
       </c>
       <c r="D1055" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E1055" t="n">
         <v>13</v>
@@ -76317,16 +76317,16 @@
         </is>
       </c>
       <c r="J1055" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="K1055" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="L1055" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M1055" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="N1055" t="inlineStr">
         <is>
@@ -76339,7 +76339,7 @@
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="Q1055" t="n">
         <v>36</v>
@@ -76365,7 +76365,7 @@
         </is>
       </c>
       <c r="D1056" s="2" t="n">
-        <v>44510</v>
+        <v>44327</v>
       </c>
       <c r="E1056" t="n">
         <v>13</v>
@@ -76389,16 +76389,16 @@
         </is>
       </c>
       <c r="J1056" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K1056" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="L1056" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M1056" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="N1056" t="inlineStr">
         <is>
@@ -76411,7 +76411,7 @@
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="Q1056" t="n">
         <v>36</v>
@@ -76437,7 +76437,7 @@
         </is>
       </c>
       <c r="D1057" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E1057" t="n">
         <v>13</v>
@@ -76461,16 +76461,16 @@
         </is>
       </c>
       <c r="J1057" t="n">
-        <v>400</v>
+        <v>810</v>
       </c>
       <c r="K1057" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="L1057" t="n">
-        <v>2600</v>
+        <v>2300</v>
       </c>
       <c r="M1057" t="n">
-        <v>2560</v>
+        <v>2247</v>
       </c>
       <c r="N1057" t="inlineStr">
         <is>
@@ -76479,11 +76479,11 @@
       </c>
       <c r="O1057" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="Q1057" t="n">
         <v>36</v>
@@ -76509,7 +76509,7 @@
         </is>
       </c>
       <c r="D1058" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E1058" t="n">
         <v>13</v>
@@ -76529,20 +76529,20 @@
       </c>
       <c r="I1058" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1058" t="n">
-        <v>820</v>
+        <v>920</v>
       </c>
       <c r="K1058" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L1058" t="n">
         <v>2300</v>
       </c>
       <c r="M1058" t="n">
-        <v>2268</v>
+        <v>2153</v>
       </c>
       <c r="N1058" t="inlineStr">
         <is>
@@ -76555,7 +76555,7 @@
         </is>
       </c>
       <c r="P1058" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q1058" t="n">
         <v>36</v>
@@ -76581,7 +76581,7 @@
         </is>
       </c>
       <c r="D1059" s="2" t="n">
-        <v>44161</v>
+        <v>44510</v>
       </c>
       <c r="E1059" t="n">
         <v>13</v>
@@ -76601,11 +76601,11 @@
       </c>
       <c r="I1059" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1059" t="n">
-        <v>480</v>
+        <v>1010</v>
       </c>
       <c r="K1059" t="n">
         <v>1900</v>
@@ -76614,7 +76614,7 @@
         <v>2000</v>
       </c>
       <c r="M1059" t="n">
-        <v>1975</v>
+        <v>1954</v>
       </c>
       <c r="N1059" t="inlineStr">
         <is>
@@ -76623,11 +76623,11 @@
       </c>
       <c r="O1059" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1059" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q1059" t="n">
         <v>36</v>
@@ -76653,7 +76653,7 @@
         </is>
       </c>
       <c r="D1060" s="2" t="n">
-        <v>44468</v>
+        <v>44510</v>
       </c>
       <c r="E1060" t="n">
         <v>13</v>
@@ -76673,20 +76673,20 @@
       </c>
       <c r="I1060" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1060" t="n">
-        <v>680</v>
+        <v>900</v>
       </c>
       <c r="K1060" t="n">
-        <v>3200</v>
+        <v>1900</v>
       </c>
       <c r="L1060" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="M1060" t="n">
-        <v>3363</v>
+        <v>1957</v>
       </c>
       <c r="N1060" t="inlineStr">
         <is>
@@ -76695,11 +76695,11 @@
       </c>
       <c r="O1060" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1060" t="n">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="Q1060" t="n">
         <v>36</v>
@@ -76725,7 +76725,7 @@
         </is>
       </c>
       <c r="D1061" s="2" t="n">
-        <v>44468</v>
+        <v>44510</v>
       </c>
       <c r="E1061" t="n">
         <v>13</v>
@@ -76745,20 +76745,20 @@
       </c>
       <c r="I1061" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1061" t="n">
-        <v>710</v>
+        <v>270</v>
       </c>
       <c r="K1061" t="n">
-        <v>3100</v>
+        <v>1700</v>
       </c>
       <c r="L1061" t="n">
-        <v>3500</v>
+        <v>1700</v>
       </c>
       <c r="M1061" t="n">
-        <v>3292</v>
+        <v>1700</v>
       </c>
       <c r="N1061" t="inlineStr">
         <is>
@@ -76767,11 +76767,11 @@
       </c>
       <c r="O1061" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1061" t="n">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="Q1061" t="n">
         <v>36</v>
@@ -76797,7 +76797,7 @@
         </is>
       </c>
       <c r="D1062" s="2" t="n">
-        <v>44468</v>
+        <v>44510</v>
       </c>
       <c r="E1062" t="n">
         <v>13</v>
@@ -76817,20 +76817,20 @@
       </c>
       <c r="I1062" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1062" t="n">
-        <v>830</v>
+        <v>300</v>
       </c>
       <c r="K1062" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="L1062" t="n">
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="M1062" t="n">
-        <v>2659</v>
+        <v>1700</v>
       </c>
       <c r="N1062" t="inlineStr">
         <is>
@@ -76839,11 +76839,11 @@
       </c>
       <c r="O1062" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1062" t="n">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="Q1062" t="n">
         <v>36</v>
@@ -76869,7 +76869,7 @@
         </is>
       </c>
       <c r="D1063" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E1063" t="n">
         <v>13</v>
@@ -76889,20 +76889,20 @@
       </c>
       <c r="I1063" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1063" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="K1063" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="L1063" t="n">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="M1063" t="n">
-        <v>2590</v>
+        <v>2560</v>
       </c>
       <c r="N1063" t="inlineStr">
         <is>
@@ -76915,7 +76915,7 @@
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q1063" t="n">
         <v>36</v>
@@ -76941,7 +76941,7 @@
         </is>
       </c>
       <c r="D1064" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E1064" t="n">
         <v>13</v>
@@ -76961,20 +76961,20 @@
       </c>
       <c r="I1064" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1064" t="n">
-        <v>220</v>
+        <v>820</v>
       </c>
       <c r="K1064" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="L1064" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="M1064" t="n">
-        <v>2000</v>
+        <v>2268</v>
       </c>
       <c r="N1064" t="inlineStr">
         <is>
@@ -76983,11 +76983,11 @@
       </c>
       <c r="O1064" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1064" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="Q1064" t="n">
         <v>36</v>
@@ -77013,7 +77013,7 @@
         </is>
       </c>
       <c r="D1065" s="2" t="n">
-        <v>44468</v>
+        <v>44161</v>
       </c>
       <c r="E1065" t="n">
         <v>13</v>
@@ -77037,16 +77037,16 @@
         </is>
       </c>
       <c r="J1065" t="n">
-        <v>250</v>
+        <v>480</v>
       </c>
       <c r="K1065" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="L1065" t="n">
         <v>2000</v>
       </c>
       <c r="M1065" t="n">
-        <v>2000</v>
+        <v>1975</v>
       </c>
       <c r="N1065" t="inlineStr">
         <is>
@@ -77059,7 +77059,7 @@
         </is>
       </c>
       <c r="P1065" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q1065" t="n">
         <v>36</v>
@@ -77085,7 +77085,7 @@
         </is>
       </c>
       <c r="D1066" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E1066" t="n">
         <v>13</v>
@@ -77109,16 +77109,16 @@
         </is>
       </c>
       <c r="J1066" t="n">
-        <v>820</v>
+        <v>680</v>
       </c>
       <c r="K1066" t="n">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="L1066" t="n">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="M1066" t="n">
-        <v>2254</v>
+        <v>3363</v>
       </c>
       <c r="N1066" t="inlineStr">
         <is>
@@ -77131,7 +77131,7 @@
         </is>
       </c>
       <c r="P1066" t="n">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="Q1066" t="n">
         <v>36</v>
@@ -77157,7 +77157,7 @@
         </is>
       </c>
       <c r="D1067" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E1067" t="n">
         <v>13</v>
@@ -77181,16 +77181,16 @@
         </is>
       </c>
       <c r="J1067" t="n">
-        <v>890</v>
+        <v>710</v>
       </c>
       <c r="K1067" t="n">
-        <v>2200</v>
+        <v>3100</v>
       </c>
       <c r="L1067" t="n">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="M1067" t="n">
-        <v>2246</v>
+        <v>3292</v>
       </c>
       <c r="N1067" t="inlineStr">
         <is>
@@ -77203,7 +77203,7 @@
         </is>
       </c>
       <c r="P1067" t="n">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="Q1067" t="n">
         <v>36</v>
@@ -77229,7 +77229,7 @@
         </is>
       </c>
       <c r="D1068" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E1068" t="n">
         <v>13</v>
@@ -77253,16 +77253,16 @@
         </is>
       </c>
       <c r="J1068" t="n">
-        <v>750</v>
+        <v>830</v>
       </c>
       <c r="K1068" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="L1068" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M1068" t="n">
-        <v>1952</v>
+        <v>2659</v>
       </c>
       <c r="N1068" t="inlineStr">
         <is>
@@ -77275,7 +77275,7 @@
         </is>
       </c>
       <c r="P1068" t="n">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="Q1068" t="n">
         <v>36</v>
@@ -77301,7 +77301,7 @@
         </is>
       </c>
       <c r="D1069" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E1069" t="n">
         <v>13</v>
@@ -77325,16 +77325,16 @@
         </is>
       </c>
       <c r="J1069" t="n">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="K1069" t="n">
-        <v>1900</v>
+        <v>2400</v>
       </c>
       <c r="L1069" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="M1069" t="n">
-        <v>1944</v>
+        <v>2590</v>
       </c>
       <c r="N1069" t="inlineStr">
         <is>
@@ -77347,7 +77347,7 @@
         </is>
       </c>
       <c r="P1069" t="n">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="Q1069" t="n">
         <v>36</v>
@@ -77373,7 +77373,7 @@
         </is>
       </c>
       <c r="D1070" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E1070" t="n">
         <v>13</v>
@@ -77397,16 +77397,16 @@
         </is>
       </c>
       <c r="J1070" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="K1070" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="L1070" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M1070" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="N1070" t="inlineStr">
         <is>
@@ -77419,7 +77419,7 @@
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="Q1070" t="n">
         <v>36</v>
@@ -77445,7 +77445,7 @@
         </is>
       </c>
       <c r="D1071" s="2" t="n">
-        <v>44517</v>
+        <v>44468</v>
       </c>
       <c r="E1071" t="n">
         <v>13</v>
@@ -77469,16 +77469,16 @@
         </is>
       </c>
       <c r="J1071" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="K1071" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L1071" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="M1071" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="N1071" t="inlineStr">
         <is>
@@ -77491,7 +77491,7 @@
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q1071" t="n">
         <v>36</v>
@@ -77517,7 +77517,7 @@
         </is>
       </c>
       <c r="D1072" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E1072" t="n">
         <v>13</v>
@@ -77541,16 +77541,16 @@
         </is>
       </c>
       <c r="J1072" t="n">
-        <v>440</v>
+        <v>820</v>
       </c>
       <c r="K1072" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="L1072" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="M1072" t="n">
-        <v>2800</v>
+        <v>2254</v>
       </c>
       <c r="N1072" t="inlineStr">
         <is>
@@ -77563,7 +77563,7 @@
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="Q1072" t="n">
         <v>36</v>
@@ -77589,7 +77589,7 @@
         </is>
       </c>
       <c r="D1073" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E1073" t="n">
         <v>13</v>
@@ -77613,16 +77613,16 @@
         </is>
       </c>
       <c r="J1073" t="n">
-        <v>410</v>
+        <v>890</v>
       </c>
       <c r="K1073" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="L1073" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="M1073" t="n">
-        <v>2800</v>
+        <v>2246</v>
       </c>
       <c r="N1073" t="inlineStr">
         <is>
@@ -77635,7 +77635,7 @@
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="Q1073" t="n">
         <v>36</v>
@@ -77661,7 +77661,7 @@
         </is>
       </c>
       <c r="D1074" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E1074" t="n">
         <v>13</v>
@@ -77685,16 +77685,16 @@
         </is>
       </c>
       <c r="J1074" t="n">
-        <v>360</v>
+        <v>750</v>
       </c>
       <c r="K1074" t="n">
-        <v>2600</v>
+        <v>1900</v>
       </c>
       <c r="L1074" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="M1074" t="n">
-        <v>2600</v>
+        <v>1952</v>
       </c>
       <c r="N1074" t="inlineStr">
         <is>
@@ -77707,7 +77707,7 @@
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="Q1074" t="n">
         <v>36</v>
@@ -77733,7 +77733,7 @@
         </is>
       </c>
       <c r="D1075" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E1075" t="n">
         <v>13</v>
@@ -77757,16 +77757,16 @@
         </is>
       </c>
       <c r="J1075" t="n">
-        <v>610</v>
+        <v>810</v>
       </c>
       <c r="K1075" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="L1075" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="M1075" t="n">
-        <v>2561</v>
+        <v>1944</v>
       </c>
       <c r="N1075" t="inlineStr">
         <is>
@@ -77779,7 +77779,7 @@
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="Q1075" t="n">
         <v>36</v>
@@ -77805,7 +77805,7 @@
         </is>
       </c>
       <c r="D1076" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E1076" t="n">
         <v>13</v>
@@ -77829,16 +77829,16 @@
         </is>
       </c>
       <c r="J1076" t="n">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="K1076" t="n">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="L1076" t="n">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="M1076" t="n">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="N1076" t="inlineStr">
         <is>
@@ -77851,7 +77851,7 @@
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="Q1076" t="n">
         <v>36</v>
@@ -77877,7 +77877,7 @@
         </is>
       </c>
       <c r="D1077" s="2" t="n">
-        <v>44238</v>
+        <v>44517</v>
       </c>
       <c r="E1077" t="n">
         <v>13</v>
@@ -77901,16 +77901,16 @@
         </is>
       </c>
       <c r="J1077" t="n">
-        <v>430</v>
+        <v>270</v>
       </c>
       <c r="K1077" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="L1077" t="n">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="M1077" t="n">
-        <v>2116</v>
+        <v>1600</v>
       </c>
       <c r="N1077" t="inlineStr">
         <is>
@@ -77923,7 +77923,7 @@
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="Q1077" t="n">
         <v>36</v>
@@ -77949,7 +77949,7 @@
         </is>
       </c>
       <c r="D1078" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E1078" t="n">
         <v>13</v>
@@ -77973,16 +77973,16 @@
         </is>
       </c>
       <c r="J1078" t="n">
-        <v>290</v>
+        <v>440</v>
       </c>
       <c r="K1078" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L1078" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M1078" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="N1078" t="inlineStr">
         <is>
@@ -77995,7 +77995,7 @@
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Q1078" t="n">
         <v>36</v>
@@ -78021,7 +78021,7 @@
         </is>
       </c>
       <c r="D1079" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E1079" t="n">
         <v>13</v>
@@ -78045,16 +78045,16 @@
         </is>
       </c>
       <c r="J1079" t="n">
-        <v>340</v>
+        <v>410</v>
       </c>
       <c r="K1079" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L1079" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="M1079" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="N1079" t="inlineStr">
         <is>
@@ -78067,7 +78067,7 @@
         </is>
       </c>
       <c r="P1079" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Q1079" t="n">
         <v>36</v>
@@ -78093,7 +78093,7 @@
         </is>
       </c>
       <c r="D1080" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E1080" t="n">
         <v>13</v>
@@ -78117,16 +78117,16 @@
         </is>
       </c>
       <c r="J1080" t="n">
-        <v>3060</v>
+        <v>360</v>
       </c>
       <c r="K1080" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="L1080" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="M1080" t="n">
-        <v>2524</v>
+        <v>2600</v>
       </c>
       <c r="N1080" t="inlineStr">
         <is>
@@ -78139,7 +78139,7 @@
         </is>
       </c>
       <c r="P1080" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q1080" t="n">
         <v>36</v>
@@ -78165,7 +78165,7 @@
         </is>
       </c>
       <c r="D1081" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E1081" t="n">
         <v>13</v>
@@ -78189,16 +78189,16 @@
         </is>
       </c>
       <c r="J1081" t="n">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="K1081" t="n">
         <v>2500</v>
       </c>
       <c r="L1081" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="M1081" t="n">
-        <v>2624</v>
+        <v>2561</v>
       </c>
       <c r="N1081" t="inlineStr">
         <is>
@@ -78211,7 +78211,7 @@
         </is>
       </c>
       <c r="P1081" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q1081" t="n">
         <v>36</v>
@@ -78237,7 +78237,7 @@
         </is>
       </c>
       <c r="D1082" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E1082" t="n">
         <v>13</v>
@@ -78261,7 +78261,7 @@
         </is>
       </c>
       <c r="J1082" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="K1082" t="n">
         <v>2200</v>
@@ -78309,7 +78309,7 @@
         </is>
       </c>
       <c r="D1083" s="2" t="n">
-        <v>44391</v>
+        <v>44238</v>
       </c>
       <c r="E1083" t="n">
         <v>13</v>
@@ -78333,16 +78333,16 @@
         </is>
       </c>
       <c r="J1083" t="n">
-        <v>260</v>
+        <v>430</v>
       </c>
       <c r="K1083" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L1083" t="n">
         <v>2200</v>
       </c>
       <c r="M1083" t="n">
-        <v>2200</v>
+        <v>2116</v>
       </c>
       <c r="N1083" t="inlineStr">
         <is>
@@ -78355,7 +78355,7 @@
         </is>
       </c>
       <c r="P1083" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q1083" t="n">
         <v>36</v>
@@ -78381,7 +78381,7 @@
         </is>
       </c>
       <c r="D1084" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E1084" t="n">
         <v>13</v>
@@ -78405,7 +78405,7 @@
         </is>
       </c>
       <c r="J1084" t="n">
-        <v>440</v>
+        <v>290</v>
       </c>
       <c r="K1084" t="n">
         <v>3000</v>
@@ -78453,7 +78453,7 @@
         </is>
       </c>
       <c r="D1085" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E1085" t="n">
         <v>13</v>
@@ -78477,7 +78477,7 @@
         </is>
       </c>
       <c r="J1085" t="n">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="K1085" t="n">
         <v>3000</v>
@@ -78525,7 +78525,7 @@
         </is>
       </c>
       <c r="D1086" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E1086" t="n">
         <v>13</v>
@@ -78549,7 +78549,7 @@
         </is>
       </c>
       <c r="J1086" t="n">
-        <v>720</v>
+        <v>3060</v>
       </c>
       <c r="K1086" t="n">
         <v>2500</v>
@@ -78558,7 +78558,7 @@
         <v>2700</v>
       </c>
       <c r="M1086" t="n">
-        <v>2603</v>
+        <v>2524</v>
       </c>
       <c r="N1086" t="inlineStr">
         <is>
@@ -78571,7 +78571,7 @@
         </is>
       </c>
       <c r="P1086" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q1086" t="n">
         <v>36</v>
@@ -78597,7 +78597,7 @@
         </is>
       </c>
       <c r="D1087" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E1087" t="n">
         <v>13</v>
@@ -78621,16 +78621,16 @@
         </is>
       </c>
       <c r="J1087" t="n">
-        <v>510</v>
+        <v>630</v>
       </c>
       <c r="K1087" t="n">
         <v>2500</v>
       </c>
       <c r="L1087" t="n">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="M1087" t="n">
-        <v>2553</v>
+        <v>2624</v>
       </c>
       <c r="N1087" t="inlineStr">
         <is>
@@ -78643,7 +78643,7 @@
         </is>
       </c>
       <c r="P1087" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q1087" t="n">
         <v>36</v>
@@ -78669,7 +78669,7 @@
         </is>
       </c>
       <c r="D1088" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E1088" t="n">
         <v>13</v>
@@ -78693,16 +78693,16 @@
         </is>
       </c>
       <c r="J1088" t="n">
-        <v>370</v>
+        <v>200</v>
       </c>
       <c r="K1088" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="L1088" t="n">
         <v>2200</v>
       </c>
       <c r="M1088" t="n">
-        <v>2108</v>
+        <v>2200</v>
       </c>
       <c r="N1088" t="inlineStr">
         <is>
@@ -78715,7 +78715,7 @@
         </is>
       </c>
       <c r="P1088" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q1088" t="n">
         <v>36</v>
@@ -78741,7 +78741,7 @@
         </is>
       </c>
       <c r="D1089" s="2" t="n">
-        <v>44236</v>
+        <v>44391</v>
       </c>
       <c r="E1089" t="n">
         <v>13</v>
@@ -78765,16 +78765,16 @@
         </is>
       </c>
       <c r="J1089" t="n">
-        <v>330</v>
+        <v>260</v>
       </c>
       <c r="K1089" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="L1089" t="n">
         <v>2200</v>
       </c>
       <c r="M1089" t="n">
-        <v>2121</v>
+        <v>2200</v>
       </c>
       <c r="N1089" t="inlineStr">
         <is>
@@ -78787,7 +78787,7 @@
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q1089" t="n">
         <v>36</v>
@@ -78813,7 +78813,7 @@
         </is>
       </c>
       <c r="D1090" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E1090" t="n">
         <v>13</v>
@@ -78840,13 +78840,13 @@
         <v>440</v>
       </c>
       <c r="K1090" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L1090" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M1090" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N1090" t="inlineStr">
         <is>
@@ -78859,7 +78859,7 @@
         </is>
       </c>
       <c r="P1090" t="n">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="Q1090" t="n">
         <v>36</v>
@@ -78885,7 +78885,7 @@
         </is>
       </c>
       <c r="D1091" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E1091" t="n">
         <v>13</v>
@@ -78912,13 +78912,13 @@
         <v>360</v>
       </c>
       <c r="K1091" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="L1091" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M1091" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="N1091" t="inlineStr">
         <is>
@@ -78931,7 +78931,7 @@
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="Q1091" t="n">
         <v>36</v>
@@ -78957,7 +78957,7 @@
         </is>
       </c>
       <c r="D1092" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E1092" t="n">
         <v>13</v>
@@ -78981,16 +78981,16 @@
         </is>
       </c>
       <c r="J1092" t="n">
-        <v>760</v>
+        <v>720</v>
       </c>
       <c r="K1092" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L1092" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="M1092" t="n">
-        <v>2892</v>
+        <v>2603</v>
       </c>
       <c r="N1092" t="inlineStr">
         <is>
@@ -79003,7 +79003,7 @@
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Q1092" t="n">
         <v>36</v>
@@ -79029,7 +79029,7 @@
         </is>
       </c>
       <c r="D1093" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E1093" t="n">
         <v>13</v>
@@ -79053,16 +79053,16 @@
         </is>
       </c>
       <c r="J1093" t="n">
-        <v>810</v>
+        <v>510</v>
       </c>
       <c r="K1093" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L1093" t="n">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="M1093" t="n">
-        <v>2904</v>
+        <v>2553</v>
       </c>
       <c r="N1093" t="inlineStr">
         <is>
@@ -79075,7 +79075,7 @@
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="Q1093" t="n">
         <v>36</v>
@@ -79101,7 +79101,7 @@
         </is>
       </c>
       <c r="D1094" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E1094" t="n">
         <v>13</v>
@@ -79125,16 +79125,16 @@
         </is>
       </c>
       <c r="J1094" t="n">
-        <v>200</v>
+        <v>370</v>
       </c>
       <c r="K1094" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="L1094" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="M1094" t="n">
-        <v>2600</v>
+        <v>2108</v>
       </c>
       <c r="N1094" t="inlineStr">
         <is>
@@ -79147,7 +79147,7 @@
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="Q1094" t="n">
         <v>36</v>
@@ -79173,7 +79173,7 @@
         </is>
       </c>
       <c r="D1095" s="2" t="n">
-        <v>44389</v>
+        <v>44236</v>
       </c>
       <c r="E1095" t="n">
         <v>13</v>
@@ -79197,16 +79197,16 @@
         </is>
       </c>
       <c r="J1095" t="n">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="K1095" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L1095" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="M1095" t="n">
-        <v>2500</v>
+        <v>2121</v>
       </c>
       <c r="N1095" t="inlineStr">
         <is>
@@ -79219,7 +79219,7 @@
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="Q1095" t="n">
         <v>36</v>
@@ -79245,7 +79245,7 @@
         </is>
       </c>
       <c r="D1096" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E1096" t="n">
         <v>13</v>
@@ -79265,20 +79265,20 @@
       </c>
       <c r="I1096" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1096" t="n">
-        <v>580</v>
+        <v>440</v>
       </c>
       <c r="K1096" t="n">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="L1096" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M1096" t="n">
-        <v>3924</v>
+        <v>3500</v>
       </c>
       <c r="N1096" t="inlineStr">
         <is>
@@ -79291,7 +79291,7 @@
         </is>
       </c>
       <c r="P1096" t="n">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="Q1096" t="n">
         <v>36</v>
@@ -79317,7 +79317,7 @@
         </is>
       </c>
       <c r="D1097" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E1097" t="n">
         <v>13</v>
@@ -79337,20 +79337,20 @@
       </c>
       <c r="I1097" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1097" t="n">
-        <v>280</v>
+        <v>360</v>
       </c>
       <c r="K1097" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="L1097" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="M1097" t="n">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="N1097" t="inlineStr">
         <is>
@@ -79363,7 +79363,7 @@
         </is>
       </c>
       <c r="P1097" t="n">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="Q1097" t="n">
         <v>36</v>
@@ -79389,7 +79389,7 @@
         </is>
       </c>
       <c r="D1098" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E1098" t="n">
         <v>13</v>
@@ -79409,20 +79409,20 @@
       </c>
       <c r="I1098" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1098" t="n">
-        <v>390</v>
+        <v>760</v>
       </c>
       <c r="K1098" t="n">
-        <v>3400</v>
+        <v>2800</v>
       </c>
       <c r="L1098" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M1098" t="n">
-        <v>3464</v>
+        <v>2892</v>
       </c>
       <c r="N1098" t="inlineStr">
         <is>
@@ -79435,7 +79435,7 @@
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="Q1098" t="n">
         <v>36</v>
@@ -79461,7 +79461,7 @@
         </is>
       </c>
       <c r="D1099" s="2" t="n">
-        <v>44251</v>
+        <v>44389</v>
       </c>
       <c r="E1099" t="n">
         <v>13</v>
@@ -79481,20 +79481,20 @@
       </c>
       <c r="I1099" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1099" t="n">
-        <v>200</v>
+        <v>810</v>
       </c>
       <c r="K1099" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="L1099" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M1099" t="n">
-        <v>3500</v>
+        <v>2904</v>
       </c>
       <c r="N1099" t="inlineStr">
         <is>
@@ -79507,7 +79507,7 @@
         </is>
       </c>
       <c r="P1099" t="n">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="Q1099" t="n">
         <v>36</v>
@@ -79533,7 +79533,7 @@
         </is>
       </c>
       <c r="D1100" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E1100" t="n">
         <v>13</v>
@@ -79553,20 +79553,20 @@
       </c>
       <c r="I1100" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1100" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="K1100" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="L1100" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="M1100" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="N1100" t="inlineStr">
         <is>
@@ -79579,7 +79579,7 @@
         </is>
       </c>
       <c r="P1100" t="n">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Q1100" t="n">
         <v>36</v>
@@ -79605,7 +79605,7 @@
         </is>
       </c>
       <c r="D1101" s="2" t="n">
-        <v>44340</v>
+        <v>44389</v>
       </c>
       <c r="E1101" t="n">
         <v>13</v>
@@ -79625,20 +79625,20 @@
       </c>
       <c r="I1101" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1101" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="K1101" t="n">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="L1101" t="n">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="M1101" t="n">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="N1101" t="inlineStr">
         <is>
@@ -79651,7 +79651,7 @@
         </is>
       </c>
       <c r="P1101" t="n">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="Q1101" t="n">
         <v>36</v>
@@ -79677,7 +79677,7 @@
         </is>
       </c>
       <c r="D1102" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E1102" t="n">
         <v>13</v>
@@ -79701,16 +79701,16 @@
         </is>
       </c>
       <c r="J1102" t="n">
-        <v>730</v>
+        <v>580</v>
       </c>
       <c r="K1102" t="n">
-        <v>2300</v>
+        <v>3800</v>
       </c>
       <c r="L1102" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M1102" t="n">
-        <v>2423</v>
+        <v>3924</v>
       </c>
       <c r="N1102" t="inlineStr">
         <is>
@@ -79723,7 +79723,7 @@
         </is>
       </c>
       <c r="P1102" t="n">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="Q1102" t="n">
         <v>36</v>
@@ -79749,7 +79749,7 @@
         </is>
       </c>
       <c r="D1103" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E1103" t="n">
         <v>13</v>
@@ -79773,16 +79773,16 @@
         </is>
       </c>
       <c r="J1103" t="n">
-        <v>3280</v>
+        <v>280</v>
       </c>
       <c r="K1103" t="n">
-        <v>2300</v>
+        <v>4000</v>
       </c>
       <c r="L1103" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M1103" t="n">
-        <v>2323</v>
+        <v>4000</v>
       </c>
       <c r="N1103" t="inlineStr">
         <is>
@@ -79795,7 +79795,7 @@
         </is>
       </c>
       <c r="P1103" t="n">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="Q1103" t="n">
         <v>36</v>
@@ -79821,7 +79821,7 @@
         </is>
       </c>
       <c r="D1104" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E1104" t="n">
         <v>13</v>
@@ -79845,16 +79845,16 @@
         </is>
       </c>
       <c r="J1104" t="n">
-        <v>460</v>
+        <v>390</v>
       </c>
       <c r="K1104" t="n">
-        <v>180</v>
+        <v>3400</v>
       </c>
       <c r="L1104" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M1104" t="n">
-        <v>1209</v>
+        <v>3464</v>
       </c>
       <c r="N1104" t="inlineStr">
         <is>
@@ -79867,7 +79867,7 @@
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="Q1104" t="n">
         <v>36</v>
@@ -79893,7 +79893,7 @@
         </is>
       </c>
       <c r="D1105" s="2" t="n">
-        <v>44340</v>
+        <v>44251</v>
       </c>
       <c r="E1105" t="n">
         <v>13</v>
@@ -79917,16 +79917,16 @@
         </is>
       </c>
       <c r="J1105" t="n">
-        <v>430</v>
+        <v>200</v>
       </c>
       <c r="K1105" t="n">
-        <v>1800</v>
+        <v>3500</v>
       </c>
       <c r="L1105" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M1105" t="n">
-        <v>1912</v>
+        <v>3500</v>
       </c>
       <c r="N1105" t="inlineStr">
         <is>
@@ -79939,7 +79939,7 @@
         </is>
       </c>
       <c r="P1105" t="n">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="Q1105" t="n">
         <v>36</v>
@@ -79965,7 +79965,7 @@
         </is>
       </c>
       <c r="D1106" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1106" t="n">
         <v>13</v>
@@ -79989,16 +79989,16 @@
         </is>
       </c>
       <c r="J1106" t="n">
-        <v>740</v>
+        <v>330</v>
       </c>
       <c r="K1106" t="n">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="L1106" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M1106" t="n">
-        <v>2295</v>
+        <v>2700</v>
       </c>
       <c r="N1106" t="inlineStr">
         <is>
@@ -80011,7 +80011,7 @@
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="Q1106" t="n">
         <v>36</v>
@@ -80037,7 +80037,7 @@
         </is>
       </c>
       <c r="D1107" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1107" t="n">
         <v>13</v>
@@ -80061,16 +80061,16 @@
         </is>
       </c>
       <c r="J1107" t="n">
-        <v>780</v>
+        <v>350</v>
       </c>
       <c r="K1107" t="n">
-        <v>2200</v>
+        <v>2900</v>
       </c>
       <c r="L1107" t="n">
-        <v>2400</v>
+        <v>2900</v>
       </c>
       <c r="M1107" t="n">
-        <v>2305</v>
+        <v>2900</v>
       </c>
       <c r="N1107" t="inlineStr">
         <is>
@@ -80083,7 +80083,7 @@
         </is>
       </c>
       <c r="P1107" t="n">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="Q1107" t="n">
         <v>36</v>
@@ -80109,7 +80109,7 @@
         </is>
       </c>
       <c r="D1108" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1108" t="n">
         <v>13</v>
@@ -80133,16 +80133,16 @@
         </is>
       </c>
       <c r="J1108" t="n">
-        <v>770</v>
+        <v>730</v>
       </c>
       <c r="K1108" t="n">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="L1108" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M1108" t="n">
-        <v>1957</v>
+        <v>2423</v>
       </c>
       <c r="N1108" t="inlineStr">
         <is>
@@ -80155,7 +80155,7 @@
         </is>
       </c>
       <c r="P1108" t="n">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="Q1108" t="n">
         <v>36</v>
@@ -80181,7 +80181,7 @@
         </is>
       </c>
       <c r="D1109" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1109" t="n">
         <v>13</v>
@@ -80205,16 +80205,16 @@
         </is>
       </c>
       <c r="J1109" t="n">
-        <v>810</v>
+        <v>3280</v>
       </c>
       <c r="K1109" t="n">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="L1109" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M1109" t="n">
-        <v>1957</v>
+        <v>2323</v>
       </c>
       <c r="N1109" t="inlineStr">
         <is>
@@ -80227,7 +80227,7 @@
         </is>
       </c>
       <c r="P1109" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="Q1109" t="n">
         <v>36</v>
@@ -80253,7 +80253,7 @@
         </is>
       </c>
       <c r="D1110" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1110" t="n">
         <v>13</v>
@@ -80277,16 +80277,16 @@
         </is>
       </c>
       <c r="J1110" t="n">
-        <v>200</v>
+        <v>460</v>
       </c>
       <c r="K1110" t="n">
-        <v>1700</v>
+        <v>180</v>
       </c>
       <c r="L1110" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M1110" t="n">
-        <v>1700</v>
+        <v>1209</v>
       </c>
       <c r="N1110" t="inlineStr">
         <is>
@@ -80299,7 +80299,7 @@
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="Q1110" t="n">
         <v>36</v>
@@ -80325,7 +80325,7 @@
         </is>
       </c>
       <c r="D1111" s="2" t="n">
-        <v>44515</v>
+        <v>44340</v>
       </c>
       <c r="E1111" t="n">
         <v>13</v>
@@ -80349,16 +80349,16 @@
         </is>
       </c>
       <c r="J1111" t="n">
-        <v>240</v>
+        <v>430</v>
       </c>
       <c r="K1111" t="n">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="L1111" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M1111" t="n">
-        <v>1700</v>
+        <v>1912</v>
       </c>
       <c r="N1111" t="inlineStr">
         <is>
@@ -80371,7 +80371,7 @@
         </is>
       </c>
       <c r="P1111" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="Q1111" t="n">
         <v>36</v>
@@ -80397,7 +80397,7 @@
         </is>
       </c>
       <c r="D1112" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E1112" t="n">
         <v>13</v>
@@ -80421,16 +80421,16 @@
         </is>
       </c>
       <c r="J1112" t="n">
-        <v>440</v>
+        <v>740</v>
       </c>
       <c r="K1112" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="L1112" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="M1112" t="n">
-        <v>2800</v>
+        <v>2295</v>
       </c>
       <c r="N1112" t="inlineStr">
         <is>
@@ -80443,7 +80443,7 @@
         </is>
       </c>
       <c r="P1112" t="n">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="Q1112" t="n">
         <v>36</v>
@@ -80469,7 +80469,7 @@
         </is>
       </c>
       <c r="D1113" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E1113" t="n">
         <v>13</v>
@@ -80493,16 +80493,16 @@
         </is>
       </c>
       <c r="J1113" t="n">
-        <v>450</v>
+        <v>780</v>
       </c>
       <c r="K1113" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="L1113" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="M1113" t="n">
-        <v>2800</v>
+        <v>2305</v>
       </c>
       <c r="N1113" t="inlineStr">
         <is>
@@ -80515,7 +80515,7 @@
         </is>
       </c>
       <c r="P1113" t="n">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="Q1113" t="n">
         <v>36</v>
@@ -80541,7 +80541,7 @@
         </is>
       </c>
       <c r="D1114" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E1114" t="n">
         <v>13</v>
@@ -80565,16 +80565,16 @@
         </is>
       </c>
       <c r="J1114" t="n">
-        <v>850</v>
+        <v>770</v>
       </c>
       <c r="K1114" t="n">
-        <v>2300</v>
+        <v>1900</v>
       </c>
       <c r="L1114" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M1114" t="n">
-        <v>2408</v>
+        <v>1957</v>
       </c>
       <c r="N1114" t="inlineStr">
         <is>
@@ -80587,7 +80587,7 @@
         </is>
       </c>
       <c r="P1114" t="n">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="Q1114" t="n">
         <v>36</v>
@@ -80613,7 +80613,7 @@
         </is>
       </c>
       <c r="D1115" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E1115" t="n">
         <v>13</v>
@@ -80637,16 +80637,16 @@
         </is>
       </c>
       <c r="J1115" t="n">
-        <v>960</v>
+        <v>810</v>
       </c>
       <c r="K1115" t="n">
-        <v>2300</v>
+        <v>1900</v>
       </c>
       <c r="L1115" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M1115" t="n">
-        <v>2392</v>
+        <v>1957</v>
       </c>
       <c r="N1115" t="inlineStr">
         <is>
@@ -80659,7 +80659,7 @@
         </is>
       </c>
       <c r="P1115" t="n">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Q1115" t="n">
         <v>36</v>
@@ -80685,7 +80685,7 @@
         </is>
       </c>
       <c r="D1116" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E1116" t="n">
         <v>13</v>
@@ -80709,16 +80709,16 @@
         </is>
       </c>
       <c r="J1116" t="n">
-        <v>490</v>
+        <v>200</v>
       </c>
       <c r="K1116" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="L1116" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M1116" t="n">
-        <v>1906</v>
+        <v>1700</v>
       </c>
       <c r="N1116" t="inlineStr">
         <is>
@@ -80731,7 +80731,7 @@
         </is>
       </c>
       <c r="P1116" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Q1116" t="n">
         <v>36</v>
@@ -80757,7 +80757,7 @@
         </is>
       </c>
       <c r="D1117" s="2" t="n">
-        <v>44330</v>
+        <v>44515</v>
       </c>
       <c r="E1117" t="n">
         <v>13</v>
@@ -80781,16 +80781,16 @@
         </is>
       </c>
       <c r="J1117" t="n">
-        <v>550</v>
+        <v>240</v>
       </c>
       <c r="K1117" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="L1117" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M1117" t="n">
-        <v>1902</v>
+        <v>1700</v>
       </c>
       <c r="N1117" t="inlineStr">
         <is>
@@ -80803,7 +80803,7 @@
         </is>
       </c>
       <c r="P1117" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Q1117" t="n">
         <v>36</v>
@@ -80829,7 +80829,7 @@
         </is>
       </c>
       <c r="D1118" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E1118" t="n">
         <v>13</v>
@@ -80853,16 +80853,16 @@
         </is>
       </c>
       <c r="J1118" t="n">
-        <v>710</v>
+        <v>440</v>
       </c>
       <c r="K1118" t="n">
-        <v>3700</v>
+        <v>2800</v>
       </c>
       <c r="L1118" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="M1118" t="n">
-        <v>3861</v>
+        <v>2800</v>
       </c>
       <c r="N1118" t="inlineStr">
         <is>
@@ -80875,7 +80875,7 @@
         </is>
       </c>
       <c r="P1118" t="n">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="Q1118" t="n">
         <v>36</v>
@@ -80901,7 +80901,7 @@
         </is>
       </c>
       <c r="D1119" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E1119" t="n">
         <v>13</v>
@@ -80925,16 +80925,16 @@
         </is>
       </c>
       <c r="J1119" t="n">
-        <v>640</v>
+        <v>450</v>
       </c>
       <c r="K1119" t="n">
-        <v>3800</v>
+        <v>2800</v>
       </c>
       <c r="L1119" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="M1119" t="n">
-        <v>3912</v>
+        <v>2800</v>
       </c>
       <c r="N1119" t="inlineStr">
         <is>
@@ -80947,7 +80947,7 @@
         </is>
       </c>
       <c r="P1119" t="n">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="Q1119" t="n">
         <v>36</v>
@@ -80973,7 +80973,7 @@
         </is>
       </c>
       <c r="D1120" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E1120" t="n">
         <v>13</v>
@@ -80997,16 +80997,16 @@
         </is>
       </c>
       <c r="J1120" t="n">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="K1120" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="L1120" t="n">
-        <v>3200</v>
+        <v>2500</v>
       </c>
       <c r="M1120" t="n">
-        <v>3105</v>
+        <v>2408</v>
       </c>
       <c r="N1120" t="inlineStr">
         <is>
@@ -81019,7 +81019,7 @@
         </is>
       </c>
       <c r="P1120" t="n">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="Q1120" t="n">
         <v>36</v>
@@ -81045,7 +81045,7 @@
         </is>
       </c>
       <c r="D1121" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E1121" t="n">
         <v>13</v>
@@ -81069,16 +81069,16 @@
         </is>
       </c>
       <c r="J1121" t="n">
-        <v>860</v>
+        <v>960</v>
       </c>
       <c r="K1121" t="n">
-        <v>2900</v>
+        <v>2300</v>
       </c>
       <c r="L1121" t="n">
-        <v>3200</v>
+        <v>2500</v>
       </c>
       <c r="M1121" t="n">
-        <v>3043</v>
+        <v>2392</v>
       </c>
       <c r="N1121" t="inlineStr">
         <is>
@@ -81091,7 +81091,7 @@
         </is>
       </c>
       <c r="P1121" t="n">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="Q1121" t="n">
         <v>36</v>
@@ -81117,7 +81117,7 @@
         </is>
       </c>
       <c r="D1122" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E1122" t="n">
         <v>13</v>
@@ -81141,16 +81141,16 @@
         </is>
       </c>
       <c r="J1122" t="n">
-        <v>250</v>
+        <v>490</v>
       </c>
       <c r="K1122" t="n">
-        <v>2400</v>
+        <v>1800</v>
       </c>
       <c r="L1122" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="M1122" t="n">
-        <v>2400</v>
+        <v>1906</v>
       </c>
       <c r="N1122" t="inlineStr">
         <is>
@@ -81163,7 +81163,7 @@
         </is>
       </c>
       <c r="P1122" t="n">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="Q1122" t="n">
         <v>36</v>
@@ -81189,7 +81189,7 @@
         </is>
       </c>
       <c r="D1123" s="2" t="n">
-        <v>44432</v>
+        <v>44330</v>
       </c>
       <c r="E1123" t="n">
         <v>13</v>
@@ -81213,16 +81213,16 @@
         </is>
       </c>
       <c r="J1123" t="n">
-        <v>290</v>
+        <v>550</v>
       </c>
       <c r="K1123" t="n">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="L1123" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="M1123" t="n">
-        <v>2300</v>
+        <v>1902</v>
       </c>
       <c r="N1123" t="inlineStr">
         <is>
@@ -81235,7 +81235,7 @@
         </is>
       </c>
       <c r="P1123" t="n">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="Q1123" t="n">
         <v>36</v>
@@ -81261,7 +81261,7 @@
         </is>
       </c>
       <c r="D1124" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E1124" t="n">
         <v>13</v>
@@ -81285,16 +81285,16 @@
         </is>
       </c>
       <c r="J1124" t="n">
-        <v>520</v>
+        <v>710</v>
       </c>
       <c r="K1124" t="n">
-        <v>2600</v>
+        <v>3700</v>
       </c>
       <c r="L1124" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="M1124" t="n">
-        <v>2600</v>
+        <v>3861</v>
       </c>
       <c r="N1124" t="inlineStr">
         <is>
@@ -81303,11 +81303,11 @@
       </c>
       <c r="O1124" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1124" t="n">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="Q1124" t="n">
         <v>36</v>
@@ -81333,7 +81333,7 @@
         </is>
       </c>
       <c r="D1125" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E1125" t="n">
         <v>13</v>
@@ -81353,20 +81353,20 @@
       </c>
       <c r="I1125" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1125" t="n">
-        <v>890</v>
+        <v>640</v>
       </c>
       <c r="K1125" t="n">
-        <v>2300</v>
+        <v>3800</v>
       </c>
       <c r="L1125" t="n">
-        <v>2400</v>
+        <v>4000</v>
       </c>
       <c r="M1125" t="n">
-        <v>2370</v>
+        <v>3912</v>
       </c>
       <c r="N1125" t="inlineStr">
         <is>
@@ -81379,7 +81379,7 @@
         </is>
       </c>
       <c r="P1125" t="n">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="Q1125" t="n">
         <v>36</v>
@@ -81405,7 +81405,7 @@
         </is>
       </c>
       <c r="D1126" s="2" t="n">
-        <v>44181</v>
+        <v>44432</v>
       </c>
       <c r="E1126" t="n">
         <v>13</v>
@@ -81425,20 +81425,20 @@
       </c>
       <c r="I1126" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1126" t="n">
-        <v>540</v>
+        <v>840</v>
       </c>
       <c r="K1126" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L1126" t="n">
-        <v>2100</v>
+        <v>3200</v>
       </c>
       <c r="M1126" t="n">
-        <v>2070</v>
+        <v>3105</v>
       </c>
       <c r="N1126" t="inlineStr">
         <is>
@@ -81447,11 +81447,11 @@
       </c>
       <c r="O1126" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1126" t="n">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="Q1126" t="n">
         <v>36</v>
@@ -81477,7 +81477,7 @@
         </is>
       </c>
       <c r="D1127" s="2" t="n">
-        <v>44194</v>
+        <v>44432</v>
       </c>
       <c r="E1127" t="n">
         <v>13</v>
@@ -81497,20 +81497,20 @@
       </c>
       <c r="I1127" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1127" t="n">
-        <v>480</v>
+        <v>860</v>
       </c>
       <c r="K1127" t="n">
-        <v>3500</v>
+        <v>2900</v>
       </c>
       <c r="L1127" t="n">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="M1127" t="n">
-        <v>3500</v>
+        <v>3043</v>
       </c>
       <c r="N1127" t="inlineStr">
         <is>
@@ -81523,7 +81523,7 @@
         </is>
       </c>
       <c r="P1127" t="n">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="Q1127" t="n">
         <v>36</v>
@@ -81549,7 +81549,7 @@
         </is>
       </c>
       <c r="D1128" s="2" t="n">
-        <v>44194</v>
+        <v>44432</v>
       </c>
       <c r="E1128" t="n">
         <v>13</v>
@@ -81569,20 +81569,20 @@
       </c>
       <c r="I1128" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1128" t="n">
-        <v>840</v>
+        <v>250</v>
       </c>
       <c r="K1128" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="L1128" t="n">
-        <v>3200</v>
+        <v>2400</v>
       </c>
       <c r="M1128" t="n">
-        <v>3083</v>
+        <v>2400</v>
       </c>
       <c r="N1128" t="inlineStr">
         <is>
@@ -81591,11 +81591,11 @@
       </c>
       <c r="O1128" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1128" t="n">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="Q1128" t="n">
         <v>36</v>
@@ -81621,7 +81621,7 @@
         </is>
       </c>
       <c r="D1129" s="2" t="n">
-        <v>44194</v>
+        <v>44432</v>
       </c>
       <c r="E1129" t="n">
         <v>13</v>
@@ -81645,16 +81645,16 @@
         </is>
       </c>
       <c r="J1129" t="n">
-        <v>610</v>
+        <v>290</v>
       </c>
       <c r="K1129" t="n">
-        <v>2600</v>
+        <v>2300</v>
       </c>
       <c r="L1129" t="n">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="M1129" t="n">
-        <v>2646</v>
+        <v>2300</v>
       </c>
       <c r="N1129" t="inlineStr">
         <is>
@@ -81667,7 +81667,7 @@
         </is>
       </c>
       <c r="P1129" t="n">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="Q1129" t="n">
         <v>36</v>
@@ -81693,7 +81693,7 @@
         </is>
       </c>
       <c r="D1130" s="2" t="n">
-        <v>44271</v>
+        <v>44181</v>
       </c>
       <c r="E1130" t="n">
         <v>13</v>
@@ -81713,20 +81713,20 @@
       </c>
       <c r="I1130" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1130" t="n">
-        <v>860</v>
+        <v>520</v>
       </c>
       <c r="K1130" t="n">
-        <v>3400</v>
+        <v>2600</v>
       </c>
       <c r="L1130" t="n">
-        <v>3500</v>
+        <v>2600</v>
       </c>
       <c r="M1130" t="n">
-        <v>3451</v>
+        <v>2600</v>
       </c>
       <c r="N1130" t="inlineStr">
         <is>
@@ -81735,11 +81735,11 @@
       </c>
       <c r="O1130" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1130" t="n">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="Q1130" t="n">
         <v>36</v>
@@ -81765,7 +81765,7 @@
         </is>
       </c>
       <c r="D1131" s="2" t="n">
-        <v>44271</v>
+        <v>44181</v>
       </c>
       <c r="E1131" t="n">
         <v>13</v>
@@ -81789,16 +81789,16 @@
         </is>
       </c>
       <c r="J1131" t="n">
-        <v>1000</v>
+        <v>890</v>
       </c>
       <c r="K1131" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="L1131" t="n">
-        <v>3700</v>
+        <v>2400</v>
       </c>
       <c r="M1131" t="n">
-        <v>3614</v>
+        <v>2370</v>
       </c>
       <c r="N1131" t="inlineStr">
         <is>
@@ -81811,7 +81811,7 @@
         </is>
       </c>
       <c r="P1131" t="n">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="Q1131" t="n">
         <v>36</v>
@@ -81837,7 +81837,7 @@
         </is>
       </c>
       <c r="D1132" s="2" t="n">
-        <v>44271</v>
+        <v>44181</v>
       </c>
       <c r="E1132" t="n">
         <v>13</v>
@@ -81861,16 +81861,16 @@
         </is>
       </c>
       <c r="J1132" t="n">
-        <v>680</v>
+        <v>540</v>
       </c>
       <c r="K1132" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L1132" t="n">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="M1132" t="n">
-        <v>2912</v>
+        <v>2070</v>
       </c>
       <c r="N1132" t="inlineStr">
         <is>
@@ -81879,11 +81879,11 @@
       </c>
       <c r="O1132" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1132" t="n">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="Q1132" t="n">
         <v>36</v>
@@ -81909,7 +81909,7 @@
         </is>
       </c>
       <c r="D1133" s="2" t="n">
-        <v>44271</v>
+        <v>44194</v>
       </c>
       <c r="E1133" t="n">
         <v>13</v>
@@ -81929,20 +81929,20 @@
       </c>
       <c r="I1133" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1133" t="n">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="K1133" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="L1133" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M1133" t="n">
-        <v>2898</v>
+        <v>3500</v>
       </c>
       <c r="N1133" t="inlineStr">
         <is>
@@ -81955,7 +81955,7 @@
         </is>
       </c>
       <c r="P1133" t="n">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="Q1133" t="n">
         <v>36</v>
@@ -81981,7 +81981,7 @@
         </is>
       </c>
       <c r="D1134" s="2" t="n">
-        <v>44307</v>
+        <v>44194</v>
       </c>
       <c r="E1134" t="n">
         <v>13</v>
@@ -82005,16 +82005,16 @@
         </is>
       </c>
       <c r="J1134" t="n">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="K1134" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L1134" t="n">
-        <v>2700</v>
+        <v>3200</v>
       </c>
       <c r="M1134" t="n">
-        <v>2606</v>
+        <v>3083</v>
       </c>
       <c r="N1134" t="inlineStr">
         <is>
@@ -82023,11 +82023,11 @@
       </c>
       <c r="O1134" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1134" t="n">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q1134" t="n">
         <v>36</v>
@@ -82053,7 +82053,7 @@
         </is>
       </c>
       <c r="D1135" s="2" t="n">
-        <v>44307</v>
+        <v>44194</v>
       </c>
       <c r="E1135" t="n">
         <v>13</v>
@@ -82073,20 +82073,20 @@
       </c>
       <c r="I1135" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1135" t="n">
-        <v>1020</v>
+        <v>610</v>
       </c>
       <c r="K1135" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="L1135" t="n">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="M1135" t="n">
-        <v>2506</v>
+        <v>2646</v>
       </c>
       <c r="N1135" t="inlineStr">
         <is>
@@ -82099,7 +82099,7 @@
         </is>
       </c>
       <c r="P1135" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="Q1135" t="n">
         <v>36</v>
@@ -82125,7 +82125,7 @@
         </is>
       </c>
       <c r="D1136" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E1136" t="n">
         <v>13</v>
@@ -82145,20 +82145,20 @@
       </c>
       <c r="I1136" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1136" t="n">
-        <v>250</v>
+        <v>860</v>
       </c>
       <c r="K1136" t="n">
-        <v>2000</v>
+        <v>3400</v>
       </c>
       <c r="L1136" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M1136" t="n">
-        <v>2000</v>
+        <v>3451</v>
       </c>
       <c r="N1136" t="inlineStr">
         <is>
@@ -82171,7 +82171,7 @@
         </is>
       </c>
       <c r="P1136" t="n">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="Q1136" t="n">
         <v>36</v>
@@ -82197,7 +82197,7 @@
         </is>
       </c>
       <c r="D1137" s="2" t="n">
-        <v>44307</v>
+        <v>44271</v>
       </c>
       <c r="E1137" t="n">
         <v>13</v>
@@ -82217,20 +82217,20 @@
       </c>
       <c r="I1137" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1137" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="K1137" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="L1137" t="n">
-        <v>2000</v>
+        <v>3700</v>
       </c>
       <c r="M1137" t="n">
-        <v>2000</v>
+        <v>3614</v>
       </c>
       <c r="N1137" t="inlineStr">
         <is>
@@ -82243,7 +82243,7 @@
         </is>
       </c>
       <c r="P1137" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="Q1137" t="n">
         <v>36</v>
@@ -82269,7 +82269,7 @@
         </is>
       </c>
       <c r="D1138" s="2" t="n">
-        <v>44400</v>
+        <v>44271</v>
       </c>
       <c r="E1138" t="n">
         <v>13</v>
@@ -82289,20 +82289,20 @@
       </c>
       <c r="I1138" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1138" t="n">
-        <v>150</v>
+        <v>680</v>
       </c>
       <c r="K1138" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="L1138" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M1138" t="n">
-        <v>4000</v>
+        <v>2912</v>
       </c>
       <c r="N1138" t="inlineStr">
         <is>
@@ -82311,11 +82311,11 @@
       </c>
       <c r="O1138" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1138" t="n">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="Q1138" t="n">
         <v>36</v>
@@ -82341,7 +82341,7 @@
         </is>
       </c>
       <c r="D1139" s="2" t="n">
-        <v>44400</v>
+        <v>44271</v>
       </c>
       <c r="E1139" t="n">
         <v>13</v>
@@ -82361,20 +82361,20 @@
       </c>
       <c r="I1139" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1139" t="n">
-        <v>330</v>
+        <v>510</v>
       </c>
       <c r="K1139" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="L1139" t="n">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="M1139" t="n">
-        <v>3500</v>
+        <v>2898</v>
       </c>
       <c r="N1139" t="inlineStr">
         <is>
@@ -82387,7 +82387,7 @@
         </is>
       </c>
       <c r="P1139" t="n">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="Q1139" t="n">
         <v>36</v>
@@ -82413,7 +82413,7 @@
         </is>
       </c>
       <c r="D1140" s="2" t="n">
-        <v>44400</v>
+        <v>44307</v>
       </c>
       <c r="E1140" t="n">
         <v>13</v>
@@ -82433,20 +82433,20 @@
       </c>
       <c r="I1140" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1140" t="n">
-        <v>270</v>
+        <v>830</v>
       </c>
       <c r="K1140" t="n">
         <v>2500</v>
       </c>
       <c r="L1140" t="n">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="M1140" t="n">
-        <v>2500</v>
+        <v>2606</v>
       </c>
       <c r="N1140" t="inlineStr">
         <is>
@@ -82455,11 +82455,11 @@
       </c>
       <c r="O1140" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1140" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q1140" t="n">
         <v>36</v>
@@ -82485,7 +82485,7 @@
         </is>
       </c>
       <c r="D1141" s="2" t="n">
-        <v>44309</v>
+        <v>44307</v>
       </c>
       <c r="E1141" t="n">
         <v>13</v>
@@ -82509,16 +82509,16 @@
         </is>
       </c>
       <c r="J1141" t="n">
-        <v>860</v>
+        <v>1020</v>
       </c>
       <c r="K1141" t="n">
         <v>2400</v>
       </c>
       <c r="L1141" t="n">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="M1141" t="n">
-        <v>2564</v>
+        <v>2506</v>
       </c>
       <c r="N1141" t="inlineStr">
         <is>
@@ -82527,11 +82527,11 @@
       </c>
       <c r="O1141" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1141" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q1141" t="n">
         <v>36</v>
@@ -82557,7 +82557,7 @@
         </is>
       </c>
       <c r="D1142" s="2" t="n">
-        <v>44309</v>
+        <v>44307</v>
       </c>
       <c r="E1142" t="n">
         <v>13</v>
@@ -82577,20 +82577,20 @@
       </c>
       <c r="I1142" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1142" t="n">
-        <v>980</v>
+        <v>250</v>
       </c>
       <c r="K1142" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="L1142" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="M1142" t="n">
-        <v>2506</v>
+        <v>2000</v>
       </c>
       <c r="N1142" t="inlineStr">
         <is>
@@ -82599,11 +82599,11 @@
       </c>
       <c r="O1142" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1142" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="Q1142" t="n">
         <v>36</v>
@@ -82629,7 +82629,7 @@
         </is>
       </c>
       <c r="D1143" s="2" t="n">
-        <v>44309</v>
+        <v>44307</v>
       </c>
       <c r="E1143" t="n">
         <v>13</v>
@@ -82653,16 +82653,16 @@
         </is>
       </c>
       <c r="J1143" t="n">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K1143" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L1143" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="M1143" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="N1143" t="inlineStr">
         <is>
@@ -82671,11 +82671,11 @@
       </c>
       <c r="O1143" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1143" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Q1143" t="n">
         <v>36</v>
@@ -82701,7 +82701,7 @@
         </is>
       </c>
       <c r="D1144" s="2" t="n">
-        <v>44309</v>
+        <v>44400</v>
       </c>
       <c r="E1144" t="n">
         <v>13</v>
@@ -82721,20 +82721,20 @@
       </c>
       <c r="I1144" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1144" t="n">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="K1144" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="L1144" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="M1144" t="n">
-        <v>1800</v>
+        <v>4000</v>
       </c>
       <c r="N1144" t="inlineStr">
         <is>
@@ -82747,7 +82747,7 @@
         </is>
       </c>
       <c r="P1144" t="n">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="Q1144" t="n">
         <v>36</v>
@@ -82773,7 +82773,7 @@
         </is>
       </c>
       <c r="D1145" s="2" t="n">
-        <v>44508</v>
+        <v>44400</v>
       </c>
       <c r="E1145" t="n">
         <v>13</v>
@@ -82793,20 +82793,20 @@
       </c>
       <c r="I1145" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1145" t="n">
-        <v>940</v>
+        <v>330</v>
       </c>
       <c r="K1145" t="n">
-        <v>2200</v>
+        <v>3500</v>
       </c>
       <c r="L1145" t="n">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="M1145" t="n">
-        <v>2353</v>
+        <v>3500</v>
       </c>
       <c r="N1145" t="inlineStr">
         <is>
@@ -82815,11 +82815,11 @@
       </c>
       <c r="O1145" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1145" t="n">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="Q1145" t="n">
         <v>36</v>
@@ -82845,7 +82845,7 @@
         </is>
       </c>
       <c r="D1146" s="2" t="n">
-        <v>44508</v>
+        <v>44400</v>
       </c>
       <c r="E1146" t="n">
         <v>13</v>
@@ -82865,20 +82865,20 @@
       </c>
       <c r="I1146" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1146" t="n">
-        <v>750</v>
+        <v>270</v>
       </c>
       <c r="K1146" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="L1146" t="n">
         <v>2500</v>
       </c>
       <c r="M1146" t="n">
-        <v>2368</v>
+        <v>2500</v>
       </c>
       <c r="N1146" t="inlineStr">
         <is>
@@ -82891,7 +82891,7 @@
         </is>
       </c>
       <c r="P1146" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q1146" t="n">
         <v>36</v>
@@ -82917,7 +82917,7 @@
         </is>
       </c>
       <c r="D1147" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E1147" t="n">
         <v>13</v>
@@ -82941,16 +82941,16 @@
         </is>
       </c>
       <c r="J1147" t="n">
-        <v>1040</v>
+        <v>860</v>
       </c>
       <c r="K1147" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L1147" t="n">
-        <v>2100</v>
+        <v>2700</v>
       </c>
       <c r="M1147" t="n">
-        <v>2053</v>
+        <v>2564</v>
       </c>
       <c r="N1147" t="inlineStr">
         <is>
@@ -82963,7 +82963,7 @@
         </is>
       </c>
       <c r="P1147" t="n">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="Q1147" t="n">
         <v>36</v>
@@ -82989,7 +82989,7 @@
         </is>
       </c>
       <c r="D1148" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E1148" t="n">
         <v>13</v>
@@ -83013,16 +83013,16 @@
         </is>
       </c>
       <c r="J1148" t="n">
-        <v>870</v>
+        <v>980</v>
       </c>
       <c r="K1148" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L1148" t="n">
-        <v>2100</v>
+        <v>2600</v>
       </c>
       <c r="M1148" t="n">
-        <v>2054</v>
+        <v>2506</v>
       </c>
       <c r="N1148" t="inlineStr">
         <is>
@@ -83035,7 +83035,7 @@
         </is>
       </c>
       <c r="P1148" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="Q1148" t="n">
         <v>36</v>
@@ -83061,7 +83061,7 @@
         </is>
       </c>
       <c r="D1149" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E1149" t="n">
         <v>13</v>
@@ -83088,13 +83088,13 @@
         <v>250</v>
       </c>
       <c r="K1149" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="L1149" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M1149" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="N1149" t="inlineStr">
         <is>
@@ -83107,7 +83107,7 @@
         </is>
       </c>
       <c r="P1149" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Q1149" t="n">
         <v>36</v>
@@ -83133,7 +83133,7 @@
         </is>
       </c>
       <c r="D1150" s="2" t="n">
-        <v>44508</v>
+        <v>44309</v>
       </c>
       <c r="E1150" t="n">
         <v>13</v>
@@ -83157,16 +83157,16 @@
         </is>
       </c>
       <c r="J1150" t="n">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="K1150" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="L1150" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="M1150" t="n">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="N1150" t="inlineStr">
         <is>
@@ -83179,7 +83179,7 @@
         </is>
       </c>
       <c r="P1150" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Q1150" t="n">
         <v>36</v>
@@ -83205,7 +83205,7 @@
         </is>
       </c>
       <c r="D1151" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E1151" t="n">
         <v>13</v>
@@ -83229,16 +83229,16 @@
         </is>
       </c>
       <c r="J1151" t="n">
-        <v>520</v>
+        <v>940</v>
       </c>
       <c r="K1151" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="L1151" t="n">
-        <v>3200</v>
+        <v>2500</v>
       </c>
       <c r="M1151" t="n">
-        <v>3062</v>
+        <v>2353</v>
       </c>
       <c r="N1151" t="inlineStr">
         <is>
@@ -83247,11 +83247,11 @@
       </c>
       <c r="O1151" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1151" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="Q1151" t="n">
         <v>36</v>
@@ -83277,7 +83277,7 @@
         </is>
       </c>
       <c r="D1152" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E1152" t="n">
         <v>13</v>
@@ -83297,20 +83297,20 @@
       </c>
       <c r="I1152" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1152" t="n">
-        <v>970</v>
+        <v>750</v>
       </c>
       <c r="K1152" t="n">
+        <v>2200</v>
+      </c>
+      <c r="L1152" t="n">
         <v>2500</v>
       </c>
-      <c r="L1152" t="n">
-        <v>2700</v>
-      </c>
       <c r="M1152" t="n">
-        <v>2601</v>
+        <v>2368</v>
       </c>
       <c r="N1152" t="inlineStr">
         <is>
@@ -83323,7 +83323,7 @@
         </is>
       </c>
       <c r="P1152" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="Q1152" t="n">
         <v>36</v>
@@ -83349,7 +83349,7 @@
         </is>
       </c>
       <c r="D1153" s="2" t="n">
-        <v>44201</v>
+        <v>44508</v>
       </c>
       <c r="E1153" t="n">
         <v>13</v>
@@ -83369,38 +83369,470 @@
       </c>
       <c r="I1153" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1153" t="n">
-        <v>560</v>
+        <v>1040</v>
       </c>
       <c r="K1153" t="n">
         <v>2000</v>
       </c>
       <c r="L1153" t="n">
+        <v>2100</v>
+      </c>
+      <c r="M1153" t="n">
+        <v>2053</v>
+      </c>
+      <c r="N1153" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1153" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P1153" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q1153" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1153" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1154" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1154" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1154" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E1154" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1154" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1154" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1154" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1154" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1154" t="n">
+        <v>870</v>
+      </c>
+      <c r="K1154" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L1154" t="n">
+        <v>2100</v>
+      </c>
+      <c r="M1154" t="n">
+        <v>2054</v>
+      </c>
+      <c r="N1154" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1154" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1154" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q1154" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1154" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1155" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1155" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1155" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E1155" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1155" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1155" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1155" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1155" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1155" t="n">
+        <v>250</v>
+      </c>
+      <c r="K1155" t="n">
+        <v>1600</v>
+      </c>
+      <c r="L1155" t="n">
+        <v>1600</v>
+      </c>
+      <c r="M1155" t="n">
+        <v>1600</v>
+      </c>
+      <c r="N1155" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1155" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P1155" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q1155" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1155" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1156" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1156" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1156" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="E1156" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1156" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1156" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1156" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1156" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1156" t="n">
+        <v>350</v>
+      </c>
+      <c r="K1156" t="n">
+        <v>1600</v>
+      </c>
+      <c r="L1156" t="n">
+        <v>1600</v>
+      </c>
+      <c r="M1156" t="n">
+        <v>1600</v>
+      </c>
+      <c r="N1156" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1156" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1156" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q1156" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1156" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1157" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1157" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1157" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E1157" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1157" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1157" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1157" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1157" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1157" t="n">
+        <v>520</v>
+      </c>
+      <c r="K1157" t="n">
+        <v>3000</v>
+      </c>
+      <c r="L1157" t="n">
+        <v>3200</v>
+      </c>
+      <c r="M1157" t="n">
+        <v>3062</v>
+      </c>
+      <c r="N1157" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1157" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1157" t="n">
+        <v>85</v>
+      </c>
+      <c r="Q1157" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1157" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1158" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1158" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1158" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E1158" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1158" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1158" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1158" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1158" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1158" t="n">
+        <v>970</v>
+      </c>
+      <c r="K1158" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L1158" t="n">
+        <v>2700</v>
+      </c>
+      <c r="M1158" t="n">
+        <v>2601</v>
+      </c>
+      <c r="N1158" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1158" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1158" t="n">
+        <v>72</v>
+      </c>
+      <c r="Q1158" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1158" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1159" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1159" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1159" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="E1159" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1159" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1159" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1159" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1159" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1159" t="n">
+        <v>560</v>
+      </c>
+      <c r="K1159" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L1159" t="n">
         <v>2200</v>
       </c>
-      <c r="M1153" t="n">
+      <c r="M1159" t="n">
         <v>2129</v>
       </c>
-      <c r="N1153" t="inlineStr">
-        <is>
-          <t>$/paquete 36 unidades</t>
-        </is>
-      </c>
-      <c r="O1153" t="inlineStr">
+      <c r="N1159" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1159" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P1153" t="n">
+      <c r="P1159" t="n">
         <v>59</v>
       </c>
-      <c r="Q1153" t="n">
-        <v>36</v>
-      </c>
-      <c r="R1153" t="inlineStr">
+      <c r="Q1159" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1159" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cebollín.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cebollín.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1293"/>
+  <dimension ref="A1:R1296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85293,7 +85293,7 @@
         </is>
       </c>
       <c r="D1180" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E1180" t="n">
         <v>13</v>
@@ -85317,16 +85317,16 @@
         </is>
       </c>
       <c r="J1180" t="n">
-        <v>790</v>
+        <v>960</v>
       </c>
       <c r="K1180" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="L1180" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="M1180" t="n">
-        <v>2911</v>
+        <v>2598</v>
       </c>
       <c r="N1180" t="inlineStr">
         <is>
@@ -85335,11 +85335,11 @@
       </c>
       <c r="O1180" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1180" t="n">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="Q1180" t="n">
         <v>36</v>
@@ -85365,7 +85365,7 @@
         </is>
       </c>
       <c r="D1181" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E1181" t="n">
         <v>13</v>
@@ -85385,20 +85385,20 @@
       </c>
       <c r="I1181" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1181" t="n">
-        <v>740</v>
+        <v>1110</v>
       </c>
       <c r="K1181" t="n">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="L1181" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="M1181" t="n">
-        <v>2858</v>
+        <v>2246</v>
       </c>
       <c r="N1181" t="inlineStr">
         <is>
@@ -85411,7 +85411,7 @@
         </is>
       </c>
       <c r="P1181" t="n">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="Q1181" t="n">
         <v>36</v>
@@ -85437,7 +85437,7 @@
         </is>
       </c>
       <c r="D1182" s="2" t="n">
-        <v>44490</v>
+        <v>44578</v>
       </c>
       <c r="E1182" t="n">
         <v>13</v>
@@ -85457,20 +85457,20 @@
       </c>
       <c r="I1182" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1182" t="n">
-        <v>660</v>
+        <v>250</v>
       </c>
       <c r="K1182" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="L1182" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M1182" t="n">
-        <v>2415</v>
+        <v>2000</v>
       </c>
       <c r="N1182" t="inlineStr">
         <is>
@@ -85479,11 +85479,11 @@
       </c>
       <c r="O1182" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1182" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="Q1182" t="n">
         <v>36</v>
@@ -85529,20 +85529,20 @@
       </c>
       <c r="I1183" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1183" t="n">
-        <v>750</v>
+        <v>790</v>
       </c>
       <c r="K1183" t="n">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="L1183" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="M1183" t="n">
-        <v>2493</v>
+        <v>2911</v>
       </c>
       <c r="N1183" t="inlineStr">
         <is>
@@ -85551,11 +85551,11 @@
       </c>
       <c r="O1183" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1183" t="n">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="Q1183" t="n">
         <v>36</v>
@@ -85601,20 +85601,20 @@
       </c>
       <c r="I1184" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1184" t="n">
-        <v>330</v>
+        <v>740</v>
       </c>
       <c r="K1184" t="n">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="L1184" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="M1184" t="n">
-        <v>1800</v>
+        <v>2858</v>
       </c>
       <c r="N1184" t="inlineStr">
         <is>
@@ -85623,11 +85623,11 @@
       </c>
       <c r="O1184" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1184" t="n">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="Q1184" t="n">
         <v>36</v>
@@ -85673,20 +85673,20 @@
       </c>
       <c r="I1185" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1185" t="n">
-        <v>290</v>
+        <v>660</v>
       </c>
       <c r="K1185" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="L1185" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="M1185" t="n">
-        <v>1800</v>
+        <v>2415</v>
       </c>
       <c r="N1185" t="inlineStr">
         <is>
@@ -85695,11 +85695,11 @@
       </c>
       <c r="O1185" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1185" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="Q1185" t="n">
         <v>36</v>
@@ -85725,7 +85725,7 @@
         </is>
       </c>
       <c r="D1186" s="2" t="n">
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="E1186" t="n">
         <v>13</v>
@@ -85745,20 +85745,20 @@
       </c>
       <c r="I1186" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1186" t="n">
-        <v>670</v>
+        <v>750</v>
       </c>
       <c r="K1186" t="n">
-        <v>3700</v>
+        <v>2400</v>
       </c>
       <c r="L1186" t="n">
-        <v>4000</v>
+        <v>2600</v>
       </c>
       <c r="M1186" t="n">
-        <v>3866</v>
+        <v>2493</v>
       </c>
       <c r="N1186" t="inlineStr">
         <is>
@@ -85767,11 +85767,11 @@
       </c>
       <c r="O1186" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1186" t="n">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="Q1186" t="n">
         <v>36</v>
@@ -85797,7 +85797,7 @@
         </is>
       </c>
       <c r="D1187" s="2" t="n">
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="E1187" t="n">
         <v>13</v>
@@ -85817,20 +85817,20 @@
       </c>
       <c r="I1187" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1187" t="n">
-        <v>750</v>
+        <v>330</v>
       </c>
       <c r="K1187" t="n">
-        <v>3700</v>
+        <v>1800</v>
       </c>
       <c r="L1187" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="M1187" t="n">
-        <v>3856</v>
+        <v>1800</v>
       </c>
       <c r="N1187" t="inlineStr">
         <is>
@@ -85839,11 +85839,11 @@
       </c>
       <c r="O1187" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1187" t="n">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="Q1187" t="n">
         <v>36</v>
@@ -85869,7 +85869,7 @@
         </is>
       </c>
       <c r="D1188" s="2" t="n">
-        <v>44427</v>
+        <v>44490</v>
       </c>
       <c r="E1188" t="n">
         <v>13</v>
@@ -85889,20 +85889,20 @@
       </c>
       <c r="I1188" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1188" t="n">
-        <v>620</v>
+        <v>290</v>
       </c>
       <c r="K1188" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="L1188" t="n">
-        <v>3200</v>
+        <v>1800</v>
       </c>
       <c r="M1188" t="n">
-        <v>3110</v>
+        <v>1800</v>
       </c>
       <c r="N1188" t="inlineStr">
         <is>
@@ -85911,11 +85911,11 @@
       </c>
       <c r="O1188" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1188" t="n">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="Q1188" t="n">
         <v>36</v>
@@ -85961,20 +85961,20 @@
       </c>
       <c r="I1189" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1189" t="n">
-        <v>830</v>
+        <v>670</v>
       </c>
       <c r="K1189" t="n">
-        <v>3000</v>
+        <v>3700</v>
       </c>
       <c r="L1189" t="n">
-        <v>3300</v>
+        <v>4000</v>
       </c>
       <c r="M1189" t="n">
-        <v>3152</v>
+        <v>3866</v>
       </c>
       <c r="N1189" t="inlineStr">
         <is>
@@ -85983,11 +85983,11 @@
       </c>
       <c r="O1189" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1189" t="n">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="Q1189" t="n">
         <v>36</v>
@@ -86033,20 +86033,20 @@
       </c>
       <c r="I1190" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1190" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="K1190" t="n">
-        <v>2300</v>
+        <v>3700</v>
       </c>
       <c r="L1190" t="n">
-        <v>2300</v>
+        <v>4000</v>
       </c>
       <c r="M1190" t="n">
-        <v>2300</v>
+        <v>3856</v>
       </c>
       <c r="N1190" t="inlineStr">
         <is>
@@ -86055,11 +86055,11 @@
       </c>
       <c r="O1190" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1190" t="n">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="Q1190" t="n">
         <v>36</v>
@@ -86105,20 +86105,20 @@
       </c>
       <c r="I1191" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1191" t="n">
-        <v>330</v>
+        <v>620</v>
       </c>
       <c r="K1191" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L1191" t="n">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="M1191" t="n">
-        <v>2400</v>
+        <v>3110</v>
       </c>
       <c r="N1191" t="inlineStr">
         <is>
@@ -86127,11 +86127,11 @@
       </c>
       <c r="O1191" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1191" t="n">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="Q1191" t="n">
         <v>36</v>
@@ -86157,7 +86157,7 @@
         </is>
       </c>
       <c r="D1192" s="2" t="n">
-        <v>44491</v>
+        <v>44427</v>
       </c>
       <c r="E1192" t="n">
         <v>13</v>
@@ -86177,20 +86177,20 @@
       </c>
       <c r="I1192" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1192" t="n">
-        <v>780</v>
+        <v>830</v>
       </c>
       <c r="K1192" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L1192" t="n">
-        <v>2700</v>
+        <v>3300</v>
       </c>
       <c r="M1192" t="n">
-        <v>2613</v>
+        <v>3152</v>
       </c>
       <c r="N1192" t="inlineStr">
         <is>
@@ -86199,11 +86199,11 @@
       </c>
       <c r="O1192" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1192" t="n">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="Q1192" t="n">
         <v>36</v>
@@ -86229,7 +86229,7 @@
         </is>
       </c>
       <c r="D1193" s="2" t="n">
-        <v>44491</v>
+        <v>44427</v>
       </c>
       <c r="E1193" t="n">
         <v>13</v>
@@ -86249,20 +86249,20 @@
       </c>
       <c r="I1193" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1193" t="n">
-        <v>750</v>
+        <v>250</v>
       </c>
       <c r="K1193" t="n">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="L1193" t="n">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="M1193" t="n">
-        <v>2664</v>
+        <v>2300</v>
       </c>
       <c r="N1193" t="inlineStr">
         <is>
@@ -86271,11 +86271,11 @@
       </c>
       <c r="O1193" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1193" t="n">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="Q1193" t="n">
         <v>36</v>
@@ -86301,7 +86301,7 @@
         </is>
       </c>
       <c r="D1194" s="2" t="n">
-        <v>44491</v>
+        <v>44427</v>
       </c>
       <c r="E1194" t="n">
         <v>13</v>
@@ -86321,20 +86321,20 @@
       </c>
       <c r="I1194" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1194" t="n">
-        <v>730</v>
+        <v>330</v>
       </c>
       <c r="K1194" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L1194" t="n">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="M1194" t="n">
-        <v>2156</v>
+        <v>2400</v>
       </c>
       <c r="N1194" t="inlineStr">
         <is>
@@ -86343,11 +86343,11 @@
       </c>
       <c r="O1194" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1194" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="Q1194" t="n">
         <v>36</v>
@@ -86393,20 +86393,20 @@
       </c>
       <c r="I1195" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1195" t="n">
-        <v>810</v>
+        <v>780</v>
       </c>
       <c r="K1195" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="L1195" t="n">
-        <v>2400</v>
+        <v>2700</v>
       </c>
       <c r="M1195" t="n">
-        <v>2267</v>
+        <v>2613</v>
       </c>
       <c r="N1195" t="inlineStr">
         <is>
@@ -86415,11 +86415,11 @@
       </c>
       <c r="O1195" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1195" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="Q1195" t="n">
         <v>36</v>
@@ -86465,20 +86465,20 @@
       </c>
       <c r="I1196" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1196" t="n">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="K1196" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L1196" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="M1196" t="n">
-        <v>1800</v>
+        <v>2664</v>
       </c>
       <c r="N1196" t="inlineStr">
         <is>
@@ -86487,11 +86487,11 @@
       </c>
       <c r="O1196" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1196" t="n">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="Q1196" t="n">
         <v>36</v>
@@ -86537,20 +86537,20 @@
       </c>
       <c r="I1197" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1197" t="n">
-        <v>330</v>
+        <v>730</v>
       </c>
       <c r="K1197" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L1197" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="M1197" t="n">
-        <v>1800</v>
+        <v>2156</v>
       </c>
       <c r="N1197" t="inlineStr">
         <is>
@@ -86559,11 +86559,11 @@
       </c>
       <c r="O1197" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1197" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="Q1197" t="n">
         <v>36</v>
@@ -86589,7 +86589,7 @@
         </is>
       </c>
       <c r="D1198" s="2" t="n">
-        <v>44293</v>
+        <v>44491</v>
       </c>
       <c r="E1198" t="n">
         <v>13</v>
@@ -86613,16 +86613,16 @@
         </is>
       </c>
       <c r="J1198" t="n">
-        <v>680</v>
+        <v>810</v>
       </c>
       <c r="K1198" t="n">
-        <v>2700</v>
+        <v>2100</v>
       </c>
       <c r="L1198" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="M1198" t="n">
-        <v>2868</v>
+        <v>2267</v>
       </c>
       <c r="N1198" t="inlineStr">
         <is>
@@ -86631,11 +86631,11 @@
       </c>
       <c r="O1198" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1198" t="n">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="Q1198" t="n">
         <v>36</v>
@@ -86661,7 +86661,7 @@
         </is>
       </c>
       <c r="D1199" s="2" t="n">
-        <v>44293</v>
+        <v>44491</v>
       </c>
       <c r="E1199" t="n">
         <v>13</v>
@@ -86681,20 +86681,20 @@
       </c>
       <c r="I1199" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1199" t="n">
-        <v>830</v>
+        <v>250</v>
       </c>
       <c r="K1199" t="n">
-        <v>2600</v>
+        <v>1800</v>
       </c>
       <c r="L1199" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="M1199" t="n">
-        <v>2812</v>
+        <v>1800</v>
       </c>
       <c r="N1199" t="inlineStr">
         <is>
@@ -86703,11 +86703,11 @@
       </c>
       <c r="O1199" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1199" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="Q1199" t="n">
         <v>36</v>
@@ -86733,7 +86733,7 @@
         </is>
       </c>
       <c r="D1200" s="2" t="n">
-        <v>44293</v>
+        <v>44491</v>
       </c>
       <c r="E1200" t="n">
         <v>13</v>
@@ -86757,16 +86757,16 @@
         </is>
       </c>
       <c r="J1200" t="n">
-        <v>260</v>
+        <v>330</v>
       </c>
       <c r="K1200" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L1200" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="M1200" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="N1200" t="inlineStr">
         <is>
@@ -86775,11 +86775,11 @@
       </c>
       <c r="O1200" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1200" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Q1200" t="n">
         <v>36</v>
@@ -86825,20 +86825,20 @@
       </c>
       <c r="I1201" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1201" t="n">
-        <v>320</v>
+        <v>680</v>
       </c>
       <c r="K1201" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="L1201" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M1201" t="n">
-        <v>2000</v>
+        <v>2868</v>
       </c>
       <c r="N1201" t="inlineStr">
         <is>
@@ -86847,11 +86847,11 @@
       </c>
       <c r="O1201" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1201" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="Q1201" t="n">
         <v>36</v>
@@ -86877,7 +86877,7 @@
         </is>
       </c>
       <c r="D1202" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E1202" t="n">
         <v>13</v>
@@ -86901,16 +86901,16 @@
         </is>
       </c>
       <c r="J1202" t="n">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="K1202" t="n">
-        <v>3400</v>
+        <v>2600</v>
       </c>
       <c r="L1202" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="M1202" t="n">
-        <v>3507</v>
+        <v>2812</v>
       </c>
       <c r="N1202" t="inlineStr">
         <is>
@@ -86919,11 +86919,11 @@
       </c>
       <c r="O1202" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1202" t="n">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="Q1202" t="n">
         <v>36</v>
@@ -86949,7 +86949,7 @@
         </is>
       </c>
       <c r="D1203" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E1203" t="n">
         <v>13</v>
@@ -86969,20 +86969,20 @@
       </c>
       <c r="I1203" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1203" t="n">
-        <v>1200</v>
+        <v>260</v>
       </c>
       <c r="K1203" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="L1203" t="n">
-        <v>3700</v>
+        <v>2000</v>
       </c>
       <c r="M1203" t="n">
-        <v>3610</v>
+        <v>2000</v>
       </c>
       <c r="N1203" t="inlineStr">
         <is>
@@ -86991,11 +86991,11 @@
       </c>
       <c r="O1203" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1203" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="Q1203" t="n">
         <v>36</v>
@@ -87021,7 +87021,7 @@
         </is>
       </c>
       <c r="D1204" s="2" t="n">
-        <v>44266</v>
+        <v>44293</v>
       </c>
       <c r="E1204" t="n">
         <v>13</v>
@@ -87045,16 +87045,16 @@
         </is>
       </c>
       <c r="J1204" t="n">
-        <v>570</v>
+        <v>320</v>
       </c>
       <c r="K1204" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="L1204" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M1204" t="n">
-        <v>2868</v>
+        <v>2000</v>
       </c>
       <c r="N1204" t="inlineStr">
         <is>
@@ -87063,11 +87063,11 @@
       </c>
       <c r="O1204" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1204" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="Q1204" t="n">
         <v>36</v>
@@ -87113,20 +87113,20 @@
       </c>
       <c r="I1205" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1205" t="n">
-        <v>950</v>
+        <v>820</v>
       </c>
       <c r="K1205" t="n">
-        <v>2700</v>
+        <v>3400</v>
       </c>
       <c r="L1205" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="M1205" t="n">
-        <v>2848</v>
+        <v>3507</v>
       </c>
       <c r="N1205" t="inlineStr">
         <is>
@@ -87135,11 +87135,11 @@
       </c>
       <c r="O1205" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1205" t="n">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="Q1205" t="n">
         <v>36</v>
@@ -87165,7 +87165,7 @@
         </is>
       </c>
       <c r="D1206" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E1206" t="n">
         <v>13</v>
@@ -87185,20 +87185,20 @@
       </c>
       <c r="I1206" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1206" t="n">
-        <v>850</v>
+        <v>1200</v>
       </c>
       <c r="K1206" t="n">
-        <v>2300</v>
+        <v>3500</v>
       </c>
       <c r="L1206" t="n">
-        <v>2500</v>
+        <v>3700</v>
       </c>
       <c r="M1206" t="n">
-        <v>2411</v>
+        <v>3610</v>
       </c>
       <c r="N1206" t="inlineStr">
         <is>
@@ -87207,11 +87207,11 @@
       </c>
       <c r="O1206" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1206" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="Q1206" t="n">
         <v>36</v>
@@ -87237,7 +87237,7 @@
         </is>
       </c>
       <c r="D1207" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E1207" t="n">
         <v>13</v>
@@ -87257,20 +87257,20 @@
       </c>
       <c r="I1207" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1207" t="n">
-        <v>870</v>
+        <v>570</v>
       </c>
       <c r="K1207" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="L1207" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M1207" t="n">
-        <v>2401</v>
+        <v>2868</v>
       </c>
       <c r="N1207" t="inlineStr">
         <is>
@@ -87279,11 +87279,11 @@
       </c>
       <c r="O1207" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1207" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="Q1207" t="n">
         <v>36</v>
@@ -87309,7 +87309,7 @@
         </is>
       </c>
       <c r="D1208" s="2" t="n">
-        <v>44533</v>
+        <v>44266</v>
       </c>
       <c r="E1208" t="n">
         <v>13</v>
@@ -87329,20 +87329,20 @@
       </c>
       <c r="I1208" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1208" t="n">
-        <v>670</v>
+        <v>950</v>
       </c>
       <c r="K1208" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="L1208" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M1208" t="n">
-        <v>2119</v>
+        <v>2848</v>
       </c>
       <c r="N1208" t="inlineStr">
         <is>
@@ -87351,11 +87351,11 @@
       </c>
       <c r="O1208" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1208" t="n">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="Q1208" t="n">
         <v>36</v>
@@ -87401,20 +87401,20 @@
       </c>
       <c r="I1209" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1209" t="n">
-        <v>870</v>
+        <v>850</v>
       </c>
       <c r="K1209" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="L1209" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M1209" t="n">
-        <v>2087</v>
+        <v>2411</v>
       </c>
       <c r="N1209" t="inlineStr">
         <is>
@@ -87423,11 +87423,11 @@
       </c>
       <c r="O1209" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1209" t="n">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="Q1209" t="n">
         <v>36</v>
@@ -87473,20 +87473,20 @@
       </c>
       <c r="I1210" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1210" t="n">
-        <v>300</v>
+        <v>870</v>
       </c>
       <c r="K1210" t="n">
-        <v>1700</v>
+        <v>2300</v>
       </c>
       <c r="L1210" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="M1210" t="n">
-        <v>1700</v>
+        <v>2401</v>
       </c>
       <c r="N1210" t="inlineStr">
         <is>
@@ -87495,11 +87495,11 @@
       </c>
       <c r="O1210" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1210" t="n">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="Q1210" t="n">
         <v>36</v>
@@ -87545,20 +87545,20 @@
       </c>
       <c r="I1211" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1211" t="n">
-        <v>300</v>
+        <v>670</v>
       </c>
       <c r="K1211" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="L1211" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="M1211" t="n">
-        <v>1700</v>
+        <v>2119</v>
       </c>
       <c r="N1211" t="inlineStr">
         <is>
@@ -87567,11 +87567,11 @@
       </c>
       <c r="O1211" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1211" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="Q1211" t="n">
         <v>36</v>
@@ -87597,7 +87597,7 @@
         </is>
       </c>
       <c r="D1212" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E1212" t="n">
         <v>13</v>
@@ -87621,16 +87621,16 @@
         </is>
       </c>
       <c r="J1212" t="n">
-        <v>810</v>
+        <v>870</v>
       </c>
       <c r="K1212" t="n">
-        <v>3800</v>
+        <v>2000</v>
       </c>
       <c r="L1212" t="n">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="M1212" t="n">
-        <v>3909</v>
+        <v>2087</v>
       </c>
       <c r="N1212" t="inlineStr">
         <is>
@@ -87639,11 +87639,11 @@
       </c>
       <c r="O1212" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1212" t="n">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="Q1212" t="n">
         <v>36</v>
@@ -87669,7 +87669,7 @@
         </is>
       </c>
       <c r="D1213" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E1213" t="n">
         <v>13</v>
@@ -87689,20 +87689,20 @@
       </c>
       <c r="I1213" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1213" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="K1213" t="n">
-        <v>3600</v>
+        <v>1700</v>
       </c>
       <c r="L1213" t="n">
-        <v>3800</v>
+        <v>1700</v>
       </c>
       <c r="M1213" t="n">
-        <v>3692</v>
+        <v>1700</v>
       </c>
       <c r="N1213" t="inlineStr">
         <is>
@@ -87711,11 +87711,11 @@
       </c>
       <c r="O1213" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1213" t="n">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="Q1213" t="n">
         <v>36</v>
@@ -87741,7 +87741,7 @@
         </is>
       </c>
       <c r="D1214" s="2" t="n">
-        <v>44264</v>
+        <v>44533</v>
       </c>
       <c r="E1214" t="n">
         <v>13</v>
@@ -87765,16 +87765,16 @@
         </is>
       </c>
       <c r="J1214" t="n">
-        <v>530</v>
+        <v>300</v>
       </c>
       <c r="K1214" t="n">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="L1214" t="n">
-        <v>3300</v>
+        <v>1700</v>
       </c>
       <c r="M1214" t="n">
-        <v>3158</v>
+        <v>1700</v>
       </c>
       <c r="N1214" t="inlineStr">
         <is>
@@ -87783,11 +87783,11 @@
       </c>
       <c r="O1214" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1214" t="n">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="Q1214" t="n">
         <v>36</v>
@@ -87833,20 +87833,20 @@
       </c>
       <c r="I1215" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1215" t="n">
-        <v>460</v>
+        <v>810</v>
       </c>
       <c r="K1215" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L1215" t="n">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="M1215" t="n">
-        <v>3096</v>
+        <v>3909</v>
       </c>
       <c r="N1215" t="inlineStr">
         <is>
@@ -87855,11 +87855,11 @@
       </c>
       <c r="O1215" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1215" t="n">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="Q1215" t="n">
         <v>36</v>
@@ -87885,7 +87885,7 @@
         </is>
       </c>
       <c r="D1216" s="2" t="n">
-        <v>44494</v>
+        <v>44264</v>
       </c>
       <c r="E1216" t="n">
         <v>13</v>
@@ -87905,20 +87905,20 @@
       </c>
       <c r="I1216" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1216" t="n">
-        <v>680</v>
+        <v>720</v>
       </c>
       <c r="K1216" t="n">
-        <v>2700</v>
+        <v>3600</v>
       </c>
       <c r="L1216" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="M1216" t="n">
-        <v>2854</v>
+        <v>3692</v>
       </c>
       <c r="N1216" t="inlineStr">
         <is>
@@ -87927,11 +87927,11 @@
       </c>
       <c r="O1216" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1216" t="n">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="Q1216" t="n">
         <v>36</v>
@@ -87957,7 +87957,7 @@
         </is>
       </c>
       <c r="D1217" s="2" t="n">
-        <v>44494</v>
+        <v>44264</v>
       </c>
       <c r="E1217" t="n">
         <v>13</v>
@@ -87977,20 +87977,20 @@
       </c>
       <c r="I1217" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1217" t="n">
-        <v>730</v>
+        <v>530</v>
       </c>
       <c r="K1217" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="L1217" t="n">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="M1217" t="n">
-        <v>2860</v>
+        <v>3158</v>
       </c>
       <c r="N1217" t="inlineStr">
         <is>
@@ -87999,11 +87999,11 @@
       </c>
       <c r="O1217" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1217" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="Q1217" t="n">
         <v>36</v>
@@ -88029,7 +88029,7 @@
         </is>
       </c>
       <c r="D1218" s="2" t="n">
-        <v>44494</v>
+        <v>44264</v>
       </c>
       <c r="E1218" t="n">
         <v>13</v>
@@ -88049,20 +88049,20 @@
       </c>
       <c r="I1218" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1218" t="n">
-        <v>640</v>
+        <v>460</v>
       </c>
       <c r="K1218" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="L1218" t="n">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="M1218" t="n">
-        <v>2403</v>
+        <v>3096</v>
       </c>
       <c r="N1218" t="inlineStr">
         <is>
@@ -88071,11 +88071,11 @@
       </c>
       <c r="O1218" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1218" t="n">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="Q1218" t="n">
         <v>36</v>
@@ -88121,20 +88121,20 @@
       </c>
       <c r="I1219" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1219" t="n">
-        <v>630</v>
+        <v>680</v>
       </c>
       <c r="K1219" t="n">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="L1219" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M1219" t="n">
-        <v>2357</v>
+        <v>2854</v>
       </c>
       <c r="N1219" t="inlineStr">
         <is>
@@ -88143,11 +88143,11 @@
       </c>
       <c r="O1219" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1219" t="n">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="Q1219" t="n">
         <v>36</v>
@@ -88193,20 +88193,20 @@
       </c>
       <c r="I1220" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1220" t="n">
-        <v>240</v>
+        <v>730</v>
       </c>
       <c r="K1220" t="n">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="L1220" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="M1220" t="n">
-        <v>1800</v>
+        <v>2860</v>
       </c>
       <c r="N1220" t="inlineStr">
         <is>
@@ -88215,11 +88215,11 @@
       </c>
       <c r="O1220" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1220" t="n">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="Q1220" t="n">
         <v>36</v>
@@ -88265,20 +88265,20 @@
       </c>
       <c r="I1221" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1221" t="n">
-        <v>260</v>
+        <v>640</v>
       </c>
       <c r="K1221" t="n">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="L1221" t="n">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="M1221" t="n">
-        <v>1900</v>
+        <v>2403</v>
       </c>
       <c r="N1221" t="inlineStr">
         <is>
@@ -88287,11 +88287,11 @@
       </c>
       <c r="O1221" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1221" t="n">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="Q1221" t="n">
         <v>36</v>
@@ -88317,7 +88317,7 @@
         </is>
       </c>
       <c r="D1222" s="2" t="n">
-        <v>44571</v>
+        <v>44494</v>
       </c>
       <c r="E1222" t="n">
         <v>13</v>
@@ -88337,20 +88337,20 @@
       </c>
       <c r="I1222" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1222" t="n">
-        <v>930</v>
+        <v>630</v>
       </c>
       <c r="K1222" t="n">
+        <v>2200</v>
+      </c>
+      <c r="L1222" t="n">
         <v>2500</v>
       </c>
-      <c r="L1222" t="n">
-        <v>2700</v>
-      </c>
       <c r="M1222" t="n">
-        <v>2595</v>
+        <v>2357</v>
       </c>
       <c r="N1222" t="inlineStr">
         <is>
@@ -88363,7 +88363,7 @@
         </is>
       </c>
       <c r="P1222" t="n">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="Q1222" t="n">
         <v>36</v>
@@ -88389,7 +88389,7 @@
         </is>
       </c>
       <c r="D1223" s="2" t="n">
-        <v>44571</v>
+        <v>44494</v>
       </c>
       <c r="E1223" t="n">
         <v>13</v>
@@ -88409,20 +88409,20 @@
       </c>
       <c r="I1223" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1223" t="n">
-        <v>1180</v>
+        <v>240</v>
       </c>
       <c r="K1223" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="L1223" t="n">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="M1223" t="n">
-        <v>2247</v>
+        <v>1800</v>
       </c>
       <c r="N1223" t="inlineStr">
         <is>
@@ -88431,11 +88431,11 @@
       </c>
       <c r="O1223" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1223" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="Q1223" t="n">
         <v>36</v>
@@ -88461,7 +88461,7 @@
         </is>
       </c>
       <c r="D1224" s="2" t="n">
-        <v>44571</v>
+        <v>44494</v>
       </c>
       <c r="E1224" t="n">
         <v>13</v>
@@ -88485,16 +88485,16 @@
         </is>
       </c>
       <c r="J1224" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="K1224" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="L1224" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="M1224" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="N1224" t="inlineStr">
         <is>
@@ -88507,7 +88507,7 @@
         </is>
       </c>
       <c r="P1224" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q1224" t="n">
         <v>36</v>
@@ -88533,7 +88533,7 @@
         </is>
       </c>
       <c r="D1225" s="2" t="n">
-        <v>44390</v>
+        <v>44571</v>
       </c>
       <c r="E1225" t="n">
         <v>13</v>
@@ -88557,16 +88557,16 @@
         </is>
       </c>
       <c r="J1225" t="n">
-        <v>420</v>
+        <v>930</v>
       </c>
       <c r="K1225" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L1225" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="M1225" t="n">
-        <v>3000</v>
+        <v>2595</v>
       </c>
       <c r="N1225" t="inlineStr">
         <is>
@@ -88575,11 +88575,11 @@
       </c>
       <c r="O1225" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1225" t="n">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="Q1225" t="n">
         <v>36</v>
@@ -88605,7 +88605,7 @@
         </is>
       </c>
       <c r="D1226" s="2" t="n">
-        <v>44390</v>
+        <v>44571</v>
       </c>
       <c r="E1226" t="n">
         <v>13</v>
@@ -88625,20 +88625,20 @@
       </c>
       <c r="I1226" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1226" t="n">
-        <v>270</v>
+        <v>1180</v>
       </c>
       <c r="K1226" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="L1226" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="M1226" t="n">
-        <v>3000</v>
+        <v>2247</v>
       </c>
       <c r="N1226" t="inlineStr">
         <is>
@@ -88651,7 +88651,7 @@
         </is>
       </c>
       <c r="P1226" t="n">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="Q1226" t="n">
         <v>36</v>
@@ -88677,7 +88677,7 @@
         </is>
       </c>
       <c r="D1227" s="2" t="n">
-        <v>44390</v>
+        <v>44571</v>
       </c>
       <c r="E1227" t="n">
         <v>13</v>
@@ -88697,20 +88697,20 @@
       </c>
       <c r="I1227" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1227" t="n">
-        <v>820</v>
+        <v>300</v>
       </c>
       <c r="K1227" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="L1227" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="M1227" t="n">
-        <v>2485</v>
+        <v>2000</v>
       </c>
       <c r="N1227" t="inlineStr">
         <is>
@@ -88719,11 +88719,11 @@
       </c>
       <c r="O1227" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1227" t="n">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="Q1227" t="n">
         <v>36</v>
@@ -88769,20 +88769,20 @@
       </c>
       <c r="I1228" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1228" t="n">
-        <v>770</v>
+        <v>420</v>
       </c>
       <c r="K1228" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L1228" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M1228" t="n">
-        <v>2599</v>
+        <v>3000</v>
       </c>
       <c r="N1228" t="inlineStr">
         <is>
@@ -88791,11 +88791,11 @@
       </c>
       <c r="O1228" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1228" t="n">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="Q1228" t="n">
         <v>36</v>
@@ -88841,20 +88841,20 @@
       </c>
       <c r="I1229" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1229" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="K1229" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L1229" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M1229" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="N1229" t="inlineStr">
         <is>
@@ -88863,11 +88863,11 @@
       </c>
       <c r="O1229" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1229" t="n">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="Q1229" t="n">
         <v>36</v>
@@ -88913,20 +88913,20 @@
       </c>
       <c r="I1230" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1230" t="n">
-        <v>190</v>
+        <v>820</v>
       </c>
       <c r="K1230" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="L1230" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="M1230" t="n">
-        <v>2200</v>
+        <v>2485</v>
       </c>
       <c r="N1230" t="inlineStr">
         <is>
@@ -88935,11 +88935,11 @@
       </c>
       <c r="O1230" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1230" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="Q1230" t="n">
         <v>36</v>
@@ -88965,7 +88965,7 @@
         </is>
       </c>
       <c r="D1231" s="2" t="n">
-        <v>44279</v>
+        <v>44390</v>
       </c>
       <c r="E1231" t="n">
         <v>13</v>
@@ -88989,16 +88989,16 @@
         </is>
       </c>
       <c r="J1231" t="n">
-        <v>640</v>
+        <v>770</v>
       </c>
       <c r="K1231" t="n">
-        <v>3400</v>
+        <v>2500</v>
       </c>
       <c r="L1231" t="n">
-        <v>3600</v>
+        <v>2700</v>
       </c>
       <c r="M1231" t="n">
-        <v>3512</v>
+        <v>2599</v>
       </c>
       <c r="N1231" t="inlineStr">
         <is>
@@ -89007,11 +89007,11 @@
       </c>
       <c r="O1231" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1231" t="n">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="Q1231" t="n">
         <v>36</v>
@@ -89037,7 +89037,7 @@
         </is>
       </c>
       <c r="D1232" s="2" t="n">
-        <v>44279</v>
+        <v>44390</v>
       </c>
       <c r="E1232" t="n">
         <v>13</v>
@@ -89057,20 +89057,20 @@
       </c>
       <c r="I1232" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1232" t="n">
-        <v>660</v>
+        <v>200</v>
       </c>
       <c r="K1232" t="n">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="L1232" t="n">
-        <v>3600</v>
+        <v>2200</v>
       </c>
       <c r="M1232" t="n">
-        <v>3518</v>
+        <v>2200</v>
       </c>
       <c r="N1232" t="inlineStr">
         <is>
@@ -89079,11 +89079,11 @@
       </c>
       <c r="O1232" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1232" t="n">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="Q1232" t="n">
         <v>36</v>
@@ -89109,7 +89109,7 @@
         </is>
       </c>
       <c r="D1233" s="2" t="n">
-        <v>44279</v>
+        <v>44390</v>
       </c>
       <c r="E1233" t="n">
         <v>13</v>
@@ -89133,16 +89133,16 @@
         </is>
       </c>
       <c r="J1233" t="n">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="K1233" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="L1233" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="M1233" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="N1233" t="inlineStr">
         <is>
@@ -89151,11 +89151,11 @@
       </c>
       <c r="O1233" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1233" t="n">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="Q1233" t="n">
         <v>36</v>
@@ -89201,20 +89201,20 @@
       </c>
       <c r="I1234" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1234" t="n">
-        <v>230</v>
+        <v>640</v>
       </c>
       <c r="K1234" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="L1234" t="n">
-        <v>2800</v>
+        <v>3600</v>
       </c>
       <c r="M1234" t="n">
-        <v>2800</v>
+        <v>3512</v>
       </c>
       <c r="N1234" t="inlineStr">
         <is>
@@ -89223,11 +89223,11 @@
       </c>
       <c r="O1234" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1234" t="n">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="Q1234" t="n">
         <v>36</v>
@@ -89253,7 +89253,7 @@
         </is>
       </c>
       <c r="D1235" s="2" t="n">
-        <v>44481</v>
+        <v>44279</v>
       </c>
       <c r="E1235" t="n">
         <v>13</v>
@@ -89273,20 +89273,20 @@
       </c>
       <c r="I1235" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1235" t="n">
-        <v>770</v>
+        <v>660</v>
       </c>
       <c r="K1235" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="L1235" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="M1235" t="n">
-        <v>2914</v>
+        <v>3518</v>
       </c>
       <c r="N1235" t="inlineStr">
         <is>
@@ -89295,11 +89295,11 @@
       </c>
       <c r="O1235" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1235" t="n">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="Q1235" t="n">
         <v>36</v>
@@ -89325,7 +89325,7 @@
         </is>
       </c>
       <c r="D1236" s="2" t="n">
-        <v>44481</v>
+        <v>44279</v>
       </c>
       <c r="E1236" t="n">
         <v>13</v>
@@ -89345,20 +89345,20 @@
       </c>
       <c r="I1236" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1236" t="n">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="K1236" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="L1236" t="n">
         <v>3000</v>
       </c>
       <c r="M1236" t="n">
-        <v>2857</v>
+        <v>3000</v>
       </c>
       <c r="N1236" t="inlineStr">
         <is>
@@ -89367,11 +89367,11 @@
       </c>
       <c r="O1236" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1236" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Q1236" t="n">
         <v>36</v>
@@ -89397,7 +89397,7 @@
         </is>
       </c>
       <c r="D1237" s="2" t="n">
-        <v>44481</v>
+        <v>44279</v>
       </c>
       <c r="E1237" t="n">
         <v>13</v>
@@ -89417,20 +89417,20 @@
       </c>
       <c r="I1237" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1237" t="n">
-        <v>920</v>
+        <v>230</v>
       </c>
       <c r="K1237" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="L1237" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M1237" t="n">
-        <v>2413</v>
+        <v>2800</v>
       </c>
       <c r="N1237" t="inlineStr">
         <is>
@@ -89439,11 +89439,11 @@
       </c>
       <c r="O1237" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1237" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="Q1237" t="n">
         <v>36</v>
@@ -89489,20 +89489,20 @@
       </c>
       <c r="I1238" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1238" t="n">
-        <v>1010</v>
+        <v>770</v>
       </c>
       <c r="K1238" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="L1238" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M1238" t="n">
-        <v>2389</v>
+        <v>2914</v>
       </c>
       <c r="N1238" t="inlineStr">
         <is>
@@ -89511,11 +89511,11 @@
       </c>
       <c r="O1238" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1238" t="n">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="Q1238" t="n">
         <v>36</v>
@@ -89561,20 +89561,20 @@
       </c>
       <c r="I1239" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1239" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="K1239" t="n">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="L1239" t="n">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="M1239" t="n">
-        <v>1800</v>
+        <v>2857</v>
       </c>
       <c r="N1239" t="inlineStr">
         <is>
@@ -89583,11 +89583,11 @@
       </c>
       <c r="O1239" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1239" t="n">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="Q1239" t="n">
         <v>36</v>
@@ -89633,20 +89633,20 @@
       </c>
       <c r="I1240" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1240" t="n">
-        <v>310</v>
+        <v>920</v>
       </c>
       <c r="K1240" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="L1240" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="M1240" t="n">
-        <v>1800</v>
+        <v>2413</v>
       </c>
       <c r="N1240" t="inlineStr">
         <is>
@@ -89655,11 +89655,11 @@
       </c>
       <c r="O1240" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1240" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="Q1240" t="n">
         <v>36</v>
@@ -89705,20 +89705,20 @@
       </c>
       <c r="I1241" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1241" t="n">
-        <v>310</v>
+        <v>1010</v>
       </c>
       <c r="K1241" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="L1241" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="M1241" t="n">
-        <v>1800</v>
+        <v>2389</v>
       </c>
       <c r="N1241" t="inlineStr">
         <is>
@@ -89731,7 +89731,7 @@
         </is>
       </c>
       <c r="P1241" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="Q1241" t="n">
         <v>36</v>
@@ -89757,7 +89757,7 @@
         </is>
       </c>
       <c r="D1242" s="2" t="n">
-        <v>44277</v>
+        <v>44481</v>
       </c>
       <c r="E1242" t="n">
         <v>13</v>
@@ -89777,20 +89777,20 @@
       </c>
       <c r="I1242" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1242" t="n">
-        <v>660</v>
+        <v>300</v>
       </c>
       <c r="K1242" t="n">
-        <v>3400</v>
+        <v>1800</v>
       </c>
       <c r="L1242" t="n">
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="M1242" t="n">
-        <v>3515</v>
+        <v>1800</v>
       </c>
       <c r="N1242" t="inlineStr">
         <is>
@@ -89803,7 +89803,7 @@
         </is>
       </c>
       <c r="P1242" t="n">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="Q1242" t="n">
         <v>36</v>
@@ -89829,7 +89829,7 @@
         </is>
       </c>
       <c r="D1243" s="2" t="n">
-        <v>44277</v>
+        <v>44481</v>
       </c>
       <c r="E1243" t="n">
         <v>13</v>
@@ -89849,20 +89849,20 @@
       </c>
       <c r="I1243" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1243" t="n">
-        <v>750</v>
+        <v>310</v>
       </c>
       <c r="K1243" t="n">
-        <v>3400</v>
+        <v>1800</v>
       </c>
       <c r="L1243" t="n">
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="M1243" t="n">
-        <v>3512</v>
+        <v>1800</v>
       </c>
       <c r="N1243" t="inlineStr">
         <is>
@@ -89875,7 +89875,7 @@
         </is>
       </c>
       <c r="P1243" t="n">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="Q1243" t="n">
         <v>36</v>
@@ -89901,7 +89901,7 @@
         </is>
       </c>
       <c r="D1244" s="2" t="n">
-        <v>44277</v>
+        <v>44481</v>
       </c>
       <c r="E1244" t="n">
         <v>13</v>
@@ -89925,16 +89925,16 @@
         </is>
       </c>
       <c r="J1244" t="n">
-        <v>480</v>
+        <v>310</v>
       </c>
       <c r="K1244" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="L1244" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="M1244" t="n">
-        <v>2900</v>
+        <v>1800</v>
       </c>
       <c r="N1244" t="inlineStr">
         <is>
@@ -89943,11 +89943,11 @@
       </c>
       <c r="O1244" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1244" t="n">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="Q1244" t="n">
         <v>36</v>
@@ -89993,20 +89993,20 @@
       </c>
       <c r="I1245" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1245" t="n">
-        <v>540</v>
+        <v>660</v>
       </c>
       <c r="K1245" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="L1245" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="M1245" t="n">
-        <v>2911</v>
+        <v>3515</v>
       </c>
       <c r="N1245" t="inlineStr">
         <is>
@@ -90015,11 +90015,11 @@
       </c>
       <c r="O1245" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1245" t="n">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="Q1245" t="n">
         <v>36</v>
@@ -90045,7 +90045,7 @@
         </is>
       </c>
       <c r="D1246" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E1246" t="n">
         <v>13</v>
@@ -90065,20 +90065,20 @@
       </c>
       <c r="I1246" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1246" t="n">
-        <v>990</v>
+        <v>750</v>
       </c>
       <c r="K1246" t="n">
-        <v>2400</v>
+        <v>3400</v>
       </c>
       <c r="L1246" t="n">
-        <v>2500</v>
+        <v>3600</v>
       </c>
       <c r="M1246" t="n">
-        <v>2444</v>
+        <v>3512</v>
       </c>
       <c r="N1246" t="inlineStr">
         <is>
@@ -90087,11 +90087,11 @@
       </c>
       <c r="O1246" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1246" t="n">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="Q1246" t="n">
         <v>36</v>
@@ -90117,7 +90117,7 @@
         </is>
       </c>
       <c r="D1247" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E1247" t="n">
         <v>13</v>
@@ -90137,20 +90137,20 @@
       </c>
       <c r="I1247" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1247" t="n">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="K1247" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="L1247" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M1247" t="n">
-        <v>2402</v>
+        <v>2900</v>
       </c>
       <c r="N1247" t="inlineStr">
         <is>
@@ -90159,11 +90159,11 @@
       </c>
       <c r="O1247" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1247" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="Q1247" t="n">
         <v>36</v>
@@ -90189,7 +90189,7 @@
         </is>
       </c>
       <c r="D1248" s="2" t="n">
-        <v>44525</v>
+        <v>44277</v>
       </c>
       <c r="E1248" t="n">
         <v>13</v>
@@ -90209,20 +90209,20 @@
       </c>
       <c r="I1248" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1248" t="n">
-        <v>1000</v>
+        <v>540</v>
       </c>
       <c r="K1248" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="L1248" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M1248" t="n">
-        <v>2104</v>
+        <v>2911</v>
       </c>
       <c r="N1248" t="inlineStr">
         <is>
@@ -90231,11 +90231,11 @@
       </c>
       <c r="O1248" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1248" t="n">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="Q1248" t="n">
         <v>36</v>
@@ -90281,20 +90281,20 @@
       </c>
       <c r="I1249" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1249" t="n">
-        <v>860</v>
+        <v>990</v>
       </c>
       <c r="K1249" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L1249" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M1249" t="n">
-        <v>2105</v>
+        <v>2444</v>
       </c>
       <c r="N1249" t="inlineStr">
         <is>
@@ -90303,11 +90303,11 @@
       </c>
       <c r="O1249" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1249" t="n">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="Q1249" t="n">
         <v>36</v>
@@ -90353,20 +90353,20 @@
       </c>
       <c r="I1250" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1250" t="n">
-        <v>300</v>
+        <v>960</v>
       </c>
       <c r="K1250" t="n">
-        <v>1700</v>
+        <v>2300</v>
       </c>
       <c r="L1250" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="M1250" t="n">
-        <v>1700</v>
+        <v>2402</v>
       </c>
       <c r="N1250" t="inlineStr">
         <is>
@@ -90375,11 +90375,11 @@
       </c>
       <c r="O1250" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1250" t="n">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="Q1250" t="n">
         <v>36</v>
@@ -90425,20 +90425,20 @@
       </c>
       <c r="I1251" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1251" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="K1251" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="L1251" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="M1251" t="n">
-        <v>1700</v>
+        <v>2104</v>
       </c>
       <c r="N1251" t="inlineStr">
         <is>
@@ -90447,11 +90447,11 @@
       </c>
       <c r="O1251" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1251" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="Q1251" t="n">
         <v>36</v>
@@ -90477,7 +90477,7 @@
         </is>
       </c>
       <c r="D1252" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E1252" t="n">
         <v>13</v>
@@ -90497,20 +90497,20 @@
       </c>
       <c r="I1252" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1252" t="n">
-        <v>370</v>
+        <v>860</v>
       </c>
       <c r="K1252" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L1252" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="M1252" t="n">
-        <v>3000</v>
+        <v>2105</v>
       </c>
       <c r="N1252" t="inlineStr">
         <is>
@@ -90519,11 +90519,11 @@
       </c>
       <c r="O1252" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1252" t="n">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="Q1252" t="n">
         <v>36</v>
@@ -90549,7 +90549,7 @@
         </is>
       </c>
       <c r="D1253" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E1253" t="n">
         <v>13</v>
@@ -90569,20 +90569,20 @@
       </c>
       <c r="I1253" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1253" t="n">
-        <v>420</v>
+        <v>300</v>
       </c>
       <c r="K1253" t="n">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="L1253" t="n">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="M1253" t="n">
-        <v>3000</v>
+        <v>1700</v>
       </c>
       <c r="N1253" t="inlineStr">
         <is>
@@ -90591,11 +90591,11 @@
       </c>
       <c r="O1253" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1253" t="n">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="Q1253" t="n">
         <v>36</v>
@@ -90621,7 +90621,7 @@
         </is>
       </c>
       <c r="D1254" s="2" t="n">
-        <v>44327</v>
+        <v>44525</v>
       </c>
       <c r="E1254" t="n">
         <v>13</v>
@@ -90641,20 +90641,20 @@
       </c>
       <c r="I1254" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1254" t="n">
-        <v>770</v>
+        <v>280</v>
       </c>
       <c r="K1254" t="n">
-        <v>2400</v>
+        <v>1700</v>
       </c>
       <c r="L1254" t="n">
-        <v>2600</v>
+        <v>1700</v>
       </c>
       <c r="M1254" t="n">
-        <v>2517</v>
+        <v>1700</v>
       </c>
       <c r="N1254" t="inlineStr">
         <is>
@@ -90663,11 +90663,11 @@
       </c>
       <c r="O1254" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1254" t="n">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="Q1254" t="n">
         <v>36</v>
@@ -90713,20 +90713,20 @@
       </c>
       <c r="I1255" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1255" t="n">
-        <v>750</v>
+        <v>370</v>
       </c>
       <c r="K1255" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L1255" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="M1255" t="n">
-        <v>2523</v>
+        <v>3000</v>
       </c>
       <c r="N1255" t="inlineStr">
         <is>
@@ -90735,11 +90735,11 @@
       </c>
       <c r="O1255" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1255" t="n">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="Q1255" t="n">
         <v>36</v>
@@ -90785,20 +90785,20 @@
       </c>
       <c r="I1256" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1256" t="n">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="K1256" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L1256" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M1256" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N1256" t="inlineStr">
         <is>
@@ -90807,11 +90807,11 @@
       </c>
       <c r="O1256" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1256" t="n">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="Q1256" t="n">
         <v>36</v>
@@ -90857,20 +90857,20 @@
       </c>
       <c r="I1257" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1257" t="n">
-        <v>250</v>
+        <v>770</v>
       </c>
       <c r="K1257" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L1257" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="M1257" t="n">
-        <v>2000</v>
+        <v>2517</v>
       </c>
       <c r="N1257" t="inlineStr">
         <is>
@@ -90879,11 +90879,11 @@
       </c>
       <c r="O1257" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1257" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="Q1257" t="n">
         <v>36</v>
@@ -90909,7 +90909,7 @@
         </is>
       </c>
       <c r="D1258" s="2" t="n">
-        <v>44354</v>
+        <v>44327</v>
       </c>
       <c r="E1258" t="n">
         <v>13</v>
@@ -90929,20 +90929,20 @@
       </c>
       <c r="I1258" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1258" t="n">
-        <v>260</v>
+        <v>750</v>
       </c>
       <c r="K1258" t="n">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="L1258" t="n">
         <v>2600</v>
       </c>
       <c r="M1258" t="n">
-        <v>2600</v>
+        <v>2523</v>
       </c>
       <c r="N1258" t="inlineStr">
         <is>
@@ -90951,11 +90951,11 @@
       </c>
       <c r="O1258" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1258" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q1258" t="n">
         <v>36</v>
@@ -90981,7 +90981,7 @@
         </is>
       </c>
       <c r="D1259" s="2" t="n">
-        <v>44354</v>
+        <v>44327</v>
       </c>
       <c r="E1259" t="n">
         <v>13</v>
@@ -91001,20 +91001,20 @@
       </c>
       <c r="I1259" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1259" t="n">
-        <v>620</v>
+        <v>280</v>
       </c>
       <c r="K1259" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L1259" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="M1259" t="n">
-        <v>2253</v>
+        <v>2000</v>
       </c>
       <c r="N1259" t="inlineStr">
         <is>
@@ -91027,7 +91027,7 @@
         </is>
       </c>
       <c r="P1259" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="Q1259" t="n">
         <v>36</v>
@@ -91053,7 +91053,7 @@
         </is>
       </c>
       <c r="D1260" s="2" t="n">
-        <v>44354</v>
+        <v>44327</v>
       </c>
       <c r="E1260" t="n">
         <v>13</v>
@@ -91073,20 +91073,20 @@
       </c>
       <c r="I1260" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1260" t="n">
-        <v>740</v>
+        <v>250</v>
       </c>
       <c r="K1260" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L1260" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="M1260" t="n">
-        <v>2286</v>
+        <v>2000</v>
       </c>
       <c r="N1260" t="inlineStr">
         <is>
@@ -91099,7 +91099,7 @@
         </is>
       </c>
       <c r="P1260" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="Q1260" t="n">
         <v>36</v>
@@ -91145,20 +91145,20 @@
       </c>
       <c r="I1261" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1261" t="n">
-        <v>350</v>
+        <v>260</v>
       </c>
       <c r="K1261" t="n">
-        <v>1700</v>
+        <v>2600</v>
       </c>
       <c r="L1261" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="M1261" t="n">
-        <v>1757</v>
+        <v>2600</v>
       </c>
       <c r="N1261" t="inlineStr">
         <is>
@@ -91171,7 +91171,7 @@
         </is>
       </c>
       <c r="P1261" t="n">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="Q1261" t="n">
         <v>36</v>
@@ -91217,20 +91217,20 @@
       </c>
       <c r="I1262" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1262" t="n">
-        <v>200</v>
+        <v>620</v>
       </c>
       <c r="K1262" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="L1262" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="M1262" t="n">
-        <v>1800</v>
+        <v>2253</v>
       </c>
       <c r="N1262" t="inlineStr">
         <is>
@@ -91239,11 +91239,11 @@
       </c>
       <c r="O1262" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1262" t="n">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="Q1262" t="n">
         <v>36</v>
@@ -91269,7 +91269,7 @@
         </is>
       </c>
       <c r="D1263" s="2" t="n">
-        <v>44503</v>
+        <v>44354</v>
       </c>
       <c r="E1263" t="n">
         <v>13</v>
@@ -91289,20 +91289,20 @@
       </c>
       <c r="I1263" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1263" t="n">
-        <v>880</v>
+        <v>740</v>
       </c>
       <c r="K1263" t="n">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="L1263" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="M1263" t="n">
-        <v>2389</v>
+        <v>2286</v>
       </c>
       <c r="N1263" t="inlineStr">
         <is>
@@ -91311,11 +91311,11 @@
       </c>
       <c r="O1263" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1263" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q1263" t="n">
         <v>36</v>
@@ -91341,7 +91341,7 @@
         </is>
       </c>
       <c r="D1264" s="2" t="n">
-        <v>44503</v>
+        <v>44354</v>
       </c>
       <c r="E1264" t="n">
         <v>13</v>
@@ -91361,20 +91361,20 @@
       </c>
       <c r="I1264" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1264" t="n">
-        <v>920</v>
+        <v>350</v>
       </c>
       <c r="K1264" t="n">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="L1264" t="n">
-        <v>2500</v>
+        <v>1800</v>
       </c>
       <c r="M1264" t="n">
-        <v>2347</v>
+        <v>1757</v>
       </c>
       <c r="N1264" t="inlineStr">
         <is>
@@ -91383,11 +91383,11 @@
       </c>
       <c r="O1264" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1264" t="n">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="Q1264" t="n">
         <v>36</v>
@@ -91413,7 +91413,7 @@
         </is>
       </c>
       <c r="D1265" s="2" t="n">
-        <v>44503</v>
+        <v>44354</v>
       </c>
       <c r="E1265" t="n">
         <v>13</v>
@@ -91433,20 +91433,20 @@
       </c>
       <c r="I1265" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1265" t="n">
-        <v>990</v>
+        <v>200</v>
       </c>
       <c r="K1265" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L1265" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="M1265" t="n">
-        <v>2105</v>
+        <v>1800</v>
       </c>
       <c r="N1265" t="inlineStr">
         <is>
@@ -91455,11 +91455,11 @@
       </c>
       <c r="O1265" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1265" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="Q1265" t="n">
         <v>36</v>
@@ -91505,20 +91505,20 @@
       </c>
       <c r="I1266" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1266" t="n">
-        <v>1070</v>
+        <v>880</v>
       </c>
       <c r="K1266" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="L1266" t="n">
-        <v>2100</v>
+        <v>2500</v>
       </c>
       <c r="M1266" t="n">
-        <v>2048</v>
+        <v>2389</v>
       </c>
       <c r="N1266" t="inlineStr">
         <is>
@@ -91527,11 +91527,11 @@
       </c>
       <c r="O1266" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1266" t="n">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="Q1266" t="n">
         <v>36</v>
@@ -91577,20 +91577,20 @@
       </c>
       <c r="I1267" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1267" t="n">
-        <v>350</v>
+        <v>920</v>
       </c>
       <c r="K1267" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="L1267" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="M1267" t="n">
-        <v>1700</v>
+        <v>2347</v>
       </c>
       <c r="N1267" t="inlineStr">
         <is>
@@ -91599,11 +91599,11 @@
       </c>
       <c r="O1267" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1267" t="n">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="Q1267" t="n">
         <v>36</v>
@@ -91649,20 +91649,20 @@
       </c>
       <c r="I1268" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1268" t="n">
-        <v>300</v>
+        <v>990</v>
       </c>
       <c r="K1268" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="L1268" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="M1268" t="n">
-        <v>1700</v>
+        <v>2105</v>
       </c>
       <c r="N1268" t="inlineStr">
         <is>
@@ -91671,11 +91671,11 @@
       </c>
       <c r="O1268" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1268" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="Q1268" t="n">
         <v>36</v>
@@ -91701,7 +91701,7 @@
         </is>
       </c>
       <c r="D1269" s="2" t="n">
-        <v>44462</v>
+        <v>44503</v>
       </c>
       <c r="E1269" t="n">
         <v>13</v>
@@ -91721,20 +91721,20 @@
       </c>
       <c r="I1269" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1269" t="n">
-        <v>730</v>
+        <v>1070</v>
       </c>
       <c r="K1269" t="n">
-        <v>3200</v>
+        <v>2000</v>
       </c>
       <c r="L1269" t="n">
-        <v>3500</v>
+        <v>2100</v>
       </c>
       <c r="M1269" t="n">
-        <v>3352</v>
+        <v>2048</v>
       </c>
       <c r="N1269" t="inlineStr">
         <is>
@@ -91743,11 +91743,11 @@
       </c>
       <c r="O1269" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1269" t="n">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="Q1269" t="n">
         <v>36</v>
@@ -91773,7 +91773,7 @@
         </is>
       </c>
       <c r="D1270" s="2" t="n">
-        <v>44462</v>
+        <v>44503</v>
       </c>
       <c r="E1270" t="n">
         <v>13</v>
@@ -91793,20 +91793,20 @@
       </c>
       <c r="I1270" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1270" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="K1270" t="n">
-        <v>3200</v>
+        <v>1700</v>
       </c>
       <c r="L1270" t="n">
-        <v>3500</v>
+        <v>1700</v>
       </c>
       <c r="M1270" t="n">
-        <v>3367</v>
+        <v>1700</v>
       </c>
       <c r="N1270" t="inlineStr">
         <is>
@@ -91815,11 +91815,11 @@
       </c>
       <c r="O1270" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1270" t="n">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="Q1270" t="n">
         <v>36</v>
@@ -91845,7 +91845,7 @@
         </is>
       </c>
       <c r="D1271" s="2" t="n">
-        <v>44462</v>
+        <v>44503</v>
       </c>
       <c r="E1271" t="n">
         <v>13</v>
@@ -91865,20 +91865,20 @@
       </c>
       <c r="I1271" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1271" t="n">
-        <v>780</v>
+        <v>300</v>
       </c>
       <c r="K1271" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="L1271" t="n">
-        <v>2700</v>
+        <v>1700</v>
       </c>
       <c r="M1271" t="n">
-        <v>2603</v>
+        <v>1700</v>
       </c>
       <c r="N1271" t="inlineStr">
         <is>
@@ -91887,11 +91887,11 @@
       </c>
       <c r="O1271" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1271" t="n">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="Q1271" t="n">
         <v>36</v>
@@ -91937,20 +91937,20 @@
       </c>
       <c r="I1272" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1272" t="n">
-        <v>820</v>
+        <v>730</v>
       </c>
       <c r="K1272" t="n">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="L1272" t="n">
-        <v>2800</v>
+        <v>3500</v>
       </c>
       <c r="M1272" t="n">
-        <v>2665</v>
+        <v>3352</v>
       </c>
       <c r="N1272" t="inlineStr">
         <is>
@@ -91959,11 +91959,11 @@
       </c>
       <c r="O1272" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1272" t="n">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="Q1272" t="n">
         <v>36</v>
@@ -92009,20 +92009,20 @@
       </c>
       <c r="I1273" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1273" t="n">
-        <v>250</v>
+        <v>700</v>
       </c>
       <c r="K1273" t="n">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="L1273" t="n">
-        <v>2000</v>
+        <v>3500</v>
       </c>
       <c r="M1273" t="n">
-        <v>2000</v>
+        <v>3367</v>
       </c>
       <c r="N1273" t="inlineStr">
         <is>
@@ -92031,11 +92031,11 @@
       </c>
       <c r="O1273" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1273" t="n">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="Q1273" t="n">
         <v>36</v>
@@ -92081,20 +92081,20 @@
       </c>
       <c r="I1274" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1274" t="n">
-        <v>300</v>
+        <v>780</v>
       </c>
       <c r="K1274" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L1274" t="n">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="M1274" t="n">
-        <v>2000</v>
+        <v>2603</v>
       </c>
       <c r="N1274" t="inlineStr">
         <is>
@@ -92103,11 +92103,11 @@
       </c>
       <c r="O1274" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1274" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="Q1274" t="n">
         <v>36</v>
@@ -92133,7 +92133,7 @@
         </is>
       </c>
       <c r="D1275" s="2" t="n">
-        <v>44384</v>
+        <v>44462</v>
       </c>
       <c r="E1275" t="n">
         <v>13</v>
@@ -92153,20 +92153,20 @@
       </c>
       <c r="I1275" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1275" t="n">
-        <v>410</v>
+        <v>820</v>
       </c>
       <c r="K1275" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L1275" t="n">
         <v>2800</v>
       </c>
-      <c r="L1275" t="n">
-        <v>3000</v>
-      </c>
       <c r="M1275" t="n">
-        <v>2912</v>
+        <v>2665</v>
       </c>
       <c r="N1275" t="inlineStr">
         <is>
@@ -92175,11 +92175,11 @@
       </c>
       <c r="O1275" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1275" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="Q1275" t="n">
         <v>36</v>
@@ -92205,7 +92205,7 @@
         </is>
       </c>
       <c r="D1276" s="2" t="n">
-        <v>44384</v>
+        <v>44462</v>
       </c>
       <c r="E1276" t="n">
         <v>13</v>
@@ -92225,20 +92225,20 @@
       </c>
       <c r="I1276" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1276" t="n">
-        <v>490</v>
+        <v>250</v>
       </c>
       <c r="K1276" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="L1276" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M1276" t="n">
-        <v>2406</v>
+        <v>2000</v>
       </c>
       <c r="N1276" t="inlineStr">
         <is>
@@ -92251,7 +92251,7 @@
         </is>
       </c>
       <c r="P1276" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="Q1276" t="n">
         <v>36</v>
@@ -92277,7 +92277,7 @@
         </is>
       </c>
       <c r="D1277" s="2" t="n">
-        <v>44384</v>
+        <v>44462</v>
       </c>
       <c r="E1277" t="n">
         <v>13</v>
@@ -92301,16 +92301,16 @@
         </is>
       </c>
       <c r="J1277" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="K1277" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L1277" t="n">
         <v>2000</v>
       </c>
       <c r="M1277" t="n">
-        <v>1911</v>
+        <v>2000</v>
       </c>
       <c r="N1277" t="inlineStr">
         <is>
@@ -92319,11 +92319,11 @@
       </c>
       <c r="O1277" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1277" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q1277" t="n">
         <v>36</v>
@@ -92349,7 +92349,7 @@
         </is>
       </c>
       <c r="D1278" s="2" t="n">
-        <v>44512</v>
+        <v>44384</v>
       </c>
       <c r="E1278" t="n">
         <v>13</v>
@@ -92373,16 +92373,16 @@
         </is>
       </c>
       <c r="J1278" t="n">
-        <v>480</v>
+        <v>410</v>
       </c>
       <c r="K1278" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="L1278" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="M1278" t="n">
-        <v>2300</v>
+        <v>2912</v>
       </c>
       <c r="N1278" t="inlineStr">
         <is>
@@ -92395,7 +92395,7 @@
         </is>
       </c>
       <c r="P1278" t="n">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="Q1278" t="n">
         <v>36</v>
@@ -92421,7 +92421,7 @@
         </is>
       </c>
       <c r="D1279" s="2" t="n">
-        <v>44512</v>
+        <v>44384</v>
       </c>
       <c r="E1279" t="n">
         <v>13</v>
@@ -92441,20 +92441,20 @@
       </c>
       <c r="I1279" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1279" t="n">
-        <v>1110</v>
+        <v>490</v>
       </c>
       <c r="K1279" t="n">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="L1279" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="M1279" t="n">
-        <v>2204</v>
+        <v>2406</v>
       </c>
       <c r="N1279" t="inlineStr">
         <is>
@@ -92463,11 +92463,11 @@
       </c>
       <c r="O1279" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1279" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="Q1279" t="n">
         <v>36</v>
@@ -92493,7 +92493,7 @@
         </is>
       </c>
       <c r="D1280" s="2" t="n">
-        <v>44512</v>
+        <v>44384</v>
       </c>
       <c r="E1280" t="n">
         <v>13</v>
@@ -92513,20 +92513,20 @@
       </c>
       <c r="I1280" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1280" t="n">
-        <v>530</v>
+        <v>270</v>
       </c>
       <c r="K1280" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L1280" t="n">
         <v>2000</v>
       </c>
       <c r="M1280" t="n">
-        <v>2000</v>
+        <v>1911</v>
       </c>
       <c r="N1280" t="inlineStr">
         <is>
@@ -92539,7 +92539,7 @@
         </is>
       </c>
       <c r="P1280" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q1280" t="n">
         <v>36</v>
@@ -92585,20 +92585,20 @@
       </c>
       <c r="I1281" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1281" t="n">
-        <v>1290</v>
+        <v>480</v>
       </c>
       <c r="K1281" t="n">
-        <v>1900</v>
+        <v>2300</v>
       </c>
       <c r="L1281" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="M1281" t="n">
-        <v>1935</v>
+        <v>2300</v>
       </c>
       <c r="N1281" t="inlineStr">
         <is>
@@ -92607,11 +92607,11 @@
       </c>
       <c r="O1281" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1281" t="n">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="Q1281" t="n">
         <v>36</v>
@@ -92657,20 +92657,20 @@
       </c>
       <c r="I1282" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1282" t="n">
-        <v>270</v>
+        <v>1110</v>
       </c>
       <c r="K1282" t="n">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="L1282" t="n">
-        <v>1700</v>
+        <v>2300</v>
       </c>
       <c r="M1282" t="n">
-        <v>1700</v>
+        <v>2204</v>
       </c>
       <c r="N1282" t="inlineStr">
         <is>
@@ -92679,11 +92679,11 @@
       </c>
       <c r="O1282" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1282" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="Q1282" t="n">
         <v>36</v>
@@ -92729,20 +92729,20 @@
       </c>
       <c r="I1283" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1283" t="n">
-        <v>200</v>
+        <v>530</v>
       </c>
       <c r="K1283" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="L1283" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="M1283" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="N1283" t="inlineStr">
         <is>
@@ -92751,11 +92751,11 @@
       </c>
       <c r="O1283" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1283" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="Q1283" t="n">
         <v>36</v>
@@ -92781,7 +92781,7 @@
         </is>
       </c>
       <c r="D1284" s="2" t="n">
-        <v>44312</v>
+        <v>44512</v>
       </c>
       <c r="E1284" t="n">
         <v>13</v>
@@ -92805,16 +92805,16 @@
         </is>
       </c>
       <c r="J1284" t="n">
-        <v>760</v>
+        <v>1290</v>
       </c>
       <c r="K1284" t="n">
-        <v>2500</v>
+        <v>1900</v>
       </c>
       <c r="L1284" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M1284" t="n">
-        <v>2789</v>
+        <v>1935</v>
       </c>
       <c r="N1284" t="inlineStr">
         <is>
@@ -92823,11 +92823,11 @@
       </c>
       <c r="O1284" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1284" t="n">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="Q1284" t="n">
         <v>36</v>
@@ -92853,7 +92853,7 @@
         </is>
       </c>
       <c r="D1285" s="2" t="n">
-        <v>44312</v>
+        <v>44512</v>
       </c>
       <c r="E1285" t="n">
         <v>13</v>
@@ -92873,20 +92873,20 @@
       </c>
       <c r="I1285" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1285" t="n">
-        <v>860</v>
+        <v>270</v>
       </c>
       <c r="K1285" t="n">
-        <v>2400</v>
+        <v>1700</v>
       </c>
       <c r="L1285" t="n">
-        <v>2800</v>
+        <v>1700</v>
       </c>
       <c r="M1285" t="n">
-        <v>2628</v>
+        <v>1700</v>
       </c>
       <c r="N1285" t="inlineStr">
         <is>
@@ -92895,11 +92895,11 @@
       </c>
       <c r="O1285" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1285" t="n">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="Q1285" t="n">
         <v>36</v>
@@ -92925,7 +92925,7 @@
         </is>
       </c>
       <c r="D1286" s="2" t="n">
-        <v>44312</v>
+        <v>44512</v>
       </c>
       <c r="E1286" t="n">
         <v>13</v>
@@ -92949,16 +92949,16 @@
         </is>
       </c>
       <c r="J1286" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="K1286" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="L1286" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M1286" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="N1286" t="inlineStr">
         <is>
@@ -92967,11 +92967,11 @@
       </c>
       <c r="O1286" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1286" t="n">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="Q1286" t="n">
         <v>36</v>
@@ -93017,20 +93017,20 @@
       </c>
       <c r="I1287" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1287" t="n">
-        <v>230</v>
+        <v>760</v>
       </c>
       <c r="K1287" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L1287" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M1287" t="n">
-        <v>2000</v>
+        <v>2789</v>
       </c>
       <c r="N1287" t="inlineStr">
         <is>
@@ -93039,11 +93039,11 @@
       </c>
       <c r="O1287" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1287" t="n">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="Q1287" t="n">
         <v>36</v>
@@ -93069,7 +93069,7 @@
         </is>
       </c>
       <c r="D1288" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E1288" t="n">
         <v>13</v>
@@ -93089,20 +93089,20 @@
       </c>
       <c r="I1288" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1288" t="n">
         <v>860</v>
       </c>
       <c r="K1288" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="L1288" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="M1288" t="n">
-        <v>2252</v>
+        <v>2628</v>
       </c>
       <c r="N1288" t="inlineStr">
         <is>
@@ -93111,11 +93111,11 @@
       </c>
       <c r="O1288" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1288" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="Q1288" t="n">
         <v>36</v>
@@ -93141,7 +93141,7 @@
         </is>
       </c>
       <c r="D1289" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E1289" t="n">
         <v>13</v>
@@ -93161,20 +93161,20 @@
       </c>
       <c r="I1289" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1289" t="n">
-        <v>880</v>
+        <v>220</v>
       </c>
       <c r="K1289" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L1289" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="M1289" t="n">
-        <v>2252</v>
+        <v>2000</v>
       </c>
       <c r="N1289" t="inlineStr">
         <is>
@@ -93183,11 +93183,11 @@
       </c>
       <c r="O1289" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1289" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="Q1289" t="n">
         <v>36</v>
@@ -93213,7 +93213,7 @@
         </is>
       </c>
       <c r="D1290" s="2" t="n">
-        <v>44511</v>
+        <v>44312</v>
       </c>
       <c r="E1290" t="n">
         <v>13</v>
@@ -93233,20 +93233,20 @@
       </c>
       <c r="I1290" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1290" t="n">
-        <v>950</v>
+        <v>230</v>
       </c>
       <c r="K1290" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="L1290" t="n">
         <v>2000</v>
       </c>
       <c r="M1290" t="n">
-        <v>1951</v>
+        <v>2000</v>
       </c>
       <c r="N1290" t="inlineStr">
         <is>
@@ -93255,11 +93255,11 @@
       </c>
       <c r="O1290" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1290" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q1290" t="n">
         <v>36</v>
@@ -93305,20 +93305,20 @@
       </c>
       <c r="I1291" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1291" t="n">
-        <v>930</v>
+        <v>860</v>
       </c>
       <c r="K1291" t="n">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="L1291" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="M1291" t="n">
-        <v>1957</v>
+        <v>2252</v>
       </c>
       <c r="N1291" t="inlineStr">
         <is>
@@ -93327,11 +93327,11 @@
       </c>
       <c r="O1291" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1291" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="Q1291" t="n">
         <v>36</v>
@@ -93377,20 +93377,20 @@
       </c>
       <c r="I1292" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1292" t="n">
-        <v>330</v>
+        <v>880</v>
       </c>
       <c r="K1292" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="L1292" t="n">
-        <v>1700</v>
+        <v>2300</v>
       </c>
       <c r="M1292" t="n">
-        <v>1700</v>
+        <v>2252</v>
       </c>
       <c r="N1292" t="inlineStr">
         <is>
@@ -93399,11 +93399,11 @@
       </c>
       <c r="O1292" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1292" t="n">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="Q1292" t="n">
         <v>36</v>
@@ -93449,38 +93449,254 @@
       </c>
       <c r="I1293" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1293" t="n">
+        <v>950</v>
+      </c>
+      <c r="K1293" t="n">
+        <v>1900</v>
+      </c>
+      <c r="L1293" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M1293" t="n">
+        <v>1951</v>
+      </c>
+      <c r="N1293" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1293" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P1293" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q1293" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1293" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1294" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1294" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1294" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1294" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1294" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1294" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1294" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1294" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1294" t="n">
+        <v>930</v>
+      </c>
+      <c r="K1294" t="n">
+        <v>1900</v>
+      </c>
+      <c r="L1294" t="n">
+        <v>2000</v>
+      </c>
+      <c r="M1294" t="n">
+        <v>1957</v>
+      </c>
+      <c r="N1294" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1294" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1294" t="n">
+        <v>54</v>
+      </c>
+      <c r="Q1294" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1294" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1295" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1295" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1295" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1295" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1295" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1295" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1295" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1295" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1293" t="n">
+      <c r="J1295" t="n">
+        <v>330</v>
+      </c>
+      <c r="K1295" t="n">
+        <v>1700</v>
+      </c>
+      <c r="L1295" t="n">
+        <v>1700</v>
+      </c>
+      <c r="M1295" t="n">
+        <v>1700</v>
+      </c>
+      <c r="N1295" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1295" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P1295" t="n">
+        <v>47</v>
+      </c>
+      <c r="Q1295" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1295" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1296" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1296" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1296" s="2" t="n">
+        <v>44511</v>
+      </c>
+      <c r="E1296" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1296" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1296" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1296" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1296" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1296" t="n">
         <v>350</v>
       </c>
-      <c r="K1293" t="n">
+      <c r="K1296" t="n">
         <v>1700</v>
       </c>
-      <c r="L1293" t="n">
+      <c r="L1296" t="n">
         <v>1700</v>
       </c>
-      <c r="M1293" t="n">
+      <c r="M1296" t="n">
         <v>1700</v>
       </c>
-      <c r="N1293" t="inlineStr">
-        <is>
-          <t>$/paquete 36 unidades</t>
-        </is>
-      </c>
-      <c r="O1293" t="inlineStr">
+      <c r="N1296" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1296" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P1293" t="n">
+      <c r="P1296" t="n">
         <v>47</v>
       </c>
-      <c r="Q1293" t="n">
-        <v>36</v>
-      </c>
-      <c r="R1293" t="inlineStr">
+      <c r="Q1296" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1296" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cebollín.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cebollín.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1308"/>
+  <dimension ref="A1:R1311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89109,7 +89109,7 @@
         </is>
       </c>
       <c r="D1233" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E1233" t="n">
         <v>13</v>
@@ -89133,16 +89133,16 @@
         </is>
       </c>
       <c r="J1233" t="n">
-        <v>1090</v>
+        <v>810</v>
       </c>
       <c r="K1233" t="n">
         <v>2400</v>
       </c>
       <c r="L1233" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="M1233" t="n">
-        <v>2481</v>
+        <v>2454</v>
       </c>
       <c r="N1233" t="inlineStr">
         <is>
@@ -89155,7 +89155,7 @@
         </is>
       </c>
       <c r="P1233" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q1233" t="n">
         <v>36</v>
@@ -89181,7 +89181,7 @@
         </is>
       </c>
       <c r="D1234" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E1234" t="n">
         <v>13</v>
@@ -89205,16 +89205,16 @@
         </is>
       </c>
       <c r="J1234" t="n">
-        <v>1350</v>
+        <v>1010</v>
       </c>
       <c r="K1234" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L1234" t="n">
         <v>2200</v>
       </c>
-      <c r="L1234" t="n">
-        <v>2300</v>
-      </c>
       <c r="M1234" t="n">
-        <v>2242</v>
+        <v>2103</v>
       </c>
       <c r="N1234" t="inlineStr">
         <is>
@@ -89227,7 +89227,7 @@
         </is>
       </c>
       <c r="P1234" t="n">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q1234" t="n">
         <v>36</v>
@@ -89253,7 +89253,7 @@
         </is>
       </c>
       <c r="D1235" s="2" t="n">
-        <v>44560</v>
+        <v>44585</v>
       </c>
       <c r="E1235" t="n">
         <v>13</v>
@@ -89325,7 +89325,7 @@
         </is>
       </c>
       <c r="D1236" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E1236" t="n">
         <v>13</v>
@@ -89345,20 +89345,20 @@
       </c>
       <c r="I1236" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1236" t="n">
-        <v>820</v>
+        <v>1090</v>
       </c>
       <c r="K1236" t="n">
-        <v>3400</v>
+        <v>2400</v>
       </c>
       <c r="L1236" t="n">
-        <v>3600</v>
+        <v>2600</v>
       </c>
       <c r="M1236" t="n">
-        <v>3507</v>
+        <v>2481</v>
       </c>
       <c r="N1236" t="inlineStr">
         <is>
@@ -89367,11 +89367,11 @@
       </c>
       <c r="O1236" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1236" t="n">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="Q1236" t="n">
         <v>36</v>
@@ -89397,7 +89397,7 @@
         </is>
       </c>
       <c r="D1237" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E1237" t="n">
         <v>13</v>
@@ -89421,16 +89421,16 @@
         </is>
       </c>
       <c r="J1237" t="n">
-        <v>830</v>
+        <v>1350</v>
       </c>
       <c r="K1237" t="n">
-        <v>3400</v>
+        <v>2200</v>
       </c>
       <c r="L1237" t="n">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="M1237" t="n">
-        <v>3454</v>
+        <v>2242</v>
       </c>
       <c r="N1237" t="inlineStr">
         <is>
@@ -89443,7 +89443,7 @@
         </is>
       </c>
       <c r="P1237" t="n">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="Q1237" t="n">
         <v>36</v>
@@ -89469,7 +89469,7 @@
         </is>
       </c>
       <c r="D1238" s="2" t="n">
-        <v>44272</v>
+        <v>44560</v>
       </c>
       <c r="E1238" t="n">
         <v>13</v>
@@ -89493,16 +89493,16 @@
         </is>
       </c>
       <c r="J1238" t="n">
-        <v>580</v>
+        <v>300</v>
       </c>
       <c r="K1238" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="L1238" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="M1238" t="n">
-        <v>2910</v>
+        <v>1800</v>
       </c>
       <c r="N1238" t="inlineStr">
         <is>
@@ -89511,11 +89511,11 @@
       </c>
       <c r="O1238" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1238" t="n">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="Q1238" t="n">
         <v>36</v>
@@ -89561,20 +89561,20 @@
       </c>
       <c r="I1239" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1239" t="n">
-        <v>640</v>
+        <v>820</v>
       </c>
       <c r="K1239" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="L1239" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="M1239" t="n">
-        <v>2922</v>
+        <v>3507</v>
       </c>
       <c r="N1239" t="inlineStr">
         <is>
@@ -89583,11 +89583,11 @@
       </c>
       <c r="O1239" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1239" t="n">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="Q1239" t="n">
         <v>36</v>
@@ -89613,7 +89613,7 @@
         </is>
       </c>
       <c r="D1240" s="2" t="n">
-        <v>44385</v>
+        <v>44272</v>
       </c>
       <c r="E1240" t="n">
         <v>13</v>
@@ -89633,20 +89633,20 @@
       </c>
       <c r="I1240" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1240" t="n">
-        <v>440</v>
+        <v>830</v>
       </c>
       <c r="K1240" t="n">
-        <v>3000</v>
+        <v>3400</v>
       </c>
       <c r="L1240" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M1240" t="n">
-        <v>3000</v>
+        <v>3454</v>
       </c>
       <c r="N1240" t="inlineStr">
         <is>
@@ -89655,11 +89655,11 @@
       </c>
       <c r="O1240" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1240" t="n">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="Q1240" t="n">
         <v>36</v>
@@ -89685,7 +89685,7 @@
         </is>
       </c>
       <c r="D1241" s="2" t="n">
-        <v>44385</v>
+        <v>44272</v>
       </c>
       <c r="E1241" t="n">
         <v>13</v>
@@ -89705,20 +89705,20 @@
       </c>
       <c r="I1241" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1241" t="n">
-        <v>360</v>
+        <v>580</v>
       </c>
       <c r="K1241" t="n">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="L1241" t="n">
         <v>3000</v>
       </c>
       <c r="M1241" t="n">
-        <v>3000</v>
+        <v>2910</v>
       </c>
       <c r="N1241" t="inlineStr">
         <is>
@@ -89727,11 +89727,11 @@
       </c>
       <c r="O1241" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1241" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Q1241" t="n">
         <v>36</v>
@@ -89757,7 +89757,7 @@
         </is>
       </c>
       <c r="D1242" s="2" t="n">
-        <v>44385</v>
+        <v>44272</v>
       </c>
       <c r="E1242" t="n">
         <v>13</v>
@@ -89777,20 +89777,20 @@
       </c>
       <c r="I1242" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1242" t="n">
-        <v>690</v>
+        <v>640</v>
       </c>
       <c r="K1242" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L1242" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="M1242" t="n">
-        <v>2557</v>
+        <v>2922</v>
       </c>
       <c r="N1242" t="inlineStr">
         <is>
@@ -89799,11 +89799,11 @@
       </c>
       <c r="O1242" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1242" t="n">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="Q1242" t="n">
         <v>36</v>
@@ -89849,20 +89849,20 @@
       </c>
       <c r="I1243" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1243" t="n">
-        <v>710</v>
+        <v>440</v>
       </c>
       <c r="K1243" t="n">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="L1243" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M1243" t="n">
-        <v>2418</v>
+        <v>3000</v>
       </c>
       <c r="N1243" t="inlineStr">
         <is>
@@ -89871,11 +89871,11 @@
       </c>
       <c r="O1243" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1243" t="n">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="Q1243" t="n">
         <v>36</v>
@@ -89921,20 +89921,20 @@
       </c>
       <c r="I1244" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1244" t="n">
-        <v>220</v>
+        <v>360</v>
       </c>
       <c r="K1244" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L1244" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M1244" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N1244" t="inlineStr">
         <is>
@@ -89943,11 +89943,11 @@
       </c>
       <c r="O1244" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1244" t="n">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="Q1244" t="n">
         <v>36</v>
@@ -89993,20 +89993,20 @@
       </c>
       <c r="I1245" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1245" t="n">
-        <v>300</v>
+        <v>690</v>
       </c>
       <c r="K1245" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L1245" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="M1245" t="n">
-        <v>2000</v>
+        <v>2557</v>
       </c>
       <c r="N1245" t="inlineStr">
         <is>
@@ -90015,11 +90015,11 @@
       </c>
       <c r="O1245" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1245" t="n">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="Q1245" t="n">
         <v>36</v>
@@ -90045,7 +90045,7 @@
         </is>
       </c>
       <c r="D1246" s="2" t="n">
-        <v>44162</v>
+        <v>44385</v>
       </c>
       <c r="E1246" t="n">
         <v>13</v>
@@ -90065,20 +90065,20 @@
       </c>
       <c r="I1246" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1246" t="n">
-        <v>430</v>
+        <v>710</v>
       </c>
       <c r="K1246" t="n">
+        <v>2300</v>
+      </c>
+      <c r="L1246" t="n">
         <v>2500</v>
       </c>
-      <c r="L1246" t="n">
-        <v>2600</v>
-      </c>
       <c r="M1246" t="n">
-        <v>2563</v>
+        <v>2418</v>
       </c>
       <c r="N1246" t="inlineStr">
         <is>
@@ -90091,7 +90091,7 @@
         </is>
       </c>
       <c r="P1246" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Q1246" t="n">
         <v>36</v>
@@ -90117,7 +90117,7 @@
         </is>
       </c>
       <c r="D1247" s="2" t="n">
-        <v>44162</v>
+        <v>44385</v>
       </c>
       <c r="E1247" t="n">
         <v>13</v>
@@ -90137,20 +90137,20 @@
       </c>
       <c r="I1247" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1247" t="n">
-        <v>920</v>
+        <v>220</v>
       </c>
       <c r="K1247" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L1247" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="M1247" t="n">
-        <v>2273</v>
+        <v>2000</v>
       </c>
       <c r="N1247" t="inlineStr">
         <is>
@@ -90159,11 +90159,11 @@
       </c>
       <c r="O1247" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1247" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="Q1247" t="n">
         <v>36</v>
@@ -90189,7 +90189,7 @@
         </is>
       </c>
       <c r="D1248" s="2" t="n">
-        <v>44162</v>
+        <v>44385</v>
       </c>
       <c r="E1248" t="n">
         <v>13</v>
@@ -90213,16 +90213,16 @@
         </is>
       </c>
       <c r="J1248" t="n">
-        <v>640</v>
+        <v>300</v>
       </c>
       <c r="K1248" t="n">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="L1248" t="n">
         <v>2000</v>
       </c>
       <c r="M1248" t="n">
-        <v>1972</v>
+        <v>2000</v>
       </c>
       <c r="N1248" t="inlineStr">
         <is>
@@ -90235,7 +90235,7 @@
         </is>
       </c>
       <c r="P1248" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q1248" t="n">
         <v>36</v>
@@ -90261,7 +90261,7 @@
         </is>
       </c>
       <c r="D1249" s="2" t="n">
-        <v>44529</v>
+        <v>44162</v>
       </c>
       <c r="E1249" t="n">
         <v>13</v>
@@ -90285,16 +90285,16 @@
         </is>
       </c>
       <c r="J1249" t="n">
-        <v>620</v>
+        <v>430</v>
       </c>
       <c r="K1249" t="n">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="L1249" t="n">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="M1249" t="n">
-        <v>2413</v>
+        <v>2563</v>
       </c>
       <c r="N1249" t="inlineStr">
         <is>
@@ -90303,11 +90303,11 @@
       </c>
       <c r="O1249" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1249" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="Q1249" t="n">
         <v>36</v>
@@ -90333,7 +90333,7 @@
         </is>
       </c>
       <c r="D1250" s="2" t="n">
-        <v>44529</v>
+        <v>44162</v>
       </c>
       <c r="E1250" t="n">
         <v>13</v>
@@ -90353,20 +90353,20 @@
       </c>
       <c r="I1250" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1250" t="n">
-        <v>540</v>
+        <v>920</v>
       </c>
       <c r="K1250" t="n">
+        <v>2200</v>
+      </c>
+      <c r="L1250" t="n">
         <v>2300</v>
       </c>
-      <c r="L1250" t="n">
-        <v>2500</v>
-      </c>
       <c r="M1250" t="n">
-        <v>2415</v>
+        <v>2273</v>
       </c>
       <c r="N1250" t="inlineStr">
         <is>
@@ -90379,7 +90379,7 @@
         </is>
       </c>
       <c r="P1250" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q1250" t="n">
         <v>36</v>
@@ -90405,7 +90405,7 @@
         </is>
       </c>
       <c r="D1251" s="2" t="n">
-        <v>44529</v>
+        <v>44162</v>
       </c>
       <c r="E1251" t="n">
         <v>13</v>
@@ -90425,20 +90425,20 @@
       </c>
       <c r="I1251" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1251" t="n">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="K1251" t="n">
+        <v>1900</v>
+      </c>
+      <c r="L1251" t="n">
         <v>2000</v>
       </c>
-      <c r="L1251" t="n">
-        <v>2200</v>
-      </c>
       <c r="M1251" t="n">
-        <v>2133</v>
+        <v>1972</v>
       </c>
       <c r="N1251" t="inlineStr">
         <is>
@@ -90447,11 +90447,11 @@
       </c>
       <c r="O1251" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1251" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q1251" t="n">
         <v>36</v>
@@ -90497,20 +90497,20 @@
       </c>
       <c r="I1252" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1252" t="n">
-        <v>430</v>
+        <v>620</v>
       </c>
       <c r="K1252" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="L1252" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M1252" t="n">
-        <v>2112</v>
+        <v>2413</v>
       </c>
       <c r="N1252" t="inlineStr">
         <is>
@@ -90519,11 +90519,11 @@
       </c>
       <c r="O1252" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1252" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="Q1252" t="n">
         <v>36</v>
@@ -90569,20 +90569,20 @@
       </c>
       <c r="I1253" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1253" t="n">
-        <v>200</v>
+        <v>540</v>
       </c>
       <c r="K1253" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="L1253" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="M1253" t="n">
-        <v>1800</v>
+        <v>2415</v>
       </c>
       <c r="N1253" t="inlineStr">
         <is>
@@ -90591,11 +90591,11 @@
       </c>
       <c r="O1253" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1253" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="Q1253" t="n">
         <v>36</v>
@@ -90641,20 +90641,20 @@
       </c>
       <c r="I1254" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1254" t="n">
-        <v>170</v>
+        <v>660</v>
       </c>
       <c r="K1254" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L1254" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="M1254" t="n">
-        <v>1800</v>
+        <v>2133</v>
       </c>
       <c r="N1254" t="inlineStr">
         <is>
@@ -90663,11 +90663,11 @@
       </c>
       <c r="O1254" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1254" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="Q1254" t="n">
         <v>36</v>
@@ -90693,7 +90693,7 @@
         </is>
       </c>
       <c r="D1255" s="2" t="n">
-        <v>44414</v>
+        <v>44529</v>
       </c>
       <c r="E1255" t="n">
         <v>13</v>
@@ -90713,20 +90713,20 @@
       </c>
       <c r="I1255" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1255" t="n">
-        <v>830</v>
+        <v>430</v>
       </c>
       <c r="K1255" t="n">
-        <v>3800</v>
+        <v>2000</v>
       </c>
       <c r="L1255" t="n">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="M1255" t="n">
-        <v>3906</v>
+        <v>2112</v>
       </c>
       <c r="N1255" t="inlineStr">
         <is>
@@ -90735,11 +90735,11 @@
       </c>
       <c r="O1255" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1255" t="n">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="Q1255" t="n">
         <v>36</v>
@@ -90765,7 +90765,7 @@
         </is>
       </c>
       <c r="D1256" s="2" t="n">
-        <v>44414</v>
+        <v>44529</v>
       </c>
       <c r="E1256" t="n">
         <v>13</v>
@@ -90785,20 +90785,20 @@
       </c>
       <c r="I1256" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1256" t="n">
-        <v>710</v>
+        <v>200</v>
       </c>
       <c r="K1256" t="n">
-        <v>3800</v>
+        <v>1800</v>
       </c>
       <c r="L1256" t="n">
-        <v>4000</v>
+        <v>1800</v>
       </c>
       <c r="M1256" t="n">
-        <v>3904</v>
+        <v>1800</v>
       </c>
       <c r="N1256" t="inlineStr">
         <is>
@@ -90807,11 +90807,11 @@
       </c>
       <c r="O1256" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1256" t="n">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="Q1256" t="n">
         <v>36</v>
@@ -90837,7 +90837,7 @@
         </is>
       </c>
       <c r="D1257" s="2" t="n">
-        <v>44414</v>
+        <v>44529</v>
       </c>
       <c r="E1257" t="n">
         <v>13</v>
@@ -90857,20 +90857,20 @@
       </c>
       <c r="I1257" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1257" t="n">
-        <v>680</v>
+        <v>170</v>
       </c>
       <c r="K1257" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="L1257" t="n">
-        <v>3000</v>
+        <v>1800</v>
       </c>
       <c r="M1257" t="n">
-        <v>2912</v>
+        <v>1800</v>
       </c>
       <c r="N1257" t="inlineStr">
         <is>
@@ -90879,11 +90879,11 @@
       </c>
       <c r="O1257" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1257" t="n">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="Q1257" t="n">
         <v>36</v>
@@ -90929,20 +90929,20 @@
       </c>
       <c r="I1258" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1258" t="n">
-        <v>720</v>
+        <v>830</v>
       </c>
       <c r="K1258" t="n">
-        <v>2700</v>
+        <v>3800</v>
       </c>
       <c r="L1258" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M1258" t="n">
-        <v>2875</v>
+        <v>3906</v>
       </c>
       <c r="N1258" t="inlineStr">
         <is>
@@ -90951,11 +90951,11 @@
       </c>
       <c r="O1258" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1258" t="n">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="Q1258" t="n">
         <v>36</v>
@@ -91001,20 +91001,20 @@
       </c>
       <c r="I1259" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1259" t="n">
-        <v>250</v>
+        <v>710</v>
       </c>
       <c r="K1259" t="n">
-        <v>2500</v>
+        <v>3800</v>
       </c>
       <c r="L1259" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M1259" t="n">
-        <v>2500</v>
+        <v>3904</v>
       </c>
       <c r="N1259" t="inlineStr">
         <is>
@@ -91023,11 +91023,11 @@
       </c>
       <c r="O1259" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1259" t="n">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="Q1259" t="n">
         <v>36</v>
@@ -91073,20 +91073,20 @@
       </c>
       <c r="I1260" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1260" t="n">
-        <v>220</v>
+        <v>680</v>
       </c>
       <c r="K1260" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="L1260" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="M1260" t="n">
-        <v>2500</v>
+        <v>2912</v>
       </c>
       <c r="N1260" t="inlineStr">
         <is>
@@ -91095,11 +91095,11 @@
       </c>
       <c r="O1260" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1260" t="n">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="Q1260" t="n">
         <v>36</v>
@@ -91125,7 +91125,7 @@
         </is>
       </c>
       <c r="D1261" s="2" t="n">
-        <v>44323</v>
+        <v>44414</v>
       </c>
       <c r="E1261" t="n">
         <v>13</v>
@@ -91145,20 +91145,20 @@
       </c>
       <c r="I1261" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1261" t="n">
-        <v>260</v>
+        <v>720</v>
       </c>
       <c r="K1261" t="n">
-        <v>3000</v>
+        <v>2700</v>
       </c>
       <c r="L1261" t="n">
         <v>3000</v>
       </c>
       <c r="M1261" t="n">
-        <v>3000</v>
+        <v>2875</v>
       </c>
       <c r="N1261" t="inlineStr">
         <is>
@@ -91167,11 +91167,11 @@
       </c>
       <c r="O1261" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1261" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Q1261" t="n">
         <v>36</v>
@@ -91197,7 +91197,7 @@
         </is>
       </c>
       <c r="D1262" s="2" t="n">
-        <v>44323</v>
+        <v>44414</v>
       </c>
       <c r="E1262" t="n">
         <v>13</v>
@@ -91217,20 +91217,20 @@
       </c>
       <c r="I1262" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1262" t="n">
-        <v>380</v>
+        <v>250</v>
       </c>
       <c r="K1262" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L1262" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M1262" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="N1262" t="inlineStr">
         <is>
@@ -91239,11 +91239,11 @@
       </c>
       <c r="O1262" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1262" t="n">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="Q1262" t="n">
         <v>36</v>
@@ -91269,7 +91269,7 @@
         </is>
       </c>
       <c r="D1263" s="2" t="n">
-        <v>44323</v>
+        <v>44414</v>
       </c>
       <c r="E1263" t="n">
         <v>13</v>
@@ -91289,20 +91289,20 @@
       </c>
       <c r="I1263" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1263" t="n">
-        <v>770</v>
+        <v>220</v>
       </c>
       <c r="K1263" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="L1263" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="M1263" t="n">
-        <v>2514</v>
+        <v>2500</v>
       </c>
       <c r="N1263" t="inlineStr">
         <is>
@@ -91311,11 +91311,11 @@
       </c>
       <c r="O1263" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1263" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q1263" t="n">
         <v>36</v>
@@ -91361,20 +91361,20 @@
       </c>
       <c r="I1264" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1264" t="n">
-        <v>820</v>
+        <v>260</v>
       </c>
       <c r="K1264" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L1264" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="M1264" t="n">
-        <v>2515</v>
+        <v>3000</v>
       </c>
       <c r="N1264" t="inlineStr">
         <is>
@@ -91383,11 +91383,11 @@
       </c>
       <c r="O1264" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1264" t="n">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="Q1264" t="n">
         <v>36</v>
@@ -91433,20 +91433,20 @@
       </c>
       <c r="I1265" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1265" t="n">
-        <v>250</v>
+        <v>380</v>
       </c>
       <c r="K1265" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L1265" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M1265" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N1265" t="inlineStr">
         <is>
@@ -91455,11 +91455,11 @@
       </c>
       <c r="O1265" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1265" t="n">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="Q1265" t="n">
         <v>36</v>
@@ -91505,20 +91505,20 @@
       </c>
       <c r="I1266" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1266" t="n">
-        <v>200</v>
+        <v>770</v>
       </c>
       <c r="K1266" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L1266" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="M1266" t="n">
-        <v>2000</v>
+        <v>2514</v>
       </c>
       <c r="N1266" t="inlineStr">
         <is>
@@ -91527,11 +91527,11 @@
       </c>
       <c r="O1266" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1266" t="n">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="Q1266" t="n">
         <v>36</v>
@@ -91557,7 +91557,7 @@
         </is>
       </c>
       <c r="D1267" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E1267" t="n">
         <v>13</v>
@@ -91581,16 +91581,16 @@
         </is>
       </c>
       <c r="J1267" t="n">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="K1267" t="n">
+        <v>2400</v>
+      </c>
+      <c r="L1267" t="n">
         <v>2600</v>
       </c>
-      <c r="L1267" t="n">
-        <v>3000</v>
-      </c>
       <c r="M1267" t="n">
-        <v>2812</v>
+        <v>2515</v>
       </c>
       <c r="N1267" t="inlineStr">
         <is>
@@ -91599,11 +91599,11 @@
       </c>
       <c r="O1267" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1267" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="Q1267" t="n">
         <v>36</v>
@@ -91629,7 +91629,7 @@
         </is>
       </c>
       <c r="D1268" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E1268" t="n">
         <v>13</v>
@@ -91649,20 +91649,20 @@
       </c>
       <c r="I1268" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1268" t="n">
-        <v>950</v>
+        <v>250</v>
       </c>
       <c r="K1268" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L1268" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M1268" t="n">
-        <v>2667</v>
+        <v>2000</v>
       </c>
       <c r="N1268" t="inlineStr">
         <is>
@@ -91671,11 +91671,11 @@
       </c>
       <c r="O1268" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1268" t="n">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="Q1268" t="n">
         <v>36</v>
@@ -91701,7 +91701,7 @@
         </is>
       </c>
       <c r="D1269" s="2" t="n">
-        <v>44306</v>
+        <v>44323</v>
       </c>
       <c r="E1269" t="n">
         <v>13</v>
@@ -91725,7 +91725,7 @@
         </is>
       </c>
       <c r="J1269" t="n">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="K1269" t="n">
         <v>2000</v>
@@ -91743,7 +91743,7 @@
       </c>
       <c r="O1269" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1269" t="n">
@@ -91793,20 +91793,20 @@
       </c>
       <c r="I1270" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1270" t="n">
-        <v>280</v>
+        <v>830</v>
       </c>
       <c r="K1270" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="L1270" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M1270" t="n">
-        <v>2000</v>
+        <v>2812</v>
       </c>
       <c r="N1270" t="inlineStr">
         <is>
@@ -91815,11 +91815,11 @@
       </c>
       <c r="O1270" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1270" t="n">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="Q1270" t="n">
         <v>36</v>
@@ -91845,7 +91845,7 @@
         </is>
       </c>
       <c r="D1271" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E1271" t="n">
         <v>13</v>
@@ -91865,20 +91865,20 @@
       </c>
       <c r="I1271" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1271" t="n">
-        <v>690</v>
+        <v>950</v>
       </c>
       <c r="K1271" t="n">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="L1271" t="n">
-        <v>3500</v>
+        <v>2800</v>
       </c>
       <c r="M1271" t="n">
-        <v>3210</v>
+        <v>2667</v>
       </c>
       <c r="N1271" t="inlineStr">
         <is>
@@ -91891,7 +91891,7 @@
         </is>
       </c>
       <c r="P1271" t="n">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="Q1271" t="n">
         <v>36</v>
@@ -91917,7 +91917,7 @@
         </is>
       </c>
       <c r="D1272" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E1272" t="n">
         <v>13</v>
@@ -91937,20 +91937,20 @@
       </c>
       <c r="I1272" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1272" t="n">
-        <v>1160</v>
+        <v>270</v>
       </c>
       <c r="K1272" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="L1272" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M1272" t="n">
-        <v>2681</v>
+        <v>2000</v>
       </c>
       <c r="N1272" t="inlineStr">
         <is>
@@ -91959,11 +91959,11 @@
       </c>
       <c r="O1272" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1272" t="n">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="Q1272" t="n">
         <v>36</v>
@@ -91989,7 +91989,7 @@
         </is>
       </c>
       <c r="D1273" s="2" t="n">
-        <v>44189</v>
+        <v>44306</v>
       </c>
       <c r="E1273" t="n">
         <v>13</v>
@@ -92013,16 +92013,16 @@
         </is>
       </c>
       <c r="J1273" t="n">
-        <v>880</v>
+        <v>280</v>
       </c>
       <c r="K1273" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L1273" t="n">
-        <v>2600</v>
+        <v>2000</v>
       </c>
       <c r="M1273" t="n">
-        <v>2420</v>
+        <v>2000</v>
       </c>
       <c r="N1273" t="inlineStr">
         <is>
@@ -92035,7 +92035,7 @@
         </is>
       </c>
       <c r="P1273" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="Q1273" t="n">
         <v>36</v>
@@ -92061,7 +92061,7 @@
         </is>
       </c>
       <c r="D1274" s="2" t="n">
-        <v>44299</v>
+        <v>44189</v>
       </c>
       <c r="E1274" t="n">
         <v>13</v>
@@ -92081,20 +92081,20 @@
       </c>
       <c r="I1274" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1274" t="n">
-        <v>820</v>
+        <v>690</v>
       </c>
       <c r="K1274" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="L1274" t="n">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="M1274" t="n">
-        <v>2915</v>
+        <v>3210</v>
       </c>
       <c r="N1274" t="inlineStr">
         <is>
@@ -92103,11 +92103,11 @@
       </c>
       <c r="O1274" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1274" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="Q1274" t="n">
         <v>36</v>
@@ -92133,7 +92133,7 @@
         </is>
       </c>
       <c r="D1275" s="2" t="n">
-        <v>44299</v>
+        <v>44189</v>
       </c>
       <c r="E1275" t="n">
         <v>13</v>
@@ -92157,16 +92157,16 @@
         </is>
       </c>
       <c r="J1275" t="n">
-        <v>930</v>
+        <v>1160</v>
       </c>
       <c r="K1275" t="n">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="L1275" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M1275" t="n">
-        <v>2674</v>
+        <v>2681</v>
       </c>
       <c r="N1275" t="inlineStr">
         <is>
@@ -92205,7 +92205,7 @@
         </is>
       </c>
       <c r="D1276" s="2" t="n">
-        <v>44299</v>
+        <v>44189</v>
       </c>
       <c r="E1276" t="n">
         <v>13</v>
@@ -92229,16 +92229,16 @@
         </is>
       </c>
       <c r="J1276" t="n">
-        <v>230</v>
+        <v>880</v>
       </c>
       <c r="K1276" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="L1276" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="M1276" t="n">
-        <v>2000</v>
+        <v>2420</v>
       </c>
       <c r="N1276" t="inlineStr">
         <is>
@@ -92247,11 +92247,11 @@
       </c>
       <c r="O1276" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1276" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="Q1276" t="n">
         <v>36</v>
@@ -92297,20 +92297,20 @@
       </c>
       <c r="I1277" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1277" t="n">
-        <v>270</v>
+        <v>820</v>
       </c>
       <c r="K1277" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="L1277" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M1277" t="n">
-        <v>2000</v>
+        <v>2915</v>
       </c>
       <c r="N1277" t="inlineStr">
         <is>
@@ -92319,11 +92319,11 @@
       </c>
       <c r="O1277" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1277" t="n">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="Q1277" t="n">
         <v>36</v>
@@ -92349,7 +92349,7 @@
         </is>
       </c>
       <c r="D1278" s="2" t="n">
-        <v>44428</v>
+        <v>44299</v>
       </c>
       <c r="E1278" t="n">
         <v>13</v>
@@ -92369,20 +92369,20 @@
       </c>
       <c r="I1278" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1278" t="n">
-        <v>650</v>
+        <v>930</v>
       </c>
       <c r="K1278" t="n">
-        <v>3700</v>
+        <v>2500</v>
       </c>
       <c r="L1278" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="M1278" t="n">
-        <v>3862</v>
+        <v>2674</v>
       </c>
       <c r="N1278" t="inlineStr">
         <is>
@@ -92391,11 +92391,11 @@
       </c>
       <c r="O1278" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1278" t="n">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="Q1278" t="n">
         <v>36</v>
@@ -92421,7 +92421,7 @@
         </is>
       </c>
       <c r="D1279" s="2" t="n">
-        <v>44428</v>
+        <v>44299</v>
       </c>
       <c r="E1279" t="n">
         <v>13</v>
@@ -92441,20 +92441,20 @@
       </c>
       <c r="I1279" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1279" t="n">
-        <v>670</v>
+        <v>230</v>
       </c>
       <c r="K1279" t="n">
-        <v>3800</v>
+        <v>2000</v>
       </c>
       <c r="L1279" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="M1279" t="n">
-        <v>3916</v>
+        <v>2000</v>
       </c>
       <c r="N1279" t="inlineStr">
         <is>
@@ -92463,11 +92463,11 @@
       </c>
       <c r="O1279" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1279" t="n">
-        <v>109</v>
+        <v>56</v>
       </c>
       <c r="Q1279" t="n">
         <v>36</v>
@@ -92493,7 +92493,7 @@
         </is>
       </c>
       <c r="D1280" s="2" t="n">
-        <v>44428</v>
+        <v>44299</v>
       </c>
       <c r="E1280" t="n">
         <v>13</v>
@@ -92513,20 +92513,20 @@
       </c>
       <c r="I1280" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1280" t="n">
-        <v>730</v>
+        <v>270</v>
       </c>
       <c r="K1280" t="n">
-        <v>2900</v>
+        <v>2000</v>
       </c>
       <c r="L1280" t="n">
-        <v>3200</v>
+        <v>2000</v>
       </c>
       <c r="M1280" t="n">
-        <v>3064</v>
+        <v>2000</v>
       </c>
       <c r="N1280" t="inlineStr">
         <is>
@@ -92535,11 +92535,11 @@
       </c>
       <c r="O1280" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1280" t="n">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="Q1280" t="n">
         <v>36</v>
@@ -92585,20 +92585,20 @@
       </c>
       <c r="I1281" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1281" t="n">
-        <v>790</v>
+        <v>650</v>
       </c>
       <c r="K1281" t="n">
-        <v>3000</v>
+        <v>3700</v>
       </c>
       <c r="L1281" t="n">
-        <v>3300</v>
+        <v>4000</v>
       </c>
       <c r="M1281" t="n">
-        <v>3167</v>
+        <v>3862</v>
       </c>
       <c r="N1281" t="inlineStr">
         <is>
@@ -92607,11 +92607,11 @@
       </c>
       <c r="O1281" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1281" t="n">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="Q1281" t="n">
         <v>36</v>
@@ -92657,20 +92657,20 @@
       </c>
       <c r="I1282" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1282" t="n">
-        <v>250</v>
+        <v>670</v>
       </c>
       <c r="K1282" t="n">
-        <v>2300</v>
+        <v>3800</v>
       </c>
       <c r="L1282" t="n">
-        <v>2300</v>
+        <v>4000</v>
       </c>
       <c r="M1282" t="n">
-        <v>2300</v>
+        <v>3916</v>
       </c>
       <c r="N1282" t="inlineStr">
         <is>
@@ -92679,11 +92679,11 @@
       </c>
       <c r="O1282" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1282" t="n">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="Q1282" t="n">
         <v>36</v>
@@ -92729,20 +92729,20 @@
       </c>
       <c r="I1283" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1283" t="n">
-        <v>290</v>
+        <v>730</v>
       </c>
       <c r="K1283" t="n">
-        <v>2400</v>
+        <v>2900</v>
       </c>
       <c r="L1283" t="n">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="M1283" t="n">
-        <v>2400</v>
+        <v>3064</v>
       </c>
       <c r="N1283" t="inlineStr">
         <is>
@@ -92751,11 +92751,11 @@
       </c>
       <c r="O1283" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1283" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="Q1283" t="n">
         <v>36</v>
@@ -92781,7 +92781,7 @@
         </is>
       </c>
       <c r="D1284" s="2" t="n">
-        <v>44321</v>
+        <v>44428</v>
       </c>
       <c r="E1284" t="n">
         <v>13</v>
@@ -92801,20 +92801,20 @@
       </c>
       <c r="I1284" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1284" t="n">
-        <v>270</v>
+        <v>790</v>
       </c>
       <c r="K1284" t="n">
         <v>3000</v>
       </c>
       <c r="L1284" t="n">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="M1284" t="n">
-        <v>3000</v>
+        <v>3167</v>
       </c>
       <c r="N1284" t="inlineStr">
         <is>
@@ -92827,7 +92827,7 @@
         </is>
       </c>
       <c r="P1284" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Q1284" t="n">
         <v>36</v>
@@ -92853,7 +92853,7 @@
         </is>
       </c>
       <c r="D1285" s="2" t="n">
-        <v>44321</v>
+        <v>44428</v>
       </c>
       <c r="E1285" t="n">
         <v>13</v>
@@ -92873,20 +92873,20 @@
       </c>
       <c r="I1285" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1285" t="n">
-        <v>780</v>
+        <v>250</v>
       </c>
       <c r="K1285" t="n">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="L1285" t="n">
-        <v>2600</v>
+        <v>2300</v>
       </c>
       <c r="M1285" t="n">
-        <v>2487</v>
+        <v>2300</v>
       </c>
       <c r="N1285" t="inlineStr">
         <is>
@@ -92899,7 +92899,7 @@
         </is>
       </c>
       <c r="P1285" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="Q1285" t="n">
         <v>36</v>
@@ -92925,7 +92925,7 @@
         </is>
       </c>
       <c r="D1286" s="2" t="n">
-        <v>44321</v>
+        <v>44428</v>
       </c>
       <c r="E1286" t="n">
         <v>13</v>
@@ -92945,20 +92945,20 @@
       </c>
       <c r="I1286" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1286" t="n">
-        <v>710</v>
+        <v>290</v>
       </c>
       <c r="K1286" t="n">
         <v>2400</v>
       </c>
       <c r="L1286" t="n">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="M1286" t="n">
-        <v>2507</v>
+        <v>2400</v>
       </c>
       <c r="N1286" t="inlineStr">
         <is>
@@ -92971,7 +92971,7 @@
         </is>
       </c>
       <c r="P1286" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Q1286" t="n">
         <v>36</v>
@@ -93017,20 +93017,20 @@
       </c>
       <c r="I1287" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1287" t="n">
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="K1287" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="L1287" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M1287" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="N1287" t="inlineStr">
         <is>
@@ -93039,11 +93039,11 @@
       </c>
       <c r="O1287" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1287" t="n">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="Q1287" t="n">
         <v>36</v>
@@ -93089,20 +93089,20 @@
       </c>
       <c r="I1288" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1288" t="n">
-        <v>220</v>
+        <v>780</v>
       </c>
       <c r="K1288" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="L1288" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="M1288" t="n">
-        <v>2000</v>
+        <v>2487</v>
       </c>
       <c r="N1288" t="inlineStr">
         <is>
@@ -93111,11 +93111,11 @@
       </c>
       <c r="O1288" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1288" t="n">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="Q1288" t="n">
         <v>36</v>
@@ -93141,7 +93141,7 @@
         </is>
       </c>
       <c r="D1289" s="2" t="n">
-        <v>44302</v>
+        <v>44321</v>
       </c>
       <c r="E1289" t="n">
         <v>13</v>
@@ -93165,16 +93165,16 @@
         </is>
       </c>
       <c r="J1289" t="n">
-        <v>830</v>
+        <v>710</v>
       </c>
       <c r="K1289" t="n">
+        <v>2400</v>
+      </c>
+      <c r="L1289" t="n">
         <v>2600</v>
       </c>
-      <c r="L1289" t="n">
-        <v>3000</v>
-      </c>
       <c r="M1289" t="n">
-        <v>2812</v>
+        <v>2507</v>
       </c>
       <c r="N1289" t="inlineStr">
         <is>
@@ -93183,11 +93183,11 @@
       </c>
       <c r="O1289" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1289" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="Q1289" t="n">
         <v>36</v>
@@ -93213,7 +93213,7 @@
         </is>
       </c>
       <c r="D1290" s="2" t="n">
-        <v>44302</v>
+        <v>44321</v>
       </c>
       <c r="E1290" t="n">
         <v>13</v>
@@ -93233,20 +93233,20 @@
       </c>
       <c r="I1290" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1290" t="n">
-        <v>1020</v>
+        <v>220</v>
       </c>
       <c r="K1290" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L1290" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M1290" t="n">
-        <v>2662</v>
+        <v>2000</v>
       </c>
       <c r="N1290" t="inlineStr">
         <is>
@@ -93255,11 +93255,11 @@
       </c>
       <c r="O1290" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1290" t="n">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="Q1290" t="n">
         <v>36</v>
@@ -93285,7 +93285,7 @@
         </is>
       </c>
       <c r="D1291" s="2" t="n">
-        <v>44302</v>
+        <v>44321</v>
       </c>
       <c r="E1291" t="n">
         <v>13</v>
@@ -93309,7 +93309,7 @@
         </is>
       </c>
       <c r="J1291" t="n">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="K1291" t="n">
         <v>2000</v>
@@ -93327,7 +93327,7 @@
       </c>
       <c r="O1291" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1291" t="n">
@@ -93377,20 +93377,20 @@
       </c>
       <c r="I1292" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1292" t="n">
-        <v>330</v>
+        <v>830</v>
       </c>
       <c r="K1292" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="L1292" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M1292" t="n">
-        <v>2000</v>
+        <v>2812</v>
       </c>
       <c r="N1292" t="inlineStr">
         <is>
@@ -93399,11 +93399,11 @@
       </c>
       <c r="O1292" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1292" t="n">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="Q1292" t="n">
         <v>36</v>
@@ -93429,7 +93429,7 @@
         </is>
       </c>
       <c r="D1293" s="2" t="n">
-        <v>44209</v>
+        <v>44302</v>
       </c>
       <c r="E1293" t="n">
         <v>13</v>
@@ -93449,20 +93449,20 @@
       </c>
       <c r="I1293" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1293" t="n">
-        <v>520</v>
+        <v>1020</v>
       </c>
       <c r="K1293" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="L1293" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="M1293" t="n">
-        <v>3100</v>
+        <v>2662</v>
       </c>
       <c r="N1293" t="inlineStr">
         <is>
@@ -93475,7 +93475,7 @@
         </is>
       </c>
       <c r="P1293" t="n">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="Q1293" t="n">
         <v>36</v>
@@ -93501,7 +93501,7 @@
         </is>
       </c>
       <c r="D1294" s="2" t="n">
-        <v>44209</v>
+        <v>44302</v>
       </c>
       <c r="E1294" t="n">
         <v>13</v>
@@ -93521,20 +93521,20 @@
       </c>
       <c r="I1294" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1294" t="n">
-        <v>1320</v>
+        <v>300</v>
       </c>
       <c r="K1294" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="L1294" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="M1294" t="n">
-        <v>2750</v>
+        <v>2000</v>
       </c>
       <c r="N1294" t="inlineStr">
         <is>
@@ -93543,11 +93543,11 @@
       </c>
       <c r="O1294" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1294" t="n">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="Q1294" t="n">
         <v>36</v>
@@ -93573,7 +93573,7 @@
         </is>
       </c>
       <c r="D1295" s="2" t="n">
-        <v>44209</v>
+        <v>44302</v>
       </c>
       <c r="E1295" t="n">
         <v>13</v>
@@ -93597,16 +93597,16 @@
         </is>
       </c>
       <c r="J1295" t="n">
-        <v>700</v>
+        <v>330</v>
       </c>
       <c r="K1295" t="n">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="L1295" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="M1295" t="n">
-        <v>2250</v>
+        <v>2000</v>
       </c>
       <c r="N1295" t="inlineStr">
         <is>
@@ -93619,7 +93619,7 @@
         </is>
       </c>
       <c r="P1295" t="n">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="Q1295" t="n">
         <v>36</v>
@@ -93645,7 +93645,7 @@
         </is>
       </c>
       <c r="D1296" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E1296" t="n">
         <v>13</v>
@@ -93665,20 +93665,20 @@
       </c>
       <c r="I1296" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1296" t="n">
-        <v>810</v>
+        <v>520</v>
       </c>
       <c r="K1296" t="n">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="L1296" t="n">
-        <v>3800</v>
+        <v>3200</v>
       </c>
       <c r="M1296" t="n">
-        <v>3696</v>
+        <v>3100</v>
       </c>
       <c r="N1296" t="inlineStr">
         <is>
@@ -93687,11 +93687,11 @@
       </c>
       <c r="O1296" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1296" t="n">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="Q1296" t="n">
         <v>36</v>
@@ -93717,7 +93717,7 @@
         </is>
       </c>
       <c r="D1297" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E1297" t="n">
         <v>13</v>
@@ -93741,16 +93741,16 @@
         </is>
       </c>
       <c r="J1297" t="n">
-        <v>650</v>
+        <v>1320</v>
       </c>
       <c r="K1297" t="n">
-        <v>3400</v>
+        <v>2700</v>
       </c>
       <c r="L1297" t="n">
-        <v>3600</v>
+        <v>2800</v>
       </c>
       <c r="M1297" t="n">
-        <v>3514</v>
+        <v>2750</v>
       </c>
       <c r="N1297" t="inlineStr">
         <is>
@@ -93763,7 +93763,7 @@
         </is>
       </c>
       <c r="P1297" t="n">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="Q1297" t="n">
         <v>36</v>
@@ -93789,7 +93789,7 @@
         </is>
       </c>
       <c r="D1298" s="2" t="n">
-        <v>44274</v>
+        <v>44209</v>
       </c>
       <c r="E1298" t="n">
         <v>13</v>
@@ -93813,16 +93813,16 @@
         </is>
       </c>
       <c r="J1298" t="n">
-        <v>520</v>
+        <v>700</v>
       </c>
       <c r="K1298" t="n">
-        <v>2800</v>
+        <v>2200</v>
       </c>
       <c r="L1298" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="M1298" t="n">
-        <v>2892</v>
+        <v>2250</v>
       </c>
       <c r="N1298" t="inlineStr">
         <is>
@@ -93831,11 +93831,11 @@
       </c>
       <c r="O1298" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1298" t="n">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="Q1298" t="n">
         <v>36</v>
@@ -93881,20 +93881,20 @@
       </c>
       <c r="I1299" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1299" t="n">
-        <v>420</v>
+        <v>810</v>
       </c>
       <c r="K1299" t="n">
-        <v>2800</v>
+        <v>3600</v>
       </c>
       <c r="L1299" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="M1299" t="n">
-        <v>2905</v>
+        <v>3696</v>
       </c>
       <c r="N1299" t="inlineStr">
         <is>
@@ -93903,11 +93903,11 @@
       </c>
       <c r="O1299" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1299" t="n">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="Q1299" t="n">
         <v>36</v>
@@ -93933,7 +93933,7 @@
         </is>
       </c>
       <c r="D1300" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E1300" t="n">
         <v>13</v>
@@ -93953,20 +93953,20 @@
       </c>
       <c r="I1300" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1300" t="n">
-        <v>1190</v>
+        <v>650</v>
       </c>
       <c r="K1300" t="n">
-        <v>2300</v>
+        <v>3400</v>
       </c>
       <c r="L1300" t="n">
-        <v>2500</v>
+        <v>3600</v>
       </c>
       <c r="M1300" t="n">
-        <v>2396</v>
+        <v>3514</v>
       </c>
       <c r="N1300" t="inlineStr">
         <is>
@@ -93979,7 +93979,7 @@
         </is>
       </c>
       <c r="P1300" t="n">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="Q1300" t="n">
         <v>36</v>
@@ -94005,7 +94005,7 @@
         </is>
       </c>
       <c r="D1301" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E1301" t="n">
         <v>13</v>
@@ -94025,20 +94025,20 @@
       </c>
       <c r="I1301" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1301" t="n">
-        <v>1440</v>
+        <v>520</v>
       </c>
       <c r="K1301" t="n">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="L1301" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M1301" t="n">
-        <v>2096</v>
+        <v>2892</v>
       </c>
       <c r="N1301" t="inlineStr">
         <is>
@@ -94047,11 +94047,11 @@
       </c>
       <c r="O1301" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1301" t="n">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="Q1301" t="n">
         <v>36</v>
@@ -94077,7 +94077,7 @@
         </is>
       </c>
       <c r="D1302" s="2" t="n">
-        <v>44554</v>
+        <v>44274</v>
       </c>
       <c r="E1302" t="n">
         <v>13</v>
@@ -94101,16 +94101,16 @@
         </is>
       </c>
       <c r="J1302" t="n">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="K1302" t="n">
-        <v>1700</v>
+        <v>2800</v>
       </c>
       <c r="L1302" t="n">
-        <v>1700</v>
+        <v>3000</v>
       </c>
       <c r="M1302" t="n">
-        <v>1700</v>
+        <v>2905</v>
       </c>
       <c r="N1302" t="inlineStr">
         <is>
@@ -94123,7 +94123,7 @@
         </is>
       </c>
       <c r="P1302" t="n">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="Q1302" t="n">
         <v>36</v>
@@ -94149,7 +94149,7 @@
         </is>
       </c>
       <c r="D1303" s="2" t="n">
-        <v>44392</v>
+        <v>44554</v>
       </c>
       <c r="E1303" t="n">
         <v>13</v>
@@ -94173,16 +94173,16 @@
         </is>
       </c>
       <c r="J1303" t="n">
-        <v>440</v>
+        <v>1190</v>
       </c>
       <c r="K1303" t="n">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="L1303" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="M1303" t="n">
-        <v>3000</v>
+        <v>2396</v>
       </c>
       <c r="N1303" t="inlineStr">
         <is>
@@ -94191,11 +94191,11 @@
       </c>
       <c r="O1303" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1303" t="n">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="Q1303" t="n">
         <v>36</v>
@@ -94221,7 +94221,7 @@
         </is>
       </c>
       <c r="D1304" s="2" t="n">
-        <v>44392</v>
+        <v>44554</v>
       </c>
       <c r="E1304" t="n">
         <v>13</v>
@@ -94241,20 +94241,20 @@
       </c>
       <c r="I1304" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1304" t="n">
-        <v>380</v>
+        <v>1440</v>
       </c>
       <c r="K1304" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L1304" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="M1304" t="n">
-        <v>3000</v>
+        <v>2096</v>
       </c>
       <c r="N1304" t="inlineStr">
         <is>
@@ -94267,7 +94267,7 @@
         </is>
       </c>
       <c r="P1304" t="n">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="Q1304" t="n">
         <v>36</v>
@@ -94293,7 +94293,7 @@
         </is>
       </c>
       <c r="D1305" s="2" t="n">
-        <v>44392</v>
+        <v>44554</v>
       </c>
       <c r="E1305" t="n">
         <v>13</v>
@@ -94313,20 +94313,20 @@
       </c>
       <c r="I1305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1305" t="n">
-        <v>810</v>
+        <v>350</v>
       </c>
       <c r="K1305" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="L1305" t="n">
-        <v>2700</v>
+        <v>1700</v>
       </c>
       <c r="M1305" t="n">
-        <v>2616</v>
+        <v>1700</v>
       </c>
       <c r="N1305" t="inlineStr">
         <is>
@@ -94335,11 +94335,11 @@
       </c>
       <c r="O1305" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1305" t="n">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="Q1305" t="n">
         <v>36</v>
@@ -94385,20 +94385,20 @@
       </c>
       <c r="I1306" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1306" t="n">
-        <v>710</v>
+        <v>440</v>
       </c>
       <c r="K1306" t="n">
-        <v>2400</v>
+        <v>3000</v>
       </c>
       <c r="L1306" t="n">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="M1306" t="n">
-        <v>2515</v>
+        <v>3000</v>
       </c>
       <c r="N1306" t="inlineStr">
         <is>
@@ -94407,11 +94407,11 @@
       </c>
       <c r="O1306" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1306" t="n">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="Q1306" t="n">
         <v>36</v>
@@ -94457,20 +94457,20 @@
       </c>
       <c r="I1307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1307" t="n">
-        <v>260</v>
+        <v>380</v>
       </c>
       <c r="K1307" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L1307" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M1307" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="N1307" t="inlineStr">
         <is>
@@ -94479,11 +94479,11 @@
       </c>
       <c r="O1307" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1307" t="n">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="Q1307" t="n">
         <v>36</v>
@@ -94529,38 +94529,254 @@
       </c>
       <c r="I1308" t="inlineStr">
         <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1308" t="n">
+        <v>810</v>
+      </c>
+      <c r="K1308" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L1308" t="n">
+        <v>2700</v>
+      </c>
+      <c r="M1308" t="n">
+        <v>2616</v>
+      </c>
+      <c r="N1308" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1308" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P1308" t="n">
+        <v>73</v>
+      </c>
+      <c r="Q1308" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1308" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1309" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1309" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1309" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E1309" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1309" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1309" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1309" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1309" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1309" t="n">
+        <v>710</v>
+      </c>
+      <c r="K1309" t="n">
+        <v>2400</v>
+      </c>
+      <c r="L1309" t="n">
+        <v>2600</v>
+      </c>
+      <c r="M1309" t="n">
+        <v>2515</v>
+      </c>
+      <c r="N1309" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1309" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1309" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q1309" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1309" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1310" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1310" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1310" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E1310" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1310" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1310" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1310" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1310" t="inlineStr">
+        <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1308" t="n">
+      <c r="J1310" t="n">
+        <v>260</v>
+      </c>
+      <c r="K1310" t="n">
+        <v>2200</v>
+      </c>
+      <c r="L1310" t="n">
+        <v>2200</v>
+      </c>
+      <c r="M1310" t="n">
+        <v>2200</v>
+      </c>
+      <c r="N1310" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1310" t="inlineStr">
+        <is>
+          <t>Provincia de Chacabuco</t>
+        </is>
+      </c>
+      <c r="P1310" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q1310" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1310" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1311" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1311" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1311" s="2" t="n">
+        <v>44392</v>
+      </c>
+      <c r="E1311" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1311" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1311" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1311" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1311" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1311" t="n">
         <v>250</v>
       </c>
-      <c r="K1308" t="n">
+      <c r="K1311" t="n">
         <v>2200</v>
       </c>
-      <c r="L1308" t="n">
+      <c r="L1311" t="n">
         <v>2200</v>
       </c>
-      <c r="M1308" t="n">
+      <c r="M1311" t="n">
         <v>2200</v>
       </c>
-      <c r="N1308" t="inlineStr">
-        <is>
-          <t>$/paquete 36 unidades</t>
-        </is>
-      </c>
-      <c r="O1308" t="inlineStr">
+      <c r="N1311" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1311" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P1308" t="n">
+      <c r="P1311" t="n">
         <v>61</v>
       </c>
-      <c r="Q1308" t="n">
-        <v>36</v>
-      </c>
-      <c r="R1308" t="inlineStr">
+      <c r="Q1311" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1311" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cebollín.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cebollín.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1329"/>
+  <dimension ref="A1:R1332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94581,7 +94581,7 @@
         </is>
       </c>
       <c r="D1309" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1309" t="n">
         <v>13</v>
@@ -94605,16 +94605,16 @@
         </is>
       </c>
       <c r="J1309" t="n">
-        <v>360</v>
+        <v>910</v>
       </c>
       <c r="K1309" t="n">
         <v>2800</v>
       </c>
       <c r="L1309" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M1309" t="n">
-        <v>2800</v>
+        <v>2903</v>
       </c>
       <c r="N1309" t="inlineStr">
         <is>
@@ -94627,7 +94627,7 @@
         </is>
       </c>
       <c r="P1309" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Q1309" t="n">
         <v>36</v>
@@ -94653,7 +94653,7 @@
         </is>
       </c>
       <c r="D1310" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1310" t="n">
         <v>13</v>
@@ -94673,20 +94673,20 @@
       </c>
       <c r="I1310" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1310" t="n">
-        <v>260</v>
+        <v>1210</v>
       </c>
       <c r="K1310" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="L1310" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M1310" t="n">
-        <v>2800</v>
+        <v>2448</v>
       </c>
       <c r="N1310" t="inlineStr">
         <is>
@@ -94695,11 +94695,11 @@
       </c>
       <c r="O1310" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1310" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="Q1310" t="n">
         <v>36</v>
@@ -94725,7 +94725,7 @@
         </is>
       </c>
       <c r="D1311" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1311" t="n">
         <v>13</v>
@@ -94745,20 +94745,20 @@
       </c>
       <c r="I1311" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1311" t="n">
-        <v>600</v>
+        <v>330</v>
       </c>
       <c r="K1311" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="L1311" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M1311" t="n">
-        <v>2410</v>
+        <v>2000</v>
       </c>
       <c r="N1311" t="inlineStr">
         <is>
@@ -94771,7 +94771,7 @@
         </is>
       </c>
       <c r="P1311" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="Q1311" t="n">
         <v>36</v>
@@ -94817,20 +94817,20 @@
       </c>
       <c r="I1312" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1312" t="n">
-        <v>620</v>
+        <v>360</v>
       </c>
       <c r="K1312" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="L1312" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M1312" t="n">
-        <v>2403</v>
+        <v>2800</v>
       </c>
       <c r="N1312" t="inlineStr">
         <is>
@@ -94839,11 +94839,11 @@
       </c>
       <c r="O1312" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1312" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="Q1312" t="n">
         <v>36</v>
@@ -94889,20 +94889,20 @@
       </c>
       <c r="I1313" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1313" t="n">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="K1313" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="L1313" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="M1313" t="n">
-        <v>2078</v>
+        <v>2800</v>
       </c>
       <c r="N1313" t="inlineStr">
         <is>
@@ -94911,11 +94911,11 @@
       </c>
       <c r="O1313" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1313" t="n">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="Q1313" t="n">
         <v>36</v>
@@ -94961,20 +94961,20 @@
       </c>
       <c r="I1314" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1314" t="n">
-        <v>380</v>
+        <v>600</v>
       </c>
       <c r="K1314" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="L1314" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M1314" t="n">
-        <v>1895</v>
+        <v>2410</v>
       </c>
       <c r="N1314" t="inlineStr">
         <is>
@@ -94983,11 +94983,11 @@
       </c>
       <c r="O1314" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1314" t="n">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="Q1314" t="n">
         <v>36</v>
@@ -95013,7 +95013,7 @@
         </is>
       </c>
       <c r="D1315" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1315" t="n">
         <v>13</v>
@@ -95033,20 +95033,20 @@
       </c>
       <c r="I1315" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1315" t="n">
-        <v>970</v>
+        <v>620</v>
       </c>
       <c r="K1315" t="n">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="L1315" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="M1315" t="n">
-        <v>2309</v>
+        <v>2403</v>
       </c>
       <c r="N1315" t="inlineStr">
         <is>
@@ -95055,11 +95055,11 @@
       </c>
       <c r="O1315" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1315" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Q1315" t="n">
         <v>36</v>
@@ -95085,7 +95085,7 @@
         </is>
       </c>
       <c r="D1316" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1316" t="n">
         <v>13</v>
@@ -95105,20 +95105,20 @@
       </c>
       <c r="I1316" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1316" t="n">
-        <v>470</v>
+        <v>360</v>
       </c>
       <c r="K1316" t="n">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="L1316" t="n">
         <v>2300</v>
       </c>
       <c r="M1316" t="n">
-        <v>2300</v>
+        <v>2078</v>
       </c>
       <c r="N1316" t="inlineStr">
         <is>
@@ -95127,11 +95127,11 @@
       </c>
       <c r="O1316" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1316" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="Q1316" t="n">
         <v>36</v>
@@ -95157,7 +95157,7 @@
         </is>
       </c>
       <c r="D1317" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1317" t="n">
         <v>13</v>
@@ -95177,20 +95177,20 @@
       </c>
       <c r="I1317" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1317" t="n">
-        <v>1240</v>
+        <v>380</v>
       </c>
       <c r="K1317" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L1317" t="n">
         <v>2000</v>
       </c>
-      <c r="L1317" t="n">
-        <v>2100</v>
-      </c>
       <c r="M1317" t="n">
-        <v>2053</v>
+        <v>1895</v>
       </c>
       <c r="N1317" t="inlineStr">
         <is>
@@ -95199,11 +95199,11 @@
       </c>
       <c r="O1317" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1317" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q1317" t="n">
         <v>36</v>
@@ -95249,20 +95249,20 @@
       </c>
       <c r="I1318" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1318" t="n">
-        <v>520</v>
+        <v>970</v>
       </c>
       <c r="K1318" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="L1318" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M1318" t="n">
-        <v>2000</v>
+        <v>2309</v>
       </c>
       <c r="N1318" t="inlineStr">
         <is>
@@ -95271,11 +95271,11 @@
       </c>
       <c r="O1318" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1318" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="Q1318" t="n">
         <v>36</v>
@@ -95321,20 +95321,20 @@
       </c>
       <c r="I1319" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1319" t="n">
-        <v>270</v>
+        <v>470</v>
       </c>
       <c r="K1319" t="n">
-        <v>1700</v>
+        <v>2300</v>
       </c>
       <c r="L1319" t="n">
-        <v>1700</v>
+        <v>2300</v>
       </c>
       <c r="M1319" t="n">
-        <v>1700</v>
+        <v>2300</v>
       </c>
       <c r="N1319" t="inlineStr">
         <is>
@@ -95343,11 +95343,11 @@
       </c>
       <c r="O1319" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1319" t="n">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="Q1319" t="n">
         <v>36</v>
@@ -95393,20 +95393,20 @@
       </c>
       <c r="I1320" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1320" t="n">
-        <v>290</v>
+        <v>1240</v>
       </c>
       <c r="K1320" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="L1320" t="n">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="M1320" t="n">
-        <v>1700</v>
+        <v>2053</v>
       </c>
       <c r="N1320" t="inlineStr">
         <is>
@@ -95415,11 +95415,11 @@
       </c>
       <c r="O1320" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1320" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="Q1320" t="n">
         <v>36</v>
@@ -95445,7 +95445,7 @@
         </is>
       </c>
       <c r="D1321" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1321" t="n">
         <v>13</v>
@@ -95465,20 +95465,20 @@
       </c>
       <c r="I1321" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1321" t="n">
-        <v>750</v>
+        <v>520</v>
       </c>
       <c r="K1321" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="L1321" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M1321" t="n">
-        <v>2401</v>
+        <v>2000</v>
       </c>
       <c r="N1321" t="inlineStr">
         <is>
@@ -95487,11 +95487,11 @@
       </c>
       <c r="O1321" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1321" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="Q1321" t="n">
         <v>36</v>
@@ -95517,7 +95517,7 @@
         </is>
       </c>
       <c r="D1322" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1322" t="n">
         <v>13</v>
@@ -95537,20 +95537,20 @@
       </c>
       <c r="I1322" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1322" t="n">
-        <v>790</v>
+        <v>270</v>
       </c>
       <c r="K1322" t="n">
-        <v>2300</v>
+        <v>1700</v>
       </c>
       <c r="L1322" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="M1322" t="n">
-        <v>2401</v>
+        <v>1700</v>
       </c>
       <c r="N1322" t="inlineStr">
         <is>
@@ -95559,11 +95559,11 @@
       </c>
       <c r="O1322" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1322" t="n">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="Q1322" t="n">
         <v>36</v>
@@ -95589,7 +95589,7 @@
         </is>
       </c>
       <c r="D1323" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1323" t="n">
         <v>13</v>
@@ -95609,20 +95609,20 @@
       </c>
       <c r="I1323" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1323" t="n">
-        <v>840</v>
+        <v>290</v>
       </c>
       <c r="K1323" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="L1323" t="n">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="M1323" t="n">
-        <v>2105</v>
+        <v>1700</v>
       </c>
       <c r="N1323" t="inlineStr">
         <is>
@@ -95631,11 +95631,11 @@
       </c>
       <c r="O1323" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1323" t="n">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="Q1323" t="n">
         <v>36</v>
@@ -95681,20 +95681,20 @@
       </c>
       <c r="I1324" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1324" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="K1324" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="L1324" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M1324" t="n">
-        <v>2104</v>
+        <v>2401</v>
       </c>
       <c r="N1324" t="inlineStr">
         <is>
@@ -95703,11 +95703,11 @@
       </c>
       <c r="O1324" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1324" t="n">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="Q1324" t="n">
         <v>36</v>
@@ -95753,20 +95753,20 @@
       </c>
       <c r="I1325" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1325" t="n">
-        <v>200</v>
+        <v>790</v>
       </c>
       <c r="K1325" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="L1325" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="M1325" t="n">
-        <v>1800</v>
+        <v>2401</v>
       </c>
       <c r="N1325" t="inlineStr">
         <is>
@@ -95775,11 +95775,11 @@
       </c>
       <c r="O1325" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1325" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="Q1325" t="n">
         <v>36</v>
@@ -95825,20 +95825,20 @@
       </c>
       <c r="I1326" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1326" t="n">
-        <v>210</v>
+        <v>840</v>
       </c>
       <c r="K1326" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L1326" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="M1326" t="n">
-        <v>1800</v>
+        <v>2105</v>
       </c>
       <c r="N1326" t="inlineStr">
         <is>
@@ -95847,11 +95847,11 @@
       </c>
       <c r="O1326" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1326" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="Q1326" t="n">
         <v>36</v>
@@ -95877,7 +95877,7 @@
         </is>
       </c>
       <c r="D1327" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1327" t="n">
         <v>13</v>
@@ -95897,20 +95897,20 @@
       </c>
       <c r="I1327" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1327" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="K1327" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L1327" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="M1327" t="n">
-        <v>2500</v>
+        <v>2104</v>
       </c>
       <c r="N1327" t="inlineStr">
         <is>
@@ -95923,7 +95923,7 @@
         </is>
       </c>
       <c r="P1327" t="n">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="Q1327" t="n">
         <v>36</v>
@@ -95949,7 +95949,7 @@
         </is>
       </c>
       <c r="D1328" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1328" t="n">
         <v>13</v>
@@ -95969,20 +95969,20 @@
       </c>
       <c r="I1328" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1328" t="n">
-        <v>860</v>
+        <v>200</v>
       </c>
       <c r="K1328" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L1328" t="n">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="M1328" t="n">
-        <v>2170</v>
+        <v>1800</v>
       </c>
       <c r="N1328" t="inlineStr">
         <is>
@@ -95991,11 +95991,11 @@
       </c>
       <c r="O1328" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1328" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Q1328" t="n">
         <v>36</v>
@@ -96021,58 +96021,274 @@
         </is>
       </c>
       <c r="D1329" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E1329" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1329" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1329" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1329" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1329" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1329" t="n">
+        <v>210</v>
+      </c>
+      <c r="K1329" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L1329" t="n">
+        <v>1800</v>
+      </c>
+      <c r="M1329" t="n">
+        <v>1800</v>
+      </c>
+      <c r="N1329" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1329" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1329" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q1329" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1329" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1330" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1330" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1330" s="2" t="n">
         <v>44160</v>
       </c>
-      <c r="E1329" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1329" t="n">
-        <v>100112037</v>
-      </c>
-      <c r="G1329" t="inlineStr">
-        <is>
-          <t>Cebollín</t>
-        </is>
-      </c>
-      <c r="H1329" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I1329" t="inlineStr">
+      <c r="E1330" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1330" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1330" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1330" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1330" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1330" t="n">
+        <v>250</v>
+      </c>
+      <c r="K1330" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L1330" t="n">
+        <v>2500</v>
+      </c>
+      <c r="M1330" t="n">
+        <v>2500</v>
+      </c>
+      <c r="N1330" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1330" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1330" t="n">
+        <v>69</v>
+      </c>
+      <c r="Q1330" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1330" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1331" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1331" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1331" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1331" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1331" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1331" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1331" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1331" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1331" t="n">
+        <v>860</v>
+      </c>
+      <c r="K1331" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L1331" t="n">
+        <v>2300</v>
+      </c>
+      <c r="M1331" t="n">
+        <v>2170</v>
+      </c>
+      <c r="N1331" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1331" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1331" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q1331" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1331" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1332" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1332" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1332" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1332" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1332" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1332" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1332" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1332" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1329" t="n">
+      <c r="J1332" t="n">
         <v>470</v>
       </c>
-      <c r="K1329" t="n">
+      <c r="K1332" t="n">
         <v>1700</v>
       </c>
-      <c r="L1329" t="n">
+      <c r="L1332" t="n">
         <v>2000</v>
       </c>
-      <c r="M1329" t="n">
+      <c r="M1332" t="n">
         <v>1840</v>
       </c>
-      <c r="N1329" t="inlineStr">
-        <is>
-          <t>$/paquete 36 unidades</t>
-        </is>
-      </c>
-      <c r="O1329" t="inlineStr">
+      <c r="N1332" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1332" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P1329" t="n">
+      <c r="P1332" t="n">
         <v>51</v>
       </c>
-      <c r="Q1329" t="n">
-        <v>36</v>
-      </c>
-      <c r="R1329" t="inlineStr">
+      <c r="Q1332" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1332" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cebollín.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mercado Mayorista Lo Valledor de Santiago - Cebollín.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1362"/>
+  <dimension ref="A1:R1365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92565,7 +92565,7 @@
         </is>
       </c>
       <c r="D1281" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E1281" t="n">
         <v>13</v>
@@ -92585,20 +92585,20 @@
       </c>
       <c r="I1281" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1281" t="n">
-        <v>760</v>
+        <v>810</v>
       </c>
       <c r="K1281" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L1281" t="n">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="M1281" t="n">
-        <v>2789</v>
+        <v>3159</v>
       </c>
       <c r="N1281" t="inlineStr">
         <is>
@@ -92607,11 +92607,11 @@
       </c>
       <c r="O1281" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1281" t="n">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="Q1281" t="n">
         <v>36</v>
@@ -92637,7 +92637,7 @@
         </is>
       </c>
       <c r="D1282" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E1282" t="n">
         <v>13</v>
@@ -92661,16 +92661,16 @@
         </is>
       </c>
       <c r="J1282" t="n">
-        <v>860</v>
+        <v>990</v>
       </c>
       <c r="K1282" t="n">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="L1282" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="M1282" t="n">
-        <v>2628</v>
+        <v>2656</v>
       </c>
       <c r="N1282" t="inlineStr">
         <is>
@@ -92683,7 +92683,7 @@
         </is>
       </c>
       <c r="P1282" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q1282" t="n">
         <v>36</v>
@@ -92709,7 +92709,7 @@
         </is>
       </c>
       <c r="D1283" s="2" t="n">
-        <v>44312</v>
+        <v>44610</v>
       </c>
       <c r="E1283" t="n">
         <v>13</v>
@@ -92733,16 +92733,16 @@
         </is>
       </c>
       <c r="J1283" t="n">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="K1283" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="L1283" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="M1283" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="N1283" t="inlineStr">
         <is>
@@ -92751,11 +92751,11 @@
       </c>
       <c r="O1283" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1283" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="Q1283" t="n">
         <v>36</v>
@@ -92801,20 +92801,20 @@
       </c>
       <c r="I1284" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1284" t="n">
-        <v>230</v>
+        <v>760</v>
       </c>
       <c r="K1284" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L1284" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="M1284" t="n">
-        <v>2000</v>
+        <v>2789</v>
       </c>
       <c r="N1284" t="inlineStr">
         <is>
@@ -92823,11 +92823,11 @@
       </c>
       <c r="O1284" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1284" t="n">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="Q1284" t="n">
         <v>36</v>
@@ -92853,7 +92853,7 @@
         </is>
       </c>
       <c r="D1285" s="2" t="n">
-        <v>44399</v>
+        <v>44312</v>
       </c>
       <c r="E1285" t="n">
         <v>13</v>
@@ -92873,20 +92873,20 @@
       </c>
       <c r="I1285" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1285" t="n">
-        <v>310</v>
+        <v>860</v>
       </c>
       <c r="K1285" t="n">
-        <v>3800</v>
+        <v>2400</v>
       </c>
       <c r="L1285" t="n">
-        <v>4000</v>
+        <v>2800</v>
       </c>
       <c r="M1285" t="n">
-        <v>3903</v>
+        <v>2628</v>
       </c>
       <c r="N1285" t="inlineStr">
         <is>
@@ -92899,7 +92899,7 @@
         </is>
       </c>
       <c r="P1285" t="n">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="Q1285" t="n">
         <v>36</v>
@@ -92925,7 +92925,7 @@
         </is>
       </c>
       <c r="D1286" s="2" t="n">
-        <v>44399</v>
+        <v>44312</v>
       </c>
       <c r="E1286" t="n">
         <v>13</v>
@@ -92945,20 +92945,20 @@
       </c>
       <c r="I1286" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1286" t="n">
-        <v>480</v>
+        <v>220</v>
       </c>
       <c r="K1286" t="n">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="L1286" t="n">
-        <v>3500</v>
+        <v>2000</v>
       </c>
       <c r="M1286" t="n">
-        <v>3412</v>
+        <v>2000</v>
       </c>
       <c r="N1286" t="inlineStr">
         <is>
@@ -92967,11 +92967,11 @@
       </c>
       <c r="O1286" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1286" t="n">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="Q1286" t="n">
         <v>36</v>
@@ -92997,7 +92997,7 @@
         </is>
       </c>
       <c r="D1287" s="2" t="n">
-        <v>44399</v>
+        <v>44312</v>
       </c>
       <c r="E1287" t="n">
         <v>13</v>
@@ -93021,16 +93021,16 @@
         </is>
       </c>
       <c r="J1287" t="n">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="K1287" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="L1287" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M1287" t="n">
-        <v>2415</v>
+        <v>2000</v>
       </c>
       <c r="N1287" t="inlineStr">
         <is>
@@ -93043,7 +93043,7 @@
         </is>
       </c>
       <c r="P1287" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="Q1287" t="n">
         <v>36</v>
@@ -93069,7 +93069,7 @@
         </is>
       </c>
       <c r="D1288" s="2" t="n">
-        <v>44522</v>
+        <v>44399</v>
       </c>
       <c r="E1288" t="n">
         <v>13</v>
@@ -93093,16 +93093,16 @@
         </is>
       </c>
       <c r="J1288" t="n">
-        <v>610</v>
+        <v>310</v>
       </c>
       <c r="K1288" t="n">
-        <v>2500</v>
+        <v>3800</v>
       </c>
       <c r="L1288" t="n">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="M1288" t="n">
-        <v>2557</v>
+        <v>3903</v>
       </c>
       <c r="N1288" t="inlineStr">
         <is>
@@ -93111,11 +93111,11 @@
       </c>
       <c r="O1288" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1288" t="n">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="Q1288" t="n">
         <v>36</v>
@@ -93141,7 +93141,7 @@
         </is>
       </c>
       <c r="D1289" s="2" t="n">
-        <v>44522</v>
+        <v>44399</v>
       </c>
       <c r="E1289" t="n">
         <v>13</v>
@@ -93161,20 +93161,20 @@
       </c>
       <c r="I1289" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1289" t="n">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="K1289" t="n">
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="L1289" t="n">
-        <v>2600</v>
+        <v>3500</v>
       </c>
       <c r="M1289" t="n">
-        <v>2554</v>
+        <v>3412</v>
       </c>
       <c r="N1289" t="inlineStr">
         <is>
@@ -93187,7 +93187,7 @@
         </is>
       </c>
       <c r="P1289" t="n">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="Q1289" t="n">
         <v>36</v>
@@ -93213,7 +93213,7 @@
         </is>
       </c>
       <c r="D1290" s="2" t="n">
-        <v>44522</v>
+        <v>44399</v>
       </c>
       <c r="E1290" t="n">
         <v>13</v>
@@ -93233,20 +93233,20 @@
       </c>
       <c r="I1290" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1290" t="n">
-        <v>520</v>
+        <v>260</v>
       </c>
       <c r="K1290" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="L1290" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M1290" t="n">
-        <v>2115</v>
+        <v>2415</v>
       </c>
       <c r="N1290" t="inlineStr">
         <is>
@@ -93255,11 +93255,11 @@
       </c>
       <c r="O1290" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1290" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="Q1290" t="n">
         <v>36</v>
@@ -93305,20 +93305,20 @@
       </c>
       <c r="I1291" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1291" t="n">
-        <v>400</v>
+        <v>610</v>
       </c>
       <c r="K1291" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L1291" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="M1291" t="n">
-        <v>2105</v>
+        <v>2557</v>
       </c>
       <c r="N1291" t="inlineStr">
         <is>
@@ -93327,11 +93327,11 @@
       </c>
       <c r="O1291" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1291" t="n">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="Q1291" t="n">
         <v>36</v>
@@ -93377,20 +93377,20 @@
       </c>
       <c r="I1292" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1292" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="K1292" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="L1292" t="n">
-        <v>1800</v>
+        <v>2600</v>
       </c>
       <c r="M1292" t="n">
-        <v>1800</v>
+        <v>2554</v>
       </c>
       <c r="N1292" t="inlineStr">
         <is>
@@ -93399,11 +93399,11 @@
       </c>
       <c r="O1292" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1292" t="n">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="Q1292" t="n">
         <v>36</v>
@@ -93449,20 +93449,20 @@
       </c>
       <c r="I1293" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1293" t="n">
-        <v>150</v>
+        <v>520</v>
       </c>
       <c r="K1293" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="L1293" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="M1293" t="n">
-        <v>1700</v>
+        <v>2115</v>
       </c>
       <c r="N1293" t="inlineStr">
         <is>
@@ -93471,11 +93471,11 @@
       </c>
       <c r="O1293" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1293" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="Q1293" t="n">
         <v>36</v>
@@ -93501,7 +93501,7 @@
         </is>
       </c>
       <c r="D1294" s="2" t="n">
-        <v>44543</v>
+        <v>44522</v>
       </c>
       <c r="E1294" t="n">
         <v>13</v>
@@ -93521,20 +93521,20 @@
       </c>
       <c r="I1294" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1294" t="n">
-        <v>680</v>
+        <v>400</v>
       </c>
       <c r="K1294" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="L1294" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="M1294" t="n">
-        <v>2403</v>
+        <v>2105</v>
       </c>
       <c r="N1294" t="inlineStr">
         <is>
@@ -93543,11 +93543,11 @@
       </c>
       <c r="O1294" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1294" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="Q1294" t="n">
         <v>36</v>
@@ -93573,7 +93573,7 @@
         </is>
       </c>
       <c r="D1295" s="2" t="n">
-        <v>44543</v>
+        <v>44522</v>
       </c>
       <c r="E1295" t="n">
         <v>13</v>
@@ -93593,20 +93593,20 @@
       </c>
       <c r="I1295" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1295" t="n">
-        <v>760</v>
+        <v>250</v>
       </c>
       <c r="K1295" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L1295" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="M1295" t="n">
-        <v>2108</v>
+        <v>1800</v>
       </c>
       <c r="N1295" t="inlineStr">
         <is>
@@ -93619,7 +93619,7 @@
         </is>
       </c>
       <c r="P1295" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q1295" t="n">
         <v>36</v>
@@ -93645,7 +93645,7 @@
         </is>
       </c>
       <c r="D1296" s="2" t="n">
-        <v>44543</v>
+        <v>44522</v>
       </c>
       <c r="E1296" t="n">
         <v>13</v>
@@ -93669,16 +93669,16 @@
         </is>
       </c>
       <c r="J1296" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="K1296" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="L1296" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="M1296" t="n">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="N1296" t="inlineStr">
         <is>
@@ -93687,11 +93687,11 @@
       </c>
       <c r="O1296" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1296" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q1296" t="n">
         <v>36</v>
@@ -93717,7 +93717,7 @@
         </is>
       </c>
       <c r="D1297" s="2" t="n">
-        <v>44167</v>
+        <v>44543</v>
       </c>
       <c r="E1297" t="n">
         <v>13</v>
@@ -93741,16 +93741,16 @@
         </is>
       </c>
       <c r="J1297" t="n">
-        <v>420</v>
+        <v>680</v>
       </c>
       <c r="K1297" t="n">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="L1297" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M1297" t="n">
-        <v>2748</v>
+        <v>2403</v>
       </c>
       <c r="N1297" t="inlineStr">
         <is>
@@ -93759,11 +93759,11 @@
       </c>
       <c r="O1297" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1297" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="Q1297" t="n">
         <v>36</v>
@@ -93789,7 +93789,7 @@
         </is>
       </c>
       <c r="D1298" s="2" t="n">
-        <v>44167</v>
+        <v>44543</v>
       </c>
       <c r="E1298" t="n">
         <v>13</v>
@@ -93813,16 +93813,16 @@
         </is>
       </c>
       <c r="J1298" t="n">
-        <v>870</v>
+        <v>760</v>
       </c>
       <c r="K1298" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="L1298" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="M1298" t="n">
-        <v>2429</v>
+        <v>2108</v>
       </c>
       <c r="N1298" t="inlineStr">
         <is>
@@ -93831,11 +93831,11 @@
       </c>
       <c r="O1298" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1298" t="n">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="Q1298" t="n">
         <v>36</v>
@@ -93861,7 +93861,7 @@
         </is>
       </c>
       <c r="D1299" s="2" t="n">
-        <v>44167</v>
+        <v>44543</v>
       </c>
       <c r="E1299" t="n">
         <v>13</v>
@@ -93885,16 +93885,16 @@
         </is>
       </c>
       <c r="J1299" t="n">
-        <v>620</v>
+        <v>250</v>
       </c>
       <c r="K1299" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L1299" t="n">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="M1299" t="n">
-        <v>2055</v>
+        <v>1800</v>
       </c>
       <c r="N1299" t="inlineStr">
         <is>
@@ -93903,11 +93903,11 @@
       </c>
       <c r="O1299" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1299" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="Q1299" t="n">
         <v>36</v>
@@ -93933,7 +93933,7 @@
         </is>
       </c>
       <c r="D1300" s="2" t="n">
-        <v>44277</v>
+        <v>44167</v>
       </c>
       <c r="E1300" t="n">
         <v>13</v>
@@ -93953,20 +93953,20 @@
       </c>
       <c r="I1300" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1300" t="n">
-        <v>660</v>
+        <v>420</v>
       </c>
       <c r="K1300" t="n">
-        <v>3400</v>
+        <v>2700</v>
       </c>
       <c r="L1300" t="n">
-        <v>3600</v>
+        <v>2800</v>
       </c>
       <c r="M1300" t="n">
-        <v>3515</v>
+        <v>2748</v>
       </c>
       <c r="N1300" t="inlineStr">
         <is>
@@ -93975,11 +93975,11 @@
       </c>
       <c r="O1300" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1300" t="n">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="Q1300" t="n">
         <v>36</v>
@@ -94005,7 +94005,7 @@
         </is>
       </c>
       <c r="D1301" s="2" t="n">
-        <v>44277</v>
+        <v>44167</v>
       </c>
       <c r="E1301" t="n">
         <v>13</v>
@@ -94029,16 +94029,16 @@
         </is>
       </c>
       <c r="J1301" t="n">
-        <v>750</v>
+        <v>870</v>
       </c>
       <c r="K1301" t="n">
-        <v>3400</v>
+        <v>2400</v>
       </c>
       <c r="L1301" t="n">
-        <v>3600</v>
+        <v>2500</v>
       </c>
       <c r="M1301" t="n">
-        <v>3512</v>
+        <v>2429</v>
       </c>
       <c r="N1301" t="inlineStr">
         <is>
@@ -94051,7 +94051,7 @@
         </is>
       </c>
       <c r="P1301" t="n">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="Q1301" t="n">
         <v>36</v>
@@ -94077,7 +94077,7 @@
         </is>
       </c>
       <c r="D1302" s="2" t="n">
-        <v>44277</v>
+        <v>44167</v>
       </c>
       <c r="E1302" t="n">
         <v>13</v>
@@ -94101,16 +94101,16 @@
         </is>
       </c>
       <c r="J1302" t="n">
-        <v>480</v>
+        <v>620</v>
       </c>
       <c r="K1302" t="n">
-        <v>2800</v>
+        <v>2000</v>
       </c>
       <c r="L1302" t="n">
-        <v>3000</v>
+        <v>2200</v>
       </c>
       <c r="M1302" t="n">
-        <v>2900</v>
+        <v>2055</v>
       </c>
       <c r="N1302" t="inlineStr">
         <is>
@@ -94119,11 +94119,11 @@
       </c>
       <c r="O1302" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1302" t="n">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="Q1302" t="n">
         <v>36</v>
@@ -94169,20 +94169,20 @@
       </c>
       <c r="I1303" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1303" t="n">
-        <v>540</v>
+        <v>660</v>
       </c>
       <c r="K1303" t="n">
-        <v>2800</v>
+        <v>3400</v>
       </c>
       <c r="L1303" t="n">
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="M1303" t="n">
-        <v>2911</v>
+        <v>3515</v>
       </c>
       <c r="N1303" t="inlineStr">
         <is>
@@ -94191,11 +94191,11 @@
       </c>
       <c r="O1303" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1303" t="n">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="Q1303" t="n">
         <v>36</v>
@@ -94221,7 +94221,7 @@
         </is>
       </c>
       <c r="D1304" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E1304" t="n">
         <v>13</v>
@@ -94245,16 +94245,16 @@
         </is>
       </c>
       <c r="J1304" t="n">
-        <v>590</v>
+        <v>750</v>
       </c>
       <c r="K1304" t="n">
+        <v>3400</v>
+      </c>
+      <c r="L1304" t="n">
         <v>3600</v>
       </c>
-      <c r="L1304" t="n">
-        <v>3800</v>
-      </c>
       <c r="M1304" t="n">
-        <v>3692</v>
+        <v>3512</v>
       </c>
       <c r="N1304" t="inlineStr">
         <is>
@@ -94263,11 +94263,11 @@
       </c>
       <c r="O1304" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1304" t="n">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="Q1304" t="n">
         <v>36</v>
@@ -94293,7 +94293,7 @@
         </is>
       </c>
       <c r="D1305" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E1305" t="n">
         <v>13</v>
@@ -94313,20 +94313,20 @@
       </c>
       <c r="I1305" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1305" t="n">
-        <v>670</v>
+        <v>480</v>
       </c>
       <c r="K1305" t="n">
-        <v>3800</v>
+        <v>2800</v>
       </c>
       <c r="L1305" t="n">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="M1305" t="n">
-        <v>3875</v>
+        <v>2900</v>
       </c>
       <c r="N1305" t="inlineStr">
         <is>
@@ -94335,11 +94335,11 @@
       </c>
       <c r="O1305" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1305" t="n">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="Q1305" t="n">
         <v>36</v>
@@ -94365,7 +94365,7 @@
         </is>
       </c>
       <c r="D1306" s="2" t="n">
-        <v>44258</v>
+        <v>44277</v>
       </c>
       <c r="E1306" t="n">
         <v>13</v>
@@ -94389,16 +94389,16 @@
         </is>
       </c>
       <c r="J1306" t="n">
-        <v>420</v>
+        <v>540</v>
       </c>
       <c r="K1306" t="n">
-        <v>3200</v>
+        <v>2800</v>
       </c>
       <c r="L1306" t="n">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="M1306" t="n">
-        <v>3252</v>
+        <v>2911</v>
       </c>
       <c r="N1306" t="inlineStr">
         <is>
@@ -94407,11 +94407,11 @@
       </c>
       <c r="O1306" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1306" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="Q1306" t="n">
         <v>36</v>
@@ -94457,20 +94457,20 @@
       </c>
       <c r="I1307" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1307" t="n">
-        <v>430</v>
+        <v>590</v>
       </c>
       <c r="K1307" t="n">
-        <v>3200</v>
+        <v>3600</v>
       </c>
       <c r="L1307" t="n">
-        <v>3400</v>
+        <v>3800</v>
       </c>
       <c r="M1307" t="n">
-        <v>3279</v>
+        <v>3692</v>
       </c>
       <c r="N1307" t="inlineStr">
         <is>
@@ -94479,11 +94479,11 @@
       </c>
       <c r="O1307" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1307" t="n">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="Q1307" t="n">
         <v>36</v>
@@ -94509,7 +94509,7 @@
         </is>
       </c>
       <c r="D1308" s="2" t="n">
-        <v>44390</v>
+        <v>44258</v>
       </c>
       <c r="E1308" t="n">
         <v>13</v>
@@ -94529,20 +94529,20 @@
       </c>
       <c r="I1308" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1308" t="n">
-        <v>420</v>
+        <v>670</v>
       </c>
       <c r="K1308" t="n">
-        <v>3000</v>
+        <v>3800</v>
       </c>
       <c r="L1308" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M1308" t="n">
-        <v>3000</v>
+        <v>3875</v>
       </c>
       <c r="N1308" t="inlineStr">
         <is>
@@ -94551,11 +94551,11 @@
       </c>
       <c r="O1308" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1308" t="n">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="Q1308" t="n">
         <v>36</v>
@@ -94581,7 +94581,7 @@
         </is>
       </c>
       <c r="D1309" s="2" t="n">
-        <v>44390</v>
+        <v>44258</v>
       </c>
       <c r="E1309" t="n">
         <v>13</v>
@@ -94601,20 +94601,20 @@
       </c>
       <c r="I1309" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1309" t="n">
-        <v>270</v>
+        <v>420</v>
       </c>
       <c r="K1309" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="L1309" t="n">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="M1309" t="n">
-        <v>3000</v>
+        <v>3252</v>
       </c>
       <c r="N1309" t="inlineStr">
         <is>
@@ -94623,11 +94623,11 @@
       </c>
       <c r="O1309" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1309" t="n">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="Q1309" t="n">
         <v>36</v>
@@ -94653,7 +94653,7 @@
         </is>
       </c>
       <c r="D1310" s="2" t="n">
-        <v>44390</v>
+        <v>44258</v>
       </c>
       <c r="E1310" t="n">
         <v>13</v>
@@ -94673,20 +94673,20 @@
       </c>
       <c r="I1310" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1310" t="n">
-        <v>820</v>
+        <v>430</v>
       </c>
       <c r="K1310" t="n">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="L1310" t="n">
-        <v>2600</v>
+        <v>3400</v>
       </c>
       <c r="M1310" t="n">
-        <v>2485</v>
+        <v>3279</v>
       </c>
       <c r="N1310" t="inlineStr">
         <is>
@@ -94695,11 +94695,11 @@
       </c>
       <c r="O1310" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1310" t="n">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="Q1310" t="n">
         <v>36</v>
@@ -94745,20 +94745,20 @@
       </c>
       <c r="I1311" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1311" t="n">
-        <v>770</v>
+        <v>420</v>
       </c>
       <c r="K1311" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L1311" t="n">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="M1311" t="n">
-        <v>2599</v>
+        <v>3000</v>
       </c>
       <c r="N1311" t="inlineStr">
         <is>
@@ -94767,11 +94767,11 @@
       </c>
       <c r="O1311" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1311" t="n">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="Q1311" t="n">
         <v>36</v>
@@ -94817,20 +94817,20 @@
       </c>
       <c r="I1312" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1312" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="K1312" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="L1312" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="M1312" t="n">
-        <v>2200</v>
+        <v>3000</v>
       </c>
       <c r="N1312" t="inlineStr">
         <is>
@@ -94839,11 +94839,11 @@
       </c>
       <c r="O1312" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1312" t="n">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="Q1312" t="n">
         <v>36</v>
@@ -94889,20 +94889,20 @@
       </c>
       <c r="I1313" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1313" t="n">
-        <v>190</v>
+        <v>820</v>
       </c>
       <c r="K1313" t="n">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="L1313" t="n">
-        <v>2200</v>
+        <v>2600</v>
       </c>
       <c r="M1313" t="n">
-        <v>2200</v>
+        <v>2485</v>
       </c>
       <c r="N1313" t="inlineStr">
         <is>
@@ -94911,11 +94911,11 @@
       </c>
       <c r="O1313" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1313" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="Q1313" t="n">
         <v>36</v>
@@ -94941,7 +94941,7 @@
         </is>
       </c>
       <c r="D1314" s="2" t="n">
-        <v>44349</v>
+        <v>44390</v>
       </c>
       <c r="E1314" t="n">
         <v>13</v>
@@ -94961,20 +94961,20 @@
       </c>
       <c r="I1314" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1314" t="n">
-        <v>390</v>
+        <v>770</v>
       </c>
       <c r="K1314" t="n">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="L1314" t="n">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="M1314" t="n">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="N1314" t="inlineStr">
         <is>
@@ -94983,7 +94983,7 @@
       </c>
       <c r="O1314" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1314" t="n">
@@ -95013,7 +95013,7 @@
         </is>
       </c>
       <c r="D1315" s="2" t="n">
-        <v>44349</v>
+        <v>44390</v>
       </c>
       <c r="E1315" t="n">
         <v>13</v>
@@ -95033,20 +95033,20 @@
       </c>
       <c r="I1315" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1315" t="n">
-        <v>420</v>
+        <v>200</v>
       </c>
       <c r="K1315" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="L1315" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="M1315" t="n">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="N1315" t="inlineStr">
         <is>
@@ -95055,11 +95055,11 @@
       </c>
       <c r="O1315" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1315" t="n">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="Q1315" t="n">
         <v>36</v>
@@ -95085,7 +95085,7 @@
         </is>
       </c>
       <c r="D1316" s="2" t="n">
-        <v>44349</v>
+        <v>44390</v>
       </c>
       <c r="E1316" t="n">
         <v>13</v>
@@ -95105,20 +95105,20 @@
       </c>
       <c r="I1316" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1316" t="n">
-        <v>830</v>
+        <v>190</v>
       </c>
       <c r="K1316" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="L1316" t="n">
         <v>2200</v>
       </c>
       <c r="M1316" t="n">
-        <v>2108</v>
+        <v>2200</v>
       </c>
       <c r="N1316" t="inlineStr">
         <is>
@@ -95127,11 +95127,11 @@
       </c>
       <c r="O1316" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1316" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q1316" t="n">
         <v>36</v>
@@ -95177,20 +95177,20 @@
       </c>
       <c r="I1317" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1317" t="n">
-        <v>830</v>
+        <v>390</v>
       </c>
       <c r="K1317" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="L1317" t="n">
-        <v>2300</v>
+        <v>2600</v>
       </c>
       <c r="M1317" t="n">
-        <v>2177</v>
+        <v>2600</v>
       </c>
       <c r="N1317" t="inlineStr">
         <is>
@@ -95199,11 +95199,11 @@
       </c>
       <c r="O1317" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1317" t="n">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="Q1317" t="n">
         <v>36</v>
@@ -95249,20 +95249,20 @@
       </c>
       <c r="I1318" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1318" t="n">
-        <v>250</v>
+        <v>420</v>
       </c>
       <c r="K1318" t="n">
-        <v>1700</v>
+        <v>2600</v>
       </c>
       <c r="L1318" t="n">
-        <v>1700</v>
+        <v>2600</v>
       </c>
       <c r="M1318" t="n">
-        <v>1700</v>
+        <v>2600</v>
       </c>
       <c r="N1318" t="inlineStr">
         <is>
@@ -95271,11 +95271,11 @@
       </c>
       <c r="O1318" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1318" t="n">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="Q1318" t="n">
         <v>36</v>
@@ -95321,20 +95321,20 @@
       </c>
       <c r="I1319" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1319" t="n">
-        <v>300</v>
+        <v>830</v>
       </c>
       <c r="K1319" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L1319" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="M1319" t="n">
-        <v>1800</v>
+        <v>2108</v>
       </c>
       <c r="N1319" t="inlineStr">
         <is>
@@ -95343,11 +95343,11 @@
       </c>
       <c r="O1319" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1319" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="Q1319" t="n">
         <v>36</v>
@@ -95373,7 +95373,7 @@
         </is>
       </c>
       <c r="D1320" s="2" t="n">
-        <v>44285</v>
+        <v>44349</v>
       </c>
       <c r="E1320" t="n">
         <v>13</v>
@@ -95397,16 +95397,16 @@
         </is>
       </c>
       <c r="J1320" t="n">
-        <v>730</v>
+        <v>830</v>
       </c>
       <c r="K1320" t="n">
-        <v>3400</v>
+        <v>2000</v>
       </c>
       <c r="L1320" t="n">
-        <v>3600</v>
+        <v>2300</v>
       </c>
       <c r="M1320" t="n">
-        <v>3521</v>
+        <v>2177</v>
       </c>
       <c r="N1320" t="inlineStr">
         <is>
@@ -95415,11 +95415,11 @@
       </c>
       <c r="O1320" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1320" t="n">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="Q1320" t="n">
         <v>36</v>
@@ -95445,7 +95445,7 @@
         </is>
       </c>
       <c r="D1321" s="2" t="n">
-        <v>44285</v>
+        <v>44349</v>
       </c>
       <c r="E1321" t="n">
         <v>13</v>
@@ -95465,20 +95465,20 @@
       </c>
       <c r="I1321" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1321" t="n">
-        <v>880</v>
+        <v>250</v>
       </c>
       <c r="K1321" t="n">
-        <v>3200</v>
+        <v>1700</v>
       </c>
       <c r="L1321" t="n">
-        <v>3400</v>
+        <v>1700</v>
       </c>
       <c r="M1321" t="n">
-        <v>3305</v>
+        <v>1700</v>
       </c>
       <c r="N1321" t="inlineStr">
         <is>
@@ -95487,11 +95487,11 @@
       </c>
       <c r="O1321" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1321" t="n">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="Q1321" t="n">
         <v>36</v>
@@ -95517,7 +95517,7 @@
         </is>
       </c>
       <c r="D1322" s="2" t="n">
-        <v>44285</v>
+        <v>44349</v>
       </c>
       <c r="E1322" t="n">
         <v>13</v>
@@ -95541,16 +95541,16 @@
         </is>
       </c>
       <c r="J1322" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="K1322" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="L1322" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="M1322" t="n">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="N1322" t="inlineStr">
         <is>
@@ -95559,11 +95559,11 @@
       </c>
       <c r="O1322" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1322" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="Q1322" t="n">
         <v>36</v>
@@ -95609,20 +95609,20 @@
       </c>
       <c r="I1323" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1323" t="n">
-        <v>580</v>
+        <v>730</v>
       </c>
       <c r="K1323" t="n">
-        <v>2600</v>
+        <v>3400</v>
       </c>
       <c r="L1323" t="n">
-        <v>2700</v>
+        <v>3600</v>
       </c>
       <c r="M1323" t="n">
-        <v>2666</v>
+        <v>3521</v>
       </c>
       <c r="N1323" t="inlineStr">
         <is>
@@ -95631,11 +95631,11 @@
       </c>
       <c r="O1323" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1323" t="n">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="Q1323" t="n">
         <v>36</v>
@@ -95661,7 +95661,7 @@
         </is>
       </c>
       <c r="D1324" s="2" t="n">
-        <v>44498</v>
+        <v>44285</v>
       </c>
       <c r="E1324" t="n">
         <v>13</v>
@@ -95681,20 +95681,20 @@
       </c>
       <c r="I1324" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1324" t="n">
-        <v>1140</v>
+        <v>880</v>
       </c>
       <c r="K1324" t="n">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="L1324" t="n">
-        <v>2500</v>
+        <v>3400</v>
       </c>
       <c r="M1324" t="n">
-        <v>2345</v>
+        <v>3305</v>
       </c>
       <c r="N1324" t="inlineStr">
         <is>
@@ -95703,11 +95703,11 @@
       </c>
       <c r="O1324" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1324" t="n">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="Q1324" t="n">
         <v>36</v>
@@ -95733,7 +95733,7 @@
         </is>
       </c>
       <c r="D1325" s="2" t="n">
-        <v>44498</v>
+        <v>44285</v>
       </c>
       <c r="E1325" t="n">
         <v>13</v>
@@ -95753,20 +95753,20 @@
       </c>
       <c r="I1325" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1325" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="K1325" t="n">
-        <v>2200</v>
+        <v>2800</v>
       </c>
       <c r="L1325" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M1325" t="n">
-        <v>2334</v>
+        <v>2800</v>
       </c>
       <c r="N1325" t="inlineStr">
         <is>
@@ -95775,11 +95775,11 @@
       </c>
       <c r="O1325" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1325" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="Q1325" t="n">
         <v>36</v>
@@ -95805,7 +95805,7 @@
         </is>
       </c>
       <c r="D1326" s="2" t="n">
-        <v>44498</v>
+        <v>44285</v>
       </c>
       <c r="E1326" t="n">
         <v>13</v>
@@ -95825,20 +95825,20 @@
       </c>
       <c r="I1326" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1326" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="K1326" t="n">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="L1326" t="n">
-        <v>2100</v>
+        <v>2700</v>
       </c>
       <c r="M1326" t="n">
-        <v>2053</v>
+        <v>2666</v>
       </c>
       <c r="N1326" t="inlineStr">
         <is>
@@ -95847,11 +95847,11 @@
       </c>
       <c r="O1326" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1326" t="n">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="Q1326" t="n">
         <v>36</v>
@@ -95897,20 +95897,20 @@
       </c>
       <c r="I1327" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1327" t="n">
-        <v>1190</v>
+        <v>1140</v>
       </c>
       <c r="K1327" t="n">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="L1327" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M1327" t="n">
-        <v>1945</v>
+        <v>2345</v>
       </c>
       <c r="N1327" t="inlineStr">
         <is>
@@ -95919,11 +95919,11 @@
       </c>
       <c r="O1327" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1327" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="Q1327" t="n">
         <v>36</v>
@@ -95969,20 +95969,20 @@
       </c>
       <c r="I1328" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1328" t="n">
-        <v>350</v>
+        <v>1100</v>
       </c>
       <c r="K1328" t="n">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="L1328" t="n">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="M1328" t="n">
-        <v>1700</v>
+        <v>2334</v>
       </c>
       <c r="N1328" t="inlineStr">
         <is>
@@ -95991,11 +95991,11 @@
       </c>
       <c r="O1328" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1328" t="n">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="Q1328" t="n">
         <v>36</v>
@@ -96041,20 +96041,20 @@
       </c>
       <c r="I1329" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1329" t="n">
-        <v>360</v>
+        <v>1000</v>
       </c>
       <c r="K1329" t="n">
-        <v>1600</v>
+        <v>2000</v>
       </c>
       <c r="L1329" t="n">
-        <v>1600</v>
+        <v>2100</v>
       </c>
       <c r="M1329" t="n">
-        <v>1600</v>
+        <v>2053</v>
       </c>
       <c r="N1329" t="inlineStr">
         <is>
@@ -96063,11 +96063,11 @@
       </c>
       <c r="O1329" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1329" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="Q1329" t="n">
         <v>36</v>
@@ -96093,7 +96093,7 @@
         </is>
       </c>
       <c r="D1330" s="2" t="n">
-        <v>44179</v>
+        <v>44498</v>
       </c>
       <c r="E1330" t="n">
         <v>13</v>
@@ -96113,20 +96113,20 @@
       </c>
       <c r="I1330" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1330" t="n">
-        <v>440</v>
+        <v>1190</v>
       </c>
       <c r="K1330" t="n">
-        <v>2700</v>
+        <v>1900</v>
       </c>
       <c r="L1330" t="n">
-        <v>2700</v>
+        <v>2000</v>
       </c>
       <c r="M1330" t="n">
-        <v>2700</v>
+        <v>1945</v>
       </c>
       <c r="N1330" t="inlineStr">
         <is>
@@ -96139,7 +96139,7 @@
         </is>
       </c>
       <c r="P1330" t="n">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="Q1330" t="n">
         <v>36</v>
@@ -96165,7 +96165,7 @@
         </is>
       </c>
       <c r="D1331" s="2" t="n">
-        <v>44179</v>
+        <v>44498</v>
       </c>
       <c r="E1331" t="n">
         <v>13</v>
@@ -96185,20 +96185,20 @@
       </c>
       <c r="I1331" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1331" t="n">
-        <v>840</v>
+        <v>350</v>
       </c>
       <c r="K1331" t="n">
-        <v>2400</v>
+        <v>1700</v>
       </c>
       <c r="L1331" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="M1331" t="n">
-        <v>2444</v>
+        <v>1700</v>
       </c>
       <c r="N1331" t="inlineStr">
         <is>
@@ -96207,11 +96207,11 @@
       </c>
       <c r="O1331" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1331" t="n">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="Q1331" t="n">
         <v>36</v>
@@ -96237,7 +96237,7 @@
         </is>
       </c>
       <c r="D1332" s="2" t="n">
-        <v>44179</v>
+        <v>44498</v>
       </c>
       <c r="E1332" t="n">
         <v>13</v>
@@ -96261,16 +96261,16 @@
         </is>
       </c>
       <c r="J1332" t="n">
-        <v>560</v>
+        <v>360</v>
       </c>
       <c r="K1332" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="L1332" t="n">
-        <v>2200</v>
+        <v>1600</v>
       </c>
       <c r="M1332" t="n">
-        <v>2089</v>
+        <v>1600</v>
       </c>
       <c r="N1332" t="inlineStr">
         <is>
@@ -96283,7 +96283,7 @@
         </is>
       </c>
       <c r="P1332" t="n">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="Q1332" t="n">
         <v>36</v>
@@ -96309,7 +96309,7 @@
         </is>
       </c>
       <c r="D1333" s="2" t="n">
-        <v>44418</v>
+        <v>44179</v>
       </c>
       <c r="E1333" t="n">
         <v>13</v>
@@ -96333,16 +96333,16 @@
         </is>
       </c>
       <c r="J1333" t="n">
-        <v>640</v>
+        <v>440</v>
       </c>
       <c r="K1333" t="n">
-        <v>3700</v>
+        <v>2700</v>
       </c>
       <c r="L1333" t="n">
-        <v>4000</v>
+        <v>2700</v>
       </c>
       <c r="M1333" t="n">
-        <v>3873</v>
+        <v>2700</v>
       </c>
       <c r="N1333" t="inlineStr">
         <is>
@@ -96351,11 +96351,11 @@
       </c>
       <c r="O1333" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1333" t="n">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="Q1333" t="n">
         <v>36</v>
@@ -96381,7 +96381,7 @@
         </is>
       </c>
       <c r="D1334" s="2" t="n">
-        <v>44418</v>
+        <v>44179</v>
       </c>
       <c r="E1334" t="n">
         <v>13</v>
@@ -96401,20 +96401,20 @@
       </c>
       <c r="I1334" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1334" t="n">
-        <v>620</v>
+        <v>840</v>
       </c>
       <c r="K1334" t="n">
-        <v>3800</v>
+        <v>2400</v>
       </c>
       <c r="L1334" t="n">
-        <v>4000</v>
+        <v>2500</v>
       </c>
       <c r="M1334" t="n">
-        <v>3906</v>
+        <v>2444</v>
       </c>
       <c r="N1334" t="inlineStr">
         <is>
@@ -96427,7 +96427,7 @@
         </is>
       </c>
       <c r="P1334" t="n">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="Q1334" t="n">
         <v>36</v>
@@ -96453,7 +96453,7 @@
         </is>
       </c>
       <c r="D1335" s="2" t="n">
-        <v>44418</v>
+        <v>44179</v>
       </c>
       <c r="E1335" t="n">
         <v>13</v>
@@ -96473,20 +96473,20 @@
       </c>
       <c r="I1335" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1335" t="n">
-        <v>870</v>
+        <v>560</v>
       </c>
       <c r="K1335" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="L1335" t="n">
-        <v>3200</v>
+        <v>2200</v>
       </c>
       <c r="M1335" t="n">
-        <v>3097</v>
+        <v>2089</v>
       </c>
       <c r="N1335" t="inlineStr">
         <is>
@@ -96495,11 +96495,11 @@
       </c>
       <c r="O1335" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1335" t="n">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="Q1335" t="n">
         <v>36</v>
@@ -96545,20 +96545,20 @@
       </c>
       <c r="I1336" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1336" t="n">
-        <v>870</v>
+        <v>640</v>
       </c>
       <c r="K1336" t="n">
-        <v>2700</v>
+        <v>3700</v>
       </c>
       <c r="L1336" t="n">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="M1336" t="n">
-        <v>2841</v>
+        <v>3873</v>
       </c>
       <c r="N1336" t="inlineStr">
         <is>
@@ -96567,11 +96567,11 @@
       </c>
       <c r="O1336" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1336" t="n">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="Q1336" t="n">
         <v>36</v>
@@ -96617,20 +96617,20 @@
       </c>
       <c r="I1337" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1337" t="n">
-        <v>280</v>
+        <v>620</v>
       </c>
       <c r="K1337" t="n">
-        <v>2500</v>
+        <v>3800</v>
       </c>
       <c r="L1337" t="n">
-        <v>2500</v>
+        <v>4000</v>
       </c>
       <c r="M1337" t="n">
-        <v>2500</v>
+        <v>3906</v>
       </c>
       <c r="N1337" t="inlineStr">
         <is>
@@ -96639,11 +96639,11 @@
       </c>
       <c r="O1337" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1337" t="n">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="Q1337" t="n">
         <v>36</v>
@@ -96689,20 +96689,20 @@
       </c>
       <c r="I1338" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1338" t="n">
-        <v>300</v>
+        <v>870</v>
       </c>
       <c r="K1338" t="n">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="L1338" t="n">
-        <v>2500</v>
+        <v>3200</v>
       </c>
       <c r="M1338" t="n">
-        <v>2500</v>
+        <v>3097</v>
       </c>
       <c r="N1338" t="inlineStr">
         <is>
@@ -96711,11 +96711,11 @@
       </c>
       <c r="O1338" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1338" t="n">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="Q1338" t="n">
         <v>36</v>
@@ -96741,7 +96741,7 @@
         </is>
       </c>
       <c r="D1339" s="2" t="n">
-        <v>44595</v>
+        <v>44418</v>
       </c>
       <c r="E1339" t="n">
         <v>13</v>
@@ -96761,20 +96761,20 @@
       </c>
       <c r="I1339" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1339" t="n">
-        <v>910</v>
+        <v>870</v>
       </c>
       <c r="K1339" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="L1339" t="n">
         <v>3000</v>
       </c>
       <c r="M1339" t="n">
-        <v>2903</v>
+        <v>2841</v>
       </c>
       <c r="N1339" t="inlineStr">
         <is>
@@ -96783,11 +96783,11 @@
       </c>
       <c r="O1339" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1339" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q1339" t="n">
         <v>36</v>
@@ -96813,7 +96813,7 @@
         </is>
       </c>
       <c r="D1340" s="2" t="n">
-        <v>44595</v>
+        <v>44418</v>
       </c>
       <c r="E1340" t="n">
         <v>13</v>
@@ -96833,20 +96833,20 @@
       </c>
       <c r="I1340" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1340" t="n">
-        <v>1210</v>
+        <v>280</v>
       </c>
       <c r="K1340" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="L1340" t="n">
         <v>2500</v>
       </c>
       <c r="M1340" t="n">
-        <v>2448</v>
+        <v>2500</v>
       </c>
       <c r="N1340" t="inlineStr">
         <is>
@@ -96859,7 +96859,7 @@
         </is>
       </c>
       <c r="P1340" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q1340" t="n">
         <v>36</v>
@@ -96885,7 +96885,7 @@
         </is>
       </c>
       <c r="D1341" s="2" t="n">
-        <v>44595</v>
+        <v>44418</v>
       </c>
       <c r="E1341" t="n">
         <v>13</v>
@@ -96909,16 +96909,16 @@
         </is>
       </c>
       <c r="J1341" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="K1341" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="L1341" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M1341" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="N1341" t="inlineStr">
         <is>
@@ -96927,11 +96927,11 @@
       </c>
       <c r="O1341" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1341" t="n">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="Q1341" t="n">
         <v>36</v>
@@ -96957,7 +96957,7 @@
         </is>
       </c>
       <c r="D1342" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1342" t="n">
         <v>13</v>
@@ -96981,16 +96981,16 @@
         </is>
       </c>
       <c r="J1342" t="n">
-        <v>360</v>
+        <v>910</v>
       </c>
       <c r="K1342" t="n">
         <v>2800</v>
       </c>
       <c r="L1342" t="n">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="M1342" t="n">
-        <v>2800</v>
+        <v>2903</v>
       </c>
       <c r="N1342" t="inlineStr">
         <is>
@@ -97003,7 +97003,7 @@
         </is>
       </c>
       <c r="P1342" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Q1342" t="n">
         <v>36</v>
@@ -97029,7 +97029,7 @@
         </is>
       </c>
       <c r="D1343" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1343" t="n">
         <v>13</v>
@@ -97049,20 +97049,20 @@
       </c>
       <c r="I1343" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1343" t="n">
-        <v>260</v>
+        <v>1210</v>
       </c>
       <c r="K1343" t="n">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="L1343" t="n">
-        <v>2800</v>
+        <v>2500</v>
       </c>
       <c r="M1343" t="n">
-        <v>2800</v>
+        <v>2448</v>
       </c>
       <c r="N1343" t="inlineStr">
         <is>
@@ -97071,11 +97071,11 @@
       </c>
       <c r="O1343" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1343" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="Q1343" t="n">
         <v>36</v>
@@ -97101,7 +97101,7 @@
         </is>
       </c>
       <c r="D1344" s="2" t="n">
-        <v>44335</v>
+        <v>44595</v>
       </c>
       <c r="E1344" t="n">
         <v>13</v>
@@ -97121,20 +97121,20 @@
       </c>
       <c r="I1344" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1344" t="n">
-        <v>600</v>
+        <v>330</v>
       </c>
       <c r="K1344" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="L1344" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M1344" t="n">
-        <v>2410</v>
+        <v>2000</v>
       </c>
       <c r="N1344" t="inlineStr">
         <is>
@@ -97147,7 +97147,7 @@
         </is>
       </c>
       <c r="P1344" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="Q1344" t="n">
         <v>36</v>
@@ -97193,20 +97193,20 @@
       </c>
       <c r="I1345" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1345" t="n">
-        <v>620</v>
+        <v>360</v>
       </c>
       <c r="K1345" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="L1345" t="n">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="M1345" t="n">
-        <v>2403</v>
+        <v>2800</v>
       </c>
       <c r="N1345" t="inlineStr">
         <is>
@@ -97215,11 +97215,11 @@
       </c>
       <c r="O1345" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1345" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="Q1345" t="n">
         <v>36</v>
@@ -97265,20 +97265,20 @@
       </c>
       <c r="I1346" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1346" t="n">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="K1346" t="n">
-        <v>1800</v>
+        <v>2800</v>
       </c>
       <c r="L1346" t="n">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="M1346" t="n">
-        <v>2078</v>
+        <v>2800</v>
       </c>
       <c r="N1346" t="inlineStr">
         <is>
@@ -97287,11 +97287,11 @@
       </c>
       <c r="O1346" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1346" t="n">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="Q1346" t="n">
         <v>36</v>
@@ -97337,20 +97337,20 @@
       </c>
       <c r="I1347" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1347" t="n">
-        <v>380</v>
+        <v>600</v>
       </c>
       <c r="K1347" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="L1347" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="M1347" t="n">
-        <v>1895</v>
+        <v>2410</v>
       </c>
       <c r="N1347" t="inlineStr">
         <is>
@@ -97359,11 +97359,11 @@
       </c>
       <c r="O1347" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1347" t="n">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="Q1347" t="n">
         <v>36</v>
@@ -97389,7 +97389,7 @@
         </is>
       </c>
       <c r="D1348" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1348" t="n">
         <v>13</v>
@@ -97409,20 +97409,20 @@
       </c>
       <c r="I1348" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1348" t="n">
-        <v>970</v>
+        <v>620</v>
       </c>
       <c r="K1348" t="n">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="L1348" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="M1348" t="n">
-        <v>2309</v>
+        <v>2403</v>
       </c>
       <c r="N1348" t="inlineStr">
         <is>
@@ -97431,11 +97431,11 @@
       </c>
       <c r="O1348" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1348" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Q1348" t="n">
         <v>36</v>
@@ -97461,7 +97461,7 @@
         </is>
       </c>
       <c r="D1349" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1349" t="n">
         <v>13</v>
@@ -97481,20 +97481,20 @@
       </c>
       <c r="I1349" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1349" t="n">
-        <v>470</v>
+        <v>360</v>
       </c>
       <c r="K1349" t="n">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="L1349" t="n">
         <v>2300</v>
       </c>
       <c r="M1349" t="n">
-        <v>2300</v>
+        <v>2078</v>
       </c>
       <c r="N1349" t="inlineStr">
         <is>
@@ -97503,11 +97503,11 @@
       </c>
       <c r="O1349" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1349" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="Q1349" t="n">
         <v>36</v>
@@ -97533,7 +97533,7 @@
         </is>
       </c>
       <c r="D1350" s="2" t="n">
-        <v>44552</v>
+        <v>44335</v>
       </c>
       <c r="E1350" t="n">
         <v>13</v>
@@ -97553,20 +97553,20 @@
       </c>
       <c r="I1350" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1350" t="n">
-        <v>1240</v>
+        <v>380</v>
       </c>
       <c r="K1350" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L1350" t="n">
         <v>2000</v>
       </c>
-      <c r="L1350" t="n">
-        <v>2100</v>
-      </c>
       <c r="M1350" t="n">
-        <v>2053</v>
+        <v>1895</v>
       </c>
       <c r="N1350" t="inlineStr">
         <is>
@@ -97575,11 +97575,11 @@
       </c>
       <c r="O1350" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1350" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q1350" t="n">
         <v>36</v>
@@ -97625,20 +97625,20 @@
       </c>
       <c r="I1351" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1351" t="n">
-        <v>520</v>
+        <v>970</v>
       </c>
       <c r="K1351" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="L1351" t="n">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="M1351" t="n">
-        <v>2000</v>
+        <v>2309</v>
       </c>
       <c r="N1351" t="inlineStr">
         <is>
@@ -97647,11 +97647,11 @@
       </c>
       <c r="O1351" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1351" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="Q1351" t="n">
         <v>36</v>
@@ -97697,20 +97697,20 @@
       </c>
       <c r="I1352" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1352" t="n">
-        <v>270</v>
+        <v>470</v>
       </c>
       <c r="K1352" t="n">
-        <v>1700</v>
+        <v>2300</v>
       </c>
       <c r="L1352" t="n">
-        <v>1700</v>
+        <v>2300</v>
       </c>
       <c r="M1352" t="n">
-        <v>1700</v>
+        <v>2300</v>
       </c>
       <c r="N1352" t="inlineStr">
         <is>
@@ -97719,11 +97719,11 @@
       </c>
       <c r="O1352" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1352" t="n">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="Q1352" t="n">
         <v>36</v>
@@ -97769,20 +97769,20 @@
       </c>
       <c r="I1353" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1353" t="n">
-        <v>290</v>
+        <v>1240</v>
       </c>
       <c r="K1353" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="L1353" t="n">
-        <v>1700</v>
+        <v>2100</v>
       </c>
       <c r="M1353" t="n">
-        <v>1700</v>
+        <v>2053</v>
       </c>
       <c r="N1353" t="inlineStr">
         <is>
@@ -97791,11 +97791,11 @@
       </c>
       <c r="O1353" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1353" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="Q1353" t="n">
         <v>36</v>
@@ -97821,7 +97821,7 @@
         </is>
       </c>
       <c r="D1354" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1354" t="n">
         <v>13</v>
@@ -97841,20 +97841,20 @@
       </c>
       <c r="I1354" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1354" t="n">
-        <v>750</v>
+        <v>520</v>
       </c>
       <c r="K1354" t="n">
-        <v>2300</v>
+        <v>2000</v>
       </c>
       <c r="L1354" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="M1354" t="n">
-        <v>2401</v>
+        <v>2000</v>
       </c>
       <c r="N1354" t="inlineStr">
         <is>
@@ -97863,11 +97863,11 @@
       </c>
       <c r="O1354" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1354" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="Q1354" t="n">
         <v>36</v>
@@ -97893,7 +97893,7 @@
         </is>
       </c>
       <c r="D1355" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1355" t="n">
         <v>13</v>
@@ -97913,20 +97913,20 @@
       </c>
       <c r="I1355" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1355" t="n">
-        <v>790</v>
+        <v>270</v>
       </c>
       <c r="K1355" t="n">
-        <v>2300</v>
+        <v>1700</v>
       </c>
       <c r="L1355" t="n">
-        <v>2500</v>
+        <v>1700</v>
       </c>
       <c r="M1355" t="n">
-        <v>2401</v>
+        <v>1700</v>
       </c>
       <c r="N1355" t="inlineStr">
         <is>
@@ -97935,11 +97935,11 @@
       </c>
       <c r="O1355" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1355" t="n">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="Q1355" t="n">
         <v>36</v>
@@ -97965,7 +97965,7 @@
         </is>
       </c>
       <c r="D1356" s="2" t="n">
-        <v>44544</v>
+        <v>44552</v>
       </c>
       <c r="E1356" t="n">
         <v>13</v>
@@ -97985,20 +97985,20 @@
       </c>
       <c r="I1356" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1356" t="n">
-        <v>840</v>
+        <v>290</v>
       </c>
       <c r="K1356" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="L1356" t="n">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="M1356" t="n">
-        <v>2105</v>
+        <v>1700</v>
       </c>
       <c r="N1356" t="inlineStr">
         <is>
@@ -98007,11 +98007,11 @@
       </c>
       <c r="O1356" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1356" t="n">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="Q1356" t="n">
         <v>36</v>
@@ -98057,20 +98057,20 @@
       </c>
       <c r="I1357" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1357" t="n">
-        <v>900</v>
+        <v>750</v>
       </c>
       <c r="K1357" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="L1357" t="n">
-        <v>2200</v>
+        <v>2500</v>
       </c>
       <c r="M1357" t="n">
-        <v>2104</v>
+        <v>2401</v>
       </c>
       <c r="N1357" t="inlineStr">
         <is>
@@ -98079,11 +98079,11 @@
       </c>
       <c r="O1357" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1357" t="n">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="Q1357" t="n">
         <v>36</v>
@@ -98129,20 +98129,20 @@
       </c>
       <c r="I1358" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Extra</t>
         </is>
       </c>
       <c r="J1358" t="n">
-        <v>200</v>
+        <v>790</v>
       </c>
       <c r="K1358" t="n">
-        <v>1800</v>
+        <v>2300</v>
       </c>
       <c r="L1358" t="n">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="M1358" t="n">
-        <v>1800</v>
+        <v>2401</v>
       </c>
       <c r="N1358" t="inlineStr">
         <is>
@@ -98151,11 +98151,11 @@
       </c>
       <c r="O1358" t="inlineStr">
         <is>
-          <t>Provincia de Chacabuco</t>
+          <t>Región Metropolitana</t>
         </is>
       </c>
       <c r="P1358" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="Q1358" t="n">
         <v>36</v>
@@ -98201,20 +98201,20 @@
       </c>
       <c r="I1359" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1359" t="n">
-        <v>210</v>
+        <v>840</v>
       </c>
       <c r="K1359" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L1359" t="n">
-        <v>1800</v>
+        <v>2200</v>
       </c>
       <c r="M1359" t="n">
-        <v>1800</v>
+        <v>2105</v>
       </c>
       <c r="N1359" t="inlineStr">
         <is>
@@ -98223,11 +98223,11 @@
       </c>
       <c r="O1359" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1359" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="Q1359" t="n">
         <v>36</v>
@@ -98253,7 +98253,7 @@
         </is>
       </c>
       <c r="D1360" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1360" t="n">
         <v>13</v>
@@ -98273,20 +98273,20 @@
       </c>
       <c r="I1360" t="inlineStr">
         <is>
-          <t>Extra</t>
+          <t>Primera</t>
         </is>
       </c>
       <c r="J1360" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="K1360" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="L1360" t="n">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="M1360" t="n">
-        <v>2500</v>
+        <v>2104</v>
       </c>
       <c r="N1360" t="inlineStr">
         <is>
@@ -98299,7 +98299,7 @@
         </is>
       </c>
       <c r="P1360" t="n">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="Q1360" t="n">
         <v>36</v>
@@ -98325,7 +98325,7 @@
         </is>
       </c>
       <c r="D1361" s="2" t="n">
-        <v>44160</v>
+        <v>44544</v>
       </c>
       <c r="E1361" t="n">
         <v>13</v>
@@ -98345,20 +98345,20 @@
       </c>
       <c r="I1361" t="inlineStr">
         <is>
-          <t>Primera</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="J1361" t="n">
-        <v>860</v>
+        <v>200</v>
       </c>
       <c r="K1361" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="L1361" t="n">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="M1361" t="n">
-        <v>2170</v>
+        <v>1800</v>
       </c>
       <c r="N1361" t="inlineStr">
         <is>
@@ -98367,11 +98367,11 @@
       </c>
       <c r="O1361" t="inlineStr">
         <is>
-          <t>Región Metropolitana</t>
+          <t>Provincia de Chacabuco</t>
         </is>
       </c>
       <c r="P1361" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="Q1361" t="n">
         <v>36</v>
@@ -98397,58 +98397,274 @@
         </is>
       </c>
       <c r="D1362" s="2" t="n">
+        <v>44544</v>
+      </c>
+      <c r="E1362" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1362" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1362" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1362" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1362" t="inlineStr">
+        <is>
+          <t>Segunda</t>
+        </is>
+      </c>
+      <c r="J1362" t="n">
+        <v>210</v>
+      </c>
+      <c r="K1362" t="n">
+        <v>1800</v>
+      </c>
+      <c r="L1362" t="n">
+        <v>1800</v>
+      </c>
+      <c r="M1362" t="n">
+        <v>1800</v>
+      </c>
+      <c r="N1362" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1362" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1362" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q1362" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1362" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1363" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1363" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1363" s="2" t="n">
         <v>44160</v>
       </c>
-      <c r="E1362" t="n">
-        <v>13</v>
-      </c>
-      <c r="F1362" t="n">
-        <v>100112037</v>
-      </c>
-      <c r="G1362" t="inlineStr">
-        <is>
-          <t>Cebollín</t>
-        </is>
-      </c>
-      <c r="H1362" t="inlineStr">
-        <is>
-          <t>Sin especificar</t>
-        </is>
-      </c>
-      <c r="I1362" t="inlineStr">
+      <c r="E1363" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1363" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1363" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1363" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1363" t="inlineStr">
+        <is>
+          <t>Extra</t>
+        </is>
+      </c>
+      <c r="J1363" t="n">
+        <v>250</v>
+      </c>
+      <c r="K1363" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L1363" t="n">
+        <v>2500</v>
+      </c>
+      <c r="M1363" t="n">
+        <v>2500</v>
+      </c>
+      <c r="N1363" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1363" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1363" t="n">
+        <v>69</v>
+      </c>
+      <c r="Q1363" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1363" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1364" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1364" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1364" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1364" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1364" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1364" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1364" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1364" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J1364" t="n">
+        <v>860</v>
+      </c>
+      <c r="K1364" t="n">
+        <v>2000</v>
+      </c>
+      <c r="L1364" t="n">
+        <v>2300</v>
+      </c>
+      <c r="M1364" t="n">
+        <v>2170</v>
+      </c>
+      <c r="N1364" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1364" t="inlineStr">
+        <is>
+          <t>Región Metropolitana</t>
+        </is>
+      </c>
+      <c r="P1364" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q1364" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1364" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="n">
+        <v>6</v>
+      </c>
+      <c r="B1365" t="inlineStr">
+        <is>
+          <t>Mercado Mayorista Lo Valledor de Santiago</t>
+        </is>
+      </c>
+      <c r="C1365" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D1365" s="2" t="n">
+        <v>44160</v>
+      </c>
+      <c r="E1365" t="n">
+        <v>13</v>
+      </c>
+      <c r="F1365" t="n">
+        <v>100112037</v>
+      </c>
+      <c r="G1365" t="inlineStr">
+        <is>
+          <t>Cebollín</t>
+        </is>
+      </c>
+      <c r="H1365" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I1365" t="inlineStr">
         <is>
           <t>Segunda</t>
         </is>
       </c>
-      <c r="J1362" t="n">
+      <c r="J1365" t="n">
         <v>470</v>
       </c>
-      <c r="K1362" t="n">
+      <c r="K1365" t="n">
         <v>1700</v>
       </c>
-      <c r="L1362" t="n">
+      <c r="L1365" t="n">
         <v>2000</v>
       </c>
-      <c r="M1362" t="n">
+      <c r="M1365" t="n">
         <v>1840</v>
       </c>
-      <c r="N1362" t="inlineStr">
-        <is>
-          <t>$/paquete 36 unidades</t>
-        </is>
-      </c>
-      <c r="O1362" t="inlineStr">
+      <c r="N1365" t="inlineStr">
+        <is>
+          <t>$/paquete 36 unidades</t>
+        </is>
+      </c>
+      <c r="O1365" t="inlineStr">
         <is>
           <t>Región Metropolitana</t>
         </is>
       </c>
-      <c r="P1362" t="n">
+      <c r="P1365" t="n">
         <v>51</v>
       </c>
-      <c r="Q1362" t="n">
-        <v>36</v>
-      </c>
-      <c r="R1362" t="inlineStr">
+      <c r="Q1365" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1365" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>
